--- a/ipcim.xlsx
+++ b/ipcim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bela\Git\halozatProjektek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732C9DF5-BCF8-4A4E-A2F4-F296B940C67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B214DE9A-12AF-494D-956E-4BF6CEC33A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C8323FA4-6CC7-40F6-BE4B-AB2032EB79E9}"/>
+    <workbookView xWindow="-28920" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C8323FA4-6CC7-40F6-BE4B-AB2032EB79E9}"/>
   </bookViews>
   <sheets>
     <sheet name="IP Cím igény" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="113">
   <si>
     <t>/26</t>
   </si>
@@ -85,18 +85,6 @@
     <t>szórási cím</t>
   </si>
   <si>
-    <t>PC1</t>
-  </si>
-  <si>
-    <t>PC2</t>
-  </si>
-  <si>
-    <t>PC3</t>
-  </si>
-  <si>
-    <t>FTP server</t>
-  </si>
-  <si>
     <t>PC0</t>
   </si>
   <si>
@@ -176,6 +164,216 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Gig 0/0</t>
+  </si>
+  <si>
+    <t>Gig 8/0</t>
+  </si>
+  <si>
+    <t>Gig 6/0</t>
+  </si>
+  <si>
+    <t>FTP szerver</t>
+  </si>
+  <si>
+    <t>SW-tisza-1</t>
+  </si>
+  <si>
+    <t>SW-tisza-2</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC1</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC2</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC3</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC4</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC5</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC6</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC7</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC8</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC9</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC10</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC11</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC12</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC13</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC14</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC15</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC16</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC17</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC18</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC19</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC20</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC21</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC22</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC23</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC24</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC25</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC26</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC27</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC28</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC29</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC30</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC31</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC32</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC33</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC34</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC35</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC36</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC37</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC38</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC39</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC40</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC41</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC42</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC43</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC44</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC45</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC46</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC47</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC48</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC49</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC50</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC51</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC52</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC53</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC54</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC55</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC56</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC57</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC58</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC59</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC60</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC61</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-PC62</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-Printer1</t>
+  </si>
+  <si>
+    <t>TISZASZIGET-Printer2</t>
   </si>
 </sst>
 </file>
@@ -377,14 +575,31 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
@@ -395,28 +610,11 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE611228-1758-41E4-B155-B304EF4AAA5B}">
   <dimension ref="A1:R257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="R210" sqref="R210"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N256" sqref="N256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,6015 +1368,6192 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2" s="8">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="33" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>38</v>
+      <c r="M2" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L3" s="14">
         <v>1</v>
       </c>
-      <c r="M3" s="15"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="14"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="9" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L4" s="14">
         <v>2</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="14"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="9"/>
       <c r="K5" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L5" s="14">
         <v>3</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="14"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="9"/>
       <c r="K6" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L6" s="14">
         <v>4</v>
       </c>
-      <c r="M6" s="15"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="9"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="K7" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L7" s="14">
         <v>5</v>
       </c>
-      <c r="M7" s="15"/>
+      <c r="M7" s="32"/>
       <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" s="8">
         <v>6</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="9"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="K8" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L8" s="14">
         <v>6</v>
       </c>
-      <c r="M8" s="15"/>
+      <c r="M8" s="32"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8">
         <v>7</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="9"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="K9" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L9" s="14">
         <v>7</v>
       </c>
-      <c r="M9" s="15"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="8">
         <v>8</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="9"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="K10" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L10" s="14">
         <v>8</v>
       </c>
-      <c r="M10" s="15"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11" s="8">
         <v>9</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="9"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="K11" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L11" s="14">
         <v>9</v>
       </c>
-      <c r="M11" s="15"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" s="8">
         <v>10</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="9"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="K12" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L12" s="14">
         <v>10</v>
       </c>
-      <c r="M12" s="15"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8">
         <v>11</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="9"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="K13" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L13" s="14">
         <v>11</v>
       </c>
-      <c r="M13" s="15"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B14" s="8">
         <v>12</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="9"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="K14" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L14" s="14">
         <v>12</v>
       </c>
-      <c r="M14" s="15"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8">
         <v>13</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="9"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="K15" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L15" s="14">
         <v>13</v>
       </c>
-      <c r="M15" s="15"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="8">
         <v>14</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="9"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="K16" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L16" s="14">
         <v>14</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="M16" s="32"/>
+      <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B17" s="8">
         <v>15</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="9"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="K17" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L17" s="14">
         <v>15</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="M17" s="32"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B18" s="8">
         <v>16</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="9"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="K18" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L18" s="14">
         <v>16</v>
       </c>
-      <c r="M18" s="15"/>
+      <c r="M18" s="32"/>
       <c r="N18" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B19" s="8">
         <v>17</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="9"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="K19" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L19" s="14">
         <v>17</v>
       </c>
-      <c r="M19" s="15"/>
+      <c r="M19" s="32"/>
       <c r="N19" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B20" s="8">
         <v>18</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="9"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="K20" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L20" s="14">
         <v>18</v>
       </c>
-      <c r="M20" s="15"/>
+      <c r="M20" s="32"/>
       <c r="N20" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B21" s="8">
         <v>19</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="9"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="K21" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L21" s="14">
         <v>19</v>
       </c>
-      <c r="M21" s="15"/>
+      <c r="M21" s="32"/>
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22" s="8">
         <v>20</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="9"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="K22" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L22" s="14">
         <v>20</v>
       </c>
-      <c r="M22" s="15"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8">
         <v>21</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="9"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="K23" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L23" s="14">
         <v>21</v>
       </c>
-      <c r="M23" s="15"/>
+      <c r="M23" s="32"/>
       <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8">
         <v>22</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="9"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="K24" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L24" s="14">
         <v>22</v>
       </c>
-      <c r="M24" s="15"/>
+      <c r="M24" s="32"/>
       <c r="N24" s="14"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B25" s="8">
         <v>23</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="9"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K25" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L25" s="14">
         <v>23</v>
       </c>
-      <c r="M25" s="15"/>
+      <c r="M25" s="32"/>
       <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B26" s="8">
         <v>24</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="9"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="K26" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L26" s="14">
         <v>24</v>
       </c>
-      <c r="M26" s="15"/>
+      <c r="M26" s="32"/>
       <c r="N26" s="14"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27" s="8">
         <v>25</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="9"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="K27" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L27" s="14">
         <v>25</v>
       </c>
-      <c r="M27" s="15"/>
+      <c r="M27" s="32"/>
       <c r="N27" s="14"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28" s="8">
         <v>26</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="9"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="K28" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L28" s="14">
         <v>26</v>
       </c>
-      <c r="M28" s="15"/>
+      <c r="M28" s="32"/>
       <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B29" s="8">
         <v>27</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="9"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="K29" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L29" s="14">
         <v>27</v>
       </c>
-      <c r="M29" s="15"/>
+      <c r="M29" s="32"/>
       <c r="N29" s="14"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B30" s="8">
         <v>28</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="9"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="K30" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L30" s="14">
         <v>28</v>
       </c>
-      <c r="M30" s="15"/>
+      <c r="M30" s="32"/>
       <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B31" s="8">
         <v>29</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="9"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="K31" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L31" s="14">
         <v>29</v>
       </c>
-      <c r="M31" s="15"/>
+      <c r="M31" s="32"/>
       <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B32" s="8">
         <v>30</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="9"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="K32" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L32" s="14">
         <v>30</v>
       </c>
-      <c r="M32" s="15"/>
+      <c r="M32" s="32"/>
       <c r="N32" s="14"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B33" s="8">
         <v>31</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="9"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="K33" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L33" s="14">
         <v>31</v>
       </c>
-      <c r="M33" s="15"/>
+      <c r="M33" s="32"/>
       <c r="N33" s="14"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B34" s="8">
         <v>32</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="9"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="K34" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L34" s="14">
         <v>32</v>
       </c>
-      <c r="M34" s="15"/>
+      <c r="M34" s="32"/>
       <c r="N34" s="14"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B35" s="8">
         <v>33</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="9"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="K35" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L35" s="14">
         <v>33</v>
       </c>
-      <c r="M35" s="15"/>
+      <c r="M35" s="32"/>
       <c r="N35" s="14"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B36" s="8">
         <v>34</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="9"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="K36" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L36" s="14">
         <v>34</v>
       </c>
-      <c r="M36" s="15"/>
+      <c r="M36" s="32"/>
       <c r="N36" s="14"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B37" s="8">
         <v>35</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="9"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="K37" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L37" s="14">
         <v>35</v>
       </c>
-      <c r="M37" s="15"/>
+      <c r="M37" s="32"/>
       <c r="N37" s="14"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B38" s="8">
         <v>36</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="9"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="K38" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L38" s="14">
         <v>36</v>
       </c>
-      <c r="M38" s="15"/>
+      <c r="M38" s="32"/>
       <c r="N38" s="14"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B39" s="8">
         <v>37</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="9"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="K39" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L39" s="14">
         <v>37</v>
       </c>
-      <c r="M39" s="15"/>
+      <c r="M39" s="32"/>
       <c r="N39" s="14"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B40" s="8">
         <v>38</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="9"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="K40" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L40" s="14">
         <v>38</v>
       </c>
-      <c r="M40" s="15"/>
+      <c r="M40" s="32"/>
       <c r="N40" s="14"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B41" s="8">
         <v>39</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="9"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="K41" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L41" s="14">
         <v>39</v>
       </c>
-      <c r="M41" s="15"/>
+      <c r="M41" s="32"/>
       <c r="N41" s="14"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B42" s="8">
         <v>40</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="9"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="9" t="s">
+        <v>82</v>
+      </c>
       <c r="K42" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L42" s="14">
         <v>40</v>
       </c>
-      <c r="M42" s="15"/>
+      <c r="M42" s="32"/>
       <c r="N42" s="14"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B43" s="8">
         <v>41</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="9"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="K43" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L43" s="14">
         <v>41</v>
       </c>
-      <c r="M43" s="15"/>
+      <c r="M43" s="32"/>
       <c r="N43" s="14"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B44" s="8">
         <v>42</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="9"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="K44" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L44" s="14">
         <v>42</v>
       </c>
-      <c r="M44" s="15"/>
+      <c r="M44" s="32"/>
       <c r="N44" s="14"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B45" s="8">
         <v>43</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="9"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="K45" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L45" s="14">
         <v>43</v>
       </c>
-      <c r="M45" s="15"/>
+      <c r="M45" s="32"/>
       <c r="N45" s="14"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B46" s="8">
         <v>44</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="9"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="K46" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L46" s="14">
         <v>44</v>
       </c>
-      <c r="M46" s="15"/>
+      <c r="M46" s="32"/>
       <c r="N46" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B47" s="8">
         <v>45</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="9"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="K47" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L47" s="14">
         <v>45</v>
       </c>
-      <c r="M47" s="15"/>
+      <c r="M47" s="32"/>
       <c r="N47" s="14"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B48" s="8">
         <v>46</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="9"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="K48" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L48" s="14">
         <v>46</v>
       </c>
-      <c r="M48" s="15"/>
+      <c r="M48" s="32"/>
       <c r="N48" s="14"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B49" s="8">
         <v>47</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="9"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="K49" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L49" s="14">
         <v>47</v>
       </c>
-      <c r="M49" s="15"/>
+      <c r="M49" s="32"/>
       <c r="N49" s="14"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B50" s="8">
         <v>48</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="9"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="K50" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L50" s="14">
         <v>48</v>
       </c>
-      <c r="M50" s="15"/>
+      <c r="M50" s="32"/>
       <c r="N50" s="14"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B51" s="8">
         <v>49</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="9"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="K51" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L51" s="14">
         <v>49</v>
       </c>
-      <c r="M51" s="15"/>
+      <c r="M51" s="32"/>
       <c r="N51" s="14"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B52" s="8">
         <v>50</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="9"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="K52" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L52" s="14">
         <v>50</v>
       </c>
-      <c r="M52" s="15"/>
+      <c r="M52" s="32"/>
       <c r="N52" s="14"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B53" s="8">
         <v>51</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="9"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="K53" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L53" s="14">
         <v>51</v>
       </c>
-      <c r="M53" s="15"/>
+      <c r="M53" s="32"/>
       <c r="N53" s="14"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B54" s="8">
         <v>52</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="9"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="K54" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L54" s="14">
         <v>52</v>
       </c>
-      <c r="M54" s="15"/>
+      <c r="M54" s="32"/>
       <c r="N54" s="14"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B55" s="8">
         <v>53</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="9"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="K55" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L55" s="14">
         <v>53</v>
       </c>
-      <c r="M55" s="15"/>
+      <c r="M55" s="32"/>
       <c r="N55" s="14"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B56" s="8">
         <v>54</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="9"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="K56" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L56" s="14">
         <v>54</v>
       </c>
-      <c r="M56" s="15"/>
+      <c r="M56" s="32"/>
       <c r="N56" s="14"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B57" s="8">
         <v>55</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="9"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="K57" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L57" s="14">
         <v>55</v>
       </c>
-      <c r="M57" s="15"/>
+      <c r="M57" s="32"/>
       <c r="N57" s="14"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B58" s="8">
         <v>56</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="9"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="K58" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L58" s="14">
         <v>56</v>
       </c>
-      <c r="M58" s="15"/>
+      <c r="M58" s="32"/>
       <c r="N58" s="14"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B59" s="8">
         <v>57</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="9"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="K59" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L59" s="14">
         <v>57</v>
       </c>
-      <c r="M59" s="15"/>
+      <c r="M59" s="32"/>
       <c r="N59" s="14"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B60" s="8">
         <v>58</v>
       </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="9"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="K60" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L60" s="14">
         <v>58</v>
       </c>
-      <c r="M60" s="15"/>
+      <c r="M60" s="32"/>
       <c r="N60" s="14"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B61" s="8">
         <v>59</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="9"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="K61" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L61" s="14">
         <v>59</v>
       </c>
-      <c r="M61" s="15"/>
+      <c r="M61" s="32"/>
       <c r="N61" s="14"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B62" s="8">
         <v>60</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="9"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="K62" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L62" s="14">
         <v>60</v>
       </c>
-      <c r="M62" s="15"/>
+      <c r="M62" s="32"/>
       <c r="N62" s="14"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B63" s="8">
         <v>61</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="9"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="K63" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L63" s="14">
         <v>61</v>
       </c>
-      <c r="M63" s="15"/>
+      <c r="M63" s="32"/>
       <c r="N63" s="14"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B64" s="8">
         <v>62</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="9"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="K64" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L64" s="14">
         <v>62</v>
       </c>
-      <c r="M64" s="15"/>
+      <c r="M64" s="32"/>
       <c r="N64" s="14"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B65" s="8">
         <v>63</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="9"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="K65" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L65" s="14">
         <v>63</v>
       </c>
-      <c r="M65" s="15"/>
+      <c r="M65" s="32"/>
       <c r="N65" s="14"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B66" s="8">
         <v>64</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="9"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="K66" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L66" s="14">
         <v>64</v>
       </c>
-      <c r="M66" s="15"/>
+      <c r="M66" s="32"/>
       <c r="N66" s="14"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B67" s="8">
         <v>65</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="9"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="K67" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L67" s="14">
         <v>65</v>
       </c>
-      <c r="M67" s="15"/>
+      <c r="M67" s="32"/>
       <c r="N67" s="14"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B68" s="8">
         <v>66</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="9"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="K68" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L68" s="14">
         <v>66</v>
       </c>
-      <c r="M68" s="15"/>
+      <c r="M68" s="32"/>
       <c r="N68" s="14"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B69" s="8">
         <v>67</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="9"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="K69" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L69" s="14">
         <v>67</v>
       </c>
-      <c r="M69" s="15"/>
+      <c r="M69" s="32"/>
       <c r="N69" s="14"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B70" s="8">
         <v>68</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="9"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="K70" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L70" s="14">
         <v>68</v>
       </c>
-      <c r="M70" s="15"/>
+      <c r="M70" s="32"/>
       <c r="N70" s="14"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B71" s="8">
         <v>69</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="9"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="K71" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L71" s="14">
         <v>69</v>
       </c>
-      <c r="M71" s="15"/>
+      <c r="M71" s="32"/>
       <c r="N71" s="14"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B72" s="8">
         <v>70</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="9"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="K72" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L72" s="14">
         <v>70</v>
       </c>
-      <c r="M72" s="15"/>
+      <c r="M72" s="32"/>
       <c r="N72" s="14"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B73" s="8">
         <v>71</v>
       </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="17"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="33"/>
       <c r="I73" s="9"/>
       <c r="K73" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L73" s="14">
         <v>71</v>
       </c>
-      <c r="M73" s="15"/>
+      <c r="M73" s="32"/>
       <c r="N73" s="14"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B74" s="8">
         <v>72</v>
       </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="17"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="33"/>
       <c r="I74" s="9"/>
       <c r="K74" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L74" s="14">
         <v>72</v>
       </c>
-      <c r="M74" s="15"/>
+      <c r="M74" s="32"/>
       <c r="N74" s="14"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B75" s="8">
         <v>73</v>
       </c>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="17"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="33"/>
       <c r="I75" s="9"/>
       <c r="K75" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L75" s="14">
         <v>73</v>
       </c>
-      <c r="M75" s="15"/>
+      <c r="M75" s="32"/>
       <c r="N75" s="14"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B76" s="8">
         <v>74</v>
       </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="17"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="33"/>
       <c r="I76" s="9"/>
       <c r="K76" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L76" s="14">
         <v>74</v>
       </c>
-      <c r="M76" s="15"/>
+      <c r="M76" s="32"/>
       <c r="N76" s="14"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B77" s="8">
         <v>75</v>
       </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="17"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="33"/>
       <c r="I77" s="9"/>
       <c r="K77" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L77" s="14">
         <v>75</v>
       </c>
-      <c r="M77" s="15"/>
+      <c r="M77" s="32"/>
       <c r="N77" s="14"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B78" s="8">
         <v>76</v>
       </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="17"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="33"/>
       <c r="I78" s="9"/>
       <c r="K78" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L78" s="14">
         <v>76</v>
       </c>
-      <c r="M78" s="15"/>
+      <c r="M78" s="32"/>
       <c r="N78" s="14"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B79" s="8">
         <v>77</v>
       </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="17"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="33"/>
       <c r="I79" s="9"/>
       <c r="K79" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L79" s="14">
         <v>77</v>
       </c>
-      <c r="M79" s="15"/>
+      <c r="M79" s="32"/>
       <c r="N79" s="14"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B80" s="8">
         <v>78</v>
       </c>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="17"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="33"/>
       <c r="I80" s="9"/>
       <c r="K80" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L80" s="14">
         <v>78</v>
       </c>
-      <c r="M80" s="15"/>
+      <c r="M80" s="32"/>
       <c r="N80" s="14"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B81" s="8">
         <v>79</v>
       </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="17"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="33"/>
       <c r="I81" s="9"/>
       <c r="K81" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L81" s="14">
         <v>79</v>
       </c>
-      <c r="M81" s="15"/>
+      <c r="M81" s="32"/>
       <c r="N81" s="14"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B82" s="8">
         <v>80</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="17"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="33"/>
       <c r="I82" s="9"/>
       <c r="K82" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L82" s="14">
         <v>80</v>
       </c>
-      <c r="M82" s="15"/>
+      <c r="M82" s="32"/>
       <c r="N82" s="14"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B83" s="8">
         <v>81</v>
       </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="17"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="33"/>
       <c r="I83" s="9"/>
       <c r="K83" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L83" s="14">
         <v>81</v>
       </c>
-      <c r="M83" s="15"/>
+      <c r="M83" s="32"/>
       <c r="N83" s="14"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B84" s="8">
         <v>82</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="17"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="33"/>
       <c r="I84" s="9"/>
       <c r="K84" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L84" s="14">
         <v>82</v>
       </c>
-      <c r="M84" s="15"/>
+      <c r="M84" s="32"/>
       <c r="N84" s="14"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B85" s="8">
         <v>83</v>
       </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="17"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="33"/>
       <c r="I85" s="9"/>
       <c r="K85" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L85" s="14">
         <v>83</v>
       </c>
-      <c r="M85" s="15"/>
+      <c r="M85" s="32"/>
       <c r="N85" s="14"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B86" s="8">
         <v>84</v>
       </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="17"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="33"/>
       <c r="I86" s="9"/>
       <c r="K86" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L86" s="14">
         <v>84</v>
       </c>
-      <c r="M86" s="15"/>
+      <c r="M86" s="32"/>
       <c r="N86" s="14"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B87" s="8">
         <v>85</v>
       </c>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="17"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="33"/>
       <c r="I87" s="9"/>
       <c r="K87" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L87" s="14">
         <v>85</v>
       </c>
-      <c r="M87" s="15"/>
+      <c r="M87" s="32"/>
       <c r="N87" s="14"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B88" s="8">
         <v>86</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="17"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="33"/>
       <c r="I88" s="9"/>
       <c r="K88" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L88" s="14">
         <v>86</v>
       </c>
-      <c r="M88" s="15"/>
+      <c r="M88" s="32"/>
       <c r="N88" s="14"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B89" s="8">
         <v>87</v>
       </c>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="17"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="33"/>
       <c r="I89" s="9"/>
       <c r="K89" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L89" s="14">
         <v>87</v>
       </c>
-      <c r="M89" s="15"/>
+      <c r="M89" s="32"/>
       <c r="N89" s="14"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B90" s="8">
         <v>88</v>
       </c>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="17"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="33"/>
       <c r="I90" s="9"/>
       <c r="K90" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L90" s="14">
         <v>88</v>
       </c>
-      <c r="M90" s="15"/>
+      <c r="M90" s="32"/>
       <c r="N90" s="14"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B91" s="8">
         <v>89</v>
       </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="17"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="33"/>
       <c r="I91" s="9"/>
       <c r="K91" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L91" s="14">
         <v>89</v>
       </c>
-      <c r="M91" s="15"/>
+      <c r="M91" s="32"/>
       <c r="N91" s="14"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B92" s="8">
         <v>90</v>
       </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="17"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="33"/>
       <c r="I92" s="9"/>
       <c r="K92" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L92" s="14">
         <v>90</v>
       </c>
-      <c r="M92" s="15"/>
+      <c r="M92" s="32"/>
       <c r="N92" s="14"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B93" s="8">
         <v>91</v>
       </c>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="17"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="33"/>
       <c r="I93" s="9"/>
       <c r="K93" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L93" s="14">
         <v>91</v>
       </c>
-      <c r="M93" s="15"/>
+      <c r="M93" s="32"/>
       <c r="N93" s="14"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B94" s="8">
         <v>92</v>
       </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="17"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="33"/>
       <c r="I94" s="9"/>
       <c r="K94" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L94" s="14">
         <v>92</v>
       </c>
-      <c r="M94" s="15"/>
+      <c r="M94" s="32"/>
       <c r="N94" s="14"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B95" s="8">
         <v>93</v>
       </c>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="17"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="33"/>
       <c r="I95" s="9"/>
       <c r="K95" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L95" s="14">
         <v>93</v>
       </c>
-      <c r="M95" s="15"/>
+      <c r="M95" s="32"/>
       <c r="N95" s="14"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B96" s="8">
         <v>94</v>
       </c>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="17"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="33"/>
       <c r="I96" s="9"/>
       <c r="K96" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L96" s="14">
         <v>94</v>
       </c>
-      <c r="M96" s="15"/>
+      <c r="M96" s="32"/>
       <c r="N96" s="14"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B97" s="8">
         <v>95</v>
       </c>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="17"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="33"/>
       <c r="I97" s="9"/>
       <c r="K97" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L97" s="14">
         <v>95</v>
       </c>
-      <c r="M97" s="15"/>
+      <c r="M97" s="32"/>
       <c r="N97" s="14"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B98" s="8">
         <v>96</v>
       </c>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="17"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="33"/>
       <c r="I98" s="9"/>
       <c r="K98" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L98" s="14">
         <v>96</v>
       </c>
-      <c r="M98" s="15"/>
+      <c r="M98" s="32"/>
       <c r="N98" s="14"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B99" s="8">
         <v>97</v>
       </c>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="17"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="33"/>
       <c r="I99" s="9"/>
       <c r="K99" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L99" s="14">
         <v>97</v>
       </c>
-      <c r="M99" s="15"/>
+      <c r="M99" s="32"/>
       <c r="N99" s="14"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B100" s="8">
         <v>98</v>
       </c>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="17"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="33"/>
       <c r="I100" s="9"/>
       <c r="K100" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L100" s="14">
         <v>98</v>
       </c>
-      <c r="M100" s="15"/>
+      <c r="M100" s="32"/>
       <c r="N100" s="14"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B101" s="8">
         <v>99</v>
       </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="17"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="33"/>
       <c r="I101" s="9"/>
       <c r="K101" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L101" s="14">
         <v>99</v>
       </c>
-      <c r="M101" s="15"/>
+      <c r="M101" s="32"/>
       <c r="N101" s="14"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B102" s="8">
         <v>100</v>
       </c>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="17"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="33"/>
       <c r="I102" s="9"/>
       <c r="K102" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L102" s="14">
         <v>100</v>
       </c>
-      <c r="M102" s="15"/>
+      <c r="M102" s="32"/>
       <c r="N102" s="14"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B103" s="8">
         <v>101</v>
       </c>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="17"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="33"/>
       <c r="I103" s="9"/>
       <c r="K103" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L103" s="14">
         <v>101</v>
       </c>
-      <c r="M103" s="15"/>
+      <c r="M103" s="32"/>
       <c r="N103" s="14"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B104" s="8">
         <v>102</v>
       </c>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="17"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="33"/>
       <c r="I104" s="9"/>
       <c r="K104" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L104" s="14">
         <v>102</v>
       </c>
-      <c r="M104" s="15"/>
+      <c r="M104" s="32"/>
       <c r="N104" s="14"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B105" s="8">
         <v>103</v>
       </c>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="17"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="33"/>
       <c r="I105" s="9"/>
       <c r="K105" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L105" s="14">
         <v>103</v>
       </c>
-      <c r="M105" s="15"/>
+      <c r="M105" s="32"/>
       <c r="N105" s="14"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B106" s="8">
         <v>104</v>
       </c>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="17"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="33"/>
       <c r="I106" s="9"/>
       <c r="K106" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L106" s="14">
         <v>104</v>
       </c>
-      <c r="M106" s="15"/>
+      <c r="M106" s="32"/>
       <c r="N106" s="14"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B107" s="8">
         <v>105</v>
       </c>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="17"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="33"/>
       <c r="I107" s="9"/>
       <c r="K107" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L107" s="14">
         <v>105</v>
       </c>
-      <c r="M107" s="15"/>
+      <c r="M107" s="32"/>
       <c r="N107" s="14"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B108" s="8">
         <v>106</v>
       </c>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="17"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="33"/>
       <c r="I108" s="9"/>
       <c r="K108" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L108" s="14">
         <v>106</v>
       </c>
-      <c r="M108" s="15"/>
+      <c r="M108" s="32"/>
       <c r="N108" s="14"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B109" s="8">
         <v>107</v>
       </c>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="17"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="33"/>
       <c r="I109" s="9"/>
       <c r="K109" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L109" s="14">
         <v>107</v>
       </c>
-      <c r="M109" s="15"/>
+      <c r="M109" s="32"/>
       <c r="N109" s="14"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B110" s="8">
         <v>108</v>
       </c>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="17"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="33"/>
       <c r="I110" s="9"/>
       <c r="K110" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L110" s="14">
         <v>108</v>
       </c>
-      <c r="M110" s="15"/>
+      <c r="M110" s="32"/>
       <c r="N110" s="14"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B111" s="8">
         <v>109</v>
       </c>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="17"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="33"/>
       <c r="I111" s="9"/>
       <c r="K111" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L111" s="14">
         <v>109</v>
       </c>
-      <c r="M111" s="15"/>
+      <c r="M111" s="32"/>
       <c r="N111" s="14"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B112" s="8">
         <v>110</v>
       </c>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="17"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="33"/>
       <c r="I112" s="9"/>
       <c r="K112" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L112" s="14">
         <v>110</v>
       </c>
-      <c r="M112" s="15"/>
+      <c r="M112" s="32"/>
       <c r="N112" s="14"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B113" s="8">
         <v>111</v>
       </c>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="17"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="33"/>
       <c r="I113" s="9"/>
       <c r="K113" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L113" s="14">
         <v>111</v>
       </c>
-      <c r="M113" s="15"/>
+      <c r="M113" s="32"/>
       <c r="N113" s="14"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B114" s="8">
         <v>112</v>
       </c>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="17"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="33"/>
       <c r="I114" s="9"/>
       <c r="K114" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L114" s="14">
         <v>112</v>
       </c>
-      <c r="M114" s="15"/>
+      <c r="M114" s="32"/>
       <c r="N114" s="14"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B115" s="8">
         <v>113</v>
       </c>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="17"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="33"/>
       <c r="I115" s="9"/>
       <c r="K115" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L115" s="14">
         <v>113</v>
       </c>
-      <c r="M115" s="15"/>
+      <c r="M115" s="32"/>
       <c r="N115" s="14"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B116" s="8">
         <v>114</v>
       </c>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="17"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="33"/>
       <c r="I116" s="9"/>
       <c r="K116" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L116" s="14">
         <v>114</v>
       </c>
-      <c r="M116" s="15"/>
+      <c r="M116" s="32"/>
       <c r="N116" s="14"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B117" s="8">
         <v>115</v>
       </c>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="17"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="33"/>
       <c r="I117" s="9"/>
       <c r="K117" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L117" s="14">
         <v>115</v>
       </c>
-      <c r="M117" s="15"/>
+      <c r="M117" s="32"/>
       <c r="N117" s="14"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B118" s="8">
         <v>116</v>
       </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="17"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="33"/>
       <c r="I118" s="9"/>
       <c r="K118" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L118" s="14">
         <v>116</v>
       </c>
-      <c r="M118" s="15"/>
+      <c r="M118" s="32"/>
       <c r="N118" s="14"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B119" s="8">
         <v>117</v>
       </c>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="17"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="33"/>
       <c r="I119" s="9"/>
       <c r="K119" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L119" s="14">
         <v>117</v>
       </c>
-      <c r="M119" s="15"/>
+      <c r="M119" s="32"/>
       <c r="N119" s="14"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B120" s="8">
         <v>118</v>
       </c>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="17"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="33"/>
       <c r="I120" s="9"/>
       <c r="K120" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L120" s="14">
         <v>118</v>
       </c>
-      <c r="M120" s="15"/>
+      <c r="M120" s="32"/>
       <c r="N120" s="14"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B121" s="8">
         <v>119</v>
       </c>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="17"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="33"/>
       <c r="I121" s="9"/>
       <c r="K121" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L121" s="14">
         <v>119</v>
       </c>
-      <c r="M121" s="15"/>
+      <c r="M121" s="32"/>
       <c r="N121" s="14"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B122" s="8">
         <v>120</v>
       </c>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="17"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="33"/>
       <c r="I122" s="9"/>
       <c r="K122" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L122" s="14">
         <v>120</v>
       </c>
-      <c r="M122" s="15"/>
+      <c r="M122" s="32"/>
       <c r="N122" s="14"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B123" s="8">
         <v>121</v>
       </c>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="17"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="33"/>
       <c r="I123" s="9"/>
       <c r="K123" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L123" s="14">
         <v>121</v>
       </c>
-      <c r="M123" s="15"/>
+      <c r="M123" s="32"/>
       <c r="N123" s="14"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B124" s="8">
         <v>122</v>
       </c>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="17"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="33"/>
       <c r="I124" s="9"/>
       <c r="K124" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L124" s="14">
         <v>122</v>
       </c>
-      <c r="M124" s="15"/>
+      <c r="M124" s="32"/>
       <c r="N124" s="14"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B125" s="8">
         <v>123</v>
       </c>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="17"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="33"/>
       <c r="I125" s="9"/>
       <c r="K125" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L125" s="14">
         <v>123</v>
       </c>
-      <c r="M125" s="15"/>
+      <c r="M125" s="32"/>
       <c r="N125" s="14"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B126" s="8">
         <v>124</v>
       </c>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="17"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="33"/>
       <c r="I126" s="9"/>
       <c r="K126" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L126" s="14">
         <v>124</v>
       </c>
-      <c r="M126" s="15"/>
+      <c r="M126" s="32"/>
       <c r="N126" s="14"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B127" s="8">
         <v>125</v>
       </c>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="17"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="33"/>
       <c r="I127" s="9"/>
       <c r="K127" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L127" s="14">
         <v>125</v>
       </c>
-      <c r="M127" s="15"/>
+      <c r="M127" s="32"/>
       <c r="N127" s="14"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B128" s="8">
         <v>126</v>
       </c>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="17"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="33"/>
       <c r="I128" s="9"/>
       <c r="K128" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L128" s="14">
         <v>126</v>
       </c>
-      <c r="M128" s="15"/>
+      <c r="M128" s="32"/>
       <c r="N128" s="14"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B129" s="8">
         <v>127</v>
       </c>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="16"/>
-      <c r="H129" s="17"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="33"/>
       <c r="I129" s="9" t="s">
         <v>15</v>
       </c>
       <c r="K129" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L129" s="14">
         <v>127</v>
       </c>
-      <c r="M129" s="15"/>
+      <c r="M129" s="32"/>
       <c r="N129" s="14"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B130" s="10">
         <v>128</v>
       </c>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="18" t="s">
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
+      <c r="G130" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H130" s="16"/>
+      <c r="H130" s="24"/>
       <c r="I130" s="11" t="s">
         <v>14</v>
       </c>
       <c r="K130" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L130" s="14">
         <v>128</v>
       </c>
-      <c r="M130" s="15"/>
+      <c r="M130" s="32"/>
       <c r="N130" s="14"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B131" s="10">
         <v>129</v>
       </c>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16"/>
-      <c r="F131" s="16"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="16"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="24"/>
       <c r="I131" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K131" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L131" s="14">
         <v>129</v>
       </c>
-      <c r="M131" s="15"/>
+      <c r="M131" s="32"/>
       <c r="N131" s="14"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B132" s="10">
         <v>130</v>
       </c>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="16"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="24"/>
       <c r="I132" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K132" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L132" s="14">
         <v>130</v>
       </c>
-      <c r="M132" s="15"/>
+      <c r="M132" s="32"/>
       <c r="N132" s="14"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B133" s="10">
         <v>131</v>
       </c>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="18"/>
-      <c r="H133" s="16"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="24"/>
       <c r="I133" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K133" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L133" s="14">
         <v>131</v>
       </c>
-      <c r="M133" s="15"/>
+      <c r="M133" s="32"/>
       <c r="N133" s="14"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B134" s="10">
         <v>132</v>
       </c>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="16"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="24"/>
       <c r="I134" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K134" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L134" s="14">
         <v>132</v>
       </c>
-      <c r="M134" s="15"/>
+      <c r="M134" s="32"/>
       <c r="N134" s="14"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B135" s="10">
         <v>133</v>
       </c>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="16"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="24"/>
       <c r="I135" s="11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K135" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L135" s="14">
         <v>133</v>
       </c>
-      <c r="M135" s="15"/>
+      <c r="M135" s="32"/>
       <c r="N135" s="14"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B136" s="10">
         <v>134</v>
       </c>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="16"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="24"/>
       <c r="I136" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K136" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L136" s="14">
         <v>134</v>
       </c>
-      <c r="M136" s="15"/>
+      <c r="M136" s="32"/>
       <c r="N136" s="14"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B137" s="10">
         <v>135</v>
       </c>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="18"/>
-      <c r="H137" s="16"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="24"/>
       <c r="I137" s="11"/>
       <c r="K137" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L137" s="14">
         <v>135</v>
       </c>
-      <c r="M137" s="15"/>
+      <c r="M137" s="32"/>
       <c r="N137" s="14"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B138" s="10">
         <v>136</v>
       </c>
-      <c r="C138" s="16"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="16"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="24"/>
       <c r="I138" s="11"/>
       <c r="K138" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L138" s="14">
         <v>136</v>
       </c>
-      <c r="M138" s="15"/>
+      <c r="M138" s="32"/>
       <c r="N138" s="14"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B139" s="10">
         <v>137</v>
       </c>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="16"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="24"/>
       <c r="I139" s="11"/>
       <c r="K139" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L139" s="14">
         <v>137</v>
       </c>
-      <c r="M139" s="15"/>
+      <c r="M139" s="32"/>
       <c r="N139" s="14"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B140" s="10">
         <v>138</v>
       </c>
-      <c r="C140" s="16"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16"/>
-      <c r="F140" s="16"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="16"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="24"/>
       <c r="I140" s="11"/>
       <c r="K140" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L140" s="14">
         <v>138</v>
       </c>
-      <c r="M140" s="15"/>
+      <c r="M140" s="32"/>
       <c r="N140" s="14"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B141" s="10">
         <v>139</v>
       </c>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="16"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="16"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="24"/>
       <c r="I141" s="11"/>
       <c r="K141" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L141" s="14">
         <v>139</v>
       </c>
-      <c r="M141" s="15"/>
+      <c r="M141" s="32"/>
       <c r="N141" s="14"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B142" s="10">
         <v>140</v>
       </c>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="16"/>
-      <c r="F142" s="16"/>
-      <c r="G142" s="18"/>
-      <c r="H142" s="16"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="24"/>
       <c r="I142" s="11"/>
       <c r="K142" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L142" s="14">
         <v>140</v>
       </c>
-      <c r="M142" s="15"/>
+      <c r="M142" s="32"/>
       <c r="N142" s="14"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B143" s="10">
         <v>141</v>
       </c>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="16"/>
-      <c r="G143" s="18"/>
-      <c r="H143" s="16"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="24"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="24"/>
       <c r="I143" s="11"/>
       <c r="K143" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L143" s="14">
         <v>141</v>
       </c>
-      <c r="M143" s="15"/>
+      <c r="M143" s="32"/>
       <c r="N143" s="14"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B144" s="10">
         <v>142</v>
       </c>
-      <c r="C144" s="16"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="16"/>
-      <c r="F144" s="16"/>
-      <c r="G144" s="18"/>
-      <c r="H144" s="16"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="29"/>
+      <c r="H144" s="24"/>
       <c r="I144" s="11"/>
       <c r="K144" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L144" s="14">
         <v>142</v>
       </c>
-      <c r="M144" s="15"/>
+      <c r="M144" s="32"/>
       <c r="N144" s="14"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B145" s="10">
         <v>143</v>
       </c>
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="16"/>
-      <c r="G145" s="18"/>
-      <c r="H145" s="16"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="24"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="24"/>
       <c r="I145" s="11"/>
       <c r="K145" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L145" s="14">
         <v>143</v>
       </c>
-      <c r="M145" s="15"/>
+      <c r="M145" s="32"/>
       <c r="N145" s="14"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B146" s="10">
         <v>144</v>
       </c>
-      <c r="C146" s="16"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="16"/>
-      <c r="F146" s="16"/>
-      <c r="G146" s="18"/>
-      <c r="H146" s="16"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="24"/>
       <c r="I146" s="11"/>
       <c r="K146" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L146" s="14">
         <v>144</v>
       </c>
-      <c r="M146" s="15"/>
+      <c r="M146" s="32"/>
       <c r="N146" s="14"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B147" s="10">
         <v>145</v>
       </c>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16"/>
-      <c r="F147" s="16"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="16"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="24"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="24"/>
       <c r="I147" s="11"/>
       <c r="K147" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L147" s="14">
         <v>145</v>
       </c>
-      <c r="M147" s="15"/>
+      <c r="M147" s="32"/>
       <c r="N147" s="14"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B148" s="10">
         <v>146</v>
       </c>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16"/>
-      <c r="F148" s="16"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="16"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="24"/>
       <c r="I148" s="11"/>
       <c r="K148" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L148" s="14">
         <v>146</v>
       </c>
-      <c r="M148" s="15"/>
+      <c r="M148" s="32"/>
       <c r="N148" s="14"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B149" s="10">
         <v>147</v>
       </c>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="16"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="16"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="24"/>
+      <c r="G149" s="29"/>
+      <c r="H149" s="24"/>
       <c r="I149" s="11"/>
       <c r="K149" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L149" s="14">
         <v>147</v>
       </c>
-      <c r="M149" s="15"/>
+      <c r="M149" s="32"/>
       <c r="N149" s="14"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B150" s="10">
         <v>148</v>
       </c>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="16"/>
-      <c r="F150" s="16"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="16"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
+      <c r="G150" s="29"/>
+      <c r="H150" s="24"/>
       <c r="I150" s="11"/>
       <c r="K150" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L150" s="14">
         <v>148</v>
       </c>
-      <c r="M150" s="15"/>
+      <c r="M150" s="32"/>
       <c r="N150" s="14"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B151" s="10">
         <v>149</v>
       </c>
-      <c r="C151" s="16"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="16"/>
-      <c r="F151" s="16"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="16"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="24"/>
+      <c r="G151" s="29"/>
+      <c r="H151" s="24"/>
       <c r="I151" s="11"/>
       <c r="K151" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L151" s="14">
         <v>149</v>
       </c>
-      <c r="M151" s="15"/>
+      <c r="M151" s="32"/>
       <c r="N151" s="14"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B152" s="10">
         <v>150</v>
       </c>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="16"/>
-      <c r="F152" s="16"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="16"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="24"/>
+      <c r="F152" s="24"/>
+      <c r="G152" s="29"/>
+      <c r="H152" s="24"/>
       <c r="I152" s="11"/>
       <c r="K152" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L152" s="14">
         <v>150</v>
       </c>
-      <c r="M152" s="15"/>
+      <c r="M152" s="32"/>
       <c r="N152" s="14"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B153" s="10">
         <v>151</v>
       </c>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="16"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="29"/>
+      <c r="H153" s="24"/>
       <c r="I153" s="11"/>
       <c r="K153" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L153" s="14">
         <v>151</v>
       </c>
-      <c r="M153" s="15"/>
+      <c r="M153" s="32"/>
       <c r="N153" s="14"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B154" s="10">
         <v>152</v>
       </c>
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="16"/>
-      <c r="F154" s="16"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="16"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="24"/>
+      <c r="F154" s="24"/>
+      <c r="G154" s="29"/>
+      <c r="H154" s="24"/>
       <c r="I154" s="11"/>
       <c r="K154" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L154" s="14">
         <v>152</v>
       </c>
-      <c r="M154" s="15"/>
+      <c r="M154" s="32"/>
       <c r="N154" s="14"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B155" s="10">
         <v>153</v>
       </c>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="16"/>
-      <c r="G155" s="18"/>
-      <c r="H155" s="16"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="29"/>
+      <c r="H155" s="24"/>
       <c r="I155" s="11"/>
       <c r="K155" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L155" s="14">
         <v>153</v>
       </c>
-      <c r="M155" s="15"/>
+      <c r="M155" s="32"/>
       <c r="N155" s="14"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B156" s="10">
         <v>154</v>
       </c>
-      <c r="C156" s="16"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="16"/>
-      <c r="F156" s="16"/>
-      <c r="G156" s="18"/>
-      <c r="H156" s="16"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="29"/>
+      <c r="H156" s="24"/>
       <c r="I156" s="11"/>
       <c r="K156" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L156" s="14">
         <v>154</v>
       </c>
-      <c r="M156" s="15"/>
+      <c r="M156" s="32"/>
       <c r="N156" s="14"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B157" s="10">
         <v>155</v>
       </c>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="16"/>
-      <c r="F157" s="16"/>
-      <c r="G157" s="18"/>
-      <c r="H157" s="16"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="24"/>
+      <c r="F157" s="24"/>
+      <c r="G157" s="29"/>
+      <c r="H157" s="24"/>
       <c r="I157" s="11"/>
       <c r="K157" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L157" s="14">
         <v>155</v>
       </c>
-      <c r="M157" s="15"/>
+      <c r="M157" s="32"/>
       <c r="N157" s="14"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B158" s="10">
         <v>156</v>
       </c>
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="16"/>
-      <c r="F158" s="16"/>
-      <c r="G158" s="18"/>
-      <c r="H158" s="16"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="29"/>
+      <c r="H158" s="24"/>
       <c r="I158" s="11"/>
       <c r="K158" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L158" s="14">
         <v>156</v>
       </c>
-      <c r="M158" s="15"/>
+      <c r="M158" s="32"/>
       <c r="N158" s="14"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B159" s="10">
         <v>157</v>
       </c>
-      <c r="C159" s="16"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="16"/>
-      <c r="F159" s="16"/>
-      <c r="G159" s="18"/>
-      <c r="H159" s="16"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="24"/>
+      <c r="F159" s="24"/>
+      <c r="G159" s="29"/>
+      <c r="H159" s="24"/>
       <c r="I159" s="11"/>
       <c r="K159" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L159" s="14">
         <v>157</v>
       </c>
-      <c r="M159" s="15"/>
+      <c r="M159" s="32"/>
       <c r="N159" s="14"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B160" s="10">
         <v>158</v>
       </c>
-      <c r="C160" s="16"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="16"/>
-      <c r="F160" s="16"/>
-      <c r="G160" s="18"/>
-      <c r="H160" s="16"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="24"/>
+      <c r="G160" s="29"/>
+      <c r="H160" s="24"/>
       <c r="I160" s="11"/>
       <c r="K160" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L160" s="14">
         <v>158</v>
       </c>
-      <c r="M160" s="15"/>
+      <c r="M160" s="32"/>
       <c r="N160" s="14"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B161" s="10">
         <v>159</v>
       </c>
-      <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="18"/>
-      <c r="H161" s="16"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="29"/>
+      <c r="H161" s="24"/>
       <c r="I161" s="11"/>
       <c r="K161" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L161" s="14">
         <v>159</v>
       </c>
-      <c r="M161" s="15"/>
+      <c r="M161" s="32"/>
       <c r="N161" s="14"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B162" s="10">
         <v>160</v>
       </c>
-      <c r="C162" s="16"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="16"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="16"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="24"/>
+      <c r="G162" s="29"/>
+      <c r="H162" s="24"/>
       <c r="I162" s="11"/>
       <c r="K162" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L162" s="14">
         <v>160</v>
       </c>
-      <c r="M162" s="15"/>
+      <c r="M162" s="32"/>
       <c r="N162" s="14"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B163" s="10">
         <v>161</v>
       </c>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="16"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="29"/>
+      <c r="H163" s="24"/>
       <c r="I163" s="11"/>
       <c r="K163" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L163" s="14">
         <v>161</v>
       </c>
-      <c r="M163" s="15"/>
+      <c r="M163" s="32"/>
       <c r="N163" s="14"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B164" s="10">
         <v>162</v>
       </c>
-      <c r="C164" s="16"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="16"/>
-      <c r="F164" s="16"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="16"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="24"/>
+      <c r="F164" s="24"/>
+      <c r="G164" s="29"/>
+      <c r="H164" s="24"/>
       <c r="I164" s="11"/>
       <c r="K164" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L164" s="14">
         <v>162</v>
       </c>
-      <c r="M164" s="15"/>
+      <c r="M164" s="32"/>
       <c r="N164" s="14"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B165" s="10">
         <v>163</v>
       </c>
-      <c r="C165" s="16"/>
-      <c r="D165" s="16"/>
-      <c r="E165" s="16"/>
-      <c r="F165" s="16"/>
-      <c r="G165" s="18"/>
-      <c r="H165" s="16"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="24"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="29"/>
+      <c r="H165" s="24"/>
       <c r="I165" s="11"/>
       <c r="K165" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L165" s="14">
         <v>163</v>
       </c>
-      <c r="M165" s="15"/>
+      <c r="M165" s="32"/>
       <c r="N165" s="14"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B166" s="10">
         <v>164</v>
       </c>
-      <c r="C166" s="16"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="16"/>
-      <c r="F166" s="16"/>
-      <c r="G166" s="18"/>
-      <c r="H166" s="16"/>
+      <c r="C166" s="24"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="24"/>
+      <c r="F166" s="24"/>
+      <c r="G166" s="29"/>
+      <c r="H166" s="24"/>
       <c r="I166" s="11"/>
       <c r="K166" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L166" s="14">
         <v>164</v>
       </c>
-      <c r="M166" s="15"/>
+      <c r="M166" s="32"/>
       <c r="N166" s="14"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B167" s="10">
         <v>165</v>
       </c>
-      <c r="C167" s="16"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="16"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="18"/>
-      <c r="H167" s="16"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="24"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="29"/>
+      <c r="H167" s="24"/>
       <c r="I167" s="11"/>
       <c r="K167" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L167" s="14">
         <v>165</v>
       </c>
-      <c r="M167" s="15"/>
+      <c r="M167" s="32"/>
       <c r="N167" s="14"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B168" s="10">
         <v>166</v>
       </c>
-      <c r="C168" s="16"/>
-      <c r="D168" s="16"/>
-      <c r="E168" s="16"/>
-      <c r="F168" s="16"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="16"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="24"/>
+      <c r="F168" s="24"/>
+      <c r="G168" s="29"/>
+      <c r="H168" s="24"/>
       <c r="I168" s="11"/>
       <c r="K168" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L168" s="14">
         <v>166</v>
       </c>
-      <c r="M168" s="15"/>
+      <c r="M168" s="32"/>
       <c r="N168" s="14"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B169" s="10">
         <v>167</v>
       </c>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="16"/>
-      <c r="F169" s="16"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="16"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="24"/>
+      <c r="F169" s="24"/>
+      <c r="G169" s="29"/>
+      <c r="H169" s="24"/>
       <c r="I169" s="11"/>
       <c r="K169" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L169" s="14">
         <v>167</v>
       </c>
-      <c r="M169" s="15"/>
+      <c r="M169" s="32"/>
       <c r="N169" s="14"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B170" s="10">
         <v>168</v>
       </c>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="16"/>
-      <c r="F170" s="16"/>
-      <c r="G170" s="18"/>
-      <c r="H170" s="16"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="24"/>
+      <c r="F170" s="24"/>
+      <c r="G170" s="29"/>
+      <c r="H170" s="24"/>
       <c r="I170" s="11"/>
       <c r="K170" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L170" s="14">
         <v>168</v>
       </c>
-      <c r="M170" s="15"/>
+      <c r="M170" s="32"/>
       <c r="N170" s="14"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B171" s="10">
         <v>169</v>
       </c>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="16"/>
-      <c r="F171" s="16"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="16"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="24"/>
+      <c r="F171" s="24"/>
+      <c r="G171" s="29"/>
+      <c r="H171" s="24"/>
       <c r="I171" s="11"/>
       <c r="K171" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L171" s="14">
         <v>169</v>
       </c>
-      <c r="M171" s="15"/>
+      <c r="M171" s="32"/>
       <c r="N171" s="14"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B172" s="10">
         <v>170</v>
       </c>
-      <c r="C172" s="16"/>
-      <c r="D172" s="16"/>
-      <c r="E172" s="16"/>
-      <c r="F172" s="16"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="16"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="24"/>
+      <c r="F172" s="24"/>
+      <c r="G172" s="29"/>
+      <c r="H172" s="24"/>
       <c r="I172" s="11"/>
       <c r="K172" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L172" s="14">
         <v>170</v>
       </c>
-      <c r="M172" s="15"/>
+      <c r="M172" s="32"/>
       <c r="N172" s="14"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B173" s="10">
         <v>171</v>
       </c>
-      <c r="C173" s="16"/>
-      <c r="D173" s="16"/>
-      <c r="E173" s="16"/>
-      <c r="F173" s="16"/>
-      <c r="G173" s="18"/>
-      <c r="H173" s="16"/>
+      <c r="C173" s="24"/>
+      <c r="D173" s="24"/>
+      <c r="E173" s="24"/>
+      <c r="F173" s="24"/>
+      <c r="G173" s="29"/>
+      <c r="H173" s="24"/>
       <c r="I173" s="11"/>
       <c r="K173" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L173" s="14">
         <v>171</v>
       </c>
-      <c r="M173" s="15"/>
+      <c r="M173" s="32"/>
       <c r="N173" s="14"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B174" s="10">
         <v>172</v>
       </c>
-      <c r="C174" s="16"/>
-      <c r="D174" s="16"/>
-      <c r="E174" s="16"/>
-      <c r="F174" s="16"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="16"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="24"/>
+      <c r="F174" s="24"/>
+      <c r="G174" s="29"/>
+      <c r="H174" s="24"/>
       <c r="I174" s="11"/>
       <c r="K174" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L174" s="14">
         <v>172</v>
       </c>
-      <c r="M174" s="15"/>
+      <c r="M174" s="32"/>
       <c r="N174" s="14"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B175" s="10">
         <v>173</v>
       </c>
-      <c r="C175" s="16"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="16"/>
-      <c r="F175" s="16"/>
-      <c r="G175" s="18"/>
-      <c r="H175" s="16"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="24"/>
+      <c r="F175" s="24"/>
+      <c r="G175" s="29"/>
+      <c r="H175" s="24"/>
       <c r="I175" s="11"/>
       <c r="K175" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L175" s="14">
         <v>173</v>
       </c>
-      <c r="M175" s="15"/>
+      <c r="M175" s="32"/>
       <c r="N175" s="14"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B176" s="10">
         <v>174</v>
       </c>
-      <c r="C176" s="16"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="16"/>
-      <c r="F176" s="16"/>
-      <c r="G176" s="18"/>
-      <c r="H176" s="16"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="24"/>
+      <c r="F176" s="24"/>
+      <c r="G176" s="29"/>
+      <c r="H176" s="24"/>
       <c r="I176" s="11"/>
       <c r="K176" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L176" s="14">
         <v>174</v>
       </c>
-      <c r="M176" s="15"/>
+      <c r="M176" s="32"/>
       <c r="N176" s="14"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B177" s="10">
         <v>175</v>
       </c>
-      <c r="C177" s="16"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="16"/>
-      <c r="F177" s="16"/>
-      <c r="G177" s="18"/>
-      <c r="H177" s="16"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="24"/>
+      <c r="F177" s="24"/>
+      <c r="G177" s="29"/>
+      <c r="H177" s="24"/>
       <c r="I177" s="11"/>
       <c r="K177" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L177" s="14">
         <v>175</v>
       </c>
-      <c r="M177" s="15"/>
+      <c r="M177" s="32"/>
       <c r="N177" s="14"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B178" s="10">
         <v>176</v>
       </c>
-      <c r="C178" s="16"/>
-      <c r="D178" s="16"/>
-      <c r="E178" s="16"/>
-      <c r="F178" s="16"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="16"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="24"/>
+      <c r="F178" s="24"/>
+      <c r="G178" s="29"/>
+      <c r="H178" s="24"/>
       <c r="I178" s="11"/>
       <c r="K178" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L178" s="14">
         <v>176</v>
       </c>
-      <c r="M178" s="15"/>
+      <c r="M178" s="32"/>
       <c r="N178" s="14"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B179" s="10">
         <v>177</v>
       </c>
-      <c r="C179" s="16"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="16"/>
-      <c r="F179" s="16"/>
-      <c r="G179" s="18"/>
-      <c r="H179" s="16"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="24"/>
+      <c r="F179" s="24"/>
+      <c r="G179" s="29"/>
+      <c r="H179" s="24"/>
       <c r="I179" s="11"/>
       <c r="K179" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L179" s="14">
         <v>177</v>
       </c>
-      <c r="M179" s="15"/>
+      <c r="M179" s="32"/>
       <c r="N179" s="14"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B180" s="10">
         <v>178</v>
       </c>
-      <c r="C180" s="16"/>
-      <c r="D180" s="16"/>
-      <c r="E180" s="16"/>
-      <c r="F180" s="16"/>
-      <c r="G180" s="18"/>
-      <c r="H180" s="16"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="24"/>
+      <c r="F180" s="24"/>
+      <c r="G180" s="29"/>
+      <c r="H180" s="24"/>
       <c r="I180" s="11"/>
       <c r="K180" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L180" s="14">
         <v>178</v>
       </c>
-      <c r="M180" s="15"/>
+      <c r="M180" s="32"/>
       <c r="N180" s="14"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B181" s="10">
         <v>179</v>
       </c>
-      <c r="C181" s="16"/>
-      <c r="D181" s="16"/>
-      <c r="E181" s="16"/>
-      <c r="F181" s="16"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="16"/>
+      <c r="C181" s="24"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="24"/>
+      <c r="F181" s="24"/>
+      <c r="G181" s="29"/>
+      <c r="H181" s="24"/>
       <c r="I181" s="11"/>
       <c r="K181" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L181" s="14">
         <v>179</v>
       </c>
-      <c r="M181" s="15"/>
+      <c r="M181" s="32"/>
       <c r="N181" s="14"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B182" s="10">
         <v>180</v>
       </c>
-      <c r="C182" s="16"/>
-      <c r="D182" s="16"/>
-      <c r="E182" s="16"/>
-      <c r="F182" s="16"/>
-      <c r="G182" s="18"/>
-      <c r="H182" s="16"/>
+      <c r="C182" s="24"/>
+      <c r="D182" s="24"/>
+      <c r="E182" s="24"/>
+      <c r="F182" s="24"/>
+      <c r="G182" s="29"/>
+      <c r="H182" s="24"/>
       <c r="I182" s="11"/>
       <c r="K182" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L182" s="14">
         <v>180</v>
       </c>
-      <c r="M182" s="15"/>
+      <c r="M182" s="32"/>
       <c r="N182" s="14"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B183" s="10">
         <v>181</v>
       </c>
-      <c r="C183" s="16"/>
-      <c r="D183" s="16"/>
-      <c r="E183" s="16"/>
-      <c r="F183" s="16"/>
-      <c r="G183" s="18"/>
-      <c r="H183" s="16"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="24"/>
+      <c r="F183" s="24"/>
+      <c r="G183" s="29"/>
+      <c r="H183" s="24"/>
       <c r="I183" s="11"/>
       <c r="K183" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L183" s="14">
         <v>181</v>
       </c>
-      <c r="M183" s="15"/>
+      <c r="M183" s="32"/>
       <c r="N183" s="14"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B184" s="10">
         <v>182</v>
       </c>
-      <c r="C184" s="16"/>
-      <c r="D184" s="16"/>
-      <c r="E184" s="16"/>
-      <c r="F184" s="16"/>
-      <c r="G184" s="18"/>
-      <c r="H184" s="16"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="24"/>
+      <c r="F184" s="24"/>
+      <c r="G184" s="29"/>
+      <c r="H184" s="24"/>
       <c r="I184" s="11"/>
       <c r="K184" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L184" s="14">
         <v>182</v>
       </c>
-      <c r="M184" s="15"/>
+      <c r="M184" s="32"/>
       <c r="N184" s="14"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B185" s="10">
         <v>183</v>
       </c>
-      <c r="C185" s="16"/>
-      <c r="D185" s="16"/>
-      <c r="E185" s="16"/>
-      <c r="F185" s="16"/>
-      <c r="G185" s="18"/>
-      <c r="H185" s="16"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="24"/>
+      <c r="E185" s="24"/>
+      <c r="F185" s="24"/>
+      <c r="G185" s="29"/>
+      <c r="H185" s="24"/>
       <c r="I185" s="11"/>
       <c r="K185" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L185" s="14">
         <v>183</v>
       </c>
-      <c r="M185" s="15"/>
+      <c r="M185" s="32"/>
       <c r="N185" s="14"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B186" s="10">
         <v>184</v>
       </c>
-      <c r="C186" s="16"/>
-      <c r="D186" s="16"/>
-      <c r="E186" s="16"/>
-      <c r="F186" s="16"/>
-      <c r="G186" s="18"/>
-      <c r="H186" s="16"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="24"/>
+      <c r="F186" s="24"/>
+      <c r="G186" s="29"/>
+      <c r="H186" s="24"/>
       <c r="I186" s="11"/>
       <c r="K186" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L186" s="14">
         <v>184</v>
       </c>
-      <c r="M186" s="15"/>
+      <c r="M186" s="32"/>
       <c r="N186" s="14"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B187" s="10">
         <v>185</v>
       </c>
-      <c r="C187" s="16"/>
-      <c r="D187" s="16"/>
-      <c r="E187" s="16"/>
-      <c r="F187" s="16"/>
-      <c r="G187" s="18"/>
-      <c r="H187" s="16"/>
+      <c r="C187" s="24"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="24"/>
+      <c r="F187" s="24"/>
+      <c r="G187" s="29"/>
+      <c r="H187" s="24"/>
       <c r="I187" s="11"/>
       <c r="K187" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L187" s="14">
         <v>185</v>
       </c>
-      <c r="M187" s="15"/>
+      <c r="M187" s="32"/>
       <c r="N187" s="14"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B188" s="10">
         <v>186</v>
       </c>
-      <c r="C188" s="16"/>
-      <c r="D188" s="16"/>
-      <c r="E188" s="16"/>
-      <c r="F188" s="16"/>
-      <c r="G188" s="18"/>
-      <c r="H188" s="16"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="24"/>
+      <c r="E188" s="24"/>
+      <c r="F188" s="24"/>
+      <c r="G188" s="29"/>
+      <c r="H188" s="24"/>
       <c r="I188" s="11"/>
       <c r="K188" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L188" s="14">
         <v>186</v>
       </c>
-      <c r="M188" s="15"/>
+      <c r="M188" s="32"/>
       <c r="N188" s="14"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B189" s="10">
         <v>187</v>
       </c>
-      <c r="C189" s="16"/>
-      <c r="D189" s="16"/>
-      <c r="E189" s="16"/>
-      <c r="F189" s="16"/>
-      <c r="G189" s="18"/>
-      <c r="H189" s="16"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="24"/>
+      <c r="E189" s="24"/>
+      <c r="F189" s="24"/>
+      <c r="G189" s="29"/>
+      <c r="H189" s="24"/>
       <c r="I189" s="11"/>
       <c r="K189" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L189" s="14">
         <v>187</v>
       </c>
-      <c r="M189" s="15"/>
+      <c r="M189" s="32"/>
       <c r="N189" s="14"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B190" s="10">
         <v>188</v>
       </c>
-      <c r="C190" s="16"/>
-      <c r="D190" s="16"/>
-      <c r="E190" s="16"/>
-      <c r="F190" s="16"/>
-      <c r="G190" s="18"/>
-      <c r="H190" s="16"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="24"/>
+      <c r="E190" s="24"/>
+      <c r="F190" s="24"/>
+      <c r="G190" s="29"/>
+      <c r="H190" s="24"/>
       <c r="I190" s="11"/>
       <c r="K190" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L190" s="14">
         <v>188</v>
       </c>
-      <c r="M190" s="15"/>
+      <c r="M190" s="32"/>
       <c r="N190" s="14"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B191" s="10">
         <v>189</v>
       </c>
-      <c r="C191" s="16"/>
-      <c r="D191" s="16"/>
-      <c r="E191" s="16"/>
-      <c r="F191" s="16"/>
-      <c r="G191" s="18"/>
-      <c r="H191" s="16"/>
+      <c r="C191" s="24"/>
+      <c r="D191" s="24"/>
+      <c r="E191" s="24"/>
+      <c r="F191" s="24"/>
+      <c r="G191" s="29"/>
+      <c r="H191" s="24"/>
       <c r="I191" s="11"/>
       <c r="K191" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L191" s="14">
         <v>189</v>
       </c>
-      <c r="M191" s="15"/>
+      <c r="M191" s="32"/>
       <c r="N191" s="14"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B192" s="10">
         <v>190</v>
       </c>
-      <c r="C192" s="16"/>
-      <c r="D192" s="16"/>
-      <c r="E192" s="16"/>
-      <c r="F192" s="16"/>
-      <c r="G192" s="18"/>
-      <c r="H192" s="16"/>
+      <c r="C192" s="24"/>
+      <c r="D192" s="24"/>
+      <c r="E192" s="24"/>
+      <c r="F192" s="24"/>
+      <c r="G192" s="29"/>
+      <c r="H192" s="24"/>
       <c r="I192" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K192" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L192" s="14">
         <v>190</v>
       </c>
-      <c r="M192" s="15"/>
+      <c r="M192" s="32"/>
       <c r="N192" s="14"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B193" s="10">
         <v>191</v>
       </c>
-      <c r="C193" s="16"/>
-      <c r="D193" s="16"/>
-      <c r="E193" s="16"/>
-      <c r="F193" s="16"/>
-      <c r="G193" s="18"/>
-      <c r="H193" s="16"/>
+      <c r="C193" s="24"/>
+      <c r="D193" s="24"/>
+      <c r="E193" s="24"/>
+      <c r="F193" s="24"/>
+      <c r="G193" s="29"/>
+      <c r="H193" s="24"/>
       <c r="I193" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K193" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L193" s="14">
         <v>191</v>
       </c>
-      <c r="M193" s="15"/>
+      <c r="M193" s="32"/>
       <c r="N193" s="14"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B194" s="13">
         <v>192</v>
       </c>
-      <c r="C194" s="19"/>
-      <c r="D194" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E194" s="16"/>
-      <c r="F194" s="21"/>
-      <c r="G194" s="16"/>
-      <c r="H194" s="16"/>
+      <c r="C194" s="30"/>
+      <c r="D194" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E194" s="24"/>
+      <c r="F194" s="23"/>
+      <c r="G194" s="24"/>
+      <c r="H194" s="24"/>
       <c r="I194" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K194" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L194" s="14">
         <v>192</v>
       </c>
-      <c r="M194" s="15"/>
+      <c r="M194" s="32"/>
       <c r="N194" s="14"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B195" s="13">
         <v>193</v>
       </c>
-      <c r="C195" s="19"/>
-      <c r="D195" s="20"/>
-      <c r="E195" s="16"/>
-      <c r="F195" s="21"/>
-      <c r="G195" s="16"/>
-      <c r="H195" s="16"/>
+      <c r="C195" s="30"/>
+      <c r="D195" s="31"/>
+      <c r="E195" s="24"/>
+      <c r="F195" s="23"/>
+      <c r="G195" s="24"/>
+      <c r="H195" s="24"/>
       <c r="I195" s="12"/>
       <c r="K195" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L195" s="14">
         <v>193</v>
       </c>
-      <c r="M195" s="15"/>
+      <c r="M195" s="32"/>
       <c r="N195" s="14"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B196" s="13">
         <v>194</v>
       </c>
-      <c r="C196" s="19"/>
-      <c r="D196" s="20"/>
-      <c r="E196" s="16"/>
-      <c r="F196" s="21"/>
-      <c r="G196" s="16"/>
-      <c r="H196" s="16"/>
+      <c r="C196" s="30"/>
+      <c r="D196" s="31"/>
+      <c r="E196" s="24"/>
+      <c r="F196" s="23"/>
+      <c r="G196" s="24"/>
+      <c r="H196" s="24"/>
       <c r="I196" s="12"/>
       <c r="K196" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L196" s="14">
         <v>194</v>
       </c>
-      <c r="M196" s="15"/>
+      <c r="M196" s="32"/>
       <c r="N196" s="14"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B197" s="13">
         <v>195</v>
       </c>
-      <c r="C197" s="19"/>
-      <c r="D197" s="20"/>
-      <c r="E197" s="16"/>
-      <c r="F197" s="21"/>
-      <c r="G197" s="16"/>
-      <c r="H197" s="16"/>
+      <c r="C197" s="30"/>
+      <c r="D197" s="31"/>
+      <c r="E197" s="24"/>
+      <c r="F197" s="23"/>
+      <c r="G197" s="24"/>
+      <c r="H197" s="24"/>
       <c r="I197" s="12"/>
       <c r="K197" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L197" s="14">
         <v>195</v>
       </c>
-      <c r="M197" s="15"/>
+      <c r="M197" s="32"/>
       <c r="N197" s="14"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B198" s="13">
         <v>196</v>
       </c>
-      <c r="C198" s="16"/>
-      <c r="D198" s="20"/>
-      <c r="E198" s="16"/>
-      <c r="F198" s="21"/>
-      <c r="G198" s="16"/>
-      <c r="H198" s="16"/>
+      <c r="C198" s="24"/>
+      <c r="D198" s="31"/>
+      <c r="E198" s="24"/>
+      <c r="F198" s="23"/>
+      <c r="G198" s="24"/>
+      <c r="H198" s="24"/>
       <c r="I198" s="12"/>
       <c r="K198" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L198" s="14">
         <v>196</v>
       </c>
-      <c r="M198" s="15"/>
+      <c r="M198" s="32"/>
       <c r="N198" s="14"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B199" s="13">
         <v>197</v>
       </c>
-      <c r="C199" s="16"/>
-      <c r="D199" s="20"/>
-      <c r="E199" s="16"/>
-      <c r="F199" s="21"/>
-      <c r="G199" s="16"/>
-      <c r="H199" s="16"/>
+      <c r="C199" s="24"/>
+      <c r="D199" s="31"/>
+      <c r="E199" s="24"/>
+      <c r="F199" s="23"/>
+      <c r="G199" s="24"/>
+      <c r="H199" s="24"/>
       <c r="I199" s="12"/>
       <c r="K199" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L199" s="14">
         <v>197</v>
       </c>
-      <c r="M199" s="15"/>
+      <c r="M199" s="32"/>
       <c r="N199" s="14"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B200" s="13">
         <v>198</v>
       </c>
-      <c r="C200" s="16"/>
-      <c r="D200" s="20"/>
-      <c r="E200" s="16"/>
-      <c r="F200" s="21"/>
-      <c r="G200" s="16"/>
-      <c r="H200" s="16"/>
+      <c r="C200" s="24"/>
+      <c r="D200" s="31"/>
+      <c r="E200" s="24"/>
+      <c r="F200" s="23"/>
+      <c r="G200" s="24"/>
+      <c r="H200" s="24"/>
       <c r="I200" s="12"/>
       <c r="K200" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L200" s="14">
         <v>198</v>
       </c>
-      <c r="M200" s="15"/>
+      <c r="M200" s="32"/>
       <c r="N200" s="14"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B201" s="13">
         <v>199</v>
       </c>
-      <c r="C201" s="16"/>
-      <c r="D201" s="20"/>
-      <c r="E201" s="16"/>
-      <c r="F201" s="21"/>
-      <c r="G201" s="16"/>
-      <c r="H201" s="16"/>
+      <c r="C201" s="24"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="24"/>
+      <c r="F201" s="23"/>
+      <c r="G201" s="24"/>
+      <c r="H201" s="24"/>
       <c r="I201" s="12"/>
       <c r="K201" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L201" s="14">
         <v>199</v>
       </c>
-      <c r="M201" s="15"/>
+      <c r="M201" s="32"/>
       <c r="N201" s="14"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B202" s="13">
         <v>200</v>
       </c>
-      <c r="C202" s="16"/>
-      <c r="D202" s="16"/>
-      <c r="E202" s="16"/>
-      <c r="F202" s="21"/>
-      <c r="G202" s="16"/>
-      <c r="H202" s="16"/>
+      <c r="C202" s="24"/>
+      <c r="D202" s="24"/>
+      <c r="E202" s="24"/>
+      <c r="F202" s="23"/>
+      <c r="G202" s="24"/>
+      <c r="H202" s="24"/>
       <c r="I202" s="12"/>
       <c r="K202" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L202" s="14">
         <v>200</v>
       </c>
-      <c r="M202" s="15"/>
+      <c r="M202" s="32"/>
       <c r="N202" s="14"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B203" s="13">
         <v>201</v>
       </c>
-      <c r="C203" s="16"/>
-      <c r="D203" s="16"/>
-      <c r="E203" s="16"/>
-      <c r="F203" s="21"/>
-      <c r="G203" s="16"/>
-      <c r="H203" s="16"/>
+      <c r="C203" s="24"/>
+      <c r="D203" s="24"/>
+      <c r="E203" s="24"/>
+      <c r="F203" s="23"/>
+      <c r="G203" s="24"/>
+      <c r="H203" s="24"/>
       <c r="I203" s="12"/>
       <c r="K203" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L203" s="14">
         <v>201</v>
       </c>
-      <c r="M203" s="15"/>
+      <c r="M203" s="32"/>
       <c r="N203" s="14"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B204" s="13">
         <v>202</v>
       </c>
-      <c r="C204" s="16"/>
-      <c r="D204" s="16"/>
-      <c r="E204" s="16"/>
-      <c r="F204" s="21"/>
-      <c r="G204" s="16"/>
-      <c r="H204" s="16"/>
+      <c r="C204" s="24"/>
+      <c r="D204" s="24"/>
+      <c r="E204" s="24"/>
+      <c r="F204" s="23"/>
+      <c r="G204" s="24"/>
+      <c r="H204" s="24"/>
       <c r="I204" s="12"/>
       <c r="K204" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L204" s="14">
         <v>202</v>
       </c>
-      <c r="M204" s="15"/>
+      <c r="M204" s="32"/>
       <c r="N204" s="14"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B205" s="13">
         <v>203</v>
       </c>
-      <c r="C205" s="16"/>
-      <c r="D205" s="16"/>
-      <c r="E205" s="16"/>
-      <c r="F205" s="21"/>
-      <c r="G205" s="16"/>
-      <c r="H205" s="16"/>
+      <c r="C205" s="24"/>
+      <c r="D205" s="24"/>
+      <c r="E205" s="24"/>
+      <c r="F205" s="23"/>
+      <c r="G205" s="24"/>
+      <c r="H205" s="24"/>
       <c r="I205" s="12"/>
       <c r="K205" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L205" s="14">
         <v>203</v>
       </c>
-      <c r="M205" s="15"/>
+      <c r="M205" s="32"/>
       <c r="N205" s="14"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B206" s="13">
         <v>204</v>
       </c>
-      <c r="C206" s="16"/>
-      <c r="D206" s="16"/>
-      <c r="E206" s="16"/>
-      <c r="F206" s="21"/>
-      <c r="G206" s="16"/>
-      <c r="H206" s="16"/>
+      <c r="C206" s="24"/>
+      <c r="D206" s="24"/>
+      <c r="E206" s="24"/>
+      <c r="F206" s="23"/>
+      <c r="G206" s="24"/>
+      <c r="H206" s="24"/>
       <c r="I206" s="12"/>
       <c r="K206" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L206" s="14">
         <v>204</v>
       </c>
-      <c r="M206" s="15"/>
+      <c r="M206" s="32"/>
       <c r="N206" s="14"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B207" s="13">
         <v>205</v>
       </c>
-      <c r="C207" s="16"/>
-      <c r="D207" s="16"/>
-      <c r="E207" s="16"/>
-      <c r="F207" s="21"/>
-      <c r="G207" s="16"/>
-      <c r="H207" s="16"/>
+      <c r="C207" s="24"/>
+      <c r="D207" s="24"/>
+      <c r="E207" s="24"/>
+      <c r="F207" s="23"/>
+      <c r="G207" s="24"/>
+      <c r="H207" s="24"/>
       <c r="I207" s="12"/>
       <c r="K207" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L207" s="14">
         <v>205</v>
       </c>
-      <c r="M207" s="15"/>
+      <c r="M207" s="32"/>
       <c r="N207" s="14"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B208" s="13">
         <v>206</v>
       </c>
-      <c r="C208" s="16"/>
-      <c r="D208" s="16"/>
-      <c r="E208" s="16"/>
-      <c r="F208" s="21"/>
-      <c r="G208" s="16"/>
-      <c r="H208" s="16"/>
+      <c r="C208" s="24"/>
+      <c r="D208" s="24"/>
+      <c r="E208" s="24"/>
+      <c r="F208" s="23"/>
+      <c r="G208" s="24"/>
+      <c r="H208" s="24"/>
       <c r="I208" s="12"/>
       <c r="K208" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L208" s="14">
         <v>206</v>
       </c>
-      <c r="M208" s="15"/>
+      <c r="M208" s="32"/>
       <c r="N208" s="14"/>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B209" s="13">
         <v>207</v>
       </c>
-      <c r="C209" s="16"/>
-      <c r="D209" s="16"/>
-      <c r="E209" s="16"/>
-      <c r="F209" s="21"/>
-      <c r="G209" s="16"/>
-      <c r="H209" s="16"/>
+      <c r="C209" s="24"/>
+      <c r="D209" s="24"/>
+      <c r="E209" s="24"/>
+      <c r="F209" s="23"/>
+      <c r="G209" s="24"/>
+      <c r="H209" s="24"/>
       <c r="I209" s="12"/>
       <c r="K209" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L209" s="14">
         <v>207</v>
       </c>
-      <c r="M209" s="15"/>
+      <c r="M209" s="32"/>
       <c r="N209" s="14"/>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B210" s="13">
         <v>208</v>
       </c>
-      <c r="C210" s="16"/>
-      <c r="D210" s="16"/>
-      <c r="E210" s="16"/>
-      <c r="F210" s="21"/>
-      <c r="G210" s="16"/>
-      <c r="H210" s="16"/>
+      <c r="C210" s="24"/>
+      <c r="D210" s="24"/>
+      <c r="E210" s="24"/>
+      <c r="F210" s="23"/>
+      <c r="G210" s="24"/>
+      <c r="H210" s="24"/>
       <c r="I210" s="12"/>
       <c r="K210" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L210" s="14">
         <v>208</v>
       </c>
-      <c r="M210" s="15"/>
+      <c r="M210" s="32"/>
       <c r="N210" s="14"/>
       <c r="R210" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B211" s="13">
         <v>209</v>
       </c>
-      <c r="C211" s="16"/>
-      <c r="D211" s="16"/>
-      <c r="E211" s="16"/>
-      <c r="F211" s="21"/>
-      <c r="G211" s="16"/>
-      <c r="H211" s="16"/>
+      <c r="C211" s="24"/>
+      <c r="D211" s="24"/>
+      <c r="E211" s="24"/>
+      <c r="F211" s="23"/>
+      <c r="G211" s="24"/>
+      <c r="H211" s="24"/>
       <c r="I211" s="12"/>
       <c r="K211" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L211" s="14">
         <v>209</v>
       </c>
-      <c r="M211" s="15"/>
+      <c r="M211" s="32"/>
       <c r="N211" s="14"/>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B212" s="13">
         <v>210</v>
       </c>
-      <c r="C212" s="16"/>
-      <c r="D212" s="16"/>
-      <c r="E212" s="16"/>
-      <c r="F212" s="21"/>
-      <c r="G212" s="16"/>
-      <c r="H212" s="16"/>
+      <c r="C212" s="24"/>
+      <c r="D212" s="24"/>
+      <c r="E212" s="24"/>
+      <c r="F212" s="23"/>
+      <c r="G212" s="24"/>
+      <c r="H212" s="24"/>
       <c r="I212" s="12"/>
       <c r="K212" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L212" s="14">
         <v>210</v>
       </c>
-      <c r="M212" s="15"/>
+      <c r="M212" s="32"/>
       <c r="N212" s="14"/>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B213" s="13">
         <v>211</v>
       </c>
-      <c r="C213" s="16"/>
-      <c r="D213" s="16"/>
-      <c r="E213" s="16"/>
-      <c r="F213" s="21"/>
-      <c r="G213" s="16"/>
-      <c r="H213" s="16"/>
+      <c r="C213" s="24"/>
+      <c r="D213" s="24"/>
+      <c r="E213" s="24"/>
+      <c r="F213" s="23"/>
+      <c r="G213" s="24"/>
+      <c r="H213" s="24"/>
       <c r="I213" s="12"/>
       <c r="K213" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L213" s="14">
         <v>211</v>
       </c>
-      <c r="M213" s="15"/>
+      <c r="M213" s="32"/>
       <c r="N213" s="14"/>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B214" s="13">
         <v>212</v>
       </c>
-      <c r="C214" s="16"/>
-      <c r="D214" s="16"/>
-      <c r="E214" s="16"/>
-      <c r="F214" s="21"/>
-      <c r="G214" s="16"/>
-      <c r="H214" s="16"/>
+      <c r="C214" s="24"/>
+      <c r="D214" s="24"/>
+      <c r="E214" s="24"/>
+      <c r="F214" s="23"/>
+      <c r="G214" s="24"/>
+      <c r="H214" s="24"/>
       <c r="I214" s="12"/>
       <c r="K214" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L214" s="14">
         <v>212</v>
       </c>
-      <c r="M214" s="15"/>
+      <c r="M214" s="32"/>
       <c r="N214" s="14"/>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B215" s="13">
         <v>213</v>
       </c>
-      <c r="C215" s="16"/>
-      <c r="D215" s="16"/>
-      <c r="E215" s="16"/>
-      <c r="F215" s="21"/>
-      <c r="G215" s="16"/>
-      <c r="H215" s="16"/>
+      <c r="C215" s="24"/>
+      <c r="D215" s="24"/>
+      <c r="E215" s="24"/>
+      <c r="F215" s="23"/>
+      <c r="G215" s="24"/>
+      <c r="H215" s="24"/>
       <c r="I215" s="12"/>
       <c r="K215" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L215" s="14">
         <v>213</v>
       </c>
-      <c r="M215" s="15"/>
+      <c r="M215" s="32"/>
       <c r="N215" s="14"/>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B216" s="13">
         <v>214</v>
       </c>
-      <c r="C216" s="16"/>
-      <c r="D216" s="16"/>
-      <c r="E216" s="16"/>
-      <c r="F216" s="21"/>
-      <c r="G216" s="16"/>
-      <c r="H216" s="16"/>
+      <c r="C216" s="24"/>
+      <c r="D216" s="24"/>
+      <c r="E216" s="24"/>
+      <c r="F216" s="23"/>
+      <c r="G216" s="24"/>
+      <c r="H216" s="24"/>
       <c r="I216" s="12"/>
       <c r="K216" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L216" s="14">
         <v>214</v>
       </c>
-      <c r="M216" s="15"/>
+      <c r="M216" s="32"/>
       <c r="N216" s="14"/>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B217" s="13">
         <v>215</v>
       </c>
-      <c r="C217" s="16"/>
-      <c r="D217" s="16"/>
-      <c r="E217" s="16"/>
-      <c r="F217" s="21"/>
-      <c r="G217" s="16"/>
-      <c r="H217" s="16"/>
+      <c r="C217" s="24"/>
+      <c r="D217" s="24"/>
+      <c r="E217" s="24"/>
+      <c r="F217" s="23"/>
+      <c r="G217" s="24"/>
+      <c r="H217" s="24"/>
       <c r="I217" s="12"/>
       <c r="K217" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L217" s="14">
         <v>215</v>
       </c>
-      <c r="M217" s="15"/>
+      <c r="M217" s="32"/>
       <c r="N217" s="14"/>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B218" s="13">
         <v>216</v>
       </c>
-      <c r="C218" s="16"/>
-      <c r="D218" s="16"/>
-      <c r="E218" s="16"/>
-      <c r="F218" s="21"/>
-      <c r="G218" s="16"/>
-      <c r="H218" s="16"/>
+      <c r="C218" s="24"/>
+      <c r="D218" s="24"/>
+      <c r="E218" s="24"/>
+      <c r="F218" s="23"/>
+      <c r="G218" s="24"/>
+      <c r="H218" s="24"/>
       <c r="I218" s="12"/>
       <c r="K218" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L218" s="14">
         <v>216</v>
       </c>
-      <c r="M218" s="15"/>
+      <c r="M218" s="32"/>
       <c r="N218" s="14"/>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B219" s="13">
         <v>217</v>
       </c>
-      <c r="C219" s="16"/>
-      <c r="D219" s="16"/>
-      <c r="E219" s="16"/>
-      <c r="F219" s="21"/>
-      <c r="G219" s="16"/>
-      <c r="H219" s="16"/>
+      <c r="C219" s="24"/>
+      <c r="D219" s="24"/>
+      <c r="E219" s="24"/>
+      <c r="F219" s="23"/>
+      <c r="G219" s="24"/>
+      <c r="H219" s="24"/>
       <c r="I219" s="12"/>
       <c r="K219" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L219" s="14">
         <v>217</v>
       </c>
-      <c r="M219" s="15"/>
+      <c r="M219" s="32"/>
       <c r="N219" s="14"/>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B220" s="13">
         <v>218</v>
       </c>
-      <c r="C220" s="16"/>
-      <c r="D220" s="16"/>
-      <c r="E220" s="16"/>
-      <c r="F220" s="21"/>
-      <c r="G220" s="16"/>
-      <c r="H220" s="16"/>
+      <c r="C220" s="24"/>
+      <c r="D220" s="24"/>
+      <c r="E220" s="24"/>
+      <c r="F220" s="23"/>
+      <c r="G220" s="24"/>
+      <c r="H220" s="24"/>
       <c r="I220" s="12"/>
       <c r="K220" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L220" s="14">
         <v>218</v>
       </c>
-      <c r="M220" s="15"/>
+      <c r="M220" s="32"/>
       <c r="N220" s="14"/>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B221" s="13">
         <v>219</v>
       </c>
-      <c r="C221" s="16"/>
-      <c r="D221" s="16"/>
-      <c r="E221" s="16"/>
-      <c r="F221" s="21"/>
-      <c r="G221" s="16"/>
-      <c r="H221" s="16"/>
+      <c r="C221" s="24"/>
+      <c r="D221" s="24"/>
+      <c r="E221" s="24"/>
+      <c r="F221" s="23"/>
+      <c r="G221" s="24"/>
+      <c r="H221" s="24"/>
       <c r="I221" s="12"/>
       <c r="K221" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L221" s="14">
         <v>219</v>
       </c>
-      <c r="M221" s="15"/>
+      <c r="M221" s="32"/>
       <c r="N221" s="14"/>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B222" s="13">
         <v>220</v>
       </c>
-      <c r="C222" s="16"/>
-      <c r="D222" s="16"/>
-      <c r="E222" s="16"/>
-      <c r="F222" s="21"/>
-      <c r="G222" s="16"/>
-      <c r="H222" s="16"/>
+      <c r="C222" s="24"/>
+      <c r="D222" s="24"/>
+      <c r="E222" s="24"/>
+      <c r="F222" s="23"/>
+      <c r="G222" s="24"/>
+      <c r="H222" s="24"/>
       <c r="I222" s="12"/>
       <c r="K222" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L222" s="14">
         <v>220</v>
       </c>
-      <c r="M222" s="15"/>
+      <c r="M222" s="32"/>
       <c r="N222" s="14"/>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B223" s="13">
         <v>221</v>
       </c>
-      <c r="C223" s="16"/>
-      <c r="D223" s="16"/>
-      <c r="E223" s="16"/>
-      <c r="F223" s="21"/>
-      <c r="G223" s="16"/>
-      <c r="H223" s="16"/>
+      <c r="C223" s="24"/>
+      <c r="D223" s="24"/>
+      <c r="E223" s="24"/>
+      <c r="F223" s="23"/>
+      <c r="G223" s="24"/>
+      <c r="H223" s="24"/>
       <c r="I223" s="12"/>
       <c r="K223" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L223" s="14">
         <v>221</v>
       </c>
-      <c r="M223" s="15"/>
+      <c r="M223" s="32"/>
       <c r="N223" s="14"/>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B224" s="13">
         <v>222</v>
       </c>
-      <c r="C224" s="16"/>
-      <c r="D224" s="16"/>
-      <c r="E224" s="16"/>
-      <c r="F224" s="21"/>
-      <c r="G224" s="16"/>
-      <c r="H224" s="16"/>
+      <c r="C224" s="24"/>
+      <c r="D224" s="24"/>
+      <c r="E224" s="24"/>
+      <c r="F224" s="23"/>
+      <c r="G224" s="24"/>
+      <c r="H224" s="24"/>
       <c r="I224" s="12"/>
       <c r="K224" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L224" s="14">
         <v>222</v>
       </c>
-      <c r="M224" s="15"/>
+      <c r="M224" s="32"/>
       <c r="N224" s="14"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B225" s="13">
         <v>223</v>
       </c>
-      <c r="C225" s="16"/>
-      <c r="D225" s="16"/>
-      <c r="E225" s="16"/>
-      <c r="F225" s="21"/>
-      <c r="G225" s="16"/>
-      <c r="H225" s="16"/>
+      <c r="C225" s="24"/>
+      <c r="D225" s="24"/>
+      <c r="E225" s="24"/>
+      <c r="F225" s="23"/>
+      <c r="G225" s="24"/>
+      <c r="H225" s="24"/>
       <c r="I225" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K225" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L225" s="14">
         <v>223</v>
       </c>
-      <c r="M225" s="15"/>
+      <c r="M225" s="32"/>
       <c r="N225" s="14"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A226" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B226" s="22">
+      <c r="A226" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B226" s="15">
         <v>224</v>
       </c>
-      <c r="C226" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D226" s="16"/>
-      <c r="E226" s="16"/>
-      <c r="F226" s="16"/>
-      <c r="G226" s="16"/>
-      <c r="H226" s="16"/>
-      <c r="I226" s="23" t="s">
-        <v>25</v>
+      <c r="C226" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D226" s="24"/>
+      <c r="E226" s="24"/>
+      <c r="F226" s="24"/>
+      <c r="G226" s="24"/>
+      <c r="H226" s="24"/>
+      <c r="I226" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="K226" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L226" s="14">
         <v>224</v>
       </c>
-      <c r="M226" s="15"/>
+      <c r="M226" s="32"/>
       <c r="N226" s="14"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A227" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B227" s="22">
+      <c r="A227" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B227" s="15">
         <v>225</v>
       </c>
-      <c r="C227" s="30"/>
-      <c r="D227" s="16"/>
-      <c r="E227" s="16"/>
-      <c r="F227" s="16"/>
-      <c r="G227" s="16"/>
-      <c r="H227" s="16"/>
-      <c r="I227" s="23" t="s">
-        <v>44</v>
+      <c r="C227" s="28"/>
+      <c r="D227" s="24"/>
+      <c r="E227" s="24"/>
+      <c r="F227" s="24"/>
+      <c r="G227" s="24"/>
+      <c r="H227" s="24"/>
+      <c r="I227" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="K227" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L227" s="14">
         <v>225</v>
       </c>
-      <c r="M227" s="15"/>
+      <c r="M227" s="32"/>
       <c r="N227" s="14"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A228" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B228" s="22">
+      <c r="A228" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B228" s="15">
         <v>226</v>
       </c>
-      <c r="C228" s="30"/>
-      <c r="D228" s="16"/>
-      <c r="E228" s="16"/>
-      <c r="F228" s="16"/>
-      <c r="G228" s="16"/>
-      <c r="H228" s="16"/>
-      <c r="I228" s="23" t="s">
-        <v>45</v>
+      <c r="C228" s="28"/>
+      <c r="D228" s="24"/>
+      <c r="E228" s="24"/>
+      <c r="F228" s="24"/>
+      <c r="G228" s="24"/>
+      <c r="H228" s="24"/>
+      <c r="I228" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="K228" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L228" s="14">
         <v>226</v>
       </c>
-      <c r="M228" s="15"/>
+      <c r="M228" s="32"/>
       <c r="N228" s="14"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A229" s="22" t="s">
+      <c r="A229" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B229" s="15">
+        <v>227</v>
+      </c>
+      <c r="C229" s="28"/>
+      <c r="D229" s="24"/>
+      <c r="E229" s="24"/>
+      <c r="F229" s="24"/>
+      <c r="G229" s="24"/>
+      <c r="H229" s="24"/>
+      <c r="I229" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B229" s="22">
-        <v>227</v>
-      </c>
-      <c r="C229" s="30"/>
-      <c r="D229" s="16"/>
-      <c r="E229" s="16"/>
-      <c r="F229" s="16"/>
-      <c r="G229" s="16"/>
-      <c r="H229" s="16"/>
-      <c r="I229" s="23" t="s">
-        <v>30</v>
-      </c>
       <c r="K229" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L229" s="14">
         <v>227</v>
       </c>
-      <c r="M229" s="15"/>
+      <c r="M229" s="32"/>
       <c r="N229" s="14"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A230" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B230" s="24">
+      <c r="A230" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B230" s="17">
         <v>228</v>
       </c>
-      <c r="C230" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D230" s="16"/>
-      <c r="E230" s="16"/>
-      <c r="F230" s="16"/>
-      <c r="G230" s="16"/>
-      <c r="H230" s="16"/>
-      <c r="I230" s="25" t="s">
-        <v>25</v>
+      <c r="C230" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D230" s="24"/>
+      <c r="E230" s="24"/>
+      <c r="F230" s="24"/>
+      <c r="G230" s="24"/>
+      <c r="H230" s="24"/>
+      <c r="I230" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="K230" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L230" s="14">
         <v>228</v>
       </c>
-      <c r="M230" s="15"/>
+      <c r="M230" s="32"/>
       <c r="N230" s="14"/>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A231" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B231" s="24">
+      <c r="A231" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B231" s="17">
         <v>229</v>
       </c>
-      <c r="C231" s="31"/>
-      <c r="D231" s="16"/>
-      <c r="E231" s="16"/>
-      <c r="F231" s="16"/>
-      <c r="G231" s="16"/>
-      <c r="H231" s="16"/>
-      <c r="I231" s="25"/>
+      <c r="C231" s="25"/>
+      <c r="D231" s="24"/>
+      <c r="E231" s="24"/>
+      <c r="F231" s="24"/>
+      <c r="G231" s="24"/>
+      <c r="H231" s="24"/>
+      <c r="I231" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="K231" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L231" s="14">
         <v>229</v>
       </c>
-      <c r="M231" s="15"/>
+      <c r="M231" s="32"/>
       <c r="N231" s="14"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A232" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B232" s="24">
+      <c r="A232" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B232" s="17">
         <v>230</v>
       </c>
-      <c r="C232" s="31"/>
-      <c r="D232" s="16"/>
-      <c r="E232" s="16"/>
-      <c r="F232" s="16"/>
-      <c r="G232" s="16"/>
-      <c r="H232" s="16"/>
-      <c r="I232" s="25"/>
+      <c r="C232" s="25"/>
+      <c r="D232" s="24"/>
+      <c r="E232" s="24"/>
+      <c r="F232" s="24"/>
+      <c r="G232" s="24"/>
+      <c r="H232" s="24"/>
+      <c r="I232" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="K232" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L232" s="14">
         <v>230</v>
       </c>
-      <c r="M232" s="15"/>
+      <c r="M232" s="32"/>
       <c r="N232" s="14"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A233" s="24" t="s">
+      <c r="A233" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B233" s="17">
+        <v>231</v>
+      </c>
+      <c r="C233" s="25"/>
+      <c r="D233" s="24"/>
+      <c r="E233" s="24"/>
+      <c r="F233" s="24"/>
+      <c r="G233" s="24"/>
+      <c r="H233" s="24"/>
+      <c r="I233" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B233" s="24">
-        <v>231</v>
-      </c>
-      <c r="C233" s="31"/>
-      <c r="D233" s="16"/>
-      <c r="E233" s="16"/>
-      <c r="F233" s="16"/>
-      <c r="G233" s="16"/>
-      <c r="H233" s="16"/>
-      <c r="I233" s="25" t="s">
-        <v>30</v>
-      </c>
       <c r="K233" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L233" s="14">
         <v>231</v>
       </c>
-      <c r="M233" s="15"/>
+      <c r="M233" s="32"/>
       <c r="N233" s="14"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A234" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B234" s="26">
+      <c r="A234" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B234" s="19">
         <v>232</v>
       </c>
-      <c r="C234" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D234" s="16"/>
-      <c r="E234" s="16"/>
-      <c r="F234" s="16"/>
-      <c r="G234" s="16"/>
-      <c r="H234" s="16"/>
-      <c r="I234" s="27" t="s">
-        <v>25</v>
+      <c r="C234" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D234" s="24"/>
+      <c r="E234" s="24"/>
+      <c r="F234" s="24"/>
+      <c r="G234" s="24"/>
+      <c r="H234" s="24"/>
+      <c r="I234" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="K234" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L234" s="14">
         <v>232</v>
       </c>
-      <c r="M234" s="15"/>
+      <c r="M234" s="32"/>
       <c r="N234" s="14"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A235" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B235" s="26">
+      <c r="A235" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B235" s="19">
         <v>233</v>
       </c>
-      <c r="C235" s="32"/>
-      <c r="D235" s="16"/>
-      <c r="E235" s="16"/>
-      <c r="F235" s="16"/>
-      <c r="G235" s="16"/>
-      <c r="H235" s="16"/>
-      <c r="I235" s="27"/>
+      <c r="C235" s="26"/>
+      <c r="D235" s="24"/>
+      <c r="E235" s="24"/>
+      <c r="F235" s="24"/>
+      <c r="G235" s="24"/>
+      <c r="H235" s="24"/>
+      <c r="I235" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="K235" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L235" s="14">
         <v>233</v>
       </c>
-      <c r="M235" s="15"/>
+      <c r="M235" s="32"/>
       <c r="N235" s="14"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A236" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B236" s="26">
+      <c r="A236" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B236" s="19">
         <v>234</v>
       </c>
-      <c r="C236" s="32"/>
-      <c r="D236" s="16"/>
-      <c r="E236" s="16"/>
-      <c r="F236" s="16"/>
-      <c r="G236" s="16"/>
-      <c r="H236" s="16"/>
-      <c r="I236" s="27"/>
+      <c r="C236" s="26"/>
+      <c r="D236" s="24"/>
+      <c r="E236" s="24"/>
+      <c r="F236" s="24"/>
+      <c r="G236" s="24"/>
+      <c r="H236" s="24"/>
+      <c r="I236" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="K236" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L236" s="14">
         <v>234</v>
       </c>
-      <c r="M236" s="15"/>
+      <c r="M236" s="32"/>
       <c r="N236" s="14"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A237" s="26" t="s">
+      <c r="A237" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B237" s="19">
+        <v>235</v>
+      </c>
+      <c r="C237" s="26"/>
+      <c r="D237" s="24"/>
+      <c r="E237" s="24"/>
+      <c r="F237" s="24"/>
+      <c r="G237" s="24"/>
+      <c r="H237" s="24"/>
+      <c r="I237" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B237" s="26">
-        <v>235</v>
-      </c>
-      <c r="C237" s="32"/>
-      <c r="D237" s="16"/>
-      <c r="E237" s="16"/>
-      <c r="F237" s="16"/>
-      <c r="G237" s="16"/>
-      <c r="H237" s="16"/>
-      <c r="I237" s="27" t="s">
-        <v>30</v>
-      </c>
       <c r="K237" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L237" s="14">
         <v>235</v>
       </c>
-      <c r="M237" s="15"/>
+      <c r="M237" s="32"/>
       <c r="N237" s="14"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A238" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B238" s="28">
+      <c r="A238" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B238" s="21">
         <v>236</v>
       </c>
-      <c r="C238" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D238" s="16"/>
-      <c r="E238" s="16"/>
-      <c r="F238" s="16"/>
-      <c r="G238" s="16"/>
-      <c r="H238" s="16"/>
-      <c r="I238" s="29" t="s">
-        <v>25</v>
+      <c r="C238" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D238" s="24"/>
+      <c r="E238" s="24"/>
+      <c r="F238" s="24"/>
+      <c r="G238" s="24"/>
+      <c r="H238" s="24"/>
+      <c r="I238" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="K238" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L238" s="14">
         <v>236</v>
       </c>
-      <c r="M238" s="15"/>
+      <c r="M238" s="32"/>
       <c r="N238" s="14"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A239" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B239" s="28">
+      <c r="A239" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B239" s="21">
         <v>237</v>
       </c>
-      <c r="C239" s="33"/>
-      <c r="D239" s="16"/>
-      <c r="E239" s="16"/>
-      <c r="F239" s="16"/>
-      <c r="G239" s="16"/>
-      <c r="H239" s="16"/>
-      <c r="I239" s="29"/>
+      <c r="C239" s="27"/>
+      <c r="D239" s="24"/>
+      <c r="E239" s="24"/>
+      <c r="F239" s="24"/>
+      <c r="G239" s="24"/>
+      <c r="H239" s="24"/>
+      <c r="I239" s="22"/>
       <c r="K239" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L239" s="14">
         <v>237</v>
       </c>
-      <c r="M239" s="15"/>
+      <c r="M239" s="32"/>
       <c r="N239" s="14"/>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A240" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B240" s="28">
+      <c r="A240" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B240" s="21">
         <v>238</v>
       </c>
-      <c r="C240" s="33"/>
-      <c r="D240" s="16"/>
-      <c r="E240" s="16"/>
-      <c r="F240" s="16"/>
-      <c r="G240" s="16"/>
-      <c r="H240" s="16"/>
-      <c r="I240" s="29"/>
+      <c r="C240" s="27"/>
+      <c r="D240" s="24"/>
+      <c r="E240" s="24"/>
+      <c r="F240" s="24"/>
+      <c r="G240" s="24"/>
+      <c r="H240" s="24"/>
+      <c r="I240" s="22"/>
       <c r="K240" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L240" s="14">
         <v>238</v>
       </c>
-      <c r="M240" s="15"/>
+      <c r="M240" s="32"/>
       <c r="N240" s="14"/>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A241" s="28" t="s">
+      <c r="A241" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B241" s="21">
+        <v>239</v>
+      </c>
+      <c r="C241" s="27"/>
+      <c r="D241" s="24"/>
+      <c r="E241" s="24"/>
+      <c r="F241" s="24"/>
+      <c r="G241" s="24"/>
+      <c r="H241" s="24"/>
+      <c r="I241" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B241" s="28">
-        <v>239</v>
-      </c>
-      <c r="C241" s="33"/>
-      <c r="D241" s="16"/>
-      <c r="E241" s="16"/>
-      <c r="F241" s="16"/>
-      <c r="G241" s="16"/>
-      <c r="H241" s="16"/>
-      <c r="I241" s="29" t="s">
-        <v>30</v>
-      </c>
       <c r="K241" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L241" s="14">
         <v>239</v>
       </c>
-      <c r="M241" s="15"/>
+      <c r="M241" s="32"/>
       <c r="N241" s="14"/>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B242">
         <v>240</v>
       </c>
-      <c r="C242" s="16"/>
-      <c r="D242" s="16"/>
-      <c r="E242" s="16"/>
-      <c r="F242" s="16"/>
-      <c r="G242" s="16"/>
-      <c r="H242" s="16"/>
+      <c r="C242" s="24"/>
+      <c r="D242" s="24"/>
+      <c r="E242" s="24"/>
+      <c r="F242" s="24"/>
+      <c r="G242" s="24"/>
+      <c r="H242" s="24"/>
       <c r="I242" s="7"/>
       <c r="K242" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L242" s="14">
         <v>240</v>
       </c>
-      <c r="M242" s="15"/>
+      <c r="M242" s="32"/>
       <c r="N242" s="14"/>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B243">
         <v>241</v>
       </c>
-      <c r="C243" s="16"/>
-      <c r="D243" s="16"/>
-      <c r="E243" s="16"/>
-      <c r="F243" s="16"/>
-      <c r="G243" s="16"/>
-      <c r="H243" s="16"/>
+      <c r="C243" s="24"/>
+      <c r="D243" s="24"/>
+      <c r="E243" s="24"/>
+      <c r="F243" s="24"/>
+      <c r="G243" s="24"/>
+      <c r="H243" s="24"/>
       <c r="I243" s="7"/>
       <c r="K243" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L243" s="14">
         <v>241</v>
       </c>
-      <c r="M243" s="15"/>
+      <c r="M243" s="32"/>
       <c r="N243" s="14"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B244">
         <v>242</v>
       </c>
-      <c r="C244" s="16"/>
-      <c r="D244" s="16"/>
-      <c r="E244" s="16"/>
-      <c r="F244" s="16"/>
-      <c r="G244" s="16"/>
-      <c r="H244" s="16"/>
+      <c r="C244" s="24"/>
+      <c r="D244" s="24"/>
+      <c r="E244" s="24"/>
+      <c r="F244" s="24"/>
+      <c r="G244" s="24"/>
+      <c r="H244" s="24"/>
       <c r="I244" s="7"/>
       <c r="K244" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L244" s="14">
         <v>242</v>
       </c>
-      <c r="M244" s="15"/>
+      <c r="M244" s="32"/>
       <c r="N244" s="14"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B245">
         <v>243</v>
       </c>
-      <c r="C245" s="16"/>
-      <c r="D245" s="16"/>
-      <c r="E245" s="16"/>
-      <c r="F245" s="16"/>
-      <c r="G245" s="16"/>
-      <c r="H245" s="16"/>
+      <c r="C245" s="24"/>
+      <c r="D245" s="24"/>
+      <c r="E245" s="24"/>
+      <c r="F245" s="24"/>
+      <c r="G245" s="24"/>
+      <c r="H245" s="24"/>
       <c r="I245" s="7"/>
       <c r="K245" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L245" s="14">
         <v>243</v>
       </c>
-      <c r="M245" s="15"/>
+      <c r="M245" s="32"/>
       <c r="N245" s="14"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B246">
         <v>244</v>
       </c>
-      <c r="C246" s="16"/>
-      <c r="D246" s="16"/>
-      <c r="E246" s="16"/>
-      <c r="F246" s="16"/>
-      <c r="G246" s="16"/>
-      <c r="H246" s="16"/>
+      <c r="C246" s="24"/>
+      <c r="D246" s="24"/>
+      <c r="E246" s="24"/>
+      <c r="F246" s="24"/>
+      <c r="G246" s="24"/>
+      <c r="H246" s="24"/>
       <c r="I246" s="7"/>
       <c r="K246" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L246" s="14">
         <v>244</v>
       </c>
-      <c r="M246" s="15"/>
+      <c r="M246" s="32"/>
       <c r="N246" s="14"/>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B247">
         <v>245</v>
       </c>
-      <c r="C247" s="16"/>
-      <c r="D247" s="16"/>
-      <c r="E247" s="16"/>
-      <c r="F247" s="16"/>
-      <c r="G247" s="16"/>
-      <c r="H247" s="16"/>
+      <c r="C247" s="24"/>
+      <c r="D247" s="24"/>
+      <c r="E247" s="24"/>
+      <c r="F247" s="24"/>
+      <c r="G247" s="24"/>
+      <c r="H247" s="24"/>
       <c r="I247" s="7"/>
       <c r="K247" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L247" s="14">
         <v>245</v>
       </c>
-      <c r="M247" s="15"/>
+      <c r="M247" s="32"/>
       <c r="N247" s="14"/>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B248">
         <v>246</v>
       </c>
-      <c r="C248" s="16"/>
-      <c r="D248" s="16"/>
-      <c r="E248" s="16"/>
-      <c r="F248" s="16"/>
-      <c r="G248" s="16"/>
-      <c r="H248" s="16"/>
+      <c r="C248" s="24"/>
+      <c r="D248" s="24"/>
+      <c r="E248" s="24"/>
+      <c r="F248" s="24"/>
+      <c r="G248" s="24"/>
+      <c r="H248" s="24"/>
       <c r="I248" s="7"/>
       <c r="K248" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L248" s="14">
         <v>246</v>
       </c>
-      <c r="M248" s="15"/>
+      <c r="M248" s="32"/>
       <c r="N248" s="14"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B249">
         <v>247</v>
       </c>
-      <c r="C249" s="16"/>
-      <c r="D249" s="16"/>
-      <c r="E249" s="16"/>
-      <c r="F249" s="16"/>
-      <c r="G249" s="16"/>
-      <c r="H249" s="16"/>
+      <c r="C249" s="24"/>
+      <c r="D249" s="24"/>
+      <c r="E249" s="24"/>
+      <c r="F249" s="24"/>
+      <c r="G249" s="24"/>
+      <c r="H249" s="24"/>
       <c r="I249" s="7"/>
       <c r="K249" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L249" s="14">
         <v>247</v>
       </c>
-      <c r="M249" s="15"/>
+      <c r="M249" s="32"/>
       <c r="N249" s="14"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B250">
         <v>248</v>
       </c>
-      <c r="C250" s="16"/>
-      <c r="D250" s="16"/>
-      <c r="E250" s="16"/>
-      <c r="F250" s="16"/>
-      <c r="G250" s="16"/>
-      <c r="H250" s="16"/>
+      <c r="C250" s="24"/>
+      <c r="D250" s="24"/>
+      <c r="E250" s="24"/>
+      <c r="F250" s="24"/>
+      <c r="G250" s="24"/>
+      <c r="H250" s="24"/>
       <c r="I250" s="7"/>
       <c r="K250" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L250" s="14">
         <v>248</v>
       </c>
-      <c r="M250" s="15"/>
+      <c r="M250" s="32"/>
       <c r="N250" s="14"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B251">
         <v>249</v>
       </c>
-      <c r="C251" s="16"/>
-      <c r="D251" s="16"/>
-      <c r="E251" s="16"/>
-      <c r="F251" s="16"/>
-      <c r="G251" s="16"/>
-      <c r="H251" s="16"/>
+      <c r="C251" s="24"/>
+      <c r="D251" s="24"/>
+      <c r="E251" s="24"/>
+      <c r="F251" s="24"/>
+      <c r="G251" s="24"/>
+      <c r="H251" s="24"/>
       <c r="I251" s="7"/>
       <c r="K251" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L251" s="14">
         <v>249</v>
       </c>
-      <c r="M251" s="15"/>
+      <c r="M251" s="32"/>
       <c r="N251" s="14"/>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B252">
         <v>250</v>
       </c>
-      <c r="C252" s="16"/>
-      <c r="D252" s="16"/>
-      <c r="E252" s="16"/>
-      <c r="F252" s="16"/>
-      <c r="G252" s="16"/>
-      <c r="H252" s="16"/>
+      <c r="C252" s="24"/>
+      <c r="D252" s="24"/>
+      <c r="E252" s="24"/>
+      <c r="F252" s="24"/>
+      <c r="G252" s="24"/>
+      <c r="H252" s="24"/>
       <c r="I252" s="7"/>
       <c r="K252" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L252" s="14">
         <v>250</v>
       </c>
-      <c r="M252" s="15"/>
+      <c r="M252" s="32"/>
       <c r="N252" s="14"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B253">
         <v>251</v>
       </c>
-      <c r="C253" s="16"/>
-      <c r="D253" s="16"/>
-      <c r="E253" s="16"/>
-      <c r="F253" s="16"/>
-      <c r="G253" s="16"/>
-      <c r="H253" s="16"/>
+      <c r="C253" s="24"/>
+      <c r="D253" s="24"/>
+      <c r="E253" s="24"/>
+      <c r="F253" s="24"/>
+      <c r="G253" s="24"/>
+      <c r="H253" s="24"/>
       <c r="I253" s="7"/>
       <c r="K253" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L253" s="14">
         <v>251</v>
       </c>
-      <c r="M253" s="15"/>
+      <c r="M253" s="32"/>
       <c r="N253" s="14"/>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B254">
         <v>252</v>
       </c>
-      <c r="C254" s="16"/>
-      <c r="D254" s="16"/>
-      <c r="E254" s="16"/>
-      <c r="F254" s="16"/>
-      <c r="G254" s="16"/>
-      <c r="H254" s="16"/>
+      <c r="C254" s="24"/>
+      <c r="D254" s="24"/>
+      <c r="E254" s="24"/>
+      <c r="F254" s="24"/>
+      <c r="G254" s="24"/>
+      <c r="H254" s="24"/>
       <c r="I254" s="7"/>
       <c r="K254" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L254" s="14">
         <v>252</v>
       </c>
-      <c r="M254" s="15"/>
+      <c r="M254" s="32"/>
       <c r="N254" s="14"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B255">
         <v>253</v>
       </c>
-      <c r="C255" s="16"/>
-      <c r="D255" s="16"/>
-      <c r="E255" s="16"/>
-      <c r="F255" s="16"/>
-      <c r="G255" s="16"/>
-      <c r="H255" s="16"/>
+      <c r="C255" s="24"/>
+      <c r="D255" s="24"/>
+      <c r="E255" s="24"/>
+      <c r="F255" s="24"/>
+      <c r="G255" s="24"/>
+      <c r="H255" s="24"/>
       <c r="I255" s="7"/>
       <c r="K255" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L255" s="14">
         <v>253</v>
       </c>
-      <c r="M255" s="15"/>
+      <c r="M255" s="32"/>
       <c r="N255" s="14"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B256">
         <v>254</v>
       </c>
-      <c r="C256" s="16"/>
-      <c r="D256" s="16"/>
-      <c r="E256" s="16"/>
-      <c r="F256" s="16"/>
-      <c r="G256" s="16"/>
-      <c r="H256" s="16"/>
+      <c r="C256" s="24"/>
+      <c r="D256" s="24"/>
+      <c r="E256" s="24"/>
+      <c r="F256" s="24"/>
+      <c r="G256" s="24"/>
+      <c r="H256" s="24"/>
       <c r="I256" s="7"/>
       <c r="K256" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L256" s="14">
         <v>254</v>
       </c>
-      <c r="M256" s="15"/>
-      <c r="N256" s="14"/>
+      <c r="M256" s="32"/>
+      <c r="N256" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B257">
         <v>255</v>
       </c>
-      <c r="C257" s="16"/>
-      <c r="D257" s="16"/>
-      <c r="E257" s="16"/>
-      <c r="F257" s="16"/>
-      <c r="G257" s="16"/>
-      <c r="H257" s="16"/>
+      <c r="C257" s="24"/>
+      <c r="D257" s="24"/>
+      <c r="E257" s="24"/>
+      <c r="F257" s="24"/>
+      <c r="G257" s="24"/>
+      <c r="H257" s="24"/>
       <c r="I257" s="7"/>
       <c r="K257" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L257" s="14">
         <v>255</v>
       </c>
-      <c r="M257" s="15"/>
+      <c r="M257" s="32"/>
       <c r="N257" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="F194:F225"/>
-    <mergeCell ref="G194:G257"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="D202:D209"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="D210:D217"/>
-    <mergeCell ref="E210:E225"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="D250:D257"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="F226:F257"/>
-    <mergeCell ref="C230:C233"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="D234:D241"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D249"/>
-    <mergeCell ref="E242:E257"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="E194:E209"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="E162:E177"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="D218:D225"/>
-    <mergeCell ref="C222:C225"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D233"/>
-    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="M2:M257"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="F2:F33"/>
+    <mergeCell ref="G2:G65"/>
+    <mergeCell ref="H2:H129"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="F34:F65"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E33"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E50:E65"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="E66:E81"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="E34:E49"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D105"/>
+    <mergeCell ref="E98:E113"/>
+    <mergeCell ref="F66:F97"/>
+    <mergeCell ref="G66:G129"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="E82:E97"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D122:D129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="E130:E145"/>
+    <mergeCell ref="F130:F161"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="F98:F129"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="E114:E129"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
     <mergeCell ref="F162:F193"/>
     <mergeCell ref="C166:C169"/>
     <mergeCell ref="C170:C173"/>
@@ -7203,77 +7578,38 @@
     <mergeCell ref="C190:C193"/>
     <mergeCell ref="C194:C197"/>
     <mergeCell ref="D194:D201"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="E130:E145"/>
-    <mergeCell ref="F130:F161"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="F98:F129"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="E114:E129"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D105"/>
-    <mergeCell ref="E98:E113"/>
-    <mergeCell ref="F66:F97"/>
-    <mergeCell ref="G66:G129"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="E82:E97"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D122:D129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E50:E65"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="E66:E81"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="E34:E49"/>
-    <mergeCell ref="M2:M257"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="F2:F33"/>
-    <mergeCell ref="G2:G65"/>
-    <mergeCell ref="H2:H129"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="F34:F65"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E33"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="E162:E177"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="D218:D225"/>
+    <mergeCell ref="C222:C225"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D233"/>
+    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="F194:F225"/>
+    <mergeCell ref="G194:G257"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D202:D209"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="D210:D217"/>
+    <mergeCell ref="E210:E225"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="D250:D257"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="F226:F257"/>
+    <mergeCell ref="C230:C233"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="D234:D241"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D249"/>
+    <mergeCell ref="E242:E257"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="E194:E209"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ipcim.xlsx
+++ b/ipcim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bela\Git\halozatProjektek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B214DE9A-12AF-494D-956E-4BF6CEC33A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8219BB-2762-4D64-95B2-9179554DFBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C8323FA4-6CC7-40F6-BE4B-AB2032EB79E9}"/>
   </bookViews>
@@ -583,10 +583,28 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -597,24 +615,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1332,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE611228-1758-41E4-B155-B304EF4AAA5B}">
   <dimension ref="A1:R257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N256" sqref="N256"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="R142" sqref="R142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,7 +1378,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="9" t="s">
@@ -1390,7 +1390,7 @@
       <c r="L2" s="14">
         <v>0</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="23" t="s">
         <v>34</v>
       </c>
       <c r="N2" s="14" t="s">
@@ -1409,7 +1409,7 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="33"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="9" t="s">
         <v>23</v>
       </c>
@@ -1419,7 +1419,7 @@
       <c r="L3" s="14">
         <v>1</v>
       </c>
-      <c r="M3" s="32"/>
+      <c r="M3" s="23"/>
       <c r="N3" s="14"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
-      <c r="H4" s="33"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="9" t="s">
         <v>46</v>
       </c>
@@ -1444,7 +1444,7 @@
       <c r="L4" s="14">
         <v>2</v>
       </c>
-      <c r="M4" s="32"/>
+      <c r="M4" s="23"/>
       <c r="N4" s="14" t="s">
         <v>28</v>
       </c>
@@ -1461,7 +1461,7 @@
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
-      <c r="H5" s="33"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="9"/>
       <c r="K5" s="14" t="s">
         <v>33</v>
@@ -1469,7 +1469,7 @@
       <c r="L5" s="14">
         <v>3</v>
       </c>
-      <c r="M5" s="32"/>
+      <c r="M5" s="23"/>
       <c r="N5" s="14" t="s">
         <v>27</v>
       </c>
@@ -1486,7 +1486,7 @@
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="33"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="9"/>
       <c r="K6" s="14" t="s">
         <v>33</v>
@@ -1494,7 +1494,7 @@
       <c r="L6" s="14">
         <v>4</v>
       </c>
-      <c r="M6" s="32"/>
+      <c r="M6" s="23"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
-      <c r="H7" s="33"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="9" t="s">
         <v>47</v>
       </c>
@@ -1519,7 +1519,7 @@
       <c r="L7" s="14">
         <v>5</v>
       </c>
-      <c r="M7" s="32"/>
+      <c r="M7" s="23"/>
       <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
-      <c r="H8" s="33"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="9" t="s">
         <v>48</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="L8" s="14">
         <v>6</v>
       </c>
-      <c r="M8" s="32"/>
+      <c r="M8" s="23"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="33"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="9" t="s">
         <v>49</v>
       </c>
@@ -1569,7 +1569,7 @@
       <c r="L9" s="14">
         <v>7</v>
       </c>
-      <c r="M9" s="32"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1584,7 +1584,7 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="33"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="9" t="s">
         <v>50</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="L10" s="14">
         <v>8</v>
       </c>
-      <c r="M10" s="32"/>
+      <c r="M10" s="23"/>
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="H11" s="33"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="9" t="s">
         <v>51</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="L11" s="14">
         <v>9</v>
       </c>
-      <c r="M11" s="32"/>
+      <c r="M11" s="23"/>
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1634,7 +1634,7 @@
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="H12" s="33"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="9" t="s">
         <v>52</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="L12" s="14">
         <v>10</v>
       </c>
-      <c r="M12" s="32"/>
+      <c r="M12" s="23"/>
       <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1659,7 +1659,7 @@
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="33"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="9" t="s">
         <v>53</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="L13" s="14">
         <v>11</v>
       </c>
-      <c r="M13" s="32"/>
+      <c r="M13" s="23"/>
       <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1684,7 +1684,7 @@
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="33"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="9" t="s">
         <v>54</v>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="L14" s="14">
         <v>12</v>
       </c>
-      <c r="M14" s="32"/>
+      <c r="M14" s="23"/>
       <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1709,7 +1709,7 @@
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="33"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="9" t="s">
         <v>55</v>
       </c>
@@ -1719,7 +1719,7 @@
       <c r="L15" s="14">
         <v>13</v>
       </c>
-      <c r="M15" s="32"/>
+      <c r="M15" s="23"/>
       <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
-      <c r="H16" s="33"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="9" t="s">
         <v>56</v>
       </c>
@@ -1744,7 +1744,7 @@
       <c r="L16" s="14">
         <v>14</v>
       </c>
-      <c r="M16" s="32"/>
+      <c r="M16" s="23"/>
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
-      <c r="H17" s="33"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="9" t="s">
         <v>57</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="L17" s="14">
         <v>15</v>
       </c>
-      <c r="M17" s="32"/>
+      <c r="M17" s="23"/>
       <c r="N17" s="14"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1784,7 +1784,7 @@
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
-      <c r="H18" s="33"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="9" t="s">
         <v>58</v>
       </c>
@@ -1794,7 +1794,7 @@
       <c r="L18" s="14">
         <v>16</v>
       </c>
-      <c r="M18" s="32"/>
+      <c r="M18" s="23"/>
       <c r="N18" s="14" t="s">
         <v>29</v>
       </c>
@@ -1811,7 +1811,7 @@
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
-      <c r="H19" s="33"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="9" t="s">
         <v>59</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="L19" s="14">
         <v>17</v>
       </c>
-      <c r="M19" s="32"/>
+      <c r="M19" s="23"/>
       <c r="N19" s="14" t="s">
         <v>30</v>
       </c>
@@ -1838,7 +1838,7 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
-      <c r="H20" s="33"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="9" t="s">
         <v>60</v>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="L20" s="14">
         <v>18</v>
       </c>
-      <c r="M20" s="32"/>
+      <c r="M20" s="23"/>
       <c r="N20" s="14" t="s">
         <v>31</v>
       </c>
@@ -1865,7 +1865,7 @@
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
-      <c r="H21" s="33"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="9" t="s">
         <v>61</v>
       </c>
@@ -1875,7 +1875,7 @@
       <c r="L21" s="14">
         <v>19</v>
       </c>
-      <c r="M21" s="32"/>
+      <c r="M21" s="23"/>
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
-      <c r="H22" s="33"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="9" t="s">
         <v>62</v>
       </c>
@@ -1900,7 +1900,7 @@
       <c r="L22" s="14">
         <v>20</v>
       </c>
-      <c r="M22" s="32"/>
+      <c r="M22" s="23"/>
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1915,7 +1915,7 @@
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
-      <c r="H23" s="33"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="9" t="s">
         <v>63</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="L23" s="14">
         <v>21</v>
       </c>
-      <c r="M23" s="32"/>
+      <c r="M23" s="23"/>
       <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1940,7 +1940,7 @@
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
-      <c r="H24" s="33"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="9" t="s">
         <v>64</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="L24" s="14">
         <v>22</v>
       </c>
-      <c r="M24" s="32"/>
+      <c r="M24" s="23"/>
       <c r="N24" s="14"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1965,7 +1965,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
-      <c r="H25" s="33"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="9" t="s">
         <v>65</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="L25" s="14">
         <v>23</v>
       </c>
-      <c r="M25" s="32"/>
+      <c r="M25" s="23"/>
       <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1990,7 +1990,7 @@
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
-      <c r="H26" s="33"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="9" t="s">
         <v>66</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="L26" s="14">
         <v>24</v>
       </c>
-      <c r="M26" s="32"/>
+      <c r="M26" s="23"/>
       <c r="N26" s="14"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2015,7 +2015,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="33"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="9" t="s">
         <v>67</v>
       </c>
@@ -2025,7 +2025,7 @@
       <c r="L27" s="14">
         <v>25</v>
       </c>
-      <c r="M27" s="32"/>
+      <c r="M27" s="23"/>
       <c r="N27" s="14"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2040,7 +2040,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
-      <c r="H28" s="33"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="9" t="s">
         <v>68</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="L28" s="14">
         <v>26</v>
       </c>
-      <c r="M28" s="32"/>
+      <c r="M28" s="23"/>
       <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2065,7 +2065,7 @@
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
-      <c r="H29" s="33"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="9" t="s">
         <v>69</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="L29" s="14">
         <v>27</v>
       </c>
-      <c r="M29" s="32"/>
+      <c r="M29" s="23"/>
       <c r="N29" s="14"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2090,7 +2090,7 @@
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
-      <c r="H30" s="33"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="9" t="s">
         <v>70</v>
       </c>
@@ -2100,7 +2100,7 @@
       <c r="L30" s="14">
         <v>28</v>
       </c>
-      <c r="M30" s="32"/>
+      <c r="M30" s="23"/>
       <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2115,7 +2115,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="33"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="9" t="s">
         <v>71</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="L31" s="14">
         <v>29</v>
       </c>
-      <c r="M31" s="32"/>
+      <c r="M31" s="23"/>
       <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2140,7 +2140,7 @@
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
-      <c r="H32" s="33"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="9" t="s">
         <v>72</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="L32" s="14">
         <v>30</v>
       </c>
-      <c r="M32" s="32"/>
+      <c r="M32" s="23"/>
       <c r="N32" s="14"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2165,7 +2165,7 @@
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
-      <c r="H33" s="33"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="9" t="s">
         <v>73</v>
       </c>
@@ -2175,7 +2175,7 @@
       <c r="L33" s="14">
         <v>31</v>
       </c>
-      <c r="M33" s="32"/>
+      <c r="M33" s="23"/>
       <c r="N33" s="14"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2190,7 +2190,7 @@
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
-      <c r="H34" s="33"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="9" t="s">
         <v>74</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="L34" s="14">
         <v>32</v>
       </c>
-      <c r="M34" s="32"/>
+      <c r="M34" s="23"/>
       <c r="N34" s="14"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2215,7 +2215,7 @@
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
-      <c r="H35" s="33"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="9" t="s">
         <v>75</v>
       </c>
@@ -2225,7 +2225,7 @@
       <c r="L35" s="14">
         <v>33</v>
       </c>
-      <c r="M35" s="32"/>
+      <c r="M35" s="23"/>
       <c r="N35" s="14"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2240,7 +2240,7 @@
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
-      <c r="H36" s="33"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="9" t="s">
         <v>76</v>
       </c>
@@ -2250,7 +2250,7 @@
       <c r="L36" s="14">
         <v>34</v>
       </c>
-      <c r="M36" s="32"/>
+      <c r="M36" s="23"/>
       <c r="N36" s="14"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2265,7 +2265,7 @@
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
-      <c r="H37" s="33"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="9" t="s">
         <v>77</v>
       </c>
@@ -2275,7 +2275,7 @@
       <c r="L37" s="14">
         <v>35</v>
       </c>
-      <c r="M37" s="32"/>
+      <c r="M37" s="23"/>
       <c r="N37" s="14"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2290,7 +2290,7 @@
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
-      <c r="H38" s="33"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="9" t="s">
         <v>78</v>
       </c>
@@ -2300,7 +2300,7 @@
       <c r="L38" s="14">
         <v>36</v>
       </c>
-      <c r="M38" s="32"/>
+      <c r="M38" s="23"/>
       <c r="N38" s="14"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2315,7 +2315,7 @@
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
-      <c r="H39" s="33"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="9" t="s">
         <v>79</v>
       </c>
@@ -2325,7 +2325,7 @@
       <c r="L39" s="14">
         <v>37</v>
       </c>
-      <c r="M39" s="32"/>
+      <c r="M39" s="23"/>
       <c r="N39" s="14"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -2340,7 +2340,7 @@
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
-      <c r="H40" s="33"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="9" t="s">
         <v>80</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="L40" s="14">
         <v>38</v>
       </c>
-      <c r="M40" s="32"/>
+      <c r="M40" s="23"/>
       <c r="N40" s="14"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -2365,7 +2365,7 @@
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
-      <c r="H41" s="33"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="9" t="s">
         <v>81</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="L41" s="14">
         <v>39</v>
       </c>
-      <c r="M41" s="32"/>
+      <c r="M41" s="23"/>
       <c r="N41" s="14"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -2390,7 +2390,7 @@
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
-      <c r="H42" s="33"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="9" t="s">
         <v>82</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="L42" s="14">
         <v>40</v>
       </c>
-      <c r="M42" s="32"/>
+      <c r="M42" s="23"/>
       <c r="N42" s="14"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -2415,7 +2415,7 @@
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
-      <c r="H43" s="33"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="9" t="s">
         <v>83</v>
       </c>
@@ -2425,7 +2425,7 @@
       <c r="L43" s="14">
         <v>41</v>
       </c>
-      <c r="M43" s="32"/>
+      <c r="M43" s="23"/>
       <c r="N43" s="14"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
-      <c r="H44" s="33"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="9" t="s">
         <v>84</v>
       </c>
@@ -2450,7 +2450,7 @@
       <c r="L44" s="14">
         <v>42</v>
       </c>
-      <c r="M44" s="32"/>
+      <c r="M44" s="23"/>
       <c r="N44" s="14"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -2465,7 +2465,7 @@
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
-      <c r="H45" s="33"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="9" t="s">
         <v>85</v>
       </c>
@@ -2475,7 +2475,7 @@
       <c r="L45" s="14">
         <v>43</v>
       </c>
-      <c r="M45" s="32"/>
+      <c r="M45" s="23"/>
       <c r="N45" s="14"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -2490,7 +2490,7 @@
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
-      <c r="H46" s="33"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="9" t="s">
         <v>86</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="L46" s="14">
         <v>44</v>
       </c>
-      <c r="M46" s="32"/>
+      <c r="M46" s="23"/>
       <c r="N46" s="14" t="s">
         <v>35</v>
       </c>
@@ -2517,7 +2517,7 @@
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
-      <c r="H47" s="33"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="9" t="s">
         <v>87</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="L47" s="14">
         <v>45</v>
       </c>
-      <c r="M47" s="32"/>
+      <c r="M47" s="23"/>
       <c r="N47" s="14"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -2542,7 +2542,7 @@
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
-      <c r="H48" s="33"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="9" t="s">
         <v>88</v>
       </c>
@@ -2552,7 +2552,7 @@
       <c r="L48" s="14">
         <v>46</v>
       </c>
-      <c r="M48" s="32"/>
+      <c r="M48" s="23"/>
       <c r="N48" s="14"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -2567,7 +2567,7 @@
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
-      <c r="H49" s="33"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="9" t="s">
         <v>89</v>
       </c>
@@ -2577,7 +2577,7 @@
       <c r="L49" s="14">
         <v>47</v>
       </c>
-      <c r="M49" s="32"/>
+      <c r="M49" s="23"/>
       <c r="N49" s="14"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
-      <c r="H50" s="33"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="9" t="s">
         <v>90</v>
       </c>
@@ -2602,7 +2602,7 @@
       <c r="L50" s="14">
         <v>48</v>
       </c>
-      <c r="M50" s="32"/>
+      <c r="M50" s="23"/>
       <c r="N50" s="14"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -2617,7 +2617,7 @@
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
-      <c r="H51" s="33"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="9" t="s">
         <v>91</v>
       </c>
@@ -2627,7 +2627,7 @@
       <c r="L51" s="14">
         <v>49</v>
       </c>
-      <c r="M51" s="32"/>
+      <c r="M51" s="23"/>
       <c r="N51" s="14"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -2642,7 +2642,7 @@
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
-      <c r="H52" s="33"/>
+      <c r="H52" s="25"/>
       <c r="I52" s="9" t="s">
         <v>92</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="L52" s="14">
         <v>50</v>
       </c>
-      <c r="M52" s="32"/>
+      <c r="M52" s="23"/>
       <c r="N52" s="14"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -2667,7 +2667,7 @@
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
-      <c r="H53" s="33"/>
+      <c r="H53" s="25"/>
       <c r="I53" s="9" t="s">
         <v>93</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="L53" s="14">
         <v>51</v>
       </c>
-      <c r="M53" s="32"/>
+      <c r="M53" s="23"/>
       <c r="N53" s="14"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
-      <c r="H54" s="33"/>
+      <c r="H54" s="25"/>
       <c r="I54" s="9" t="s">
         <v>94</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="L54" s="14">
         <v>52</v>
       </c>
-      <c r="M54" s="32"/>
+      <c r="M54" s="23"/>
       <c r="N54" s="14"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -2717,7 +2717,7 @@
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
-      <c r="H55" s="33"/>
+      <c r="H55" s="25"/>
       <c r="I55" s="9" t="s">
         <v>95</v>
       </c>
@@ -2727,7 +2727,7 @@
       <c r="L55" s="14">
         <v>53</v>
       </c>
-      <c r="M55" s="32"/>
+      <c r="M55" s="23"/>
       <c r="N55" s="14"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -2742,7 +2742,7 @@
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
       <c r="G56" s="24"/>
-      <c r="H56" s="33"/>
+      <c r="H56" s="25"/>
       <c r="I56" s="9" t="s">
         <v>96</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="L56" s="14">
         <v>54</v>
       </c>
-      <c r="M56" s="32"/>
+      <c r="M56" s="23"/>
       <c r="N56" s="14"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -2767,7 +2767,7 @@
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
       <c r="G57" s="24"/>
-      <c r="H57" s="33"/>
+      <c r="H57" s="25"/>
       <c r="I57" s="9" t="s">
         <v>97</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="L57" s="14">
         <v>55</v>
       </c>
-      <c r="M57" s="32"/>
+      <c r="M57" s="23"/>
       <c r="N57" s="14"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -2792,7 +2792,7 @@
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
       <c r="G58" s="24"/>
-      <c r="H58" s="33"/>
+      <c r="H58" s="25"/>
       <c r="I58" s="9" t="s">
         <v>98</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="L58" s="14">
         <v>56</v>
       </c>
-      <c r="M58" s="32"/>
+      <c r="M58" s="23"/>
       <c r="N58" s="14"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -2817,7 +2817,7 @@
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
-      <c r="H59" s="33"/>
+      <c r="H59" s="25"/>
       <c r="I59" s="9" t="s">
         <v>99</v>
       </c>
@@ -2827,7 +2827,7 @@
       <c r="L59" s="14">
         <v>57</v>
       </c>
-      <c r="M59" s="32"/>
+      <c r="M59" s="23"/>
       <c r="N59" s="14"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -2842,7 +2842,7 @@
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
-      <c r="H60" s="33"/>
+      <c r="H60" s="25"/>
       <c r="I60" s="9" t="s">
         <v>100</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="L60" s="14">
         <v>58</v>
       </c>
-      <c r="M60" s="32"/>
+      <c r="M60" s="23"/>
       <c r="N60" s="14"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -2867,7 +2867,7 @@
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
       <c r="G61" s="24"/>
-      <c r="H61" s="33"/>
+      <c r="H61" s="25"/>
       <c r="I61" s="9" t="s">
         <v>101</v>
       </c>
@@ -2877,7 +2877,7 @@
       <c r="L61" s="14">
         <v>59</v>
       </c>
-      <c r="M61" s="32"/>
+      <c r="M61" s="23"/>
       <c r="N61" s="14"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -2892,7 +2892,7 @@
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
       <c r="G62" s="24"/>
-      <c r="H62" s="33"/>
+      <c r="H62" s="25"/>
       <c r="I62" s="9" t="s">
         <v>102</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="L62" s="14">
         <v>60</v>
       </c>
-      <c r="M62" s="32"/>
+      <c r="M62" s="23"/>
       <c r="N62" s="14"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -2917,7 +2917,7 @@
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
       <c r="G63" s="24"/>
-      <c r="H63" s="33"/>
+      <c r="H63" s="25"/>
       <c r="I63" s="9" t="s">
         <v>103</v>
       </c>
@@ -2927,7 +2927,7 @@
       <c r="L63" s="14">
         <v>61</v>
       </c>
-      <c r="M63" s="32"/>
+      <c r="M63" s="23"/>
       <c r="N63" s="14"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -2942,7 +2942,7 @@
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="33"/>
+      <c r="H64" s="25"/>
       <c r="I64" s="9" t="s">
         <v>104</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="L64" s="14">
         <v>62</v>
       </c>
-      <c r="M64" s="32"/>
+      <c r="M64" s="23"/>
       <c r="N64" s="14"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -2967,7 +2967,7 @@
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
       <c r="G65" s="24"/>
-      <c r="H65" s="33"/>
+      <c r="H65" s="25"/>
       <c r="I65" s="9" t="s">
         <v>105</v>
       </c>
@@ -2977,7 +2977,7 @@
       <c r="L65" s="14">
         <v>63</v>
       </c>
-      <c r="M65" s="32"/>
+      <c r="M65" s="23"/>
       <c r="N65" s="14"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -2992,7 +2992,7 @@
       <c r="E66" s="24"/>
       <c r="F66" s="24"/>
       <c r="G66" s="24"/>
-      <c r="H66" s="33"/>
+      <c r="H66" s="25"/>
       <c r="I66" s="9" t="s">
         <v>106</v>
       </c>
@@ -3002,7 +3002,7 @@
       <c r="L66" s="14">
         <v>64</v>
       </c>
-      <c r="M66" s="32"/>
+      <c r="M66" s="23"/>
       <c r="N66" s="14"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -3017,7 +3017,7 @@
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
-      <c r="H67" s="33"/>
+      <c r="H67" s="25"/>
       <c r="I67" s="9" t="s">
         <v>107</v>
       </c>
@@ -3027,7 +3027,7 @@
       <c r="L67" s="14">
         <v>65</v>
       </c>
-      <c r="M67" s="32"/>
+      <c r="M67" s="23"/>
       <c r="N67" s="14"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -3042,7 +3042,7 @@
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
       <c r="G68" s="24"/>
-      <c r="H68" s="33"/>
+      <c r="H68" s="25"/>
       <c r="I68" s="9" t="s">
         <v>108</v>
       </c>
@@ -3052,7 +3052,7 @@
       <c r="L68" s="14">
         <v>66</v>
       </c>
-      <c r="M68" s="32"/>
+      <c r="M68" s="23"/>
       <c r="N68" s="14"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -3067,7 +3067,7 @@
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
       <c r="G69" s="24"/>
-      <c r="H69" s="33"/>
+      <c r="H69" s="25"/>
       <c r="I69" s="9" t="s">
         <v>109</v>
       </c>
@@ -3077,7 +3077,7 @@
       <c r="L69" s="14">
         <v>67</v>
       </c>
-      <c r="M69" s="32"/>
+      <c r="M69" s="23"/>
       <c r="N69" s="14"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -3092,7 +3092,7 @@
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
       <c r="G70" s="24"/>
-      <c r="H70" s="33"/>
+      <c r="H70" s="25"/>
       <c r="I70" s="9" t="s">
         <v>110</v>
       </c>
@@ -3102,7 +3102,7 @@
       <c r="L70" s="14">
         <v>68</v>
       </c>
-      <c r="M70" s="32"/>
+      <c r="M70" s="23"/>
       <c r="N70" s="14"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
       <c r="G71" s="24"/>
-      <c r="H71" s="33"/>
+      <c r="H71" s="25"/>
       <c r="I71" s="9" t="s">
         <v>111</v>
       </c>
@@ -3127,7 +3127,7 @@
       <c r="L71" s="14">
         <v>69</v>
       </c>
-      <c r="M71" s="32"/>
+      <c r="M71" s="23"/>
       <c r="N71" s="14"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -3142,7 +3142,7 @@
       <c r="E72" s="24"/>
       <c r="F72" s="24"/>
       <c r="G72" s="24"/>
-      <c r="H72" s="33"/>
+      <c r="H72" s="25"/>
       <c r="I72" s="9" t="s">
         <v>112</v>
       </c>
@@ -3152,7 +3152,7 @@
       <c r="L72" s="14">
         <v>70</v>
       </c>
-      <c r="M72" s="32"/>
+      <c r="M72" s="23"/>
       <c r="N72" s="14"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -3167,7 +3167,7 @@
       <c r="E73" s="24"/>
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
-      <c r="H73" s="33"/>
+      <c r="H73" s="25"/>
       <c r="I73" s="9"/>
       <c r="K73" s="14" t="s">
         <v>33</v>
@@ -3175,7 +3175,7 @@
       <c r="L73" s="14">
         <v>71</v>
       </c>
-      <c r="M73" s="32"/>
+      <c r="M73" s="23"/>
       <c r="N73" s="14"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -3190,7 +3190,7 @@
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
-      <c r="H74" s="33"/>
+      <c r="H74" s="25"/>
       <c r="I74" s="9"/>
       <c r="K74" s="14" t="s">
         <v>33</v>
@@ -3198,7 +3198,7 @@
       <c r="L74" s="14">
         <v>72</v>
       </c>
-      <c r="M74" s="32"/>
+      <c r="M74" s="23"/>
       <c r="N74" s="14"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
       <c r="G75" s="24"/>
-      <c r="H75" s="33"/>
+      <c r="H75" s="25"/>
       <c r="I75" s="9"/>
       <c r="K75" s="14" t="s">
         <v>33</v>
@@ -3221,7 +3221,7 @@
       <c r="L75" s="14">
         <v>73</v>
       </c>
-      <c r="M75" s="32"/>
+      <c r="M75" s="23"/>
       <c r="N75" s="14"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -3236,7 +3236,7 @@
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
       <c r="G76" s="24"/>
-      <c r="H76" s="33"/>
+      <c r="H76" s="25"/>
       <c r="I76" s="9"/>
       <c r="K76" s="14" t="s">
         <v>33</v>
@@ -3244,7 +3244,7 @@
       <c r="L76" s="14">
         <v>74</v>
       </c>
-      <c r="M76" s="32"/>
+      <c r="M76" s="23"/>
       <c r="N76" s="14"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -3259,7 +3259,7 @@
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
       <c r="G77" s="24"/>
-      <c r="H77" s="33"/>
+      <c r="H77" s="25"/>
       <c r="I77" s="9"/>
       <c r="K77" s="14" t="s">
         <v>33</v>
@@ -3267,7 +3267,7 @@
       <c r="L77" s="14">
         <v>75</v>
       </c>
-      <c r="M77" s="32"/>
+      <c r="M77" s="23"/>
       <c r="N77" s="14"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -3282,7 +3282,7 @@
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
       <c r="G78" s="24"/>
-      <c r="H78" s="33"/>
+      <c r="H78" s="25"/>
       <c r="I78" s="9"/>
       <c r="K78" s="14" t="s">
         <v>33</v>
@@ -3290,7 +3290,7 @@
       <c r="L78" s="14">
         <v>76</v>
       </c>
-      <c r="M78" s="32"/>
+      <c r="M78" s="23"/>
       <c r="N78" s="14"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -3305,7 +3305,7 @@
       <c r="E79" s="24"/>
       <c r="F79" s="24"/>
       <c r="G79" s="24"/>
-      <c r="H79" s="33"/>
+      <c r="H79" s="25"/>
       <c r="I79" s="9"/>
       <c r="K79" s="14" t="s">
         <v>33</v>
@@ -3313,7 +3313,7 @@
       <c r="L79" s="14">
         <v>77</v>
       </c>
-      <c r="M79" s="32"/>
+      <c r="M79" s="23"/>
       <c r="N79" s="14"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -3328,7 +3328,7 @@
       <c r="E80" s="24"/>
       <c r="F80" s="24"/>
       <c r="G80" s="24"/>
-      <c r="H80" s="33"/>
+      <c r="H80" s="25"/>
       <c r="I80" s="9"/>
       <c r="K80" s="14" t="s">
         <v>33</v>
@@ -3336,7 +3336,7 @@
       <c r="L80" s="14">
         <v>78</v>
       </c>
-      <c r="M80" s="32"/>
+      <c r="M80" s="23"/>
       <c r="N80" s="14"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -3351,7 +3351,7 @@
       <c r="E81" s="24"/>
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
-      <c r="H81" s="33"/>
+      <c r="H81" s="25"/>
       <c r="I81" s="9"/>
       <c r="K81" s="14" t="s">
         <v>33</v>
@@ -3359,7 +3359,7 @@
       <c r="L81" s="14">
         <v>79</v>
       </c>
-      <c r="M81" s="32"/>
+      <c r="M81" s="23"/>
       <c r="N81" s="14"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -3374,7 +3374,7 @@
       <c r="E82" s="24"/>
       <c r="F82" s="24"/>
       <c r="G82" s="24"/>
-      <c r="H82" s="33"/>
+      <c r="H82" s="25"/>
       <c r="I82" s="9"/>
       <c r="K82" s="14" t="s">
         <v>33</v>
@@ -3382,7 +3382,7 @@
       <c r="L82" s="14">
         <v>80</v>
       </c>
-      <c r="M82" s="32"/>
+      <c r="M82" s="23"/>
       <c r="N82" s="14"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -3397,7 +3397,7 @@
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
       <c r="G83" s="24"/>
-      <c r="H83" s="33"/>
+      <c r="H83" s="25"/>
       <c r="I83" s="9"/>
       <c r="K83" s="14" t="s">
         <v>33</v>
@@ -3405,7 +3405,7 @@
       <c r="L83" s="14">
         <v>81</v>
       </c>
-      <c r="M83" s="32"/>
+      <c r="M83" s="23"/>
       <c r="N83" s="14"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -3420,7 +3420,7 @@
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
       <c r="G84" s="24"/>
-      <c r="H84" s="33"/>
+      <c r="H84" s="25"/>
       <c r="I84" s="9"/>
       <c r="K84" s="14" t="s">
         <v>33</v>
@@ -3428,7 +3428,7 @@
       <c r="L84" s="14">
         <v>82</v>
       </c>
-      <c r="M84" s="32"/>
+      <c r="M84" s="23"/>
       <c r="N84" s="14"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -3443,7 +3443,7 @@
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
       <c r="G85" s="24"/>
-      <c r="H85" s="33"/>
+      <c r="H85" s="25"/>
       <c r="I85" s="9"/>
       <c r="K85" s="14" t="s">
         <v>33</v>
@@ -3451,7 +3451,7 @@
       <c r="L85" s="14">
         <v>83</v>
       </c>
-      <c r="M85" s="32"/>
+      <c r="M85" s="23"/>
       <c r="N85" s="14"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -3466,7 +3466,7 @@
       <c r="E86" s="24"/>
       <c r="F86" s="24"/>
       <c r="G86" s="24"/>
-      <c r="H86" s="33"/>
+      <c r="H86" s="25"/>
       <c r="I86" s="9"/>
       <c r="K86" s="14" t="s">
         <v>33</v>
@@ -3474,7 +3474,7 @@
       <c r="L86" s="14">
         <v>84</v>
       </c>
-      <c r="M86" s="32"/>
+      <c r="M86" s="23"/>
       <c r="N86" s="14"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -3489,7 +3489,7 @@
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
       <c r="G87" s="24"/>
-      <c r="H87" s="33"/>
+      <c r="H87" s="25"/>
       <c r="I87" s="9"/>
       <c r="K87" s="14" t="s">
         <v>33</v>
@@ -3497,7 +3497,7 @@
       <c r="L87" s="14">
         <v>85</v>
       </c>
-      <c r="M87" s="32"/>
+      <c r="M87" s="23"/>
       <c r="N87" s="14"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -3512,7 +3512,7 @@
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
       <c r="G88" s="24"/>
-      <c r="H88" s="33"/>
+      <c r="H88" s="25"/>
       <c r="I88" s="9"/>
       <c r="K88" s="14" t="s">
         <v>33</v>
@@ -3520,7 +3520,7 @@
       <c r="L88" s="14">
         <v>86</v>
       </c>
-      <c r="M88" s="32"/>
+      <c r="M88" s="23"/>
       <c r="N88" s="14"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
       <c r="G89" s="24"/>
-      <c r="H89" s="33"/>
+      <c r="H89" s="25"/>
       <c r="I89" s="9"/>
       <c r="K89" s="14" t="s">
         <v>33</v>
@@ -3543,7 +3543,7 @@
       <c r="L89" s="14">
         <v>87</v>
       </c>
-      <c r="M89" s="32"/>
+      <c r="M89" s="23"/>
       <c r="N89" s="14"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -3558,7 +3558,7 @@
       <c r="E90" s="24"/>
       <c r="F90" s="24"/>
       <c r="G90" s="24"/>
-      <c r="H90" s="33"/>
+      <c r="H90" s="25"/>
       <c r="I90" s="9"/>
       <c r="K90" s="14" t="s">
         <v>33</v>
@@ -3566,7 +3566,7 @@
       <c r="L90" s="14">
         <v>88</v>
       </c>
-      <c r="M90" s="32"/>
+      <c r="M90" s="23"/>
       <c r="N90" s="14"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -3581,7 +3581,7 @@
       <c r="E91" s="24"/>
       <c r="F91" s="24"/>
       <c r="G91" s="24"/>
-      <c r="H91" s="33"/>
+      <c r="H91" s="25"/>
       <c r="I91" s="9"/>
       <c r="K91" s="14" t="s">
         <v>33</v>
@@ -3589,7 +3589,7 @@
       <c r="L91" s="14">
         <v>89</v>
       </c>
-      <c r="M91" s="32"/>
+      <c r="M91" s="23"/>
       <c r="N91" s="14"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -3604,7 +3604,7 @@
       <c r="E92" s="24"/>
       <c r="F92" s="24"/>
       <c r="G92" s="24"/>
-      <c r="H92" s="33"/>
+      <c r="H92" s="25"/>
       <c r="I92" s="9"/>
       <c r="K92" s="14" t="s">
         <v>33</v>
@@ -3612,7 +3612,7 @@
       <c r="L92" s="14">
         <v>90</v>
       </c>
-      <c r="M92" s="32"/>
+      <c r="M92" s="23"/>
       <c r="N92" s="14"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -3627,7 +3627,7 @@
       <c r="E93" s="24"/>
       <c r="F93" s="24"/>
       <c r="G93" s="24"/>
-      <c r="H93" s="33"/>
+      <c r="H93" s="25"/>
       <c r="I93" s="9"/>
       <c r="K93" s="14" t="s">
         <v>33</v>
@@ -3635,7 +3635,7 @@
       <c r="L93" s="14">
         <v>91</v>
       </c>
-      <c r="M93" s="32"/>
+      <c r="M93" s="23"/>
       <c r="N93" s="14"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -3650,7 +3650,7 @@
       <c r="E94" s="24"/>
       <c r="F94" s="24"/>
       <c r="G94" s="24"/>
-      <c r="H94" s="33"/>
+      <c r="H94" s="25"/>
       <c r="I94" s="9"/>
       <c r="K94" s="14" t="s">
         <v>33</v>
@@ -3658,7 +3658,7 @@
       <c r="L94" s="14">
         <v>92</v>
       </c>
-      <c r="M94" s="32"/>
+      <c r="M94" s="23"/>
       <c r="N94" s="14"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -3673,7 +3673,7 @@
       <c r="E95" s="24"/>
       <c r="F95" s="24"/>
       <c r="G95" s="24"/>
-      <c r="H95" s="33"/>
+      <c r="H95" s="25"/>
       <c r="I95" s="9"/>
       <c r="K95" s="14" t="s">
         <v>33</v>
@@ -3681,7 +3681,7 @@
       <c r="L95" s="14">
         <v>93</v>
       </c>
-      <c r="M95" s="32"/>
+      <c r="M95" s="23"/>
       <c r="N95" s="14"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -3696,7 +3696,7 @@
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
       <c r="G96" s="24"/>
-      <c r="H96" s="33"/>
+      <c r="H96" s="25"/>
       <c r="I96" s="9"/>
       <c r="K96" s="14" t="s">
         <v>33</v>
@@ -3704,7 +3704,7 @@
       <c r="L96" s="14">
         <v>94</v>
       </c>
-      <c r="M96" s="32"/>
+      <c r="M96" s="23"/>
       <c r="N96" s="14"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -3719,7 +3719,7 @@
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
       <c r="G97" s="24"/>
-      <c r="H97" s="33"/>
+      <c r="H97" s="25"/>
       <c r="I97" s="9"/>
       <c r="K97" s="14" t="s">
         <v>33</v>
@@ -3727,7 +3727,7 @@
       <c r="L97" s="14">
         <v>95</v>
       </c>
-      <c r="M97" s="32"/>
+      <c r="M97" s="23"/>
       <c r="N97" s="14"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -3742,7 +3742,7 @@
       <c r="E98" s="24"/>
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
-      <c r="H98" s="33"/>
+      <c r="H98" s="25"/>
       <c r="I98" s="9"/>
       <c r="K98" s="14" t="s">
         <v>33</v>
@@ -3750,7 +3750,7 @@
       <c r="L98" s="14">
         <v>96</v>
       </c>
-      <c r="M98" s="32"/>
+      <c r="M98" s="23"/>
       <c r="N98" s="14"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -3765,7 +3765,7 @@
       <c r="E99" s="24"/>
       <c r="F99" s="24"/>
       <c r="G99" s="24"/>
-      <c r="H99" s="33"/>
+      <c r="H99" s="25"/>
       <c r="I99" s="9"/>
       <c r="K99" s="14" t="s">
         <v>33</v>
@@ -3773,7 +3773,7 @@
       <c r="L99" s="14">
         <v>97</v>
       </c>
-      <c r="M99" s="32"/>
+      <c r="M99" s="23"/>
       <c r="N99" s="14"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -3788,7 +3788,7 @@
       <c r="E100" s="24"/>
       <c r="F100" s="24"/>
       <c r="G100" s="24"/>
-      <c r="H100" s="33"/>
+      <c r="H100" s="25"/>
       <c r="I100" s="9"/>
       <c r="K100" s="14" t="s">
         <v>33</v>
@@ -3796,7 +3796,7 @@
       <c r="L100" s="14">
         <v>98</v>
       </c>
-      <c r="M100" s="32"/>
+      <c r="M100" s="23"/>
       <c r="N100" s="14"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -3811,7 +3811,7 @@
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
-      <c r="H101" s="33"/>
+      <c r="H101" s="25"/>
       <c r="I101" s="9"/>
       <c r="K101" s="14" t="s">
         <v>33</v>
@@ -3819,7 +3819,7 @@
       <c r="L101" s="14">
         <v>99</v>
       </c>
-      <c r="M101" s="32"/>
+      <c r="M101" s="23"/>
       <c r="N101" s="14"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -3834,7 +3834,7 @@
       <c r="E102" s="24"/>
       <c r="F102" s="24"/>
       <c r="G102" s="24"/>
-      <c r="H102" s="33"/>
+      <c r="H102" s="25"/>
       <c r="I102" s="9"/>
       <c r="K102" s="14" t="s">
         <v>33</v>
@@ -3842,7 +3842,7 @@
       <c r="L102" s="14">
         <v>100</v>
       </c>
-      <c r="M102" s="32"/>
+      <c r="M102" s="23"/>
       <c r="N102" s="14"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -3857,7 +3857,7 @@
       <c r="E103" s="24"/>
       <c r="F103" s="24"/>
       <c r="G103" s="24"/>
-      <c r="H103" s="33"/>
+      <c r="H103" s="25"/>
       <c r="I103" s="9"/>
       <c r="K103" s="14" t="s">
         <v>33</v>
@@ -3865,7 +3865,7 @@
       <c r="L103" s="14">
         <v>101</v>
       </c>
-      <c r="M103" s="32"/>
+      <c r="M103" s="23"/>
       <c r="N103" s="14"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -3880,7 +3880,7 @@
       <c r="E104" s="24"/>
       <c r="F104" s="24"/>
       <c r="G104" s="24"/>
-      <c r="H104" s="33"/>
+      <c r="H104" s="25"/>
       <c r="I104" s="9"/>
       <c r="K104" s="14" t="s">
         <v>33</v>
@@ -3888,7 +3888,7 @@
       <c r="L104" s="14">
         <v>102</v>
       </c>
-      <c r="M104" s="32"/>
+      <c r="M104" s="23"/>
       <c r="N104" s="14"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -3903,7 +3903,7 @@
       <c r="E105" s="24"/>
       <c r="F105" s="24"/>
       <c r="G105" s="24"/>
-      <c r="H105" s="33"/>
+      <c r="H105" s="25"/>
       <c r="I105" s="9"/>
       <c r="K105" s="14" t="s">
         <v>33</v>
@@ -3911,7 +3911,7 @@
       <c r="L105" s="14">
         <v>103</v>
       </c>
-      <c r="M105" s="32"/>
+      <c r="M105" s="23"/>
       <c r="N105" s="14"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -3926,7 +3926,7 @@
       <c r="E106" s="24"/>
       <c r="F106" s="24"/>
       <c r="G106" s="24"/>
-      <c r="H106" s="33"/>
+      <c r="H106" s="25"/>
       <c r="I106" s="9"/>
       <c r="K106" s="14" t="s">
         <v>33</v>
@@ -3934,7 +3934,7 @@
       <c r="L106" s="14">
         <v>104</v>
       </c>
-      <c r="M106" s="32"/>
+      <c r="M106" s="23"/>
       <c r="N106" s="14"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -3949,7 +3949,7 @@
       <c r="E107" s="24"/>
       <c r="F107" s="24"/>
       <c r="G107" s="24"/>
-      <c r="H107" s="33"/>
+      <c r="H107" s="25"/>
       <c r="I107" s="9"/>
       <c r="K107" s="14" t="s">
         <v>33</v>
@@ -3957,7 +3957,7 @@
       <c r="L107" s="14">
         <v>105</v>
       </c>
-      <c r="M107" s="32"/>
+      <c r="M107" s="23"/>
       <c r="N107" s="14"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -3972,7 +3972,7 @@
       <c r="E108" s="24"/>
       <c r="F108" s="24"/>
       <c r="G108" s="24"/>
-      <c r="H108" s="33"/>
+      <c r="H108" s="25"/>
       <c r="I108" s="9"/>
       <c r="K108" s="14" t="s">
         <v>33</v>
@@ -3980,7 +3980,7 @@
       <c r="L108" s="14">
         <v>106</v>
       </c>
-      <c r="M108" s="32"/>
+      <c r="M108" s="23"/>
       <c r="N108" s="14"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -3995,7 +3995,7 @@
       <c r="E109" s="24"/>
       <c r="F109" s="24"/>
       <c r="G109" s="24"/>
-      <c r="H109" s="33"/>
+      <c r="H109" s="25"/>
       <c r="I109" s="9"/>
       <c r="K109" s="14" t="s">
         <v>33</v>
@@ -4003,7 +4003,7 @@
       <c r="L109" s="14">
         <v>107</v>
       </c>
-      <c r="M109" s="32"/>
+      <c r="M109" s="23"/>
       <c r="N109" s="14"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -4018,7 +4018,7 @@
       <c r="E110" s="24"/>
       <c r="F110" s="24"/>
       <c r="G110" s="24"/>
-      <c r="H110" s="33"/>
+      <c r="H110" s="25"/>
       <c r="I110" s="9"/>
       <c r="K110" s="14" t="s">
         <v>33</v>
@@ -4026,7 +4026,7 @@
       <c r="L110" s="14">
         <v>108</v>
       </c>
-      <c r="M110" s="32"/>
+      <c r="M110" s="23"/>
       <c r="N110" s="14"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -4041,7 +4041,7 @@
       <c r="E111" s="24"/>
       <c r="F111" s="24"/>
       <c r="G111" s="24"/>
-      <c r="H111" s="33"/>
+      <c r="H111" s="25"/>
       <c r="I111" s="9"/>
       <c r="K111" s="14" t="s">
         <v>33</v>
@@ -4049,7 +4049,7 @@
       <c r="L111" s="14">
         <v>109</v>
       </c>
-      <c r="M111" s="32"/>
+      <c r="M111" s="23"/>
       <c r="N111" s="14"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -4064,7 +4064,7 @@
       <c r="E112" s="24"/>
       <c r="F112" s="24"/>
       <c r="G112" s="24"/>
-      <c r="H112" s="33"/>
+      <c r="H112" s="25"/>
       <c r="I112" s="9"/>
       <c r="K112" s="14" t="s">
         <v>33</v>
@@ -4072,7 +4072,7 @@
       <c r="L112" s="14">
         <v>110</v>
       </c>
-      <c r="M112" s="32"/>
+      <c r="M112" s="23"/>
       <c r="N112" s="14"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -4087,7 +4087,7 @@
       <c r="E113" s="24"/>
       <c r="F113" s="24"/>
       <c r="G113" s="24"/>
-      <c r="H113" s="33"/>
+      <c r="H113" s="25"/>
       <c r="I113" s="9"/>
       <c r="K113" s="14" t="s">
         <v>33</v>
@@ -4095,7 +4095,7 @@
       <c r="L113" s="14">
         <v>111</v>
       </c>
-      <c r="M113" s="32"/>
+      <c r="M113" s="23"/>
       <c r="N113" s="14"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -4110,7 +4110,7 @@
       <c r="E114" s="24"/>
       <c r="F114" s="24"/>
       <c r="G114" s="24"/>
-      <c r="H114" s="33"/>
+      <c r="H114" s="25"/>
       <c r="I114" s="9"/>
       <c r="K114" s="14" t="s">
         <v>33</v>
@@ -4118,7 +4118,7 @@
       <c r="L114" s="14">
         <v>112</v>
       </c>
-      <c r="M114" s="32"/>
+      <c r="M114" s="23"/>
       <c r="N114" s="14"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -4133,7 +4133,7 @@
       <c r="E115" s="24"/>
       <c r="F115" s="24"/>
       <c r="G115" s="24"/>
-      <c r="H115" s="33"/>
+      <c r="H115" s="25"/>
       <c r="I115" s="9"/>
       <c r="K115" s="14" t="s">
         <v>33</v>
@@ -4141,7 +4141,7 @@
       <c r="L115" s="14">
         <v>113</v>
       </c>
-      <c r="M115" s="32"/>
+      <c r="M115" s="23"/>
       <c r="N115" s="14"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -4156,7 +4156,7 @@
       <c r="E116" s="24"/>
       <c r="F116" s="24"/>
       <c r="G116" s="24"/>
-      <c r="H116" s="33"/>
+      <c r="H116" s="25"/>
       <c r="I116" s="9"/>
       <c r="K116" s="14" t="s">
         <v>33</v>
@@ -4164,7 +4164,7 @@
       <c r="L116" s="14">
         <v>114</v>
       </c>
-      <c r="M116" s="32"/>
+      <c r="M116" s="23"/>
       <c r="N116" s="14"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -4179,7 +4179,7 @@
       <c r="E117" s="24"/>
       <c r="F117" s="24"/>
       <c r="G117" s="24"/>
-      <c r="H117" s="33"/>
+      <c r="H117" s="25"/>
       <c r="I117" s="9"/>
       <c r="K117" s="14" t="s">
         <v>33</v>
@@ -4187,7 +4187,7 @@
       <c r="L117" s="14">
         <v>115</v>
       </c>
-      <c r="M117" s="32"/>
+      <c r="M117" s="23"/>
       <c r="N117" s="14"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -4202,7 +4202,7 @@
       <c r="E118" s="24"/>
       <c r="F118" s="24"/>
       <c r="G118" s="24"/>
-      <c r="H118" s="33"/>
+      <c r="H118" s="25"/>
       <c r="I118" s="9"/>
       <c r="K118" s="14" t="s">
         <v>33</v>
@@ -4210,7 +4210,7 @@
       <c r="L118" s="14">
         <v>116</v>
       </c>
-      <c r="M118" s="32"/>
+      <c r="M118" s="23"/>
       <c r="N118" s="14"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -4225,7 +4225,7 @@
       <c r="E119" s="24"/>
       <c r="F119" s="24"/>
       <c r="G119" s="24"/>
-      <c r="H119" s="33"/>
+      <c r="H119" s="25"/>
       <c r="I119" s="9"/>
       <c r="K119" s="14" t="s">
         <v>33</v>
@@ -4233,7 +4233,7 @@
       <c r="L119" s="14">
         <v>117</v>
       </c>
-      <c r="M119" s="32"/>
+      <c r="M119" s="23"/>
       <c r="N119" s="14"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -4248,7 +4248,7 @@
       <c r="E120" s="24"/>
       <c r="F120" s="24"/>
       <c r="G120" s="24"/>
-      <c r="H120" s="33"/>
+      <c r="H120" s="25"/>
       <c r="I120" s="9"/>
       <c r="K120" s="14" t="s">
         <v>33</v>
@@ -4256,7 +4256,7 @@
       <c r="L120" s="14">
         <v>118</v>
       </c>
-      <c r="M120" s="32"/>
+      <c r="M120" s="23"/>
       <c r="N120" s="14"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -4271,7 +4271,7 @@
       <c r="E121" s="24"/>
       <c r="F121" s="24"/>
       <c r="G121" s="24"/>
-      <c r="H121" s="33"/>
+      <c r="H121" s="25"/>
       <c r="I121" s="9"/>
       <c r="K121" s="14" t="s">
         <v>33</v>
@@ -4279,7 +4279,7 @@
       <c r="L121" s="14">
         <v>119</v>
       </c>
-      <c r="M121" s="32"/>
+      <c r="M121" s="23"/>
       <c r="N121" s="14"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -4294,7 +4294,7 @@
       <c r="E122" s="24"/>
       <c r="F122" s="24"/>
       <c r="G122" s="24"/>
-      <c r="H122" s="33"/>
+      <c r="H122" s="25"/>
       <c r="I122" s="9"/>
       <c r="K122" s="14" t="s">
         <v>33</v>
@@ -4302,7 +4302,7 @@
       <c r="L122" s="14">
         <v>120</v>
       </c>
-      <c r="M122" s="32"/>
+      <c r="M122" s="23"/>
       <c r="N122" s="14"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -4317,7 +4317,7 @@
       <c r="E123" s="24"/>
       <c r="F123" s="24"/>
       <c r="G123" s="24"/>
-      <c r="H123" s="33"/>
+      <c r="H123" s="25"/>
       <c r="I123" s="9"/>
       <c r="K123" s="14" t="s">
         <v>33</v>
@@ -4325,7 +4325,7 @@
       <c r="L123" s="14">
         <v>121</v>
       </c>
-      <c r="M123" s="32"/>
+      <c r="M123" s="23"/>
       <c r="N123" s="14"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -4340,7 +4340,7 @@
       <c r="E124" s="24"/>
       <c r="F124" s="24"/>
       <c r="G124" s="24"/>
-      <c r="H124" s="33"/>
+      <c r="H124" s="25"/>
       <c r="I124" s="9"/>
       <c r="K124" s="14" t="s">
         <v>33</v>
@@ -4348,7 +4348,7 @@
       <c r="L124" s="14">
         <v>122</v>
       </c>
-      <c r="M124" s="32"/>
+      <c r="M124" s="23"/>
       <c r="N124" s="14"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -4363,7 +4363,7 @@
       <c r="E125" s="24"/>
       <c r="F125" s="24"/>
       <c r="G125" s="24"/>
-      <c r="H125" s="33"/>
+      <c r="H125" s="25"/>
       <c r="I125" s="9"/>
       <c r="K125" s="14" t="s">
         <v>33</v>
@@ -4371,7 +4371,7 @@
       <c r="L125" s="14">
         <v>123</v>
       </c>
-      <c r="M125" s="32"/>
+      <c r="M125" s="23"/>
       <c r="N125" s="14"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -4386,7 +4386,7 @@
       <c r="E126" s="24"/>
       <c r="F126" s="24"/>
       <c r="G126" s="24"/>
-      <c r="H126" s="33"/>
+      <c r="H126" s="25"/>
       <c r="I126" s="9"/>
       <c r="K126" s="14" t="s">
         <v>33</v>
@@ -4394,7 +4394,7 @@
       <c r="L126" s="14">
         <v>124</v>
       </c>
-      <c r="M126" s="32"/>
+      <c r="M126" s="23"/>
       <c r="N126" s="14"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -4409,7 +4409,7 @@
       <c r="E127" s="24"/>
       <c r="F127" s="24"/>
       <c r="G127" s="24"/>
-      <c r="H127" s="33"/>
+      <c r="H127" s="25"/>
       <c r="I127" s="9"/>
       <c r="K127" s="14" t="s">
         <v>33</v>
@@ -4417,7 +4417,7 @@
       <c r="L127" s="14">
         <v>125</v>
       </c>
-      <c r="M127" s="32"/>
+      <c r="M127" s="23"/>
       <c r="N127" s="14"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -4432,7 +4432,7 @@
       <c r="E128" s="24"/>
       <c r="F128" s="24"/>
       <c r="G128" s="24"/>
-      <c r="H128" s="33"/>
+      <c r="H128" s="25"/>
       <c r="I128" s="9"/>
       <c r="K128" s="14" t="s">
         <v>33</v>
@@ -4440,7 +4440,7 @@
       <c r="L128" s="14">
         <v>126</v>
       </c>
-      <c r="M128" s="32"/>
+      <c r="M128" s="23"/>
       <c r="N128" s="14"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -4455,7 +4455,7 @@
       <c r="E129" s="24"/>
       <c r="F129" s="24"/>
       <c r="G129" s="24"/>
-      <c r="H129" s="33"/>
+      <c r="H129" s="25"/>
       <c r="I129" s="9" t="s">
         <v>15</v>
       </c>
@@ -4465,7 +4465,7 @@
       <c r="L129" s="14">
         <v>127</v>
       </c>
-      <c r="M129" s="32"/>
+      <c r="M129" s="23"/>
       <c r="N129" s="14"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -4479,7 +4479,7 @@
       <c r="D130" s="24"/>
       <c r="E130" s="24"/>
       <c r="F130" s="24"/>
-      <c r="G130" s="29" t="s">
+      <c r="G130" s="26" t="s">
         <v>7</v>
       </c>
       <c r="H130" s="24"/>
@@ -4492,7 +4492,7 @@
       <c r="L130" s="14">
         <v>128</v>
       </c>
-      <c r="M130" s="32"/>
+      <c r="M130" s="23"/>
       <c r="N130" s="14"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -4506,7 +4506,7 @@
       <c r="D131" s="24"/>
       <c r="E131" s="24"/>
       <c r="F131" s="24"/>
-      <c r="G131" s="29"/>
+      <c r="G131" s="26"/>
       <c r="H131" s="24"/>
       <c r="I131" s="11" t="s">
         <v>23</v>
@@ -4517,7 +4517,7 @@
       <c r="L131" s="14">
         <v>129</v>
       </c>
-      <c r="M131" s="32"/>
+      <c r="M131" s="23"/>
       <c r="N131" s="14"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -4531,7 +4531,7 @@
       <c r="D132" s="24"/>
       <c r="E132" s="24"/>
       <c r="F132" s="24"/>
-      <c r="G132" s="29"/>
+      <c r="G132" s="26"/>
       <c r="H132" s="24"/>
       <c r="I132" s="11" t="s">
         <v>20</v>
@@ -4542,7 +4542,7 @@
       <c r="L132" s="14">
         <v>130</v>
       </c>
-      <c r="M132" s="32"/>
+      <c r="M132" s="23"/>
       <c r="N132" s="14"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -4556,7 +4556,7 @@
       <c r="D133" s="24"/>
       <c r="E133" s="24"/>
       <c r="F133" s="24"/>
-      <c r="G133" s="29"/>
+      <c r="G133" s="26"/>
       <c r="H133" s="24"/>
       <c r="I133" s="11" t="s">
         <v>16</v>
@@ -4567,7 +4567,7 @@
       <c r="L133" s="14">
         <v>131</v>
       </c>
-      <c r="M133" s="32"/>
+      <c r="M133" s="23"/>
       <c r="N133" s="14"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -4581,7 +4581,7 @@
       <c r="D134" s="24"/>
       <c r="E134" s="24"/>
       <c r="F134" s="24"/>
-      <c r="G134" s="29"/>
+      <c r="G134" s="26"/>
       <c r="H134" s="24"/>
       <c r="I134" s="11" t="s">
         <v>17</v>
@@ -4592,7 +4592,7 @@
       <c r="L134" s="14">
         <v>132</v>
       </c>
-      <c r="M134" s="32"/>
+      <c r="M134" s="23"/>
       <c r="N134" s="14"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -4606,7 +4606,7 @@
       <c r="D135" s="24"/>
       <c r="E135" s="24"/>
       <c r="F135" s="24"/>
-      <c r="G135" s="29"/>
+      <c r="G135" s="26"/>
       <c r="H135" s="24"/>
       <c r="I135" s="11" t="s">
         <v>19</v>
@@ -4617,7 +4617,7 @@
       <c r="L135" s="14">
         <v>133</v>
       </c>
-      <c r="M135" s="32"/>
+      <c r="M135" s="23"/>
       <c r="N135" s="14"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -4631,7 +4631,7 @@
       <c r="D136" s="24"/>
       <c r="E136" s="24"/>
       <c r="F136" s="24"/>
-      <c r="G136" s="29"/>
+      <c r="G136" s="26"/>
       <c r="H136" s="24"/>
       <c r="I136" s="11" t="s">
         <v>18</v>
@@ -4642,7 +4642,7 @@
       <c r="L136" s="14">
         <v>134</v>
       </c>
-      <c r="M136" s="32"/>
+      <c r="M136" s="23"/>
       <c r="N136" s="14"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -4656,7 +4656,7 @@
       <c r="D137" s="24"/>
       <c r="E137" s="24"/>
       <c r="F137" s="24"/>
-      <c r="G137" s="29"/>
+      <c r="G137" s="26"/>
       <c r="H137" s="24"/>
       <c r="I137" s="11"/>
       <c r="K137" s="14" t="s">
@@ -4665,7 +4665,7 @@
       <c r="L137" s="14">
         <v>135</v>
       </c>
-      <c r="M137" s="32"/>
+      <c r="M137" s="23"/>
       <c r="N137" s="14"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -4679,7 +4679,7 @@
       <c r="D138" s="24"/>
       <c r="E138" s="24"/>
       <c r="F138" s="24"/>
-      <c r="G138" s="29"/>
+      <c r="G138" s="26"/>
       <c r="H138" s="24"/>
       <c r="I138" s="11"/>
       <c r="K138" s="14" t="s">
@@ -4688,7 +4688,7 @@
       <c r="L138" s="14">
         <v>136</v>
       </c>
-      <c r="M138" s="32"/>
+      <c r="M138" s="23"/>
       <c r="N138" s="14"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -4702,7 +4702,7 @@
       <c r="D139" s="24"/>
       <c r="E139" s="24"/>
       <c r="F139" s="24"/>
-      <c r="G139" s="29"/>
+      <c r="G139" s="26"/>
       <c r="H139" s="24"/>
       <c r="I139" s="11"/>
       <c r="K139" s="14" t="s">
@@ -4711,7 +4711,7 @@
       <c r="L139" s="14">
         <v>137</v>
       </c>
-      <c r="M139" s="32"/>
+      <c r="M139" s="23"/>
       <c r="N139" s="14"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -4725,7 +4725,7 @@
       <c r="D140" s="24"/>
       <c r="E140" s="24"/>
       <c r="F140" s="24"/>
-      <c r="G140" s="29"/>
+      <c r="G140" s="26"/>
       <c r="H140" s="24"/>
       <c r="I140" s="11"/>
       <c r="K140" s="14" t="s">
@@ -4734,7 +4734,7 @@
       <c r="L140" s="14">
         <v>138</v>
       </c>
-      <c r="M140" s="32"/>
+      <c r="M140" s="23"/>
       <c r="N140" s="14"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -4748,7 +4748,7 @@
       <c r="D141" s="24"/>
       <c r="E141" s="24"/>
       <c r="F141" s="24"/>
-      <c r="G141" s="29"/>
+      <c r="G141" s="26"/>
       <c r="H141" s="24"/>
       <c r="I141" s="11"/>
       <c r="K141" s="14" t="s">
@@ -4757,7 +4757,7 @@
       <c r="L141" s="14">
         <v>139</v>
       </c>
-      <c r="M141" s="32"/>
+      <c r="M141" s="23"/>
       <c r="N141" s="14"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -4771,7 +4771,7 @@
       <c r="D142" s="24"/>
       <c r="E142" s="24"/>
       <c r="F142" s="24"/>
-      <c r="G142" s="29"/>
+      <c r="G142" s="26"/>
       <c r="H142" s="24"/>
       <c r="I142" s="11"/>
       <c r="K142" s="14" t="s">
@@ -4780,7 +4780,7 @@
       <c r="L142" s="14">
         <v>140</v>
       </c>
-      <c r="M142" s="32"/>
+      <c r="M142" s="23"/>
       <c r="N142" s="14"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
@@ -4794,7 +4794,7 @@
       <c r="D143" s="24"/>
       <c r="E143" s="24"/>
       <c r="F143" s="24"/>
-      <c r="G143" s="29"/>
+      <c r="G143" s="26"/>
       <c r="H143" s="24"/>
       <c r="I143" s="11"/>
       <c r="K143" s="14" t="s">
@@ -4803,7 +4803,7 @@
       <c r="L143" s="14">
         <v>141</v>
       </c>
-      <c r="M143" s="32"/>
+      <c r="M143" s="23"/>
       <c r="N143" s="14"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -4817,7 +4817,7 @@
       <c r="D144" s="24"/>
       <c r="E144" s="24"/>
       <c r="F144" s="24"/>
-      <c r="G144" s="29"/>
+      <c r="G144" s="26"/>
       <c r="H144" s="24"/>
       <c r="I144" s="11"/>
       <c r="K144" s="14" t="s">
@@ -4826,7 +4826,7 @@
       <c r="L144" s="14">
         <v>142</v>
       </c>
-      <c r="M144" s="32"/>
+      <c r="M144" s="23"/>
       <c r="N144" s="14"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -4840,7 +4840,7 @@
       <c r="D145" s="24"/>
       <c r="E145" s="24"/>
       <c r="F145" s="24"/>
-      <c r="G145" s="29"/>
+      <c r="G145" s="26"/>
       <c r="H145" s="24"/>
       <c r="I145" s="11"/>
       <c r="K145" s="14" t="s">
@@ -4849,7 +4849,7 @@
       <c r="L145" s="14">
         <v>143</v>
       </c>
-      <c r="M145" s="32"/>
+      <c r="M145" s="23"/>
       <c r="N145" s="14"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -4863,7 +4863,7 @@
       <c r="D146" s="24"/>
       <c r="E146" s="24"/>
       <c r="F146" s="24"/>
-      <c r="G146" s="29"/>
+      <c r="G146" s="26"/>
       <c r="H146" s="24"/>
       <c r="I146" s="11"/>
       <c r="K146" s="14" t="s">
@@ -4872,7 +4872,7 @@
       <c r="L146" s="14">
         <v>144</v>
       </c>
-      <c r="M146" s="32"/>
+      <c r="M146" s="23"/>
       <c r="N146" s="14"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -4886,7 +4886,7 @@
       <c r="D147" s="24"/>
       <c r="E147" s="24"/>
       <c r="F147" s="24"/>
-      <c r="G147" s="29"/>
+      <c r="G147" s="26"/>
       <c r="H147" s="24"/>
       <c r="I147" s="11"/>
       <c r="K147" s="14" t="s">
@@ -4895,7 +4895,7 @@
       <c r="L147" s="14">
         <v>145</v>
       </c>
-      <c r="M147" s="32"/>
+      <c r="M147" s="23"/>
       <c r="N147" s="14"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -4909,7 +4909,7 @@
       <c r="D148" s="24"/>
       <c r="E148" s="24"/>
       <c r="F148" s="24"/>
-      <c r="G148" s="29"/>
+      <c r="G148" s="26"/>
       <c r="H148" s="24"/>
       <c r="I148" s="11"/>
       <c r="K148" s="14" t="s">
@@ -4918,7 +4918,7 @@
       <c r="L148" s="14">
         <v>146</v>
       </c>
-      <c r="M148" s="32"/>
+      <c r="M148" s="23"/>
       <c r="N148" s="14"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -4932,7 +4932,7 @@
       <c r="D149" s="24"/>
       <c r="E149" s="24"/>
       <c r="F149" s="24"/>
-      <c r="G149" s="29"/>
+      <c r="G149" s="26"/>
       <c r="H149" s="24"/>
       <c r="I149" s="11"/>
       <c r="K149" s="14" t="s">
@@ -4941,7 +4941,7 @@
       <c r="L149" s="14">
         <v>147</v>
       </c>
-      <c r="M149" s="32"/>
+      <c r="M149" s="23"/>
       <c r="N149" s="14"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -4955,7 +4955,7 @@
       <c r="D150" s="24"/>
       <c r="E150" s="24"/>
       <c r="F150" s="24"/>
-      <c r="G150" s="29"/>
+      <c r="G150" s="26"/>
       <c r="H150" s="24"/>
       <c r="I150" s="11"/>
       <c r="K150" s="14" t="s">
@@ -4964,7 +4964,7 @@
       <c r="L150" s="14">
         <v>148</v>
       </c>
-      <c r="M150" s="32"/>
+      <c r="M150" s="23"/>
       <c r="N150" s="14"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -4978,7 +4978,7 @@
       <c r="D151" s="24"/>
       <c r="E151" s="24"/>
       <c r="F151" s="24"/>
-      <c r="G151" s="29"/>
+      <c r="G151" s="26"/>
       <c r="H151" s="24"/>
       <c r="I151" s="11"/>
       <c r="K151" s="14" t="s">
@@ -4987,7 +4987,7 @@
       <c r="L151" s="14">
         <v>149</v>
       </c>
-      <c r="M151" s="32"/>
+      <c r="M151" s="23"/>
       <c r="N151" s="14"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -5001,7 +5001,7 @@
       <c r="D152" s="24"/>
       <c r="E152" s="24"/>
       <c r="F152" s="24"/>
-      <c r="G152" s="29"/>
+      <c r="G152" s="26"/>
       <c r="H152" s="24"/>
       <c r="I152" s="11"/>
       <c r="K152" s="14" t="s">
@@ -5010,7 +5010,7 @@
       <c r="L152" s="14">
         <v>150</v>
       </c>
-      <c r="M152" s="32"/>
+      <c r="M152" s="23"/>
       <c r="N152" s="14"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -5024,7 +5024,7 @@
       <c r="D153" s="24"/>
       <c r="E153" s="24"/>
       <c r="F153" s="24"/>
-      <c r="G153" s="29"/>
+      <c r="G153" s="26"/>
       <c r="H153" s="24"/>
       <c r="I153" s="11"/>
       <c r="K153" s="14" t="s">
@@ -5033,7 +5033,7 @@
       <c r="L153" s="14">
         <v>151</v>
       </c>
-      <c r="M153" s="32"/>
+      <c r="M153" s="23"/>
       <c r="N153" s="14"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -5047,7 +5047,7 @@
       <c r="D154" s="24"/>
       <c r="E154" s="24"/>
       <c r="F154" s="24"/>
-      <c r="G154" s="29"/>
+      <c r="G154" s="26"/>
       <c r="H154" s="24"/>
       <c r="I154" s="11"/>
       <c r="K154" s="14" t="s">
@@ -5056,7 +5056,7 @@
       <c r="L154" s="14">
         <v>152</v>
       </c>
-      <c r="M154" s="32"/>
+      <c r="M154" s="23"/>
       <c r="N154" s="14"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -5070,7 +5070,7 @@
       <c r="D155" s="24"/>
       <c r="E155" s="24"/>
       <c r="F155" s="24"/>
-      <c r="G155" s="29"/>
+      <c r="G155" s="26"/>
       <c r="H155" s="24"/>
       <c r="I155" s="11"/>
       <c r="K155" s="14" t="s">
@@ -5079,7 +5079,7 @@
       <c r="L155" s="14">
         <v>153</v>
       </c>
-      <c r="M155" s="32"/>
+      <c r="M155" s="23"/>
       <c r="N155" s="14"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -5093,7 +5093,7 @@
       <c r="D156" s="24"/>
       <c r="E156" s="24"/>
       <c r="F156" s="24"/>
-      <c r="G156" s="29"/>
+      <c r="G156" s="26"/>
       <c r="H156" s="24"/>
       <c r="I156" s="11"/>
       <c r="K156" s="14" t="s">
@@ -5102,7 +5102,7 @@
       <c r="L156" s="14">
         <v>154</v>
       </c>
-      <c r="M156" s="32"/>
+      <c r="M156" s="23"/>
       <c r="N156" s="14"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -5116,7 +5116,7 @@
       <c r="D157" s="24"/>
       <c r="E157" s="24"/>
       <c r="F157" s="24"/>
-      <c r="G157" s="29"/>
+      <c r="G157" s="26"/>
       <c r="H157" s="24"/>
       <c r="I157" s="11"/>
       <c r="K157" s="14" t="s">
@@ -5125,7 +5125,7 @@
       <c r="L157" s="14">
         <v>155</v>
       </c>
-      <c r="M157" s="32"/>
+      <c r="M157" s="23"/>
       <c r="N157" s="14"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -5139,7 +5139,7 @@
       <c r="D158" s="24"/>
       <c r="E158" s="24"/>
       <c r="F158" s="24"/>
-      <c r="G158" s="29"/>
+      <c r="G158" s="26"/>
       <c r="H158" s="24"/>
       <c r="I158" s="11"/>
       <c r="K158" s="14" t="s">
@@ -5148,7 +5148,7 @@
       <c r="L158" s="14">
         <v>156</v>
       </c>
-      <c r="M158" s="32"/>
+      <c r="M158" s="23"/>
       <c r="N158" s="14"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
@@ -5162,7 +5162,7 @@
       <c r="D159" s="24"/>
       <c r="E159" s="24"/>
       <c r="F159" s="24"/>
-      <c r="G159" s="29"/>
+      <c r="G159" s="26"/>
       <c r="H159" s="24"/>
       <c r="I159" s="11"/>
       <c r="K159" s="14" t="s">
@@ -5171,7 +5171,7 @@
       <c r="L159" s="14">
         <v>157</v>
       </c>
-      <c r="M159" s="32"/>
+      <c r="M159" s="23"/>
       <c r="N159" s="14"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -5185,7 +5185,7 @@
       <c r="D160" s="24"/>
       <c r="E160" s="24"/>
       <c r="F160" s="24"/>
-      <c r="G160" s="29"/>
+      <c r="G160" s="26"/>
       <c r="H160" s="24"/>
       <c r="I160" s="11"/>
       <c r="K160" s="14" t="s">
@@ -5194,7 +5194,7 @@
       <c r="L160" s="14">
         <v>158</v>
       </c>
-      <c r="M160" s="32"/>
+      <c r="M160" s="23"/>
       <c r="N160" s="14"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -5208,7 +5208,7 @@
       <c r="D161" s="24"/>
       <c r="E161" s="24"/>
       <c r="F161" s="24"/>
-      <c r="G161" s="29"/>
+      <c r="G161" s="26"/>
       <c r="H161" s="24"/>
       <c r="I161" s="11"/>
       <c r="K161" s="14" t="s">
@@ -5217,7 +5217,7 @@
       <c r="L161" s="14">
         <v>159</v>
       </c>
-      <c r="M161" s="32"/>
+      <c r="M161" s="23"/>
       <c r="N161" s="14"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -5231,7 +5231,7 @@
       <c r="D162" s="24"/>
       <c r="E162" s="24"/>
       <c r="F162" s="24"/>
-      <c r="G162" s="29"/>
+      <c r="G162" s="26"/>
       <c r="H162" s="24"/>
       <c r="I162" s="11"/>
       <c r="K162" s="14" t="s">
@@ -5240,7 +5240,7 @@
       <c r="L162" s="14">
         <v>160</v>
       </c>
-      <c r="M162" s="32"/>
+      <c r="M162" s="23"/>
       <c r="N162" s="14"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -5254,7 +5254,7 @@
       <c r="D163" s="24"/>
       <c r="E163" s="24"/>
       <c r="F163" s="24"/>
-      <c r="G163" s="29"/>
+      <c r="G163" s="26"/>
       <c r="H163" s="24"/>
       <c r="I163" s="11"/>
       <c r="K163" s="14" t="s">
@@ -5263,7 +5263,7 @@
       <c r="L163" s="14">
         <v>161</v>
       </c>
-      <c r="M163" s="32"/>
+      <c r="M163" s="23"/>
       <c r="N163" s="14"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -5277,7 +5277,7 @@
       <c r="D164" s="24"/>
       <c r="E164" s="24"/>
       <c r="F164" s="24"/>
-      <c r="G164" s="29"/>
+      <c r="G164" s="26"/>
       <c r="H164" s="24"/>
       <c r="I164" s="11"/>
       <c r="K164" s="14" t="s">
@@ -5286,7 +5286,7 @@
       <c r="L164" s="14">
         <v>162</v>
       </c>
-      <c r="M164" s="32"/>
+      <c r="M164" s="23"/>
       <c r="N164" s="14"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -5300,7 +5300,7 @@
       <c r="D165" s="24"/>
       <c r="E165" s="24"/>
       <c r="F165" s="24"/>
-      <c r="G165" s="29"/>
+      <c r="G165" s="26"/>
       <c r="H165" s="24"/>
       <c r="I165" s="11"/>
       <c r="K165" s="14" t="s">
@@ -5309,7 +5309,7 @@
       <c r="L165" s="14">
         <v>163</v>
       </c>
-      <c r="M165" s="32"/>
+      <c r="M165" s="23"/>
       <c r="N165" s="14"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -5323,7 +5323,7 @@
       <c r="D166" s="24"/>
       <c r="E166" s="24"/>
       <c r="F166" s="24"/>
-      <c r="G166" s="29"/>
+      <c r="G166" s="26"/>
       <c r="H166" s="24"/>
       <c r="I166" s="11"/>
       <c r="K166" s="14" t="s">
@@ -5332,7 +5332,7 @@
       <c r="L166" s="14">
         <v>164</v>
       </c>
-      <c r="M166" s="32"/>
+      <c r="M166" s="23"/>
       <c r="N166" s="14"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -5346,7 +5346,7 @@
       <c r="D167" s="24"/>
       <c r="E167" s="24"/>
       <c r="F167" s="24"/>
-      <c r="G167" s="29"/>
+      <c r="G167" s="26"/>
       <c r="H167" s="24"/>
       <c r="I167" s="11"/>
       <c r="K167" s="14" t="s">
@@ -5355,7 +5355,7 @@
       <c r="L167" s="14">
         <v>165</v>
       </c>
-      <c r="M167" s="32"/>
+      <c r="M167" s="23"/>
       <c r="N167" s="14"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -5369,7 +5369,7 @@
       <c r="D168" s="24"/>
       <c r="E168" s="24"/>
       <c r="F168" s="24"/>
-      <c r="G168" s="29"/>
+      <c r="G168" s="26"/>
       <c r="H168" s="24"/>
       <c r="I168" s="11"/>
       <c r="K168" s="14" t="s">
@@ -5378,7 +5378,7 @@
       <c r="L168" s="14">
         <v>166</v>
       </c>
-      <c r="M168" s="32"/>
+      <c r="M168" s="23"/>
       <c r="N168" s="14"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -5392,7 +5392,7 @@
       <c r="D169" s="24"/>
       <c r="E169" s="24"/>
       <c r="F169" s="24"/>
-      <c r="G169" s="29"/>
+      <c r="G169" s="26"/>
       <c r="H169" s="24"/>
       <c r="I169" s="11"/>
       <c r="K169" s="14" t="s">
@@ -5401,7 +5401,7 @@
       <c r="L169" s="14">
         <v>167</v>
       </c>
-      <c r="M169" s="32"/>
+      <c r="M169" s="23"/>
       <c r="N169" s="14"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
@@ -5415,7 +5415,7 @@
       <c r="D170" s="24"/>
       <c r="E170" s="24"/>
       <c r="F170" s="24"/>
-      <c r="G170" s="29"/>
+      <c r="G170" s="26"/>
       <c r="H170" s="24"/>
       <c r="I170" s="11"/>
       <c r="K170" s="14" t="s">
@@ -5424,7 +5424,7 @@
       <c r="L170" s="14">
         <v>168</v>
       </c>
-      <c r="M170" s="32"/>
+      <c r="M170" s="23"/>
       <c r="N170" s="14"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -5438,7 +5438,7 @@
       <c r="D171" s="24"/>
       <c r="E171" s="24"/>
       <c r="F171" s="24"/>
-      <c r="G171" s="29"/>
+      <c r="G171" s="26"/>
       <c r="H171" s="24"/>
       <c r="I171" s="11"/>
       <c r="K171" s="14" t="s">
@@ -5447,7 +5447,7 @@
       <c r="L171" s="14">
         <v>169</v>
       </c>
-      <c r="M171" s="32"/>
+      <c r="M171" s="23"/>
       <c r="N171" s="14"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -5461,7 +5461,7 @@
       <c r="D172" s="24"/>
       <c r="E172" s="24"/>
       <c r="F172" s="24"/>
-      <c r="G172" s="29"/>
+      <c r="G172" s="26"/>
       <c r="H172" s="24"/>
       <c r="I172" s="11"/>
       <c r="K172" s="14" t="s">
@@ -5470,7 +5470,7 @@
       <c r="L172" s="14">
         <v>170</v>
       </c>
-      <c r="M172" s="32"/>
+      <c r="M172" s="23"/>
       <c r="N172" s="14"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -5484,7 +5484,7 @@
       <c r="D173" s="24"/>
       <c r="E173" s="24"/>
       <c r="F173" s="24"/>
-      <c r="G173" s="29"/>
+      <c r="G173" s="26"/>
       <c r="H173" s="24"/>
       <c r="I173" s="11"/>
       <c r="K173" s="14" t="s">
@@ -5493,7 +5493,7 @@
       <c r="L173" s="14">
         <v>171</v>
       </c>
-      <c r="M173" s="32"/>
+      <c r="M173" s="23"/>
       <c r="N173" s="14"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -5507,7 +5507,7 @@
       <c r="D174" s="24"/>
       <c r="E174" s="24"/>
       <c r="F174" s="24"/>
-      <c r="G174" s="29"/>
+      <c r="G174" s="26"/>
       <c r="H174" s="24"/>
       <c r="I174" s="11"/>
       <c r="K174" s="14" t="s">
@@ -5516,7 +5516,7 @@
       <c r="L174" s="14">
         <v>172</v>
       </c>
-      <c r="M174" s="32"/>
+      <c r="M174" s="23"/>
       <c r="N174" s="14"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
@@ -5530,7 +5530,7 @@
       <c r="D175" s="24"/>
       <c r="E175" s="24"/>
       <c r="F175" s="24"/>
-      <c r="G175" s="29"/>
+      <c r="G175" s="26"/>
       <c r="H175" s="24"/>
       <c r="I175" s="11"/>
       <c r="K175" s="14" t="s">
@@ -5539,7 +5539,7 @@
       <c r="L175" s="14">
         <v>173</v>
       </c>
-      <c r="M175" s="32"/>
+      <c r="M175" s="23"/>
       <c r="N175" s="14"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
@@ -5553,7 +5553,7 @@
       <c r="D176" s="24"/>
       <c r="E176" s="24"/>
       <c r="F176" s="24"/>
-      <c r="G176" s="29"/>
+      <c r="G176" s="26"/>
       <c r="H176" s="24"/>
       <c r="I176" s="11"/>
       <c r="K176" s="14" t="s">
@@ -5562,7 +5562,7 @@
       <c r="L176" s="14">
         <v>174</v>
       </c>
-      <c r="M176" s="32"/>
+      <c r="M176" s="23"/>
       <c r="N176" s="14"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
@@ -5576,7 +5576,7 @@
       <c r="D177" s="24"/>
       <c r="E177" s="24"/>
       <c r="F177" s="24"/>
-      <c r="G177" s="29"/>
+      <c r="G177" s="26"/>
       <c r="H177" s="24"/>
       <c r="I177" s="11"/>
       <c r="K177" s="14" t="s">
@@ -5585,7 +5585,7 @@
       <c r="L177" s="14">
         <v>175</v>
       </c>
-      <c r="M177" s="32"/>
+      <c r="M177" s="23"/>
       <c r="N177" s="14"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -5599,7 +5599,7 @@
       <c r="D178" s="24"/>
       <c r="E178" s="24"/>
       <c r="F178" s="24"/>
-      <c r="G178" s="29"/>
+      <c r="G178" s="26"/>
       <c r="H178" s="24"/>
       <c r="I178" s="11"/>
       <c r="K178" s="14" t="s">
@@ -5608,7 +5608,7 @@
       <c r="L178" s="14">
         <v>176</v>
       </c>
-      <c r="M178" s="32"/>
+      <c r="M178" s="23"/>
       <c r="N178" s="14"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -5622,7 +5622,7 @@
       <c r="D179" s="24"/>
       <c r="E179" s="24"/>
       <c r="F179" s="24"/>
-      <c r="G179" s="29"/>
+      <c r="G179" s="26"/>
       <c r="H179" s="24"/>
       <c r="I179" s="11"/>
       <c r="K179" s="14" t="s">
@@ -5631,7 +5631,7 @@
       <c r="L179" s="14">
         <v>177</v>
       </c>
-      <c r="M179" s="32"/>
+      <c r="M179" s="23"/>
       <c r="N179" s="14"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -5645,7 +5645,7 @@
       <c r="D180" s="24"/>
       <c r="E180" s="24"/>
       <c r="F180" s="24"/>
-      <c r="G180" s="29"/>
+      <c r="G180" s="26"/>
       <c r="H180" s="24"/>
       <c r="I180" s="11"/>
       <c r="K180" s="14" t="s">
@@ -5654,7 +5654,7 @@
       <c r="L180" s="14">
         <v>178</v>
       </c>
-      <c r="M180" s="32"/>
+      <c r="M180" s="23"/>
       <c r="N180" s="14"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
@@ -5668,7 +5668,7 @@
       <c r="D181" s="24"/>
       <c r="E181" s="24"/>
       <c r="F181" s="24"/>
-      <c r="G181" s="29"/>
+      <c r="G181" s="26"/>
       <c r="H181" s="24"/>
       <c r="I181" s="11"/>
       <c r="K181" s="14" t="s">
@@ -5677,7 +5677,7 @@
       <c r="L181" s="14">
         <v>179</v>
       </c>
-      <c r="M181" s="32"/>
+      <c r="M181" s="23"/>
       <c r="N181" s="14"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -5691,7 +5691,7 @@
       <c r="D182" s="24"/>
       <c r="E182" s="24"/>
       <c r="F182" s="24"/>
-      <c r="G182" s="29"/>
+      <c r="G182" s="26"/>
       <c r="H182" s="24"/>
       <c r="I182" s="11"/>
       <c r="K182" s="14" t="s">
@@ -5700,7 +5700,7 @@
       <c r="L182" s="14">
         <v>180</v>
       </c>
-      <c r="M182" s="32"/>
+      <c r="M182" s="23"/>
       <c r="N182" s="14"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
@@ -5714,7 +5714,7 @@
       <c r="D183" s="24"/>
       <c r="E183" s="24"/>
       <c r="F183" s="24"/>
-      <c r="G183" s="29"/>
+      <c r="G183" s="26"/>
       <c r="H183" s="24"/>
       <c r="I183" s="11"/>
       <c r="K183" s="14" t="s">
@@ -5723,7 +5723,7 @@
       <c r="L183" s="14">
         <v>181</v>
       </c>
-      <c r="M183" s="32"/>
+      <c r="M183" s="23"/>
       <c r="N183" s="14"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -5737,7 +5737,7 @@
       <c r="D184" s="24"/>
       <c r="E184" s="24"/>
       <c r="F184" s="24"/>
-      <c r="G184" s="29"/>
+      <c r="G184" s="26"/>
       <c r="H184" s="24"/>
       <c r="I184" s="11"/>
       <c r="K184" s="14" t="s">
@@ -5746,7 +5746,7 @@
       <c r="L184" s="14">
         <v>182</v>
       </c>
-      <c r="M184" s="32"/>
+      <c r="M184" s="23"/>
       <c r="N184" s="14"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -5760,7 +5760,7 @@
       <c r="D185" s="24"/>
       <c r="E185" s="24"/>
       <c r="F185" s="24"/>
-      <c r="G185" s="29"/>
+      <c r="G185" s="26"/>
       <c r="H185" s="24"/>
       <c r="I185" s="11"/>
       <c r="K185" s="14" t="s">
@@ -5769,7 +5769,7 @@
       <c r="L185" s="14">
         <v>183</v>
       </c>
-      <c r="M185" s="32"/>
+      <c r="M185" s="23"/>
       <c r="N185" s="14"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
@@ -5783,7 +5783,7 @@
       <c r="D186" s="24"/>
       <c r="E186" s="24"/>
       <c r="F186" s="24"/>
-      <c r="G186" s="29"/>
+      <c r="G186" s="26"/>
       <c r="H186" s="24"/>
       <c r="I186" s="11"/>
       <c r="K186" s="14" t="s">
@@ -5792,7 +5792,7 @@
       <c r="L186" s="14">
         <v>184</v>
       </c>
-      <c r="M186" s="32"/>
+      <c r="M186" s="23"/>
       <c r="N186" s="14"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -5806,7 +5806,7 @@
       <c r="D187" s="24"/>
       <c r="E187" s="24"/>
       <c r="F187" s="24"/>
-      <c r="G187" s="29"/>
+      <c r="G187" s="26"/>
       <c r="H187" s="24"/>
       <c r="I187" s="11"/>
       <c r="K187" s="14" t="s">
@@ -5815,7 +5815,7 @@
       <c r="L187" s="14">
         <v>185</v>
       </c>
-      <c r="M187" s="32"/>
+      <c r="M187" s="23"/>
       <c r="N187" s="14"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -5829,7 +5829,7 @@
       <c r="D188" s="24"/>
       <c r="E188" s="24"/>
       <c r="F188" s="24"/>
-      <c r="G188" s="29"/>
+      <c r="G188" s="26"/>
       <c r="H188" s="24"/>
       <c r="I188" s="11"/>
       <c r="K188" s="14" t="s">
@@ -5838,7 +5838,7 @@
       <c r="L188" s="14">
         <v>186</v>
       </c>
-      <c r="M188" s="32"/>
+      <c r="M188" s="23"/>
       <c r="N188" s="14"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -5852,7 +5852,7 @@
       <c r="D189" s="24"/>
       <c r="E189" s="24"/>
       <c r="F189" s="24"/>
-      <c r="G189" s="29"/>
+      <c r="G189" s="26"/>
       <c r="H189" s="24"/>
       <c r="I189" s="11"/>
       <c r="K189" s="14" t="s">
@@ -5861,7 +5861,7 @@
       <c r="L189" s="14">
         <v>187</v>
       </c>
-      <c r="M189" s="32"/>
+      <c r="M189" s="23"/>
       <c r="N189" s="14"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -5875,7 +5875,7 @@
       <c r="D190" s="24"/>
       <c r="E190" s="24"/>
       <c r="F190" s="24"/>
-      <c r="G190" s="29"/>
+      <c r="G190" s="26"/>
       <c r="H190" s="24"/>
       <c r="I190" s="11"/>
       <c r="K190" s="14" t="s">
@@ -5884,7 +5884,7 @@
       <c r="L190" s="14">
         <v>188</v>
       </c>
-      <c r="M190" s="32"/>
+      <c r="M190" s="23"/>
       <c r="N190" s="14"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -5898,7 +5898,7 @@
       <c r="D191" s="24"/>
       <c r="E191" s="24"/>
       <c r="F191" s="24"/>
-      <c r="G191" s="29"/>
+      <c r="G191" s="26"/>
       <c r="H191" s="24"/>
       <c r="I191" s="11"/>
       <c r="K191" s="14" t="s">
@@ -5907,7 +5907,7 @@
       <c r="L191" s="14">
         <v>189</v>
       </c>
-      <c r="M191" s="32"/>
+      <c r="M191" s="23"/>
       <c r="N191" s="14"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
@@ -5921,7 +5921,7 @@
       <c r="D192" s="24"/>
       <c r="E192" s="24"/>
       <c r="F192" s="24"/>
-      <c r="G192" s="29"/>
+      <c r="G192" s="26"/>
       <c r="H192" s="24"/>
       <c r="I192" s="11" t="s">
         <v>24</v>
@@ -5932,7 +5932,7 @@
       <c r="L192" s="14">
         <v>190</v>
       </c>
-      <c r="M192" s="32"/>
+      <c r="M192" s="23"/>
       <c r="N192" s="14"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -5946,7 +5946,7 @@
       <c r="D193" s="24"/>
       <c r="E193" s="24"/>
       <c r="F193" s="24"/>
-      <c r="G193" s="29"/>
+      <c r="G193" s="26"/>
       <c r="H193" s="24"/>
       <c r="I193" s="11" t="s">
         <v>15</v>
@@ -5957,7 +5957,7 @@
       <c r="L193" s="14">
         <v>191</v>
       </c>
-      <c r="M193" s="32"/>
+      <c r="M193" s="23"/>
       <c r="N193" s="14"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -5967,12 +5967,12 @@
       <c r="B194" s="13">
         <v>192</v>
       </c>
-      <c r="C194" s="30"/>
-      <c r="D194" s="31" t="s">
+      <c r="C194" s="27"/>
+      <c r="D194" s="28" t="s">
         <v>32</v>
       </c>
       <c r="E194" s="24"/>
-      <c r="F194" s="23"/>
+      <c r="F194" s="30"/>
       <c r="G194" s="24"/>
       <c r="H194" s="24"/>
       <c r="I194" s="12" t="s">
@@ -5984,7 +5984,7 @@
       <c r="L194" s="14">
         <v>192</v>
       </c>
-      <c r="M194" s="32"/>
+      <c r="M194" s="23"/>
       <c r="N194" s="14"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -5994,10 +5994,10 @@
       <c r="B195" s="13">
         <v>193</v>
       </c>
-      <c r="C195" s="30"/>
-      <c r="D195" s="31"/>
+      <c r="C195" s="27"/>
+      <c r="D195" s="28"/>
       <c r="E195" s="24"/>
-      <c r="F195" s="23"/>
+      <c r="F195" s="30"/>
       <c r="G195" s="24"/>
       <c r="H195" s="24"/>
       <c r="I195" s="12"/>
@@ -6007,7 +6007,7 @@
       <c r="L195" s="14">
         <v>193</v>
       </c>
-      <c r="M195" s="32"/>
+      <c r="M195" s="23"/>
       <c r="N195" s="14"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
@@ -6017,10 +6017,10 @@
       <c r="B196" s="13">
         <v>194</v>
       </c>
-      <c r="C196" s="30"/>
-      <c r="D196" s="31"/>
+      <c r="C196" s="27"/>
+      <c r="D196" s="28"/>
       <c r="E196" s="24"/>
-      <c r="F196" s="23"/>
+      <c r="F196" s="30"/>
       <c r="G196" s="24"/>
       <c r="H196" s="24"/>
       <c r="I196" s="12"/>
@@ -6030,7 +6030,7 @@
       <c r="L196" s="14">
         <v>194</v>
       </c>
-      <c r="M196" s="32"/>
+      <c r="M196" s="23"/>
       <c r="N196" s="14"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -6040,10 +6040,10 @@
       <c r="B197" s="13">
         <v>195</v>
       </c>
-      <c r="C197" s="30"/>
-      <c r="D197" s="31"/>
+      <c r="C197" s="27"/>
+      <c r="D197" s="28"/>
       <c r="E197" s="24"/>
-      <c r="F197" s="23"/>
+      <c r="F197" s="30"/>
       <c r="G197" s="24"/>
       <c r="H197" s="24"/>
       <c r="I197" s="12"/>
@@ -6053,7 +6053,7 @@
       <c r="L197" s="14">
         <v>195</v>
       </c>
-      <c r="M197" s="32"/>
+      <c r="M197" s="23"/>
       <c r="N197" s="14"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -6064,9 +6064,9 @@
         <v>196</v>
       </c>
       <c r="C198" s="24"/>
-      <c r="D198" s="31"/>
+      <c r="D198" s="28"/>
       <c r="E198" s="24"/>
-      <c r="F198" s="23"/>
+      <c r="F198" s="30"/>
       <c r="G198" s="24"/>
       <c r="H198" s="24"/>
       <c r="I198" s="12"/>
@@ -6076,7 +6076,7 @@
       <c r="L198" s="14">
         <v>196</v>
       </c>
-      <c r="M198" s="32"/>
+      <c r="M198" s="23"/>
       <c r="N198" s="14"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -6087,9 +6087,9 @@
         <v>197</v>
       </c>
       <c r="C199" s="24"/>
-      <c r="D199" s="31"/>
+      <c r="D199" s="28"/>
       <c r="E199" s="24"/>
-      <c r="F199" s="23"/>
+      <c r="F199" s="30"/>
       <c r="G199" s="24"/>
       <c r="H199" s="24"/>
       <c r="I199" s="12"/>
@@ -6099,7 +6099,7 @@
       <c r="L199" s="14">
         <v>197</v>
       </c>
-      <c r="M199" s="32"/>
+      <c r="M199" s="23"/>
       <c r="N199" s="14"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -6110,9 +6110,9 @@
         <v>198</v>
       </c>
       <c r="C200" s="24"/>
-      <c r="D200" s="31"/>
+      <c r="D200" s="28"/>
       <c r="E200" s="24"/>
-      <c r="F200" s="23"/>
+      <c r="F200" s="30"/>
       <c r="G200" s="24"/>
       <c r="H200" s="24"/>
       <c r="I200" s="12"/>
@@ -6122,7 +6122,7 @@
       <c r="L200" s="14">
         <v>198</v>
       </c>
-      <c r="M200" s="32"/>
+      <c r="M200" s="23"/>
       <c r="N200" s="14"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -6133,9 +6133,9 @@
         <v>199</v>
       </c>
       <c r="C201" s="24"/>
-      <c r="D201" s="31"/>
+      <c r="D201" s="28"/>
       <c r="E201" s="24"/>
-      <c r="F201" s="23"/>
+      <c r="F201" s="30"/>
       <c r="G201" s="24"/>
       <c r="H201" s="24"/>
       <c r="I201" s="12"/>
@@ -6145,7 +6145,7 @@
       <c r="L201" s="14">
         <v>199</v>
       </c>
-      <c r="M201" s="32"/>
+      <c r="M201" s="23"/>
       <c r="N201" s="14"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -6158,7 +6158,7 @@
       <c r="C202" s="24"/>
       <c r="D202" s="24"/>
       <c r="E202" s="24"/>
-      <c r="F202" s="23"/>
+      <c r="F202" s="30"/>
       <c r="G202" s="24"/>
       <c r="H202" s="24"/>
       <c r="I202" s="12"/>
@@ -6168,7 +6168,7 @@
       <c r="L202" s="14">
         <v>200</v>
       </c>
-      <c r="M202" s="32"/>
+      <c r="M202" s="23"/>
       <c r="N202" s="14"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -6181,7 +6181,7 @@
       <c r="C203" s="24"/>
       <c r="D203" s="24"/>
       <c r="E203" s="24"/>
-      <c r="F203" s="23"/>
+      <c r="F203" s="30"/>
       <c r="G203" s="24"/>
       <c r="H203" s="24"/>
       <c r="I203" s="12"/>
@@ -6191,7 +6191,7 @@
       <c r="L203" s="14">
         <v>201</v>
       </c>
-      <c r="M203" s="32"/>
+      <c r="M203" s="23"/>
       <c r="N203" s="14"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -6204,7 +6204,7 @@
       <c r="C204" s="24"/>
       <c r="D204" s="24"/>
       <c r="E204" s="24"/>
-      <c r="F204" s="23"/>
+      <c r="F204" s="30"/>
       <c r="G204" s="24"/>
       <c r="H204" s="24"/>
       <c r="I204" s="12"/>
@@ -6214,7 +6214,7 @@
       <c r="L204" s="14">
         <v>202</v>
       </c>
-      <c r="M204" s="32"/>
+      <c r="M204" s="23"/>
       <c r="N204" s="14"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -6227,7 +6227,7 @@
       <c r="C205" s="24"/>
       <c r="D205" s="24"/>
       <c r="E205" s="24"/>
-      <c r="F205" s="23"/>
+      <c r="F205" s="30"/>
       <c r="G205" s="24"/>
       <c r="H205" s="24"/>
       <c r="I205" s="12"/>
@@ -6237,7 +6237,7 @@
       <c r="L205" s="14">
         <v>203</v>
       </c>
-      <c r="M205" s="32"/>
+      <c r="M205" s="23"/>
       <c r="N205" s="14"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -6250,7 +6250,7 @@
       <c r="C206" s="24"/>
       <c r="D206" s="24"/>
       <c r="E206" s="24"/>
-      <c r="F206" s="23"/>
+      <c r="F206" s="30"/>
       <c r="G206" s="24"/>
       <c r="H206" s="24"/>
       <c r="I206" s="12"/>
@@ -6260,7 +6260,7 @@
       <c r="L206" s="14">
         <v>204</v>
       </c>
-      <c r="M206" s="32"/>
+      <c r="M206" s="23"/>
       <c r="N206" s="14"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -6273,7 +6273,7 @@
       <c r="C207" s="24"/>
       <c r="D207" s="24"/>
       <c r="E207" s="24"/>
-      <c r="F207" s="23"/>
+      <c r="F207" s="30"/>
       <c r="G207" s="24"/>
       <c r="H207" s="24"/>
       <c r="I207" s="12"/>
@@ -6283,7 +6283,7 @@
       <c r="L207" s="14">
         <v>205</v>
       </c>
-      <c r="M207" s="32"/>
+      <c r="M207" s="23"/>
       <c r="N207" s="14"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -6296,7 +6296,7 @@
       <c r="C208" s="24"/>
       <c r="D208" s="24"/>
       <c r="E208" s="24"/>
-      <c r="F208" s="23"/>
+      <c r="F208" s="30"/>
       <c r="G208" s="24"/>
       <c r="H208" s="24"/>
       <c r="I208" s="12"/>
@@ -6306,7 +6306,7 @@
       <c r="L208" s="14">
         <v>206</v>
       </c>
-      <c r="M208" s="32"/>
+      <c r="M208" s="23"/>
       <c r="N208" s="14"/>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
@@ -6319,7 +6319,7 @@
       <c r="C209" s="24"/>
       <c r="D209" s="24"/>
       <c r="E209" s="24"/>
-      <c r="F209" s="23"/>
+      <c r="F209" s="30"/>
       <c r="G209" s="24"/>
       <c r="H209" s="24"/>
       <c r="I209" s="12"/>
@@ -6329,7 +6329,7 @@
       <c r="L209" s="14">
         <v>207</v>
       </c>
-      <c r="M209" s="32"/>
+      <c r="M209" s="23"/>
       <c r="N209" s="14"/>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
@@ -6342,7 +6342,7 @@
       <c r="C210" s="24"/>
       <c r="D210" s="24"/>
       <c r="E210" s="24"/>
-      <c r="F210" s="23"/>
+      <c r="F210" s="30"/>
       <c r="G210" s="24"/>
       <c r="H210" s="24"/>
       <c r="I210" s="12"/>
@@ -6352,7 +6352,7 @@
       <c r="L210" s="14">
         <v>208</v>
       </c>
-      <c r="M210" s="32"/>
+      <c r="M210" s="23"/>
       <c r="N210" s="14"/>
       <c r="R210" t="s">
         <v>42</v>
@@ -6368,7 +6368,7 @@
       <c r="C211" s="24"/>
       <c r="D211" s="24"/>
       <c r="E211" s="24"/>
-      <c r="F211" s="23"/>
+      <c r="F211" s="30"/>
       <c r="G211" s="24"/>
       <c r="H211" s="24"/>
       <c r="I211" s="12"/>
@@ -6378,7 +6378,7 @@
       <c r="L211" s="14">
         <v>209</v>
       </c>
-      <c r="M211" s="32"/>
+      <c r="M211" s="23"/>
       <c r="N211" s="14"/>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
@@ -6391,7 +6391,7 @@
       <c r="C212" s="24"/>
       <c r="D212" s="24"/>
       <c r="E212" s="24"/>
-      <c r="F212" s="23"/>
+      <c r="F212" s="30"/>
       <c r="G212" s="24"/>
       <c r="H212" s="24"/>
       <c r="I212" s="12"/>
@@ -6401,7 +6401,7 @@
       <c r="L212" s="14">
         <v>210</v>
       </c>
-      <c r="M212" s="32"/>
+      <c r="M212" s="23"/>
       <c r="N212" s="14"/>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
@@ -6414,7 +6414,7 @@
       <c r="C213" s="24"/>
       <c r="D213" s="24"/>
       <c r="E213" s="24"/>
-      <c r="F213" s="23"/>
+      <c r="F213" s="30"/>
       <c r="G213" s="24"/>
       <c r="H213" s="24"/>
       <c r="I213" s="12"/>
@@ -6424,7 +6424,7 @@
       <c r="L213" s="14">
         <v>211</v>
       </c>
-      <c r="M213" s="32"/>
+      <c r="M213" s="23"/>
       <c r="N213" s="14"/>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
@@ -6437,7 +6437,7 @@
       <c r="C214" s="24"/>
       <c r="D214" s="24"/>
       <c r="E214" s="24"/>
-      <c r="F214" s="23"/>
+      <c r="F214" s="30"/>
       <c r="G214" s="24"/>
       <c r="H214" s="24"/>
       <c r="I214" s="12"/>
@@ -6447,7 +6447,7 @@
       <c r="L214" s="14">
         <v>212</v>
       </c>
-      <c r="M214" s="32"/>
+      <c r="M214" s="23"/>
       <c r="N214" s="14"/>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
@@ -6460,7 +6460,7 @@
       <c r="C215" s="24"/>
       <c r="D215" s="24"/>
       <c r="E215" s="24"/>
-      <c r="F215" s="23"/>
+      <c r="F215" s="30"/>
       <c r="G215" s="24"/>
       <c r="H215" s="24"/>
       <c r="I215" s="12"/>
@@ -6470,7 +6470,7 @@
       <c r="L215" s="14">
         <v>213</v>
       </c>
-      <c r="M215" s="32"/>
+      <c r="M215" s="23"/>
       <c r="N215" s="14"/>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
@@ -6483,7 +6483,7 @@
       <c r="C216" s="24"/>
       <c r="D216" s="24"/>
       <c r="E216" s="24"/>
-      <c r="F216" s="23"/>
+      <c r="F216" s="30"/>
       <c r="G216" s="24"/>
       <c r="H216" s="24"/>
       <c r="I216" s="12"/>
@@ -6493,7 +6493,7 @@
       <c r="L216" s="14">
         <v>214</v>
       </c>
-      <c r="M216" s="32"/>
+      <c r="M216" s="23"/>
       <c r="N216" s="14"/>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
@@ -6506,7 +6506,7 @@
       <c r="C217" s="24"/>
       <c r="D217" s="24"/>
       <c r="E217" s="24"/>
-      <c r="F217" s="23"/>
+      <c r="F217" s="30"/>
       <c r="G217" s="24"/>
       <c r="H217" s="24"/>
       <c r="I217" s="12"/>
@@ -6516,7 +6516,7 @@
       <c r="L217" s="14">
         <v>215</v>
       </c>
-      <c r="M217" s="32"/>
+      <c r="M217" s="23"/>
       <c r="N217" s="14"/>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
@@ -6529,7 +6529,7 @@
       <c r="C218" s="24"/>
       <c r="D218" s="24"/>
       <c r="E218" s="24"/>
-      <c r="F218" s="23"/>
+      <c r="F218" s="30"/>
       <c r="G218" s="24"/>
       <c r="H218" s="24"/>
       <c r="I218" s="12"/>
@@ -6539,7 +6539,7 @@
       <c r="L218" s="14">
         <v>216</v>
       </c>
-      <c r="M218" s="32"/>
+      <c r="M218" s="23"/>
       <c r="N218" s="14"/>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
@@ -6552,7 +6552,7 @@
       <c r="C219" s="24"/>
       <c r="D219" s="24"/>
       <c r="E219" s="24"/>
-      <c r="F219" s="23"/>
+      <c r="F219" s="30"/>
       <c r="G219" s="24"/>
       <c r="H219" s="24"/>
       <c r="I219" s="12"/>
@@ -6562,7 +6562,7 @@
       <c r="L219" s="14">
         <v>217</v>
       </c>
-      <c r="M219" s="32"/>
+      <c r="M219" s="23"/>
       <c r="N219" s="14"/>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
@@ -6575,7 +6575,7 @@
       <c r="C220" s="24"/>
       <c r="D220" s="24"/>
       <c r="E220" s="24"/>
-      <c r="F220" s="23"/>
+      <c r="F220" s="30"/>
       <c r="G220" s="24"/>
       <c r="H220" s="24"/>
       <c r="I220" s="12"/>
@@ -6585,7 +6585,7 @@
       <c r="L220" s="14">
         <v>218</v>
       </c>
-      <c r="M220" s="32"/>
+      <c r="M220" s="23"/>
       <c r="N220" s="14"/>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
@@ -6598,7 +6598,7 @@
       <c r="C221" s="24"/>
       <c r="D221" s="24"/>
       <c r="E221" s="24"/>
-      <c r="F221" s="23"/>
+      <c r="F221" s="30"/>
       <c r="G221" s="24"/>
       <c r="H221" s="24"/>
       <c r="I221" s="12"/>
@@ -6608,7 +6608,7 @@
       <c r="L221" s="14">
         <v>219</v>
       </c>
-      <c r="M221" s="32"/>
+      <c r="M221" s="23"/>
       <c r="N221" s="14"/>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
@@ -6621,7 +6621,7 @@
       <c r="C222" s="24"/>
       <c r="D222" s="24"/>
       <c r="E222" s="24"/>
-      <c r="F222" s="23"/>
+      <c r="F222" s="30"/>
       <c r="G222" s="24"/>
       <c r="H222" s="24"/>
       <c r="I222" s="12"/>
@@ -6631,7 +6631,7 @@
       <c r="L222" s="14">
         <v>220</v>
       </c>
-      <c r="M222" s="32"/>
+      <c r="M222" s="23"/>
       <c r="N222" s="14"/>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
@@ -6644,7 +6644,7 @@
       <c r="C223" s="24"/>
       <c r="D223" s="24"/>
       <c r="E223" s="24"/>
-      <c r="F223" s="23"/>
+      <c r="F223" s="30"/>
       <c r="G223" s="24"/>
       <c r="H223" s="24"/>
       <c r="I223" s="12"/>
@@ -6654,7 +6654,7 @@
       <c r="L223" s="14">
         <v>221</v>
       </c>
-      <c r="M223" s="32"/>
+      <c r="M223" s="23"/>
       <c r="N223" s="14"/>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
@@ -6667,7 +6667,7 @@
       <c r="C224" s="24"/>
       <c r="D224" s="24"/>
       <c r="E224" s="24"/>
-      <c r="F224" s="23"/>
+      <c r="F224" s="30"/>
       <c r="G224" s="24"/>
       <c r="H224" s="24"/>
       <c r="I224" s="12"/>
@@ -6677,7 +6677,7 @@
       <c r="L224" s="14">
         <v>222</v>
       </c>
-      <c r="M224" s="32"/>
+      <c r="M224" s="23"/>
       <c r="N224" s="14"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
@@ -6690,7 +6690,7 @@
       <c r="C225" s="24"/>
       <c r="D225" s="24"/>
       <c r="E225" s="24"/>
-      <c r="F225" s="23"/>
+      <c r="F225" s="30"/>
       <c r="G225" s="24"/>
       <c r="H225" s="24"/>
       <c r="I225" s="12" t="s">
@@ -6702,7 +6702,7 @@
       <c r="L225" s="14">
         <v>223</v>
       </c>
-      <c r="M225" s="32"/>
+      <c r="M225" s="23"/>
       <c r="N225" s="14"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
@@ -6712,7 +6712,7 @@
       <c r="B226" s="15">
         <v>224</v>
       </c>
-      <c r="C226" s="28" t="s">
+      <c r="C226" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D226" s="24"/>
@@ -6729,7 +6729,7 @@
       <c r="L226" s="14">
         <v>224</v>
       </c>
-      <c r="M226" s="32"/>
+      <c r="M226" s="23"/>
       <c r="N226" s="14"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
@@ -6739,7 +6739,7 @@
       <c r="B227" s="15">
         <v>225</v>
       </c>
-      <c r="C227" s="28"/>
+      <c r="C227" s="29"/>
       <c r="D227" s="24"/>
       <c r="E227" s="24"/>
       <c r="F227" s="24"/>
@@ -6754,7 +6754,7 @@
       <c r="L227" s="14">
         <v>225</v>
       </c>
-      <c r="M227" s="32"/>
+      <c r="M227" s="23"/>
       <c r="N227" s="14"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
@@ -6764,14 +6764,14 @@
       <c r="B228" s="15">
         <v>226</v>
       </c>
-      <c r="C228" s="28"/>
+      <c r="C228" s="29"/>
       <c r="D228" s="24"/>
       <c r="E228" s="24"/>
       <c r="F228" s="24"/>
       <c r="G228" s="24"/>
       <c r="H228" s="24"/>
       <c r="I228" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K228" s="14" t="s">
         <v>33</v>
@@ -6779,7 +6779,7 @@
       <c r="L228" s="14">
         <v>226</v>
       </c>
-      <c r="M228" s="32"/>
+      <c r="M228" s="23"/>
       <c r="N228" s="14"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
@@ -6789,7 +6789,7 @@
       <c r="B229" s="15">
         <v>227</v>
       </c>
-      <c r="C229" s="28"/>
+      <c r="C229" s="29"/>
       <c r="D229" s="24"/>
       <c r="E229" s="24"/>
       <c r="F229" s="24"/>
@@ -6804,7 +6804,7 @@
       <c r="L229" s="14">
         <v>227</v>
       </c>
-      <c r="M229" s="32"/>
+      <c r="M229" s="23"/>
       <c r="N229" s="14"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
@@ -6814,7 +6814,7 @@
       <c r="B230" s="17">
         <v>228</v>
       </c>
-      <c r="C230" s="25" t="s">
+      <c r="C230" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D230" s="24"/>
@@ -6831,7 +6831,7 @@
       <c r="L230" s="14">
         <v>228</v>
       </c>
-      <c r="M230" s="32"/>
+      <c r="M230" s="23"/>
       <c r="N230" s="14"/>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
@@ -6841,7 +6841,7 @@
       <c r="B231" s="17">
         <v>229</v>
       </c>
-      <c r="C231" s="25"/>
+      <c r="C231" s="31"/>
       <c r="D231" s="24"/>
       <c r="E231" s="24"/>
       <c r="F231" s="24"/>
@@ -6856,7 +6856,7 @@
       <c r="L231" s="14">
         <v>229</v>
       </c>
-      <c r="M231" s="32"/>
+      <c r="M231" s="23"/>
       <c r="N231" s="14"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
@@ -6866,7 +6866,7 @@
       <c r="B232" s="17">
         <v>230</v>
       </c>
-      <c r="C232" s="25"/>
+      <c r="C232" s="31"/>
       <c r="D232" s="24"/>
       <c r="E232" s="24"/>
       <c r="F232" s="24"/>
@@ -6881,7 +6881,7 @@
       <c r="L232" s="14">
         <v>230</v>
       </c>
-      <c r="M232" s="32"/>
+      <c r="M232" s="23"/>
       <c r="N232" s="14"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
@@ -6891,7 +6891,7 @@
       <c r="B233" s="17">
         <v>231</v>
       </c>
-      <c r="C233" s="25"/>
+      <c r="C233" s="31"/>
       <c r="D233" s="24"/>
       <c r="E233" s="24"/>
       <c r="F233" s="24"/>
@@ -6906,7 +6906,7 @@
       <c r="L233" s="14">
         <v>231</v>
       </c>
-      <c r="M233" s="32"/>
+      <c r="M233" s="23"/>
       <c r="N233" s="14"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
@@ -6916,7 +6916,7 @@
       <c r="B234" s="19">
         <v>232</v>
       </c>
-      <c r="C234" s="26" t="s">
+      <c r="C234" s="32" t="s">
         <v>38</v>
       </c>
       <c r="D234" s="24"/>
@@ -6933,7 +6933,7 @@
       <c r="L234" s="14">
         <v>232</v>
       </c>
-      <c r="M234" s="32"/>
+      <c r="M234" s="23"/>
       <c r="N234" s="14"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
@@ -6943,7 +6943,7 @@
       <c r="B235" s="19">
         <v>233</v>
       </c>
-      <c r="C235" s="26"/>
+      <c r="C235" s="32"/>
       <c r="D235" s="24"/>
       <c r="E235" s="24"/>
       <c r="F235" s="24"/>
@@ -6958,7 +6958,7 @@
       <c r="L235" s="14">
         <v>233</v>
       </c>
-      <c r="M235" s="32"/>
+      <c r="M235" s="23"/>
       <c r="N235" s="14"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
@@ -6968,7 +6968,7 @@
       <c r="B236" s="19">
         <v>234</v>
       </c>
-      <c r="C236" s="26"/>
+      <c r="C236" s="32"/>
       <c r="D236" s="24"/>
       <c r="E236" s="24"/>
       <c r="F236" s="24"/>
@@ -6983,7 +6983,7 @@
       <c r="L236" s="14">
         <v>234</v>
       </c>
-      <c r="M236" s="32"/>
+      <c r="M236" s="23"/>
       <c r="N236" s="14"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
@@ -6993,7 +6993,7 @@
       <c r="B237" s="19">
         <v>235</v>
       </c>
-      <c r="C237" s="26"/>
+      <c r="C237" s="32"/>
       <c r="D237" s="24"/>
       <c r="E237" s="24"/>
       <c r="F237" s="24"/>
@@ -7008,7 +7008,7 @@
       <c r="L237" s="14">
         <v>235</v>
       </c>
-      <c r="M237" s="32"/>
+      <c r="M237" s="23"/>
       <c r="N237" s="14"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
@@ -7018,7 +7018,7 @@
       <c r="B238" s="21">
         <v>236</v>
       </c>
-      <c r="C238" s="27" t="s">
+      <c r="C238" s="33" t="s">
         <v>39</v>
       </c>
       <c r="D238" s="24"/>
@@ -7035,7 +7035,7 @@
       <c r="L238" s="14">
         <v>236</v>
       </c>
-      <c r="M238" s="32"/>
+      <c r="M238" s="23"/>
       <c r="N238" s="14"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
@@ -7045,7 +7045,7 @@
       <c r="B239" s="21">
         <v>237</v>
       </c>
-      <c r="C239" s="27"/>
+      <c r="C239" s="33"/>
       <c r="D239" s="24"/>
       <c r="E239" s="24"/>
       <c r="F239" s="24"/>
@@ -7058,7 +7058,7 @@
       <c r="L239" s="14">
         <v>237</v>
       </c>
-      <c r="M239" s="32"/>
+      <c r="M239" s="23"/>
       <c r="N239" s="14"/>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
@@ -7068,7 +7068,7 @@
       <c r="B240" s="21">
         <v>238</v>
       </c>
-      <c r="C240" s="27"/>
+      <c r="C240" s="33"/>
       <c r="D240" s="24"/>
       <c r="E240" s="24"/>
       <c r="F240" s="24"/>
@@ -7081,7 +7081,7 @@
       <c r="L240" s="14">
         <v>238</v>
       </c>
-      <c r="M240" s="32"/>
+      <c r="M240" s="23"/>
       <c r="N240" s="14"/>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
@@ -7091,7 +7091,7 @@
       <c r="B241" s="21">
         <v>239</v>
       </c>
-      <c r="C241" s="27"/>
+      <c r="C241" s="33"/>
       <c r="D241" s="24"/>
       <c r="E241" s="24"/>
       <c r="F241" s="24"/>
@@ -7106,7 +7106,7 @@
       <c r="L241" s="14">
         <v>239</v>
       </c>
-      <c r="M241" s="32"/>
+      <c r="M241" s="23"/>
       <c r="N241" s="14"/>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
@@ -7129,7 +7129,7 @@
       <c r="L242" s="14">
         <v>240</v>
       </c>
-      <c r="M242" s="32"/>
+      <c r="M242" s="23"/>
       <c r="N242" s="14"/>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
@@ -7152,7 +7152,7 @@
       <c r="L243" s="14">
         <v>241</v>
       </c>
-      <c r="M243" s="32"/>
+      <c r="M243" s="23"/>
       <c r="N243" s="14"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
@@ -7175,7 +7175,7 @@
       <c r="L244" s="14">
         <v>242</v>
       </c>
-      <c r="M244" s="32"/>
+      <c r="M244" s="23"/>
       <c r="N244" s="14"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
@@ -7198,7 +7198,7 @@
       <c r="L245" s="14">
         <v>243</v>
       </c>
-      <c r="M245" s="32"/>
+      <c r="M245" s="23"/>
       <c r="N245" s="14"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
@@ -7221,7 +7221,7 @@
       <c r="L246" s="14">
         <v>244</v>
       </c>
-      <c r="M246" s="32"/>
+      <c r="M246" s="23"/>
       <c r="N246" s="14"/>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
@@ -7244,7 +7244,7 @@
       <c r="L247" s="14">
         <v>245</v>
       </c>
-      <c r="M247" s="32"/>
+      <c r="M247" s="23"/>
       <c r="N247" s="14"/>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
@@ -7267,7 +7267,7 @@
       <c r="L248" s="14">
         <v>246</v>
       </c>
-      <c r="M248" s="32"/>
+      <c r="M248" s="23"/>
       <c r="N248" s="14"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
@@ -7290,7 +7290,7 @@
       <c r="L249" s="14">
         <v>247</v>
       </c>
-      <c r="M249" s="32"/>
+      <c r="M249" s="23"/>
       <c r="N249" s="14"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
@@ -7313,7 +7313,7 @@
       <c r="L250" s="14">
         <v>248</v>
       </c>
-      <c r="M250" s="32"/>
+      <c r="M250" s="23"/>
       <c r="N250" s="14"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
@@ -7336,7 +7336,7 @@
       <c r="L251" s="14">
         <v>249</v>
       </c>
-      <c r="M251" s="32"/>
+      <c r="M251" s="23"/>
       <c r="N251" s="14"/>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
@@ -7359,7 +7359,7 @@
       <c r="L252" s="14">
         <v>250</v>
       </c>
-      <c r="M252" s="32"/>
+      <c r="M252" s="23"/>
       <c r="N252" s="14"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
@@ -7382,7 +7382,7 @@
       <c r="L253" s="14">
         <v>251</v>
       </c>
-      <c r="M253" s="32"/>
+      <c r="M253" s="23"/>
       <c r="N253" s="14"/>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
@@ -7405,7 +7405,7 @@
       <c r="L254" s="14">
         <v>252</v>
       </c>
-      <c r="M254" s="32"/>
+      <c r="M254" s="23"/>
       <c r="N254" s="14"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
@@ -7428,7 +7428,7 @@
       <c r="L255" s="14">
         <v>253</v>
       </c>
-      <c r="M255" s="32"/>
+      <c r="M255" s="23"/>
       <c r="N255" s="14"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
@@ -7451,7 +7451,7 @@
       <c r="L256" s="14">
         <v>254</v>
       </c>
-      <c r="M256" s="32"/>
+      <c r="M256" s="23"/>
       <c r="N256" s="14" t="s">
         <v>23</v>
       </c>
@@ -7476,13 +7476,116 @@
       <c r="L257" s="14">
         <v>255</v>
       </c>
-      <c r="M257" s="32"/>
+      <c r="M257" s="23"/>
       <c r="N257" s="14" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="F194:F225"/>
+    <mergeCell ref="G194:G257"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D202:D209"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="D210:D217"/>
+    <mergeCell ref="E210:E225"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="D250:D257"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="F226:F257"/>
+    <mergeCell ref="C230:C233"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="D234:D241"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D249"/>
+    <mergeCell ref="E242:E257"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="E194:E209"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="E162:E177"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="D218:D225"/>
+    <mergeCell ref="C222:C225"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D233"/>
+    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="F162:F193"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="D170:D177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="D178:D185"/>
+    <mergeCell ref="G130:G193"/>
+    <mergeCell ref="H130:H257"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D145"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D153"/>
+    <mergeCell ref="E146:E161"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="E178:E193"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="D186:D193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="D194:D201"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="E130:E145"/>
+    <mergeCell ref="F130:F161"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="F98:F129"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="E114:E129"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D105"/>
+    <mergeCell ref="E98:E113"/>
+    <mergeCell ref="F66:F97"/>
+    <mergeCell ref="G66:G129"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="E82:E97"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D122:D129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E50:E65"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="E66:E81"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="E34:E49"/>
     <mergeCell ref="M2:M257"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D9"/>
@@ -7507,109 +7610,6 @@
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="D26:D33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E50:E65"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="E66:E81"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="E34:E49"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D105"/>
-    <mergeCell ref="E98:E113"/>
-    <mergeCell ref="F66:F97"/>
-    <mergeCell ref="G66:G129"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="E82:E97"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D122:D129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="E130:E145"/>
-    <mergeCell ref="F130:F161"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="F98:F129"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="E114:E129"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="F162:F193"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="D170:D177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="D178:D185"/>
-    <mergeCell ref="G130:G193"/>
-    <mergeCell ref="H130:H257"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D145"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D153"/>
-    <mergeCell ref="E146:E161"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="E178:E193"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="D186:D193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="D194:D201"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="E162:E177"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="D218:D225"/>
-    <mergeCell ref="C222:C225"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D233"/>
-    <mergeCell ref="E226:E241"/>
-    <mergeCell ref="F194:F225"/>
-    <mergeCell ref="G194:G257"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="D202:D209"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="D210:D217"/>
-    <mergeCell ref="E210:E225"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="D250:D257"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="F226:F257"/>
-    <mergeCell ref="C230:C233"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="D234:D241"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D249"/>
-    <mergeCell ref="E242:E257"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="E194:E209"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ipcim.xlsx
+++ b/ipcim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\halozatProjektek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bela\Git\halozatProjektek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024DBA48-3DE7-4EF1-BB7F-B80FD5E4FE21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3524256-BB33-4BE9-B4C4-6830A605D061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{C8323FA4-6CC7-40F6-BE4B-AB2032EB79E9}"/>
+    <workbookView xWindow="-28920" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{C8323FA4-6CC7-40F6-BE4B-AB2032EB79E9}"/>
   </bookViews>
   <sheets>
     <sheet name="IP Cím igény" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="125">
   <si>
     <t>/26</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Broadcast</t>
   </si>
   <si>
-    <t>63-nál befejeződik, utána folytatódik!</t>
-  </si>
-  <si>
     <t>/30</t>
   </si>
   <si>
@@ -392,13 +389,40 @@
   </si>
   <si>
     <t>Kübekháza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alhálózati </t>
+  </si>
+  <si>
+    <t>Összes költség:</t>
+  </si>
+  <si>
+    <t>Egon ösztöndíj</t>
+  </si>
+  <si>
+    <t>Béla ösztöndíj</t>
+  </si>
+  <si>
+    <t>Közösen ösztöndíj</t>
+  </si>
+  <si>
+    <t>2022.11.14</t>
+  </si>
+  <si>
+    <t>396HUF/1USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="[$HUF]\ #,##0"/>
+    <numFmt numFmtId="168" formatCode="#,##0\ \é\v"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0\ \é\v"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,8 +485,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,42 +539,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF548235"/>
+        <fgColor rgb="FFF4B084"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8497B0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -565,11 +585,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -578,10 +635,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -604,22 +663,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -628,10 +737,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFF2CC"/>
-      <color rgb="FF8497B0"/>
-      <color rgb="FF548235"/>
-      <color rgb="FFFFD966"/>
+      <color rgb="FFF4B084"/>
+      <color rgb="FF000000"/>
       <color rgb="FFAEAAAA"/>
       <color rgb="FFFCE4D6"/>
     </mruColors>
@@ -944,18 +1051,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E52708-4D1F-4658-B09E-637D902EB613}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6">
         <v>187</v>
@@ -970,20 +1085,61 @@
         <v>0</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="47">
+        <f>B19+B37+B56</f>
+        <v>24192</v>
+      </c>
+      <c r="J2" s="48">
+        <f>C19+C37+C56</f>
+        <v>9580032</v>
+      </c>
+      <c r="K2" s="49">
+        <f>(J2/25000)/12</f>
+        <v>31.933440000000001</v>
+      </c>
+      <c r="L2" s="49">
+        <f>(J2/59000)/12</f>
+        <v>13.531118644067796</v>
+      </c>
+      <c r="M2" s="50">
+        <f>(J2/(25000+59000)/12)</f>
+        <v>9.5039999999999996</v>
+      </c>
+      <c r="N2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6">
@@ -994,7 +1150,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6">
         <f>LOG(32+2,2)</f>
@@ -1009,9 +1165,9 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="6">
         <v>187</v>
@@ -1027,7 +1183,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="str">
         <f>DEC2BIN(B5,8)</f>
@@ -1047,7 +1203,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1055,7 +1211,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
@@ -1073,7 +1229,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="str">
         <f>DEC2BIN(B8,8)</f>
@@ -1093,7 +1249,7 @@
       </c>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1101,9 +1257,9 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="6">
         <v>255</v>
@@ -1114,12 +1270,12 @@
       <c r="D11" s="6">
         <v>255</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="14">
         <v>192</v>
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="str">
         <f>DEC2BIN(B11,8)</f>
@@ -1139,9 +1295,9 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="6">
         <v>187</v>
@@ -1157,7 +1313,7 @@
       </c>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="str">
         <f>DEC2BIN(B13,8)</f>
@@ -1177,9 +1333,9 @@
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="6">
         <v>187</v>
@@ -1195,7 +1351,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="str">
         <f>DEC2BIN(B15,8)</f>
@@ -1215,9 +1371,9 @@
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="6">
         <v>187</v>
@@ -1233,7 +1389,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="str">
         <f>DEC2BIN(B17,8)</f>
@@ -1253,19 +1409,25 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="B19" s="41">
+        <f>64*54</f>
+        <v>3456</v>
+      </c>
+      <c r="C19" s="42">
+        <f>B19*396</f>
+        <v>1368576</v>
+      </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
@@ -1276,7 +1438,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4">
         <f>LOG(C21+2,2)</f>
@@ -1286,14 +1448,14 @@
         <v>7</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" s="4">
         <v>187</v>
@@ -1308,11 +1470,8 @@
         <v>64</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="str">
         <f>DEC2BIN(B23,8)</f>
@@ -1332,7 +1491,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1340,7 +1499,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>1</v>
       </c>
@@ -1358,7 +1517,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="str">
         <f>DEC2BIN(B26,8)</f>
@@ -1378,7 +1537,7 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1386,9 +1545,9 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="4">
         <v>255</v>
@@ -1404,7 +1563,7 @@
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="str">
         <f>DEC2BIN(B29,8)</f>
@@ -1424,9 +1583,9 @@
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="4">
         <v>187</v>
@@ -1442,7 +1601,7 @@
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="str">
         <f>DEC2BIN(B31,8)</f>
@@ -1464,7 +1623,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B33" s="4">
         <v>187</v>
@@ -1502,7 +1661,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35" s="4">
         <v>187</v>
@@ -1540,10 +1699,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="B37" s="40">
+        <f>128*54</f>
+        <v>6912</v>
+      </c>
+      <c r="C37" s="45">
+        <f>B37*396</f>
+        <v>2737152</v>
+      </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1558,7 +1723,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7">
@@ -1569,7 +1734,7 @@
       <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="7">
         <f>LOG(C40+2,2)</f>
         <v>8.011227255423254</v>
@@ -1578,14 +1743,14 @@
         <v>9</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" s="7">
         <v>192</v>
@@ -1677,7 +1842,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" s="7">
         <v>255</v>
@@ -1715,16 +1880,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B50" s="7">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C50" s="7">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="D50" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E50" s="7">
         <v>1</v>
@@ -1735,15 +1900,15 @@
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="str">
         <f>DEC2BIN(B50,8)</f>
-        <v>10111011</v>
+        <v>11000000</v>
       </c>
       <c r="C51" s="7" t="str">
         <f t="shared" ref="C51" si="17">DEC2BIN(C50,8)</f>
-        <v>00010100</v>
+        <v>10101000</v>
       </c>
       <c r="D51" s="7" t="str">
         <f t="shared" ref="D51" si="18">DEC2BIN(D50,8)</f>
-        <v>00000000</v>
+        <v>00110010</v>
       </c>
       <c r="E51" s="7" t="str">
         <f t="shared" ref="E51" si="19">DEC2BIN(E50,8)</f>
@@ -1753,19 +1918,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B52" s="7">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C52" s="7">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="D52" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E52" s="7">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="F52" s="7"/>
     </row>
@@ -1773,34 +1938,34 @@
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="str">
         <f>DEC2BIN(B52,8)</f>
-        <v>10111011</v>
+        <v>11000000</v>
       </c>
       <c r="C53" s="7" t="str">
         <f t="shared" ref="C53" si="20">DEC2BIN(C52,8)</f>
-        <v>00010100</v>
+        <v>10101000</v>
       </c>
       <c r="D53" s="7" t="str">
         <f t="shared" ref="D53" si="21">DEC2BIN(D52,8)</f>
-        <v>00000000</v>
+        <v>00110010</v>
       </c>
       <c r="E53" s="7" t="str">
         <f t="shared" ref="E53" si="22">DEC2BIN(E52,8)</f>
-        <v>01111110</v>
+        <v>11111110</v>
       </c>
       <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B54" s="7">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C54" s="7">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="D54" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E54" s="7">
         <v>2</v>
@@ -1811,15 +1976,15 @@
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="str">
         <f>DEC2BIN(B54,8)</f>
-        <v>10111011</v>
-      </c>
-      <c r="C55" s="7" t="str">
+        <v>11000000</v>
+      </c>
+      <c r="C55" s="43" t="str">
         <f t="shared" ref="C55" si="23">DEC2BIN(C54,8)</f>
-        <v>00010100</v>
+        <v>10101000</v>
       </c>
       <c r="D55" s="7" t="str">
         <f t="shared" ref="D55" si="24">DEC2BIN(D54,8)</f>
-        <v>00000000</v>
+        <v>00110010</v>
       </c>
       <c r="E55" s="7" t="str">
         <f t="shared" ref="E55" si="25">DEC2BIN(E54,8)</f>
@@ -1829,10 +1994,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="B56" s="39">
+        <f>54*256</f>
+        <v>13824</v>
+      </c>
+      <c r="C56" s="44">
+        <f>B56*396</f>
+        <v>5474304</v>
+      </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
@@ -1847,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE611228-1758-41E4-B155-B304EF4AAA5B}">
   <dimension ref="A1:R257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N255" sqref="N255"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130:A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,6133 +2034,6137 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16" t="s">
-        <v>7</v>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="7">
         <v>0</v>
       </c>
-      <c r="M2" s="14" t="s">
-        <v>31</v>
+      <c r="M2" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" s="7">
         <v>1</v>
       </c>
-      <c r="M3" s="14"/>
+      <c r="M3" s="16"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" s="7">
         <v>2</v>
       </c>
-      <c r="M4" s="14"/>
+      <c r="M4" s="16"/>
       <c r="N4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="4"/>
       <c r="K5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="7">
         <v>3</v>
       </c>
-      <c r="M5" s="14"/>
+      <c r="M5" s="16"/>
       <c r="N5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="4"/>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" s="7">
         <v>4</v>
       </c>
-      <c r="M6" s="14"/>
+      <c r="M6" s="16"/>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7">
         <v>5</v>
       </c>
-      <c r="M7" s="14"/>
+      <c r="M7" s="16"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" s="7">
         <v>6</v>
       </c>
-      <c r="M8" s="14"/>
+      <c r="M8" s="16"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L9" s="7">
         <v>7</v>
       </c>
-      <c r="M9" s="14"/>
+      <c r="M9" s="16"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" s="7">
         <v>8</v>
       </c>
-      <c r="M10" s="14"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L11" s="7">
         <v>9</v>
       </c>
-      <c r="M11" s="14"/>
+      <c r="M11" s="16"/>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L12" s="7">
         <v>10</v>
       </c>
-      <c r="M12" s="14"/>
+      <c r="M12" s="16"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L13" s="7">
         <v>11</v>
       </c>
-      <c r="M13" s="14"/>
+      <c r="M13" s="16"/>
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L14" s="7">
         <v>12</v>
       </c>
-      <c r="M14" s="14"/>
+      <c r="M14" s="16"/>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L15" s="7">
         <v>13</v>
       </c>
-      <c r="M15" s="14"/>
+      <c r="M15" s="16"/>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L16" s="7">
         <v>14</v>
       </c>
-      <c r="M16" s="14"/>
+      <c r="M16" s="16"/>
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L17" s="7">
         <v>15</v>
       </c>
-      <c r="M17" s="14"/>
+      <c r="M17" s="16"/>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L18" s="7">
         <v>16</v>
       </c>
-      <c r="M18" s="14"/>
+      <c r="M18" s="16"/>
       <c r="N18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L19" s="7">
         <v>17</v>
       </c>
-      <c r="M19" s="14"/>
+      <c r="M19" s="16"/>
       <c r="N19" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L20" s="7">
         <v>18</v>
       </c>
-      <c r="M20" s="14"/>
+      <c r="M20" s="16"/>
       <c r="N20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L21" s="7">
         <v>19</v>
       </c>
-      <c r="M21" s="14"/>
+      <c r="M21" s="16"/>
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L22" s="7">
         <v>20</v>
       </c>
-      <c r="M22" s="14"/>
+      <c r="M22" s="16"/>
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L23" s="7">
         <v>21</v>
       </c>
-      <c r="M23" s="14"/>
+      <c r="M23" s="16"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L24" s="7">
         <v>22</v>
       </c>
-      <c r="M24" s="14"/>
+      <c r="M24" s="16"/>
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="7">
         <v>23</v>
       </c>
-      <c r="M25" s="14"/>
+      <c r="M25" s="16"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L26" s="7">
         <v>24</v>
       </c>
-      <c r="M26" s="14"/>
+      <c r="M26" s="16"/>
       <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L27" s="7">
         <v>25</v>
       </c>
-      <c r="M27" s="14"/>
+      <c r="M27" s="16"/>
       <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L28" s="7">
         <v>26</v>
       </c>
-      <c r="M28" s="14"/>
+      <c r="M28" s="16"/>
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L29" s="7">
         <v>27</v>
       </c>
-      <c r="M29" s="14"/>
+      <c r="M29" s="16"/>
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L30" s="7">
         <v>28</v>
       </c>
-      <c r="M30" s="14"/>
+      <c r="M30" s="16"/>
       <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L31" s="7">
         <v>29</v>
       </c>
-      <c r="M31" s="14"/>
+      <c r="M31" s="16"/>
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L32" s="7">
         <v>30</v>
       </c>
-      <c r="M32" s="14"/>
+      <c r="M32" s="16"/>
       <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L33" s="7">
         <v>31</v>
       </c>
-      <c r="M33" s="14"/>
+      <c r="M33" s="16"/>
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L34" s="7">
         <v>32</v>
       </c>
-      <c r="M34" s="14"/>
+      <c r="M34" s="16"/>
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L35" s="7">
         <v>33</v>
       </c>
-      <c r="M35" s="14"/>
+      <c r="M35" s="16"/>
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L36" s="7">
         <v>34</v>
       </c>
-      <c r="M36" s="14"/>
+      <c r="M36" s="16"/>
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" s="3">
         <v>35</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L37" s="7">
         <v>35</v>
       </c>
-      <c r="M37" s="14"/>
+      <c r="M37" s="16"/>
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L38" s="7">
         <v>36</v>
       </c>
-      <c r="M38" s="14"/>
+      <c r="M38" s="16"/>
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" s="3">
         <v>37</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L39" s="7">
         <v>37</v>
       </c>
-      <c r="M39" s="14"/>
+      <c r="M39" s="16"/>
       <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="3">
         <v>38</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L40" s="7">
         <v>38</v>
       </c>
-      <c r="M40" s="14"/>
+      <c r="M40" s="16"/>
       <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" s="3">
         <v>39</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L41" s="7">
         <v>39</v>
       </c>
-      <c r="M41" s="14"/>
+      <c r="M41" s="16"/>
       <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="3">
         <v>40</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="18"/>
       <c r="I42" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L42" s="7">
         <v>40</v>
       </c>
-      <c r="M42" s="14"/>
+      <c r="M42" s="16"/>
       <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="3">
         <v>41</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="18"/>
       <c r="I43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L43" s="7">
         <v>41</v>
       </c>
-      <c r="M43" s="14"/>
+      <c r="M43" s="16"/>
       <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" s="3">
         <v>42</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L44" s="7">
         <v>42</v>
       </c>
-      <c r="M44" s="14"/>
+      <c r="M44" s="16"/>
       <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" s="3">
         <v>43</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="18"/>
       <c r="I45" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L45" s="7">
         <v>43</v>
       </c>
-      <c r="M45" s="14"/>
+      <c r="M45" s="16"/>
       <c r="N45" s="7"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" s="3">
         <v>44</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="18"/>
       <c r="I46" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L46" s="7">
         <v>44</v>
       </c>
-      <c r="M46" s="14"/>
+      <c r="M46" s="16"/>
       <c r="N46" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" s="3">
         <v>45</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="18"/>
       <c r="I47" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L47" s="7">
         <v>45</v>
       </c>
-      <c r="M47" s="14"/>
+      <c r="M47" s="16"/>
       <c r="N47" s="7"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48" s="3">
         <v>46</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="18"/>
       <c r="I48" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L48" s="7">
         <v>46</v>
       </c>
-      <c r="M48" s="14"/>
+      <c r="M48" s="16"/>
       <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49" s="3">
         <v>47</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L49" s="7">
         <v>47</v>
       </c>
-      <c r="M49" s="14"/>
+      <c r="M49" s="16"/>
       <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" s="3">
         <v>48</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L50" s="7">
         <v>48</v>
       </c>
-      <c r="M50" s="14"/>
+      <c r="M50" s="16"/>
       <c r="N50" s="7"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51" s="3">
         <v>49</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L51" s="7">
         <v>49</v>
       </c>
-      <c r="M51" s="14"/>
+      <c r="M51" s="16"/>
       <c r="N51" s="7"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52" s="3">
         <v>50</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L52" s="7">
         <v>50</v>
       </c>
-      <c r="M52" s="14"/>
+      <c r="M52" s="16"/>
       <c r="N52" s="7"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53" s="3">
         <v>51</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L53" s="7">
         <v>51</v>
       </c>
-      <c r="M53" s="14"/>
+      <c r="M53" s="16"/>
       <c r="N53" s="7"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54" s="3">
         <v>52</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="18"/>
       <c r="I54" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L54" s="7">
         <v>52</v>
       </c>
-      <c r="M54" s="14"/>
+      <c r="M54" s="16"/>
       <c r="N54" s="7"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55" s="3">
         <v>53</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="18"/>
       <c r="I55" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L55" s="7">
         <v>53</v>
       </c>
-      <c r="M55" s="14"/>
+      <c r="M55" s="16"/>
       <c r="N55" s="7"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="3">
         <v>54</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="18"/>
       <c r="I56" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L56" s="7">
         <v>54</v>
       </c>
-      <c r="M56" s="14"/>
+      <c r="M56" s="16"/>
       <c r="N56" s="7"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57" s="3">
         <v>55</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="18"/>
       <c r="I57" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L57" s="7">
         <v>55</v>
       </c>
-      <c r="M57" s="14"/>
+      <c r="M57" s="16"/>
       <c r="N57" s="7"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" s="3">
         <v>56</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="18"/>
       <c r="I58" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L58" s="7">
         <v>56</v>
       </c>
-      <c r="M58" s="14"/>
+      <c r="M58" s="16"/>
       <c r="N58" s="7"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59" s="3">
         <v>57</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="18"/>
       <c r="I59" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L59" s="7">
         <v>57</v>
       </c>
-      <c r="M59" s="14"/>
+      <c r="M59" s="16"/>
       <c r="N59" s="7"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60" s="3">
         <v>58</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="18"/>
       <c r="I60" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L60" s="7">
         <v>58</v>
       </c>
-      <c r="M60" s="14"/>
+      <c r="M60" s="16"/>
       <c r="N60" s="7"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61" s="3">
         <v>59</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="16"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="18"/>
       <c r="I61" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L61" s="7">
         <v>59</v>
       </c>
-      <c r="M61" s="14"/>
+      <c r="M61" s="16"/>
       <c r="N61" s="7"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62" s="3">
         <v>60</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="18"/>
       <c r="I62" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L62" s="7">
         <v>60</v>
       </c>
-      <c r="M62" s="14"/>
+      <c r="M62" s="16"/>
       <c r="N62" s="7"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63" s="3">
         <v>61</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="16"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="18"/>
       <c r="I63" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L63" s="7">
         <v>61</v>
       </c>
-      <c r="M63" s="14"/>
+      <c r="M63" s="16"/>
       <c r="N63" s="7"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64" s="3">
         <v>62</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="18"/>
       <c r="I64" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L64" s="7">
         <v>62</v>
       </c>
-      <c r="M64" s="14"/>
+      <c r="M64" s="16"/>
       <c r="N64" s="7"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65" s="3">
         <v>63</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="16"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="18"/>
       <c r="I65" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L65" s="7">
         <v>63</v>
       </c>
-      <c r="M65" s="14"/>
+      <c r="M65" s="16"/>
       <c r="N65" s="7"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66" s="3">
         <v>64</v>
       </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="18"/>
       <c r="I66" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L66" s="7">
         <v>64</v>
       </c>
-      <c r="M66" s="14"/>
+      <c r="M66" s="16"/>
       <c r="N66" s="7"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67" s="3">
         <v>65</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="16"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="18"/>
       <c r="I67" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L67" s="7">
         <v>65</v>
       </c>
-      <c r="M67" s="14"/>
+      <c r="M67" s="16"/>
       <c r="N67" s="7"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68" s="3">
         <v>66</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="16"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="18"/>
       <c r="I68" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L68" s="7">
         <v>66</v>
       </c>
-      <c r="M68" s="14"/>
+      <c r="M68" s="16"/>
       <c r="N68" s="7"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B69" s="3">
         <v>67</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="16"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="18"/>
       <c r="I69" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L69" s="7">
         <v>67</v>
       </c>
-      <c r="M69" s="14"/>
+      <c r="M69" s="16"/>
       <c r="N69" s="7"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70" s="3">
         <v>68</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="16"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="18"/>
       <c r="I70" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L70" s="7">
         <v>68</v>
       </c>
-      <c r="M70" s="14"/>
+      <c r="M70" s="16"/>
       <c r="N70" s="7"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71" s="3">
         <v>69</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="16"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="18"/>
       <c r="I71" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L71" s="7">
         <v>69</v>
       </c>
-      <c r="M71" s="14"/>
+      <c r="M71" s="16"/>
       <c r="N71" s="7"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B72" s="3">
         <v>70</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="18"/>
       <c r="I72" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L72" s="7">
         <v>70</v>
       </c>
-      <c r="M72" s="14"/>
+      <c r="M72" s="16"/>
       <c r="N72" s="7"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B73" s="3">
         <v>71</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="16"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="18"/>
       <c r="I73" s="4"/>
       <c r="K73" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L73" s="7">
         <v>71</v>
       </c>
-      <c r="M73" s="14"/>
+      <c r="M73" s="16"/>
       <c r="N73" s="7"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B74" s="3">
         <v>72</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="16"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="18"/>
       <c r="I74" s="4"/>
       <c r="K74" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L74" s="7">
         <v>72</v>
       </c>
-      <c r="M74" s="14"/>
+      <c r="M74" s="16"/>
       <c r="N74" s="7"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B75" s="3">
         <v>73</v>
       </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="16"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="18"/>
       <c r="I75" s="4"/>
       <c r="K75" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L75" s="7">
         <v>73</v>
       </c>
-      <c r="M75" s="14"/>
+      <c r="M75" s="16"/>
       <c r="N75" s="7"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B76" s="3">
         <v>74</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="16"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="18"/>
       <c r="I76" s="4"/>
       <c r="K76" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L76" s="7">
         <v>74</v>
       </c>
-      <c r="M76" s="14"/>
+      <c r="M76" s="16"/>
       <c r="N76" s="7"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B77" s="3">
         <v>75</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="16"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="18"/>
       <c r="I77" s="4"/>
       <c r="K77" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L77" s="7">
         <v>75</v>
       </c>
-      <c r="M77" s="14"/>
+      <c r="M77" s="16"/>
       <c r="N77" s="7"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B78" s="3">
         <v>76</v>
       </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="16"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="18"/>
       <c r="I78" s="4"/>
       <c r="K78" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L78" s="7">
         <v>76</v>
       </c>
-      <c r="M78" s="14"/>
+      <c r="M78" s="16"/>
       <c r="N78" s="7"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B79" s="3">
         <v>77</v>
       </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="18"/>
       <c r="I79" s="4"/>
       <c r="K79" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L79" s="7">
         <v>77</v>
       </c>
-      <c r="M79" s="14"/>
+      <c r="M79" s="16"/>
       <c r="N79" s="7"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B80" s="3">
         <v>78</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="18"/>
       <c r="I80" s="4"/>
       <c r="K80" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L80" s="7">
         <v>78</v>
       </c>
-      <c r="M80" s="14"/>
+      <c r="M80" s="16"/>
       <c r="N80" s="7"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B81" s="3">
         <v>79</v>
       </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="18"/>
       <c r="I81" s="4"/>
       <c r="K81" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L81" s="7">
         <v>79</v>
       </c>
-      <c r="M81" s="14"/>
+      <c r="M81" s="16"/>
       <c r="N81" s="7"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B82" s="3">
         <v>80</v>
       </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="18"/>
       <c r="I82" s="4"/>
       <c r="K82" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L82" s="7">
         <v>80</v>
       </c>
-      <c r="M82" s="14"/>
+      <c r="M82" s="16"/>
       <c r="N82" s="7"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B83" s="3">
         <v>81</v>
       </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="18"/>
       <c r="I83" s="4"/>
       <c r="K83" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L83" s="7">
         <v>81</v>
       </c>
-      <c r="M83" s="14"/>
+      <c r="M83" s="16"/>
       <c r="N83" s="7"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B84" s="3">
         <v>82</v>
       </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="16"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="18"/>
       <c r="I84" s="4"/>
       <c r="K84" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L84" s="7">
         <v>82</v>
       </c>
-      <c r="M84" s="14"/>
+      <c r="M84" s="16"/>
       <c r="N84" s="7"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B85" s="3">
         <v>83</v>
       </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="16"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="18"/>
       <c r="I85" s="4"/>
       <c r="K85" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L85" s="7">
         <v>83</v>
       </c>
-      <c r="M85" s="14"/>
+      <c r="M85" s="16"/>
       <c r="N85" s="7"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B86" s="3">
         <v>84</v>
       </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="16"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="18"/>
       <c r="I86" s="4"/>
       <c r="K86" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L86" s="7">
         <v>84</v>
       </c>
-      <c r="M86" s="14"/>
+      <c r="M86" s="16"/>
       <c r="N86" s="7"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B87" s="3">
         <v>85</v>
       </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="16"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="18"/>
       <c r="I87" s="4"/>
       <c r="K87" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L87" s="7">
         <v>85</v>
       </c>
-      <c r="M87" s="14"/>
+      <c r="M87" s="16"/>
       <c r="N87" s="7"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B88" s="3">
         <v>86</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="16"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="18"/>
       <c r="I88" s="4"/>
       <c r="K88" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L88" s="7">
         <v>86</v>
       </c>
-      <c r="M88" s="14"/>
+      <c r="M88" s="16"/>
       <c r="N88" s="7"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B89" s="3">
         <v>87</v>
       </c>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="16"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="18"/>
       <c r="I89" s="4"/>
       <c r="K89" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L89" s="7">
         <v>87</v>
       </c>
-      <c r="M89" s="14"/>
+      <c r="M89" s="16"/>
       <c r="N89" s="7"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B90" s="3">
         <v>88</v>
       </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="16"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="18"/>
       <c r="I90" s="4"/>
       <c r="K90" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L90" s="7">
         <v>88</v>
       </c>
-      <c r="M90" s="14"/>
+      <c r="M90" s="16"/>
       <c r="N90" s="7"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B91" s="3">
         <v>89</v>
       </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="16"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="18"/>
       <c r="I91" s="4"/>
       <c r="K91" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L91" s="7">
         <v>89</v>
       </c>
-      <c r="M91" s="14"/>
+      <c r="M91" s="16"/>
       <c r="N91" s="7"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B92" s="3">
         <v>90</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="16"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="18"/>
       <c r="I92" s="4"/>
       <c r="K92" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L92" s="7">
         <v>90</v>
       </c>
-      <c r="M92" s="14"/>
+      <c r="M92" s="16"/>
       <c r="N92" s="7"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B93" s="3">
         <v>91</v>
       </c>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="16"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="18"/>
       <c r="I93" s="4"/>
       <c r="K93" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L93" s="7">
         <v>91</v>
       </c>
-      <c r="M93" s="14"/>
+      <c r="M93" s="16"/>
       <c r="N93" s="7"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B94" s="3">
         <v>92</v>
       </c>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="16"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="18"/>
       <c r="I94" s="4"/>
       <c r="K94" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L94" s="7">
         <v>92</v>
       </c>
-      <c r="M94" s="14"/>
+      <c r="M94" s="16"/>
       <c r="N94" s="7"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B95" s="3">
         <v>93</v>
       </c>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="16"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="18"/>
       <c r="I95" s="4"/>
       <c r="K95" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L95" s="7">
         <v>93</v>
       </c>
-      <c r="M95" s="14"/>
+      <c r="M95" s="16"/>
       <c r="N95" s="7"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B96" s="3">
         <v>94</v>
       </c>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="16"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="18"/>
       <c r="I96" s="4"/>
       <c r="K96" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L96" s="7">
         <v>94</v>
       </c>
-      <c r="M96" s="14"/>
+      <c r="M96" s="16"/>
       <c r="N96" s="7"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B97" s="3">
         <v>95</v>
       </c>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="16"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="18"/>
       <c r="I97" s="4"/>
       <c r="K97" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L97" s="7">
         <v>95</v>
       </c>
-      <c r="M97" s="14"/>
+      <c r="M97" s="16"/>
       <c r="N97" s="7"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B98" s="3">
         <v>96</v>
       </c>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="16"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="18"/>
       <c r="I98" s="4"/>
       <c r="K98" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L98" s="7">
         <v>96</v>
       </c>
-      <c r="M98" s="14"/>
+      <c r="M98" s="16"/>
       <c r="N98" s="7"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B99" s="3">
         <v>97</v>
       </c>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="16"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="18"/>
       <c r="I99" s="4"/>
       <c r="K99" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L99" s="7">
         <v>97</v>
       </c>
-      <c r="M99" s="14"/>
+      <c r="M99" s="16"/>
       <c r="N99" s="7"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B100" s="3">
         <v>98</v>
       </c>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="16"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="18"/>
       <c r="I100" s="4"/>
       <c r="K100" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L100" s="7">
         <v>98</v>
       </c>
-      <c r="M100" s="14"/>
+      <c r="M100" s="16"/>
       <c r="N100" s="7"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B101" s="3">
         <v>99</v>
       </c>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="16"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="18"/>
       <c r="I101" s="4"/>
       <c r="K101" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L101" s="7">
         <v>99</v>
       </c>
-      <c r="M101" s="14"/>
+      <c r="M101" s="16"/>
       <c r="N101" s="7"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B102" s="3">
         <v>100</v>
       </c>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="16"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="18"/>
       <c r="I102" s="4"/>
       <c r="K102" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L102" s="7">
         <v>100</v>
       </c>
-      <c r="M102" s="14"/>
+      <c r="M102" s="16"/>
       <c r="N102" s="7"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B103" s="3">
         <v>101</v>
       </c>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="16"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="18"/>
       <c r="I103" s="4"/>
       <c r="K103" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L103" s="7">
         <v>101</v>
       </c>
-      <c r="M103" s="14"/>
+      <c r="M103" s="16"/>
       <c r="N103" s="7"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B104" s="3">
         <v>102</v>
       </c>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="16"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="18"/>
       <c r="I104" s="4"/>
       <c r="K104" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L104" s="7">
         <v>102</v>
       </c>
-      <c r="M104" s="14"/>
+      <c r="M104" s="16"/>
       <c r="N104" s="7"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B105" s="3">
         <v>103</v>
       </c>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="16"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="18"/>
       <c r="I105" s="4"/>
       <c r="K105" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L105" s="7">
         <v>103</v>
       </c>
-      <c r="M105" s="14"/>
+      <c r="M105" s="16"/>
       <c r="N105" s="7"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B106" s="3">
         <v>104</v>
       </c>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="16"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="18"/>
       <c r="I106" s="4"/>
       <c r="K106" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L106" s="7">
         <v>104</v>
       </c>
-      <c r="M106" s="14"/>
+      <c r="M106" s="16"/>
       <c r="N106" s="7"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B107" s="3">
         <v>105</v>
       </c>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="16"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="18"/>
       <c r="I107" s="4"/>
       <c r="K107" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L107" s="7">
         <v>105</v>
       </c>
-      <c r="M107" s="14"/>
+      <c r="M107" s="16"/>
       <c r="N107" s="7"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B108" s="3">
         <v>106</v>
       </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="16"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="18"/>
       <c r="I108" s="4"/>
       <c r="K108" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L108" s="7">
         <v>106</v>
       </c>
-      <c r="M108" s="14"/>
+      <c r="M108" s="16"/>
       <c r="N108" s="7"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B109" s="3">
         <v>107</v>
       </c>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="16"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="18"/>
       <c r="I109" s="4"/>
       <c r="K109" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L109" s="7">
         <v>107</v>
       </c>
-      <c r="M109" s="14"/>
+      <c r="M109" s="16"/>
       <c r="N109" s="7"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B110" s="3">
         <v>108</v>
       </c>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="16"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="18"/>
       <c r="I110" s="4"/>
       <c r="K110" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L110" s="7">
         <v>108</v>
       </c>
-      <c r="M110" s="14"/>
+      <c r="M110" s="16"/>
       <c r="N110" s="7"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B111" s="3">
         <v>109</v>
       </c>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="16"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="18"/>
       <c r="I111" s="4"/>
       <c r="K111" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L111" s="7">
         <v>109</v>
       </c>
-      <c r="M111" s="14"/>
+      <c r="M111" s="16"/>
       <c r="N111" s="7"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B112" s="3">
         <v>110</v>
       </c>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="16"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="18"/>
       <c r="I112" s="4"/>
       <c r="K112" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L112" s="7">
         <v>110</v>
       </c>
-      <c r="M112" s="14"/>
+      <c r="M112" s="16"/>
       <c r="N112" s="7"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B113" s="3">
         <v>111</v>
       </c>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="16"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="18"/>
       <c r="I113" s="4"/>
       <c r="K113" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L113" s="7">
         <v>111</v>
       </c>
-      <c r="M113" s="14"/>
+      <c r="M113" s="16"/>
       <c r="N113" s="7"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B114" s="3">
         <v>112</v>
       </c>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="16"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="18"/>
       <c r="I114" s="4"/>
       <c r="K114" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L114" s="7">
         <v>112</v>
       </c>
-      <c r="M114" s="14"/>
+      <c r="M114" s="16"/>
       <c r="N114" s="7"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B115" s="3">
         <v>113</v>
       </c>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="16"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="18"/>
       <c r="I115" s="4"/>
       <c r="K115" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L115" s="7">
         <v>113</v>
       </c>
-      <c r="M115" s="14"/>
+      <c r="M115" s="16"/>
       <c r="N115" s="7"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B116" s="3">
         <v>114</v>
       </c>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="16"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="18"/>
       <c r="I116" s="4"/>
       <c r="K116" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L116" s="7">
         <v>114</v>
       </c>
-      <c r="M116" s="14"/>
+      <c r="M116" s="16"/>
       <c r="N116" s="7"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B117" s="3">
         <v>115</v>
       </c>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="16"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="18"/>
       <c r="I117" s="4"/>
       <c r="K117" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L117" s="7">
         <v>115</v>
       </c>
-      <c r="M117" s="14"/>
+      <c r="M117" s="16"/>
       <c r="N117" s="7"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B118" s="3">
         <v>116</v>
       </c>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="16"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="18"/>
       <c r="I118" s="4"/>
       <c r="K118" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L118" s="7">
         <v>116</v>
       </c>
-      <c r="M118" s="14"/>
+      <c r="M118" s="16"/>
       <c r="N118" s="7"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B119" s="3">
         <v>117</v>
       </c>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="16"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="18"/>
       <c r="I119" s="4"/>
       <c r="K119" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L119" s="7">
         <v>117</v>
       </c>
-      <c r="M119" s="14"/>
+      <c r="M119" s="16"/>
       <c r="N119" s="7"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B120" s="3">
         <v>118</v>
       </c>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="16"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="18"/>
       <c r="I120" s="4"/>
       <c r="K120" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L120" s="7">
         <v>118</v>
       </c>
-      <c r="M120" s="14"/>
+      <c r="M120" s="16"/>
       <c r="N120" s="7"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B121" s="3">
         <v>119</v>
       </c>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="16"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="18"/>
       <c r="I121" s="4"/>
       <c r="K121" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L121" s="7">
         <v>119</v>
       </c>
-      <c r="M121" s="14"/>
+      <c r="M121" s="16"/>
       <c r="N121" s="7"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B122" s="3">
         <v>120</v>
       </c>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="16"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="18"/>
       <c r="I122" s="4"/>
       <c r="K122" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L122" s="7">
         <v>120</v>
       </c>
-      <c r="M122" s="14"/>
+      <c r="M122" s="16"/>
       <c r="N122" s="7"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B123" s="3">
         <v>121</v>
       </c>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="16"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="18"/>
       <c r="I123" s="4"/>
       <c r="K123" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L123" s="7">
         <v>121</v>
       </c>
-      <c r="M123" s="14"/>
+      <c r="M123" s="16"/>
       <c r="N123" s="7"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B124" s="3">
         <v>122</v>
       </c>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="16"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="18"/>
       <c r="I124" s="4"/>
       <c r="K124" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L124" s="7">
         <v>122</v>
       </c>
-      <c r="M124" s="14"/>
+      <c r="M124" s="16"/>
       <c r="N124" s="7"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B125" s="3">
         <v>123</v>
       </c>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="16"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="18"/>
       <c r="I125" s="4"/>
       <c r="K125" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L125" s="7">
         <v>123</v>
       </c>
-      <c r="M125" s="14"/>
+      <c r="M125" s="16"/>
       <c r="N125" s="7"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B126" s="3">
         <v>124</v>
       </c>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="16"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="18"/>
       <c r="I126" s="4"/>
       <c r="K126" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L126" s="7">
         <v>124</v>
       </c>
-      <c r="M126" s="14"/>
+      <c r="M126" s="16"/>
       <c r="N126" s="7"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B127" s="3">
         <v>125</v>
       </c>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="16"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="18"/>
       <c r="I127" s="4"/>
       <c r="K127" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L127" s="7">
         <v>125</v>
       </c>
-      <c r="M127" s="14"/>
+      <c r="M127" s="16"/>
       <c r="N127" s="7"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B128" s="3">
         <v>126</v>
       </c>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="16"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="18"/>
       <c r="I128" s="4"/>
       <c r="K128" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L128" s="7">
         <v>126</v>
       </c>
-      <c r="M128" s="14"/>
+      <c r="M128" s="16"/>
       <c r="N128" s="7"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B129" s="3">
         <v>127</v>
       </c>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="16"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="18"/>
       <c r="I129" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L129" s="7">
         <v>127</v>
       </c>
-      <c r="M129" s="14"/>
+      <c r="M129" s="16"/>
       <c r="N129" s="7"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B130" s="5">
         <v>128</v>
       </c>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H130" s="15"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H130" s="17"/>
       <c r="I130" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L130" s="7">
         <v>128</v>
       </c>
-      <c r="M130" s="14"/>
+      <c r="M130" s="16"/>
       <c r="N130" s="7"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B131" s="5">
         <v>129</v>
       </c>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="17"/>
-      <c r="H131" s="15"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="17"/>
       <c r="I131" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L131" s="7">
         <v>129</v>
       </c>
-      <c r="M131" s="14"/>
+      <c r="M131" s="16"/>
       <c r="N131" s="7"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B132" s="5">
         <v>130</v>
       </c>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="17"/>
-      <c r="H132" s="15"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="17"/>
       <c r="I132" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K132" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L132" s="7">
         <v>130</v>
       </c>
-      <c r="M132" s="14"/>
+      <c r="M132" s="16"/>
       <c r="N132" s="7"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B133" s="5">
         <v>131</v>
       </c>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="17"/>
-      <c r="H133" s="15"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="17"/>
       <c r="I133" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K133" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L133" s="7">
         <v>131</v>
       </c>
-      <c r="M133" s="14"/>
+      <c r="M133" s="16"/>
       <c r="N133" s="7"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B134" s="5">
         <v>132</v>
       </c>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="17"/>
-      <c r="H134" s="15"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="17"/>
       <c r="I134" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K134" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L134" s="7">
         <v>132</v>
       </c>
-      <c r="M134" s="14"/>
+      <c r="M134" s="16"/>
       <c r="N134" s="7"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B135" s="5">
         <v>133</v>
       </c>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="17"/>
-      <c r="H135" s="15"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="17"/>
       <c r="I135" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K135" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L135" s="7">
         <v>133</v>
       </c>
-      <c r="M135" s="14"/>
+      <c r="M135" s="16"/>
       <c r="N135" s="7"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B136" s="5">
         <v>134</v>
       </c>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="17"/>
-      <c r="H136" s="15"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="17"/>
       <c r="I136" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K136" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L136" s="7">
         <v>134</v>
       </c>
-      <c r="M136" s="14"/>
+      <c r="M136" s="16"/>
       <c r="N136" s="7"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B137" s="5">
         <v>135</v>
       </c>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="17"/>
-      <c r="H137" s="15"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="17"/>
       <c r="I137" s="6"/>
       <c r="K137" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L137" s="7">
         <v>135</v>
       </c>
-      <c r="M137" s="14"/>
+      <c r="M137" s="16"/>
       <c r="N137" s="7"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B138" s="5">
         <v>136</v>
       </c>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="15"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="17"/>
       <c r="I138" s="6"/>
       <c r="K138" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L138" s="7">
         <v>136</v>
       </c>
-      <c r="M138" s="14"/>
+      <c r="M138" s="16"/>
       <c r="N138" s="7"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B139" s="5">
         <v>137</v>
       </c>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="17"/>
-      <c r="H139" s="15"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="17"/>
       <c r="I139" s="6"/>
       <c r="K139" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L139" s="7">
         <v>137</v>
       </c>
-      <c r="M139" s="14"/>
+      <c r="M139" s="16"/>
       <c r="N139" s="7"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B140" s="5">
         <v>138</v>
       </c>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="17"/>
-      <c r="H140" s="15"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="17"/>
       <c r="I140" s="6"/>
       <c r="K140" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L140" s="7">
         <v>138</v>
       </c>
-      <c r="M140" s="14"/>
+      <c r="M140" s="16"/>
       <c r="N140" s="7"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B141" s="5">
         <v>139</v>
       </c>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="17"/>
-      <c r="H141" s="15"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="17"/>
       <c r="I141" s="6"/>
       <c r="K141" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L141" s="7">
         <v>139</v>
       </c>
-      <c r="M141" s="14"/>
+      <c r="M141" s="16"/>
       <c r="N141" s="7"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B142" s="5">
         <v>140</v>
       </c>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="17"/>
-      <c r="H142" s="15"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="17"/>
       <c r="I142" s="6"/>
       <c r="K142" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L142" s="7">
         <v>140</v>
       </c>
-      <c r="M142" s="14"/>
+      <c r="M142" s="16"/>
       <c r="N142" s="7"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B143" s="5">
         <v>141</v>
       </c>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="15"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="15"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="17"/>
       <c r="I143" s="6"/>
       <c r="K143" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L143" s="7">
         <v>141</v>
       </c>
-      <c r="M143" s="14"/>
+      <c r="M143" s="16"/>
       <c r="N143" s="7"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B144" s="5">
         <v>142</v>
       </c>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="17"/>
-      <c r="H144" s="15"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="17"/>
       <c r="I144" s="6"/>
       <c r="K144" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L144" s="7">
         <v>142</v>
       </c>
-      <c r="M144" s="14"/>
+      <c r="M144" s="16"/>
       <c r="N144" s="7"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B145" s="5">
         <v>143</v>
       </c>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="17"/>
-      <c r="H145" s="15"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="17"/>
       <c r="I145" s="6"/>
       <c r="K145" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L145" s="7">
         <v>143</v>
       </c>
-      <c r="M145" s="14"/>
+      <c r="M145" s="16"/>
       <c r="N145" s="7"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B146" s="5">
         <v>144</v>
       </c>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="17"/>
-      <c r="H146" s="15"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="17"/>
       <c r="I146" s="6"/>
       <c r="K146" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L146" s="7">
         <v>144</v>
       </c>
-      <c r="M146" s="14"/>
+      <c r="M146" s="16"/>
       <c r="N146" s="7"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B147" s="5">
         <v>145</v>
       </c>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="17"/>
-      <c r="H147" s="15"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="17"/>
       <c r="I147" s="6"/>
       <c r="K147" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L147" s="7">
         <v>145</v>
       </c>
-      <c r="M147" s="14"/>
+      <c r="M147" s="16"/>
       <c r="N147" s="7"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B148" s="5">
         <v>146</v>
       </c>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="17"/>
-      <c r="H148" s="15"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="17"/>
       <c r="I148" s="6"/>
       <c r="K148" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L148" s="7">
         <v>146</v>
       </c>
-      <c r="M148" s="14"/>
+      <c r="M148" s="16"/>
       <c r="N148" s="7"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B149" s="5">
         <v>147</v>
       </c>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="17"/>
-      <c r="H149" s="15"/>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="17"/>
       <c r="I149" s="6"/>
       <c r="K149" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L149" s="7">
         <v>147</v>
       </c>
-      <c r="M149" s="14"/>
+      <c r="M149" s="16"/>
       <c r="N149" s="7"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B150" s="5">
         <v>148</v>
       </c>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="17"/>
-      <c r="H150" s="15"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="17"/>
       <c r="I150" s="6"/>
       <c r="K150" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L150" s="7">
         <v>148</v>
       </c>
-      <c r="M150" s="14"/>
+      <c r="M150" s="16"/>
       <c r="N150" s="7"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B151" s="5">
         <v>149</v>
       </c>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="15"/>
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="17"/>
       <c r="I151" s="6"/>
       <c r="K151" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L151" s="7">
         <v>149</v>
       </c>
-      <c r="M151" s="14"/>
+      <c r="M151" s="16"/>
       <c r="N151" s="7"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B152" s="5">
         <v>150</v>
       </c>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="17"/>
-      <c r="H152" s="15"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="17"/>
       <c r="I152" s="6"/>
       <c r="K152" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L152" s="7">
         <v>150</v>
       </c>
-      <c r="M152" s="14"/>
+      <c r="M152" s="16"/>
       <c r="N152" s="7"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B153" s="5">
         <v>151</v>
       </c>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="17"/>
-      <c r="H153" s="15"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="17"/>
       <c r="I153" s="6"/>
       <c r="K153" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L153" s="7">
         <v>151</v>
       </c>
-      <c r="M153" s="14"/>
+      <c r="M153" s="16"/>
       <c r="N153" s="7"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B154" s="5">
         <v>152</v>
       </c>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="17"/>
-      <c r="H154" s="15"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="17"/>
       <c r="I154" s="6"/>
       <c r="K154" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L154" s="7">
         <v>152</v>
       </c>
-      <c r="M154" s="14"/>
+      <c r="M154" s="16"/>
       <c r="N154" s="7"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B155" s="5">
         <v>153</v>
       </c>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="17"/>
-      <c r="H155" s="15"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="17"/>
       <c r="I155" s="6"/>
       <c r="K155" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L155" s="7">
         <v>153</v>
       </c>
-      <c r="M155" s="14"/>
+      <c r="M155" s="16"/>
       <c r="N155" s="7"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B156" s="5">
         <v>154</v>
       </c>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="17"/>
-      <c r="H156" s="15"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="17"/>
       <c r="I156" s="6"/>
       <c r="K156" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L156" s="7">
         <v>154</v>
       </c>
-      <c r="M156" s="14"/>
+      <c r="M156" s="16"/>
       <c r="N156" s="7"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B157" s="5">
         <v>155</v>
       </c>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="17"/>
-      <c r="H157" s="15"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="17"/>
       <c r="I157" s="6"/>
       <c r="K157" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L157" s="7">
         <v>155</v>
       </c>
-      <c r="M157" s="14"/>
+      <c r="M157" s="16"/>
       <c r="N157" s="7"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B158" s="5">
         <v>156</v>
       </c>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="17"/>
-      <c r="H158" s="15"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="17"/>
       <c r="I158" s="6"/>
       <c r="K158" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L158" s="7">
         <v>156</v>
       </c>
-      <c r="M158" s="14"/>
+      <c r="M158" s="16"/>
       <c r="N158" s="7"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B159" s="5">
         <v>157</v>
       </c>
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="17"/>
-      <c r="H159" s="15"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="17"/>
       <c r="I159" s="6"/>
       <c r="K159" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L159" s="7">
         <v>157</v>
       </c>
-      <c r="M159" s="14"/>
+      <c r="M159" s="16"/>
       <c r="N159" s="7"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B160" s="5">
         <v>158</v>
       </c>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="17"/>
-      <c r="H160" s="15"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="17"/>
       <c r="I160" s="6"/>
       <c r="K160" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L160" s="7">
         <v>158</v>
       </c>
-      <c r="M160" s="14"/>
+      <c r="M160" s="16"/>
       <c r="N160" s="7"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B161" s="5">
         <v>159</v>
       </c>
-      <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="15"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="17"/>
-      <c r="H161" s="15"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="17"/>
       <c r="I161" s="6"/>
       <c r="K161" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L161" s="7">
         <v>159</v>
       </c>
-      <c r="M161" s="14"/>
+      <c r="M161" s="16"/>
       <c r="N161" s="7"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B162" s="5">
         <v>160</v>
       </c>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="15"/>
-      <c r="F162" s="15"/>
-      <c r="G162" s="17"/>
-      <c r="H162" s="15"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="17"/>
       <c r="I162" s="6"/>
       <c r="K162" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L162" s="7">
         <v>160</v>
       </c>
-      <c r="M162" s="14"/>
+      <c r="M162" s="16"/>
       <c r="N162" s="7"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B163" s="5">
         <v>161</v>
       </c>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="15"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="15"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="17"/>
       <c r="I163" s="6"/>
       <c r="K163" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L163" s="7">
         <v>161</v>
       </c>
-      <c r="M163" s="14"/>
+      <c r="M163" s="16"/>
       <c r="N163" s="7"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B164" s="5">
         <v>162</v>
       </c>
-      <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="15"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="15"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="17"/>
       <c r="I164" s="6"/>
       <c r="K164" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L164" s="7">
         <v>162</v>
       </c>
-      <c r="M164" s="14"/>
+      <c r="M164" s="16"/>
       <c r="N164" s="7"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B165" s="5">
         <v>163</v>
       </c>
-      <c r="C165" s="15"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="15"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="17"/>
-      <c r="H165" s="15"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="17"/>
       <c r="I165" s="6"/>
       <c r="K165" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L165" s="7">
         <v>163</v>
       </c>
-      <c r="M165" s="14"/>
+      <c r="M165" s="16"/>
       <c r="N165" s="7"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B166" s="5">
         <v>164</v>
       </c>
-      <c r="C166" s="15"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="15"/>
-      <c r="F166" s="15"/>
-      <c r="G166" s="17"/>
-      <c r="H166" s="15"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="17"/>
       <c r="I166" s="6"/>
       <c r="K166" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L166" s="7">
         <v>164</v>
       </c>
-      <c r="M166" s="14"/>
+      <c r="M166" s="16"/>
       <c r="N166" s="7"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B167" s="5">
         <v>165</v>
       </c>
-      <c r="C167" s="15"/>
-      <c r="D167" s="15"/>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="17"/>
-      <c r="H167" s="15"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="17"/>
       <c r="I167" s="6"/>
       <c r="K167" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L167" s="7">
         <v>165</v>
       </c>
-      <c r="M167" s="14"/>
+      <c r="M167" s="16"/>
       <c r="N167" s="7"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B168" s="5">
         <v>166</v>
       </c>
-      <c r="C168" s="15"/>
-      <c r="D168" s="15"/>
-      <c r="E168" s="15"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="17"/>
-      <c r="H168" s="15"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="17"/>
       <c r="I168" s="6"/>
       <c r="K168" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L168" s="7">
         <v>166</v>
       </c>
-      <c r="M168" s="14"/>
+      <c r="M168" s="16"/>
       <c r="N168" s="7"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B169" s="5">
         <v>167</v>
       </c>
-      <c r="C169" s="15"/>
-      <c r="D169" s="15"/>
-      <c r="E169" s="15"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="17"/>
-      <c r="H169" s="15"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="17"/>
+      <c r="E169" s="17"/>
+      <c r="F169" s="17"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="17"/>
       <c r="I169" s="6"/>
       <c r="K169" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L169" s="7">
         <v>167</v>
       </c>
-      <c r="M169" s="14"/>
+      <c r="M169" s="16"/>
       <c r="N169" s="7"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B170" s="5">
         <v>168</v>
       </c>
-      <c r="C170" s="15"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="15"/>
-      <c r="F170" s="15"/>
-      <c r="G170" s="17"/>
-      <c r="H170" s="15"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="17"/>
       <c r="I170" s="6"/>
       <c r="K170" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L170" s="7">
         <v>168</v>
       </c>
-      <c r="M170" s="14"/>
+      <c r="M170" s="16"/>
       <c r="N170" s="7"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B171" s="5">
         <v>169</v>
       </c>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="15"/>
-      <c r="F171" s="15"/>
-      <c r="G171" s="17"/>
-      <c r="H171" s="15"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="17"/>
       <c r="I171" s="6"/>
       <c r="K171" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L171" s="7">
         <v>169</v>
       </c>
-      <c r="M171" s="14"/>
+      <c r="M171" s="16"/>
       <c r="N171" s="7"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B172" s="5">
         <v>170</v>
       </c>
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="15"/>
-      <c r="G172" s="17"/>
-      <c r="H172" s="15"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="17"/>
       <c r="I172" s="6"/>
       <c r="K172" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L172" s="7">
         <v>170</v>
       </c>
-      <c r="M172" s="14"/>
+      <c r="M172" s="16"/>
       <c r="N172" s="7"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B173" s="5">
         <v>171</v>
       </c>
-      <c r="C173" s="15"/>
-      <c r="D173" s="15"/>
-      <c r="E173" s="15"/>
-      <c r="F173" s="15"/>
-      <c r="G173" s="17"/>
-      <c r="H173" s="15"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="17"/>
       <c r="I173" s="6"/>
       <c r="K173" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L173" s="7">
         <v>171</v>
       </c>
-      <c r="M173" s="14"/>
+      <c r="M173" s="16"/>
       <c r="N173" s="7"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B174" s="5">
         <v>172</v>
       </c>
-      <c r="C174" s="15"/>
-      <c r="D174" s="15"/>
-      <c r="E174" s="15"/>
-      <c r="F174" s="15"/>
-      <c r="G174" s="17"/>
-      <c r="H174" s="15"/>
+      <c r="C174" s="17"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="17"/>
       <c r="I174" s="6"/>
       <c r="K174" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L174" s="7">
         <v>172</v>
       </c>
-      <c r="M174" s="14"/>
+      <c r="M174" s="16"/>
       <c r="N174" s="7"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B175" s="5">
         <v>173</v>
       </c>
-      <c r="C175" s="15"/>
-      <c r="D175" s="15"/>
-      <c r="E175" s="15"/>
-      <c r="F175" s="15"/>
-      <c r="G175" s="17"/>
-      <c r="H175" s="15"/>
+      <c r="C175" s="17"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="17"/>
       <c r="I175" s="6"/>
       <c r="K175" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L175" s="7">
         <v>173</v>
       </c>
-      <c r="M175" s="14"/>
+      <c r="M175" s="16"/>
       <c r="N175" s="7"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B176" s="5">
         <v>174</v>
       </c>
-      <c r="C176" s="15"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="15"/>
-      <c r="F176" s="15"/>
-      <c r="G176" s="17"/>
-      <c r="H176" s="15"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="17"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="17"/>
       <c r="I176" s="6"/>
       <c r="K176" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L176" s="7">
         <v>174</v>
       </c>
-      <c r="M176" s="14"/>
+      <c r="M176" s="16"/>
       <c r="N176" s="7"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B177" s="5">
         <v>175</v>
       </c>
-      <c r="C177" s="15"/>
-      <c r="D177" s="15"/>
-      <c r="E177" s="15"/>
-      <c r="F177" s="15"/>
-      <c r="G177" s="17"/>
-      <c r="H177" s="15"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="17"/>
       <c r="I177" s="6"/>
       <c r="K177" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L177" s="7">
         <v>175</v>
       </c>
-      <c r="M177" s="14"/>
+      <c r="M177" s="16"/>
       <c r="N177" s="7"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B178" s="5">
         <v>176</v>
       </c>
-      <c r="C178" s="15"/>
-      <c r="D178" s="15"/>
-      <c r="E178" s="15"/>
-      <c r="F178" s="15"/>
-      <c r="G178" s="17"/>
-      <c r="H178" s="15"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="17"/>
       <c r="I178" s="6"/>
       <c r="K178" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L178" s="7">
         <v>176</v>
       </c>
-      <c r="M178" s="14"/>
+      <c r="M178" s="16"/>
       <c r="N178" s="7"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B179" s="5">
         <v>177</v>
       </c>
-      <c r="C179" s="15"/>
-      <c r="D179" s="15"/>
-      <c r="E179" s="15"/>
-      <c r="F179" s="15"/>
-      <c r="G179" s="17"/>
-      <c r="H179" s="15"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="17"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="17"/>
       <c r="I179" s="6"/>
       <c r="K179" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L179" s="7">
         <v>177</v>
       </c>
-      <c r="M179" s="14"/>
+      <c r="M179" s="16"/>
       <c r="N179" s="7"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B180" s="5">
         <v>178</v>
       </c>
-      <c r="C180" s="15"/>
-      <c r="D180" s="15"/>
-      <c r="E180" s="15"/>
-      <c r="F180" s="15"/>
-      <c r="G180" s="17"/>
-      <c r="H180" s="15"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="17"/>
       <c r="I180" s="6"/>
       <c r="K180" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L180" s="7">
         <v>178</v>
       </c>
-      <c r="M180" s="14"/>
+      <c r="M180" s="16"/>
       <c r="N180" s="7"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B181" s="5">
         <v>179</v>
       </c>
-      <c r="C181" s="15"/>
-      <c r="D181" s="15"/>
-      <c r="E181" s="15"/>
-      <c r="F181" s="15"/>
-      <c r="G181" s="17"/>
-      <c r="H181" s="15"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="17"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="17"/>
       <c r="I181" s="6"/>
       <c r="K181" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L181" s="7">
         <v>179</v>
       </c>
-      <c r="M181" s="14"/>
+      <c r="M181" s="16"/>
       <c r="N181" s="7"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B182" s="5">
         <v>180</v>
       </c>
-      <c r="C182" s="15"/>
-      <c r="D182" s="15"/>
-      <c r="E182" s="15"/>
-      <c r="F182" s="15"/>
-      <c r="G182" s="17"/>
-      <c r="H182" s="15"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="17"/>
       <c r="I182" s="6"/>
       <c r="K182" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L182" s="7">
         <v>180</v>
       </c>
-      <c r="M182" s="14"/>
+      <c r="M182" s="16"/>
       <c r="N182" s="7"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B183" s="5">
         <v>181</v>
       </c>
-      <c r="C183" s="15"/>
-      <c r="D183" s="15"/>
-      <c r="E183" s="15"/>
-      <c r="F183" s="15"/>
-      <c r="G183" s="17"/>
-      <c r="H183" s="15"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="17"/>
       <c r="I183" s="6"/>
       <c r="K183" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L183" s="7">
         <v>181</v>
       </c>
-      <c r="M183" s="14"/>
+      <c r="M183" s="16"/>
       <c r="N183" s="7"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B184" s="5">
         <v>182</v>
       </c>
-      <c r="C184" s="15"/>
-      <c r="D184" s="15"/>
-      <c r="E184" s="15"/>
-      <c r="F184" s="15"/>
-      <c r="G184" s="17"/>
-      <c r="H184" s="15"/>
+      <c r="C184" s="17"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="17"/>
+      <c r="F184" s="17"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="17"/>
       <c r="I184" s="6"/>
       <c r="K184" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L184" s="7">
         <v>182</v>
       </c>
-      <c r="M184" s="14"/>
+      <c r="M184" s="16"/>
       <c r="N184" s="7"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B185" s="5">
         <v>183</v>
       </c>
-      <c r="C185" s="15"/>
-      <c r="D185" s="15"/>
-      <c r="E185" s="15"/>
-      <c r="F185" s="15"/>
-      <c r="G185" s="17"/>
-      <c r="H185" s="15"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="17"/>
+      <c r="F185" s="17"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="17"/>
       <c r="I185" s="6"/>
       <c r="K185" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L185" s="7">
         <v>183</v>
       </c>
-      <c r="M185" s="14"/>
+      <c r="M185" s="16"/>
       <c r="N185" s="7"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B186" s="5">
         <v>184</v>
       </c>
-      <c r="C186" s="15"/>
-      <c r="D186" s="15"/>
-      <c r="E186" s="15"/>
-      <c r="F186" s="15"/>
-      <c r="G186" s="17"/>
-      <c r="H186" s="15"/>
+      <c r="C186" s="17"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="17"/>
+      <c r="F186" s="17"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="17"/>
       <c r="I186" s="6"/>
       <c r="K186" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L186" s="7">
         <v>184</v>
       </c>
-      <c r="M186" s="14"/>
+      <c r="M186" s="16"/>
       <c r="N186" s="7"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B187" s="5">
         <v>185</v>
       </c>
-      <c r="C187" s="15"/>
-      <c r="D187" s="15"/>
-      <c r="E187" s="15"/>
-      <c r="F187" s="15"/>
-      <c r="G187" s="17"/>
-      <c r="H187" s="15"/>
+      <c r="C187" s="17"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="17"/>
+      <c r="F187" s="17"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="17"/>
       <c r="I187" s="6"/>
       <c r="K187" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L187" s="7">
         <v>185</v>
       </c>
-      <c r="M187" s="14"/>
+      <c r="M187" s="16"/>
       <c r="N187" s="7"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B188" s="5">
         <v>186</v>
       </c>
-      <c r="C188" s="15"/>
-      <c r="D188" s="15"/>
-      <c r="E188" s="15"/>
-      <c r="F188" s="15"/>
-      <c r="G188" s="17"/>
-      <c r="H188" s="15"/>
+      <c r="C188" s="17"/>
+      <c r="D188" s="17"/>
+      <c r="E188" s="17"/>
+      <c r="F188" s="17"/>
+      <c r="G188" s="19"/>
+      <c r="H188" s="17"/>
       <c r="I188" s="6"/>
       <c r="K188" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L188" s="7">
         <v>186</v>
       </c>
-      <c r="M188" s="14"/>
+      <c r="M188" s="16"/>
       <c r="N188" s="7"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B189" s="5">
         <v>187</v>
       </c>
-      <c r="C189" s="15"/>
-      <c r="D189" s="15"/>
-      <c r="E189" s="15"/>
-      <c r="F189" s="15"/>
-      <c r="G189" s="17"/>
-      <c r="H189" s="15"/>
+      <c r="C189" s="17"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="17"/>
+      <c r="F189" s="17"/>
+      <c r="G189" s="19"/>
+      <c r="H189" s="17"/>
       <c r="I189" s="6"/>
       <c r="K189" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L189" s="7">
         <v>187</v>
       </c>
-      <c r="M189" s="14"/>
+      <c r="M189" s="16"/>
       <c r="N189" s="7"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B190" s="5">
         <v>188</v>
       </c>
-      <c r="C190" s="15"/>
-      <c r="D190" s="15"/>
-      <c r="E190" s="15"/>
-      <c r="F190" s="15"/>
-      <c r="G190" s="17"/>
-      <c r="H190" s="15"/>
+      <c r="C190" s="17"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="17"/>
+      <c r="F190" s="17"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="17"/>
       <c r="I190" s="6"/>
       <c r="K190" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L190" s="7">
         <v>188</v>
       </c>
-      <c r="M190" s="14"/>
+      <c r="M190" s="16"/>
       <c r="N190" s="7"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B191" s="5">
         <v>189</v>
       </c>
-      <c r="C191" s="15"/>
-      <c r="D191" s="15"/>
-      <c r="E191" s="15"/>
-      <c r="F191" s="15"/>
-      <c r="G191" s="17"/>
-      <c r="H191" s="15"/>
+      <c r="C191" s="17"/>
+      <c r="D191" s="17"/>
+      <c r="E191" s="17"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="17"/>
       <c r="I191" s="6"/>
       <c r="K191" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L191" s="7">
         <v>189</v>
       </c>
-      <c r="M191" s="14"/>
+      <c r="M191" s="16"/>
       <c r="N191" s="7"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B192" s="5">
         <v>190</v>
       </c>
-      <c r="C192" s="15"/>
-      <c r="D192" s="15"/>
-      <c r="E192" s="15"/>
-      <c r="F192" s="15"/>
-      <c r="G192" s="17"/>
-      <c r="H192" s="15"/>
+      <c r="C192" s="17"/>
+      <c r="D192" s="17"/>
+      <c r="E192" s="17"/>
+      <c r="F192" s="17"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="17"/>
       <c r="I192" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K192" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L192" s="7">
         <v>190</v>
       </c>
-      <c r="M192" s="14"/>
+      <c r="M192" s="16"/>
       <c r="N192" s="7"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B193" s="5">
         <v>191</v>
       </c>
-      <c r="C193" s="15"/>
-      <c r="D193" s="15"/>
-      <c r="E193" s="15"/>
-      <c r="F193" s="15"/>
-      <c r="G193" s="17"/>
-      <c r="H193" s="15"/>
+      <c r="C193" s="17"/>
+      <c r="D193" s="17"/>
+      <c r="E193" s="17"/>
+      <c r="F193" s="17"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="17"/>
       <c r="I193" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K193" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L193" s="7">
         <v>191</v>
       </c>
-      <c r="M193" s="14"/>
+      <c r="M193" s="16"/>
       <c r="N193" s="7"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A194" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B194" s="23">
+    <row r="194" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194" s="8">
         <v>192</v>
       </c>
-      <c r="C194" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D194" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E194" s="15"/>
-      <c r="F194" s="20"/>
-      <c r="G194" s="15"/>
-      <c r="H194" s="15"/>
-      <c r="I194" s="8" t="s">
-        <v>19</v>
+      <c r="C194" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D194" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="17"/>
+      <c r="F194" s="22"/>
+      <c r="G194" s="17"/>
+      <c r="H194" s="17"/>
+      <c r="I194" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="K194" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L194" s="7">
         <v>192</v>
       </c>
-      <c r="M194" s="14"/>
+      <c r="M194" s="16"/>
       <c r="N194" s="7"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A195" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B195" s="23">
+      <c r="A195" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B195" s="8">
         <v>193</v>
       </c>
-      <c r="C195" s="22"/>
-      <c r="D195" s="18"/>
-      <c r="E195" s="15"/>
-      <c r="F195" s="20"/>
-      <c r="G195" s="15"/>
-      <c r="H195" s="15"/>
-      <c r="I195" s="8" t="s">
-        <v>37</v>
+      <c r="C195" s="25"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="17"/>
+      <c r="F195" s="22"/>
+      <c r="G195" s="17"/>
+      <c r="H195" s="17"/>
+      <c r="I195" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K195" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L195" s="7">
         <v>193</v>
       </c>
-      <c r="M195" s="14"/>
+      <c r="M195" s="16"/>
       <c r="N195" s="7"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A196" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B196" s="23">
+      <c r="A196" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196" s="8">
         <v>194</v>
       </c>
-      <c r="C196" s="22"/>
-      <c r="D196" s="18"/>
-      <c r="E196" s="15"/>
-      <c r="F196" s="20"/>
-      <c r="G196" s="15"/>
-      <c r="H196" s="15"/>
-      <c r="I196" s="8" t="s">
-        <v>42</v>
+      <c r="C196" s="25"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="17"/>
+      <c r="F196" s="22"/>
+      <c r="G196" s="17"/>
+      <c r="H196" s="17"/>
+      <c r="I196" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="K196" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L196" s="7">
         <v>194</v>
       </c>
-      <c r="M196" s="14"/>
+      <c r="M196" s="16"/>
       <c r="N196" s="7"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A197" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B197" s="23">
+      <c r="A197" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" s="8">
         <v>195</v>
       </c>
-      <c r="C197" s="22"/>
-      <c r="D197" s="18"/>
-      <c r="E197" s="15"/>
-      <c r="F197" s="20"/>
-      <c r="G197" s="15"/>
-      <c r="H197" s="15"/>
-      <c r="I197" s="8" t="s">
-        <v>23</v>
+      <c r="C197" s="26"/>
+      <c r="D197" s="20"/>
+      <c r="E197" s="17"/>
+      <c r="F197" s="22"/>
+      <c r="G197" s="17"/>
+      <c r="H197" s="17"/>
+      <c r="I197" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="K197" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L197" s="7">
         <v>195</v>
       </c>
-      <c r="M197" s="14"/>
+      <c r="M197" s="16"/>
       <c r="N197" s="7"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A198" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B198" s="25">
+    <row r="198" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" s="10">
         <v>196</v>
       </c>
-      <c r="C198" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D198" s="18"/>
-      <c r="E198" s="15"/>
-      <c r="F198" s="20"/>
-      <c r="G198" s="15"/>
-      <c r="H198" s="15"/>
-      <c r="I198" s="9" t="s">
-        <v>19</v>
+      <c r="C198" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D198" s="20"/>
+      <c r="E198" s="17"/>
+      <c r="F198" s="22"/>
+      <c r="G198" s="17"/>
+      <c r="H198" s="17"/>
+      <c r="I198" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K198" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L198" s="7">
         <v>196</v>
       </c>
-      <c r="M198" s="14"/>
+      <c r="M198" s="16"/>
       <c r="N198" s="7"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A199" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B199" s="25">
+      <c r="A199" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199" s="10">
         <v>197</v>
       </c>
-      <c r="C199" s="24"/>
-      <c r="D199" s="18"/>
-      <c r="E199" s="15"/>
-      <c r="F199" s="20"/>
-      <c r="G199" s="15"/>
-      <c r="H199" s="15"/>
-      <c r="I199" s="9" t="s">
-        <v>40</v>
+      <c r="C199" s="28"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="22"/>
+      <c r="G199" s="17"/>
+      <c r="H199" s="17"/>
+      <c r="I199" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="K199" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L199" s="7">
         <v>197</v>
       </c>
-      <c r="M199" s="14"/>
+      <c r="M199" s="16"/>
       <c r="N199" s="7"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A200" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B200" s="25">
+      <c r="A200" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B200" s="10">
         <v>198</v>
       </c>
-      <c r="C200" s="24"/>
-      <c r="D200" s="18"/>
-      <c r="E200" s="15"/>
-      <c r="F200" s="20"/>
-      <c r="G200" s="15"/>
-      <c r="H200" s="15"/>
-      <c r="I200" s="9" t="s">
-        <v>38</v>
+      <c r="C200" s="28"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="17"/>
+      <c r="F200" s="22"/>
+      <c r="G200" s="17"/>
+      <c r="H200" s="17"/>
+      <c r="I200" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L200" s="7">
         <v>198</v>
       </c>
-      <c r="M200" s="14"/>
+      <c r="M200" s="16"/>
       <c r="N200" s="7"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A201" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B201" s="25">
+      <c r="A201" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B201" s="10">
         <v>199</v>
       </c>
-      <c r="C201" s="24"/>
-      <c r="D201" s="18"/>
-      <c r="E201" s="15"/>
-      <c r="F201" s="20"/>
-      <c r="G201" s="15"/>
-      <c r="H201" s="15"/>
-      <c r="I201" s="9" t="s">
-        <v>23</v>
+      <c r="C201" s="29"/>
+      <c r="D201" s="20"/>
+      <c r="E201" s="17"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="17"/>
+      <c r="H201" s="17"/>
+      <c r="I201" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="K201" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L201" s="7">
         <v>199</v>
       </c>
-      <c r="M201" s="14"/>
+      <c r="M201" s="16"/>
       <c r="N201" s="7"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A202" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B202" s="27">
+    <row r="202" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" s="30">
         <v>200</v>
       </c>
-      <c r="C202" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D202" s="15"/>
-      <c r="E202" s="15"/>
-      <c r="F202" s="20"/>
-      <c r="G202" s="15"/>
-      <c r="H202" s="15"/>
-      <c r="I202" s="10" t="s">
-        <v>19</v>
+      <c r="C202" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D202" s="17"/>
+      <c r="E202" s="17"/>
+      <c r="F202" s="22"/>
+      <c r="G202" s="17"/>
+      <c r="H202" s="17"/>
+      <c r="I202" s="34" t="s">
+        <v>118</v>
       </c>
       <c r="K202" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L202" s="7">
         <v>200</v>
       </c>
-      <c r="M202" s="14"/>
+      <c r="M202" s="16"/>
       <c r="N202" s="7"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A203" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B203" s="27">
+      <c r="A203" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" s="30">
         <v>201</v>
       </c>
-      <c r="C203" s="26"/>
-      <c r="D203" s="15"/>
-      <c r="E203" s="15"/>
-      <c r="F203" s="20"/>
-      <c r="G203" s="15"/>
-      <c r="H203" s="15"/>
-      <c r="I203" s="10" t="s">
-        <v>41</v>
+      <c r="C203" s="32"/>
+      <c r="D203" s="17"/>
+      <c r="E203" s="17"/>
+      <c r="F203" s="22"/>
+      <c r="G203" s="17"/>
+      <c r="H203" s="17"/>
+      <c r="I203" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="K203" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L203" s="7">
         <v>201</v>
       </c>
-      <c r="M203" s="14"/>
+      <c r="M203" s="16"/>
       <c r="N203" s="7"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A204" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B204" s="27">
+      <c r="A204" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B204" s="30">
         <v>202</v>
       </c>
-      <c r="C204" s="26"/>
-      <c r="D204" s="15"/>
-      <c r="E204" s="15"/>
-      <c r="F204" s="20"/>
-      <c r="G204" s="15"/>
-      <c r="H204" s="15"/>
-      <c r="I204" s="10" t="s">
-        <v>42</v>
+      <c r="C204" s="32"/>
+      <c r="D204" s="17"/>
+      <c r="E204" s="17"/>
+      <c r="F204" s="22"/>
+      <c r="G204" s="17"/>
+      <c r="H204" s="17"/>
+      <c r="I204" s="34" t="s">
+        <v>37</v>
       </c>
       <c r="K204" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L204" s="7">
         <v>202</v>
       </c>
-      <c r="M204" s="14"/>
+      <c r="M204" s="16"/>
       <c r="N204" s="7"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A205" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B205" s="27">
+      <c r="A205" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B205" s="30">
         <v>203</v>
       </c>
-      <c r="C205" s="26"/>
-      <c r="D205" s="15"/>
-      <c r="E205" s="15"/>
-      <c r="F205" s="20"/>
-      <c r="G205" s="15"/>
-      <c r="H205" s="15"/>
-      <c r="I205" s="10" t="s">
-        <v>23</v>
+      <c r="C205" s="33"/>
+      <c r="D205" s="17"/>
+      <c r="E205" s="17"/>
+      <c r="F205" s="22"/>
+      <c r="G205" s="17"/>
+      <c r="H205" s="17"/>
+      <c r="I205" s="34" t="s">
+        <v>12</v>
       </c>
       <c r="K205" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L205" s="7">
         <v>203</v>
       </c>
-      <c r="M205" s="14"/>
+      <c r="M205" s="16"/>
       <c r="N205" s="7"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A206" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B206" s="29">
+    <row r="206" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206" s="12">
         <v>204</v>
       </c>
-      <c r="C206" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D206" s="15"/>
-      <c r="E206" s="15"/>
-      <c r="F206" s="20"/>
-      <c r="G206" s="15"/>
-      <c r="H206" s="15"/>
-      <c r="I206" s="11" t="s">
-        <v>19</v>
+      <c r="C206" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D206" s="17"/>
+      <c r="E206" s="17"/>
+      <c r="F206" s="22"/>
+      <c r="G206" s="17"/>
+      <c r="H206" s="17"/>
+      <c r="I206" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K206" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L206" s="7">
         <v>204</v>
       </c>
-      <c r="M206" s="14"/>
+      <c r="M206" s="16"/>
       <c r="N206" s="7"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A207" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B207" s="29">
+      <c r="A207" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B207" s="12">
         <v>205</v>
       </c>
-      <c r="C207" s="28"/>
-      <c r="D207" s="15"/>
-      <c r="E207" s="15"/>
-      <c r="F207" s="20"/>
-      <c r="G207" s="15"/>
-      <c r="H207" s="15"/>
-      <c r="I207" s="11"/>
+      <c r="C207" s="36"/>
+      <c r="D207" s="17"/>
+      <c r="E207" s="17"/>
+      <c r="F207" s="22"/>
+      <c r="G207" s="17"/>
+      <c r="H207" s="17"/>
+      <c r="I207" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="K207" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L207" s="7">
         <v>205</v>
       </c>
-      <c r="M207" s="14"/>
+      <c r="M207" s="16"/>
       <c r="N207" s="7"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A208" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B208" s="29">
+      <c r="A208" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B208" s="12">
         <v>206</v>
       </c>
-      <c r="C208" s="28"/>
-      <c r="D208" s="15"/>
-      <c r="E208" s="15"/>
-      <c r="F208" s="20"/>
-      <c r="G208" s="15"/>
-      <c r="H208" s="15"/>
-      <c r="I208" s="11"/>
+      <c r="C208" s="36"/>
+      <c r="D208" s="17"/>
+      <c r="E208" s="17"/>
+      <c r="F208" s="22"/>
+      <c r="G208" s="17"/>
+      <c r="H208" s="17"/>
+      <c r="I208" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="K208" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L208" s="7">
         <v>206</v>
       </c>
-      <c r="M208" s="14"/>
+      <c r="M208" s="16"/>
       <c r="N208" s="7"/>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A209" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B209" s="29">
+      <c r="A209" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B209" s="12">
         <v>207</v>
       </c>
-      <c r="C209" s="28"/>
-      <c r="D209" s="15"/>
-      <c r="E209" s="15"/>
-      <c r="F209" s="20"/>
-      <c r="G209" s="15"/>
-      <c r="H209" s="15"/>
-      <c r="I209" s="11" t="s">
-        <v>23</v>
+      <c r="C209" s="37"/>
+      <c r="D209" s="17"/>
+      <c r="E209" s="17"/>
+      <c r="F209" s="22"/>
+      <c r="G209" s="17"/>
+      <c r="H209" s="17"/>
+      <c r="I209" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="K209" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L209" s="7">
         <v>207</v>
       </c>
-      <c r="M209" s="14"/>
+      <c r="M209" s="16"/>
       <c r="N209" s="7"/>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A210" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B210" s="19">
+      <c r="A210" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B210" s="21">
         <v>208</v>
       </c>
-      <c r="C210" s="15"/>
-      <c r="D210" s="15"/>
-      <c r="E210" s="15"/>
-      <c r="F210" s="20"/>
-      <c r="G210" s="15"/>
-      <c r="H210" s="15"/>
-      <c r="I210" s="21"/>
+      <c r="C210" s="17"/>
+      <c r="D210" s="17"/>
+      <c r="E210" s="17"/>
+      <c r="F210" s="22"/>
+      <c r="G210" s="17"/>
+      <c r="H210" s="17"/>
+      <c r="I210" s="23"/>
       <c r="K210" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L210" s="7">
         <v>208</v>
       </c>
-      <c r="M210" s="14"/>
+      <c r="M210" s="16"/>
       <c r="N210" s="7"/>
       <c r="R210" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A211" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B211" s="19">
+      <c r="A211" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B211" s="21">
         <v>209</v>
       </c>
-      <c r="C211" s="15"/>
-      <c r="D211" s="15"/>
-      <c r="E211" s="15"/>
-      <c r="F211" s="20"/>
-      <c r="G211" s="15"/>
-      <c r="H211" s="15"/>
-      <c r="I211" s="21"/>
+      <c r="C211" s="17"/>
+      <c r="D211" s="17"/>
+      <c r="E211" s="17"/>
+      <c r="F211" s="22"/>
+      <c r="G211" s="17"/>
+      <c r="H211" s="17"/>
+      <c r="I211" s="23"/>
       <c r="K211" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L211" s="7">
         <v>209</v>
       </c>
-      <c r="M211" s="14"/>
+      <c r="M211" s="16"/>
       <c r="N211" s="7"/>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A212" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B212" s="19">
+      <c r="A212" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B212" s="21">
         <v>210</v>
       </c>
-      <c r="C212" s="15"/>
-      <c r="D212" s="15"/>
-      <c r="E212" s="15"/>
-      <c r="F212" s="20"/>
-      <c r="G212" s="15"/>
-      <c r="H212" s="15"/>
-      <c r="I212" s="21"/>
+      <c r="C212" s="17"/>
+      <c r="D212" s="17"/>
+      <c r="E212" s="17"/>
+      <c r="F212" s="22"/>
+      <c r="G212" s="17"/>
+      <c r="H212" s="17"/>
+      <c r="I212" s="23"/>
       <c r="K212" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L212" s="7">
         <v>210</v>
       </c>
-      <c r="M212" s="14"/>
+      <c r="M212" s="16"/>
       <c r="N212" s="7"/>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A213" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B213" s="19">
+      <c r="A213" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B213" s="21">
         <v>211</v>
       </c>
-      <c r="C213" s="15"/>
-      <c r="D213" s="15"/>
-      <c r="E213" s="15"/>
-      <c r="F213" s="20"/>
-      <c r="G213" s="15"/>
-      <c r="H213" s="15"/>
-      <c r="I213" s="21"/>
+      <c r="C213" s="17"/>
+      <c r="D213" s="17"/>
+      <c r="E213" s="17"/>
+      <c r="F213" s="22"/>
+      <c r="G213" s="17"/>
+      <c r="H213" s="17"/>
+      <c r="I213" s="23"/>
       <c r="K213" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L213" s="7">
         <v>211</v>
       </c>
-      <c r="M213" s="14"/>
+      <c r="M213" s="16"/>
       <c r="N213" s="7"/>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A214" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B214" s="19">
+      <c r="A214" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B214" s="21">
         <v>212</v>
       </c>
-      <c r="C214" s="15"/>
-      <c r="D214" s="15"/>
-      <c r="E214" s="15"/>
-      <c r="F214" s="20"/>
-      <c r="G214" s="15"/>
-      <c r="H214" s="15"/>
-      <c r="I214" s="21"/>
+      <c r="C214" s="17"/>
+      <c r="D214" s="17"/>
+      <c r="E214" s="17"/>
+      <c r="F214" s="22"/>
+      <c r="G214" s="17"/>
+      <c r="H214" s="17"/>
+      <c r="I214" s="23"/>
       <c r="K214" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L214" s="7">
         <v>212</v>
       </c>
-      <c r="M214" s="14"/>
+      <c r="M214" s="16"/>
       <c r="N214" s="7"/>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A215" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B215" s="19">
+      <c r="A215" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B215" s="21">
         <v>213</v>
       </c>
-      <c r="C215" s="15"/>
-      <c r="D215" s="15"/>
-      <c r="E215" s="15"/>
-      <c r="F215" s="20"/>
-      <c r="G215" s="15"/>
-      <c r="H215" s="15"/>
-      <c r="I215" s="21"/>
+      <c r="C215" s="17"/>
+      <c r="D215" s="17"/>
+      <c r="E215" s="17"/>
+      <c r="F215" s="22"/>
+      <c r="G215" s="17"/>
+      <c r="H215" s="17"/>
+      <c r="I215" s="23"/>
       <c r="K215" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L215" s="7">
         <v>213</v>
       </c>
-      <c r="M215" s="14"/>
+      <c r="M215" s="16"/>
       <c r="N215" s="7"/>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A216" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B216" s="19">
+      <c r="A216" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B216" s="21">
         <v>214</v>
       </c>
-      <c r="C216" s="15"/>
-      <c r="D216" s="15"/>
-      <c r="E216" s="15"/>
-      <c r="F216" s="20"/>
-      <c r="G216" s="15"/>
-      <c r="H216" s="15"/>
-      <c r="I216" s="21"/>
+      <c r="C216" s="17"/>
+      <c r="D216" s="17"/>
+      <c r="E216" s="17"/>
+      <c r="F216" s="22"/>
+      <c r="G216" s="17"/>
+      <c r="H216" s="17"/>
+      <c r="I216" s="23"/>
       <c r="K216" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L216" s="7">
         <v>214</v>
       </c>
-      <c r="M216" s="14"/>
+      <c r="M216" s="16"/>
       <c r="N216" s="7"/>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A217" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B217" s="19">
+      <c r="A217" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B217" s="21">
         <v>215</v>
       </c>
-      <c r="C217" s="15"/>
-      <c r="D217" s="15"/>
-      <c r="E217" s="15"/>
-      <c r="F217" s="20"/>
-      <c r="G217" s="15"/>
-      <c r="H217" s="15"/>
-      <c r="I217" s="21"/>
+      <c r="C217" s="17"/>
+      <c r="D217" s="17"/>
+      <c r="E217" s="17"/>
+      <c r="F217" s="22"/>
+      <c r="G217" s="17"/>
+      <c r="H217" s="17"/>
+      <c r="I217" s="23"/>
       <c r="K217" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L217" s="7">
         <v>215</v>
       </c>
-      <c r="M217" s="14"/>
+      <c r="M217" s="16"/>
       <c r="N217" s="7"/>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A218" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B218" s="19">
+      <c r="A218" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B218" s="21">
         <v>216</v>
       </c>
-      <c r="C218" s="15"/>
-      <c r="D218" s="15"/>
-      <c r="E218" s="15"/>
-      <c r="F218" s="20"/>
-      <c r="G218" s="15"/>
-      <c r="H218" s="15"/>
-      <c r="I218" s="21"/>
+      <c r="C218" s="17"/>
+      <c r="D218" s="17"/>
+      <c r="E218" s="17"/>
+      <c r="F218" s="22"/>
+      <c r="G218" s="17"/>
+      <c r="H218" s="17"/>
+      <c r="I218" s="23"/>
       <c r="K218" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L218" s="7">
         <v>216</v>
       </c>
-      <c r="M218" s="14"/>
+      <c r="M218" s="16"/>
       <c r="N218" s="7"/>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A219" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B219" s="19">
+      <c r="A219" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B219" s="21">
         <v>217</v>
       </c>
-      <c r="C219" s="15"/>
-      <c r="D219" s="15"/>
-      <c r="E219" s="15"/>
-      <c r="F219" s="20"/>
-      <c r="G219" s="15"/>
-      <c r="H219" s="15"/>
-      <c r="I219" s="21"/>
+      <c r="C219" s="17"/>
+      <c r="D219" s="17"/>
+      <c r="E219" s="17"/>
+      <c r="F219" s="22"/>
+      <c r="G219" s="17"/>
+      <c r="H219" s="17"/>
+      <c r="I219" s="23"/>
       <c r="K219" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L219" s="7">
         <v>217</v>
       </c>
-      <c r="M219" s="14"/>
+      <c r="M219" s="16"/>
       <c r="N219" s="7"/>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A220" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B220" s="19">
+      <c r="A220" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B220" s="21">
         <v>218</v>
       </c>
-      <c r="C220" s="15"/>
-      <c r="D220" s="15"/>
-      <c r="E220" s="15"/>
-      <c r="F220" s="20"/>
-      <c r="G220" s="15"/>
-      <c r="H220" s="15"/>
-      <c r="I220" s="21"/>
+      <c r="C220" s="17"/>
+      <c r="D220" s="17"/>
+      <c r="E220" s="17"/>
+      <c r="F220" s="22"/>
+      <c r="G220" s="17"/>
+      <c r="H220" s="17"/>
+      <c r="I220" s="23"/>
       <c r="K220" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L220" s="7">
         <v>218</v>
       </c>
-      <c r="M220" s="14"/>
+      <c r="M220" s="16"/>
       <c r="N220" s="7"/>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A221" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B221" s="19">
+      <c r="A221" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B221" s="21">
         <v>219</v>
       </c>
-      <c r="C221" s="15"/>
-      <c r="D221" s="15"/>
-      <c r="E221" s="15"/>
-      <c r="F221" s="20"/>
-      <c r="G221" s="15"/>
-      <c r="H221" s="15"/>
-      <c r="I221" s="21"/>
+      <c r="C221" s="17"/>
+      <c r="D221" s="17"/>
+      <c r="E221" s="17"/>
+      <c r="F221" s="22"/>
+      <c r="G221" s="17"/>
+      <c r="H221" s="17"/>
+      <c r="I221" s="23"/>
       <c r="K221" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L221" s="7">
         <v>219</v>
       </c>
-      <c r="M221" s="14"/>
+      <c r="M221" s="16"/>
       <c r="N221" s="7"/>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A222" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B222" s="19">
+      <c r="A222" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B222" s="21">
         <v>220</v>
       </c>
-      <c r="C222" s="15"/>
-      <c r="D222" s="15"/>
-      <c r="E222" s="15"/>
-      <c r="F222" s="20"/>
-      <c r="G222" s="15"/>
-      <c r="H222" s="15"/>
-      <c r="I222" s="21"/>
+      <c r="C222" s="17"/>
+      <c r="D222" s="17"/>
+      <c r="E222" s="17"/>
+      <c r="F222" s="22"/>
+      <c r="G222" s="17"/>
+      <c r="H222" s="17"/>
+      <c r="I222" s="23"/>
       <c r="K222" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L222" s="7">
         <v>220</v>
       </c>
-      <c r="M222" s="14"/>
+      <c r="M222" s="16"/>
       <c r="N222" s="7"/>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A223" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B223" s="19">
+      <c r="A223" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223" s="21">
         <v>221</v>
       </c>
-      <c r="C223" s="15"/>
-      <c r="D223" s="15"/>
-      <c r="E223" s="15"/>
-      <c r="F223" s="20"/>
-      <c r="G223" s="15"/>
-      <c r="H223" s="15"/>
-      <c r="I223" s="21"/>
+      <c r="C223" s="17"/>
+      <c r="D223" s="17"/>
+      <c r="E223" s="17"/>
+      <c r="F223" s="22"/>
+      <c r="G223" s="17"/>
+      <c r="H223" s="17"/>
+      <c r="I223" s="23"/>
       <c r="K223" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L223" s="7">
         <v>221</v>
       </c>
-      <c r="M223" s="14"/>
+      <c r="M223" s="16"/>
       <c r="N223" s="7"/>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A224" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B224" s="19">
+      <c r="A224" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B224" s="21">
         <v>222</v>
       </c>
-      <c r="C224" s="15"/>
-      <c r="D224" s="15"/>
-      <c r="E224" s="15"/>
-      <c r="F224" s="20"/>
-      <c r="G224" s="15"/>
-      <c r="H224" s="15"/>
-      <c r="I224" s="21"/>
+      <c r="C224" s="17"/>
+      <c r="D224" s="17"/>
+      <c r="E224" s="17"/>
+      <c r="F224" s="22"/>
+      <c r="G224" s="17"/>
+      <c r="H224" s="17"/>
+      <c r="I224" s="23"/>
       <c r="K224" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L224" s="7">
         <v>222</v>
       </c>
-      <c r="M224" s="14"/>
+      <c r="M224" s="16"/>
       <c r="N224" s="7"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A225" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B225" s="19">
+      <c r="A225" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B225" s="21">
         <v>223</v>
       </c>
-      <c r="C225" s="15"/>
-      <c r="D225" s="15"/>
-      <c r="E225" s="15"/>
-      <c r="F225" s="20"/>
-      <c r="G225" s="15"/>
-      <c r="H225" s="15"/>
-      <c r="I225" s="21"/>
+      <c r="C225" s="17"/>
+      <c r="D225" s="17"/>
+      <c r="E225" s="17"/>
+      <c r="F225" s="22"/>
+      <c r="G225" s="17"/>
+      <c r="H225" s="17"/>
+      <c r="I225" s="23"/>
       <c r="K225" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L225" s="7">
         <v>223</v>
       </c>
-      <c r="M225" s="14"/>
+      <c r="M225" s="16"/>
       <c r="N225" s="7"/>
     </row>
-    <row r="226" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B226" s="19">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A226" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B226" s="21">
         <v>224</v>
       </c>
-      <c r="C226" s="15"/>
-      <c r="D226" s="15"/>
-      <c r="E226" s="15"/>
-      <c r="F226" s="15"/>
-      <c r="G226" s="15"/>
-      <c r="H226" s="15"/>
-      <c r="I226" s="21"/>
+      <c r="C226" s="38"/>
+      <c r="D226" s="17"/>
+      <c r="E226" s="17"/>
+      <c r="F226" s="17"/>
+      <c r="G226" s="17"/>
+      <c r="H226" s="17"/>
+      <c r="I226" s="23"/>
       <c r="K226" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L226" s="7">
         <v>224</v>
       </c>
-      <c r="M226" s="14"/>
+      <c r="M226" s="16"/>
       <c r="N226" s="7"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A227" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B227" s="19">
+      <c r="A227" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B227" s="21">
         <v>225</v>
       </c>
-      <c r="C227" s="15"/>
-      <c r="D227" s="15"/>
-      <c r="E227" s="15"/>
-      <c r="F227" s="15"/>
-      <c r="G227" s="15"/>
-      <c r="H227" s="15"/>
-      <c r="I227" s="21"/>
+      <c r="C227" s="38"/>
+      <c r="D227" s="17"/>
+      <c r="E227" s="17"/>
+      <c r="F227" s="17"/>
+      <c r="G227" s="17"/>
+      <c r="H227" s="17"/>
+      <c r="I227" s="23"/>
       <c r="K227" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L227" s="7">
         <v>225</v>
       </c>
-      <c r="M227" s="14"/>
+      <c r="M227" s="16"/>
       <c r="N227" s="7"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A228" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B228" s="19">
+      <c r="A228" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B228" s="21">
         <v>226</v>
       </c>
-      <c r="C228" s="15"/>
-      <c r="D228" s="15"/>
-      <c r="E228" s="15"/>
-      <c r="F228" s="15"/>
-      <c r="G228" s="15"/>
-      <c r="H228" s="15"/>
-      <c r="I228" s="21"/>
+      <c r="C228" s="38"/>
+      <c r="D228" s="17"/>
+      <c r="E228" s="17"/>
+      <c r="F228" s="17"/>
+      <c r="G228" s="17"/>
+      <c r="H228" s="17"/>
+      <c r="I228" s="23"/>
       <c r="K228" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L228" s="7">
         <v>226</v>
       </c>
-      <c r="M228" s="14"/>
+      <c r="M228" s="16"/>
       <c r="N228" s="7"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A229" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B229" s="19">
+      <c r="A229" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B229" s="21">
         <v>227</v>
       </c>
-      <c r="C229" s="15"/>
-      <c r="D229" s="15"/>
-      <c r="E229" s="15"/>
-      <c r="F229" s="15"/>
-      <c r="G229" s="15"/>
-      <c r="H229" s="15"/>
-      <c r="I229" s="21"/>
+      <c r="C229" s="38"/>
+      <c r="D229" s="17"/>
+      <c r="E229" s="17"/>
+      <c r="F229" s="17"/>
+      <c r="G229" s="17"/>
+      <c r="H229" s="17"/>
+      <c r="I229" s="23"/>
       <c r="K229" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L229" s="7">
         <v>227</v>
       </c>
-      <c r="M229" s="14"/>
+      <c r="M229" s="16"/>
       <c r="N229" s="7"/>
     </row>
-    <row r="230" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B230" s="19">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A230" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B230" s="21">
         <v>228</v>
       </c>
-      <c r="C230" s="15"/>
-      <c r="D230" s="15"/>
-      <c r="E230" s="15"/>
-      <c r="F230" s="15"/>
-      <c r="G230" s="15"/>
-      <c r="H230" s="15"/>
-      <c r="I230" s="21"/>
+      <c r="C230" s="38"/>
+      <c r="D230" s="17"/>
+      <c r="E230" s="17"/>
+      <c r="F230" s="17"/>
+      <c r="G230" s="17"/>
+      <c r="H230" s="17"/>
+      <c r="I230" s="23"/>
       <c r="K230" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L230" s="7">
         <v>228</v>
       </c>
-      <c r="M230" s="14"/>
+      <c r="M230" s="16"/>
       <c r="N230" s="7"/>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A231" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B231" s="19">
+      <c r="A231" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B231" s="21">
         <v>229</v>
       </c>
-      <c r="C231" s="15"/>
-      <c r="D231" s="15"/>
-      <c r="E231" s="15"/>
-      <c r="F231" s="15"/>
-      <c r="G231" s="15"/>
-      <c r="H231" s="15"/>
-      <c r="I231" s="21"/>
+      <c r="C231" s="38"/>
+      <c r="D231" s="17"/>
+      <c r="E231" s="17"/>
+      <c r="F231" s="17"/>
+      <c r="G231" s="17"/>
+      <c r="H231" s="17"/>
+      <c r="I231" s="23"/>
       <c r="K231" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L231" s="7">
         <v>229</v>
       </c>
-      <c r="M231" s="14"/>
+      <c r="M231" s="16"/>
       <c r="N231" s="7"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A232" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B232" s="19">
+      <c r="A232" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B232" s="21">
         <v>230</v>
       </c>
-      <c r="C232" s="15"/>
-      <c r="D232" s="15"/>
-      <c r="E232" s="15"/>
-      <c r="F232" s="15"/>
-      <c r="G232" s="15"/>
-      <c r="H232" s="15"/>
-      <c r="I232" s="21"/>
+      <c r="C232" s="38"/>
+      <c r="D232" s="17"/>
+      <c r="E232" s="17"/>
+      <c r="F232" s="17"/>
+      <c r="G232" s="17"/>
+      <c r="H232" s="17"/>
+      <c r="I232" s="23"/>
       <c r="K232" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L232" s="7">
         <v>230</v>
       </c>
-      <c r="M232" s="14"/>
+      <c r="M232" s="16"/>
       <c r="N232" s="7"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A233" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B233" s="19">
+      <c r="A233" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B233" s="21">
         <v>231</v>
       </c>
-      <c r="C233" s="15"/>
-      <c r="D233" s="15"/>
-      <c r="E233" s="15"/>
-      <c r="F233" s="15"/>
-      <c r="G233" s="15"/>
-      <c r="H233" s="15"/>
-      <c r="I233" s="21"/>
+      <c r="C233" s="38"/>
+      <c r="D233" s="17"/>
+      <c r="E233" s="17"/>
+      <c r="F233" s="17"/>
+      <c r="G233" s="17"/>
+      <c r="H233" s="17"/>
+      <c r="I233" s="23"/>
       <c r="K233" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L233" s="7">
         <v>231</v>
       </c>
-      <c r="M233" s="14"/>
+      <c r="M233" s="16"/>
       <c r="N233" s="7"/>
     </row>
-    <row r="234" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B234" s="19">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A234" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B234" s="21">
         <v>232</v>
       </c>
-      <c r="C234" s="15"/>
-      <c r="D234" s="15"/>
-      <c r="E234" s="15"/>
-      <c r="F234" s="15"/>
-      <c r="G234" s="15"/>
-      <c r="H234" s="15"/>
-      <c r="I234" s="21"/>
+      <c r="C234" s="38"/>
+      <c r="D234" s="17"/>
+      <c r="E234" s="17"/>
+      <c r="F234" s="17"/>
+      <c r="G234" s="17"/>
+      <c r="H234" s="17"/>
+      <c r="I234" s="23"/>
       <c r="K234" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L234" s="7">
         <v>232</v>
       </c>
-      <c r="M234" s="14"/>
+      <c r="M234" s="16"/>
       <c r="N234" s="7"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A235" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B235" s="19">
+      <c r="A235" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B235" s="21">
         <v>233</v>
       </c>
-      <c r="C235" s="15"/>
-      <c r="D235" s="15"/>
-      <c r="E235" s="15"/>
-      <c r="F235" s="15"/>
-      <c r="G235" s="15"/>
-      <c r="H235" s="15"/>
-      <c r="I235" s="21"/>
+      <c r="C235" s="38"/>
+      <c r="D235" s="17"/>
+      <c r="E235" s="17"/>
+      <c r="F235" s="17"/>
+      <c r="G235" s="17"/>
+      <c r="H235" s="17"/>
+      <c r="I235" s="23"/>
       <c r="K235" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L235" s="7">
         <v>233</v>
       </c>
-      <c r="M235" s="14"/>
+      <c r="M235" s="16"/>
       <c r="N235" s="7"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A236" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B236" s="19">
+      <c r="A236" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B236" s="21">
         <v>234</v>
       </c>
-      <c r="C236" s="15"/>
-      <c r="D236" s="15"/>
-      <c r="E236" s="15"/>
-      <c r="F236" s="15"/>
-      <c r="G236" s="15"/>
-      <c r="H236" s="15"/>
-      <c r="I236" s="21"/>
+      <c r="C236" s="38"/>
+      <c r="D236" s="17"/>
+      <c r="E236" s="17"/>
+      <c r="F236" s="17"/>
+      <c r="G236" s="17"/>
+      <c r="H236" s="17"/>
+      <c r="I236" s="23"/>
       <c r="K236" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L236" s="7">
         <v>234</v>
       </c>
-      <c r="M236" s="14"/>
+      <c r="M236" s="16"/>
       <c r="N236" s="7"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A237" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B237" s="19">
+      <c r="A237" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B237" s="21">
         <v>235</v>
       </c>
-      <c r="C237" s="15"/>
-      <c r="D237" s="15"/>
-      <c r="E237" s="15"/>
-      <c r="F237" s="15"/>
-      <c r="G237" s="15"/>
-      <c r="H237" s="15"/>
-      <c r="I237" s="21"/>
+      <c r="C237" s="38"/>
+      <c r="D237" s="17"/>
+      <c r="E237" s="17"/>
+      <c r="F237" s="17"/>
+      <c r="G237" s="17"/>
+      <c r="H237" s="17"/>
+      <c r="I237" s="23"/>
       <c r="K237" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L237" s="7">
         <v>235</v>
       </c>
-      <c r="M237" s="14"/>
+      <c r="M237" s="16"/>
       <c r="N237" s="7"/>
     </row>
-    <row r="238" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B238" s="19">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A238" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B238" s="21">
         <v>236</v>
       </c>
-      <c r="C238" s="15"/>
-      <c r="D238" s="15"/>
-      <c r="E238" s="15"/>
-      <c r="F238" s="15"/>
-      <c r="G238" s="15"/>
-      <c r="H238" s="15"/>
-      <c r="I238" s="21"/>
+      <c r="C238" s="38"/>
+      <c r="D238" s="17"/>
+      <c r="E238" s="17"/>
+      <c r="F238" s="17"/>
+      <c r="G238" s="17"/>
+      <c r="H238" s="17"/>
+      <c r="I238" s="23"/>
       <c r="K238" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L238" s="7">
         <v>236</v>
       </c>
-      <c r="M238" s="14"/>
+      <c r="M238" s="16"/>
       <c r="N238" s="7"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A239" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B239" s="19">
+      <c r="A239" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B239" s="21">
         <v>237</v>
       </c>
-      <c r="C239" s="15"/>
-      <c r="D239" s="15"/>
-      <c r="E239" s="15"/>
-      <c r="F239" s="15"/>
-      <c r="G239" s="15"/>
-      <c r="H239" s="15"/>
-      <c r="I239" s="21"/>
+      <c r="C239" s="38"/>
+      <c r="D239" s="17"/>
+      <c r="E239" s="17"/>
+      <c r="F239" s="17"/>
+      <c r="G239" s="17"/>
+      <c r="H239" s="17"/>
+      <c r="I239" s="23"/>
       <c r="K239" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L239" s="7">
         <v>237</v>
       </c>
-      <c r="M239" s="14"/>
+      <c r="M239" s="16"/>
       <c r="N239" s="7"/>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A240" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B240" s="19">
+      <c r="A240" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B240" s="21">
         <v>238</v>
       </c>
-      <c r="C240" s="15"/>
-      <c r="D240" s="15"/>
-      <c r="E240" s="15"/>
-      <c r="F240" s="15"/>
-      <c r="G240" s="15"/>
-      <c r="H240" s="15"/>
-      <c r="I240" s="21"/>
+      <c r="C240" s="38"/>
+      <c r="D240" s="17"/>
+      <c r="E240" s="17"/>
+      <c r="F240" s="17"/>
+      <c r="G240" s="17"/>
+      <c r="H240" s="17"/>
+      <c r="I240" s="23"/>
       <c r="K240" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L240" s="7">
         <v>238</v>
       </c>
-      <c r="M240" s="14"/>
+      <c r="M240" s="16"/>
       <c r="N240" s="7"/>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A241" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B241" s="19">
+      <c r="A241" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B241" s="21">
         <v>239</v>
       </c>
-      <c r="C241" s="15"/>
-      <c r="D241" s="15"/>
-      <c r="E241" s="15"/>
-      <c r="F241" s="15"/>
-      <c r="G241" s="15"/>
-      <c r="H241" s="15"/>
-      <c r="I241" s="21"/>
+      <c r="C241" s="38"/>
+      <c r="D241" s="17"/>
+      <c r="E241" s="17"/>
+      <c r="F241" s="17"/>
+      <c r="G241" s="17"/>
+      <c r="H241" s="17"/>
+      <c r="I241" s="23"/>
       <c r="K241" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L241" s="7">
         <v>239</v>
       </c>
-      <c r="M241" s="14"/>
+      <c r="M241" s="16"/>
       <c r="N241" s="7"/>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B242">
         <v>240</v>
       </c>
-      <c r="C242" s="15"/>
-      <c r="D242" s="15"/>
-      <c r="E242" s="15"/>
-      <c r="F242" s="15"/>
-      <c r="G242" s="15"/>
-      <c r="H242" s="15"/>
+      <c r="C242" s="17"/>
+      <c r="D242" s="17"/>
+      <c r="E242" s="17"/>
+      <c r="F242" s="17"/>
+      <c r="G242" s="17"/>
+      <c r="H242" s="17"/>
       <c r="I242" s="2"/>
       <c r="K242" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L242" s="7">
         <v>240</v>
       </c>
-      <c r="M242" s="14"/>
+      <c r="M242" s="16"/>
       <c r="N242" s="7"/>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B243">
         <v>241</v>
       </c>
-      <c r="C243" s="15"/>
-      <c r="D243" s="15"/>
-      <c r="E243" s="15"/>
-      <c r="F243" s="15"/>
-      <c r="G243" s="15"/>
-      <c r="H243" s="15"/>
+      <c r="C243" s="17"/>
+      <c r="D243" s="17"/>
+      <c r="E243" s="17"/>
+      <c r="F243" s="17"/>
+      <c r="G243" s="17"/>
+      <c r="H243" s="17"/>
       <c r="I243" s="2"/>
       <c r="K243" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L243" s="7">
         <v>241</v>
       </c>
-      <c r="M243" s="14"/>
+      <c r="M243" s="16"/>
       <c r="N243" s="7"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B244">
         <v>242</v>
       </c>
-      <c r="C244" s="15"/>
-      <c r="D244" s="15"/>
-      <c r="E244" s="15"/>
-      <c r="F244" s="15"/>
-      <c r="G244" s="15"/>
-      <c r="H244" s="15"/>
+      <c r="C244" s="17"/>
+      <c r="D244" s="17"/>
+      <c r="E244" s="17"/>
+      <c r="F244" s="17"/>
+      <c r="G244" s="17"/>
+      <c r="H244" s="17"/>
       <c r="I244" s="2"/>
       <c r="K244" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L244" s="7">
         <v>242</v>
       </c>
-      <c r="M244" s="14"/>
+      <c r="M244" s="16"/>
       <c r="N244" s="7"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B245">
         <v>243</v>
       </c>
-      <c r="C245" s="15"/>
-      <c r="D245" s="15"/>
-      <c r="E245" s="15"/>
-      <c r="F245" s="15"/>
-      <c r="G245" s="15"/>
-      <c r="H245" s="15"/>
+      <c r="C245" s="17"/>
+      <c r="D245" s="17"/>
+      <c r="E245" s="17"/>
+      <c r="F245" s="17"/>
+      <c r="G245" s="17"/>
+      <c r="H245" s="17"/>
       <c r="I245" s="2"/>
       <c r="K245" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L245" s="7">
         <v>243</v>
       </c>
-      <c r="M245" s="14"/>
+      <c r="M245" s="16"/>
       <c r="N245" s="7"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B246">
         <v>244</v>
       </c>
-      <c r="C246" s="15"/>
-      <c r="D246" s="15"/>
-      <c r="E246" s="15"/>
-      <c r="F246" s="15"/>
-      <c r="G246" s="15"/>
-      <c r="H246" s="15"/>
+      <c r="C246" s="17"/>
+      <c r="D246" s="17"/>
+      <c r="E246" s="17"/>
+      <c r="F246" s="17"/>
+      <c r="G246" s="17"/>
+      <c r="H246" s="17"/>
       <c r="I246" s="2"/>
       <c r="K246" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L246" s="7">
         <v>244</v>
       </c>
-      <c r="M246" s="14"/>
+      <c r="M246" s="16"/>
       <c r="N246" s="7"/>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B247">
         <v>245</v>
       </c>
-      <c r="C247" s="15"/>
-      <c r="D247" s="15"/>
-      <c r="E247" s="15"/>
-      <c r="F247" s="15"/>
-      <c r="G247" s="15"/>
-      <c r="H247" s="15"/>
+      <c r="C247" s="17"/>
+      <c r="D247" s="17"/>
+      <c r="E247" s="17"/>
+      <c r="F247" s="17"/>
+      <c r="G247" s="17"/>
+      <c r="H247" s="17"/>
       <c r="I247" s="2"/>
       <c r="K247" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L247" s="7">
         <v>245</v>
       </c>
-      <c r="M247" s="14"/>
+      <c r="M247" s="16"/>
       <c r="N247" s="7"/>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B248">
         <v>246</v>
       </c>
-      <c r="C248" s="15"/>
-      <c r="D248" s="15"/>
-      <c r="E248" s="15"/>
-      <c r="F248" s="15"/>
-      <c r="G248" s="15"/>
-      <c r="H248" s="15"/>
+      <c r="C248" s="17"/>
+      <c r="D248" s="17"/>
+      <c r="E248" s="17"/>
+      <c r="F248" s="17"/>
+      <c r="G248" s="17"/>
+      <c r="H248" s="17"/>
       <c r="I248" s="2"/>
       <c r="K248" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L248" s="7">
         <v>246</v>
       </c>
-      <c r="M248" s="14"/>
+      <c r="M248" s="16"/>
       <c r="N248" s="7"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B249">
         <v>247</v>
       </c>
-      <c r="C249" s="15"/>
-      <c r="D249" s="15"/>
-      <c r="E249" s="15"/>
-      <c r="F249" s="15"/>
-      <c r="G249" s="15"/>
-      <c r="H249" s="15"/>
+      <c r="C249" s="17"/>
+      <c r="D249" s="17"/>
+      <c r="E249" s="17"/>
+      <c r="F249" s="17"/>
+      <c r="G249" s="17"/>
+      <c r="H249" s="17"/>
       <c r="I249" s="2"/>
       <c r="K249" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L249" s="7">
         <v>247</v>
       </c>
-      <c r="M249" s="14"/>
+      <c r="M249" s="16"/>
       <c r="N249" s="7"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B250">
         <v>248</v>
       </c>
-      <c r="C250" s="15"/>
-      <c r="D250" s="15"/>
-      <c r="E250" s="15"/>
-      <c r="F250" s="15"/>
-      <c r="G250" s="15"/>
-      <c r="H250" s="15"/>
+      <c r="C250" s="17"/>
+      <c r="D250" s="17"/>
+      <c r="E250" s="17"/>
+      <c r="F250" s="17"/>
+      <c r="G250" s="17"/>
+      <c r="H250" s="17"/>
       <c r="I250" s="2"/>
       <c r="K250" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L250" s="7">
         <v>248</v>
       </c>
-      <c r="M250" s="14"/>
+      <c r="M250" s="16"/>
       <c r="N250" s="7"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B251">
         <v>249</v>
       </c>
-      <c r="C251" s="15"/>
-      <c r="D251" s="15"/>
-      <c r="E251" s="15"/>
-      <c r="F251" s="15"/>
-      <c r="G251" s="15"/>
-      <c r="H251" s="15"/>
+      <c r="C251" s="17"/>
+      <c r="D251" s="17"/>
+      <c r="E251" s="17"/>
+      <c r="F251" s="17"/>
+      <c r="G251" s="17"/>
+      <c r="H251" s="17"/>
       <c r="I251" s="2"/>
       <c r="K251" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L251" s="7">
         <v>249</v>
       </c>
-      <c r="M251" s="14"/>
+      <c r="M251" s="16"/>
       <c r="N251" s="7"/>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B252">
         <v>250</v>
       </c>
-      <c r="C252" s="15"/>
-      <c r="D252" s="15"/>
-      <c r="E252" s="15"/>
-      <c r="F252" s="15"/>
-      <c r="G252" s="15"/>
-      <c r="H252" s="15"/>
+      <c r="C252" s="17"/>
+      <c r="D252" s="17"/>
+      <c r="E252" s="17"/>
+      <c r="F252" s="17"/>
+      <c r="G252" s="17"/>
+      <c r="H252" s="17"/>
       <c r="I252" s="2"/>
       <c r="K252" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L252" s="7">
         <v>250</v>
       </c>
-      <c r="M252" s="14"/>
+      <c r="M252" s="16"/>
       <c r="N252" s="7"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B253">
         <v>251</v>
       </c>
-      <c r="C253" s="15"/>
-      <c r="D253" s="15"/>
-      <c r="E253" s="15"/>
-      <c r="F253" s="15"/>
-      <c r="G253" s="15"/>
-      <c r="H253" s="15"/>
+      <c r="C253" s="17"/>
+      <c r="D253" s="17"/>
+      <c r="E253" s="17"/>
+      <c r="F253" s="17"/>
+      <c r="G253" s="17"/>
+      <c r="H253" s="17"/>
       <c r="I253" s="2"/>
       <c r="K253" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L253" s="7">
         <v>251</v>
       </c>
-      <c r="M253" s="14"/>
+      <c r="M253" s="16"/>
       <c r="N253" s="7"/>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B254">
         <v>252</v>
       </c>
-      <c r="C254" s="15"/>
-      <c r="D254" s="15"/>
-      <c r="E254" s="15"/>
-      <c r="F254" s="15"/>
-      <c r="G254" s="15"/>
-      <c r="H254" s="15"/>
+      <c r="C254" s="17"/>
+      <c r="D254" s="17"/>
+      <c r="E254" s="17"/>
+      <c r="F254" s="17"/>
+      <c r="G254" s="17"/>
+      <c r="H254" s="17"/>
       <c r="I254" s="2"/>
       <c r="K254" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L254" s="7">
         <v>252</v>
       </c>
-      <c r="M254" s="14"/>
+      <c r="M254" s="16"/>
       <c r="N254" s="7"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B255">
         <v>253</v>
       </c>
-      <c r="C255" s="15"/>
-      <c r="D255" s="15"/>
-      <c r="E255" s="15"/>
-      <c r="F255" s="15"/>
-      <c r="G255" s="15"/>
-      <c r="H255" s="15"/>
+      <c r="C255" s="17"/>
+      <c r="D255" s="17"/>
+      <c r="E255" s="17"/>
+      <c r="F255" s="17"/>
+      <c r="G255" s="17"/>
+      <c r="H255" s="17"/>
       <c r="I255" s="2"/>
       <c r="K255" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L255" s="7">
         <v>253</v>
       </c>
-      <c r="M255" s="14"/>
+      <c r="M255" s="16"/>
       <c r="N255" s="7"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B256">
         <v>254</v>
       </c>
-      <c r="C256" s="15"/>
-      <c r="D256" s="15"/>
-      <c r="E256" s="15"/>
-      <c r="F256" s="15"/>
-      <c r="G256" s="15"/>
-      <c r="H256" s="15"/>
+      <c r="C256" s="17"/>
+      <c r="D256" s="17"/>
+      <c r="E256" s="17"/>
+      <c r="F256" s="17"/>
+      <c r="G256" s="17"/>
+      <c r="H256" s="17"/>
       <c r="I256" s="2"/>
       <c r="K256" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L256" s="7">
         <v>254</v>
       </c>
-      <c r="M256" s="14"/>
+      <c r="M256" s="16"/>
       <c r="N256" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B257">
         <v>255</v>
       </c>
-      <c r="C257" s="15"/>
-      <c r="D257" s="15"/>
-      <c r="E257" s="15"/>
-      <c r="F257" s="15"/>
-      <c r="G257" s="15"/>
-      <c r="H257" s="15"/>
+      <c r="C257" s="17"/>
+      <c r="D257" s="17"/>
+      <c r="E257" s="17"/>
+      <c r="F257" s="17"/>
+      <c r="G257" s="17"/>
+      <c r="H257" s="17"/>
       <c r="I257" s="2"/>
       <c r="K257" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L257" s="7">
         <v>255</v>
       </c>
-      <c r="M257" s="14"/>
+      <c r="M257" s="16"/>
       <c r="N257" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/ipcim.xlsx
+++ b/ipcim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bela\Git\halozatProjektek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3524256-BB33-4BE9-B4C4-6830A605D061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AA2969-E0B5-4617-A6A6-8E34FB9C96E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{C8323FA4-6CC7-40F6-BE4B-AB2032EB79E9}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{C8323FA4-6CC7-40F6-BE4B-AB2032EB79E9}"/>
   </bookViews>
   <sheets>
     <sheet name="IP Cím igény" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="[$HUF]\ #,##0"/>
-    <numFmt numFmtId="168" formatCode="#,##0\ \é\v"/>
-    <numFmt numFmtId="170" formatCode="#,##0.0\ \é\v"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="[$HUF]\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0\ \é\v"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0\ \é\v"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -494,7 +494,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +558,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -643,34 +649,37 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
@@ -681,7 +690,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
@@ -691,7 +699,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
@@ -704,31 +711,31 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -737,6 +744,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE2EFDA"/>
       <color rgb="FFF4B084"/>
       <color rgb="FF000000"/>
       <color rgb="FFAEAAAA"/>
@@ -1054,7 +1062,7 @@
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,16 +1095,16 @@
       <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="27" t="s">
         <v>122</v>
       </c>
       <c r="N1" s="51" t="s">
@@ -1110,30 +1118,30 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="47">
-        <f>B19+B37+B56</f>
-        <v>24192</v>
-      </c>
-      <c r="J2" s="48">
-        <f>C19+C37+C56</f>
-        <v>9580032</v>
-      </c>
-      <c r="K2" s="49">
+      <c r="I2" s="28">
+        <f>B19+B37</f>
+        <v>10368</v>
+      </c>
+      <c r="J2" s="29">
+        <f>C19+C3</f>
+        <v>1368608</v>
+      </c>
+      <c r="K2" s="30">
         <f>(J2/25000)/12</f>
-        <v>31.933440000000001</v>
-      </c>
-      <c r="L2" s="49">
+        <v>4.5620266666666671</v>
+      </c>
+      <c r="L2" s="30">
         <f>(J2/59000)/12</f>
-        <v>13.531118644067796</v>
-      </c>
-      <c r="M2" s="50">
+        <v>1.9330621468926552</v>
+      </c>
+      <c r="M2" s="31">
         <f>(J2/(25000+59000)/12)</f>
-        <v>9.5039999999999996</v>
-      </c>
-      <c r="N2" t="s">
+        <v>1.3577460317460319</v>
+      </c>
+      <c r="N2" s="52" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1413,11 +1421,11 @@
       <c r="A19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="22">
         <f>64*54</f>
         <v>3456</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="23">
         <f>B19*396</f>
         <v>1368576</v>
       </c>
@@ -1701,11 +1709,11 @@
       <c r="A37" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="40">
+      <c r="B37" s="21">
         <f>128*54</f>
         <v>6912</v>
       </c>
-      <c r="C37" s="45">
+      <c r="C37" s="26">
         <f>B37*396</f>
         <v>2737152</v>
       </c>
@@ -1978,7 +1986,7 @@
         <f>DEC2BIN(B54,8)</f>
         <v>11000000</v>
       </c>
-      <c r="C55" s="43" t="str">
+      <c r="C55" s="24" t="str">
         <f t="shared" ref="C55" si="23">DEC2BIN(C54,8)</f>
         <v>10101000</v>
       </c>
@@ -1996,14 +2004,8 @@
       <c r="A56" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="39">
-        <f>54*256</f>
-        <v>13824</v>
-      </c>
-      <c r="C56" s="44">
-        <f>B56*396</f>
-        <v>5474304</v>
-      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
@@ -2018,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE611228-1758-41E4-B155-B304EF4AAA5B}">
   <dimension ref="A1:R257"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130:A193"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="I194" sqref="I194:I209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,12 +2061,12 @@
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="50" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -2076,7 +2078,7 @@
       <c r="L2" s="7">
         <v>0</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="49" t="s">
         <v>30</v>
       </c>
       <c r="N2" s="7" t="s">
@@ -2090,12 +2092,12 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
@@ -2105,7 +2107,7 @@
       <c r="L3" s="7">
         <v>1</v>
       </c>
-      <c r="M3" s="16"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2115,12 +2117,12 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="4" t="s">
         <v>42</v>
       </c>
@@ -2130,7 +2132,7 @@
       <c r="L4" s="7">
         <v>2</v>
       </c>
-      <c r="M4" s="16"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="7" t="s">
         <v>24</v>
       </c>
@@ -2142,12 +2144,12 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="50"/>
       <c r="I5" s="4"/>
       <c r="K5" s="7" t="s">
         <v>29</v>
@@ -2155,7 +2157,7 @@
       <c r="L5" s="7">
         <v>3</v>
       </c>
-      <c r="M5" s="16"/>
+      <c r="M5" s="49"/>
       <c r="N5" s="7" t="s">
         <v>23</v>
       </c>
@@ -2167,12 +2169,12 @@
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="50"/>
       <c r="I6" s="4"/>
       <c r="K6" s="7" t="s">
         <v>29</v>
@@ -2180,7 +2182,7 @@
       <c r="L6" s="7">
         <v>4</v>
       </c>
-      <c r="M6" s="16"/>
+      <c r="M6" s="49"/>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2190,12 +2192,12 @@
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="4" t="s">
         <v>43</v>
       </c>
@@ -2205,7 +2207,7 @@
       <c r="L7" s="7">
         <v>5</v>
       </c>
-      <c r="M7" s="16"/>
+      <c r="M7" s="49"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2215,12 +2217,12 @@
       <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="4" t="s">
         <v>44</v>
       </c>
@@ -2230,7 +2232,7 @@
       <c r="L8" s="7">
         <v>6</v>
       </c>
-      <c r="M8" s="16"/>
+      <c r="M8" s="49"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2240,12 +2242,12 @@
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="4" t="s">
         <v>45</v>
       </c>
@@ -2255,7 +2257,7 @@
       <c r="L9" s="7">
         <v>7</v>
       </c>
-      <c r="M9" s="16"/>
+      <c r="M9" s="49"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2265,12 +2267,12 @@
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="4" t="s">
         <v>46</v>
       </c>
@@ -2280,7 +2282,7 @@
       <c r="L10" s="7">
         <v>8</v>
       </c>
-      <c r="M10" s="16"/>
+      <c r="M10" s="49"/>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2290,12 +2292,12 @@
       <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="4" t="s">
         <v>47</v>
       </c>
@@ -2305,7 +2307,7 @@
       <c r="L11" s="7">
         <v>9</v>
       </c>
-      <c r="M11" s="16"/>
+      <c r="M11" s="49"/>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2315,12 +2317,12 @@
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="4" t="s">
         <v>48</v>
       </c>
@@ -2330,7 +2332,7 @@
       <c r="L12" s="7">
         <v>10</v>
       </c>
-      <c r="M12" s="16"/>
+      <c r="M12" s="49"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2340,12 +2342,12 @@
       <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="50"/>
       <c r="I13" s="4" t="s">
         <v>49</v>
       </c>
@@ -2355,7 +2357,7 @@
       <c r="L13" s="7">
         <v>11</v>
       </c>
-      <c r="M13" s="16"/>
+      <c r="M13" s="49"/>
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2365,12 +2367,12 @@
       <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="4" t="s">
         <v>50</v>
       </c>
@@ -2380,7 +2382,7 @@
       <c r="L14" s="7">
         <v>12</v>
       </c>
-      <c r="M14" s="16"/>
+      <c r="M14" s="49"/>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2390,12 +2392,12 @@
       <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="4" t="s">
         <v>51</v>
       </c>
@@ -2405,7 +2407,7 @@
       <c r="L15" s="7">
         <v>13</v>
       </c>
-      <c r="M15" s="16"/>
+      <c r="M15" s="49"/>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2415,12 +2417,12 @@
       <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="50"/>
       <c r="I16" s="4" t="s">
         <v>52</v>
       </c>
@@ -2430,7 +2432,7 @@
       <c r="L16" s="7">
         <v>14</v>
       </c>
-      <c r="M16" s="16"/>
+      <c r="M16" s="49"/>
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2440,12 +2442,12 @@
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="4" t="s">
         <v>53</v>
       </c>
@@ -2455,7 +2457,7 @@
       <c r="L17" s="7">
         <v>15</v>
       </c>
-      <c r="M17" s="16"/>
+      <c r="M17" s="49"/>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2465,12 +2467,12 @@
       <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="4" t="s">
         <v>54</v>
       </c>
@@ -2480,7 +2482,7 @@
       <c r="L18" s="7">
         <v>16</v>
       </c>
-      <c r="M18" s="16"/>
+      <c r="M18" s="49"/>
       <c r="N18" s="7" t="s">
         <v>25</v>
       </c>
@@ -2492,12 +2494,12 @@
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="50"/>
       <c r="I19" s="4" t="s">
         <v>55</v>
       </c>
@@ -2507,7 +2509,7 @@
       <c r="L19" s="7">
         <v>17</v>
       </c>
-      <c r="M19" s="16"/>
+      <c r="M19" s="49"/>
       <c r="N19" s="7" t="s">
         <v>26</v>
       </c>
@@ -2519,12 +2521,12 @@
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="50"/>
       <c r="I20" s="4" t="s">
         <v>56</v>
       </c>
@@ -2534,7 +2536,7 @@
       <c r="L20" s="7">
         <v>18</v>
       </c>
-      <c r="M20" s="16"/>
+      <c r="M20" s="49"/>
       <c r="N20" s="7" t="s">
         <v>27</v>
       </c>
@@ -2546,12 +2548,12 @@
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="50"/>
       <c r="I21" s="4" t="s">
         <v>57</v>
       </c>
@@ -2561,7 +2563,7 @@
       <c r="L21" s="7">
         <v>19</v>
       </c>
-      <c r="M21" s="16"/>
+      <c r="M21" s="49"/>
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2571,12 +2573,12 @@
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="50"/>
       <c r="I22" s="4" t="s">
         <v>58</v>
       </c>
@@ -2586,7 +2588,7 @@
       <c r="L22" s="7">
         <v>20</v>
       </c>
-      <c r="M22" s="16"/>
+      <c r="M22" s="49"/>
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2596,12 +2598,12 @@
       <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="50"/>
       <c r="I23" s="4" t="s">
         <v>59</v>
       </c>
@@ -2611,7 +2613,7 @@
       <c r="L23" s="7">
         <v>21</v>
       </c>
-      <c r="M23" s="16"/>
+      <c r="M23" s="49"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2621,12 +2623,12 @@
       <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="4" t="s">
         <v>60</v>
       </c>
@@ -2636,7 +2638,7 @@
       <c r="L24" s="7">
         <v>22</v>
       </c>
-      <c r="M24" s="16"/>
+      <c r="M24" s="49"/>
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2646,12 +2648,12 @@
       <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="50"/>
       <c r="I25" s="4" t="s">
         <v>61</v>
       </c>
@@ -2661,7 +2663,7 @@
       <c r="L25" s="7">
         <v>23</v>
       </c>
-      <c r="M25" s="16"/>
+      <c r="M25" s="49"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2671,12 +2673,12 @@
       <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="50"/>
       <c r="I26" s="4" t="s">
         <v>62</v>
       </c>
@@ -2686,7 +2688,7 @@
       <c r="L26" s="7">
         <v>24</v>
       </c>
-      <c r="M26" s="16"/>
+      <c r="M26" s="49"/>
       <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2696,12 +2698,12 @@
       <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="50"/>
       <c r="I27" s="4" t="s">
         <v>63</v>
       </c>
@@ -2711,7 +2713,7 @@
       <c r="L27" s="7">
         <v>25</v>
       </c>
-      <c r="M27" s="16"/>
+      <c r="M27" s="49"/>
       <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2721,12 +2723,12 @@
       <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="50"/>
       <c r="I28" s="4" t="s">
         <v>64</v>
       </c>
@@ -2736,7 +2738,7 @@
       <c r="L28" s="7">
         <v>26</v>
       </c>
-      <c r="M28" s="16"/>
+      <c r="M28" s="49"/>
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2746,12 +2748,12 @@
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="50"/>
       <c r="I29" s="4" t="s">
         <v>65</v>
       </c>
@@ -2761,7 +2763,7 @@
       <c r="L29" s="7">
         <v>27</v>
       </c>
-      <c r="M29" s="16"/>
+      <c r="M29" s="49"/>
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2771,12 +2773,12 @@
       <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="50"/>
       <c r="I30" s="4" t="s">
         <v>66</v>
       </c>
@@ -2786,7 +2788,7 @@
       <c r="L30" s="7">
         <v>28</v>
       </c>
-      <c r="M30" s="16"/>
+      <c r="M30" s="49"/>
       <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2796,12 +2798,12 @@
       <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="50"/>
       <c r="I31" s="4" t="s">
         <v>67</v>
       </c>
@@ -2811,7 +2813,7 @@
       <c r="L31" s="7">
         <v>29</v>
       </c>
-      <c r="M31" s="16"/>
+      <c r="M31" s="49"/>
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2821,12 +2823,12 @@
       <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="50"/>
       <c r="I32" s="4" t="s">
         <v>68</v>
       </c>
@@ -2836,7 +2838,7 @@
       <c r="L32" s="7">
         <v>30</v>
       </c>
-      <c r="M32" s="16"/>
+      <c r="M32" s="49"/>
       <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2846,12 +2848,12 @@
       <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="50"/>
       <c r="I33" s="4" t="s">
         <v>69</v>
       </c>
@@ -2861,7 +2863,7 @@
       <c r="L33" s="7">
         <v>31</v>
       </c>
-      <c r="M33" s="16"/>
+      <c r="M33" s="49"/>
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2871,12 +2873,12 @@
       <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="50"/>
       <c r="I34" s="4" t="s">
         <v>70</v>
       </c>
@@ -2886,7 +2888,7 @@
       <c r="L34" s="7">
         <v>32</v>
       </c>
-      <c r="M34" s="16"/>
+      <c r="M34" s="49"/>
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2896,12 +2898,12 @@
       <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="50"/>
       <c r="I35" s="4" t="s">
         <v>71</v>
       </c>
@@ -2911,7 +2913,7 @@
       <c r="L35" s="7">
         <v>33</v>
       </c>
-      <c r="M35" s="16"/>
+      <c r="M35" s="49"/>
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2921,12 +2923,12 @@
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="50"/>
       <c r="I36" s="4" t="s">
         <v>72</v>
       </c>
@@ -2936,7 +2938,7 @@
       <c r="L36" s="7">
         <v>34</v>
       </c>
-      <c r="M36" s="16"/>
+      <c r="M36" s="49"/>
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2946,12 +2948,12 @@
       <c r="B37" s="3">
         <v>35</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="50"/>
       <c r="I37" s="4" t="s">
         <v>73</v>
       </c>
@@ -2961,7 +2963,7 @@
       <c r="L37" s="7">
         <v>35</v>
       </c>
-      <c r="M37" s="16"/>
+      <c r="M37" s="49"/>
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2971,12 +2973,12 @@
       <c r="B38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="18"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="50"/>
       <c r="I38" s="4" t="s">
         <v>74</v>
       </c>
@@ -2986,7 +2988,7 @@
       <c r="L38" s="7">
         <v>36</v>
       </c>
-      <c r="M38" s="16"/>
+      <c r="M38" s="49"/>
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2996,12 +2998,12 @@
       <c r="B39" s="3">
         <v>37</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="18"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="50"/>
       <c r="I39" s="4" t="s">
         <v>75</v>
       </c>
@@ -3011,7 +3013,7 @@
       <c r="L39" s="7">
         <v>37</v>
       </c>
-      <c r="M39" s="16"/>
+      <c r="M39" s="49"/>
       <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -3021,12 +3023,12 @@
       <c r="B40" s="3">
         <v>38</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="18"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="50"/>
       <c r="I40" s="4" t="s">
         <v>76</v>
       </c>
@@ -3036,7 +3038,7 @@
       <c r="L40" s="7">
         <v>38</v>
       </c>
-      <c r="M40" s="16"/>
+      <c r="M40" s="49"/>
       <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -3046,12 +3048,12 @@
       <c r="B41" s="3">
         <v>39</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="50"/>
       <c r="I41" s="4" t="s">
         <v>77</v>
       </c>
@@ -3061,7 +3063,7 @@
       <c r="L41" s="7">
         <v>39</v>
       </c>
-      <c r="M41" s="16"/>
+      <c r="M41" s="49"/>
       <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -3071,12 +3073,12 @@
       <c r="B42" s="3">
         <v>40</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="50"/>
       <c r="I42" s="4" t="s">
         <v>78</v>
       </c>
@@ -3086,7 +3088,7 @@
       <c r="L42" s="7">
         <v>40</v>
       </c>
-      <c r="M42" s="16"/>
+      <c r="M42" s="49"/>
       <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -3096,12 +3098,12 @@
       <c r="B43" s="3">
         <v>41</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="50"/>
       <c r="I43" s="4" t="s">
         <v>79</v>
       </c>
@@ -3111,7 +3113,7 @@
       <c r="L43" s="7">
         <v>41</v>
       </c>
-      <c r="M43" s="16"/>
+      <c r="M43" s="49"/>
       <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -3121,12 +3123,12 @@
       <c r="B44" s="3">
         <v>42</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="50"/>
       <c r="I44" s="4" t="s">
         <v>80</v>
       </c>
@@ -3136,7 +3138,7 @@
       <c r="L44" s="7">
         <v>42</v>
       </c>
-      <c r="M44" s="16"/>
+      <c r="M44" s="49"/>
       <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -3146,12 +3148,12 @@
       <c r="B45" s="3">
         <v>43</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="50"/>
       <c r="I45" s="4" t="s">
         <v>81</v>
       </c>
@@ -3161,7 +3163,7 @@
       <c r="L45" s="7">
         <v>43</v>
       </c>
-      <c r="M45" s="16"/>
+      <c r="M45" s="49"/>
       <c r="N45" s="7"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -3171,12 +3173,12 @@
       <c r="B46" s="3">
         <v>44</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="50"/>
       <c r="I46" s="4" t="s">
         <v>82</v>
       </c>
@@ -3186,7 +3188,7 @@
       <c r="L46" s="7">
         <v>44</v>
       </c>
-      <c r="M46" s="16"/>
+      <c r="M46" s="49"/>
       <c r="N46" s="7" t="s">
         <v>31</v>
       </c>
@@ -3198,12 +3200,12 @@
       <c r="B47" s="3">
         <v>45</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="50"/>
       <c r="I47" s="4" t="s">
         <v>83</v>
       </c>
@@ -3213,7 +3215,7 @@
       <c r="L47" s="7">
         <v>45</v>
       </c>
-      <c r="M47" s="16"/>
+      <c r="M47" s="49"/>
       <c r="N47" s="7"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -3223,12 +3225,12 @@
       <c r="B48" s="3">
         <v>46</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="18"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="50"/>
       <c r="I48" s="4" t="s">
         <v>84</v>
       </c>
@@ -3238,7 +3240,7 @@
       <c r="L48" s="7">
         <v>46</v>
       </c>
-      <c r="M48" s="16"/>
+      <c r="M48" s="49"/>
       <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -3248,12 +3250,12 @@
       <c r="B49" s="3">
         <v>47</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="18"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="50"/>
       <c r="I49" s="4" t="s">
         <v>85</v>
       </c>
@@ -3263,7 +3265,7 @@
       <c r="L49" s="7">
         <v>47</v>
       </c>
-      <c r="M49" s="16"/>
+      <c r="M49" s="49"/>
       <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -3273,12 +3275,12 @@
       <c r="B50" s="3">
         <v>48</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="18"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="50"/>
       <c r="I50" s="4" t="s">
         <v>86</v>
       </c>
@@ -3288,7 +3290,7 @@
       <c r="L50" s="7">
         <v>48</v>
       </c>
-      <c r="M50" s="16"/>
+      <c r="M50" s="49"/>
       <c r="N50" s="7"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -3298,12 +3300,12 @@
       <c r="B51" s="3">
         <v>49</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="50"/>
       <c r="I51" s="4" t="s">
         <v>87</v>
       </c>
@@ -3313,7 +3315,7 @@
       <c r="L51" s="7">
         <v>49</v>
       </c>
-      <c r="M51" s="16"/>
+      <c r="M51" s="49"/>
       <c r="N51" s="7"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -3323,12 +3325,12 @@
       <c r="B52" s="3">
         <v>50</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="18"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="50"/>
       <c r="I52" s="4" t="s">
         <v>88</v>
       </c>
@@ -3338,7 +3340,7 @@
       <c r="L52" s="7">
         <v>50</v>
       </c>
-      <c r="M52" s="16"/>
+      <c r="M52" s="49"/>
       <c r="N52" s="7"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -3348,12 +3350,12 @@
       <c r="B53" s="3">
         <v>51</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="18"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="50"/>
       <c r="I53" s="4" t="s">
         <v>89</v>
       </c>
@@ -3363,7 +3365,7 @@
       <c r="L53" s="7">
         <v>51</v>
       </c>
-      <c r="M53" s="16"/>
+      <c r="M53" s="49"/>
       <c r="N53" s="7"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -3373,12 +3375,12 @@
       <c r="B54" s="3">
         <v>52</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="18"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="50"/>
       <c r="I54" s="4" t="s">
         <v>90</v>
       </c>
@@ -3388,7 +3390,7 @@
       <c r="L54" s="7">
         <v>52</v>
       </c>
-      <c r="M54" s="16"/>
+      <c r="M54" s="49"/>
       <c r="N54" s="7"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -3398,12 +3400,12 @@
       <c r="B55" s="3">
         <v>53</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="18"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="50"/>
       <c r="I55" s="4" t="s">
         <v>91</v>
       </c>
@@ -3413,7 +3415,7 @@
       <c r="L55" s="7">
         <v>53</v>
       </c>
-      <c r="M55" s="16"/>
+      <c r="M55" s="49"/>
       <c r="N55" s="7"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -3423,12 +3425,12 @@
       <c r="B56" s="3">
         <v>54</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="18"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="50"/>
       <c r="I56" s="4" t="s">
         <v>92</v>
       </c>
@@ -3438,7 +3440,7 @@
       <c r="L56" s="7">
         <v>54</v>
       </c>
-      <c r="M56" s="16"/>
+      <c r="M56" s="49"/>
       <c r="N56" s="7"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -3448,12 +3450,12 @@
       <c r="B57" s="3">
         <v>55</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="18"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="50"/>
       <c r="I57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3463,7 +3465,7 @@
       <c r="L57" s="7">
         <v>55</v>
       </c>
-      <c r="M57" s="16"/>
+      <c r="M57" s="49"/>
       <c r="N57" s="7"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3473,12 +3475,12 @@
       <c r="B58" s="3">
         <v>56</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="18"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="50"/>
       <c r="I58" s="4" t="s">
         <v>94</v>
       </c>
@@ -3488,7 +3490,7 @@
       <c r="L58" s="7">
         <v>56</v>
       </c>
-      <c r="M58" s="16"/>
+      <c r="M58" s="49"/>
       <c r="N58" s="7"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3498,12 +3500,12 @@
       <c r="B59" s="3">
         <v>57</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="18"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="50"/>
       <c r="I59" s="4" t="s">
         <v>95</v>
       </c>
@@ -3513,7 +3515,7 @@
       <c r="L59" s="7">
         <v>57</v>
       </c>
-      <c r="M59" s="16"/>
+      <c r="M59" s="49"/>
       <c r="N59" s="7"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -3523,12 +3525,12 @@
       <c r="B60" s="3">
         <v>58</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="18"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="50"/>
       <c r="I60" s="4" t="s">
         <v>96</v>
       </c>
@@ -3538,7 +3540,7 @@
       <c r="L60" s="7">
         <v>58</v>
       </c>
-      <c r="M60" s="16"/>
+      <c r="M60" s="49"/>
       <c r="N60" s="7"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -3548,12 +3550,12 @@
       <c r="B61" s="3">
         <v>59</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="18"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="50"/>
       <c r="I61" s="4" t="s">
         <v>97</v>
       </c>
@@ -3563,7 +3565,7 @@
       <c r="L61" s="7">
         <v>59</v>
       </c>
-      <c r="M61" s="16"/>
+      <c r="M61" s="49"/>
       <c r="N61" s="7"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -3573,12 +3575,12 @@
       <c r="B62" s="3">
         <v>60</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="18"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="50"/>
       <c r="I62" s="4" t="s">
         <v>98</v>
       </c>
@@ -3588,7 +3590,7 @@
       <c r="L62" s="7">
         <v>60</v>
       </c>
-      <c r="M62" s="16"/>
+      <c r="M62" s="49"/>
       <c r="N62" s="7"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -3598,12 +3600,12 @@
       <c r="B63" s="3">
         <v>61</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="18"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="50"/>
       <c r="I63" s="4" t="s">
         <v>99</v>
       </c>
@@ -3613,7 +3615,7 @@
       <c r="L63" s="7">
         <v>61</v>
       </c>
-      <c r="M63" s="16"/>
+      <c r="M63" s="49"/>
       <c r="N63" s="7"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -3623,12 +3625,12 @@
       <c r="B64" s="3">
         <v>62</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="18"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="50"/>
       <c r="I64" s="4" t="s">
         <v>100</v>
       </c>
@@ -3638,7 +3640,7 @@
       <c r="L64" s="7">
         <v>62</v>
       </c>
-      <c r="M64" s="16"/>
+      <c r="M64" s="49"/>
       <c r="N64" s="7"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -3648,12 +3650,12 @@
       <c r="B65" s="3">
         <v>63</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="18"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="50"/>
       <c r="I65" s="4" t="s">
         <v>101</v>
       </c>
@@ -3663,7 +3665,7 @@
       <c r="L65" s="7">
         <v>63</v>
       </c>
-      <c r="M65" s="16"/>
+      <c r="M65" s="49"/>
       <c r="N65" s="7"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -3673,12 +3675,12 @@
       <c r="B66" s="3">
         <v>64</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="18"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="50"/>
       <c r="I66" s="4" t="s">
         <v>102</v>
       </c>
@@ -3688,7 +3690,7 @@
       <c r="L66" s="7">
         <v>64</v>
       </c>
-      <c r="M66" s="16"/>
+      <c r="M66" s="49"/>
       <c r="N66" s="7"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -3698,12 +3700,12 @@
       <c r="B67" s="3">
         <v>65</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="18"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="50"/>
       <c r="I67" s="4" t="s">
         <v>103</v>
       </c>
@@ -3713,7 +3715,7 @@
       <c r="L67" s="7">
         <v>65</v>
       </c>
-      <c r="M67" s="16"/>
+      <c r="M67" s="49"/>
       <c r="N67" s="7"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -3723,12 +3725,12 @@
       <c r="B68" s="3">
         <v>66</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="18"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="50"/>
       <c r="I68" s="4" t="s">
         <v>104</v>
       </c>
@@ -3738,7 +3740,7 @@
       <c r="L68" s="7">
         <v>66</v>
       </c>
-      <c r="M68" s="16"/>
+      <c r="M68" s="49"/>
       <c r="N68" s="7"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -3748,12 +3750,12 @@
       <c r="B69" s="3">
         <v>67</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="18"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="50"/>
       <c r="I69" s="4" t="s">
         <v>105</v>
       </c>
@@ -3763,7 +3765,7 @@
       <c r="L69" s="7">
         <v>67</v>
       </c>
-      <c r="M69" s="16"/>
+      <c r="M69" s="49"/>
       <c r="N69" s="7"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -3773,12 +3775,12 @@
       <c r="B70" s="3">
         <v>68</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="18"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="50"/>
       <c r="I70" s="4" t="s">
         <v>106</v>
       </c>
@@ -3788,7 +3790,7 @@
       <c r="L70" s="7">
         <v>68</v>
       </c>
-      <c r="M70" s="16"/>
+      <c r="M70" s="49"/>
       <c r="N70" s="7"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -3798,12 +3800,12 @@
       <c r="B71" s="3">
         <v>69</v>
       </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="18"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="50"/>
       <c r="I71" s="4" t="s">
         <v>107</v>
       </c>
@@ -3813,7 +3815,7 @@
       <c r="L71" s="7">
         <v>69</v>
       </c>
-      <c r="M71" s="16"/>
+      <c r="M71" s="49"/>
       <c r="N71" s="7"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -3823,12 +3825,12 @@
       <c r="B72" s="3">
         <v>70</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="18"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="50"/>
       <c r="I72" s="4" t="s">
         <v>108</v>
       </c>
@@ -3838,7 +3840,7 @@
       <c r="L72" s="7">
         <v>70</v>
       </c>
-      <c r="M72" s="16"/>
+      <c r="M72" s="49"/>
       <c r="N72" s="7"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -3848,12 +3850,12 @@
       <c r="B73" s="3">
         <v>71</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="18"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="50"/>
       <c r="I73" s="4"/>
       <c r="K73" s="7" t="s">
         <v>29</v>
@@ -3861,7 +3863,7 @@
       <c r="L73" s="7">
         <v>71</v>
       </c>
-      <c r="M73" s="16"/>
+      <c r="M73" s="49"/>
       <c r="N73" s="7"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -3871,12 +3873,12 @@
       <c r="B74" s="3">
         <v>72</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="18"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="50"/>
       <c r="I74" s="4"/>
       <c r="K74" s="7" t="s">
         <v>29</v>
@@ -3884,7 +3886,7 @@
       <c r="L74" s="7">
         <v>72</v>
       </c>
-      <c r="M74" s="16"/>
+      <c r="M74" s="49"/>
       <c r="N74" s="7"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -3894,12 +3896,12 @@
       <c r="B75" s="3">
         <v>73</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="18"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="50"/>
       <c r="I75" s="4"/>
       <c r="K75" s="7" t="s">
         <v>29</v>
@@ -3907,7 +3909,7 @@
       <c r="L75" s="7">
         <v>73</v>
       </c>
-      <c r="M75" s="16"/>
+      <c r="M75" s="49"/>
       <c r="N75" s="7"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -3917,12 +3919,12 @@
       <c r="B76" s="3">
         <v>74</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="18"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="50"/>
       <c r="I76" s="4"/>
       <c r="K76" s="7" t="s">
         <v>29</v>
@@ -3930,7 +3932,7 @@
       <c r="L76" s="7">
         <v>74</v>
       </c>
-      <c r="M76" s="16"/>
+      <c r="M76" s="49"/>
       <c r="N76" s="7"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -3940,12 +3942,12 @@
       <c r="B77" s="3">
         <v>75</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="18"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="50"/>
       <c r="I77" s="4"/>
       <c r="K77" s="7" t="s">
         <v>29</v>
@@ -3953,7 +3955,7 @@
       <c r="L77" s="7">
         <v>75</v>
       </c>
-      <c r="M77" s="16"/>
+      <c r="M77" s="49"/>
       <c r="N77" s="7"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -3963,12 +3965,12 @@
       <c r="B78" s="3">
         <v>76</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="18"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="50"/>
       <c r="I78" s="4"/>
       <c r="K78" s="7" t="s">
         <v>29</v>
@@ -3976,7 +3978,7 @@
       <c r="L78" s="7">
         <v>76</v>
       </c>
-      <c r="M78" s="16"/>
+      <c r="M78" s="49"/>
       <c r="N78" s="7"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -3986,12 +3988,12 @@
       <c r="B79" s="3">
         <v>77</v>
       </c>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="18"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="50"/>
       <c r="I79" s="4"/>
       <c r="K79" s="7" t="s">
         <v>29</v>
@@ -3999,7 +4001,7 @@
       <c r="L79" s="7">
         <v>77</v>
       </c>
-      <c r="M79" s="16"/>
+      <c r="M79" s="49"/>
       <c r="N79" s="7"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -4009,12 +4011,12 @@
       <c r="B80" s="3">
         <v>78</v>
       </c>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="18"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="50"/>
       <c r="I80" s="4"/>
       <c r="K80" s="7" t="s">
         <v>29</v>
@@ -4022,7 +4024,7 @@
       <c r="L80" s="7">
         <v>78</v>
       </c>
-      <c r="M80" s="16"/>
+      <c r="M80" s="49"/>
       <c r="N80" s="7"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -4032,12 +4034,12 @@
       <c r="B81" s="3">
         <v>79</v>
       </c>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="18"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="50"/>
       <c r="I81" s="4"/>
       <c r="K81" s="7" t="s">
         <v>29</v>
@@ -4045,7 +4047,7 @@
       <c r="L81" s="7">
         <v>79</v>
       </c>
-      <c r="M81" s="16"/>
+      <c r="M81" s="49"/>
       <c r="N81" s="7"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -4055,12 +4057,12 @@
       <c r="B82" s="3">
         <v>80</v>
       </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="18"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="50"/>
       <c r="I82" s="4"/>
       <c r="K82" s="7" t="s">
         <v>29</v>
@@ -4068,7 +4070,7 @@
       <c r="L82" s="7">
         <v>80</v>
       </c>
-      <c r="M82" s="16"/>
+      <c r="M82" s="49"/>
       <c r="N82" s="7"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -4078,12 +4080,12 @@
       <c r="B83" s="3">
         <v>81</v>
       </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="18"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="50"/>
       <c r="I83" s="4"/>
       <c r="K83" s="7" t="s">
         <v>29</v>
@@ -4091,7 +4093,7 @@
       <c r="L83" s="7">
         <v>81</v>
       </c>
-      <c r="M83" s="16"/>
+      <c r="M83" s="49"/>
       <c r="N83" s="7"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -4101,12 +4103,12 @@
       <c r="B84" s="3">
         <v>82</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="18"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="50"/>
       <c r="I84" s="4"/>
       <c r="K84" s="7" t="s">
         <v>29</v>
@@ -4114,7 +4116,7 @@
       <c r="L84" s="7">
         <v>82</v>
       </c>
-      <c r="M84" s="16"/>
+      <c r="M84" s="49"/>
       <c r="N84" s="7"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -4124,12 +4126,12 @@
       <c r="B85" s="3">
         <v>83</v>
       </c>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="18"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="50"/>
       <c r="I85" s="4"/>
       <c r="K85" s="7" t="s">
         <v>29</v>
@@ -4137,7 +4139,7 @@
       <c r="L85" s="7">
         <v>83</v>
       </c>
-      <c r="M85" s="16"/>
+      <c r="M85" s="49"/>
       <c r="N85" s="7"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -4147,12 +4149,12 @@
       <c r="B86" s="3">
         <v>84</v>
       </c>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="18"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="50"/>
       <c r="I86" s="4"/>
       <c r="K86" s="7" t="s">
         <v>29</v>
@@ -4160,7 +4162,7 @@
       <c r="L86" s="7">
         <v>84</v>
       </c>
-      <c r="M86" s="16"/>
+      <c r="M86" s="49"/>
       <c r="N86" s="7"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4170,12 +4172,12 @@
       <c r="B87" s="3">
         <v>85</v>
       </c>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="18"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="50"/>
       <c r="I87" s="4"/>
       <c r="K87" s="7" t="s">
         <v>29</v>
@@ -4183,7 +4185,7 @@
       <c r="L87" s="7">
         <v>85</v>
       </c>
-      <c r="M87" s="16"/>
+      <c r="M87" s="49"/>
       <c r="N87" s="7"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -4193,12 +4195,12 @@
       <c r="B88" s="3">
         <v>86</v>
       </c>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="18"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="50"/>
       <c r="I88" s="4"/>
       <c r="K88" s="7" t="s">
         <v>29</v>
@@ -4206,7 +4208,7 @@
       <c r="L88" s="7">
         <v>86</v>
       </c>
-      <c r="M88" s="16"/>
+      <c r="M88" s="49"/>
       <c r="N88" s="7"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -4216,12 +4218,12 @@
       <c r="B89" s="3">
         <v>87</v>
       </c>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="18"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="50"/>
       <c r="I89" s="4"/>
       <c r="K89" s="7" t="s">
         <v>29</v>
@@ -4229,7 +4231,7 @@
       <c r="L89" s="7">
         <v>87</v>
       </c>
-      <c r="M89" s="16"/>
+      <c r="M89" s="49"/>
       <c r="N89" s="7"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -4239,12 +4241,12 @@
       <c r="B90" s="3">
         <v>88</v>
       </c>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="18"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="50"/>
       <c r="I90" s="4"/>
       <c r="K90" s="7" t="s">
         <v>29</v>
@@ -4252,7 +4254,7 @@
       <c r="L90" s="7">
         <v>88</v>
       </c>
-      <c r="M90" s="16"/>
+      <c r="M90" s="49"/>
       <c r="N90" s="7"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -4262,12 +4264,12 @@
       <c r="B91" s="3">
         <v>89</v>
       </c>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="18"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="50"/>
       <c r="I91" s="4"/>
       <c r="K91" s="7" t="s">
         <v>29</v>
@@ -4275,7 +4277,7 @@
       <c r="L91" s="7">
         <v>89</v>
       </c>
-      <c r="M91" s="16"/>
+      <c r="M91" s="49"/>
       <c r="N91" s="7"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -4285,12 +4287,12 @@
       <c r="B92" s="3">
         <v>90</v>
       </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="18"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="50"/>
       <c r="I92" s="4"/>
       <c r="K92" s="7" t="s">
         <v>29</v>
@@ -4298,7 +4300,7 @@
       <c r="L92" s="7">
         <v>90</v>
       </c>
-      <c r="M92" s="16"/>
+      <c r="M92" s="49"/>
       <c r="N92" s="7"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -4308,12 +4310,12 @@
       <c r="B93" s="3">
         <v>91</v>
       </c>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="18"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="50"/>
       <c r="I93" s="4"/>
       <c r="K93" s="7" t="s">
         <v>29</v>
@@ -4321,7 +4323,7 @@
       <c r="L93" s="7">
         <v>91</v>
       </c>
-      <c r="M93" s="16"/>
+      <c r="M93" s="49"/>
       <c r="N93" s="7"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -4331,12 +4333,12 @@
       <c r="B94" s="3">
         <v>92</v>
       </c>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="18"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="50"/>
       <c r="I94" s="4"/>
       <c r="K94" s="7" t="s">
         <v>29</v>
@@ -4344,7 +4346,7 @@
       <c r="L94" s="7">
         <v>92</v>
       </c>
-      <c r="M94" s="16"/>
+      <c r="M94" s="49"/>
       <c r="N94" s="7"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -4354,12 +4356,12 @@
       <c r="B95" s="3">
         <v>93</v>
       </c>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="18"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="50"/>
       <c r="I95" s="4"/>
       <c r="K95" s="7" t="s">
         <v>29</v>
@@ -4367,7 +4369,7 @@
       <c r="L95" s="7">
         <v>93</v>
       </c>
-      <c r="M95" s="16"/>
+      <c r="M95" s="49"/>
       <c r="N95" s="7"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -4377,12 +4379,12 @@
       <c r="B96" s="3">
         <v>94</v>
       </c>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="18"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="50"/>
       <c r="I96" s="4"/>
       <c r="K96" s="7" t="s">
         <v>29</v>
@@ -4390,7 +4392,7 @@
       <c r="L96" s="7">
         <v>94</v>
       </c>
-      <c r="M96" s="16"/>
+      <c r="M96" s="49"/>
       <c r="N96" s="7"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -4400,12 +4402,12 @@
       <c r="B97" s="3">
         <v>95</v>
       </c>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="18"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="50"/>
       <c r="I97" s="4"/>
       <c r="K97" s="7" t="s">
         <v>29</v>
@@ -4413,7 +4415,7 @@
       <c r="L97" s="7">
         <v>95</v>
       </c>
-      <c r="M97" s="16"/>
+      <c r="M97" s="49"/>
       <c r="N97" s="7"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -4423,12 +4425,12 @@
       <c r="B98" s="3">
         <v>96</v>
       </c>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="18"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="50"/>
       <c r="I98" s="4"/>
       <c r="K98" s="7" t="s">
         <v>29</v>
@@ -4436,7 +4438,7 @@
       <c r="L98" s="7">
         <v>96</v>
       </c>
-      <c r="M98" s="16"/>
+      <c r="M98" s="49"/>
       <c r="N98" s="7"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -4446,12 +4448,12 @@
       <c r="B99" s="3">
         <v>97</v>
       </c>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="18"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="50"/>
       <c r="I99" s="4"/>
       <c r="K99" s="7" t="s">
         <v>29</v>
@@ -4459,7 +4461,7 @@
       <c r="L99" s="7">
         <v>97</v>
       </c>
-      <c r="M99" s="16"/>
+      <c r="M99" s="49"/>
       <c r="N99" s="7"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -4469,12 +4471,12 @@
       <c r="B100" s="3">
         <v>98</v>
       </c>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="18"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="50"/>
       <c r="I100" s="4"/>
       <c r="K100" s="7" t="s">
         <v>29</v>
@@ -4482,7 +4484,7 @@
       <c r="L100" s="7">
         <v>98</v>
       </c>
-      <c r="M100" s="16"/>
+      <c r="M100" s="49"/>
       <c r="N100" s="7"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -4492,12 +4494,12 @@
       <c r="B101" s="3">
         <v>99</v>
       </c>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="18"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="50"/>
       <c r="I101" s="4"/>
       <c r="K101" s="7" t="s">
         <v>29</v>
@@ -4505,7 +4507,7 @@
       <c r="L101" s="7">
         <v>99</v>
       </c>
-      <c r="M101" s="16"/>
+      <c r="M101" s="49"/>
       <c r="N101" s="7"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -4515,12 +4517,12 @@
       <c r="B102" s="3">
         <v>100</v>
       </c>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="18"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="50"/>
       <c r="I102" s="4"/>
       <c r="K102" s="7" t="s">
         <v>29</v>
@@ -4528,7 +4530,7 @@
       <c r="L102" s="7">
         <v>100</v>
       </c>
-      <c r="M102" s="16"/>
+      <c r="M102" s="49"/>
       <c r="N102" s="7"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -4538,12 +4540,12 @@
       <c r="B103" s="3">
         <v>101</v>
       </c>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="18"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="50"/>
       <c r="I103" s="4"/>
       <c r="K103" s="7" t="s">
         <v>29</v>
@@ -4551,7 +4553,7 @@
       <c r="L103" s="7">
         <v>101</v>
       </c>
-      <c r="M103" s="16"/>
+      <c r="M103" s="49"/>
       <c r="N103" s="7"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -4561,12 +4563,12 @@
       <c r="B104" s="3">
         <v>102</v>
       </c>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="18"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="50"/>
       <c r="I104" s="4"/>
       <c r="K104" s="7" t="s">
         <v>29</v>
@@ -4574,7 +4576,7 @@
       <c r="L104" s="7">
         <v>102</v>
       </c>
-      <c r="M104" s="16"/>
+      <c r="M104" s="49"/>
       <c r="N104" s="7"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -4584,12 +4586,12 @@
       <c r="B105" s="3">
         <v>103</v>
       </c>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="18"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="50"/>
       <c r="I105" s="4"/>
       <c r="K105" s="7" t="s">
         <v>29</v>
@@ -4597,7 +4599,7 @@
       <c r="L105" s="7">
         <v>103</v>
       </c>
-      <c r="M105" s="16"/>
+      <c r="M105" s="49"/>
       <c r="N105" s="7"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -4607,12 +4609,12 @@
       <c r="B106" s="3">
         <v>104</v>
       </c>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="18"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="50"/>
       <c r="I106" s="4"/>
       <c r="K106" s="7" t="s">
         <v>29</v>
@@ -4620,7 +4622,7 @@
       <c r="L106" s="7">
         <v>104</v>
       </c>
-      <c r="M106" s="16"/>
+      <c r="M106" s="49"/>
       <c r="N106" s="7"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -4630,12 +4632,12 @@
       <c r="B107" s="3">
         <v>105</v>
       </c>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="18"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="50"/>
       <c r="I107" s="4"/>
       <c r="K107" s="7" t="s">
         <v>29</v>
@@ -4643,7 +4645,7 @@
       <c r="L107" s="7">
         <v>105</v>
       </c>
-      <c r="M107" s="16"/>
+      <c r="M107" s="49"/>
       <c r="N107" s="7"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -4653,12 +4655,12 @@
       <c r="B108" s="3">
         <v>106</v>
       </c>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="18"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="50"/>
       <c r="I108" s="4"/>
       <c r="K108" s="7" t="s">
         <v>29</v>
@@ -4666,7 +4668,7 @@
       <c r="L108" s="7">
         <v>106</v>
       </c>
-      <c r="M108" s="16"/>
+      <c r="M108" s="49"/>
       <c r="N108" s="7"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -4676,12 +4678,12 @@
       <c r="B109" s="3">
         <v>107</v>
       </c>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="18"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="50"/>
       <c r="I109" s="4"/>
       <c r="K109" s="7" t="s">
         <v>29</v>
@@ -4689,7 +4691,7 @@
       <c r="L109" s="7">
         <v>107</v>
       </c>
-      <c r="M109" s="16"/>
+      <c r="M109" s="49"/>
       <c r="N109" s="7"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -4699,12 +4701,12 @@
       <c r="B110" s="3">
         <v>108</v>
       </c>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="18"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="50"/>
       <c r="I110" s="4"/>
       <c r="K110" s="7" t="s">
         <v>29</v>
@@ -4712,7 +4714,7 @@
       <c r="L110" s="7">
         <v>108</v>
       </c>
-      <c r="M110" s="16"/>
+      <c r="M110" s="49"/>
       <c r="N110" s="7"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -4722,12 +4724,12 @@
       <c r="B111" s="3">
         <v>109</v>
       </c>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="18"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="33"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="50"/>
       <c r="I111" s="4"/>
       <c r="K111" s="7" t="s">
         <v>29</v>
@@ -4735,7 +4737,7 @@
       <c r="L111" s="7">
         <v>109</v>
       </c>
-      <c r="M111" s="16"/>
+      <c r="M111" s="49"/>
       <c r="N111" s="7"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -4745,12 +4747,12 @@
       <c r="B112" s="3">
         <v>110</v>
       </c>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="18"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="50"/>
       <c r="I112" s="4"/>
       <c r="K112" s="7" t="s">
         <v>29</v>
@@ -4758,7 +4760,7 @@
       <c r="L112" s="7">
         <v>110</v>
       </c>
-      <c r="M112" s="16"/>
+      <c r="M112" s="49"/>
       <c r="N112" s="7"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -4768,12 +4770,12 @@
       <c r="B113" s="3">
         <v>111</v>
       </c>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="18"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="33"/>
+      <c r="G113" s="33"/>
+      <c r="H113" s="50"/>
       <c r="I113" s="4"/>
       <c r="K113" s="7" t="s">
         <v>29</v>
@@ -4781,7 +4783,7 @@
       <c r="L113" s="7">
         <v>111</v>
       </c>
-      <c r="M113" s="16"/>
+      <c r="M113" s="49"/>
       <c r="N113" s="7"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -4791,12 +4793,12 @@
       <c r="B114" s="3">
         <v>112</v>
       </c>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="18"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="50"/>
       <c r="I114" s="4"/>
       <c r="K114" s="7" t="s">
         <v>29</v>
@@ -4804,7 +4806,7 @@
       <c r="L114" s="7">
         <v>112</v>
       </c>
-      <c r="M114" s="16"/>
+      <c r="M114" s="49"/>
       <c r="N114" s="7"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -4814,12 +4816,12 @@
       <c r="B115" s="3">
         <v>113</v>
       </c>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="18"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="50"/>
       <c r="I115" s="4"/>
       <c r="K115" s="7" t="s">
         <v>29</v>
@@ -4827,7 +4829,7 @@
       <c r="L115" s="7">
         <v>113</v>
       </c>
-      <c r="M115" s="16"/>
+      <c r="M115" s="49"/>
       <c r="N115" s="7"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -4837,12 +4839,12 @@
       <c r="B116" s="3">
         <v>114</v>
       </c>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="18"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="50"/>
       <c r="I116" s="4"/>
       <c r="K116" s="7" t="s">
         <v>29</v>
@@ -4850,7 +4852,7 @@
       <c r="L116" s="7">
         <v>114</v>
       </c>
-      <c r="M116" s="16"/>
+      <c r="M116" s="49"/>
       <c r="N116" s="7"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -4860,12 +4862,12 @@
       <c r="B117" s="3">
         <v>115</v>
       </c>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="18"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="50"/>
       <c r="I117" s="4"/>
       <c r="K117" s="7" t="s">
         <v>29</v>
@@ -4873,7 +4875,7 @@
       <c r="L117" s="7">
         <v>115</v>
       </c>
-      <c r="M117" s="16"/>
+      <c r="M117" s="49"/>
       <c r="N117" s="7"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -4883,12 +4885,12 @@
       <c r="B118" s="3">
         <v>116</v>
       </c>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="18"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="50"/>
       <c r="I118" s="4"/>
       <c r="K118" s="7" t="s">
         <v>29</v>
@@ -4896,7 +4898,7 @@
       <c r="L118" s="7">
         <v>116</v>
       </c>
-      <c r="M118" s="16"/>
+      <c r="M118" s="49"/>
       <c r="N118" s="7"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -4906,12 +4908,12 @@
       <c r="B119" s="3">
         <v>117</v>
       </c>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="18"/>
+      <c r="C119" s="33"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="33"/>
+      <c r="H119" s="50"/>
       <c r="I119" s="4"/>
       <c r="K119" s="7" t="s">
         <v>29</v>
@@ -4919,7 +4921,7 @@
       <c r="L119" s="7">
         <v>117</v>
       </c>
-      <c r="M119" s="16"/>
+      <c r="M119" s="49"/>
       <c r="N119" s="7"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -4929,12 +4931,12 @@
       <c r="B120" s="3">
         <v>118</v>
       </c>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="18"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="33"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="50"/>
       <c r="I120" s="4"/>
       <c r="K120" s="7" t="s">
         <v>29</v>
@@ -4942,7 +4944,7 @@
       <c r="L120" s="7">
         <v>118</v>
       </c>
-      <c r="M120" s="16"/>
+      <c r="M120" s="49"/>
       <c r="N120" s="7"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -4952,12 +4954,12 @@
       <c r="B121" s="3">
         <v>119</v>
       </c>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="18"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
+      <c r="H121" s="50"/>
       <c r="I121" s="4"/>
       <c r="K121" s="7" t="s">
         <v>29</v>
@@ -4965,7 +4967,7 @@
       <c r="L121" s="7">
         <v>119</v>
       </c>
-      <c r="M121" s="16"/>
+      <c r="M121" s="49"/>
       <c r="N121" s="7"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -4975,12 +4977,12 @@
       <c r="B122" s="3">
         <v>120</v>
       </c>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="18"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="33"/>
+      <c r="G122" s="33"/>
+      <c r="H122" s="50"/>
       <c r="I122" s="4"/>
       <c r="K122" s="7" t="s">
         <v>29</v>
@@ -4988,7 +4990,7 @@
       <c r="L122" s="7">
         <v>120</v>
       </c>
-      <c r="M122" s="16"/>
+      <c r="M122" s="49"/>
       <c r="N122" s="7"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -4998,12 +5000,12 @@
       <c r="B123" s="3">
         <v>121</v>
       </c>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="18"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="50"/>
       <c r="I123" s="4"/>
       <c r="K123" s="7" t="s">
         <v>29</v>
@@ -5011,7 +5013,7 @@
       <c r="L123" s="7">
         <v>121</v>
       </c>
-      <c r="M123" s="16"/>
+      <c r="M123" s="49"/>
       <c r="N123" s="7"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -5021,12 +5023,12 @@
       <c r="B124" s="3">
         <v>122</v>
       </c>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
-      <c r="H124" s="18"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="50"/>
       <c r="I124" s="4"/>
       <c r="K124" s="7" t="s">
         <v>29</v>
@@ -5034,7 +5036,7 @@
       <c r="L124" s="7">
         <v>122</v>
       </c>
-      <c r="M124" s="16"/>
+      <c r="M124" s="49"/>
       <c r="N124" s="7"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -5044,12 +5046,12 @@
       <c r="B125" s="3">
         <v>123</v>
       </c>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17"/>
-      <c r="H125" s="18"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="50"/>
       <c r="I125" s="4"/>
       <c r="K125" s="7" t="s">
         <v>29</v>
@@ -5057,7 +5059,7 @@
       <c r="L125" s="7">
         <v>123</v>
       </c>
-      <c r="M125" s="16"/>
+      <c r="M125" s="49"/>
       <c r="N125" s="7"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -5067,12 +5069,12 @@
       <c r="B126" s="3">
         <v>124</v>
       </c>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="17"/>
-      <c r="G126" s="17"/>
-      <c r="H126" s="18"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="33"/>
+      <c r="G126" s="33"/>
+      <c r="H126" s="50"/>
       <c r="I126" s="4"/>
       <c r="K126" s="7" t="s">
         <v>29</v>
@@ -5080,7 +5082,7 @@
       <c r="L126" s="7">
         <v>124</v>
       </c>
-      <c r="M126" s="16"/>
+      <c r="M126" s="49"/>
       <c r="N126" s="7"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -5090,12 +5092,12 @@
       <c r="B127" s="3">
         <v>125</v>
       </c>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="17"/>
-      <c r="G127" s="17"/>
-      <c r="H127" s="18"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="33"/>
+      <c r="G127" s="33"/>
+      <c r="H127" s="50"/>
       <c r="I127" s="4"/>
       <c r="K127" s="7" t="s">
         <v>29</v>
@@ -5103,7 +5105,7 @@
       <c r="L127" s="7">
         <v>125</v>
       </c>
-      <c r="M127" s="16"/>
+      <c r="M127" s="49"/>
       <c r="N127" s="7"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -5113,12 +5115,12 @@
       <c r="B128" s="3">
         <v>126</v>
       </c>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="18"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="33"/>
+      <c r="G128" s="33"/>
+      <c r="H128" s="50"/>
       <c r="I128" s="4"/>
       <c r="K128" s="7" t="s">
         <v>29</v>
@@ -5126,7 +5128,7 @@
       <c r="L128" s="7">
         <v>126</v>
       </c>
-      <c r="M128" s="16"/>
+      <c r="M128" s="49"/>
       <c r="N128" s="7"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -5136,12 +5138,12 @@
       <c r="B129" s="3">
         <v>127</v>
       </c>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="17"/>
-      <c r="G129" s="17"/>
-      <c r="H129" s="18"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33"/>
+      <c r="G129" s="33"/>
+      <c r="H129" s="50"/>
       <c r="I129" s="4" t="s">
         <v>12</v>
       </c>
@@ -5151,7 +5153,7 @@
       <c r="L129" s="7">
         <v>127</v>
       </c>
-      <c r="M129" s="16"/>
+      <c r="M129" s="49"/>
       <c r="N129" s="7"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -5161,14 +5163,14 @@
       <c r="B130" s="5">
         <v>128</v>
       </c>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="17"/>
-      <c r="G130" s="19" t="s">
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="33"/>
+      <c r="G130" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H130" s="17"/>
+      <c r="H130" s="33"/>
       <c r="I130" s="6" t="s">
         <v>11</v>
       </c>
@@ -5178,7 +5180,7 @@
       <c r="L130" s="7">
         <v>128</v>
       </c>
-      <c r="M130" s="16"/>
+      <c r="M130" s="49"/>
       <c r="N130" s="7"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -5188,12 +5190,12 @@
       <c r="B131" s="5">
         <v>129</v>
       </c>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="17"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="17"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="33"/>
       <c r="I131" s="6" t="s">
         <v>20</v>
       </c>
@@ -5203,7 +5205,7 @@
       <c r="L131" s="7">
         <v>129</v>
       </c>
-      <c r="M131" s="16"/>
+      <c r="M131" s="49"/>
       <c r="N131" s="7"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -5213,12 +5215,12 @@
       <c r="B132" s="5">
         <v>130</v>
       </c>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="17"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="17"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="33"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="33"/>
       <c r="I132" s="6" t="s">
         <v>17</v>
       </c>
@@ -5228,7 +5230,7 @@
       <c r="L132" s="7">
         <v>130</v>
       </c>
-      <c r="M132" s="16"/>
+      <c r="M132" s="49"/>
       <c r="N132" s="7"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -5238,12 +5240,12 @@
       <c r="B133" s="5">
         <v>131</v>
       </c>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="17"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="17"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="44"/>
+      <c r="H133" s="33"/>
       <c r="I133" s="6" t="s">
         <v>13</v>
       </c>
@@ -5253,7 +5255,7 @@
       <c r="L133" s="7">
         <v>131</v>
       </c>
-      <c r="M133" s="16"/>
+      <c r="M133" s="49"/>
       <c r="N133" s="7"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -5263,12 +5265,12 @@
       <c r="B134" s="5">
         <v>132</v>
       </c>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="17"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="17"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="33"/>
+      <c r="G134" s="44"/>
+      <c r="H134" s="33"/>
       <c r="I134" s="6" t="s">
         <v>14</v>
       </c>
@@ -5278,7 +5280,7 @@
       <c r="L134" s="7">
         <v>132</v>
       </c>
-      <c r="M134" s="16"/>
+      <c r="M134" s="49"/>
       <c r="N134" s="7"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -5288,12 +5290,12 @@
       <c r="B135" s="5">
         <v>133</v>
       </c>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="17"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="17"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="33"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="33"/>
       <c r="I135" s="6" t="s">
         <v>16</v>
       </c>
@@ -5303,7 +5305,7 @@
       <c r="L135" s="7">
         <v>133</v>
       </c>
-      <c r="M135" s="16"/>
+      <c r="M135" s="49"/>
       <c r="N135" s="7"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -5313,12 +5315,12 @@
       <c r="B136" s="5">
         <v>134</v>
       </c>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="17"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="17"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="44"/>
+      <c r="H136" s="33"/>
       <c r="I136" s="6" t="s">
         <v>15</v>
       </c>
@@ -5328,7 +5330,7 @@
       <c r="L136" s="7">
         <v>134</v>
       </c>
-      <c r="M136" s="16"/>
+      <c r="M136" s="49"/>
       <c r="N136" s="7"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -5338,12 +5340,12 @@
       <c r="B137" s="5">
         <v>135</v>
       </c>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="17"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="17"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="44"/>
+      <c r="H137" s="33"/>
       <c r="I137" s="6"/>
       <c r="K137" s="7" t="s">
         <v>29</v>
@@ -5351,7 +5353,7 @@
       <c r="L137" s="7">
         <v>135</v>
       </c>
-      <c r="M137" s="16"/>
+      <c r="M137" s="49"/>
       <c r="N137" s="7"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -5361,12 +5363,12 @@
       <c r="B138" s="5">
         <v>136</v>
       </c>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="17"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="17"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="33"/>
+      <c r="G138" s="44"/>
+      <c r="H138" s="33"/>
       <c r="I138" s="6"/>
       <c r="K138" s="7" t="s">
         <v>29</v>
@@ -5374,7 +5376,7 @@
       <c r="L138" s="7">
         <v>136</v>
       </c>
-      <c r="M138" s="16"/>
+      <c r="M138" s="49"/>
       <c r="N138" s="7"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -5384,12 +5386,12 @@
       <c r="B139" s="5">
         <v>137</v>
       </c>
-      <c r="C139" s="17"/>
-      <c r="D139" s="17"/>
-      <c r="E139" s="17"/>
-      <c r="F139" s="17"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="17"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
+      <c r="F139" s="33"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="33"/>
       <c r="I139" s="6"/>
       <c r="K139" s="7" t="s">
         <v>29</v>
@@ -5397,7 +5399,7 @@
       <c r="L139" s="7">
         <v>137</v>
       </c>
-      <c r="M139" s="16"/>
+      <c r="M139" s="49"/>
       <c r="N139" s="7"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -5407,12 +5409,12 @@
       <c r="B140" s="5">
         <v>138</v>
       </c>
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="17"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="17"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="44"/>
+      <c r="H140" s="33"/>
       <c r="I140" s="6"/>
       <c r="K140" s="7" t="s">
         <v>29</v>
@@ -5420,7 +5422,7 @@
       <c r="L140" s="7">
         <v>138</v>
       </c>
-      <c r="M140" s="16"/>
+      <c r="M140" s="49"/>
       <c r="N140" s="7"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -5430,12 +5432,12 @@
       <c r="B141" s="5">
         <v>139</v>
       </c>
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="17"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="17"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="44"/>
+      <c r="H141" s="33"/>
       <c r="I141" s="6"/>
       <c r="K141" s="7" t="s">
         <v>29</v>
@@ -5443,7 +5445,7 @@
       <c r="L141" s="7">
         <v>139</v>
       </c>
-      <c r="M141" s="16"/>
+      <c r="M141" s="49"/>
       <c r="N141" s="7"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -5453,12 +5455,12 @@
       <c r="B142" s="5">
         <v>140</v>
       </c>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="17"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="17"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="33"/>
+      <c r="G142" s="44"/>
+      <c r="H142" s="33"/>
       <c r="I142" s="6"/>
       <c r="K142" s="7" t="s">
         <v>29</v>
@@ -5466,7 +5468,7 @@
       <c r="L142" s="7">
         <v>140</v>
       </c>
-      <c r="M142" s="16"/>
+      <c r="M142" s="49"/>
       <c r="N142" s="7"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
@@ -5476,12 +5478,12 @@
       <c r="B143" s="5">
         <v>141</v>
       </c>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="17"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="17"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="33"/>
+      <c r="F143" s="33"/>
+      <c r="G143" s="44"/>
+      <c r="H143" s="33"/>
       <c r="I143" s="6"/>
       <c r="K143" s="7" t="s">
         <v>29</v>
@@ -5489,7 +5491,7 @@
       <c r="L143" s="7">
         <v>141</v>
       </c>
-      <c r="M143" s="16"/>
+      <c r="M143" s="49"/>
       <c r="N143" s="7"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -5499,12 +5501,12 @@
       <c r="B144" s="5">
         <v>142</v>
       </c>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="17"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="17"/>
+      <c r="C144" s="33"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="33"/>
+      <c r="F144" s="33"/>
+      <c r="G144" s="44"/>
+      <c r="H144" s="33"/>
       <c r="I144" s="6"/>
       <c r="K144" s="7" t="s">
         <v>29</v>
@@ -5512,7 +5514,7 @@
       <c r="L144" s="7">
         <v>142</v>
       </c>
-      <c r="M144" s="16"/>
+      <c r="M144" s="49"/>
       <c r="N144" s="7"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -5522,12 +5524,12 @@
       <c r="B145" s="5">
         <v>143</v>
       </c>
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="17"/>
-      <c r="F145" s="17"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="17"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="33"/>
+      <c r="F145" s="33"/>
+      <c r="G145" s="44"/>
+      <c r="H145" s="33"/>
       <c r="I145" s="6"/>
       <c r="K145" s="7" t="s">
         <v>29</v>
@@ -5535,7 +5537,7 @@
       <c r="L145" s="7">
         <v>143</v>
       </c>
-      <c r="M145" s="16"/>
+      <c r="M145" s="49"/>
       <c r="N145" s="7"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -5545,12 +5547,12 @@
       <c r="B146" s="5">
         <v>144</v>
       </c>
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="17"/>
-      <c r="F146" s="17"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="17"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="33"/>
+      <c r="G146" s="44"/>
+      <c r="H146" s="33"/>
       <c r="I146" s="6"/>
       <c r="K146" s="7" t="s">
         <v>29</v>
@@ -5558,7 +5560,7 @@
       <c r="L146" s="7">
         <v>144</v>
       </c>
-      <c r="M146" s="16"/>
+      <c r="M146" s="49"/>
       <c r="N146" s="7"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -5568,12 +5570,12 @@
       <c r="B147" s="5">
         <v>145</v>
       </c>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="17"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="17"/>
+      <c r="C147" s="33"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="33"/>
+      <c r="F147" s="33"/>
+      <c r="G147" s="44"/>
+      <c r="H147" s="33"/>
       <c r="I147" s="6"/>
       <c r="K147" s="7" t="s">
         <v>29</v>
@@ -5581,7 +5583,7 @@
       <c r="L147" s="7">
         <v>145</v>
       </c>
-      <c r="M147" s="16"/>
+      <c r="M147" s="49"/>
       <c r="N147" s="7"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -5591,12 +5593,12 @@
       <c r="B148" s="5">
         <v>146</v>
       </c>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="17"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="17"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="33"/>
+      <c r="F148" s="33"/>
+      <c r="G148" s="44"/>
+      <c r="H148" s="33"/>
       <c r="I148" s="6"/>
       <c r="K148" s="7" t="s">
         <v>29</v>
@@ -5604,7 +5606,7 @@
       <c r="L148" s="7">
         <v>146</v>
       </c>
-      <c r="M148" s="16"/>
+      <c r="M148" s="49"/>
       <c r="N148" s="7"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -5614,12 +5616,12 @@
       <c r="B149" s="5">
         <v>147</v>
       </c>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="17"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="17"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="44"/>
+      <c r="H149" s="33"/>
       <c r="I149" s="6"/>
       <c r="K149" s="7" t="s">
         <v>29</v>
@@ -5627,7 +5629,7 @@
       <c r="L149" s="7">
         <v>147</v>
       </c>
-      <c r="M149" s="16"/>
+      <c r="M149" s="49"/>
       <c r="N149" s="7"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -5637,12 +5639,12 @@
       <c r="B150" s="5">
         <v>148</v>
       </c>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="17"/>
-      <c r="F150" s="17"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="17"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="33"/>
+      <c r="F150" s="33"/>
+      <c r="G150" s="44"/>
+      <c r="H150" s="33"/>
       <c r="I150" s="6"/>
       <c r="K150" s="7" t="s">
         <v>29</v>
@@ -5650,7 +5652,7 @@
       <c r="L150" s="7">
         <v>148</v>
       </c>
-      <c r="M150" s="16"/>
+      <c r="M150" s="49"/>
       <c r="N150" s="7"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -5660,12 +5662,12 @@
       <c r="B151" s="5">
         <v>149</v>
       </c>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="17"/>
+      <c r="C151" s="33"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="33"/>
+      <c r="F151" s="33"/>
+      <c r="G151" s="44"/>
+      <c r="H151" s="33"/>
       <c r="I151" s="6"/>
       <c r="K151" s="7" t="s">
         <v>29</v>
@@ -5673,7 +5675,7 @@
       <c r="L151" s="7">
         <v>149</v>
       </c>
-      <c r="M151" s="16"/>
+      <c r="M151" s="49"/>
       <c r="N151" s="7"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -5683,12 +5685,12 @@
       <c r="B152" s="5">
         <v>150</v>
       </c>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="17"/>
-      <c r="F152" s="17"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="17"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
+      <c r="F152" s="33"/>
+      <c r="G152" s="44"/>
+      <c r="H152" s="33"/>
       <c r="I152" s="6"/>
       <c r="K152" s="7" t="s">
         <v>29</v>
@@ -5696,7 +5698,7 @@
       <c r="L152" s="7">
         <v>150</v>
       </c>
-      <c r="M152" s="16"/>
+      <c r="M152" s="49"/>
       <c r="N152" s="7"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -5706,12 +5708,12 @@
       <c r="B153" s="5">
         <v>151</v>
       </c>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="17"/>
-      <c r="F153" s="17"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="17"/>
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="33"/>
+      <c r="G153" s="44"/>
+      <c r="H153" s="33"/>
       <c r="I153" s="6"/>
       <c r="K153" s="7" t="s">
         <v>29</v>
@@ -5719,7 +5721,7 @@
       <c r="L153" s="7">
         <v>151</v>
       </c>
-      <c r="M153" s="16"/>
+      <c r="M153" s="49"/>
       <c r="N153" s="7"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -5729,12 +5731,12 @@
       <c r="B154" s="5">
         <v>152</v>
       </c>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="17"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="17"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="33"/>
+      <c r="F154" s="33"/>
+      <c r="G154" s="44"/>
+      <c r="H154" s="33"/>
       <c r="I154" s="6"/>
       <c r="K154" s="7" t="s">
         <v>29</v>
@@ -5742,7 +5744,7 @@
       <c r="L154" s="7">
         <v>152</v>
       </c>
-      <c r="M154" s="16"/>
+      <c r="M154" s="49"/>
       <c r="N154" s="7"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -5752,12 +5754,12 @@
       <c r="B155" s="5">
         <v>153</v>
       </c>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="17"/>
-      <c r="G155" s="19"/>
-      <c r="H155" s="17"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="33"/>
+      <c r="F155" s="33"/>
+      <c r="G155" s="44"/>
+      <c r="H155" s="33"/>
       <c r="I155" s="6"/>
       <c r="K155" s="7" t="s">
         <v>29</v>
@@ -5765,7 +5767,7 @@
       <c r="L155" s="7">
         <v>153</v>
       </c>
-      <c r="M155" s="16"/>
+      <c r="M155" s="49"/>
       <c r="N155" s="7"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -5775,12 +5777,12 @@
       <c r="B156" s="5">
         <v>154</v>
       </c>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="17"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="17"/>
+      <c r="C156" s="33"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="33"/>
+      <c r="F156" s="33"/>
+      <c r="G156" s="44"/>
+      <c r="H156" s="33"/>
       <c r="I156" s="6"/>
       <c r="K156" s="7" t="s">
         <v>29</v>
@@ -5788,7 +5790,7 @@
       <c r="L156" s="7">
         <v>154</v>
       </c>
-      <c r="M156" s="16"/>
+      <c r="M156" s="49"/>
       <c r="N156" s="7"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -5798,12 +5800,12 @@
       <c r="B157" s="5">
         <v>155</v>
       </c>
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="17"/>
-      <c r="F157" s="17"/>
-      <c r="G157" s="19"/>
-      <c r="H157" s="17"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
+      <c r="G157" s="44"/>
+      <c r="H157" s="33"/>
       <c r="I157" s="6"/>
       <c r="K157" s="7" t="s">
         <v>29</v>
@@ -5811,7 +5813,7 @@
       <c r="L157" s="7">
         <v>155</v>
       </c>
-      <c r="M157" s="16"/>
+      <c r="M157" s="49"/>
       <c r="N157" s="7"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -5821,12 +5823,12 @@
       <c r="B158" s="5">
         <v>156</v>
       </c>
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="17"/>
-      <c r="F158" s="17"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="17"/>
+      <c r="C158" s="33"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="33"/>
+      <c r="F158" s="33"/>
+      <c r="G158" s="44"/>
+      <c r="H158" s="33"/>
       <c r="I158" s="6"/>
       <c r="K158" s="7" t="s">
         <v>29</v>
@@ -5834,7 +5836,7 @@
       <c r="L158" s="7">
         <v>156</v>
       </c>
-      <c r="M158" s="16"/>
+      <c r="M158" s="49"/>
       <c r="N158" s="7"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
@@ -5844,12 +5846,12 @@
       <c r="B159" s="5">
         <v>157</v>
       </c>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="17"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="17"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
+      <c r="F159" s="33"/>
+      <c r="G159" s="44"/>
+      <c r="H159" s="33"/>
       <c r="I159" s="6"/>
       <c r="K159" s="7" t="s">
         <v>29</v>
@@ -5857,7 +5859,7 @@
       <c r="L159" s="7">
         <v>157</v>
       </c>
-      <c r="M159" s="16"/>
+      <c r="M159" s="49"/>
       <c r="N159" s="7"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -5867,12 +5869,12 @@
       <c r="B160" s="5">
         <v>158</v>
       </c>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="17"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="17"/>
+      <c r="C160" s="33"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="33"/>
+      <c r="F160" s="33"/>
+      <c r="G160" s="44"/>
+      <c r="H160" s="33"/>
       <c r="I160" s="6"/>
       <c r="K160" s="7" t="s">
         <v>29</v>
@@ -5880,7 +5882,7 @@
       <c r="L160" s="7">
         <v>158</v>
       </c>
-      <c r="M160" s="16"/>
+      <c r="M160" s="49"/>
       <c r="N160" s="7"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -5890,12 +5892,12 @@
       <c r="B161" s="5">
         <v>159</v>
       </c>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="17"/>
-      <c r="G161" s="19"/>
-      <c r="H161" s="17"/>
+      <c r="C161" s="33"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="33"/>
+      <c r="F161" s="33"/>
+      <c r="G161" s="44"/>
+      <c r="H161" s="33"/>
       <c r="I161" s="6"/>
       <c r="K161" s="7" t="s">
         <v>29</v>
@@ -5903,7 +5905,7 @@
       <c r="L161" s="7">
         <v>159</v>
       </c>
-      <c r="M161" s="16"/>
+      <c r="M161" s="49"/>
       <c r="N161" s="7"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -5913,12 +5915,12 @@
       <c r="B162" s="5">
         <v>160</v>
       </c>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="17"/>
-      <c r="G162" s="19"/>
-      <c r="H162" s="17"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="33"/>
+      <c r="F162" s="33"/>
+      <c r="G162" s="44"/>
+      <c r="H162" s="33"/>
       <c r="I162" s="6"/>
       <c r="K162" s="7" t="s">
         <v>29</v>
@@ -5926,7 +5928,7 @@
       <c r="L162" s="7">
         <v>160</v>
       </c>
-      <c r="M162" s="16"/>
+      <c r="M162" s="49"/>
       <c r="N162" s="7"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -5936,12 +5938,12 @@
       <c r="B163" s="5">
         <v>161</v>
       </c>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="17"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="17"/>
+      <c r="C163" s="33"/>
+      <c r="D163" s="33"/>
+      <c r="E163" s="33"/>
+      <c r="F163" s="33"/>
+      <c r="G163" s="44"/>
+      <c r="H163" s="33"/>
       <c r="I163" s="6"/>
       <c r="K163" s="7" t="s">
         <v>29</v>
@@ -5949,7 +5951,7 @@
       <c r="L163" s="7">
         <v>161</v>
       </c>
-      <c r="M163" s="16"/>
+      <c r="M163" s="49"/>
       <c r="N163" s="7"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -5959,12 +5961,12 @@
       <c r="B164" s="5">
         <v>162</v>
       </c>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="17"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="33"/>
+      <c r="F164" s="33"/>
+      <c r="G164" s="44"/>
+      <c r="H164" s="33"/>
       <c r="I164" s="6"/>
       <c r="K164" s="7" t="s">
         <v>29</v>
@@ -5972,7 +5974,7 @@
       <c r="L164" s="7">
         <v>162</v>
       </c>
-      <c r="M164" s="16"/>
+      <c r="M164" s="49"/>
       <c r="N164" s="7"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -5982,12 +5984,12 @@
       <c r="B165" s="5">
         <v>163</v>
       </c>
-      <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="17"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="17"/>
+      <c r="C165" s="33"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="33"/>
+      <c r="F165" s="33"/>
+      <c r="G165" s="44"/>
+      <c r="H165" s="33"/>
       <c r="I165" s="6"/>
       <c r="K165" s="7" t="s">
         <v>29</v>
@@ -5995,7 +5997,7 @@
       <c r="L165" s="7">
         <v>163</v>
       </c>
-      <c r="M165" s="16"/>
+      <c r="M165" s="49"/>
       <c r="N165" s="7"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -6005,12 +6007,12 @@
       <c r="B166" s="5">
         <v>164</v>
       </c>
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="17"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="17"/>
+      <c r="C166" s="33"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="33"/>
+      <c r="F166" s="33"/>
+      <c r="G166" s="44"/>
+      <c r="H166" s="33"/>
       <c r="I166" s="6"/>
       <c r="K166" s="7" t="s">
         <v>29</v>
@@ -6018,7 +6020,7 @@
       <c r="L166" s="7">
         <v>164</v>
       </c>
-      <c r="M166" s="16"/>
+      <c r="M166" s="49"/>
       <c r="N166" s="7"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -6028,12 +6030,12 @@
       <c r="B167" s="5">
         <v>165</v>
       </c>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="17"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="17"/>
+      <c r="C167" s="33"/>
+      <c r="D167" s="33"/>
+      <c r="E167" s="33"/>
+      <c r="F167" s="33"/>
+      <c r="G167" s="44"/>
+      <c r="H167" s="33"/>
       <c r="I167" s="6"/>
       <c r="K167" s="7" t="s">
         <v>29</v>
@@ -6041,7 +6043,7 @@
       <c r="L167" s="7">
         <v>165</v>
       </c>
-      <c r="M167" s="16"/>
+      <c r="M167" s="49"/>
       <c r="N167" s="7"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -6051,12 +6053,12 @@
       <c r="B168" s="5">
         <v>166</v>
       </c>
-      <c r="C168" s="17"/>
-      <c r="D168" s="17"/>
-      <c r="E168" s="17"/>
-      <c r="F168" s="17"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="17"/>
+      <c r="C168" s="33"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="33"/>
+      <c r="F168" s="33"/>
+      <c r="G168" s="44"/>
+      <c r="H168" s="33"/>
       <c r="I168" s="6"/>
       <c r="K168" s="7" t="s">
         <v>29</v>
@@ -6064,7 +6066,7 @@
       <c r="L168" s="7">
         <v>166</v>
       </c>
-      <c r="M168" s="16"/>
+      <c r="M168" s="49"/>
       <c r="N168" s="7"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -6074,12 +6076,12 @@
       <c r="B169" s="5">
         <v>167</v>
       </c>
-      <c r="C169" s="17"/>
-      <c r="D169" s="17"/>
-      <c r="E169" s="17"/>
-      <c r="F169" s="17"/>
-      <c r="G169" s="19"/>
-      <c r="H169" s="17"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
+      <c r="F169" s="33"/>
+      <c r="G169" s="44"/>
+      <c r="H169" s="33"/>
       <c r="I169" s="6"/>
       <c r="K169" s="7" t="s">
         <v>29</v>
@@ -6087,7 +6089,7 @@
       <c r="L169" s="7">
         <v>167</v>
       </c>
-      <c r="M169" s="16"/>
+      <c r="M169" s="49"/>
       <c r="N169" s="7"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
@@ -6097,12 +6099,12 @@
       <c r="B170" s="5">
         <v>168</v>
       </c>
-      <c r="C170" s="17"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="17"/>
-      <c r="G170" s="19"/>
-      <c r="H170" s="17"/>
+      <c r="C170" s="33"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="33"/>
+      <c r="F170" s="33"/>
+      <c r="G170" s="44"/>
+      <c r="H170" s="33"/>
       <c r="I170" s="6"/>
       <c r="K170" s="7" t="s">
         <v>29</v>
@@ -6110,7 +6112,7 @@
       <c r="L170" s="7">
         <v>168</v>
       </c>
-      <c r="M170" s="16"/>
+      <c r="M170" s="49"/>
       <c r="N170" s="7"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -6120,12 +6122,12 @@
       <c r="B171" s="5">
         <v>169</v>
       </c>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="17"/>
-      <c r="G171" s="19"/>
-      <c r="H171" s="17"/>
+      <c r="C171" s="33"/>
+      <c r="D171" s="33"/>
+      <c r="E171" s="33"/>
+      <c r="F171" s="33"/>
+      <c r="G171" s="44"/>
+      <c r="H171" s="33"/>
       <c r="I171" s="6"/>
       <c r="K171" s="7" t="s">
         <v>29</v>
@@ -6133,7 +6135,7 @@
       <c r="L171" s="7">
         <v>169</v>
       </c>
-      <c r="M171" s="16"/>
+      <c r="M171" s="49"/>
       <c r="N171" s="7"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -6143,12 +6145,12 @@
       <c r="B172" s="5">
         <v>170</v>
       </c>
-      <c r="C172" s="17"/>
-      <c r="D172" s="17"/>
-      <c r="E172" s="17"/>
-      <c r="F172" s="17"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="17"/>
+      <c r="C172" s="33"/>
+      <c r="D172" s="33"/>
+      <c r="E172" s="33"/>
+      <c r="F172" s="33"/>
+      <c r="G172" s="44"/>
+      <c r="H172" s="33"/>
       <c r="I172" s="6"/>
       <c r="K172" s="7" t="s">
         <v>29</v>
@@ -6156,7 +6158,7 @@
       <c r="L172" s="7">
         <v>170</v>
       </c>
-      <c r="M172" s="16"/>
+      <c r="M172" s="49"/>
       <c r="N172" s="7"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -6166,12 +6168,12 @@
       <c r="B173" s="5">
         <v>171</v>
       </c>
-      <c r="C173" s="17"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="17"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="17"/>
+      <c r="C173" s="33"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="33"/>
+      <c r="F173" s="33"/>
+      <c r="G173" s="44"/>
+      <c r="H173" s="33"/>
       <c r="I173" s="6"/>
       <c r="K173" s="7" t="s">
         <v>29</v>
@@ -6179,7 +6181,7 @@
       <c r="L173" s="7">
         <v>171</v>
       </c>
-      <c r="M173" s="16"/>
+      <c r="M173" s="49"/>
       <c r="N173" s="7"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -6189,12 +6191,12 @@
       <c r="B174" s="5">
         <v>172</v>
       </c>
-      <c r="C174" s="17"/>
-      <c r="D174" s="17"/>
-      <c r="E174" s="17"/>
-      <c r="F174" s="17"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="17"/>
+      <c r="C174" s="33"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="33"/>
+      <c r="F174" s="33"/>
+      <c r="G174" s="44"/>
+      <c r="H174" s="33"/>
       <c r="I174" s="6"/>
       <c r="K174" s="7" t="s">
         <v>29</v>
@@ -6202,7 +6204,7 @@
       <c r="L174" s="7">
         <v>172</v>
       </c>
-      <c r="M174" s="16"/>
+      <c r="M174" s="49"/>
       <c r="N174" s="7"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
@@ -6212,12 +6214,12 @@
       <c r="B175" s="5">
         <v>173</v>
       </c>
-      <c r="C175" s="17"/>
-      <c r="D175" s="17"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="17"/>
-      <c r="G175" s="19"/>
-      <c r="H175" s="17"/>
+      <c r="C175" s="33"/>
+      <c r="D175" s="33"/>
+      <c r="E175" s="33"/>
+      <c r="F175" s="33"/>
+      <c r="G175" s="44"/>
+      <c r="H175" s="33"/>
       <c r="I175" s="6"/>
       <c r="K175" s="7" t="s">
         <v>29</v>
@@ -6225,7 +6227,7 @@
       <c r="L175" s="7">
         <v>173</v>
       </c>
-      <c r="M175" s="16"/>
+      <c r="M175" s="49"/>
       <c r="N175" s="7"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
@@ -6235,12 +6237,12 @@
       <c r="B176" s="5">
         <v>174</v>
       </c>
-      <c r="C176" s="17"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="17"/>
-      <c r="G176" s="19"/>
-      <c r="H176" s="17"/>
+      <c r="C176" s="33"/>
+      <c r="D176" s="33"/>
+      <c r="E176" s="33"/>
+      <c r="F176" s="33"/>
+      <c r="G176" s="44"/>
+      <c r="H176" s="33"/>
       <c r="I176" s="6"/>
       <c r="K176" s="7" t="s">
         <v>29</v>
@@ -6248,7 +6250,7 @@
       <c r="L176" s="7">
         <v>174</v>
       </c>
-      <c r="M176" s="16"/>
+      <c r="M176" s="49"/>
       <c r="N176" s="7"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
@@ -6258,12 +6260,12 @@
       <c r="B177" s="5">
         <v>175</v>
       </c>
-      <c r="C177" s="17"/>
-      <c r="D177" s="17"/>
-      <c r="E177" s="17"/>
-      <c r="F177" s="17"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="17"/>
+      <c r="C177" s="33"/>
+      <c r="D177" s="33"/>
+      <c r="E177" s="33"/>
+      <c r="F177" s="33"/>
+      <c r="G177" s="44"/>
+      <c r="H177" s="33"/>
       <c r="I177" s="6"/>
       <c r="K177" s="7" t="s">
         <v>29</v>
@@ -6271,7 +6273,7 @@
       <c r="L177" s="7">
         <v>175</v>
       </c>
-      <c r="M177" s="16"/>
+      <c r="M177" s="49"/>
       <c r="N177" s="7"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -6281,12 +6283,12 @@
       <c r="B178" s="5">
         <v>176</v>
       </c>
-      <c r="C178" s="17"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="17"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="17"/>
+      <c r="C178" s="33"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="33"/>
+      <c r="F178" s="33"/>
+      <c r="G178" s="44"/>
+      <c r="H178" s="33"/>
       <c r="I178" s="6"/>
       <c r="K178" s="7" t="s">
         <v>29</v>
@@ -6294,7 +6296,7 @@
       <c r="L178" s="7">
         <v>176</v>
       </c>
-      <c r="M178" s="16"/>
+      <c r="M178" s="49"/>
       <c r="N178" s="7"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -6304,12 +6306,12 @@
       <c r="B179" s="5">
         <v>177</v>
       </c>
-      <c r="C179" s="17"/>
-      <c r="D179" s="17"/>
-      <c r="E179" s="17"/>
-      <c r="F179" s="17"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="17"/>
+      <c r="C179" s="33"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="33"/>
+      <c r="F179" s="33"/>
+      <c r="G179" s="44"/>
+      <c r="H179" s="33"/>
       <c r="I179" s="6"/>
       <c r="K179" s="7" t="s">
         <v>29</v>
@@ -6317,7 +6319,7 @@
       <c r="L179" s="7">
         <v>177</v>
       </c>
-      <c r="M179" s="16"/>
+      <c r="M179" s="49"/>
       <c r="N179" s="7"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -6327,12 +6329,12 @@
       <c r="B180" s="5">
         <v>178</v>
       </c>
-      <c r="C180" s="17"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="17"/>
-      <c r="F180" s="17"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="17"/>
+      <c r="C180" s="33"/>
+      <c r="D180" s="33"/>
+      <c r="E180" s="33"/>
+      <c r="F180" s="33"/>
+      <c r="G180" s="44"/>
+      <c r="H180" s="33"/>
       <c r="I180" s="6"/>
       <c r="K180" s="7" t="s">
         <v>29</v>
@@ -6340,7 +6342,7 @@
       <c r="L180" s="7">
         <v>178</v>
       </c>
-      <c r="M180" s="16"/>
+      <c r="M180" s="49"/>
       <c r="N180" s="7"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
@@ -6350,12 +6352,12 @@
       <c r="B181" s="5">
         <v>179</v>
       </c>
-      <c r="C181" s="17"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="17"/>
-      <c r="F181" s="17"/>
-      <c r="G181" s="19"/>
-      <c r="H181" s="17"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
+      <c r="F181" s="33"/>
+      <c r="G181" s="44"/>
+      <c r="H181" s="33"/>
       <c r="I181" s="6"/>
       <c r="K181" s="7" t="s">
         <v>29</v>
@@ -6363,7 +6365,7 @@
       <c r="L181" s="7">
         <v>179</v>
       </c>
-      <c r="M181" s="16"/>
+      <c r="M181" s="49"/>
       <c r="N181" s="7"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -6373,12 +6375,12 @@
       <c r="B182" s="5">
         <v>180</v>
       </c>
-      <c r="C182" s="17"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="17"/>
-      <c r="F182" s="17"/>
-      <c r="G182" s="19"/>
-      <c r="H182" s="17"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="33"/>
+      <c r="F182" s="33"/>
+      <c r="G182" s="44"/>
+      <c r="H182" s="33"/>
       <c r="I182" s="6"/>
       <c r="K182" s="7" t="s">
         <v>29</v>
@@ -6386,7 +6388,7 @@
       <c r="L182" s="7">
         <v>180</v>
       </c>
-      <c r="M182" s="16"/>
+      <c r="M182" s="49"/>
       <c r="N182" s="7"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
@@ -6396,12 +6398,12 @@
       <c r="B183" s="5">
         <v>181</v>
       </c>
-      <c r="C183" s="17"/>
-      <c r="D183" s="17"/>
-      <c r="E183" s="17"/>
-      <c r="F183" s="17"/>
-      <c r="G183" s="19"/>
-      <c r="H183" s="17"/>
+      <c r="C183" s="33"/>
+      <c r="D183" s="33"/>
+      <c r="E183" s="33"/>
+      <c r="F183" s="33"/>
+      <c r="G183" s="44"/>
+      <c r="H183" s="33"/>
       <c r="I183" s="6"/>
       <c r="K183" s="7" t="s">
         <v>29</v>
@@ -6409,7 +6411,7 @@
       <c r="L183" s="7">
         <v>181</v>
       </c>
-      <c r="M183" s="16"/>
+      <c r="M183" s="49"/>
       <c r="N183" s="7"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -6419,12 +6421,12 @@
       <c r="B184" s="5">
         <v>182</v>
       </c>
-      <c r="C184" s="17"/>
-      <c r="D184" s="17"/>
-      <c r="E184" s="17"/>
-      <c r="F184" s="17"/>
-      <c r="G184" s="19"/>
-      <c r="H184" s="17"/>
+      <c r="C184" s="33"/>
+      <c r="D184" s="33"/>
+      <c r="E184" s="33"/>
+      <c r="F184" s="33"/>
+      <c r="G184" s="44"/>
+      <c r="H184" s="33"/>
       <c r="I184" s="6"/>
       <c r="K184" s="7" t="s">
         <v>29</v>
@@ -6432,7 +6434,7 @@
       <c r="L184" s="7">
         <v>182</v>
       </c>
-      <c r="M184" s="16"/>
+      <c r="M184" s="49"/>
       <c r="N184" s="7"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -6442,12 +6444,12 @@
       <c r="B185" s="5">
         <v>183</v>
       </c>
-      <c r="C185" s="17"/>
-      <c r="D185" s="17"/>
-      <c r="E185" s="17"/>
-      <c r="F185" s="17"/>
-      <c r="G185" s="19"/>
-      <c r="H185" s="17"/>
+      <c r="C185" s="33"/>
+      <c r="D185" s="33"/>
+      <c r="E185" s="33"/>
+      <c r="F185" s="33"/>
+      <c r="G185" s="44"/>
+      <c r="H185" s="33"/>
       <c r="I185" s="6"/>
       <c r="K185" s="7" t="s">
         <v>29</v>
@@ -6455,7 +6457,7 @@
       <c r="L185" s="7">
         <v>183</v>
       </c>
-      <c r="M185" s="16"/>
+      <c r="M185" s="49"/>
       <c r="N185" s="7"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
@@ -6465,12 +6467,12 @@
       <c r="B186" s="5">
         <v>184</v>
       </c>
-      <c r="C186" s="17"/>
-      <c r="D186" s="17"/>
-      <c r="E186" s="17"/>
-      <c r="F186" s="17"/>
-      <c r="G186" s="19"/>
-      <c r="H186" s="17"/>
+      <c r="C186" s="33"/>
+      <c r="D186" s="33"/>
+      <c r="E186" s="33"/>
+      <c r="F186" s="33"/>
+      <c r="G186" s="44"/>
+      <c r="H186" s="33"/>
       <c r="I186" s="6"/>
       <c r="K186" s="7" t="s">
         <v>29</v>
@@ -6478,7 +6480,7 @@
       <c r="L186" s="7">
         <v>184</v>
       </c>
-      <c r="M186" s="16"/>
+      <c r="M186" s="49"/>
       <c r="N186" s="7"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -6488,12 +6490,12 @@
       <c r="B187" s="5">
         <v>185</v>
       </c>
-      <c r="C187" s="17"/>
-      <c r="D187" s="17"/>
-      <c r="E187" s="17"/>
-      <c r="F187" s="17"/>
-      <c r="G187" s="19"/>
-      <c r="H187" s="17"/>
+      <c r="C187" s="33"/>
+      <c r="D187" s="33"/>
+      <c r="E187" s="33"/>
+      <c r="F187" s="33"/>
+      <c r="G187" s="44"/>
+      <c r="H187" s="33"/>
       <c r="I187" s="6"/>
       <c r="K187" s="7" t="s">
         <v>29</v>
@@ -6501,7 +6503,7 @@
       <c r="L187" s="7">
         <v>185</v>
       </c>
-      <c r="M187" s="16"/>
+      <c r="M187" s="49"/>
       <c r="N187" s="7"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -6511,12 +6513,12 @@
       <c r="B188" s="5">
         <v>186</v>
       </c>
-      <c r="C188" s="17"/>
-      <c r="D188" s="17"/>
-      <c r="E188" s="17"/>
-      <c r="F188" s="17"/>
-      <c r="G188" s="19"/>
-      <c r="H188" s="17"/>
+      <c r="C188" s="33"/>
+      <c r="D188" s="33"/>
+      <c r="E188" s="33"/>
+      <c r="F188" s="33"/>
+      <c r="G188" s="44"/>
+      <c r="H188" s="33"/>
       <c r="I188" s="6"/>
       <c r="K188" s="7" t="s">
         <v>29</v>
@@ -6524,7 +6526,7 @@
       <c r="L188" s="7">
         <v>186</v>
       </c>
-      <c r="M188" s="16"/>
+      <c r="M188" s="49"/>
       <c r="N188" s="7"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -6534,12 +6536,12 @@
       <c r="B189" s="5">
         <v>187</v>
       </c>
-      <c r="C189" s="17"/>
-      <c r="D189" s="17"/>
-      <c r="E189" s="17"/>
-      <c r="F189" s="17"/>
-      <c r="G189" s="19"/>
-      <c r="H189" s="17"/>
+      <c r="C189" s="33"/>
+      <c r="D189" s="33"/>
+      <c r="E189" s="33"/>
+      <c r="F189" s="33"/>
+      <c r="G189" s="44"/>
+      <c r="H189" s="33"/>
       <c r="I189" s="6"/>
       <c r="K189" s="7" t="s">
         <v>29</v>
@@ -6547,7 +6549,7 @@
       <c r="L189" s="7">
         <v>187</v>
       </c>
-      <c r="M189" s="16"/>
+      <c r="M189" s="49"/>
       <c r="N189" s="7"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -6557,12 +6559,12 @@
       <c r="B190" s="5">
         <v>188</v>
       </c>
-      <c r="C190" s="17"/>
-      <c r="D190" s="17"/>
-      <c r="E190" s="17"/>
-      <c r="F190" s="17"/>
-      <c r="G190" s="19"/>
-      <c r="H190" s="17"/>
+      <c r="C190" s="33"/>
+      <c r="D190" s="33"/>
+      <c r="E190" s="33"/>
+      <c r="F190" s="33"/>
+      <c r="G190" s="44"/>
+      <c r="H190" s="33"/>
       <c r="I190" s="6"/>
       <c r="K190" s="7" t="s">
         <v>29</v>
@@ -6570,7 +6572,7 @@
       <c r="L190" s="7">
         <v>188</v>
       </c>
-      <c r="M190" s="16"/>
+      <c r="M190" s="49"/>
       <c r="N190" s="7"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -6580,12 +6582,12 @@
       <c r="B191" s="5">
         <v>189</v>
       </c>
-      <c r="C191" s="17"/>
-      <c r="D191" s="17"/>
-      <c r="E191" s="17"/>
-      <c r="F191" s="17"/>
-      <c r="G191" s="19"/>
-      <c r="H191" s="17"/>
+      <c r="C191" s="33"/>
+      <c r="D191" s="33"/>
+      <c r="E191" s="33"/>
+      <c r="F191" s="33"/>
+      <c r="G191" s="44"/>
+      <c r="H191" s="33"/>
       <c r="I191" s="6"/>
       <c r="K191" s="7" t="s">
         <v>29</v>
@@ -6593,7 +6595,7 @@
       <c r="L191" s="7">
         <v>189</v>
       </c>
-      <c r="M191" s="16"/>
+      <c r="M191" s="49"/>
       <c r="N191" s="7"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
@@ -6603,12 +6605,12 @@
       <c r="B192" s="5">
         <v>190</v>
       </c>
-      <c r="C192" s="17"/>
-      <c r="D192" s="17"/>
-      <c r="E192" s="17"/>
-      <c r="F192" s="17"/>
-      <c r="G192" s="19"/>
-      <c r="H192" s="17"/>
+      <c r="C192" s="33"/>
+      <c r="D192" s="33"/>
+      <c r="E192" s="33"/>
+      <c r="F192" s="33"/>
+      <c r="G192" s="44"/>
+      <c r="H192" s="33"/>
       <c r="I192" s="6" t="s">
         <v>21</v>
       </c>
@@ -6618,7 +6620,7 @@
       <c r="L192" s="7">
         <v>190</v>
       </c>
-      <c r="M192" s="16"/>
+      <c r="M192" s="49"/>
       <c r="N192" s="7"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -6628,12 +6630,12 @@
       <c r="B193" s="5">
         <v>191</v>
       </c>
-      <c r="C193" s="17"/>
-      <c r="D193" s="17"/>
-      <c r="E193" s="17"/>
-      <c r="F193" s="17"/>
-      <c r="G193" s="19"/>
-      <c r="H193" s="17"/>
+      <c r="C193" s="33"/>
+      <c r="D193" s="33"/>
+      <c r="E193" s="33"/>
+      <c r="F193" s="33"/>
+      <c r="G193" s="44"/>
+      <c r="H193" s="33"/>
       <c r="I193" s="6" t="s">
         <v>12</v>
       </c>
@@ -6643,7 +6645,7 @@
       <c r="L193" s="7">
         <v>191</v>
       </c>
-      <c r="M193" s="16"/>
+      <c r="M193" s="49"/>
       <c r="N193" s="7"/>
     </row>
     <row r="194" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6653,16 +6655,16 @@
       <c r="B194" s="8">
         <v>192</v>
       </c>
-      <c r="C194" s="24" t="s">
+      <c r="C194" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D194" s="20" t="s">
+      <c r="D194" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E194" s="17"/>
-      <c r="F194" s="22"/>
-      <c r="G194" s="17"/>
-      <c r="H194" s="17"/>
+      <c r="E194" s="33"/>
+      <c r="F194" s="32"/>
+      <c r="G194" s="33"/>
+      <c r="H194" s="33"/>
       <c r="I194" s="9" t="s">
         <v>18</v>
       </c>
@@ -6672,7 +6674,7 @@
       <c r="L194" s="7">
         <v>192</v>
       </c>
-      <c r="M194" s="16"/>
+      <c r="M194" s="49"/>
       <c r="N194" s="7"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -6682,12 +6684,12 @@
       <c r="B195" s="8">
         <v>193</v>
       </c>
-      <c r="C195" s="25"/>
-      <c r="D195" s="20"/>
-      <c r="E195" s="17"/>
-      <c r="F195" s="22"/>
-      <c r="G195" s="17"/>
-      <c r="H195" s="17"/>
+      <c r="C195" s="46"/>
+      <c r="D195" s="48"/>
+      <c r="E195" s="33"/>
+      <c r="F195" s="32"/>
+      <c r="G195" s="33"/>
+      <c r="H195" s="33"/>
       <c r="I195" s="9" t="s">
         <v>36</v>
       </c>
@@ -6697,7 +6699,7 @@
       <c r="L195" s="7">
         <v>193</v>
       </c>
-      <c r="M195" s="16"/>
+      <c r="M195" s="49"/>
       <c r="N195" s="7"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
@@ -6707,12 +6709,12 @@
       <c r="B196" s="8">
         <v>194</v>
       </c>
-      <c r="C196" s="25"/>
-      <c r="D196" s="20"/>
-      <c r="E196" s="17"/>
-      <c r="F196" s="22"/>
-      <c r="G196" s="17"/>
-      <c r="H196" s="17"/>
+      <c r="C196" s="46"/>
+      <c r="D196" s="48"/>
+      <c r="E196" s="33"/>
+      <c r="F196" s="32"/>
+      <c r="G196" s="33"/>
+      <c r="H196" s="33"/>
       <c r="I196" s="9" t="s">
         <v>41</v>
       </c>
@@ -6722,7 +6724,7 @@
       <c r="L196" s="7">
         <v>194</v>
       </c>
-      <c r="M196" s="16"/>
+      <c r="M196" s="49"/>
       <c r="N196" s="7"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -6732,12 +6734,12 @@
       <c r="B197" s="8">
         <v>195</v>
       </c>
-      <c r="C197" s="26"/>
-      <c r="D197" s="20"/>
-      <c r="E197" s="17"/>
-      <c r="F197" s="22"/>
-      <c r="G197" s="17"/>
-      <c r="H197" s="17"/>
+      <c r="C197" s="47"/>
+      <c r="D197" s="48"/>
+      <c r="E197" s="33"/>
+      <c r="F197" s="32"/>
+      <c r="G197" s="33"/>
+      <c r="H197" s="33"/>
       <c r="I197" s="9" t="s">
         <v>12</v>
       </c>
@@ -6747,7 +6749,7 @@
       <c r="L197" s="7">
         <v>195</v>
       </c>
-      <c r="M197" s="16"/>
+      <c r="M197" s="49"/>
       <c r="N197" s="7"/>
     </row>
     <row r="198" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6757,14 +6759,14 @@
       <c r="B198" s="10">
         <v>196</v>
       </c>
-      <c r="C198" s="27" t="s">
+      <c r="C198" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D198" s="20"/>
-      <c r="E198" s="17"/>
-      <c r="F198" s="22"/>
-      <c r="G198" s="17"/>
-      <c r="H198" s="17"/>
+      <c r="D198" s="48"/>
+      <c r="E198" s="33"/>
+      <c r="F198" s="32"/>
+      <c r="G198" s="33"/>
+      <c r="H198" s="33"/>
       <c r="I198" s="11" t="s">
         <v>18</v>
       </c>
@@ -6774,7 +6776,7 @@
       <c r="L198" s="7">
         <v>196</v>
       </c>
-      <c r="M198" s="16"/>
+      <c r="M198" s="49"/>
       <c r="N198" s="7"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -6784,12 +6786,12 @@
       <c r="B199" s="10">
         <v>197</v>
       </c>
-      <c r="C199" s="28"/>
-      <c r="D199" s="20"/>
-      <c r="E199" s="17"/>
-      <c r="F199" s="22"/>
-      <c r="G199" s="17"/>
-      <c r="H199" s="17"/>
+      <c r="C199" s="35"/>
+      <c r="D199" s="48"/>
+      <c r="E199" s="33"/>
+      <c r="F199" s="32"/>
+      <c r="G199" s="33"/>
+      <c r="H199" s="33"/>
       <c r="I199" s="11" t="s">
         <v>39</v>
       </c>
@@ -6799,7 +6801,7 @@
       <c r="L199" s="7">
         <v>197</v>
       </c>
-      <c r="M199" s="16"/>
+      <c r="M199" s="49"/>
       <c r="N199" s="7"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -6809,12 +6811,12 @@
       <c r="B200" s="10">
         <v>198</v>
       </c>
-      <c r="C200" s="28"/>
-      <c r="D200" s="20"/>
-      <c r="E200" s="17"/>
-      <c r="F200" s="22"/>
-      <c r="G200" s="17"/>
-      <c r="H200" s="17"/>
+      <c r="C200" s="35"/>
+      <c r="D200" s="48"/>
+      <c r="E200" s="33"/>
+      <c r="F200" s="32"/>
+      <c r="G200" s="33"/>
+      <c r="H200" s="33"/>
       <c r="I200" s="11" t="s">
         <v>37</v>
       </c>
@@ -6824,7 +6826,7 @@
       <c r="L200" s="7">
         <v>198</v>
       </c>
-      <c r="M200" s="16"/>
+      <c r="M200" s="49"/>
       <c r="N200" s="7"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -6834,12 +6836,12 @@
       <c r="B201" s="10">
         <v>199</v>
       </c>
-      <c r="C201" s="29"/>
-      <c r="D201" s="20"/>
-      <c r="E201" s="17"/>
-      <c r="F201" s="22"/>
-      <c r="G201" s="17"/>
-      <c r="H201" s="17"/>
+      <c r="C201" s="36"/>
+      <c r="D201" s="48"/>
+      <c r="E201" s="33"/>
+      <c r="F201" s="32"/>
+      <c r="G201" s="33"/>
+      <c r="H201" s="33"/>
       <c r="I201" s="11" t="s">
         <v>12</v>
       </c>
@@ -6849,25 +6851,25 @@
       <c r="L201" s="7">
         <v>199</v>
       </c>
-      <c r="M201" s="16"/>
+      <c r="M201" s="49"/>
       <c r="N201" s="7"/>
     </row>
     <row r="202" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B202" s="30">
+      <c r="A202" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" s="18">
         <v>200</v>
       </c>
-      <c r="C202" s="31" t="s">
+      <c r="C202" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D202" s="17"/>
-      <c r="E202" s="17"/>
-      <c r="F202" s="22"/>
-      <c r="G202" s="17"/>
-      <c r="H202" s="17"/>
-      <c r="I202" s="34" t="s">
+      <c r="D202" s="33"/>
+      <c r="E202" s="33"/>
+      <c r="F202" s="32"/>
+      <c r="G202" s="33"/>
+      <c r="H202" s="33"/>
+      <c r="I202" s="19" t="s">
         <v>118</v>
       </c>
       <c r="K202" s="7" t="s">
@@ -6876,23 +6878,23 @@
       <c r="L202" s="7">
         <v>200</v>
       </c>
-      <c r="M202" s="16"/>
+      <c r="M202" s="49"/>
       <c r="N202" s="7"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A203" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B203" s="30">
+      <c r="A203" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" s="18">
         <v>201</v>
       </c>
-      <c r="C203" s="32"/>
-      <c r="D203" s="17"/>
-      <c r="E203" s="17"/>
-      <c r="F203" s="22"/>
-      <c r="G203" s="17"/>
-      <c r="H203" s="17"/>
-      <c r="I203" s="34" t="s">
+      <c r="C203" s="38"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
+      <c r="F203" s="32"/>
+      <c r="G203" s="33"/>
+      <c r="H203" s="33"/>
+      <c r="I203" s="19" t="s">
         <v>40</v>
       </c>
       <c r="K203" s="7" t="s">
@@ -6901,23 +6903,23 @@
       <c r="L203" s="7">
         <v>201</v>
       </c>
-      <c r="M203" s="16"/>
+      <c r="M203" s="49"/>
       <c r="N203" s="7"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A204" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B204" s="30">
+      <c r="A204" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B204" s="18">
         <v>202</v>
       </c>
-      <c r="C204" s="32"/>
-      <c r="D204" s="17"/>
-      <c r="E204" s="17"/>
-      <c r="F204" s="22"/>
-      <c r="G204" s="17"/>
-      <c r="H204" s="17"/>
-      <c r="I204" s="34" t="s">
+      <c r="C204" s="38"/>
+      <c r="D204" s="33"/>
+      <c r="E204" s="33"/>
+      <c r="F204" s="32"/>
+      <c r="G204" s="33"/>
+      <c r="H204" s="33"/>
+      <c r="I204" s="19" t="s">
         <v>37</v>
       </c>
       <c r="K204" s="7" t="s">
@@ -6926,23 +6928,23 @@
       <c r="L204" s="7">
         <v>202</v>
       </c>
-      <c r="M204" s="16"/>
+      <c r="M204" s="49"/>
       <c r="N204" s="7"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A205" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B205" s="30">
+      <c r="A205" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B205" s="18">
         <v>203</v>
       </c>
-      <c r="C205" s="33"/>
-      <c r="D205" s="17"/>
-      <c r="E205" s="17"/>
-      <c r="F205" s="22"/>
-      <c r="G205" s="17"/>
-      <c r="H205" s="17"/>
-      <c r="I205" s="34" t="s">
+      <c r="C205" s="39"/>
+      <c r="D205" s="33"/>
+      <c r="E205" s="33"/>
+      <c r="F205" s="32"/>
+      <c r="G205" s="33"/>
+      <c r="H205" s="33"/>
+      <c r="I205" s="19" t="s">
         <v>12</v>
       </c>
       <c r="K205" s="7" t="s">
@@ -6951,7 +6953,7 @@
       <c r="L205" s="7">
         <v>203</v>
       </c>
-      <c r="M205" s="16"/>
+      <c r="M205" s="49"/>
       <c r="N205" s="7"/>
     </row>
     <row r="206" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6961,14 +6963,14 @@
       <c r="B206" s="12">
         <v>204</v>
       </c>
-      <c r="C206" s="35" t="s">
+      <c r="C206" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D206" s="17"/>
-      <c r="E206" s="17"/>
-      <c r="F206" s="22"/>
-      <c r="G206" s="17"/>
-      <c r="H206" s="17"/>
+      <c r="D206" s="33"/>
+      <c r="E206" s="33"/>
+      <c r="F206" s="32"/>
+      <c r="G206" s="33"/>
+      <c r="H206" s="33"/>
       <c r="I206" s="13" t="s">
         <v>18</v>
       </c>
@@ -6978,7 +6980,7 @@
       <c r="L206" s="7">
         <v>204</v>
       </c>
-      <c r="M206" s="16"/>
+      <c r="M206" s="49"/>
       <c r="N206" s="7"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -6988,12 +6990,12 @@
       <c r="B207" s="12">
         <v>205</v>
       </c>
-      <c r="C207" s="36"/>
-      <c r="D207" s="17"/>
-      <c r="E207" s="17"/>
-      <c r="F207" s="22"/>
-      <c r="G207" s="17"/>
-      <c r="H207" s="17"/>
+      <c r="C207" s="41"/>
+      <c r="D207" s="33"/>
+      <c r="E207" s="33"/>
+      <c r="F207" s="32"/>
+      <c r="G207" s="33"/>
+      <c r="H207" s="33"/>
       <c r="I207" s="13" t="s">
         <v>40</v>
       </c>
@@ -7003,7 +7005,7 @@
       <c r="L207" s="7">
         <v>205</v>
       </c>
-      <c r="M207" s="16"/>
+      <c r="M207" s="49"/>
       <c r="N207" s="7"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -7013,12 +7015,12 @@
       <c r="B208" s="12">
         <v>206</v>
       </c>
-      <c r="C208" s="36"/>
-      <c r="D208" s="17"/>
-      <c r="E208" s="17"/>
-      <c r="F208" s="22"/>
-      <c r="G208" s="17"/>
-      <c r="H208" s="17"/>
+      <c r="C208" s="41"/>
+      <c r="D208" s="33"/>
+      <c r="E208" s="33"/>
+      <c r="F208" s="32"/>
+      <c r="G208" s="33"/>
+      <c r="H208" s="33"/>
       <c r="I208" s="13" t="s">
         <v>41</v>
       </c>
@@ -7028,7 +7030,7 @@
       <c r="L208" s="7">
         <v>206</v>
       </c>
-      <c r="M208" s="16"/>
+      <c r="M208" s="49"/>
       <c r="N208" s="7"/>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
@@ -7038,12 +7040,12 @@
       <c r="B209" s="12">
         <v>207</v>
       </c>
-      <c r="C209" s="37"/>
-      <c r="D209" s="17"/>
-      <c r="E209" s="17"/>
-      <c r="F209" s="22"/>
-      <c r="G209" s="17"/>
-      <c r="H209" s="17"/>
+      <c r="C209" s="42"/>
+      <c r="D209" s="33"/>
+      <c r="E209" s="33"/>
+      <c r="F209" s="32"/>
+      <c r="G209" s="33"/>
+      <c r="H209" s="33"/>
       <c r="I209" s="13" t="s">
         <v>12</v>
       </c>
@@ -7053,746 +7055,746 @@
       <c r="L209" s="7">
         <v>207</v>
       </c>
-      <c r="M209" s="16"/>
+      <c r="M209" s="49"/>
       <c r="N209" s="7"/>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A210" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B210" s="21">
+      <c r="A210" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B210" s="16">
         <v>208</v>
       </c>
-      <c r="C210" s="17"/>
-      <c r="D210" s="17"/>
-      <c r="E210" s="17"/>
-      <c r="F210" s="22"/>
-      <c r="G210" s="17"/>
-      <c r="H210" s="17"/>
-      <c r="I210" s="23"/>
+      <c r="C210" s="33"/>
+      <c r="D210" s="33"/>
+      <c r="E210" s="33"/>
+      <c r="F210" s="32"/>
+      <c r="G210" s="33"/>
+      <c r="H210" s="33"/>
+      <c r="I210" s="17"/>
       <c r="K210" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L210" s="7">
         <v>208</v>
       </c>
-      <c r="M210" s="16"/>
+      <c r="M210" s="49"/>
       <c r="N210" s="7"/>
       <c r="R210" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A211" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B211" s="21">
+      <c r="A211" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B211" s="16">
         <v>209</v>
       </c>
-      <c r="C211" s="17"/>
-      <c r="D211" s="17"/>
-      <c r="E211" s="17"/>
-      <c r="F211" s="22"/>
-      <c r="G211" s="17"/>
-      <c r="H211" s="17"/>
-      <c r="I211" s="23"/>
+      <c r="C211" s="33"/>
+      <c r="D211" s="33"/>
+      <c r="E211" s="33"/>
+      <c r="F211" s="32"/>
+      <c r="G211" s="33"/>
+      <c r="H211" s="33"/>
+      <c r="I211" s="17"/>
       <c r="K211" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L211" s="7">
         <v>209</v>
       </c>
-      <c r="M211" s="16"/>
+      <c r="M211" s="49"/>
       <c r="N211" s="7"/>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A212" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B212" s="21">
+      <c r="A212" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B212" s="16">
         <v>210</v>
       </c>
-      <c r="C212" s="17"/>
-      <c r="D212" s="17"/>
-      <c r="E212" s="17"/>
-      <c r="F212" s="22"/>
-      <c r="G212" s="17"/>
-      <c r="H212" s="17"/>
-      <c r="I212" s="23"/>
+      <c r="C212" s="33"/>
+      <c r="D212" s="33"/>
+      <c r="E212" s="33"/>
+      <c r="F212" s="32"/>
+      <c r="G212" s="33"/>
+      <c r="H212" s="33"/>
+      <c r="I212" s="17"/>
       <c r="K212" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L212" s="7">
         <v>210</v>
       </c>
-      <c r="M212" s="16"/>
+      <c r="M212" s="49"/>
       <c r="N212" s="7"/>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A213" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B213" s="21">
+      <c r="A213" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B213" s="16">
         <v>211</v>
       </c>
-      <c r="C213" s="17"/>
-      <c r="D213" s="17"/>
-      <c r="E213" s="17"/>
-      <c r="F213" s="22"/>
-      <c r="G213" s="17"/>
-      <c r="H213" s="17"/>
-      <c r="I213" s="23"/>
+      <c r="C213" s="33"/>
+      <c r="D213" s="33"/>
+      <c r="E213" s="33"/>
+      <c r="F213" s="32"/>
+      <c r="G213" s="33"/>
+      <c r="H213" s="33"/>
+      <c r="I213" s="17"/>
       <c r="K213" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L213" s="7">
         <v>211</v>
       </c>
-      <c r="M213" s="16"/>
+      <c r="M213" s="49"/>
       <c r="N213" s="7"/>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A214" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B214" s="21">
+      <c r="A214" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B214" s="16">
         <v>212</v>
       </c>
-      <c r="C214" s="17"/>
-      <c r="D214" s="17"/>
-      <c r="E214" s="17"/>
-      <c r="F214" s="22"/>
-      <c r="G214" s="17"/>
-      <c r="H214" s="17"/>
-      <c r="I214" s="23"/>
+      <c r="C214" s="33"/>
+      <c r="D214" s="33"/>
+      <c r="E214" s="33"/>
+      <c r="F214" s="32"/>
+      <c r="G214" s="33"/>
+      <c r="H214" s="33"/>
+      <c r="I214" s="17"/>
       <c r="K214" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L214" s="7">
         <v>212</v>
       </c>
-      <c r="M214" s="16"/>
+      <c r="M214" s="49"/>
       <c r="N214" s="7"/>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A215" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B215" s="21">
+      <c r="A215" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B215" s="16">
         <v>213</v>
       </c>
-      <c r="C215" s="17"/>
-      <c r="D215" s="17"/>
-      <c r="E215" s="17"/>
-      <c r="F215" s="22"/>
-      <c r="G215" s="17"/>
-      <c r="H215" s="17"/>
-      <c r="I215" s="23"/>
+      <c r="C215" s="33"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
+      <c r="F215" s="32"/>
+      <c r="G215" s="33"/>
+      <c r="H215" s="33"/>
+      <c r="I215" s="17"/>
       <c r="K215" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L215" s="7">
         <v>213</v>
       </c>
-      <c r="M215" s="16"/>
+      <c r="M215" s="49"/>
       <c r="N215" s="7"/>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A216" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B216" s="21">
+      <c r="A216" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B216" s="16">
         <v>214</v>
       </c>
-      <c r="C216" s="17"/>
-      <c r="D216" s="17"/>
-      <c r="E216" s="17"/>
-      <c r="F216" s="22"/>
-      <c r="G216" s="17"/>
-      <c r="H216" s="17"/>
-      <c r="I216" s="23"/>
+      <c r="C216" s="33"/>
+      <c r="D216" s="33"/>
+      <c r="E216" s="33"/>
+      <c r="F216" s="32"/>
+      <c r="G216" s="33"/>
+      <c r="H216" s="33"/>
+      <c r="I216" s="17"/>
       <c r="K216" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L216" s="7">
         <v>214</v>
       </c>
-      <c r="M216" s="16"/>
+      <c r="M216" s="49"/>
       <c r="N216" s="7"/>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A217" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B217" s="21">
+      <c r="A217" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B217" s="16">
         <v>215</v>
       </c>
-      <c r="C217" s="17"/>
-      <c r="D217" s="17"/>
-      <c r="E217" s="17"/>
-      <c r="F217" s="22"/>
-      <c r="G217" s="17"/>
-      <c r="H217" s="17"/>
-      <c r="I217" s="23"/>
+      <c r="C217" s="33"/>
+      <c r="D217" s="33"/>
+      <c r="E217" s="33"/>
+      <c r="F217" s="32"/>
+      <c r="G217" s="33"/>
+      <c r="H217" s="33"/>
+      <c r="I217" s="17"/>
       <c r="K217" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L217" s="7">
         <v>215</v>
       </c>
-      <c r="M217" s="16"/>
+      <c r="M217" s="49"/>
       <c r="N217" s="7"/>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A218" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B218" s="21">
+      <c r="A218" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B218" s="16">
         <v>216</v>
       </c>
-      <c r="C218" s="17"/>
-      <c r="D218" s="17"/>
-      <c r="E218" s="17"/>
-      <c r="F218" s="22"/>
-      <c r="G218" s="17"/>
-      <c r="H218" s="17"/>
-      <c r="I218" s="23"/>
+      <c r="C218" s="33"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="33"/>
+      <c r="F218" s="32"/>
+      <c r="G218" s="33"/>
+      <c r="H218" s="33"/>
+      <c r="I218" s="17"/>
       <c r="K218" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L218" s="7">
         <v>216</v>
       </c>
-      <c r="M218" s="16"/>
+      <c r="M218" s="49"/>
       <c r="N218" s="7"/>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A219" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B219" s="21">
+      <c r="A219" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B219" s="16">
         <v>217</v>
       </c>
-      <c r="C219" s="17"/>
-      <c r="D219" s="17"/>
-      <c r="E219" s="17"/>
-      <c r="F219" s="22"/>
-      <c r="G219" s="17"/>
-      <c r="H219" s="17"/>
-      <c r="I219" s="23"/>
+      <c r="C219" s="33"/>
+      <c r="D219" s="33"/>
+      <c r="E219" s="33"/>
+      <c r="F219" s="32"/>
+      <c r="G219" s="33"/>
+      <c r="H219" s="33"/>
+      <c r="I219" s="17"/>
       <c r="K219" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L219" s="7">
         <v>217</v>
       </c>
-      <c r="M219" s="16"/>
+      <c r="M219" s="49"/>
       <c r="N219" s="7"/>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A220" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B220" s="21">
+      <c r="A220" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B220" s="16">
         <v>218</v>
       </c>
-      <c r="C220" s="17"/>
-      <c r="D220" s="17"/>
-      <c r="E220" s="17"/>
-      <c r="F220" s="22"/>
-      <c r="G220" s="17"/>
-      <c r="H220" s="17"/>
-      <c r="I220" s="23"/>
+      <c r="C220" s="33"/>
+      <c r="D220" s="33"/>
+      <c r="E220" s="33"/>
+      <c r="F220" s="32"/>
+      <c r="G220" s="33"/>
+      <c r="H220" s="33"/>
+      <c r="I220" s="17"/>
       <c r="K220" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L220" s="7">
         <v>218</v>
       </c>
-      <c r="M220" s="16"/>
+      <c r="M220" s="49"/>
       <c r="N220" s="7"/>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A221" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B221" s="21">
+      <c r="A221" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B221" s="16">
         <v>219</v>
       </c>
-      <c r="C221" s="17"/>
-      <c r="D221" s="17"/>
-      <c r="E221" s="17"/>
-      <c r="F221" s="22"/>
-      <c r="G221" s="17"/>
-      <c r="H221" s="17"/>
-      <c r="I221" s="23"/>
+      <c r="C221" s="33"/>
+      <c r="D221" s="33"/>
+      <c r="E221" s="33"/>
+      <c r="F221" s="32"/>
+      <c r="G221" s="33"/>
+      <c r="H221" s="33"/>
+      <c r="I221" s="17"/>
       <c r="K221" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L221" s="7">
         <v>219</v>
       </c>
-      <c r="M221" s="16"/>
+      <c r="M221" s="49"/>
       <c r="N221" s="7"/>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A222" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B222" s="21">
+      <c r="A222" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B222" s="16">
         <v>220</v>
       </c>
-      <c r="C222" s="17"/>
-      <c r="D222" s="17"/>
-      <c r="E222" s="17"/>
-      <c r="F222" s="22"/>
-      <c r="G222" s="17"/>
-      <c r="H222" s="17"/>
-      <c r="I222" s="23"/>
+      <c r="C222" s="33"/>
+      <c r="D222" s="33"/>
+      <c r="E222" s="33"/>
+      <c r="F222" s="32"/>
+      <c r="G222" s="33"/>
+      <c r="H222" s="33"/>
+      <c r="I222" s="17"/>
       <c r="K222" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L222" s="7">
         <v>220</v>
       </c>
-      <c r="M222" s="16"/>
+      <c r="M222" s="49"/>
       <c r="N222" s="7"/>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A223" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B223" s="21">
+      <c r="A223" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223" s="16">
         <v>221</v>
       </c>
-      <c r="C223" s="17"/>
-      <c r="D223" s="17"/>
-      <c r="E223" s="17"/>
-      <c r="F223" s="22"/>
-      <c r="G223" s="17"/>
-      <c r="H223" s="17"/>
-      <c r="I223" s="23"/>
+      <c r="C223" s="33"/>
+      <c r="D223" s="33"/>
+      <c r="E223" s="33"/>
+      <c r="F223" s="32"/>
+      <c r="G223" s="33"/>
+      <c r="H223" s="33"/>
+      <c r="I223" s="17"/>
       <c r="K223" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L223" s="7">
         <v>221</v>
       </c>
-      <c r="M223" s="16"/>
+      <c r="M223" s="49"/>
       <c r="N223" s="7"/>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A224" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B224" s="21">
+      <c r="A224" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B224" s="16">
         <v>222</v>
       </c>
-      <c r="C224" s="17"/>
-      <c r="D224" s="17"/>
-      <c r="E224" s="17"/>
-      <c r="F224" s="22"/>
-      <c r="G224" s="17"/>
-      <c r="H224" s="17"/>
-      <c r="I224" s="23"/>
+      <c r="C224" s="33"/>
+      <c r="D224" s="33"/>
+      <c r="E224" s="33"/>
+      <c r="F224" s="32"/>
+      <c r="G224" s="33"/>
+      <c r="H224" s="33"/>
+      <c r="I224" s="17"/>
       <c r="K224" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L224" s="7">
         <v>222</v>
       </c>
-      <c r="M224" s="16"/>
+      <c r="M224" s="49"/>
       <c r="N224" s="7"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A225" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B225" s="21">
+      <c r="A225" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B225" s="16">
         <v>223</v>
       </c>
-      <c r="C225" s="17"/>
-      <c r="D225" s="17"/>
-      <c r="E225" s="17"/>
-      <c r="F225" s="22"/>
-      <c r="G225" s="17"/>
-      <c r="H225" s="17"/>
-      <c r="I225" s="23"/>
+      <c r="C225" s="33"/>
+      <c r="D225" s="33"/>
+      <c r="E225" s="33"/>
+      <c r="F225" s="32"/>
+      <c r="G225" s="33"/>
+      <c r="H225" s="33"/>
+      <c r="I225" s="17"/>
       <c r="K225" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L225" s="7">
         <v>223</v>
       </c>
-      <c r="M225" s="16"/>
+      <c r="M225" s="49"/>
       <c r="N225" s="7"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A226" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B226" s="21">
+      <c r="A226" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B226" s="16">
         <v>224</v>
       </c>
-      <c r="C226" s="38"/>
-      <c r="D226" s="17"/>
-      <c r="E226" s="17"/>
-      <c r="F226" s="17"/>
-      <c r="G226" s="17"/>
-      <c r="H226" s="17"/>
-      <c r="I226" s="23"/>
+      <c r="C226" s="43"/>
+      <c r="D226" s="33"/>
+      <c r="E226" s="33"/>
+      <c r="F226" s="33"/>
+      <c r="G226" s="33"/>
+      <c r="H226" s="33"/>
+      <c r="I226" s="17"/>
       <c r="K226" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L226" s="7">
         <v>224</v>
       </c>
-      <c r="M226" s="16"/>
+      <c r="M226" s="49"/>
       <c r="N226" s="7"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A227" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B227" s="21">
+      <c r="A227" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B227" s="16">
         <v>225</v>
       </c>
-      <c r="C227" s="38"/>
-      <c r="D227" s="17"/>
-      <c r="E227" s="17"/>
-      <c r="F227" s="17"/>
-      <c r="G227" s="17"/>
-      <c r="H227" s="17"/>
-      <c r="I227" s="23"/>
+      <c r="C227" s="43"/>
+      <c r="D227" s="33"/>
+      <c r="E227" s="33"/>
+      <c r="F227" s="33"/>
+      <c r="G227" s="33"/>
+      <c r="H227" s="33"/>
+      <c r="I227" s="17"/>
       <c r="K227" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L227" s="7">
         <v>225</v>
       </c>
-      <c r="M227" s="16"/>
+      <c r="M227" s="49"/>
       <c r="N227" s="7"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A228" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B228" s="21">
+      <c r="A228" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B228" s="16">
         <v>226</v>
       </c>
-      <c r="C228" s="38"/>
-      <c r="D228" s="17"/>
-      <c r="E228" s="17"/>
-      <c r="F228" s="17"/>
-      <c r="G228" s="17"/>
-      <c r="H228" s="17"/>
-      <c r="I228" s="23"/>
+      <c r="C228" s="43"/>
+      <c r="D228" s="33"/>
+      <c r="E228" s="33"/>
+      <c r="F228" s="33"/>
+      <c r="G228" s="33"/>
+      <c r="H228" s="33"/>
+      <c r="I228" s="17"/>
       <c r="K228" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L228" s="7">
         <v>226</v>
       </c>
-      <c r="M228" s="16"/>
+      <c r="M228" s="49"/>
       <c r="N228" s="7"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A229" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B229" s="21">
+      <c r="A229" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B229" s="16">
         <v>227</v>
       </c>
-      <c r="C229" s="38"/>
-      <c r="D229" s="17"/>
-      <c r="E229" s="17"/>
-      <c r="F229" s="17"/>
-      <c r="G229" s="17"/>
-      <c r="H229" s="17"/>
-      <c r="I229" s="23"/>
+      <c r="C229" s="43"/>
+      <c r="D229" s="33"/>
+      <c r="E229" s="33"/>
+      <c r="F229" s="33"/>
+      <c r="G229" s="33"/>
+      <c r="H229" s="33"/>
+      <c r="I229" s="17"/>
       <c r="K229" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L229" s="7">
         <v>227</v>
       </c>
-      <c r="M229" s="16"/>
+      <c r="M229" s="49"/>
       <c r="N229" s="7"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A230" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B230" s="21">
+      <c r="A230" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B230" s="16">
         <v>228</v>
       </c>
-      <c r="C230" s="38"/>
-      <c r="D230" s="17"/>
-      <c r="E230" s="17"/>
-      <c r="F230" s="17"/>
-      <c r="G230" s="17"/>
-      <c r="H230" s="17"/>
-      <c r="I230" s="23"/>
+      <c r="C230" s="43"/>
+      <c r="D230" s="33"/>
+      <c r="E230" s="33"/>
+      <c r="F230" s="33"/>
+      <c r="G230" s="33"/>
+      <c r="H230" s="33"/>
+      <c r="I230" s="17"/>
       <c r="K230" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L230" s="7">
         <v>228</v>
       </c>
-      <c r="M230" s="16"/>
+      <c r="M230" s="49"/>
       <c r="N230" s="7"/>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A231" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B231" s="21">
+      <c r="A231" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B231" s="16">
         <v>229</v>
       </c>
-      <c r="C231" s="38"/>
-      <c r="D231" s="17"/>
-      <c r="E231" s="17"/>
-      <c r="F231" s="17"/>
-      <c r="G231" s="17"/>
-      <c r="H231" s="17"/>
-      <c r="I231" s="23"/>
+      <c r="C231" s="43"/>
+      <c r="D231" s="33"/>
+      <c r="E231" s="33"/>
+      <c r="F231" s="33"/>
+      <c r="G231" s="33"/>
+      <c r="H231" s="33"/>
+      <c r="I231" s="17"/>
       <c r="K231" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L231" s="7">
         <v>229</v>
       </c>
-      <c r="M231" s="16"/>
+      <c r="M231" s="49"/>
       <c r="N231" s="7"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A232" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B232" s="21">
+      <c r="A232" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B232" s="16">
         <v>230</v>
       </c>
-      <c r="C232" s="38"/>
-      <c r="D232" s="17"/>
-      <c r="E232" s="17"/>
-      <c r="F232" s="17"/>
-      <c r="G232" s="17"/>
-      <c r="H232" s="17"/>
-      <c r="I232" s="23"/>
+      <c r="C232" s="43"/>
+      <c r="D232" s="33"/>
+      <c r="E232" s="33"/>
+      <c r="F232" s="33"/>
+      <c r="G232" s="33"/>
+      <c r="H232" s="33"/>
+      <c r="I232" s="17"/>
       <c r="K232" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L232" s="7">
         <v>230</v>
       </c>
-      <c r="M232" s="16"/>
+      <c r="M232" s="49"/>
       <c r="N232" s="7"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A233" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B233" s="21">
+      <c r="A233" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B233" s="16">
         <v>231</v>
       </c>
-      <c r="C233" s="38"/>
-      <c r="D233" s="17"/>
-      <c r="E233" s="17"/>
-      <c r="F233" s="17"/>
-      <c r="G233" s="17"/>
-      <c r="H233" s="17"/>
-      <c r="I233" s="23"/>
+      <c r="C233" s="43"/>
+      <c r="D233" s="33"/>
+      <c r="E233" s="33"/>
+      <c r="F233" s="33"/>
+      <c r="G233" s="33"/>
+      <c r="H233" s="33"/>
+      <c r="I233" s="17"/>
       <c r="K233" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L233" s="7">
         <v>231</v>
       </c>
-      <c r="M233" s="16"/>
+      <c r="M233" s="49"/>
       <c r="N233" s="7"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A234" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B234" s="21">
+      <c r="A234" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B234" s="16">
         <v>232</v>
       </c>
-      <c r="C234" s="38"/>
-      <c r="D234" s="17"/>
-      <c r="E234" s="17"/>
-      <c r="F234" s="17"/>
-      <c r="G234" s="17"/>
-      <c r="H234" s="17"/>
-      <c r="I234" s="23"/>
+      <c r="C234" s="43"/>
+      <c r="D234" s="33"/>
+      <c r="E234" s="33"/>
+      <c r="F234" s="33"/>
+      <c r="G234" s="33"/>
+      <c r="H234" s="33"/>
+      <c r="I234" s="17"/>
       <c r="K234" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L234" s="7">
         <v>232</v>
       </c>
-      <c r="M234" s="16"/>
+      <c r="M234" s="49"/>
       <c r="N234" s="7"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A235" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B235" s="21">
+      <c r="A235" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B235" s="16">
         <v>233</v>
       </c>
-      <c r="C235" s="38"/>
-      <c r="D235" s="17"/>
-      <c r="E235" s="17"/>
-      <c r="F235" s="17"/>
-      <c r="G235" s="17"/>
-      <c r="H235" s="17"/>
-      <c r="I235" s="23"/>
+      <c r="C235" s="43"/>
+      <c r="D235" s="33"/>
+      <c r="E235" s="33"/>
+      <c r="F235" s="33"/>
+      <c r="G235" s="33"/>
+      <c r="H235" s="33"/>
+      <c r="I235" s="17"/>
       <c r="K235" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L235" s="7">
         <v>233</v>
       </c>
-      <c r="M235" s="16"/>
+      <c r="M235" s="49"/>
       <c r="N235" s="7"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A236" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B236" s="21">
+      <c r="A236" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B236" s="16">
         <v>234</v>
       </c>
-      <c r="C236" s="38"/>
-      <c r="D236" s="17"/>
-      <c r="E236" s="17"/>
-      <c r="F236" s="17"/>
-      <c r="G236" s="17"/>
-      <c r="H236" s="17"/>
-      <c r="I236" s="23"/>
+      <c r="C236" s="43"/>
+      <c r="D236" s="33"/>
+      <c r="E236" s="33"/>
+      <c r="F236" s="33"/>
+      <c r="G236" s="33"/>
+      <c r="H236" s="33"/>
+      <c r="I236" s="17"/>
       <c r="K236" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L236" s="7">
         <v>234</v>
       </c>
-      <c r="M236" s="16"/>
+      <c r="M236" s="49"/>
       <c r="N236" s="7"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A237" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B237" s="21">
+      <c r="A237" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B237" s="16">
         <v>235</v>
       </c>
-      <c r="C237" s="38"/>
-      <c r="D237" s="17"/>
-      <c r="E237" s="17"/>
-      <c r="F237" s="17"/>
-      <c r="G237" s="17"/>
-      <c r="H237" s="17"/>
-      <c r="I237" s="23"/>
+      <c r="C237" s="43"/>
+      <c r="D237" s="33"/>
+      <c r="E237" s="33"/>
+      <c r="F237" s="33"/>
+      <c r="G237" s="33"/>
+      <c r="H237" s="33"/>
+      <c r="I237" s="17"/>
       <c r="K237" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L237" s="7">
         <v>235</v>
       </c>
-      <c r="M237" s="16"/>
+      <c r="M237" s="49"/>
       <c r="N237" s="7"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A238" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B238" s="21">
+      <c r="A238" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B238" s="16">
         <v>236</v>
       </c>
-      <c r="C238" s="38"/>
-      <c r="D238" s="17"/>
-      <c r="E238" s="17"/>
-      <c r="F238" s="17"/>
-      <c r="G238" s="17"/>
-      <c r="H238" s="17"/>
-      <c r="I238" s="23"/>
+      <c r="C238" s="43"/>
+      <c r="D238" s="33"/>
+      <c r="E238" s="33"/>
+      <c r="F238" s="33"/>
+      <c r="G238" s="33"/>
+      <c r="H238" s="33"/>
+      <c r="I238" s="17"/>
       <c r="K238" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L238" s="7">
         <v>236</v>
       </c>
-      <c r="M238" s="16"/>
+      <c r="M238" s="49"/>
       <c r="N238" s="7"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A239" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B239" s="21">
+      <c r="A239" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B239" s="16">
         <v>237</v>
       </c>
-      <c r="C239" s="38"/>
-      <c r="D239" s="17"/>
-      <c r="E239" s="17"/>
-      <c r="F239" s="17"/>
-      <c r="G239" s="17"/>
-      <c r="H239" s="17"/>
-      <c r="I239" s="23"/>
+      <c r="C239" s="43"/>
+      <c r="D239" s="33"/>
+      <c r="E239" s="33"/>
+      <c r="F239" s="33"/>
+      <c r="G239" s="33"/>
+      <c r="H239" s="33"/>
+      <c r="I239" s="17"/>
       <c r="K239" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L239" s="7">
         <v>237</v>
       </c>
-      <c r="M239" s="16"/>
+      <c r="M239" s="49"/>
       <c r="N239" s="7"/>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A240" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B240" s="21">
+      <c r="A240" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B240" s="16">
         <v>238</v>
       </c>
-      <c r="C240" s="38"/>
-      <c r="D240" s="17"/>
-      <c r="E240" s="17"/>
-      <c r="F240" s="17"/>
-      <c r="G240" s="17"/>
-      <c r="H240" s="17"/>
-      <c r="I240" s="23"/>
+      <c r="C240" s="43"/>
+      <c r="D240" s="33"/>
+      <c r="E240" s="33"/>
+      <c r="F240" s="33"/>
+      <c r="G240" s="33"/>
+      <c r="H240" s="33"/>
+      <c r="I240" s="17"/>
       <c r="K240" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L240" s="7">
         <v>238</v>
       </c>
-      <c r="M240" s="16"/>
+      <c r="M240" s="49"/>
       <c r="N240" s="7"/>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A241" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B241" s="21">
+      <c r="A241" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B241" s="16">
         <v>239</v>
       </c>
-      <c r="C241" s="38"/>
-      <c r="D241" s="17"/>
-      <c r="E241" s="17"/>
-      <c r="F241" s="17"/>
-      <c r="G241" s="17"/>
-      <c r="H241" s="17"/>
-      <c r="I241" s="23"/>
+      <c r="C241" s="43"/>
+      <c r="D241" s="33"/>
+      <c r="E241" s="33"/>
+      <c r="F241" s="33"/>
+      <c r="G241" s="33"/>
+      <c r="H241" s="33"/>
+      <c r="I241" s="17"/>
       <c r="K241" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L241" s="7">
         <v>239</v>
       </c>
-      <c r="M241" s="16"/>
+      <c r="M241" s="49"/>
       <c r="N241" s="7"/>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
@@ -7802,12 +7804,12 @@
       <c r="B242">
         <v>240</v>
       </c>
-      <c r="C242" s="17"/>
-      <c r="D242" s="17"/>
-      <c r="E242" s="17"/>
-      <c r="F242" s="17"/>
-      <c r="G242" s="17"/>
-      <c r="H242" s="17"/>
+      <c r="C242" s="33"/>
+      <c r="D242" s="33"/>
+      <c r="E242" s="33"/>
+      <c r="F242" s="33"/>
+      <c r="G242" s="33"/>
+      <c r="H242" s="33"/>
       <c r="I242" s="2"/>
       <c r="K242" s="7" t="s">
         <v>29</v>
@@ -7815,7 +7817,7 @@
       <c r="L242" s="7">
         <v>240</v>
       </c>
-      <c r="M242" s="16"/>
+      <c r="M242" s="49"/>
       <c r="N242" s="7"/>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
@@ -7825,12 +7827,12 @@
       <c r="B243">
         <v>241</v>
       </c>
-      <c r="C243" s="17"/>
-      <c r="D243" s="17"/>
-      <c r="E243" s="17"/>
-      <c r="F243" s="17"/>
-      <c r="G243" s="17"/>
-      <c r="H243" s="17"/>
+      <c r="C243" s="33"/>
+      <c r="D243" s="33"/>
+      <c r="E243" s="33"/>
+      <c r="F243" s="33"/>
+      <c r="G243" s="33"/>
+      <c r="H243" s="33"/>
       <c r="I243" s="2"/>
       <c r="K243" s="7" t="s">
         <v>29</v>
@@ -7838,7 +7840,7 @@
       <c r="L243" s="7">
         <v>241</v>
       </c>
-      <c r="M243" s="16"/>
+      <c r="M243" s="49"/>
       <c r="N243" s="7"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
@@ -7848,12 +7850,12 @@
       <c r="B244">
         <v>242</v>
       </c>
-      <c r="C244" s="17"/>
-      <c r="D244" s="17"/>
-      <c r="E244" s="17"/>
-      <c r="F244" s="17"/>
-      <c r="G244" s="17"/>
-      <c r="H244" s="17"/>
+      <c r="C244" s="33"/>
+      <c r="D244" s="33"/>
+      <c r="E244" s="33"/>
+      <c r="F244" s="33"/>
+      <c r="G244" s="33"/>
+      <c r="H244" s="33"/>
       <c r="I244" s="2"/>
       <c r="K244" s="7" t="s">
         <v>29</v>
@@ -7861,7 +7863,7 @@
       <c r="L244" s="7">
         <v>242</v>
       </c>
-      <c r="M244" s="16"/>
+      <c r="M244" s="49"/>
       <c r="N244" s="7"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
@@ -7871,12 +7873,12 @@
       <c r="B245">
         <v>243</v>
       </c>
-      <c r="C245" s="17"/>
-      <c r="D245" s="17"/>
-      <c r="E245" s="17"/>
-      <c r="F245" s="17"/>
-      <c r="G245" s="17"/>
-      <c r="H245" s="17"/>
+      <c r="C245" s="33"/>
+      <c r="D245" s="33"/>
+      <c r="E245" s="33"/>
+      <c r="F245" s="33"/>
+      <c r="G245" s="33"/>
+      <c r="H245" s="33"/>
       <c r="I245" s="2"/>
       <c r="K245" s="7" t="s">
         <v>29</v>
@@ -7884,7 +7886,7 @@
       <c r="L245" s="7">
         <v>243</v>
       </c>
-      <c r="M245" s="16"/>
+      <c r="M245" s="49"/>
       <c r="N245" s="7"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
@@ -7894,12 +7896,12 @@
       <c r="B246">
         <v>244</v>
       </c>
-      <c r="C246" s="17"/>
-      <c r="D246" s="17"/>
-      <c r="E246" s="17"/>
-      <c r="F246" s="17"/>
-      <c r="G246" s="17"/>
-      <c r="H246" s="17"/>
+      <c r="C246" s="33"/>
+      <c r="D246" s="33"/>
+      <c r="E246" s="33"/>
+      <c r="F246" s="33"/>
+      <c r="G246" s="33"/>
+      <c r="H246" s="33"/>
       <c r="I246" s="2"/>
       <c r="K246" s="7" t="s">
         <v>29</v>
@@ -7907,7 +7909,7 @@
       <c r="L246" s="7">
         <v>244</v>
       </c>
-      <c r="M246" s="16"/>
+      <c r="M246" s="49"/>
       <c r="N246" s="7"/>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
@@ -7917,12 +7919,12 @@
       <c r="B247">
         <v>245</v>
       </c>
-      <c r="C247" s="17"/>
-      <c r="D247" s="17"/>
-      <c r="E247" s="17"/>
-      <c r="F247" s="17"/>
-      <c r="G247" s="17"/>
-      <c r="H247" s="17"/>
+      <c r="C247" s="33"/>
+      <c r="D247" s="33"/>
+      <c r="E247" s="33"/>
+      <c r="F247" s="33"/>
+      <c r="G247" s="33"/>
+      <c r="H247" s="33"/>
       <c r="I247" s="2"/>
       <c r="K247" s="7" t="s">
         <v>29</v>
@@ -7930,7 +7932,7 @@
       <c r="L247" s="7">
         <v>245</v>
       </c>
-      <c r="M247" s="16"/>
+      <c r="M247" s="49"/>
       <c r="N247" s="7"/>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
@@ -7940,12 +7942,12 @@
       <c r="B248">
         <v>246</v>
       </c>
-      <c r="C248" s="17"/>
-      <c r="D248" s="17"/>
-      <c r="E248" s="17"/>
-      <c r="F248" s="17"/>
-      <c r="G248" s="17"/>
-      <c r="H248" s="17"/>
+      <c r="C248" s="33"/>
+      <c r="D248" s="33"/>
+      <c r="E248" s="33"/>
+      <c r="F248" s="33"/>
+      <c r="G248" s="33"/>
+      <c r="H248" s="33"/>
       <c r="I248" s="2"/>
       <c r="K248" s="7" t="s">
         <v>29</v>
@@ -7953,7 +7955,7 @@
       <c r="L248" s="7">
         <v>246</v>
       </c>
-      <c r="M248" s="16"/>
+      <c r="M248" s="49"/>
       <c r="N248" s="7"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
@@ -7963,12 +7965,12 @@
       <c r="B249">
         <v>247</v>
       </c>
-      <c r="C249" s="17"/>
-      <c r="D249" s="17"/>
-      <c r="E249" s="17"/>
-      <c r="F249" s="17"/>
-      <c r="G249" s="17"/>
-      <c r="H249" s="17"/>
+      <c r="C249" s="33"/>
+      <c r="D249" s="33"/>
+      <c r="E249" s="33"/>
+      <c r="F249" s="33"/>
+      <c r="G249" s="33"/>
+      <c r="H249" s="33"/>
       <c r="I249" s="2"/>
       <c r="K249" s="7" t="s">
         <v>29</v>
@@ -7976,7 +7978,7 @@
       <c r="L249" s="7">
         <v>247</v>
       </c>
-      <c r="M249" s="16"/>
+      <c r="M249" s="49"/>
       <c r="N249" s="7"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
@@ -7986,12 +7988,12 @@
       <c r="B250">
         <v>248</v>
       </c>
-      <c r="C250" s="17"/>
-      <c r="D250" s="17"/>
-      <c r="E250" s="17"/>
-      <c r="F250" s="17"/>
-      <c r="G250" s="17"/>
-      <c r="H250" s="17"/>
+      <c r="C250" s="33"/>
+      <c r="D250" s="33"/>
+      <c r="E250" s="33"/>
+      <c r="F250" s="33"/>
+      <c r="G250" s="33"/>
+      <c r="H250" s="33"/>
       <c r="I250" s="2"/>
       <c r="K250" s="7" t="s">
         <v>29</v>
@@ -7999,7 +8001,7 @@
       <c r="L250" s="7">
         <v>248</v>
       </c>
-      <c r="M250" s="16"/>
+      <c r="M250" s="49"/>
       <c r="N250" s="7"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
@@ -8009,12 +8011,12 @@
       <c r="B251">
         <v>249</v>
       </c>
-      <c r="C251" s="17"/>
-      <c r="D251" s="17"/>
-      <c r="E251" s="17"/>
-      <c r="F251" s="17"/>
-      <c r="G251" s="17"/>
-      <c r="H251" s="17"/>
+      <c r="C251" s="33"/>
+      <c r="D251" s="33"/>
+      <c r="E251" s="33"/>
+      <c r="F251" s="33"/>
+      <c r="G251" s="33"/>
+      <c r="H251" s="33"/>
       <c r="I251" s="2"/>
       <c r="K251" s="7" t="s">
         <v>29</v>
@@ -8022,7 +8024,7 @@
       <c r="L251" s="7">
         <v>249</v>
       </c>
-      <c r="M251" s="16"/>
+      <c r="M251" s="49"/>
       <c r="N251" s="7"/>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
@@ -8032,12 +8034,12 @@
       <c r="B252">
         <v>250</v>
       </c>
-      <c r="C252" s="17"/>
-      <c r="D252" s="17"/>
-      <c r="E252" s="17"/>
-      <c r="F252" s="17"/>
-      <c r="G252" s="17"/>
-      <c r="H252" s="17"/>
+      <c r="C252" s="33"/>
+      <c r="D252" s="33"/>
+      <c r="E252" s="33"/>
+      <c r="F252" s="33"/>
+      <c r="G252" s="33"/>
+      <c r="H252" s="33"/>
       <c r="I252" s="2"/>
       <c r="K252" s="7" t="s">
         <v>29</v>
@@ -8045,7 +8047,7 @@
       <c r="L252" s="7">
         <v>250</v>
       </c>
-      <c r="M252" s="16"/>
+      <c r="M252" s="49"/>
       <c r="N252" s="7"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
@@ -8055,12 +8057,12 @@
       <c r="B253">
         <v>251</v>
       </c>
-      <c r="C253" s="17"/>
-      <c r="D253" s="17"/>
-      <c r="E253" s="17"/>
-      <c r="F253" s="17"/>
-      <c r="G253" s="17"/>
-      <c r="H253" s="17"/>
+      <c r="C253" s="33"/>
+      <c r="D253" s="33"/>
+      <c r="E253" s="33"/>
+      <c r="F253" s="33"/>
+      <c r="G253" s="33"/>
+      <c r="H253" s="33"/>
       <c r="I253" s="2"/>
       <c r="K253" s="7" t="s">
         <v>29</v>
@@ -8068,7 +8070,7 @@
       <c r="L253" s="7">
         <v>251</v>
       </c>
-      <c r="M253" s="16"/>
+      <c r="M253" s="49"/>
       <c r="N253" s="7"/>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
@@ -8078,12 +8080,12 @@
       <c r="B254">
         <v>252</v>
       </c>
-      <c r="C254" s="17"/>
-      <c r="D254" s="17"/>
-      <c r="E254" s="17"/>
-      <c r="F254" s="17"/>
-      <c r="G254" s="17"/>
-      <c r="H254" s="17"/>
+      <c r="C254" s="33"/>
+      <c r="D254" s="33"/>
+      <c r="E254" s="33"/>
+      <c r="F254" s="33"/>
+      <c r="G254" s="33"/>
+      <c r="H254" s="33"/>
       <c r="I254" s="2"/>
       <c r="K254" s="7" t="s">
         <v>29</v>
@@ -8091,7 +8093,7 @@
       <c r="L254" s="7">
         <v>252</v>
       </c>
-      <c r="M254" s="16"/>
+      <c r="M254" s="49"/>
       <c r="N254" s="7"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
@@ -8101,12 +8103,12 @@
       <c r="B255">
         <v>253</v>
       </c>
-      <c r="C255" s="17"/>
-      <c r="D255" s="17"/>
-      <c r="E255" s="17"/>
-      <c r="F255" s="17"/>
-      <c r="G255" s="17"/>
-      <c r="H255" s="17"/>
+      <c r="C255" s="33"/>
+      <c r="D255" s="33"/>
+      <c r="E255" s="33"/>
+      <c r="F255" s="33"/>
+      <c r="G255" s="33"/>
+      <c r="H255" s="33"/>
       <c r="I255" s="2"/>
       <c r="K255" s="7" t="s">
         <v>29</v>
@@ -8114,7 +8116,7 @@
       <c r="L255" s="7">
         <v>253</v>
       </c>
-      <c r="M255" s="16"/>
+      <c r="M255" s="49"/>
       <c r="N255" s="7"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
@@ -8124,12 +8126,12 @@
       <c r="B256">
         <v>254</v>
       </c>
-      <c r="C256" s="17"/>
-      <c r="D256" s="17"/>
-      <c r="E256" s="17"/>
-      <c r="F256" s="17"/>
-      <c r="G256" s="17"/>
-      <c r="H256" s="17"/>
+      <c r="C256" s="33"/>
+      <c r="D256" s="33"/>
+      <c r="E256" s="33"/>
+      <c r="F256" s="33"/>
+      <c r="G256" s="33"/>
+      <c r="H256" s="33"/>
       <c r="I256" s="2"/>
       <c r="K256" s="7" t="s">
         <v>29</v>
@@ -8137,7 +8139,7 @@
       <c r="L256" s="7">
         <v>254</v>
       </c>
-      <c r="M256" s="16"/>
+      <c r="M256" s="49"/>
       <c r="N256" s="7" t="s">
         <v>20</v>
       </c>
@@ -8149,12 +8151,12 @@
       <c r="B257">
         <v>255</v>
       </c>
-      <c r="C257" s="17"/>
-      <c r="D257" s="17"/>
-      <c r="E257" s="17"/>
-      <c r="F257" s="17"/>
-      <c r="G257" s="17"/>
-      <c r="H257" s="17"/>
+      <c r="C257" s="33"/>
+      <c r="D257" s="33"/>
+      <c r="E257" s="33"/>
+      <c r="F257" s="33"/>
+      <c r="G257" s="33"/>
+      <c r="H257" s="33"/>
       <c r="I257" s="2"/>
       <c r="K257" s="7" t="s">
         <v>29</v>
@@ -8162,45 +8164,84 @@
       <c r="L257" s="7">
         <v>255</v>
       </c>
-      <c r="M257" s="16"/>
+      <c r="M257" s="49"/>
       <c r="N257" s="7" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="F194:F225"/>
-    <mergeCell ref="G194:G257"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="D202:D209"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="D210:D217"/>
-    <mergeCell ref="E210:E225"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="D250:D257"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="F226:F257"/>
-    <mergeCell ref="C230:C233"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="D234:D241"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D249"/>
-    <mergeCell ref="E242:E257"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="E194:E209"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="E162:E177"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="D218:D225"/>
-    <mergeCell ref="C222:C225"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D233"/>
-    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="M2:M257"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="F2:F33"/>
+    <mergeCell ref="G2:G65"/>
+    <mergeCell ref="H2:H129"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="F34:F65"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E33"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E50:E65"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="E66:E81"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="E34:E49"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D105"/>
+    <mergeCell ref="E98:E113"/>
+    <mergeCell ref="F66:F97"/>
+    <mergeCell ref="G66:G129"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="E82:E97"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D122:D129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="E130:E145"/>
+    <mergeCell ref="F130:F161"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="F98:F129"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="E114:E129"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
     <mergeCell ref="F162:F193"/>
     <mergeCell ref="C166:C169"/>
     <mergeCell ref="C170:C173"/>
@@ -8225,77 +8266,38 @@
     <mergeCell ref="C190:C193"/>
     <mergeCell ref="C194:C197"/>
     <mergeCell ref="D194:D201"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="E130:E145"/>
-    <mergeCell ref="F130:F161"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="F98:F129"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="E114:E129"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D105"/>
-    <mergeCell ref="E98:E113"/>
-    <mergeCell ref="F66:F97"/>
-    <mergeCell ref="G66:G129"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="E82:E97"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D122:D129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E50:E65"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="E66:E81"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="E34:E49"/>
-    <mergeCell ref="M2:M257"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="F2:F33"/>
-    <mergeCell ref="G2:G65"/>
-    <mergeCell ref="H2:H129"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="F34:F65"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E33"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="E162:E177"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="D218:D225"/>
+    <mergeCell ref="C222:C225"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D233"/>
+    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="F194:F225"/>
+    <mergeCell ref="G194:G257"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D202:D209"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="D210:D217"/>
+    <mergeCell ref="E210:E225"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="D250:D257"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="F226:F257"/>
+    <mergeCell ref="C230:C233"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="D234:D241"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D249"/>
+    <mergeCell ref="E242:E257"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="E194:E209"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ipcim.xlsx
+++ b/ipcim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bela\Git\halozatProjektek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\halozatProjektek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AA2969-E0B5-4617-A6A6-8E34FB9C96E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7AB2CC-255F-45CE-8C66-4B56650C44B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{C8323FA4-6CC7-40F6-BE4B-AB2032EB79E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{C8323FA4-6CC7-40F6-BE4B-AB2032EB79E9}"/>
   </bookViews>
   <sheets>
     <sheet name="IP Cím igény" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="125">
   <si>
     <t>/26</t>
   </si>
@@ -527,30 +527,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF4B084"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -564,6 +540,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED91F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0ACB6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -641,55 +641,58 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
@@ -699,56 +702,71 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFCE4D6"/>
+      <color rgb="FFF0ACB6"/>
+      <color rgb="FFF2F4A8"/>
+      <color rgb="FFED91F7"/>
       <color rgb="FFE2EFDA"/>
       <color rgb="FFF4B084"/>
       <color rgb="FF000000"/>
       <color rgb="FFAEAAAA"/>
-      <color rgb="FFFCE4D6"/>
     </mruColors>
   </colors>
   <extLst>
@@ -763,7 +781,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1059,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E52708-4D1F-4658-B09E-637D902EB613}">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1089,7 @@
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
@@ -1095,19 +1113,19 @@
       <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1118,30 +1136,30 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="28">
-        <f>B19+B37</f>
-        <v>10368</v>
-      </c>
-      <c r="J2" s="29">
-        <f>C19+C3</f>
-        <v>1368608</v>
-      </c>
-      <c r="K2" s="30">
+      <c r="I2" s="20">
+        <f>B19+B37+B74+B92+B110+B128</f>
+        <v>11232</v>
+      </c>
+      <c r="J2" s="21">
+        <f>I2*396</f>
+        <v>4447872</v>
+      </c>
+      <c r="K2" s="22">
         <f>(J2/25000)/12</f>
-        <v>4.5620266666666671</v>
-      </c>
-      <c r="L2" s="30">
+        <v>14.82624</v>
+      </c>
+      <c r="L2" s="22">
         <f>(J2/59000)/12</f>
-        <v>1.9330621468926552</v>
-      </c>
-      <c r="M2" s="31">
+        <v>6.2823050847457624</v>
+      </c>
+      <c r="M2" s="23">
         <f>(J2/(25000+59000)/12)</f>
-        <v>1.3577460317460319</v>
-      </c>
-      <c r="N2" s="52" t="s">
+        <v>4.4125714285714288</v>
+      </c>
+      <c r="N2" s="25" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1278,7 +1296,7 @@
       <c r="D11" s="6">
         <v>255</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="8">
         <v>192</v>
       </c>
       <c r="F11" s="6"/>
@@ -1421,11 +1439,11 @@
       <c r="A19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="14">
         <f>64*54</f>
         <v>3456</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="15">
         <f>B19*396</f>
         <v>1368576</v>
       </c>
@@ -1709,11 +1727,11 @@
       <c r="A37" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="13">
         <f>128*54</f>
         <v>6912</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="18">
         <f>B37*396</f>
         <v>2737152</v>
       </c>
@@ -1742,7 +1760,7 @@
       <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="7">
         <f>LOG(C40+2,2)</f>
         <v>8.011227255423254</v>
@@ -1986,7 +2004,7 @@
         <f>DEC2BIN(B54,8)</f>
         <v>11000000</v>
       </c>
-      <c r="C55" s="24" t="str">
+      <c r="C55" s="16" t="str">
         <f t="shared" ref="C55" si="23">DEC2BIN(C54,8)</f>
         <v>10101000</v>
       </c>
@@ -2004,11 +2022,1167 @@
       <c r="A56" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="25"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37">
+        <v>4</v>
+      </c>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="33"/>
+      <c r="B59" s="37">
+        <f>LOG(C58+2,2)</f>
+        <v>2.5849625007211561</v>
+      </c>
+      <c r="C59" s="37">
+        <v>3</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="37">
+        <v>187</v>
+      </c>
+      <c r="C60" s="37">
+        <v>20</v>
+      </c>
+      <c r="D60" s="37">
+        <v>0</v>
+      </c>
+      <c r="E60" s="37">
+        <v>192</v>
+      </c>
+      <c r="F60" s="37"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="37"/>
+      <c r="B61" s="37" t="str">
+        <f>DEC2BIN(B60,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C61" s="37" t="str">
+        <f t="shared" ref="C61:E61" si="26">DEC2BIN(C60,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D61" s="37" t="str">
+        <f t="shared" si="26"/>
+        <v>00000000</v>
+      </c>
+      <c r="E61" s="37" t="str">
+        <f t="shared" si="26"/>
+        <v>11000000</v>
+      </c>
+      <c r="F61" s="37"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="37">
+        <v>187</v>
+      </c>
+      <c r="C63" s="37">
+        <v>20</v>
+      </c>
+      <c r="D63" s="37">
+        <v>0</v>
+      </c>
+      <c r="E63" s="37">
+        <v>195</v>
+      </c>
+      <c r="F63" s="37"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="37"/>
+      <c r="B64" s="37" t="str">
+        <f>DEC2BIN(B63,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C64" s="37" t="str">
+        <f t="shared" ref="C64:E64" si="27">DEC2BIN(C63,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D64" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>00000000</v>
+      </c>
+      <c r="E64" s="37" t="str">
+        <f t="shared" si="27"/>
+        <v>11000011</v>
+      </c>
+      <c r="F64" s="37"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="37">
+        <v>255</v>
+      </c>
+      <c r="C66" s="37">
+        <v>255</v>
+      </c>
+      <c r="D66" s="37">
+        <v>255</v>
+      </c>
+      <c r="E66" s="37">
+        <v>252</v>
+      </c>
+      <c r="F66" s="37"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="37"/>
+      <c r="B67" s="37" t="str">
+        <f>DEC2BIN(B66,8)</f>
+        <v>11111111</v>
+      </c>
+      <c r="C67" s="37" t="str">
+        <f t="shared" ref="C67:E67" si="28">DEC2BIN(C66,8)</f>
+        <v>11111111</v>
+      </c>
+      <c r="D67" s="37" t="str">
+        <f t="shared" si="28"/>
+        <v>11111111</v>
+      </c>
+      <c r="E67" s="37" t="str">
+        <f t="shared" si="28"/>
+        <v>11111100</v>
+      </c>
+      <c r="F67" s="37"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="37">
+        <v>187</v>
+      </c>
+      <c r="C68" s="37">
+        <v>20</v>
+      </c>
+      <c r="D68" s="37">
+        <v>0</v>
+      </c>
+      <c r="E68" s="37">
+        <v>193</v>
+      </c>
+      <c r="F68" s="37"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="37"/>
+      <c r="B69" s="37" t="str">
+        <f>DEC2BIN(B68,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C69" s="37" t="str">
+        <f t="shared" ref="C69:E69" si="29">DEC2BIN(C68,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D69" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>00000000</v>
+      </c>
+      <c r="E69" s="37" t="str">
+        <f t="shared" si="29"/>
+        <v>11000001</v>
+      </c>
+      <c r="F69" s="37"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="37">
+        <v>187</v>
+      </c>
+      <c r="C70" s="37">
+        <v>20</v>
+      </c>
+      <c r="D70" s="37">
+        <v>0</v>
+      </c>
+      <c r="E70" s="37">
+        <v>194</v>
+      </c>
+      <c r="F70" s="37"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="37"/>
+      <c r="B71" s="37" t="str">
+        <f>DEC2BIN(B70,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C71" s="37" t="str">
+        <f t="shared" ref="C71:E71" si="30">DEC2BIN(C70,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D71" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>00000000</v>
+      </c>
+      <c r="E71" s="37" t="str">
+        <f t="shared" si="30"/>
+        <v>11000010</v>
+      </c>
+      <c r="F71" s="37"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="37">
+        <v>187</v>
+      </c>
+      <c r="C72" s="37">
+        <v>20</v>
+      </c>
+      <c r="D72" s="37">
+        <v>0</v>
+      </c>
+      <c r="E72" s="37">
+        <v>193</v>
+      </c>
+      <c r="F72" s="37"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="37"/>
+      <c r="B73" s="37" t="str">
+        <f>DEC2BIN(B72,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C73" s="38" t="str">
+        <f t="shared" ref="C73:E73" si="31">DEC2BIN(C72,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D73" s="37" t="str">
+        <f t="shared" si="31"/>
+        <v>00000000</v>
+      </c>
+      <c r="E73" s="37" t="str">
+        <f t="shared" si="31"/>
+        <v>11000001</v>
+      </c>
+      <c r="F73" s="37"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="39">
+        <f>4*54</f>
+        <v>216</v>
+      </c>
+      <c r="C74" s="40">
+        <f>B74*396</f>
+        <v>85536</v>
+      </c>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="57"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45">
+        <v>4</v>
+      </c>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="41"/>
+      <c r="B77" s="45">
+        <f>LOG(C76+2,2)</f>
+        <v>2.5849625007211561</v>
+      </c>
+      <c r="C77" s="45">
+        <v>3</v>
+      </c>
+      <c r="D77" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="45">
+        <v>187</v>
+      </c>
+      <c r="C78" s="45">
+        <v>20</v>
+      </c>
+      <c r="D78" s="45">
+        <v>0</v>
+      </c>
+      <c r="E78" s="45">
+        <v>196</v>
+      </c>
+      <c r="F78" s="45"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="45"/>
+      <c r="B79" s="45" t="str">
+        <f>DEC2BIN(B78,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C79" s="45" t="str">
+        <f t="shared" ref="C79:E79" si="32">DEC2BIN(C78,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D79" s="45" t="str">
+        <f t="shared" si="32"/>
+        <v>00000000</v>
+      </c>
+      <c r="E79" s="45" t="str">
+        <f t="shared" si="32"/>
+        <v>11000100</v>
+      </c>
+      <c r="F79" s="45"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="45"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="45">
+        <v>187</v>
+      </c>
+      <c r="C81" s="45">
+        <v>20</v>
+      </c>
+      <c r="D81" s="45">
+        <v>0</v>
+      </c>
+      <c r="E81" s="45">
+        <v>199</v>
+      </c>
+      <c r="F81" s="45"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="45"/>
+      <c r="B82" s="45" t="str">
+        <f>DEC2BIN(B81,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C82" s="45" t="str">
+        <f t="shared" ref="C82:E82" si="33">DEC2BIN(C81,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D82" s="45" t="str">
+        <f t="shared" si="33"/>
+        <v>00000000</v>
+      </c>
+      <c r="E82" s="45" t="str">
+        <f t="shared" si="33"/>
+        <v>11000111</v>
+      </c>
+      <c r="F82" s="45"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="45"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="45"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="45">
+        <v>255</v>
+      </c>
+      <c r="C84" s="45">
+        <v>255</v>
+      </c>
+      <c r="D84" s="45">
+        <v>255</v>
+      </c>
+      <c r="E84" s="45">
+        <v>252</v>
+      </c>
+      <c r="F84" s="45"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="45"/>
+      <c r="B85" s="45" t="str">
+        <f>DEC2BIN(B84,8)</f>
+        <v>11111111</v>
+      </c>
+      <c r="C85" s="45" t="str">
+        <f t="shared" ref="C85:E85" si="34">DEC2BIN(C84,8)</f>
+        <v>11111111</v>
+      </c>
+      <c r="D85" s="45" t="str">
+        <f t="shared" si="34"/>
+        <v>11111111</v>
+      </c>
+      <c r="E85" s="45" t="str">
+        <f t="shared" si="34"/>
+        <v>11111100</v>
+      </c>
+      <c r="F85" s="45"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" s="45">
+        <v>187</v>
+      </c>
+      <c r="C86" s="45">
+        <v>20</v>
+      </c>
+      <c r="D86" s="45">
+        <v>0</v>
+      </c>
+      <c r="E86" s="45">
+        <v>197</v>
+      </c>
+      <c r="F86" s="45"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="45"/>
+      <c r="B87" s="45" t="str">
+        <f>DEC2BIN(B86,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C87" s="45" t="str">
+        <f t="shared" ref="C87:E87" si="35">DEC2BIN(C86,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D87" s="45" t="str">
+        <f t="shared" si="35"/>
+        <v>00000000</v>
+      </c>
+      <c r="E87" s="45" t="str">
+        <f t="shared" si="35"/>
+        <v>11000101</v>
+      </c>
+      <c r="F87" s="45"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="45">
+        <v>187</v>
+      </c>
+      <c r="C88" s="45">
+        <v>20</v>
+      </c>
+      <c r="D88" s="45">
+        <v>0</v>
+      </c>
+      <c r="E88" s="45">
+        <v>198</v>
+      </c>
+      <c r="F88" s="45"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="45"/>
+      <c r="B89" s="45" t="str">
+        <f>DEC2BIN(B88,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C89" s="45" t="str">
+        <f t="shared" ref="C89:E89" si="36">DEC2BIN(C88,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D89" s="45" t="str">
+        <f t="shared" si="36"/>
+        <v>00000000</v>
+      </c>
+      <c r="E89" s="45" t="str">
+        <f t="shared" si="36"/>
+        <v>11000110</v>
+      </c>
+      <c r="F89" s="45"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" s="45">
+        <v>187</v>
+      </c>
+      <c r="C90" s="45">
+        <v>20</v>
+      </c>
+      <c r="D90" s="45">
+        <v>0</v>
+      </c>
+      <c r="E90" s="45">
+        <v>198</v>
+      </c>
+      <c r="F90" s="45"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="45"/>
+      <c r="B91" s="45" t="str">
+        <f>DEC2BIN(B90,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C91" s="46" t="str">
+        <f t="shared" ref="C91:E91" si="37">DEC2BIN(C90,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D91" s="45" t="str">
+        <f t="shared" si="37"/>
+        <v>00000000</v>
+      </c>
+      <c r="E91" s="45" t="str">
+        <f t="shared" si="37"/>
+        <v>11000110</v>
+      </c>
+      <c r="F91" s="45"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" s="47">
+        <f>4*54</f>
+        <v>216</v>
+      </c>
+      <c r="C92" s="48">
+        <f>B92*396</f>
+        <v>85536</v>
+      </c>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="53"/>
+      <c r="C94" s="53">
+        <v>4</v>
+      </c>
+      <c r="D94" s="53"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="53"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="49"/>
+      <c r="B95" s="53">
+        <f>LOG(C94+2,2)</f>
+        <v>2.5849625007211561</v>
+      </c>
+      <c r="C95" s="53">
+        <v>3</v>
+      </c>
+      <c r="D95" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="53"/>
+      <c r="F95" s="53"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" s="53">
+        <v>187</v>
+      </c>
+      <c r="C96" s="53">
+        <v>20</v>
+      </c>
+      <c r="D96" s="53">
+        <v>0</v>
+      </c>
+      <c r="E96" s="53">
+        <v>200</v>
+      </c>
+      <c r="F96" s="53"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="53"/>
+      <c r="B97" s="53" t="str">
+        <f>DEC2BIN(B96,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C97" s="53" t="str">
+        <f t="shared" ref="C97:E97" si="38">DEC2BIN(C96,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D97" s="53" t="str">
+        <f t="shared" si="38"/>
+        <v>00000000</v>
+      </c>
+      <c r="E97" s="53" t="str">
+        <f t="shared" si="38"/>
+        <v>11001000</v>
+      </c>
+      <c r="F97" s="53"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="53"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="53">
+        <v>187</v>
+      </c>
+      <c r="C99" s="53">
+        <v>20</v>
+      </c>
+      <c r="D99" s="53">
+        <v>0</v>
+      </c>
+      <c r="E99" s="53">
+        <v>203</v>
+      </c>
+      <c r="F99" s="53"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="53"/>
+      <c r="B100" s="53" t="str">
+        <f>DEC2BIN(B99,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C100" s="53" t="str">
+        <f t="shared" ref="C100:E100" si="39">DEC2BIN(C99,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D100" s="53" t="str">
+        <f t="shared" si="39"/>
+        <v>00000000</v>
+      </c>
+      <c r="E100" s="53" t="str">
+        <f t="shared" si="39"/>
+        <v>11001011</v>
+      </c>
+      <c r="F100" s="53"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="53"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="53">
+        <v>255</v>
+      </c>
+      <c r="C102" s="53">
+        <v>255</v>
+      </c>
+      <c r="D102" s="53">
+        <v>255</v>
+      </c>
+      <c r="E102" s="53">
+        <v>252</v>
+      </c>
+      <c r="F102" s="53"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="53"/>
+      <c r="B103" s="53" t="str">
+        <f>DEC2BIN(B102,8)</f>
+        <v>11111111</v>
+      </c>
+      <c r="C103" s="53" t="str">
+        <f t="shared" ref="C103:E103" si="40">DEC2BIN(C102,8)</f>
+        <v>11111111</v>
+      </c>
+      <c r="D103" s="53" t="str">
+        <f t="shared" si="40"/>
+        <v>11111111</v>
+      </c>
+      <c r="E103" s="53" t="str">
+        <f t="shared" si="40"/>
+        <v>11111100</v>
+      </c>
+      <c r="F103" s="53"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="53">
+        <v>187</v>
+      </c>
+      <c r="C104" s="53">
+        <v>20</v>
+      </c>
+      <c r="D104" s="53">
+        <v>0</v>
+      </c>
+      <c r="E104" s="53">
+        <v>201</v>
+      </c>
+      <c r="F104" s="53"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="53"/>
+      <c r="B105" s="53" t="str">
+        <f>DEC2BIN(B104,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C105" s="53" t="str">
+        <f t="shared" ref="C105:E105" si="41">DEC2BIN(C104,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D105" s="53" t="str">
+        <f t="shared" si="41"/>
+        <v>00000000</v>
+      </c>
+      <c r="E105" s="53" t="str">
+        <f t="shared" si="41"/>
+        <v>11001001</v>
+      </c>
+      <c r="F105" s="53"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" s="53">
+        <v>187</v>
+      </c>
+      <c r="C106" s="53">
+        <v>20</v>
+      </c>
+      <c r="D106" s="53">
+        <v>0</v>
+      </c>
+      <c r="E106" s="53">
+        <v>202</v>
+      </c>
+      <c r="F106" s="53"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="53"/>
+      <c r="B107" s="53" t="str">
+        <f>DEC2BIN(B106,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C107" s="53" t="str">
+        <f t="shared" ref="C107:E107" si="42">DEC2BIN(C106,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D107" s="53" t="str">
+        <f t="shared" si="42"/>
+        <v>00000000</v>
+      </c>
+      <c r="E107" s="53" t="str">
+        <f t="shared" si="42"/>
+        <v>11001010</v>
+      </c>
+      <c r="F107" s="53"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" s="53">
+        <v>187</v>
+      </c>
+      <c r="C108" s="53">
+        <v>20</v>
+      </c>
+      <c r="D108" s="53">
+        <v>0</v>
+      </c>
+      <c r="E108" s="53">
+        <v>202</v>
+      </c>
+      <c r="F108" s="53"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="53"/>
+      <c r="B109" s="53" t="str">
+        <f>DEC2BIN(B108,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C109" s="54" t="str">
+        <f t="shared" ref="C109:E109" si="43">DEC2BIN(C108,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D109" s="53" t="str">
+        <f t="shared" si="43"/>
+        <v>00000000</v>
+      </c>
+      <c r="E109" s="53" t="str">
+        <f t="shared" si="43"/>
+        <v>11001010</v>
+      </c>
+      <c r="F109" s="53"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="55">
+        <f>4*54</f>
+        <v>216</v>
+      </c>
+      <c r="C110" s="56">
+        <f>B110*396</f>
+        <v>85536</v>
+      </c>
+      <c r="D110" s="53"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B112" s="64"/>
+      <c r="C112" s="64">
+        <v>4</v>
+      </c>
+      <c r="D112" s="64"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="64"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="60"/>
+      <c r="B113" s="64">
+        <f>LOG(C112+2,2)</f>
+        <v>2.5849625007211561</v>
+      </c>
+      <c r="C113" s="64">
+        <v>3</v>
+      </c>
+      <c r="D113" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" s="64"/>
+      <c r="F113" s="64"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B114" s="64">
+        <v>187</v>
+      </c>
+      <c r="C114" s="64">
+        <v>20</v>
+      </c>
+      <c r="D114" s="64">
+        <v>0</v>
+      </c>
+      <c r="E114" s="64">
+        <v>204</v>
+      </c>
+      <c r="F114" s="64"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="64"/>
+      <c r="B115" s="64" t="str">
+        <f>DEC2BIN(B114,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C115" s="64" t="str">
+        <f t="shared" ref="C115:E115" si="44">DEC2BIN(C114,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D115" s="64" t="str">
+        <f t="shared" si="44"/>
+        <v>00000000</v>
+      </c>
+      <c r="E115" s="64" t="str">
+        <f t="shared" si="44"/>
+        <v>11001100</v>
+      </c>
+      <c r="F115" s="64"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="64"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="64"/>
+      <c r="F116" s="64"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="64">
+        <v>187</v>
+      </c>
+      <c r="C117" s="64">
+        <v>20</v>
+      </c>
+      <c r="D117" s="64">
+        <v>0</v>
+      </c>
+      <c r="E117" s="64">
+        <v>207</v>
+      </c>
+      <c r="F117" s="64"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="64"/>
+      <c r="B118" s="64" t="str">
+        <f>DEC2BIN(B117,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C118" s="64" t="str">
+        <f t="shared" ref="C118:E118" si="45">DEC2BIN(C117,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D118" s="64" t="str">
+        <f t="shared" si="45"/>
+        <v>00000000</v>
+      </c>
+      <c r="E118" s="64" t="str">
+        <f t="shared" si="45"/>
+        <v>11001111</v>
+      </c>
+      <c r="F118" s="64"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="64"/>
+      <c r="B119" s="64"/>
+      <c r="C119" s="64"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="64"/>
+      <c r="F119" s="64"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="64">
+        <v>255</v>
+      </c>
+      <c r="C120" s="64">
+        <v>255</v>
+      </c>
+      <c r="D120" s="64">
+        <v>255</v>
+      </c>
+      <c r="E120" s="64">
+        <v>252</v>
+      </c>
+      <c r="F120" s="64"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="64"/>
+      <c r="B121" s="64" t="str">
+        <f>DEC2BIN(B120,8)</f>
+        <v>11111111</v>
+      </c>
+      <c r="C121" s="64" t="str">
+        <f t="shared" ref="C121:E121" si="46">DEC2BIN(C120,8)</f>
+        <v>11111111</v>
+      </c>
+      <c r="D121" s="64" t="str">
+        <f t="shared" si="46"/>
+        <v>11111111</v>
+      </c>
+      <c r="E121" s="64" t="str">
+        <f t="shared" si="46"/>
+        <v>11111100</v>
+      </c>
+      <c r="F121" s="64"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="B122" s="64">
+        <v>187</v>
+      </c>
+      <c r="C122" s="64">
+        <v>20</v>
+      </c>
+      <c r="D122" s="64">
+        <v>0</v>
+      </c>
+      <c r="E122" s="64">
+        <v>205</v>
+      </c>
+      <c r="F122" s="64"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="64"/>
+      <c r="B123" s="64" t="str">
+        <f>DEC2BIN(B122,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C123" s="64" t="str">
+        <f t="shared" ref="C123:E123" si="47">DEC2BIN(C122,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D123" s="64" t="str">
+        <f t="shared" si="47"/>
+        <v>00000000</v>
+      </c>
+      <c r="E123" s="64" t="str">
+        <f t="shared" si="47"/>
+        <v>11001101</v>
+      </c>
+      <c r="F123" s="64"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="B124" s="64">
+        <v>187</v>
+      </c>
+      <c r="C124" s="64">
+        <v>20</v>
+      </c>
+      <c r="D124" s="64">
+        <v>0</v>
+      </c>
+      <c r="E124" s="64">
+        <v>206</v>
+      </c>
+      <c r="F124" s="64"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="64"/>
+      <c r="B125" s="64" t="str">
+        <f>DEC2BIN(B124,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C125" s="64" t="str">
+        <f t="shared" ref="C125:E125" si="48">DEC2BIN(C124,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D125" s="64" t="str">
+        <f t="shared" si="48"/>
+        <v>00000000</v>
+      </c>
+      <c r="E125" s="64" t="str">
+        <f t="shared" si="48"/>
+        <v>11001110</v>
+      </c>
+      <c r="F125" s="64"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B126" s="64">
+        <v>187</v>
+      </c>
+      <c r="C126" s="64">
+        <v>20</v>
+      </c>
+      <c r="D126" s="64">
+        <v>0</v>
+      </c>
+      <c r="E126" s="64">
+        <v>206</v>
+      </c>
+      <c r="F126" s="64"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="64"/>
+      <c r="B127" s="64" t="str">
+        <f>DEC2BIN(B126,8)</f>
+        <v>10111011</v>
+      </c>
+      <c r="C127" s="65" t="str">
+        <f t="shared" ref="C127:E127" si="49">DEC2BIN(C126,8)</f>
+        <v>00010100</v>
+      </c>
+      <c r="D127" s="64" t="str">
+        <f t="shared" si="49"/>
+        <v>00000000</v>
+      </c>
+      <c r="E127" s="64" t="str">
+        <f t="shared" si="49"/>
+        <v>11001110</v>
+      </c>
+      <c r="F127" s="64"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B128" s="66">
+        <f>4*54</f>
+        <v>216</v>
+      </c>
+      <c r="C128" s="67">
+        <f>B128*396</f>
+        <v>85536</v>
+      </c>
+      <c r="D128" s="64"/>
+      <c r="E128" s="64"/>
+      <c r="F128" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2020,8 +3194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE611228-1758-41E4-B155-B304EF4AAA5B}">
   <dimension ref="A1:R257"/>
   <sheetViews>
-    <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="I194" sqref="I194:I209"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="D194" sqref="D194:D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,12 +3235,12 @@
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="50" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -2078,7 +3252,7 @@
       <c r="L2" s="7">
         <v>0</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="26" t="s">
         <v>30</v>
       </c>
       <c r="N2" s="7" t="s">
@@ -2092,12 +3266,12 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
@@ -2107,7 +3281,7 @@
       <c r="L3" s="7">
         <v>1</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2117,12 +3291,12 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="50"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="4" t="s">
         <v>42</v>
       </c>
@@ -2132,7 +3306,7 @@
       <c r="L4" s="7">
         <v>2</v>
       </c>
-      <c r="M4" s="49"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="7" t="s">
         <v>24</v>
       </c>
@@ -2144,12 +3318,12 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="50"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="4"/>
       <c r="K5" s="7" t="s">
         <v>29</v>
@@ -2157,7 +3331,7 @@
       <c r="L5" s="7">
         <v>3</v>
       </c>
-      <c r="M5" s="49"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="7" t="s">
         <v>23</v>
       </c>
@@ -2169,12 +3343,12 @@
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="50"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="4"/>
       <c r="K6" s="7" t="s">
         <v>29</v>
@@ -2182,7 +3356,7 @@
       <c r="L6" s="7">
         <v>4</v>
       </c>
-      <c r="M6" s="49"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2192,12 +3366,12 @@
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="50"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="4" t="s">
         <v>43</v>
       </c>
@@ -2207,7 +3381,7 @@
       <c r="L7" s="7">
         <v>5</v>
       </c>
-      <c r="M7" s="49"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2217,12 +3391,12 @@
       <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="50"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="4" t="s">
         <v>44</v>
       </c>
@@ -2232,7 +3406,7 @@
       <c r="L8" s="7">
         <v>6</v>
       </c>
-      <c r="M8" s="49"/>
+      <c r="M8" s="26"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2242,12 +3416,12 @@
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="50"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="4" t="s">
         <v>45</v>
       </c>
@@ -2257,7 +3431,7 @@
       <c r="L9" s="7">
         <v>7</v>
       </c>
-      <c r="M9" s="49"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2267,12 +3441,12 @@
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="50"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="4" t="s">
         <v>46</v>
       </c>
@@ -2282,7 +3456,7 @@
       <c r="L10" s="7">
         <v>8</v>
       </c>
-      <c r="M10" s="49"/>
+      <c r="M10" s="26"/>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2292,12 +3466,12 @@
       <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="50"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="4" t="s">
         <v>47</v>
       </c>
@@ -2307,7 +3481,7 @@
       <c r="L11" s="7">
         <v>9</v>
       </c>
-      <c r="M11" s="49"/>
+      <c r="M11" s="26"/>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2317,12 +3491,12 @@
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="50"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="4" t="s">
         <v>48</v>
       </c>
@@ -2332,7 +3506,7 @@
       <c r="L12" s="7">
         <v>10</v>
       </c>
-      <c r="M12" s="49"/>
+      <c r="M12" s="26"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2342,12 +3516,12 @@
       <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="50"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="4" t="s">
         <v>49</v>
       </c>
@@ -2357,7 +3531,7 @@
       <c r="L13" s="7">
         <v>11</v>
       </c>
-      <c r="M13" s="49"/>
+      <c r="M13" s="26"/>
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2367,12 +3541,12 @@
       <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="50"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="4" t="s">
         <v>50</v>
       </c>
@@ -2382,7 +3556,7 @@
       <c r="L14" s="7">
         <v>12</v>
       </c>
-      <c r="M14" s="49"/>
+      <c r="M14" s="26"/>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2392,12 +3566,12 @@
       <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="50"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="4" t="s">
         <v>51</v>
       </c>
@@ -2407,7 +3581,7 @@
       <c r="L15" s="7">
         <v>13</v>
       </c>
-      <c r="M15" s="49"/>
+      <c r="M15" s="26"/>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2417,12 +3591,12 @@
       <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="50"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="4" t="s">
         <v>52</v>
       </c>
@@ -2432,7 +3606,7 @@
       <c r="L16" s="7">
         <v>14</v>
       </c>
-      <c r="M16" s="49"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2442,12 +3616,12 @@
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="50"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="4" t="s">
         <v>53</v>
       </c>
@@ -2457,7 +3631,7 @@
       <c r="L17" s="7">
         <v>15</v>
       </c>
-      <c r="M17" s="49"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2467,12 +3641,12 @@
       <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="50"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="4" t="s">
         <v>54</v>
       </c>
@@ -2482,7 +3656,7 @@
       <c r="L18" s="7">
         <v>16</v>
       </c>
-      <c r="M18" s="49"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="7" t="s">
         <v>25</v>
       </c>
@@ -2494,12 +3668,12 @@
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="50"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="4" t="s">
         <v>55</v>
       </c>
@@ -2509,7 +3683,7 @@
       <c r="L19" s="7">
         <v>17</v>
       </c>
-      <c r="M19" s="49"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="7" t="s">
         <v>26</v>
       </c>
@@ -2521,12 +3695,12 @@
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="50"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="4" t="s">
         <v>56</v>
       </c>
@@ -2536,7 +3710,7 @@
       <c r="L20" s="7">
         <v>18</v>
       </c>
-      <c r="M20" s="49"/>
+      <c r="M20" s="26"/>
       <c r="N20" s="7" t="s">
         <v>27</v>
       </c>
@@ -2548,12 +3722,12 @@
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="50"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="4" t="s">
         <v>57</v>
       </c>
@@ -2563,7 +3737,7 @@
       <c r="L21" s="7">
         <v>19</v>
       </c>
-      <c r="M21" s="49"/>
+      <c r="M21" s="26"/>
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2573,12 +3747,12 @@
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="50"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="4" t="s">
         <v>58</v>
       </c>
@@ -2588,7 +3762,7 @@
       <c r="L22" s="7">
         <v>20</v>
       </c>
-      <c r="M22" s="49"/>
+      <c r="M22" s="26"/>
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2598,12 +3772,12 @@
       <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="50"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="4" t="s">
         <v>59</v>
       </c>
@@ -2613,7 +3787,7 @@
       <c r="L23" s="7">
         <v>21</v>
       </c>
-      <c r="M23" s="49"/>
+      <c r="M23" s="26"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2623,12 +3797,12 @@
       <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="50"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="4" t="s">
         <v>60</v>
       </c>
@@ -2638,7 +3812,7 @@
       <c r="L24" s="7">
         <v>22</v>
       </c>
-      <c r="M24" s="49"/>
+      <c r="M24" s="26"/>
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2648,12 +3822,12 @@
       <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="50"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="4" t="s">
         <v>61</v>
       </c>
@@ -2663,7 +3837,7 @@
       <c r="L25" s="7">
         <v>23</v>
       </c>
-      <c r="M25" s="49"/>
+      <c r="M25" s="26"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2673,12 +3847,12 @@
       <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="50"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="4" t="s">
         <v>62</v>
       </c>
@@ -2688,7 +3862,7 @@
       <c r="L26" s="7">
         <v>24</v>
       </c>
-      <c r="M26" s="49"/>
+      <c r="M26" s="26"/>
       <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2698,12 +3872,12 @@
       <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="50"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="4" t="s">
         <v>63</v>
       </c>
@@ -2713,7 +3887,7 @@
       <c r="L27" s="7">
         <v>25</v>
       </c>
-      <c r="M27" s="49"/>
+      <c r="M27" s="26"/>
       <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2723,12 +3897,12 @@
       <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="50"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="4" t="s">
         <v>64</v>
       </c>
@@ -2738,7 +3912,7 @@
       <c r="L28" s="7">
         <v>26</v>
       </c>
-      <c r="M28" s="49"/>
+      <c r="M28" s="26"/>
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2748,12 +3922,12 @@
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="50"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="4" t="s">
         <v>65</v>
       </c>
@@ -2763,7 +3937,7 @@
       <c r="L29" s="7">
         <v>27</v>
       </c>
-      <c r="M29" s="49"/>
+      <c r="M29" s="26"/>
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2773,12 +3947,12 @@
       <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="50"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="4" t="s">
         <v>66</v>
       </c>
@@ -2788,7 +3962,7 @@
       <c r="L30" s="7">
         <v>28</v>
       </c>
-      <c r="M30" s="49"/>
+      <c r="M30" s="26"/>
       <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2798,12 +3972,12 @@
       <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="50"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="4" t="s">
         <v>67</v>
       </c>
@@ -2813,7 +3987,7 @@
       <c r="L31" s="7">
         <v>29</v>
       </c>
-      <c r="M31" s="49"/>
+      <c r="M31" s="26"/>
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2823,12 +3997,12 @@
       <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="50"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
       <c r="I32" s="4" t="s">
         <v>68</v>
       </c>
@@ -2838,7 +4012,7 @@
       <c r="L32" s="7">
         <v>30</v>
       </c>
-      <c r="M32" s="49"/>
+      <c r="M32" s="26"/>
       <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2848,12 +4022,12 @@
       <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="50"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="4" t="s">
         <v>69</v>
       </c>
@@ -2863,7 +4037,7 @@
       <c r="L33" s="7">
         <v>31</v>
       </c>
-      <c r="M33" s="49"/>
+      <c r="M33" s="26"/>
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2873,12 +4047,12 @@
       <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="50"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
       <c r="I34" s="4" t="s">
         <v>70</v>
       </c>
@@ -2888,7 +4062,7 @@
       <c r="L34" s="7">
         <v>32</v>
       </c>
-      <c r="M34" s="49"/>
+      <c r="M34" s="26"/>
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2898,12 +4072,12 @@
       <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="50"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="4" t="s">
         <v>71</v>
       </c>
@@ -2913,7 +4087,7 @@
       <c r="L35" s="7">
         <v>33</v>
       </c>
-      <c r="M35" s="49"/>
+      <c r="M35" s="26"/>
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2923,12 +4097,12 @@
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="50"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="4" t="s">
         <v>72</v>
       </c>
@@ -2938,7 +4112,7 @@
       <c r="L36" s="7">
         <v>34</v>
       </c>
-      <c r="M36" s="49"/>
+      <c r="M36" s="26"/>
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2948,12 +4122,12 @@
       <c r="B37" s="3">
         <v>35</v>
       </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="50"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="4" t="s">
         <v>73</v>
       </c>
@@ -2963,7 +4137,7 @@
       <c r="L37" s="7">
         <v>35</v>
       </c>
-      <c r="M37" s="49"/>
+      <c r="M37" s="26"/>
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2973,12 +4147,12 @@
       <c r="B38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="50"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="4" t="s">
         <v>74</v>
       </c>
@@ -2988,7 +4162,7 @@
       <c r="L38" s="7">
         <v>36</v>
       </c>
-      <c r="M38" s="49"/>
+      <c r="M38" s="26"/>
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2998,12 +4172,12 @@
       <c r="B39" s="3">
         <v>37</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="50"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
       <c r="I39" s="4" t="s">
         <v>75</v>
       </c>
@@ -3013,7 +4187,7 @@
       <c r="L39" s="7">
         <v>37</v>
       </c>
-      <c r="M39" s="49"/>
+      <c r="M39" s="26"/>
       <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -3023,12 +4197,12 @@
       <c r="B40" s="3">
         <v>38</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="50"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
       <c r="I40" s="4" t="s">
         <v>76</v>
       </c>
@@ -3038,7 +4212,7 @@
       <c r="L40" s="7">
         <v>38</v>
       </c>
-      <c r="M40" s="49"/>
+      <c r="M40" s="26"/>
       <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -3048,12 +4222,12 @@
       <c r="B41" s="3">
         <v>39</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="50"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="4" t="s">
         <v>77</v>
       </c>
@@ -3063,7 +4237,7 @@
       <c r="L41" s="7">
         <v>39</v>
       </c>
-      <c r="M41" s="49"/>
+      <c r="M41" s="26"/>
       <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -3073,12 +4247,12 @@
       <c r="B42" s="3">
         <v>40</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="50"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
       <c r="I42" s="4" t="s">
         <v>78</v>
       </c>
@@ -3088,7 +4262,7 @@
       <c r="L42" s="7">
         <v>40</v>
       </c>
-      <c r="M42" s="49"/>
+      <c r="M42" s="26"/>
       <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -3098,12 +4272,12 @@
       <c r="B43" s="3">
         <v>41</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="50"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
       <c r="I43" s="4" t="s">
         <v>79</v>
       </c>
@@ -3113,7 +4287,7 @@
       <c r="L43" s="7">
         <v>41</v>
       </c>
-      <c r="M43" s="49"/>
+      <c r="M43" s="26"/>
       <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -3123,12 +4297,12 @@
       <c r="B44" s="3">
         <v>42</v>
       </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="50"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
       <c r="I44" s="4" t="s">
         <v>80</v>
       </c>
@@ -3138,7 +4312,7 @@
       <c r="L44" s="7">
         <v>42</v>
       </c>
-      <c r="M44" s="49"/>
+      <c r="M44" s="26"/>
       <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -3148,12 +4322,12 @@
       <c r="B45" s="3">
         <v>43</v>
       </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="50"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
       <c r="I45" s="4" t="s">
         <v>81</v>
       </c>
@@ -3163,7 +4337,7 @@
       <c r="L45" s="7">
         <v>43</v>
       </c>
-      <c r="M45" s="49"/>
+      <c r="M45" s="26"/>
       <c r="N45" s="7"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -3173,12 +4347,12 @@
       <c r="B46" s="3">
         <v>44</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="50"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
       <c r="I46" s="4" t="s">
         <v>82</v>
       </c>
@@ -3188,7 +4362,7 @@
       <c r="L46" s="7">
         <v>44</v>
       </c>
-      <c r="M46" s="49"/>
+      <c r="M46" s="26"/>
       <c r="N46" s="7" t="s">
         <v>31</v>
       </c>
@@ -3200,12 +4374,12 @@
       <c r="B47" s="3">
         <v>45</v>
       </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="50"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
       <c r="I47" s="4" t="s">
         <v>83</v>
       </c>
@@ -3215,7 +4389,7 @@
       <c r="L47" s="7">
         <v>45</v>
       </c>
-      <c r="M47" s="49"/>
+      <c r="M47" s="26"/>
       <c r="N47" s="7"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -3225,12 +4399,12 @@
       <c r="B48" s="3">
         <v>46</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="50"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
       <c r="I48" s="4" t="s">
         <v>84</v>
       </c>
@@ -3240,7 +4414,7 @@
       <c r="L48" s="7">
         <v>46</v>
       </c>
-      <c r="M48" s="49"/>
+      <c r="M48" s="26"/>
       <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -3250,12 +4424,12 @@
       <c r="B49" s="3">
         <v>47</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="50"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
       <c r="I49" s="4" t="s">
         <v>85</v>
       </c>
@@ -3265,7 +4439,7 @@
       <c r="L49" s="7">
         <v>47</v>
       </c>
-      <c r="M49" s="49"/>
+      <c r="M49" s="26"/>
       <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -3275,12 +4449,12 @@
       <c r="B50" s="3">
         <v>48</v>
       </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="50"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
       <c r="I50" s="4" t="s">
         <v>86</v>
       </c>
@@ -3290,7 +4464,7 @@
       <c r="L50" s="7">
         <v>48</v>
       </c>
-      <c r="M50" s="49"/>
+      <c r="M50" s="26"/>
       <c r="N50" s="7"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -3300,12 +4474,12 @@
       <c r="B51" s="3">
         <v>49</v>
       </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="50"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
       <c r="I51" s="4" t="s">
         <v>87</v>
       </c>
@@ -3315,7 +4489,7 @@
       <c r="L51" s="7">
         <v>49</v>
       </c>
-      <c r="M51" s="49"/>
+      <c r="M51" s="26"/>
       <c r="N51" s="7"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -3325,12 +4499,12 @@
       <c r="B52" s="3">
         <v>50</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="50"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
       <c r="I52" s="4" t="s">
         <v>88</v>
       </c>
@@ -3340,7 +4514,7 @@
       <c r="L52" s="7">
         <v>50</v>
       </c>
-      <c r="M52" s="49"/>
+      <c r="M52" s="26"/>
       <c r="N52" s="7"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -3350,12 +4524,12 @@
       <c r="B53" s="3">
         <v>51</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="50"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
       <c r="I53" s="4" t="s">
         <v>89</v>
       </c>
@@ -3365,7 +4539,7 @@
       <c r="L53" s="7">
         <v>51</v>
       </c>
-      <c r="M53" s="49"/>
+      <c r="M53" s="26"/>
       <c r="N53" s="7"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -3375,12 +4549,12 @@
       <c r="B54" s="3">
         <v>52</v>
       </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="50"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28"/>
       <c r="I54" s="4" t="s">
         <v>90</v>
       </c>
@@ -3390,7 +4564,7 @@
       <c r="L54" s="7">
         <v>52</v>
       </c>
-      <c r="M54" s="49"/>
+      <c r="M54" s="26"/>
       <c r="N54" s="7"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -3400,12 +4574,12 @@
       <c r="B55" s="3">
         <v>53</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="50"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28"/>
       <c r="I55" s="4" t="s">
         <v>91</v>
       </c>
@@ -3415,7 +4589,7 @@
       <c r="L55" s="7">
         <v>53</v>
       </c>
-      <c r="M55" s="49"/>
+      <c r="M55" s="26"/>
       <c r="N55" s="7"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -3425,12 +4599,12 @@
       <c r="B56" s="3">
         <v>54</v>
       </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="50"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
       <c r="I56" s="4" t="s">
         <v>92</v>
       </c>
@@ -3440,7 +4614,7 @@
       <c r="L56" s="7">
         <v>54</v>
       </c>
-      <c r="M56" s="49"/>
+      <c r="M56" s="26"/>
       <c r="N56" s="7"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -3450,12 +4624,12 @@
       <c r="B57" s="3">
         <v>55</v>
       </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="50"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
       <c r="I57" s="4" t="s">
         <v>93</v>
       </c>
@@ -3465,7 +4639,7 @@
       <c r="L57" s="7">
         <v>55</v>
       </c>
-      <c r="M57" s="49"/>
+      <c r="M57" s="26"/>
       <c r="N57" s="7"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3475,12 +4649,12 @@
       <c r="B58" s="3">
         <v>56</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="50"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
       <c r="I58" s="4" t="s">
         <v>94</v>
       </c>
@@ -3490,7 +4664,7 @@
       <c r="L58" s="7">
         <v>56</v>
       </c>
-      <c r="M58" s="49"/>
+      <c r="M58" s="26"/>
       <c r="N58" s="7"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3500,12 +4674,12 @@
       <c r="B59" s="3">
         <v>57</v>
       </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="50"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
       <c r="I59" s="4" t="s">
         <v>95</v>
       </c>
@@ -3515,7 +4689,7 @@
       <c r="L59" s="7">
         <v>57</v>
       </c>
-      <c r="M59" s="49"/>
+      <c r="M59" s="26"/>
       <c r="N59" s="7"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -3525,12 +4699,12 @@
       <c r="B60" s="3">
         <v>58</v>
       </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="50"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28"/>
       <c r="I60" s="4" t="s">
         <v>96</v>
       </c>
@@ -3540,7 +4714,7 @@
       <c r="L60" s="7">
         <v>58</v>
       </c>
-      <c r="M60" s="49"/>
+      <c r="M60" s="26"/>
       <c r="N60" s="7"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -3550,12 +4724,12 @@
       <c r="B61" s="3">
         <v>59</v>
       </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="50"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="28"/>
       <c r="I61" s="4" t="s">
         <v>97</v>
       </c>
@@ -3565,7 +4739,7 @@
       <c r="L61" s="7">
         <v>59</v>
       </c>
-      <c r="M61" s="49"/>
+      <c r="M61" s="26"/>
       <c r="N61" s="7"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -3575,12 +4749,12 @@
       <c r="B62" s="3">
         <v>60</v>
       </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="50"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="28"/>
       <c r="I62" s="4" t="s">
         <v>98</v>
       </c>
@@ -3590,7 +4764,7 @@
       <c r="L62" s="7">
         <v>60</v>
       </c>
-      <c r="M62" s="49"/>
+      <c r="M62" s="26"/>
       <c r="N62" s="7"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -3600,12 +4774,12 @@
       <c r="B63" s="3">
         <v>61</v>
       </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="50"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
       <c r="I63" s="4" t="s">
         <v>99</v>
       </c>
@@ -3615,7 +4789,7 @@
       <c r="L63" s="7">
         <v>61</v>
       </c>
-      <c r="M63" s="49"/>
+      <c r="M63" s="26"/>
       <c r="N63" s="7"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -3625,12 +4799,12 @@
       <c r="B64" s="3">
         <v>62</v>
       </c>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="50"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="28"/>
       <c r="I64" s="4" t="s">
         <v>100</v>
       </c>
@@ -3640,7 +4814,7 @@
       <c r="L64" s="7">
         <v>62</v>
       </c>
-      <c r="M64" s="49"/>
+      <c r="M64" s="26"/>
       <c r="N64" s="7"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -3650,12 +4824,12 @@
       <c r="B65" s="3">
         <v>63</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="50"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="28"/>
       <c r="I65" s="4" t="s">
         <v>101</v>
       </c>
@@ -3665,7 +4839,7 @@
       <c r="L65" s="7">
         <v>63</v>
       </c>
-      <c r="M65" s="49"/>
+      <c r="M65" s="26"/>
       <c r="N65" s="7"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -3675,12 +4849,12 @@
       <c r="B66" s="3">
         <v>64</v>
       </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="50"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
       <c r="I66" s="4" t="s">
         <v>102</v>
       </c>
@@ -3690,7 +4864,7 @@
       <c r="L66" s="7">
         <v>64</v>
       </c>
-      <c r="M66" s="49"/>
+      <c r="M66" s="26"/>
       <c r="N66" s="7"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -3700,12 +4874,12 @@
       <c r="B67" s="3">
         <v>65</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="50"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="28"/>
       <c r="I67" s="4" t="s">
         <v>103</v>
       </c>
@@ -3715,7 +4889,7 @@
       <c r="L67" s="7">
         <v>65</v>
       </c>
-      <c r="M67" s="49"/>
+      <c r="M67" s="26"/>
       <c r="N67" s="7"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -3725,12 +4899,12 @@
       <c r="B68" s="3">
         <v>66</v>
       </c>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="50"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28"/>
       <c r="I68" s="4" t="s">
         <v>104</v>
       </c>
@@ -3740,7 +4914,7 @@
       <c r="L68" s="7">
         <v>66</v>
       </c>
-      <c r="M68" s="49"/>
+      <c r="M68" s="26"/>
       <c r="N68" s="7"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -3750,12 +4924,12 @@
       <c r="B69" s="3">
         <v>67</v>
       </c>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="50"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="28"/>
       <c r="I69" s="4" t="s">
         <v>105</v>
       </c>
@@ -3765,7 +4939,7 @@
       <c r="L69" s="7">
         <v>67</v>
       </c>
-      <c r="M69" s="49"/>
+      <c r="M69" s="26"/>
       <c r="N69" s="7"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -3775,12 +4949,12 @@
       <c r="B70" s="3">
         <v>68</v>
       </c>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="50"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="28"/>
       <c r="I70" s="4" t="s">
         <v>106</v>
       </c>
@@ -3790,7 +4964,7 @@
       <c r="L70" s="7">
         <v>68</v>
       </c>
-      <c r="M70" s="49"/>
+      <c r="M70" s="26"/>
       <c r="N70" s="7"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -3800,12 +4974,12 @@
       <c r="B71" s="3">
         <v>69</v>
       </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="50"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
       <c r="I71" s="4" t="s">
         <v>107</v>
       </c>
@@ -3815,7 +4989,7 @@
       <c r="L71" s="7">
         <v>69</v>
       </c>
-      <c r="M71" s="49"/>
+      <c r="M71" s="26"/>
       <c r="N71" s="7"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -3825,12 +4999,12 @@
       <c r="B72" s="3">
         <v>70</v>
       </c>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="50"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="28"/>
       <c r="I72" s="4" t="s">
         <v>108</v>
       </c>
@@ -3840,7 +5014,7 @@
       <c r="L72" s="7">
         <v>70</v>
       </c>
-      <c r="M72" s="49"/>
+      <c r="M72" s="26"/>
       <c r="N72" s="7"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -3850,12 +5024,12 @@
       <c r="B73" s="3">
         <v>71</v>
       </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="50"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28"/>
       <c r="I73" s="4"/>
       <c r="K73" s="7" t="s">
         <v>29</v>
@@ -3863,7 +5037,7 @@
       <c r="L73" s="7">
         <v>71</v>
       </c>
-      <c r="M73" s="49"/>
+      <c r="M73" s="26"/>
       <c r="N73" s="7"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -3873,12 +5047,12 @@
       <c r="B74" s="3">
         <v>72</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="50"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
       <c r="I74" s="4"/>
       <c r="K74" s="7" t="s">
         <v>29</v>
@@ -3886,7 +5060,7 @@
       <c r="L74" s="7">
         <v>72</v>
       </c>
-      <c r="M74" s="49"/>
+      <c r="M74" s="26"/>
       <c r="N74" s="7"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -3896,12 +5070,12 @@
       <c r="B75" s="3">
         <v>73</v>
       </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="50"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="28"/>
       <c r="I75" s="4"/>
       <c r="K75" s="7" t="s">
         <v>29</v>
@@ -3909,7 +5083,7 @@
       <c r="L75" s="7">
         <v>73</v>
       </c>
-      <c r="M75" s="49"/>
+      <c r="M75" s="26"/>
       <c r="N75" s="7"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -3919,12 +5093,12 @@
       <c r="B76" s="3">
         <v>74</v>
       </c>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="50"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="28"/>
       <c r="I76" s="4"/>
       <c r="K76" s="7" t="s">
         <v>29</v>
@@ -3932,7 +5106,7 @@
       <c r="L76" s="7">
         <v>74</v>
       </c>
-      <c r="M76" s="49"/>
+      <c r="M76" s="26"/>
       <c r="N76" s="7"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -3942,12 +5116,12 @@
       <c r="B77" s="3">
         <v>75</v>
       </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="50"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
       <c r="I77" s="4"/>
       <c r="K77" s="7" t="s">
         <v>29</v>
@@ -3955,7 +5129,7 @@
       <c r="L77" s="7">
         <v>75</v>
       </c>
-      <c r="M77" s="49"/>
+      <c r="M77" s="26"/>
       <c r="N77" s="7"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -3965,12 +5139,12 @@
       <c r="B78" s="3">
         <v>76</v>
       </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="50"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
       <c r="I78" s="4"/>
       <c r="K78" s="7" t="s">
         <v>29</v>
@@ -3978,7 +5152,7 @@
       <c r="L78" s="7">
         <v>76</v>
       </c>
-      <c r="M78" s="49"/>
+      <c r="M78" s="26"/>
       <c r="N78" s="7"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -3988,12 +5162,12 @@
       <c r="B79" s="3">
         <v>77</v>
       </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="50"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="28"/>
       <c r="I79" s="4"/>
       <c r="K79" s="7" t="s">
         <v>29</v>
@@ -4001,7 +5175,7 @@
       <c r="L79" s="7">
         <v>77</v>
       </c>
-      <c r="M79" s="49"/>
+      <c r="M79" s="26"/>
       <c r="N79" s="7"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -4011,12 +5185,12 @@
       <c r="B80" s="3">
         <v>78</v>
       </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="50"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28"/>
       <c r="I80" s="4"/>
       <c r="K80" s="7" t="s">
         <v>29</v>
@@ -4024,7 +5198,7 @@
       <c r="L80" s="7">
         <v>78</v>
       </c>
-      <c r="M80" s="49"/>
+      <c r="M80" s="26"/>
       <c r="N80" s="7"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -4034,12 +5208,12 @@
       <c r="B81" s="3">
         <v>79</v>
       </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="50"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="28"/>
       <c r="I81" s="4"/>
       <c r="K81" s="7" t="s">
         <v>29</v>
@@ -4047,7 +5221,7 @@
       <c r="L81" s="7">
         <v>79</v>
       </c>
-      <c r="M81" s="49"/>
+      <c r="M81" s="26"/>
       <c r="N81" s="7"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -4057,12 +5231,12 @@
       <c r="B82" s="3">
         <v>80</v>
       </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="50"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="28"/>
       <c r="I82" s="4"/>
       <c r="K82" s="7" t="s">
         <v>29</v>
@@ -4070,7 +5244,7 @@
       <c r="L82" s="7">
         <v>80</v>
       </c>
-      <c r="M82" s="49"/>
+      <c r="M82" s="26"/>
       <c r="N82" s="7"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -4080,12 +5254,12 @@
       <c r="B83" s="3">
         <v>81</v>
       </c>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="50"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="28"/>
       <c r="I83" s="4"/>
       <c r="K83" s="7" t="s">
         <v>29</v>
@@ -4093,7 +5267,7 @@
       <c r="L83" s="7">
         <v>81</v>
       </c>
-      <c r="M83" s="49"/>
+      <c r="M83" s="26"/>
       <c r="N83" s="7"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -4103,12 +5277,12 @@
       <c r="B84" s="3">
         <v>82</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="50"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="28"/>
       <c r="I84" s="4"/>
       <c r="K84" s="7" t="s">
         <v>29</v>
@@ -4116,7 +5290,7 @@
       <c r="L84" s="7">
         <v>82</v>
       </c>
-      <c r="M84" s="49"/>
+      <c r="M84" s="26"/>
       <c r="N84" s="7"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -4126,12 +5300,12 @@
       <c r="B85" s="3">
         <v>83</v>
       </c>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="50"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="28"/>
       <c r="I85" s="4"/>
       <c r="K85" s="7" t="s">
         <v>29</v>
@@ -4139,7 +5313,7 @@
       <c r="L85" s="7">
         <v>83</v>
       </c>
-      <c r="M85" s="49"/>
+      <c r="M85" s="26"/>
       <c r="N85" s="7"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -4149,12 +5323,12 @@
       <c r="B86" s="3">
         <v>84</v>
       </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="50"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="28"/>
       <c r="I86" s="4"/>
       <c r="K86" s="7" t="s">
         <v>29</v>
@@ -4162,7 +5336,7 @@
       <c r="L86" s="7">
         <v>84</v>
       </c>
-      <c r="M86" s="49"/>
+      <c r="M86" s="26"/>
       <c r="N86" s="7"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4172,12 +5346,12 @@
       <c r="B87" s="3">
         <v>85</v>
       </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="50"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="28"/>
       <c r="I87" s="4"/>
       <c r="K87" s="7" t="s">
         <v>29</v>
@@ -4185,7 +5359,7 @@
       <c r="L87" s="7">
         <v>85</v>
       </c>
-      <c r="M87" s="49"/>
+      <c r="M87" s="26"/>
       <c r="N87" s="7"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -4195,12 +5369,12 @@
       <c r="B88" s="3">
         <v>86</v>
       </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="50"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="28"/>
       <c r="I88" s="4"/>
       <c r="K88" s="7" t="s">
         <v>29</v>
@@ -4208,7 +5382,7 @@
       <c r="L88" s="7">
         <v>86</v>
       </c>
-      <c r="M88" s="49"/>
+      <c r="M88" s="26"/>
       <c r="N88" s="7"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -4218,12 +5392,12 @@
       <c r="B89" s="3">
         <v>87</v>
       </c>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="50"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="28"/>
       <c r="I89" s="4"/>
       <c r="K89" s="7" t="s">
         <v>29</v>
@@ -4231,7 +5405,7 @@
       <c r="L89" s="7">
         <v>87</v>
       </c>
-      <c r="M89" s="49"/>
+      <c r="M89" s="26"/>
       <c r="N89" s="7"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -4241,12 +5415,12 @@
       <c r="B90" s="3">
         <v>88</v>
       </c>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="50"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="28"/>
       <c r="I90" s="4"/>
       <c r="K90" s="7" t="s">
         <v>29</v>
@@ -4254,7 +5428,7 @@
       <c r="L90" s="7">
         <v>88</v>
       </c>
-      <c r="M90" s="49"/>
+      <c r="M90" s="26"/>
       <c r="N90" s="7"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -4264,12 +5438,12 @@
       <c r="B91" s="3">
         <v>89</v>
       </c>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="50"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="28"/>
       <c r="I91" s="4"/>
       <c r="K91" s="7" t="s">
         <v>29</v>
@@ -4277,7 +5451,7 @@
       <c r="L91" s="7">
         <v>89</v>
       </c>
-      <c r="M91" s="49"/>
+      <c r="M91" s="26"/>
       <c r="N91" s="7"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -4287,12 +5461,12 @@
       <c r="B92" s="3">
         <v>90</v>
       </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="50"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="28"/>
       <c r="I92" s="4"/>
       <c r="K92" s="7" t="s">
         <v>29</v>
@@ -4300,7 +5474,7 @@
       <c r="L92" s="7">
         <v>90</v>
       </c>
-      <c r="M92" s="49"/>
+      <c r="M92" s="26"/>
       <c r="N92" s="7"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -4310,12 +5484,12 @@
       <c r="B93" s="3">
         <v>91</v>
       </c>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="50"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="28"/>
       <c r="I93" s="4"/>
       <c r="K93" s="7" t="s">
         <v>29</v>
@@ -4323,7 +5497,7 @@
       <c r="L93" s="7">
         <v>91</v>
       </c>
-      <c r="M93" s="49"/>
+      <c r="M93" s="26"/>
       <c r="N93" s="7"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -4333,12 +5507,12 @@
       <c r="B94" s="3">
         <v>92</v>
       </c>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="50"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="28"/>
       <c r="I94" s="4"/>
       <c r="K94" s="7" t="s">
         <v>29</v>
@@ -4346,7 +5520,7 @@
       <c r="L94" s="7">
         <v>92</v>
       </c>
-      <c r="M94" s="49"/>
+      <c r="M94" s="26"/>
       <c r="N94" s="7"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -4356,12 +5530,12 @@
       <c r="B95" s="3">
         <v>93</v>
       </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="50"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="28"/>
       <c r="I95" s="4"/>
       <c r="K95" s="7" t="s">
         <v>29</v>
@@ -4369,7 +5543,7 @@
       <c r="L95" s="7">
         <v>93</v>
       </c>
-      <c r="M95" s="49"/>
+      <c r="M95" s="26"/>
       <c r="N95" s="7"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -4379,12 +5553,12 @@
       <c r="B96" s="3">
         <v>94</v>
       </c>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="50"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="28"/>
       <c r="I96" s="4"/>
       <c r="K96" s="7" t="s">
         <v>29</v>
@@ -4392,7 +5566,7 @@
       <c r="L96" s="7">
         <v>94</v>
       </c>
-      <c r="M96" s="49"/>
+      <c r="M96" s="26"/>
       <c r="N96" s="7"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -4402,12 +5576,12 @@
       <c r="B97" s="3">
         <v>95</v>
       </c>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="50"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="28"/>
       <c r="I97" s="4"/>
       <c r="K97" s="7" t="s">
         <v>29</v>
@@ -4415,7 +5589,7 @@
       <c r="L97" s="7">
         <v>95</v>
       </c>
-      <c r="M97" s="49"/>
+      <c r="M97" s="26"/>
       <c r="N97" s="7"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -4425,12 +5599,12 @@
       <c r="B98" s="3">
         <v>96</v>
       </c>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="50"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="28"/>
       <c r="I98" s="4"/>
       <c r="K98" s="7" t="s">
         <v>29</v>
@@ -4438,7 +5612,7 @@
       <c r="L98" s="7">
         <v>96</v>
       </c>
-      <c r="M98" s="49"/>
+      <c r="M98" s="26"/>
       <c r="N98" s="7"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -4448,12 +5622,12 @@
       <c r="B99" s="3">
         <v>97</v>
       </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="50"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="28"/>
       <c r="I99" s="4"/>
       <c r="K99" s="7" t="s">
         <v>29</v>
@@ -4461,7 +5635,7 @@
       <c r="L99" s="7">
         <v>97</v>
       </c>
-      <c r="M99" s="49"/>
+      <c r="M99" s="26"/>
       <c r="N99" s="7"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -4471,12 +5645,12 @@
       <c r="B100" s="3">
         <v>98</v>
       </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="50"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="28"/>
       <c r="I100" s="4"/>
       <c r="K100" s="7" t="s">
         <v>29</v>
@@ -4484,7 +5658,7 @@
       <c r="L100" s="7">
         <v>98</v>
       </c>
-      <c r="M100" s="49"/>
+      <c r="M100" s="26"/>
       <c r="N100" s="7"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -4494,12 +5668,12 @@
       <c r="B101" s="3">
         <v>99</v>
       </c>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="50"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="28"/>
       <c r="I101" s="4"/>
       <c r="K101" s="7" t="s">
         <v>29</v>
@@ -4507,7 +5681,7 @@
       <c r="L101" s="7">
         <v>99</v>
       </c>
-      <c r="M101" s="49"/>
+      <c r="M101" s="26"/>
       <c r="N101" s="7"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -4517,12 +5691,12 @@
       <c r="B102" s="3">
         <v>100</v>
       </c>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="50"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="28"/>
       <c r="I102" s="4"/>
       <c r="K102" s="7" t="s">
         <v>29</v>
@@ -4530,7 +5704,7 @@
       <c r="L102" s="7">
         <v>100</v>
       </c>
-      <c r="M102" s="49"/>
+      <c r="M102" s="26"/>
       <c r="N102" s="7"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -4540,12 +5714,12 @@
       <c r="B103" s="3">
         <v>101</v>
       </c>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="50"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="28"/>
       <c r="I103" s="4"/>
       <c r="K103" s="7" t="s">
         <v>29</v>
@@ -4553,7 +5727,7 @@
       <c r="L103" s="7">
         <v>101</v>
       </c>
-      <c r="M103" s="49"/>
+      <c r="M103" s="26"/>
       <c r="N103" s="7"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -4563,12 +5737,12 @@
       <c r="B104" s="3">
         <v>102</v>
       </c>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="50"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="28"/>
       <c r="I104" s="4"/>
       <c r="K104" s="7" t="s">
         <v>29</v>
@@ -4576,7 +5750,7 @@
       <c r="L104" s="7">
         <v>102</v>
       </c>
-      <c r="M104" s="49"/>
+      <c r="M104" s="26"/>
       <c r="N104" s="7"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -4586,12 +5760,12 @@
       <c r="B105" s="3">
         <v>103</v>
       </c>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="50"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="28"/>
       <c r="I105" s="4"/>
       <c r="K105" s="7" t="s">
         <v>29</v>
@@ -4599,7 +5773,7 @@
       <c r="L105" s="7">
         <v>103</v>
       </c>
-      <c r="M105" s="49"/>
+      <c r="M105" s="26"/>
       <c r="N105" s="7"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -4609,12 +5783,12 @@
       <c r="B106" s="3">
         <v>104</v>
       </c>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="50"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="28"/>
       <c r="I106" s="4"/>
       <c r="K106" s="7" t="s">
         <v>29</v>
@@ -4622,7 +5796,7 @@
       <c r="L106" s="7">
         <v>104</v>
       </c>
-      <c r="M106" s="49"/>
+      <c r="M106" s="26"/>
       <c r="N106" s="7"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -4632,12 +5806,12 @@
       <c r="B107" s="3">
         <v>105</v>
       </c>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="50"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="28"/>
       <c r="I107" s="4"/>
       <c r="K107" s="7" t="s">
         <v>29</v>
@@ -4645,7 +5819,7 @@
       <c r="L107" s="7">
         <v>105</v>
       </c>
-      <c r="M107" s="49"/>
+      <c r="M107" s="26"/>
       <c r="N107" s="7"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -4655,12 +5829,12 @@
       <c r="B108" s="3">
         <v>106</v>
       </c>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="50"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="28"/>
       <c r="I108" s="4"/>
       <c r="K108" s="7" t="s">
         <v>29</v>
@@ -4668,7 +5842,7 @@
       <c r="L108" s="7">
         <v>106</v>
       </c>
-      <c r="M108" s="49"/>
+      <c r="M108" s="26"/>
       <c r="N108" s="7"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -4678,12 +5852,12 @@
       <c r="B109" s="3">
         <v>107</v>
       </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="50"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="28"/>
       <c r="I109" s="4"/>
       <c r="K109" s="7" t="s">
         <v>29</v>
@@ -4691,7 +5865,7 @@
       <c r="L109" s="7">
         <v>107</v>
       </c>
-      <c r="M109" s="49"/>
+      <c r="M109" s="26"/>
       <c r="N109" s="7"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -4701,12 +5875,12 @@
       <c r="B110" s="3">
         <v>108</v>
       </c>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="50"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="28"/>
       <c r="I110" s="4"/>
       <c r="K110" s="7" t="s">
         <v>29</v>
@@ -4714,7 +5888,7 @@
       <c r="L110" s="7">
         <v>108</v>
       </c>
-      <c r="M110" s="49"/>
+      <c r="M110" s="26"/>
       <c r="N110" s="7"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -4724,12 +5898,12 @@
       <c r="B111" s="3">
         <v>109</v>
       </c>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="50"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="28"/>
       <c r="I111" s="4"/>
       <c r="K111" s="7" t="s">
         <v>29</v>
@@ -4737,7 +5911,7 @@
       <c r="L111" s="7">
         <v>109</v>
       </c>
-      <c r="M111" s="49"/>
+      <c r="M111" s="26"/>
       <c r="N111" s="7"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -4747,12 +5921,12 @@
       <c r="B112" s="3">
         <v>110</v>
       </c>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="50"/>
+      <c r="C112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="28"/>
       <c r="I112" s="4"/>
       <c r="K112" s="7" t="s">
         <v>29</v>
@@ -4760,7 +5934,7 @@
       <c r="L112" s="7">
         <v>110</v>
       </c>
-      <c r="M112" s="49"/>
+      <c r="M112" s="26"/>
       <c r="N112" s="7"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -4770,12 +5944,12 @@
       <c r="B113" s="3">
         <v>111</v>
       </c>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="50"/>
+      <c r="C113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="28"/>
       <c r="I113" s="4"/>
       <c r="K113" s="7" t="s">
         <v>29</v>
@@ -4783,7 +5957,7 @@
       <c r="L113" s="7">
         <v>111</v>
       </c>
-      <c r="M113" s="49"/>
+      <c r="M113" s="26"/>
       <c r="N113" s="7"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -4793,12 +5967,12 @@
       <c r="B114" s="3">
         <v>112</v>
       </c>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="50"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="28"/>
       <c r="I114" s="4"/>
       <c r="K114" s="7" t="s">
         <v>29</v>
@@ -4806,7 +5980,7 @@
       <c r="L114" s="7">
         <v>112</v>
       </c>
-      <c r="M114" s="49"/>
+      <c r="M114" s="26"/>
       <c r="N114" s="7"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -4816,12 +5990,12 @@
       <c r="B115" s="3">
         <v>113</v>
       </c>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="50"/>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="28"/>
       <c r="I115" s="4"/>
       <c r="K115" s="7" t="s">
         <v>29</v>
@@ -4829,7 +6003,7 @@
       <c r="L115" s="7">
         <v>113</v>
       </c>
-      <c r="M115" s="49"/>
+      <c r="M115" s="26"/>
       <c r="N115" s="7"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -4839,12 +6013,12 @@
       <c r="B116" s="3">
         <v>114</v>
       </c>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="50"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="28"/>
       <c r="I116" s="4"/>
       <c r="K116" s="7" t="s">
         <v>29</v>
@@ -4852,7 +6026,7 @@
       <c r="L116" s="7">
         <v>114</v>
       </c>
-      <c r="M116" s="49"/>
+      <c r="M116" s="26"/>
       <c r="N116" s="7"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -4862,12 +6036,12 @@
       <c r="B117" s="3">
         <v>115</v>
       </c>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="50"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="28"/>
       <c r="I117" s="4"/>
       <c r="K117" s="7" t="s">
         <v>29</v>
@@ -4875,7 +6049,7 @@
       <c r="L117" s="7">
         <v>115</v>
       </c>
-      <c r="M117" s="49"/>
+      <c r="M117" s="26"/>
       <c r="N117" s="7"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -4885,12 +6059,12 @@
       <c r="B118" s="3">
         <v>116</v>
       </c>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="33"/>
-      <c r="H118" s="50"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="28"/>
       <c r="I118" s="4"/>
       <c r="K118" s="7" t="s">
         <v>29</v>
@@ -4898,7 +6072,7 @@
       <c r="L118" s="7">
         <v>116</v>
       </c>
-      <c r="M118" s="49"/>
+      <c r="M118" s="26"/>
       <c r="N118" s="7"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -4908,12 +6082,12 @@
       <c r="B119" s="3">
         <v>117</v>
       </c>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="50"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="28"/>
       <c r="I119" s="4"/>
       <c r="K119" s="7" t="s">
         <v>29</v>
@@ -4921,7 +6095,7 @@
       <c r="L119" s="7">
         <v>117</v>
       </c>
-      <c r="M119" s="49"/>
+      <c r="M119" s="26"/>
       <c r="N119" s="7"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -4931,12 +6105,12 @@
       <c r="B120" s="3">
         <v>118</v>
       </c>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="33"/>
-      <c r="G120" s="33"/>
-      <c r="H120" s="50"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="28"/>
       <c r="I120" s="4"/>
       <c r="K120" s="7" t="s">
         <v>29</v>
@@ -4944,7 +6118,7 @@
       <c r="L120" s="7">
         <v>118</v>
       </c>
-      <c r="M120" s="49"/>
+      <c r="M120" s="26"/>
       <c r="N120" s="7"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -4954,12 +6128,12 @@
       <c r="B121" s="3">
         <v>119</v>
       </c>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="33"/>
-      <c r="G121" s="33"/>
-      <c r="H121" s="50"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="28"/>
       <c r="I121" s="4"/>
       <c r="K121" s="7" t="s">
         <v>29</v>
@@ -4967,7 +6141,7 @@
       <c r="L121" s="7">
         <v>119</v>
       </c>
-      <c r="M121" s="49"/>
+      <c r="M121" s="26"/>
       <c r="N121" s="7"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -4977,12 +6151,12 @@
       <c r="B122" s="3">
         <v>120</v>
       </c>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="33"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="50"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="28"/>
       <c r="I122" s="4"/>
       <c r="K122" s="7" t="s">
         <v>29</v>
@@ -4990,7 +6164,7 @@
       <c r="L122" s="7">
         <v>120</v>
       </c>
-      <c r="M122" s="49"/>
+      <c r="M122" s="26"/>
       <c r="N122" s="7"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -5000,12 +6174,12 @@
       <c r="B123" s="3">
         <v>121</v>
       </c>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="50"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="28"/>
       <c r="I123" s="4"/>
       <c r="K123" s="7" t="s">
         <v>29</v>
@@ -5013,7 +6187,7 @@
       <c r="L123" s="7">
         <v>121</v>
       </c>
-      <c r="M123" s="49"/>
+      <c r="M123" s="26"/>
       <c r="N123" s="7"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -5023,12 +6197,12 @@
       <c r="B124" s="3">
         <v>122</v>
       </c>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="50"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="28"/>
       <c r="I124" s="4"/>
       <c r="K124" s="7" t="s">
         <v>29</v>
@@ -5036,7 +6210,7 @@
       <c r="L124" s="7">
         <v>122</v>
       </c>
-      <c r="M124" s="49"/>
+      <c r="M124" s="26"/>
       <c r="N124" s="7"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -5046,12 +6220,12 @@
       <c r="B125" s="3">
         <v>123</v>
       </c>
-      <c r="C125" s="33"/>
-      <c r="D125" s="33"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="33"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="50"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="28"/>
       <c r="I125" s="4"/>
       <c r="K125" s="7" t="s">
         <v>29</v>
@@ -5059,7 +6233,7 @@
       <c r="L125" s="7">
         <v>123</v>
       </c>
-      <c r="M125" s="49"/>
+      <c r="M125" s="26"/>
       <c r="N125" s="7"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -5069,12 +6243,12 @@
       <c r="B126" s="3">
         <v>124</v>
       </c>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="50"/>
+      <c r="C126" s="27"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="28"/>
       <c r="I126" s="4"/>
       <c r="K126" s="7" t="s">
         <v>29</v>
@@ -5082,7 +6256,7 @@
       <c r="L126" s="7">
         <v>124</v>
       </c>
-      <c r="M126" s="49"/>
+      <c r="M126" s="26"/>
       <c r="N126" s="7"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -5092,12 +6266,12 @@
       <c r="B127" s="3">
         <v>125</v>
       </c>
-      <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="33"/>
-      <c r="F127" s="33"/>
-      <c r="G127" s="33"/>
-      <c r="H127" s="50"/>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="28"/>
       <c r="I127" s="4"/>
       <c r="K127" s="7" t="s">
         <v>29</v>
@@ -5105,7 +6279,7 @@
       <c r="L127" s="7">
         <v>125</v>
       </c>
-      <c r="M127" s="49"/>
+      <c r="M127" s="26"/>
       <c r="N127" s="7"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -5115,12 +6289,12 @@
       <c r="B128" s="3">
         <v>126</v>
       </c>
-      <c r="C128" s="33"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="33"/>
-      <c r="H128" s="50"/>
+      <c r="C128" s="27"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="28"/>
       <c r="I128" s="4"/>
       <c r="K128" s="7" t="s">
         <v>29</v>
@@ -5128,7 +6302,7 @@
       <c r="L128" s="7">
         <v>126</v>
       </c>
-      <c r="M128" s="49"/>
+      <c r="M128" s="26"/>
       <c r="N128" s="7"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -5138,12 +6312,12 @@
       <c r="B129" s="3">
         <v>127</v>
       </c>
-      <c r="C129" s="33"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33"/>
-      <c r="G129" s="33"/>
-      <c r="H129" s="50"/>
+      <c r="C129" s="27"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="28"/>
       <c r="I129" s="4" t="s">
         <v>12</v>
       </c>
@@ -5153,7 +6327,7 @@
       <c r="L129" s="7">
         <v>127</v>
       </c>
-      <c r="M129" s="49"/>
+      <c r="M129" s="26"/>
       <c r="N129" s="7"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -5163,14 +6337,14 @@
       <c r="B130" s="5">
         <v>128</v>
       </c>
-      <c r="C130" s="33"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="33"/>
-      <c r="G130" s="44" t="s">
+      <c r="C130" s="27"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H130" s="33"/>
+      <c r="H130" s="27"/>
       <c r="I130" s="6" t="s">
         <v>11</v>
       </c>
@@ -5180,7 +6354,7 @@
       <c r="L130" s="7">
         <v>128</v>
       </c>
-      <c r="M130" s="49"/>
+      <c r="M130" s="26"/>
       <c r="N130" s="7"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -5190,12 +6364,12 @@
       <c r="B131" s="5">
         <v>129</v>
       </c>
-      <c r="C131" s="33"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="33"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="27"/>
       <c r="I131" s="6" t="s">
         <v>20</v>
       </c>
@@ -5205,7 +6379,7 @@
       <c r="L131" s="7">
         <v>129</v>
       </c>
-      <c r="M131" s="49"/>
+      <c r="M131" s="26"/>
       <c r="N131" s="7"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -5215,12 +6389,12 @@
       <c r="B132" s="5">
         <v>130</v>
       </c>
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="33"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="27"/>
       <c r="I132" s="6" t="s">
         <v>17</v>
       </c>
@@ -5230,7 +6404,7 @@
       <c r="L132" s="7">
         <v>130</v>
       </c>
-      <c r="M132" s="49"/>
+      <c r="M132" s="26"/>
       <c r="N132" s="7"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -5240,12 +6414,12 @@
       <c r="B133" s="5">
         <v>131</v>
       </c>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="33"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="27"/>
       <c r="I133" s="6" t="s">
         <v>13</v>
       </c>
@@ -5255,7 +6429,7 @@
       <c r="L133" s="7">
         <v>131</v>
       </c>
-      <c r="M133" s="49"/>
+      <c r="M133" s="26"/>
       <c r="N133" s="7"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -5265,12 +6439,12 @@
       <c r="B134" s="5">
         <v>132</v>
       </c>
-      <c r="C134" s="33"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="33"/>
-      <c r="G134" s="44"/>
-      <c r="H134" s="33"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="27"/>
       <c r="I134" s="6" t="s">
         <v>14</v>
       </c>
@@ -5280,7 +6454,7 @@
       <c r="L134" s="7">
         <v>132</v>
       </c>
-      <c r="M134" s="49"/>
+      <c r="M134" s="26"/>
       <c r="N134" s="7"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -5290,12 +6464,12 @@
       <c r="B135" s="5">
         <v>133</v>
       </c>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="33"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="27"/>
       <c r="I135" s="6" t="s">
         <v>16</v>
       </c>
@@ -5305,7 +6479,7 @@
       <c r="L135" s="7">
         <v>133</v>
       </c>
-      <c r="M135" s="49"/>
+      <c r="M135" s="26"/>
       <c r="N135" s="7"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -5315,12 +6489,12 @@
       <c r="B136" s="5">
         <v>134</v>
       </c>
-      <c r="C136" s="33"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="33"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="27"/>
       <c r="I136" s="6" t="s">
         <v>15</v>
       </c>
@@ -5330,7 +6504,7 @@
       <c r="L136" s="7">
         <v>134</v>
       </c>
-      <c r="M136" s="49"/>
+      <c r="M136" s="26"/>
       <c r="N136" s="7"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -5340,12 +6514,12 @@
       <c r="B137" s="5">
         <v>135</v>
       </c>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="44"/>
-      <c r="H137" s="33"/>
+      <c r="C137" s="27"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="27"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="27"/>
       <c r="I137" s="6"/>
       <c r="K137" s="7" t="s">
         <v>29</v>
@@ -5353,7 +6527,7 @@
       <c r="L137" s="7">
         <v>135</v>
       </c>
-      <c r="M137" s="49"/>
+      <c r="M137" s="26"/>
       <c r="N137" s="7"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -5363,12 +6537,12 @@
       <c r="B138" s="5">
         <v>136</v>
       </c>
-      <c r="C138" s="33"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="33"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="33"/>
+      <c r="C138" s="27"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="27"/>
       <c r="I138" s="6"/>
       <c r="K138" s="7" t="s">
         <v>29</v>
@@ -5376,7 +6550,7 @@
       <c r="L138" s="7">
         <v>136</v>
       </c>
-      <c r="M138" s="49"/>
+      <c r="M138" s="26"/>
       <c r="N138" s="7"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -5386,12 +6560,12 @@
       <c r="B139" s="5">
         <v>137</v>
       </c>
-      <c r="C139" s="33"/>
-      <c r="D139" s="33"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="33"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="27"/>
       <c r="I139" s="6"/>
       <c r="K139" s="7" t="s">
         <v>29</v>
@@ -5399,7 +6573,7 @@
       <c r="L139" s="7">
         <v>137</v>
       </c>
-      <c r="M139" s="49"/>
+      <c r="M139" s="26"/>
       <c r="N139" s="7"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -5409,12 +6583,12 @@
       <c r="B140" s="5">
         <v>138</v>
       </c>
-      <c r="C140" s="33"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33"/>
-      <c r="G140" s="44"/>
-      <c r="H140" s="33"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="27"/>
       <c r="I140" s="6"/>
       <c r="K140" s="7" t="s">
         <v>29</v>
@@ -5422,7 +6596,7 @@
       <c r="L140" s="7">
         <v>138</v>
       </c>
-      <c r="M140" s="49"/>
+      <c r="M140" s="26"/>
       <c r="N140" s="7"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -5432,12 +6606,12 @@
       <c r="B141" s="5">
         <v>139</v>
       </c>
-      <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="33"/>
-      <c r="G141" s="44"/>
-      <c r="H141" s="33"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="27"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="27"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="27"/>
       <c r="I141" s="6"/>
       <c r="K141" s="7" t="s">
         <v>29</v>
@@ -5445,7 +6619,7 @@
       <c r="L141" s="7">
         <v>139</v>
       </c>
-      <c r="M141" s="49"/>
+      <c r="M141" s="26"/>
       <c r="N141" s="7"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -5455,12 +6629,12 @@
       <c r="B142" s="5">
         <v>140</v>
       </c>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="44"/>
-      <c r="H142" s="33"/>
+      <c r="C142" s="27"/>
+      <c r="D142" s="27"/>
+      <c r="E142" s="27"/>
+      <c r="F142" s="27"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="27"/>
       <c r="I142" s="6"/>
       <c r="K142" s="7" t="s">
         <v>29</v>
@@ -5468,7 +6642,7 @@
       <c r="L142" s="7">
         <v>140</v>
       </c>
-      <c r="M142" s="49"/>
+      <c r="M142" s="26"/>
       <c r="N142" s="7"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
@@ -5478,12 +6652,12 @@
       <c r="B143" s="5">
         <v>141</v>
       </c>
-      <c r="C143" s="33"/>
-      <c r="D143" s="33"/>
-      <c r="E143" s="33"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="44"/>
-      <c r="H143" s="33"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="27"/>
+      <c r="F143" s="27"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="27"/>
       <c r="I143" s="6"/>
       <c r="K143" s="7" t="s">
         <v>29</v>
@@ -5491,7 +6665,7 @@
       <c r="L143" s="7">
         <v>141</v>
       </c>
-      <c r="M143" s="49"/>
+      <c r="M143" s="26"/>
       <c r="N143" s="7"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -5501,12 +6675,12 @@
       <c r="B144" s="5">
         <v>142</v>
       </c>
-      <c r="C144" s="33"/>
-      <c r="D144" s="33"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="44"/>
-      <c r="H144" s="33"/>
+      <c r="C144" s="27"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="29"/>
+      <c r="H144" s="27"/>
       <c r="I144" s="6"/>
       <c r="K144" s="7" t="s">
         <v>29</v>
@@ -5514,7 +6688,7 @@
       <c r="L144" s="7">
         <v>142</v>
       </c>
-      <c r="M144" s="49"/>
+      <c r="M144" s="26"/>
       <c r="N144" s="7"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -5524,12 +6698,12 @@
       <c r="B145" s="5">
         <v>143</v>
       </c>
-      <c r="C145" s="33"/>
-      <c r="D145" s="33"/>
-      <c r="E145" s="33"/>
-      <c r="F145" s="33"/>
-      <c r="G145" s="44"/>
-      <c r="H145" s="33"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="27"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="27"/>
       <c r="I145" s="6"/>
       <c r="K145" s="7" t="s">
         <v>29</v>
@@ -5537,7 +6711,7 @@
       <c r="L145" s="7">
         <v>143</v>
       </c>
-      <c r="M145" s="49"/>
+      <c r="M145" s="26"/>
       <c r="N145" s="7"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -5547,12 +6721,12 @@
       <c r="B146" s="5">
         <v>144</v>
       </c>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33"/>
-      <c r="G146" s="44"/>
-      <c r="H146" s="33"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="27"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="27"/>
       <c r="I146" s="6"/>
       <c r="K146" s="7" t="s">
         <v>29</v>
@@ -5560,7 +6734,7 @@
       <c r="L146" s="7">
         <v>144</v>
       </c>
-      <c r="M146" s="49"/>
+      <c r="M146" s="26"/>
       <c r="N146" s="7"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -5570,12 +6744,12 @@
       <c r="B147" s="5">
         <v>145</v>
       </c>
-      <c r="C147" s="33"/>
-      <c r="D147" s="33"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
-      <c r="G147" s="44"/>
-      <c r="H147" s="33"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="27"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="27"/>
       <c r="I147" s="6"/>
       <c r="K147" s="7" t="s">
         <v>29</v>
@@ -5583,7 +6757,7 @@
       <c r="L147" s="7">
         <v>145</v>
       </c>
-      <c r="M147" s="49"/>
+      <c r="M147" s="26"/>
       <c r="N147" s="7"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -5593,12 +6767,12 @@
       <c r="B148" s="5">
         <v>146</v>
       </c>
-      <c r="C148" s="33"/>
-      <c r="D148" s="33"/>
-      <c r="E148" s="33"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="44"/>
-      <c r="H148" s="33"/>
+      <c r="C148" s="27"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="27"/>
       <c r="I148" s="6"/>
       <c r="K148" s="7" t="s">
         <v>29</v>
@@ -5606,7 +6780,7 @@
       <c r="L148" s="7">
         <v>146</v>
       </c>
-      <c r="M148" s="49"/>
+      <c r="M148" s="26"/>
       <c r="N148" s="7"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -5616,12 +6790,12 @@
       <c r="B149" s="5">
         <v>147</v>
       </c>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="44"/>
-      <c r="H149" s="33"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="29"/>
+      <c r="H149" s="27"/>
       <c r="I149" s="6"/>
       <c r="K149" s="7" t="s">
         <v>29</v>
@@ -5629,7 +6803,7 @@
       <c r="L149" s="7">
         <v>147</v>
       </c>
-      <c r="M149" s="49"/>
+      <c r="M149" s="26"/>
       <c r="N149" s="7"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -5639,12 +6813,12 @@
       <c r="B150" s="5">
         <v>148</v>
       </c>
-      <c r="C150" s="33"/>
-      <c r="D150" s="33"/>
-      <c r="E150" s="33"/>
-      <c r="F150" s="33"/>
-      <c r="G150" s="44"/>
-      <c r="H150" s="33"/>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="27"/>
+      <c r="G150" s="29"/>
+      <c r="H150" s="27"/>
       <c r="I150" s="6"/>
       <c r="K150" s="7" t="s">
         <v>29</v>
@@ -5652,7 +6826,7 @@
       <c r="L150" s="7">
         <v>148</v>
       </c>
-      <c r="M150" s="49"/>
+      <c r="M150" s="26"/>
       <c r="N150" s="7"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -5662,12 +6836,12 @@
       <c r="B151" s="5">
         <v>149</v>
       </c>
-      <c r="C151" s="33"/>
-      <c r="D151" s="33"/>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33"/>
-      <c r="G151" s="44"/>
-      <c r="H151" s="33"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27"/>
+      <c r="F151" s="27"/>
+      <c r="G151" s="29"/>
+      <c r="H151" s="27"/>
       <c r="I151" s="6"/>
       <c r="K151" s="7" t="s">
         <v>29</v>
@@ -5675,7 +6849,7 @@
       <c r="L151" s="7">
         <v>149</v>
       </c>
-      <c r="M151" s="49"/>
+      <c r="M151" s="26"/>
       <c r="N151" s="7"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -5685,12 +6859,12 @@
       <c r="B152" s="5">
         <v>150</v>
       </c>
-      <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33"/>
-      <c r="G152" s="44"/>
-      <c r="H152" s="33"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="27"/>
+      <c r="G152" s="29"/>
+      <c r="H152" s="27"/>
       <c r="I152" s="6"/>
       <c r="K152" s="7" t="s">
         <v>29</v>
@@ -5698,7 +6872,7 @@
       <c r="L152" s="7">
         <v>150</v>
       </c>
-      <c r="M152" s="49"/>
+      <c r="M152" s="26"/>
       <c r="N152" s="7"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -5708,12 +6882,12 @@
       <c r="B153" s="5">
         <v>151</v>
       </c>
-      <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33"/>
-      <c r="G153" s="44"/>
-      <c r="H153" s="33"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="27"/>
+      <c r="G153" s="29"/>
+      <c r="H153" s="27"/>
       <c r="I153" s="6"/>
       <c r="K153" s="7" t="s">
         <v>29</v>
@@ -5721,7 +6895,7 @@
       <c r="L153" s="7">
         <v>151</v>
       </c>
-      <c r="M153" s="49"/>
+      <c r="M153" s="26"/>
       <c r="N153" s="7"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -5731,12 +6905,12 @@
       <c r="B154" s="5">
         <v>152</v>
       </c>
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
-      <c r="G154" s="44"/>
-      <c r="H154" s="33"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="29"/>
+      <c r="H154" s="27"/>
       <c r="I154" s="6"/>
       <c r="K154" s="7" t="s">
         <v>29</v>
@@ -5744,7 +6918,7 @@
       <c r="L154" s="7">
         <v>152</v>
       </c>
-      <c r="M154" s="49"/>
+      <c r="M154" s="26"/>
       <c r="N154" s="7"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -5754,12 +6928,12 @@
       <c r="B155" s="5">
         <v>153</v>
       </c>
-      <c r="C155" s="33"/>
-      <c r="D155" s="33"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33"/>
-      <c r="G155" s="44"/>
-      <c r="H155" s="33"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="29"/>
+      <c r="H155" s="27"/>
       <c r="I155" s="6"/>
       <c r="K155" s="7" t="s">
         <v>29</v>
@@ -5767,7 +6941,7 @@
       <c r="L155" s="7">
         <v>153</v>
       </c>
-      <c r="M155" s="49"/>
+      <c r="M155" s="26"/>
       <c r="N155" s="7"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -5777,12 +6951,12 @@
       <c r="B156" s="5">
         <v>154</v>
       </c>
-      <c r="C156" s="33"/>
-      <c r="D156" s="33"/>
-      <c r="E156" s="33"/>
-      <c r="F156" s="33"/>
-      <c r="G156" s="44"/>
-      <c r="H156" s="33"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="29"/>
+      <c r="H156" s="27"/>
       <c r="I156" s="6"/>
       <c r="K156" s="7" t="s">
         <v>29</v>
@@ -5790,7 +6964,7 @@
       <c r="L156" s="7">
         <v>154</v>
       </c>
-      <c r="M156" s="49"/>
+      <c r="M156" s="26"/>
       <c r="N156" s="7"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -5800,12 +6974,12 @@
       <c r="B157" s="5">
         <v>155</v>
       </c>
-      <c r="C157" s="33"/>
-      <c r="D157" s="33"/>
-      <c r="E157" s="33"/>
-      <c r="F157" s="33"/>
-      <c r="G157" s="44"/>
-      <c r="H157" s="33"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="27"/>
+      <c r="G157" s="29"/>
+      <c r="H157" s="27"/>
       <c r="I157" s="6"/>
       <c r="K157" s="7" t="s">
         <v>29</v>
@@ -5813,7 +6987,7 @@
       <c r="L157" s="7">
         <v>155</v>
       </c>
-      <c r="M157" s="49"/>
+      <c r="M157" s="26"/>
       <c r="N157" s="7"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -5823,12 +6997,12 @@
       <c r="B158" s="5">
         <v>156</v>
       </c>
-      <c r="C158" s="33"/>
-      <c r="D158" s="33"/>
-      <c r="E158" s="33"/>
-      <c r="F158" s="33"/>
-      <c r="G158" s="44"/>
-      <c r="H158" s="33"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="27"/>
+      <c r="G158" s="29"/>
+      <c r="H158" s="27"/>
       <c r="I158" s="6"/>
       <c r="K158" s="7" t="s">
         <v>29</v>
@@ -5836,7 +7010,7 @@
       <c r="L158" s="7">
         <v>156</v>
       </c>
-      <c r="M158" s="49"/>
+      <c r="M158" s="26"/>
       <c r="N158" s="7"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
@@ -5846,12 +7020,12 @@
       <c r="B159" s="5">
         <v>157</v>
       </c>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
-      <c r="F159" s="33"/>
-      <c r="G159" s="44"/>
-      <c r="H159" s="33"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="29"/>
+      <c r="H159" s="27"/>
       <c r="I159" s="6"/>
       <c r="K159" s="7" t="s">
         <v>29</v>
@@ -5859,7 +7033,7 @@
       <c r="L159" s="7">
         <v>157</v>
       </c>
-      <c r="M159" s="49"/>
+      <c r="M159" s="26"/>
       <c r="N159" s="7"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -5869,12 +7043,12 @@
       <c r="B160" s="5">
         <v>158</v>
       </c>
-      <c r="C160" s="33"/>
-      <c r="D160" s="33"/>
-      <c r="E160" s="33"/>
-      <c r="F160" s="33"/>
-      <c r="G160" s="44"/>
-      <c r="H160" s="33"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="29"/>
+      <c r="H160" s="27"/>
       <c r="I160" s="6"/>
       <c r="K160" s="7" t="s">
         <v>29</v>
@@ -5882,7 +7056,7 @@
       <c r="L160" s="7">
         <v>158</v>
       </c>
-      <c r="M160" s="49"/>
+      <c r="M160" s="26"/>
       <c r="N160" s="7"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -5892,12 +7066,12 @@
       <c r="B161" s="5">
         <v>159</v>
       </c>
-      <c r="C161" s="33"/>
-      <c r="D161" s="33"/>
-      <c r="E161" s="33"/>
-      <c r="F161" s="33"/>
-      <c r="G161" s="44"/>
-      <c r="H161" s="33"/>
+      <c r="C161" s="27"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="29"/>
+      <c r="H161" s="27"/>
       <c r="I161" s="6"/>
       <c r="K161" s="7" t="s">
         <v>29</v>
@@ -5905,7 +7079,7 @@
       <c r="L161" s="7">
         <v>159</v>
       </c>
-      <c r="M161" s="49"/>
+      <c r="M161" s="26"/>
       <c r="N161" s="7"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -5915,12 +7089,12 @@
       <c r="B162" s="5">
         <v>160</v>
       </c>
-      <c r="C162" s="33"/>
-      <c r="D162" s="33"/>
-      <c r="E162" s="33"/>
-      <c r="F162" s="33"/>
-      <c r="G162" s="44"/>
-      <c r="H162" s="33"/>
+      <c r="C162" s="27"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="29"/>
+      <c r="H162" s="27"/>
       <c r="I162" s="6"/>
       <c r="K162" s="7" t="s">
         <v>29</v>
@@ -5928,7 +7102,7 @@
       <c r="L162" s="7">
         <v>160</v>
       </c>
-      <c r="M162" s="49"/>
+      <c r="M162" s="26"/>
       <c r="N162" s="7"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -5938,12 +7112,12 @@
       <c r="B163" s="5">
         <v>161</v>
       </c>
-      <c r="C163" s="33"/>
-      <c r="D163" s="33"/>
-      <c r="E163" s="33"/>
-      <c r="F163" s="33"/>
-      <c r="G163" s="44"/>
-      <c r="H163" s="33"/>
+      <c r="C163" s="27"/>
+      <c r="D163" s="27"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="27"/>
+      <c r="G163" s="29"/>
+      <c r="H163" s="27"/>
       <c r="I163" s="6"/>
       <c r="K163" s="7" t="s">
         <v>29</v>
@@ -5951,7 +7125,7 @@
       <c r="L163" s="7">
         <v>161</v>
       </c>
-      <c r="M163" s="49"/>
+      <c r="M163" s="26"/>
       <c r="N163" s="7"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -5961,12 +7135,12 @@
       <c r="B164" s="5">
         <v>162</v>
       </c>
-      <c r="C164" s="33"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="33"/>
-      <c r="F164" s="33"/>
-      <c r="G164" s="44"/>
-      <c r="H164" s="33"/>
+      <c r="C164" s="27"/>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="27"/>
+      <c r="G164" s="29"/>
+      <c r="H164" s="27"/>
       <c r="I164" s="6"/>
       <c r="K164" s="7" t="s">
         <v>29</v>
@@ -5974,7 +7148,7 @@
       <c r="L164" s="7">
         <v>162</v>
       </c>
-      <c r="M164" s="49"/>
+      <c r="M164" s="26"/>
       <c r="N164" s="7"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -5984,12 +7158,12 @@
       <c r="B165" s="5">
         <v>163</v>
       </c>
-      <c r="C165" s="33"/>
-      <c r="D165" s="33"/>
-      <c r="E165" s="33"/>
-      <c r="F165" s="33"/>
-      <c r="G165" s="44"/>
-      <c r="H165" s="33"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="27"/>
+      <c r="G165" s="29"/>
+      <c r="H165" s="27"/>
       <c r="I165" s="6"/>
       <c r="K165" s="7" t="s">
         <v>29</v>
@@ -5997,7 +7171,7 @@
       <c r="L165" s="7">
         <v>163</v>
       </c>
-      <c r="M165" s="49"/>
+      <c r="M165" s="26"/>
       <c r="N165" s="7"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -6007,12 +7181,12 @@
       <c r="B166" s="5">
         <v>164</v>
       </c>
-      <c r="C166" s="33"/>
-      <c r="D166" s="33"/>
-      <c r="E166" s="33"/>
-      <c r="F166" s="33"/>
-      <c r="G166" s="44"/>
-      <c r="H166" s="33"/>
+      <c r="C166" s="27"/>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="27"/>
+      <c r="G166" s="29"/>
+      <c r="H166" s="27"/>
       <c r="I166" s="6"/>
       <c r="K166" s="7" t="s">
         <v>29</v>
@@ -6020,7 +7194,7 @@
       <c r="L166" s="7">
         <v>164</v>
       </c>
-      <c r="M166" s="49"/>
+      <c r="M166" s="26"/>
       <c r="N166" s="7"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -6030,12 +7204,12 @@
       <c r="B167" s="5">
         <v>165</v>
       </c>
-      <c r="C167" s="33"/>
-      <c r="D167" s="33"/>
-      <c r="E167" s="33"/>
-      <c r="F167" s="33"/>
-      <c r="G167" s="44"/>
-      <c r="H167" s="33"/>
+      <c r="C167" s="27"/>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="27"/>
+      <c r="G167" s="29"/>
+      <c r="H167" s="27"/>
       <c r="I167" s="6"/>
       <c r="K167" s="7" t="s">
         <v>29</v>
@@ -6043,7 +7217,7 @@
       <c r="L167" s="7">
         <v>165</v>
       </c>
-      <c r="M167" s="49"/>
+      <c r="M167" s="26"/>
       <c r="N167" s="7"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -6053,12 +7227,12 @@
       <c r="B168" s="5">
         <v>166</v>
       </c>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="33"/>
-      <c r="G168" s="44"/>
-      <c r="H168" s="33"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="29"/>
+      <c r="H168" s="27"/>
       <c r="I168" s="6"/>
       <c r="K168" s="7" t="s">
         <v>29</v>
@@ -6066,7 +7240,7 @@
       <c r="L168" s="7">
         <v>166</v>
       </c>
-      <c r="M168" s="49"/>
+      <c r="M168" s="26"/>
       <c r="N168" s="7"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -6076,12 +7250,12 @@
       <c r="B169" s="5">
         <v>167</v>
       </c>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
-      <c r="F169" s="33"/>
-      <c r="G169" s="44"/>
-      <c r="H169" s="33"/>
+      <c r="C169" s="27"/>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="27"/>
+      <c r="G169" s="29"/>
+      <c r="H169" s="27"/>
       <c r="I169" s="6"/>
       <c r="K169" s="7" t="s">
         <v>29</v>
@@ -6089,7 +7263,7 @@
       <c r="L169" s="7">
         <v>167</v>
       </c>
-      <c r="M169" s="49"/>
+      <c r="M169" s="26"/>
       <c r="N169" s="7"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
@@ -6099,12 +7273,12 @@
       <c r="B170" s="5">
         <v>168</v>
       </c>
-      <c r="C170" s="33"/>
-      <c r="D170" s="33"/>
-      <c r="E170" s="33"/>
-      <c r="F170" s="33"/>
-      <c r="G170" s="44"/>
-      <c r="H170" s="33"/>
+      <c r="C170" s="27"/>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="27"/>
+      <c r="G170" s="29"/>
+      <c r="H170" s="27"/>
       <c r="I170" s="6"/>
       <c r="K170" s="7" t="s">
         <v>29</v>
@@ -6112,7 +7286,7 @@
       <c r="L170" s="7">
         <v>168</v>
       </c>
-      <c r="M170" s="49"/>
+      <c r="M170" s="26"/>
       <c r="N170" s="7"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -6122,12 +7296,12 @@
       <c r="B171" s="5">
         <v>169</v>
       </c>
-      <c r="C171" s="33"/>
-      <c r="D171" s="33"/>
-      <c r="E171" s="33"/>
-      <c r="F171" s="33"/>
-      <c r="G171" s="44"/>
-      <c r="H171" s="33"/>
+      <c r="C171" s="27"/>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="27"/>
+      <c r="G171" s="29"/>
+      <c r="H171" s="27"/>
       <c r="I171" s="6"/>
       <c r="K171" s="7" t="s">
         <v>29</v>
@@ -6135,7 +7309,7 @@
       <c r="L171" s="7">
         <v>169</v>
       </c>
-      <c r="M171" s="49"/>
+      <c r="M171" s="26"/>
       <c r="N171" s="7"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -6145,12 +7319,12 @@
       <c r="B172" s="5">
         <v>170</v>
       </c>
-      <c r="C172" s="33"/>
-      <c r="D172" s="33"/>
-      <c r="E172" s="33"/>
-      <c r="F172" s="33"/>
-      <c r="G172" s="44"/>
-      <c r="H172" s="33"/>
+      <c r="C172" s="27"/>
+      <c r="D172" s="27"/>
+      <c r="E172" s="27"/>
+      <c r="F172" s="27"/>
+      <c r="G172" s="29"/>
+      <c r="H172" s="27"/>
       <c r="I172" s="6"/>
       <c r="K172" s="7" t="s">
         <v>29</v>
@@ -6158,7 +7332,7 @@
       <c r="L172" s="7">
         <v>170</v>
       </c>
-      <c r="M172" s="49"/>
+      <c r="M172" s="26"/>
       <c r="N172" s="7"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -6168,12 +7342,12 @@
       <c r="B173" s="5">
         <v>171</v>
       </c>
-      <c r="C173" s="33"/>
-      <c r="D173" s="33"/>
-      <c r="E173" s="33"/>
-      <c r="F173" s="33"/>
-      <c r="G173" s="44"/>
-      <c r="H173" s="33"/>
+      <c r="C173" s="27"/>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="29"/>
+      <c r="H173" s="27"/>
       <c r="I173" s="6"/>
       <c r="K173" s="7" t="s">
         <v>29</v>
@@ -6181,7 +7355,7 @@
       <c r="L173" s="7">
         <v>171</v>
       </c>
-      <c r="M173" s="49"/>
+      <c r="M173" s="26"/>
       <c r="N173" s="7"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -6191,12 +7365,12 @@
       <c r="B174" s="5">
         <v>172</v>
       </c>
-      <c r="C174" s="33"/>
-      <c r="D174" s="33"/>
-      <c r="E174" s="33"/>
-      <c r="F174" s="33"/>
-      <c r="G174" s="44"/>
-      <c r="H174" s="33"/>
+      <c r="C174" s="27"/>
+      <c r="D174" s="27"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="27"/>
+      <c r="G174" s="29"/>
+      <c r="H174" s="27"/>
       <c r="I174" s="6"/>
       <c r="K174" s="7" t="s">
         <v>29</v>
@@ -6204,7 +7378,7 @@
       <c r="L174" s="7">
         <v>172</v>
       </c>
-      <c r="M174" s="49"/>
+      <c r="M174" s="26"/>
       <c r="N174" s="7"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
@@ -6214,12 +7388,12 @@
       <c r="B175" s="5">
         <v>173</v>
       </c>
-      <c r="C175" s="33"/>
-      <c r="D175" s="33"/>
-      <c r="E175" s="33"/>
-      <c r="F175" s="33"/>
-      <c r="G175" s="44"/>
-      <c r="H175" s="33"/>
+      <c r="C175" s="27"/>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="27"/>
+      <c r="G175" s="29"/>
+      <c r="H175" s="27"/>
       <c r="I175" s="6"/>
       <c r="K175" s="7" t="s">
         <v>29</v>
@@ -6227,7 +7401,7 @@
       <c r="L175" s="7">
         <v>173</v>
       </c>
-      <c r="M175" s="49"/>
+      <c r="M175" s="26"/>
       <c r="N175" s="7"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
@@ -6237,12 +7411,12 @@
       <c r="B176" s="5">
         <v>174</v>
       </c>
-      <c r="C176" s="33"/>
-      <c r="D176" s="33"/>
-      <c r="E176" s="33"/>
-      <c r="F176" s="33"/>
-      <c r="G176" s="44"/>
-      <c r="H176" s="33"/>
+      <c r="C176" s="27"/>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="27"/>
+      <c r="G176" s="29"/>
+      <c r="H176" s="27"/>
       <c r="I176" s="6"/>
       <c r="K176" s="7" t="s">
         <v>29</v>
@@ -6250,7 +7424,7 @@
       <c r="L176" s="7">
         <v>174</v>
       </c>
-      <c r="M176" s="49"/>
+      <c r="M176" s="26"/>
       <c r="N176" s="7"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
@@ -6260,12 +7434,12 @@
       <c r="B177" s="5">
         <v>175</v>
       </c>
-      <c r="C177" s="33"/>
-      <c r="D177" s="33"/>
-      <c r="E177" s="33"/>
-      <c r="F177" s="33"/>
-      <c r="G177" s="44"/>
-      <c r="H177" s="33"/>
+      <c r="C177" s="27"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="29"/>
+      <c r="H177" s="27"/>
       <c r="I177" s="6"/>
       <c r="K177" s="7" t="s">
         <v>29</v>
@@ -6273,7 +7447,7 @@
       <c r="L177" s="7">
         <v>175</v>
       </c>
-      <c r="M177" s="49"/>
+      <c r="M177" s="26"/>
       <c r="N177" s="7"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -6283,12 +7457,12 @@
       <c r="B178" s="5">
         <v>176</v>
       </c>
-      <c r="C178" s="33"/>
-      <c r="D178" s="33"/>
-      <c r="E178" s="33"/>
-      <c r="F178" s="33"/>
-      <c r="G178" s="44"/>
-      <c r="H178" s="33"/>
+      <c r="C178" s="27"/>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="27"/>
+      <c r="G178" s="29"/>
+      <c r="H178" s="27"/>
       <c r="I178" s="6"/>
       <c r="K178" s="7" t="s">
         <v>29</v>
@@ -6296,7 +7470,7 @@
       <c r="L178" s="7">
         <v>176</v>
       </c>
-      <c r="M178" s="49"/>
+      <c r="M178" s="26"/>
       <c r="N178" s="7"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -6306,12 +7480,12 @@
       <c r="B179" s="5">
         <v>177</v>
       </c>
-      <c r="C179" s="33"/>
-      <c r="D179" s="33"/>
-      <c r="E179" s="33"/>
-      <c r="F179" s="33"/>
-      <c r="G179" s="44"/>
-      <c r="H179" s="33"/>
+      <c r="C179" s="27"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="29"/>
+      <c r="H179" s="27"/>
       <c r="I179" s="6"/>
       <c r="K179" s="7" t="s">
         <v>29</v>
@@ -6319,7 +7493,7 @@
       <c r="L179" s="7">
         <v>177</v>
       </c>
-      <c r="M179" s="49"/>
+      <c r="M179" s="26"/>
       <c r="N179" s="7"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -6329,12 +7503,12 @@
       <c r="B180" s="5">
         <v>178</v>
       </c>
-      <c r="C180" s="33"/>
-      <c r="D180" s="33"/>
-      <c r="E180" s="33"/>
-      <c r="F180" s="33"/>
-      <c r="G180" s="44"/>
-      <c r="H180" s="33"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="29"/>
+      <c r="H180" s="27"/>
       <c r="I180" s="6"/>
       <c r="K180" s="7" t="s">
         <v>29</v>
@@ -6342,7 +7516,7 @@
       <c r="L180" s="7">
         <v>178</v>
       </c>
-      <c r="M180" s="49"/>
+      <c r="M180" s="26"/>
       <c r="N180" s="7"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
@@ -6352,12 +7526,12 @@
       <c r="B181" s="5">
         <v>179</v>
       </c>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
-      <c r="F181" s="33"/>
-      <c r="G181" s="44"/>
-      <c r="H181" s="33"/>
+      <c r="C181" s="27"/>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="29"/>
+      <c r="H181" s="27"/>
       <c r="I181" s="6"/>
       <c r="K181" s="7" t="s">
         <v>29</v>
@@ -6365,7 +7539,7 @@
       <c r="L181" s="7">
         <v>179</v>
       </c>
-      <c r="M181" s="49"/>
+      <c r="M181" s="26"/>
       <c r="N181" s="7"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -6375,12 +7549,12 @@
       <c r="B182" s="5">
         <v>180</v>
       </c>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33"/>
-      <c r="G182" s="44"/>
-      <c r="H182" s="33"/>
+      <c r="C182" s="27"/>
+      <c r="D182" s="27"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="27"/>
+      <c r="G182" s="29"/>
+      <c r="H182" s="27"/>
       <c r="I182" s="6"/>
       <c r="K182" s="7" t="s">
         <v>29</v>
@@ -6388,7 +7562,7 @@
       <c r="L182" s="7">
         <v>180</v>
       </c>
-      <c r="M182" s="49"/>
+      <c r="M182" s="26"/>
       <c r="N182" s="7"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
@@ -6398,12 +7572,12 @@
       <c r="B183" s="5">
         <v>181</v>
       </c>
-      <c r="C183" s="33"/>
-      <c r="D183" s="33"/>
-      <c r="E183" s="33"/>
-      <c r="F183" s="33"/>
-      <c r="G183" s="44"/>
-      <c r="H183" s="33"/>
+      <c r="C183" s="27"/>
+      <c r="D183" s="27"/>
+      <c r="E183" s="27"/>
+      <c r="F183" s="27"/>
+      <c r="G183" s="29"/>
+      <c r="H183" s="27"/>
       <c r="I183" s="6"/>
       <c r="K183" s="7" t="s">
         <v>29</v>
@@ -6411,7 +7585,7 @@
       <c r="L183" s="7">
         <v>181</v>
       </c>
-      <c r="M183" s="49"/>
+      <c r="M183" s="26"/>
       <c r="N183" s="7"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -6421,12 +7595,12 @@
       <c r="B184" s="5">
         <v>182</v>
       </c>
-      <c r="C184" s="33"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="33"/>
-      <c r="F184" s="33"/>
-      <c r="G184" s="44"/>
-      <c r="H184" s="33"/>
+      <c r="C184" s="27"/>
+      <c r="D184" s="27"/>
+      <c r="E184" s="27"/>
+      <c r="F184" s="27"/>
+      <c r="G184" s="29"/>
+      <c r="H184" s="27"/>
       <c r="I184" s="6"/>
       <c r="K184" s="7" t="s">
         <v>29</v>
@@ -6434,7 +7608,7 @@
       <c r="L184" s="7">
         <v>182</v>
       </c>
-      <c r="M184" s="49"/>
+      <c r="M184" s="26"/>
       <c r="N184" s="7"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -6444,12 +7618,12 @@
       <c r="B185" s="5">
         <v>183</v>
       </c>
-      <c r="C185" s="33"/>
-      <c r="D185" s="33"/>
-      <c r="E185" s="33"/>
-      <c r="F185" s="33"/>
-      <c r="G185" s="44"/>
-      <c r="H185" s="33"/>
+      <c r="C185" s="27"/>
+      <c r="D185" s="27"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="27"/>
+      <c r="G185" s="29"/>
+      <c r="H185" s="27"/>
       <c r="I185" s="6"/>
       <c r="K185" s="7" t="s">
         <v>29</v>
@@ -6457,7 +7631,7 @@
       <c r="L185" s="7">
         <v>183</v>
       </c>
-      <c r="M185" s="49"/>
+      <c r="M185" s="26"/>
       <c r="N185" s="7"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
@@ -6467,12 +7641,12 @@
       <c r="B186" s="5">
         <v>184</v>
       </c>
-      <c r="C186" s="33"/>
-      <c r="D186" s="33"/>
-      <c r="E186" s="33"/>
-      <c r="F186" s="33"/>
-      <c r="G186" s="44"/>
-      <c r="H186" s="33"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="29"/>
+      <c r="H186" s="27"/>
       <c r="I186" s="6"/>
       <c r="K186" s="7" t="s">
         <v>29</v>
@@ -6480,7 +7654,7 @@
       <c r="L186" s="7">
         <v>184</v>
       </c>
-      <c r="M186" s="49"/>
+      <c r="M186" s="26"/>
       <c r="N186" s="7"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -6490,12 +7664,12 @@
       <c r="B187" s="5">
         <v>185</v>
       </c>
-      <c r="C187" s="33"/>
-      <c r="D187" s="33"/>
-      <c r="E187" s="33"/>
-      <c r="F187" s="33"/>
-      <c r="G187" s="44"/>
-      <c r="H187" s="33"/>
+      <c r="C187" s="27"/>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="29"/>
+      <c r="H187" s="27"/>
       <c r="I187" s="6"/>
       <c r="K187" s="7" t="s">
         <v>29</v>
@@ -6503,7 +7677,7 @@
       <c r="L187" s="7">
         <v>185</v>
       </c>
-      <c r="M187" s="49"/>
+      <c r="M187" s="26"/>
       <c r="N187" s="7"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -6513,12 +7687,12 @@
       <c r="B188" s="5">
         <v>186</v>
       </c>
-      <c r="C188" s="33"/>
-      <c r="D188" s="33"/>
-      <c r="E188" s="33"/>
-      <c r="F188" s="33"/>
-      <c r="G188" s="44"/>
-      <c r="H188" s="33"/>
+      <c r="C188" s="27"/>
+      <c r="D188" s="27"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="27"/>
+      <c r="G188" s="29"/>
+      <c r="H188" s="27"/>
       <c r="I188" s="6"/>
       <c r="K188" s="7" t="s">
         <v>29</v>
@@ -6526,7 +7700,7 @@
       <c r="L188" s="7">
         <v>186</v>
       </c>
-      <c r="M188" s="49"/>
+      <c r="M188" s="26"/>
       <c r="N188" s="7"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -6536,12 +7710,12 @@
       <c r="B189" s="5">
         <v>187</v>
       </c>
-      <c r="C189" s="33"/>
-      <c r="D189" s="33"/>
-      <c r="E189" s="33"/>
-      <c r="F189" s="33"/>
-      <c r="G189" s="44"/>
-      <c r="H189" s="33"/>
+      <c r="C189" s="27"/>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="29"/>
+      <c r="H189" s="27"/>
       <c r="I189" s="6"/>
       <c r="K189" s="7" t="s">
         <v>29</v>
@@ -6549,7 +7723,7 @@
       <c r="L189" s="7">
         <v>187</v>
       </c>
-      <c r="M189" s="49"/>
+      <c r="M189" s="26"/>
       <c r="N189" s="7"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -6559,12 +7733,12 @@
       <c r="B190" s="5">
         <v>188</v>
       </c>
-      <c r="C190" s="33"/>
-      <c r="D190" s="33"/>
-      <c r="E190" s="33"/>
-      <c r="F190" s="33"/>
-      <c r="G190" s="44"/>
-      <c r="H190" s="33"/>
+      <c r="C190" s="27"/>
+      <c r="D190" s="27"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="29"/>
+      <c r="H190" s="27"/>
       <c r="I190" s="6"/>
       <c r="K190" s="7" t="s">
         <v>29</v>
@@ -6572,7 +7746,7 @@
       <c r="L190" s="7">
         <v>188</v>
       </c>
-      <c r="M190" s="49"/>
+      <c r="M190" s="26"/>
       <c r="N190" s="7"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -6582,12 +7756,12 @@
       <c r="B191" s="5">
         <v>189</v>
       </c>
-      <c r="C191" s="33"/>
-      <c r="D191" s="33"/>
-      <c r="E191" s="33"/>
-      <c r="F191" s="33"/>
-      <c r="G191" s="44"/>
-      <c r="H191" s="33"/>
+      <c r="C191" s="27"/>
+      <c r="D191" s="27"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="29"/>
+      <c r="H191" s="27"/>
       <c r="I191" s="6"/>
       <c r="K191" s="7" t="s">
         <v>29</v>
@@ -6595,7 +7769,7 @@
       <c r="L191" s="7">
         <v>189</v>
       </c>
-      <c r="M191" s="49"/>
+      <c r="M191" s="26"/>
       <c r="N191" s="7"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
@@ -6605,12 +7779,12 @@
       <c r="B192" s="5">
         <v>190</v>
       </c>
-      <c r="C192" s="33"/>
-      <c r="D192" s="33"/>
-      <c r="E192" s="33"/>
-      <c r="F192" s="33"/>
-      <c r="G192" s="44"/>
-      <c r="H192" s="33"/>
+      <c r="C192" s="27"/>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="27"/>
+      <c r="G192" s="29"/>
+      <c r="H192" s="27"/>
       <c r="I192" s="6" t="s">
         <v>21</v>
       </c>
@@ -6620,7 +7794,7 @@
       <c r="L192" s="7">
         <v>190</v>
       </c>
-      <c r="M192" s="49"/>
+      <c r="M192" s="26"/>
       <c r="N192" s="7"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -6630,12 +7804,12 @@
       <c r="B193" s="5">
         <v>191</v>
       </c>
-      <c r="C193" s="33"/>
-      <c r="D193" s="33"/>
-      <c r="E193" s="33"/>
-      <c r="F193" s="33"/>
-      <c r="G193" s="44"/>
-      <c r="H193" s="33"/>
+      <c r="C193" s="27"/>
+      <c r="D193" s="27"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="27"/>
+      <c r="G193" s="29"/>
+      <c r="H193" s="27"/>
       <c r="I193" s="6" t="s">
         <v>12</v>
       </c>
@@ -6645,27 +7819,27 @@
       <c r="L193" s="7">
         <v>191</v>
       </c>
-      <c r="M193" s="49"/>
+      <c r="M193" s="26"/>
       <c r="N193" s="7"/>
     </row>
     <row r="194" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B194" s="8">
+      <c r="A194" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194" s="33">
         <v>192</v>
       </c>
-      <c r="C194" s="45" t="s">
+      <c r="C194" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D194" s="48" t="s">
+      <c r="D194" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E194" s="33"/>
+      <c r="E194" s="27"/>
       <c r="F194" s="32"/>
-      <c r="G194" s="33"/>
-      <c r="H194" s="33"/>
-      <c r="I194" s="9" t="s">
+      <c r="G194" s="27"/>
+      <c r="H194" s="27"/>
+      <c r="I194" s="37" t="s">
         <v>18</v>
       </c>
       <c r="K194" s="7" t="s">
@@ -6674,23 +7848,23 @@
       <c r="L194" s="7">
         <v>192</v>
       </c>
-      <c r="M194" s="49"/>
+      <c r="M194" s="26"/>
       <c r="N194" s="7"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A195" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B195" s="8">
+      <c r="A195" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B195" s="33">
         <v>193</v>
       </c>
-      <c r="C195" s="46"/>
-      <c r="D195" s="48"/>
-      <c r="E195" s="33"/>
+      <c r="C195" s="35"/>
+      <c r="D195" s="30"/>
+      <c r="E195" s="27"/>
       <c r="F195" s="32"/>
-      <c r="G195" s="33"/>
-      <c r="H195" s="33"/>
-      <c r="I195" s="9" t="s">
+      <c r="G195" s="27"/>
+      <c r="H195" s="27"/>
+      <c r="I195" s="37" t="s">
         <v>36</v>
       </c>
       <c r="K195" s="7" t="s">
@@ -6699,23 +7873,23 @@
       <c r="L195" s="7">
         <v>193</v>
       </c>
-      <c r="M195" s="49"/>
+      <c r="M195" s="26"/>
       <c r="N195" s="7"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A196" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B196" s="8">
+      <c r="A196" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196" s="33">
         <v>194</v>
       </c>
-      <c r="C196" s="46"/>
-      <c r="D196" s="48"/>
-      <c r="E196" s="33"/>
+      <c r="C196" s="35"/>
+      <c r="D196" s="30"/>
+      <c r="E196" s="27"/>
       <c r="F196" s="32"/>
-      <c r="G196" s="33"/>
-      <c r="H196" s="33"/>
-      <c r="I196" s="9" t="s">
+      <c r="G196" s="27"/>
+      <c r="H196" s="27"/>
+      <c r="I196" s="37" t="s">
         <v>41</v>
       </c>
       <c r="K196" s="7" t="s">
@@ -6724,23 +7898,23 @@
       <c r="L196" s="7">
         <v>194</v>
       </c>
-      <c r="M196" s="49"/>
+      <c r="M196" s="26"/>
       <c r="N196" s="7"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A197" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B197" s="8">
+      <c r="A197" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" s="33">
         <v>195</v>
       </c>
-      <c r="C197" s="47"/>
-      <c r="D197" s="48"/>
-      <c r="E197" s="33"/>
+      <c r="C197" s="36"/>
+      <c r="D197" s="30"/>
+      <c r="E197" s="27"/>
       <c r="F197" s="32"/>
-      <c r="G197" s="33"/>
-      <c r="H197" s="33"/>
-      <c r="I197" s="9" t="s">
+      <c r="G197" s="27"/>
+      <c r="H197" s="27"/>
+      <c r="I197" s="37" t="s">
         <v>12</v>
       </c>
       <c r="K197" s="7" t="s">
@@ -6749,25 +7923,25 @@
       <c r="L197" s="7">
         <v>195</v>
       </c>
-      <c r="M197" s="49"/>
+      <c r="M197" s="26"/>
       <c r="N197" s="7"/>
     </row>
     <row r="198" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B198" s="10">
+      <c r="A198" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" s="41">
         <v>196</v>
       </c>
-      <c r="C198" s="34" t="s">
+      <c r="C198" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D198" s="48"/>
-      <c r="E198" s="33"/>
+      <c r="D198" s="30"/>
+      <c r="E198" s="27"/>
       <c r="F198" s="32"/>
-      <c r="G198" s="33"/>
-      <c r="H198" s="33"/>
-      <c r="I198" s="11" t="s">
+      <c r="G198" s="27"/>
+      <c r="H198" s="27"/>
+      <c r="I198" s="45" t="s">
         <v>18</v>
       </c>
       <c r="K198" s="7" t="s">
@@ -6776,23 +7950,23 @@
       <c r="L198" s="7">
         <v>196</v>
       </c>
-      <c r="M198" s="49"/>
+      <c r="M198" s="26"/>
       <c r="N198" s="7"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A199" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B199" s="10">
+      <c r="A199" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199" s="41">
         <v>197</v>
       </c>
-      <c r="C199" s="35"/>
-      <c r="D199" s="48"/>
-      <c r="E199" s="33"/>
+      <c r="C199" s="43"/>
+      <c r="D199" s="30"/>
+      <c r="E199" s="27"/>
       <c r="F199" s="32"/>
-      <c r="G199" s="33"/>
-      <c r="H199" s="33"/>
-      <c r="I199" s="11" t="s">
+      <c r="G199" s="27"/>
+      <c r="H199" s="27"/>
+      <c r="I199" s="45" t="s">
         <v>39</v>
       </c>
       <c r="K199" s="7" t="s">
@@ -6801,23 +7975,23 @@
       <c r="L199" s="7">
         <v>197</v>
       </c>
-      <c r="M199" s="49"/>
+      <c r="M199" s="26"/>
       <c r="N199" s="7"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A200" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B200" s="10">
+      <c r="A200" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B200" s="41">
         <v>198</v>
       </c>
-      <c r="C200" s="35"/>
-      <c r="D200" s="48"/>
-      <c r="E200" s="33"/>
+      <c r="C200" s="43"/>
+      <c r="D200" s="30"/>
+      <c r="E200" s="27"/>
       <c r="F200" s="32"/>
-      <c r="G200" s="33"/>
-      <c r="H200" s="33"/>
-      <c r="I200" s="11" t="s">
+      <c r="G200" s="27"/>
+      <c r="H200" s="27"/>
+      <c r="I200" s="45" t="s">
         <v>37</v>
       </c>
       <c r="K200" s="7" t="s">
@@ -6826,23 +8000,23 @@
       <c r="L200" s="7">
         <v>198</v>
       </c>
-      <c r="M200" s="49"/>
+      <c r="M200" s="26"/>
       <c r="N200" s="7"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A201" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B201" s="10">
+      <c r="A201" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B201" s="41">
         <v>199</v>
       </c>
-      <c r="C201" s="36"/>
-      <c r="D201" s="48"/>
-      <c r="E201" s="33"/>
+      <c r="C201" s="44"/>
+      <c r="D201" s="30"/>
+      <c r="E201" s="27"/>
       <c r="F201" s="32"/>
-      <c r="G201" s="33"/>
-      <c r="H201" s="33"/>
-      <c r="I201" s="11" t="s">
+      <c r="G201" s="27"/>
+      <c r="H201" s="27"/>
+      <c r="I201" s="45" t="s">
         <v>12</v>
       </c>
       <c r="K201" s="7" t="s">
@@ -6851,25 +8025,25 @@
       <c r="L201" s="7">
         <v>199</v>
       </c>
-      <c r="M201" s="49"/>
+      <c r="M201" s="26"/>
       <c r="N201" s="7"/>
     </row>
     <row r="202" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B202" s="18">
+      <c r="A202" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" s="49">
         <v>200</v>
       </c>
-      <c r="C202" s="37" t="s">
+      <c r="C202" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D202" s="33"/>
-      <c r="E202" s="33"/>
+      <c r="D202" s="27"/>
+      <c r="E202" s="27"/>
       <c r="F202" s="32"/>
-      <c r="G202" s="33"/>
-      <c r="H202" s="33"/>
-      <c r="I202" s="19" t="s">
+      <c r="G202" s="27"/>
+      <c r="H202" s="27"/>
+      <c r="I202" s="53" t="s">
         <v>118</v>
       </c>
       <c r="K202" s="7" t="s">
@@ -6878,23 +8052,23 @@
       <c r="L202" s="7">
         <v>200</v>
       </c>
-      <c r="M202" s="49"/>
+      <c r="M202" s="26"/>
       <c r="N202" s="7"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A203" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B203" s="18">
+      <c r="A203" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" s="49">
         <v>201</v>
       </c>
-      <c r="C203" s="38"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
+      <c r="C203" s="51"/>
+      <c r="D203" s="27"/>
+      <c r="E203" s="27"/>
       <c r="F203" s="32"/>
-      <c r="G203" s="33"/>
-      <c r="H203" s="33"/>
-      <c r="I203" s="19" t="s">
+      <c r="G203" s="27"/>
+      <c r="H203" s="27"/>
+      <c r="I203" s="53" t="s">
         <v>40</v>
       </c>
       <c r="K203" s="7" t="s">
@@ -6903,23 +8077,23 @@
       <c r="L203" s="7">
         <v>201</v>
       </c>
-      <c r="M203" s="49"/>
+      <c r="M203" s="26"/>
       <c r="N203" s="7"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A204" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B204" s="18">
+      <c r="A204" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B204" s="49">
         <v>202</v>
       </c>
-      <c r="C204" s="38"/>
-      <c r="D204" s="33"/>
-      <c r="E204" s="33"/>
+      <c r="C204" s="51"/>
+      <c r="D204" s="27"/>
+      <c r="E204" s="27"/>
       <c r="F204" s="32"/>
-      <c r="G204" s="33"/>
-      <c r="H204" s="33"/>
-      <c r="I204" s="19" t="s">
+      <c r="G204" s="27"/>
+      <c r="H204" s="27"/>
+      <c r="I204" s="53" t="s">
         <v>37</v>
       </c>
       <c r="K204" s="7" t="s">
@@ -6928,23 +8102,23 @@
       <c r="L204" s="7">
         <v>202</v>
       </c>
-      <c r="M204" s="49"/>
+      <c r="M204" s="26"/>
       <c r="N204" s="7"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A205" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B205" s="18">
+      <c r="A205" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B205" s="49">
         <v>203</v>
       </c>
-      <c r="C205" s="39"/>
-      <c r="D205" s="33"/>
-      <c r="E205" s="33"/>
+      <c r="C205" s="52"/>
+      <c r="D205" s="27"/>
+      <c r="E205" s="27"/>
       <c r="F205" s="32"/>
-      <c r="G205" s="33"/>
-      <c r="H205" s="33"/>
-      <c r="I205" s="19" t="s">
+      <c r="G205" s="27"/>
+      <c r="H205" s="27"/>
+      <c r="I205" s="53" t="s">
         <v>12</v>
       </c>
       <c r="K205" s="7" t="s">
@@ -6953,25 +8127,25 @@
       <c r="L205" s="7">
         <v>203</v>
       </c>
-      <c r="M205" s="49"/>
+      <c r="M205" s="26"/>
       <c r="N205" s="7"/>
     </row>
     <row r="206" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B206" s="12">
+      <c r="A206" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206" s="60">
         <v>204</v>
       </c>
-      <c r="C206" s="40" t="s">
+      <c r="C206" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D206" s="33"/>
-      <c r="E206" s="33"/>
+      <c r="D206" s="27"/>
+      <c r="E206" s="27"/>
       <c r="F206" s="32"/>
-      <c r="G206" s="33"/>
-      <c r="H206" s="33"/>
-      <c r="I206" s="13" t="s">
+      <c r="G206" s="27"/>
+      <c r="H206" s="27"/>
+      <c r="I206" s="64" t="s">
         <v>18</v>
       </c>
       <c r="K206" s="7" t="s">
@@ -6980,23 +8154,23 @@
       <c r="L206" s="7">
         <v>204</v>
       </c>
-      <c r="M206" s="49"/>
+      <c r="M206" s="26"/>
       <c r="N206" s="7"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A207" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B207" s="12">
+      <c r="A207" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B207" s="60">
         <v>205</v>
       </c>
-      <c r="C207" s="41"/>
-      <c r="D207" s="33"/>
-      <c r="E207" s="33"/>
+      <c r="C207" s="62"/>
+      <c r="D207" s="27"/>
+      <c r="E207" s="27"/>
       <c r="F207" s="32"/>
-      <c r="G207" s="33"/>
-      <c r="H207" s="33"/>
-      <c r="I207" s="13" t="s">
+      <c r="G207" s="27"/>
+      <c r="H207" s="27"/>
+      <c r="I207" s="64" t="s">
         <v>40</v>
       </c>
       <c r="K207" s="7" t="s">
@@ -7005,23 +8179,23 @@
       <c r="L207" s="7">
         <v>205</v>
       </c>
-      <c r="M207" s="49"/>
+      <c r="M207" s="26"/>
       <c r="N207" s="7"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A208" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B208" s="12">
+      <c r="A208" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B208" s="60">
         <v>206</v>
       </c>
-      <c r="C208" s="41"/>
-      <c r="D208" s="33"/>
-      <c r="E208" s="33"/>
+      <c r="C208" s="62"/>
+      <c r="D208" s="27"/>
+      <c r="E208" s="27"/>
       <c r="F208" s="32"/>
-      <c r="G208" s="33"/>
-      <c r="H208" s="33"/>
-      <c r="I208" s="13" t="s">
+      <c r="G208" s="27"/>
+      <c r="H208" s="27"/>
+      <c r="I208" s="64" t="s">
         <v>41</v>
       </c>
       <c r="K208" s="7" t="s">
@@ -7030,23 +8204,23 @@
       <c r="L208" s="7">
         <v>206</v>
       </c>
-      <c r="M208" s="49"/>
+      <c r="M208" s="26"/>
       <c r="N208" s="7"/>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A209" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B209" s="12">
+      <c r="A209" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B209" s="60">
         <v>207</v>
       </c>
-      <c r="C209" s="42"/>
-      <c r="D209" s="33"/>
-      <c r="E209" s="33"/>
+      <c r="C209" s="63"/>
+      <c r="D209" s="27"/>
+      <c r="E209" s="27"/>
       <c r="F209" s="32"/>
-      <c r="G209" s="33"/>
-      <c r="H209" s="33"/>
-      <c r="I209" s="13" t="s">
+      <c r="G209" s="27"/>
+      <c r="H209" s="27"/>
+      <c r="I209" s="64" t="s">
         <v>12</v>
       </c>
       <c r="K209" s="7" t="s">
@@ -7055,746 +8229,746 @@
       <c r="L209" s="7">
         <v>207</v>
       </c>
-      <c r="M209" s="49"/>
+      <c r="M209" s="26"/>
       <c r="N209" s="7"/>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A210" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B210" s="16">
+      <c r="A210" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B210" s="10">
         <v>208</v>
       </c>
-      <c r="C210" s="33"/>
-      <c r="D210" s="33"/>
-      <c r="E210" s="33"/>
+      <c r="C210" s="27"/>
+      <c r="D210" s="27"/>
+      <c r="E210" s="27"/>
       <c r="F210" s="32"/>
-      <c r="G210" s="33"/>
-      <c r="H210" s="33"/>
-      <c r="I210" s="17"/>
+      <c r="G210" s="27"/>
+      <c r="H210" s="27"/>
+      <c r="I210" s="11"/>
       <c r="K210" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L210" s="7">
         <v>208</v>
       </c>
-      <c r="M210" s="49"/>
+      <c r="M210" s="26"/>
       <c r="N210" s="7"/>
       <c r="R210" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A211" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B211" s="16">
+      <c r="A211" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B211" s="10">
         <v>209</v>
       </c>
-      <c r="C211" s="33"/>
-      <c r="D211" s="33"/>
-      <c r="E211" s="33"/>
+      <c r="C211" s="27"/>
+      <c r="D211" s="27"/>
+      <c r="E211" s="27"/>
       <c r="F211" s="32"/>
-      <c r="G211" s="33"/>
-      <c r="H211" s="33"/>
-      <c r="I211" s="17"/>
+      <c r="G211" s="27"/>
+      <c r="H211" s="27"/>
+      <c r="I211" s="11"/>
       <c r="K211" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L211" s="7">
         <v>209</v>
       </c>
-      <c r="M211" s="49"/>
+      <c r="M211" s="26"/>
       <c r="N211" s="7"/>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A212" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B212" s="16">
+      <c r="A212" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B212" s="10">
         <v>210</v>
       </c>
-      <c r="C212" s="33"/>
-      <c r="D212" s="33"/>
-      <c r="E212" s="33"/>
+      <c r="C212" s="27"/>
+      <c r="D212" s="27"/>
+      <c r="E212" s="27"/>
       <c r="F212" s="32"/>
-      <c r="G212" s="33"/>
-      <c r="H212" s="33"/>
-      <c r="I212" s="17"/>
+      <c r="G212" s="27"/>
+      <c r="H212" s="27"/>
+      <c r="I212" s="11"/>
       <c r="K212" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L212" s="7">
         <v>210</v>
       </c>
-      <c r="M212" s="49"/>
+      <c r="M212" s="26"/>
       <c r="N212" s="7"/>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A213" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B213" s="16">
+      <c r="A213" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B213" s="10">
         <v>211</v>
       </c>
-      <c r="C213" s="33"/>
-      <c r="D213" s="33"/>
-      <c r="E213" s="33"/>
+      <c r="C213" s="27"/>
+      <c r="D213" s="27"/>
+      <c r="E213" s="27"/>
       <c r="F213" s="32"/>
-      <c r="G213" s="33"/>
-      <c r="H213" s="33"/>
-      <c r="I213" s="17"/>
+      <c r="G213" s="27"/>
+      <c r="H213" s="27"/>
+      <c r="I213" s="11"/>
       <c r="K213" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L213" s="7">
         <v>211</v>
       </c>
-      <c r="M213" s="49"/>
+      <c r="M213" s="26"/>
       <c r="N213" s="7"/>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A214" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B214" s="16">
+      <c r="A214" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B214" s="10">
         <v>212</v>
       </c>
-      <c r="C214" s="33"/>
-      <c r="D214" s="33"/>
-      <c r="E214" s="33"/>
+      <c r="C214" s="27"/>
+      <c r="D214" s="27"/>
+      <c r="E214" s="27"/>
       <c r="F214" s="32"/>
-      <c r="G214" s="33"/>
-      <c r="H214" s="33"/>
-      <c r="I214" s="17"/>
+      <c r="G214" s="27"/>
+      <c r="H214" s="27"/>
+      <c r="I214" s="11"/>
       <c r="K214" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L214" s="7">
         <v>212</v>
       </c>
-      <c r="M214" s="49"/>
+      <c r="M214" s="26"/>
       <c r="N214" s="7"/>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A215" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B215" s="16">
+      <c r="A215" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B215" s="10">
         <v>213</v>
       </c>
-      <c r="C215" s="33"/>
-      <c r="D215" s="33"/>
-      <c r="E215" s="33"/>
+      <c r="C215" s="27"/>
+      <c r="D215" s="27"/>
+      <c r="E215" s="27"/>
       <c r="F215" s="32"/>
-      <c r="G215" s="33"/>
-      <c r="H215" s="33"/>
-      <c r="I215" s="17"/>
+      <c r="G215" s="27"/>
+      <c r="H215" s="27"/>
+      <c r="I215" s="11"/>
       <c r="K215" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L215" s="7">
         <v>213</v>
       </c>
-      <c r="M215" s="49"/>
+      <c r="M215" s="26"/>
       <c r="N215" s="7"/>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A216" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B216" s="16">
+      <c r="A216" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B216" s="10">
         <v>214</v>
       </c>
-      <c r="C216" s="33"/>
-      <c r="D216" s="33"/>
-      <c r="E216" s="33"/>
+      <c r="C216" s="27"/>
+      <c r="D216" s="27"/>
+      <c r="E216" s="27"/>
       <c r="F216" s="32"/>
-      <c r="G216" s="33"/>
-      <c r="H216" s="33"/>
-      <c r="I216" s="17"/>
+      <c r="G216" s="27"/>
+      <c r="H216" s="27"/>
+      <c r="I216" s="11"/>
       <c r="K216" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L216" s="7">
         <v>214</v>
       </c>
-      <c r="M216" s="49"/>
+      <c r="M216" s="26"/>
       <c r="N216" s="7"/>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A217" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B217" s="16">
+      <c r="A217" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B217" s="10">
         <v>215</v>
       </c>
-      <c r="C217" s="33"/>
-      <c r="D217" s="33"/>
-      <c r="E217" s="33"/>
+      <c r="C217" s="27"/>
+      <c r="D217" s="27"/>
+      <c r="E217" s="27"/>
       <c r="F217" s="32"/>
-      <c r="G217" s="33"/>
-      <c r="H217" s="33"/>
-      <c r="I217" s="17"/>
+      <c r="G217" s="27"/>
+      <c r="H217" s="27"/>
+      <c r="I217" s="11"/>
       <c r="K217" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L217" s="7">
         <v>215</v>
       </c>
-      <c r="M217" s="49"/>
+      <c r="M217" s="26"/>
       <c r="N217" s="7"/>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A218" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B218" s="16">
+      <c r="A218" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B218" s="10">
         <v>216</v>
       </c>
-      <c r="C218" s="33"/>
-      <c r="D218" s="33"/>
-      <c r="E218" s="33"/>
+      <c r="C218" s="27"/>
+      <c r="D218" s="27"/>
+      <c r="E218" s="27"/>
       <c r="F218" s="32"/>
-      <c r="G218" s="33"/>
-      <c r="H218" s="33"/>
-      <c r="I218" s="17"/>
+      <c r="G218" s="27"/>
+      <c r="H218" s="27"/>
+      <c r="I218" s="11"/>
       <c r="K218" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L218" s="7">
         <v>216</v>
       </c>
-      <c r="M218" s="49"/>
+      <c r="M218" s="26"/>
       <c r="N218" s="7"/>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A219" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B219" s="16">
+      <c r="A219" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B219" s="10">
         <v>217</v>
       </c>
-      <c r="C219" s="33"/>
-      <c r="D219" s="33"/>
-      <c r="E219" s="33"/>
+      <c r="C219" s="27"/>
+      <c r="D219" s="27"/>
+      <c r="E219" s="27"/>
       <c r="F219" s="32"/>
-      <c r="G219" s="33"/>
-      <c r="H219" s="33"/>
-      <c r="I219" s="17"/>
+      <c r="G219" s="27"/>
+      <c r="H219" s="27"/>
+      <c r="I219" s="11"/>
       <c r="K219" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L219" s="7">
         <v>217</v>
       </c>
-      <c r="M219" s="49"/>
+      <c r="M219" s="26"/>
       <c r="N219" s="7"/>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A220" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B220" s="16">
+      <c r="A220" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B220" s="10">
         <v>218</v>
       </c>
-      <c r="C220" s="33"/>
-      <c r="D220" s="33"/>
-      <c r="E220" s="33"/>
+      <c r="C220" s="27"/>
+      <c r="D220" s="27"/>
+      <c r="E220" s="27"/>
       <c r="F220" s="32"/>
-      <c r="G220" s="33"/>
-      <c r="H220" s="33"/>
-      <c r="I220" s="17"/>
+      <c r="G220" s="27"/>
+      <c r="H220" s="27"/>
+      <c r="I220" s="11"/>
       <c r="K220" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L220" s="7">
         <v>218</v>
       </c>
-      <c r="M220" s="49"/>
+      <c r="M220" s="26"/>
       <c r="N220" s="7"/>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A221" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B221" s="16">
+      <c r="A221" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B221" s="10">
         <v>219</v>
       </c>
-      <c r="C221" s="33"/>
-      <c r="D221" s="33"/>
-      <c r="E221" s="33"/>
+      <c r="C221" s="27"/>
+      <c r="D221" s="27"/>
+      <c r="E221" s="27"/>
       <c r="F221" s="32"/>
-      <c r="G221" s="33"/>
-      <c r="H221" s="33"/>
-      <c r="I221" s="17"/>
+      <c r="G221" s="27"/>
+      <c r="H221" s="27"/>
+      <c r="I221" s="11"/>
       <c r="K221" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L221" s="7">
         <v>219</v>
       </c>
-      <c r="M221" s="49"/>
+      <c r="M221" s="26"/>
       <c r="N221" s="7"/>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A222" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B222" s="16">
+      <c r="A222" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B222" s="10">
         <v>220</v>
       </c>
-      <c r="C222" s="33"/>
-      <c r="D222" s="33"/>
-      <c r="E222" s="33"/>
+      <c r="C222" s="27"/>
+      <c r="D222" s="27"/>
+      <c r="E222" s="27"/>
       <c r="F222" s="32"/>
-      <c r="G222" s="33"/>
-      <c r="H222" s="33"/>
-      <c r="I222" s="17"/>
+      <c r="G222" s="27"/>
+      <c r="H222" s="27"/>
+      <c r="I222" s="11"/>
       <c r="K222" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L222" s="7">
         <v>220</v>
       </c>
-      <c r="M222" s="49"/>
+      <c r="M222" s="26"/>
       <c r="N222" s="7"/>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A223" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B223" s="16">
+      <c r="A223" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223" s="10">
         <v>221</v>
       </c>
-      <c r="C223" s="33"/>
-      <c r="D223" s="33"/>
-      <c r="E223" s="33"/>
+      <c r="C223" s="27"/>
+      <c r="D223" s="27"/>
+      <c r="E223" s="27"/>
       <c r="F223" s="32"/>
-      <c r="G223" s="33"/>
-      <c r="H223" s="33"/>
-      <c r="I223" s="17"/>
+      <c r="G223" s="27"/>
+      <c r="H223" s="27"/>
+      <c r="I223" s="11"/>
       <c r="K223" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L223" s="7">
         <v>221</v>
       </c>
-      <c r="M223" s="49"/>
+      <c r="M223" s="26"/>
       <c r="N223" s="7"/>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A224" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B224" s="16">
+      <c r="A224" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B224" s="10">
         <v>222</v>
       </c>
-      <c r="C224" s="33"/>
-      <c r="D224" s="33"/>
-      <c r="E224" s="33"/>
+      <c r="C224" s="27"/>
+      <c r="D224" s="27"/>
+      <c r="E224" s="27"/>
       <c r="F224" s="32"/>
-      <c r="G224" s="33"/>
-      <c r="H224" s="33"/>
-      <c r="I224" s="17"/>
+      <c r="G224" s="27"/>
+      <c r="H224" s="27"/>
+      <c r="I224" s="11"/>
       <c r="K224" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L224" s="7">
         <v>222</v>
       </c>
-      <c r="M224" s="49"/>
+      <c r="M224" s="26"/>
       <c r="N224" s="7"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A225" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B225" s="16">
+      <c r="A225" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B225" s="10">
         <v>223</v>
       </c>
-      <c r="C225" s="33"/>
-      <c r="D225" s="33"/>
-      <c r="E225" s="33"/>
+      <c r="C225" s="27"/>
+      <c r="D225" s="27"/>
+      <c r="E225" s="27"/>
       <c r="F225" s="32"/>
-      <c r="G225" s="33"/>
-      <c r="H225" s="33"/>
-      <c r="I225" s="17"/>
+      <c r="G225" s="27"/>
+      <c r="H225" s="27"/>
+      <c r="I225" s="11"/>
       <c r="K225" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L225" s="7">
         <v>223</v>
       </c>
-      <c r="M225" s="49"/>
+      <c r="M225" s="26"/>
       <c r="N225" s="7"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A226" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B226" s="16">
+      <c r="A226" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B226" s="10">
         <v>224</v>
       </c>
-      <c r="C226" s="43"/>
-      <c r="D226" s="33"/>
-      <c r="E226" s="33"/>
-      <c r="F226" s="33"/>
-      <c r="G226" s="33"/>
-      <c r="H226" s="33"/>
-      <c r="I226" s="17"/>
+      <c r="C226" s="31"/>
+      <c r="D226" s="27"/>
+      <c r="E226" s="27"/>
+      <c r="F226" s="27"/>
+      <c r="G226" s="27"/>
+      <c r="H226" s="27"/>
+      <c r="I226" s="11"/>
       <c r="K226" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L226" s="7">
         <v>224</v>
       </c>
-      <c r="M226" s="49"/>
+      <c r="M226" s="26"/>
       <c r="N226" s="7"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A227" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B227" s="16">
+      <c r="A227" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B227" s="10">
         <v>225</v>
       </c>
-      <c r="C227" s="43"/>
-      <c r="D227" s="33"/>
-      <c r="E227" s="33"/>
-      <c r="F227" s="33"/>
-      <c r="G227" s="33"/>
-      <c r="H227" s="33"/>
-      <c r="I227" s="17"/>
+      <c r="C227" s="31"/>
+      <c r="D227" s="27"/>
+      <c r="E227" s="27"/>
+      <c r="F227" s="27"/>
+      <c r="G227" s="27"/>
+      <c r="H227" s="27"/>
+      <c r="I227" s="11"/>
       <c r="K227" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L227" s="7">
         <v>225</v>
       </c>
-      <c r="M227" s="49"/>
+      <c r="M227" s="26"/>
       <c r="N227" s="7"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A228" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B228" s="16">
+      <c r="A228" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B228" s="10">
         <v>226</v>
       </c>
-      <c r="C228" s="43"/>
-      <c r="D228" s="33"/>
-      <c r="E228" s="33"/>
-      <c r="F228" s="33"/>
-      <c r="G228" s="33"/>
-      <c r="H228" s="33"/>
-      <c r="I228" s="17"/>
+      <c r="C228" s="31"/>
+      <c r="D228" s="27"/>
+      <c r="E228" s="27"/>
+      <c r="F228" s="27"/>
+      <c r="G228" s="27"/>
+      <c r="H228" s="27"/>
+      <c r="I228" s="11"/>
       <c r="K228" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L228" s="7">
         <v>226</v>
       </c>
-      <c r="M228" s="49"/>
+      <c r="M228" s="26"/>
       <c r="N228" s="7"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A229" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B229" s="16">
+      <c r="A229" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B229" s="10">
         <v>227</v>
       </c>
-      <c r="C229" s="43"/>
-      <c r="D229" s="33"/>
-      <c r="E229" s="33"/>
-      <c r="F229" s="33"/>
-      <c r="G229" s="33"/>
-      <c r="H229" s="33"/>
-      <c r="I229" s="17"/>
+      <c r="C229" s="31"/>
+      <c r="D229" s="27"/>
+      <c r="E229" s="27"/>
+      <c r="F229" s="27"/>
+      <c r="G229" s="27"/>
+      <c r="H229" s="27"/>
+      <c r="I229" s="11"/>
       <c r="K229" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L229" s="7">
         <v>227</v>
       </c>
-      <c r="M229" s="49"/>
+      <c r="M229" s="26"/>
       <c r="N229" s="7"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A230" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B230" s="16">
+      <c r="A230" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B230" s="10">
         <v>228</v>
       </c>
-      <c r="C230" s="43"/>
-      <c r="D230" s="33"/>
-      <c r="E230" s="33"/>
-      <c r="F230" s="33"/>
-      <c r="G230" s="33"/>
-      <c r="H230" s="33"/>
-      <c r="I230" s="17"/>
+      <c r="C230" s="31"/>
+      <c r="D230" s="27"/>
+      <c r="E230" s="27"/>
+      <c r="F230" s="27"/>
+      <c r="G230" s="27"/>
+      <c r="H230" s="27"/>
+      <c r="I230" s="11"/>
       <c r="K230" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L230" s="7">
         <v>228</v>
       </c>
-      <c r="M230" s="49"/>
+      <c r="M230" s="26"/>
       <c r="N230" s="7"/>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A231" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B231" s="16">
+      <c r="A231" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B231" s="10">
         <v>229</v>
       </c>
-      <c r="C231" s="43"/>
-      <c r="D231" s="33"/>
-      <c r="E231" s="33"/>
-      <c r="F231" s="33"/>
-      <c r="G231" s="33"/>
-      <c r="H231" s="33"/>
-      <c r="I231" s="17"/>
+      <c r="C231" s="31"/>
+      <c r="D231" s="27"/>
+      <c r="E231" s="27"/>
+      <c r="F231" s="27"/>
+      <c r="G231" s="27"/>
+      <c r="H231" s="27"/>
+      <c r="I231" s="11"/>
       <c r="K231" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L231" s="7">
         <v>229</v>
       </c>
-      <c r="M231" s="49"/>
+      <c r="M231" s="26"/>
       <c r="N231" s="7"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A232" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B232" s="16">
+      <c r="A232" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B232" s="10">
         <v>230</v>
       </c>
-      <c r="C232" s="43"/>
-      <c r="D232" s="33"/>
-      <c r="E232" s="33"/>
-      <c r="F232" s="33"/>
-      <c r="G232" s="33"/>
-      <c r="H232" s="33"/>
-      <c r="I232" s="17"/>
+      <c r="C232" s="31"/>
+      <c r="D232" s="27"/>
+      <c r="E232" s="27"/>
+      <c r="F232" s="27"/>
+      <c r="G232" s="27"/>
+      <c r="H232" s="27"/>
+      <c r="I232" s="11"/>
       <c r="K232" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L232" s="7">
         <v>230</v>
       </c>
-      <c r="M232" s="49"/>
+      <c r="M232" s="26"/>
       <c r="N232" s="7"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A233" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B233" s="16">
+      <c r="A233" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B233" s="10">
         <v>231</v>
       </c>
-      <c r="C233" s="43"/>
-      <c r="D233" s="33"/>
-      <c r="E233" s="33"/>
-      <c r="F233" s="33"/>
-      <c r="G233" s="33"/>
-      <c r="H233" s="33"/>
-      <c r="I233" s="17"/>
+      <c r="C233" s="31"/>
+      <c r="D233" s="27"/>
+      <c r="E233" s="27"/>
+      <c r="F233" s="27"/>
+      <c r="G233" s="27"/>
+      <c r="H233" s="27"/>
+      <c r="I233" s="11"/>
       <c r="K233" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L233" s="7">
         <v>231</v>
       </c>
-      <c r="M233" s="49"/>
+      <c r="M233" s="26"/>
       <c r="N233" s="7"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A234" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B234" s="16">
+      <c r="A234" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B234" s="10">
         <v>232</v>
       </c>
-      <c r="C234" s="43"/>
-      <c r="D234" s="33"/>
-      <c r="E234" s="33"/>
-      <c r="F234" s="33"/>
-      <c r="G234" s="33"/>
-      <c r="H234" s="33"/>
-      <c r="I234" s="17"/>
+      <c r="C234" s="31"/>
+      <c r="D234" s="27"/>
+      <c r="E234" s="27"/>
+      <c r="F234" s="27"/>
+      <c r="G234" s="27"/>
+      <c r="H234" s="27"/>
+      <c r="I234" s="11"/>
       <c r="K234" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L234" s="7">
         <v>232</v>
       </c>
-      <c r="M234" s="49"/>
+      <c r="M234" s="26"/>
       <c r="N234" s="7"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A235" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B235" s="16">
+      <c r="A235" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B235" s="10">
         <v>233</v>
       </c>
-      <c r="C235" s="43"/>
-      <c r="D235" s="33"/>
-      <c r="E235" s="33"/>
-      <c r="F235" s="33"/>
-      <c r="G235" s="33"/>
-      <c r="H235" s="33"/>
-      <c r="I235" s="17"/>
+      <c r="C235" s="31"/>
+      <c r="D235" s="27"/>
+      <c r="E235" s="27"/>
+      <c r="F235" s="27"/>
+      <c r="G235" s="27"/>
+      <c r="H235" s="27"/>
+      <c r="I235" s="11"/>
       <c r="K235" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L235" s="7">
         <v>233</v>
       </c>
-      <c r="M235" s="49"/>
+      <c r="M235" s="26"/>
       <c r="N235" s="7"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A236" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B236" s="16">
+      <c r="A236" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B236" s="10">
         <v>234</v>
       </c>
-      <c r="C236" s="43"/>
-      <c r="D236" s="33"/>
-      <c r="E236" s="33"/>
-      <c r="F236" s="33"/>
-      <c r="G236" s="33"/>
-      <c r="H236" s="33"/>
-      <c r="I236" s="17"/>
+      <c r="C236" s="31"/>
+      <c r="D236" s="27"/>
+      <c r="E236" s="27"/>
+      <c r="F236" s="27"/>
+      <c r="G236" s="27"/>
+      <c r="H236" s="27"/>
+      <c r="I236" s="11"/>
       <c r="K236" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L236" s="7">
         <v>234</v>
       </c>
-      <c r="M236" s="49"/>
+      <c r="M236" s="26"/>
       <c r="N236" s="7"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A237" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B237" s="16">
+      <c r="A237" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B237" s="10">
         <v>235</v>
       </c>
-      <c r="C237" s="43"/>
-      <c r="D237" s="33"/>
-      <c r="E237" s="33"/>
-      <c r="F237" s="33"/>
-      <c r="G237" s="33"/>
-      <c r="H237" s="33"/>
-      <c r="I237" s="17"/>
+      <c r="C237" s="31"/>
+      <c r="D237" s="27"/>
+      <c r="E237" s="27"/>
+      <c r="F237" s="27"/>
+      <c r="G237" s="27"/>
+      <c r="H237" s="27"/>
+      <c r="I237" s="11"/>
       <c r="K237" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L237" s="7">
         <v>235</v>
       </c>
-      <c r="M237" s="49"/>
+      <c r="M237" s="26"/>
       <c r="N237" s="7"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A238" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B238" s="16">
+      <c r="A238" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B238" s="10">
         <v>236</v>
       </c>
-      <c r="C238" s="43"/>
-      <c r="D238" s="33"/>
-      <c r="E238" s="33"/>
-      <c r="F238" s="33"/>
-      <c r="G238" s="33"/>
-      <c r="H238" s="33"/>
-      <c r="I238" s="17"/>
+      <c r="C238" s="31"/>
+      <c r="D238" s="27"/>
+      <c r="E238" s="27"/>
+      <c r="F238" s="27"/>
+      <c r="G238" s="27"/>
+      <c r="H238" s="27"/>
+      <c r="I238" s="11"/>
       <c r="K238" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L238" s="7">
         <v>236</v>
       </c>
-      <c r="M238" s="49"/>
+      <c r="M238" s="26"/>
       <c r="N238" s="7"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A239" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B239" s="16">
+      <c r="A239" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B239" s="10">
         <v>237</v>
       </c>
-      <c r="C239" s="43"/>
-      <c r="D239" s="33"/>
-      <c r="E239" s="33"/>
-      <c r="F239" s="33"/>
-      <c r="G239" s="33"/>
-      <c r="H239" s="33"/>
-      <c r="I239" s="17"/>
+      <c r="C239" s="31"/>
+      <c r="D239" s="27"/>
+      <c r="E239" s="27"/>
+      <c r="F239" s="27"/>
+      <c r="G239" s="27"/>
+      <c r="H239" s="27"/>
+      <c r="I239" s="11"/>
       <c r="K239" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L239" s="7">
         <v>237</v>
       </c>
-      <c r="M239" s="49"/>
+      <c r="M239" s="26"/>
       <c r="N239" s="7"/>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A240" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B240" s="16">
+      <c r="A240" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B240" s="10">
         <v>238</v>
       </c>
-      <c r="C240" s="43"/>
-      <c r="D240" s="33"/>
-      <c r="E240" s="33"/>
-      <c r="F240" s="33"/>
-      <c r="G240" s="33"/>
-      <c r="H240" s="33"/>
-      <c r="I240" s="17"/>
+      <c r="C240" s="31"/>
+      <c r="D240" s="27"/>
+      <c r="E240" s="27"/>
+      <c r="F240" s="27"/>
+      <c r="G240" s="27"/>
+      <c r="H240" s="27"/>
+      <c r="I240" s="11"/>
       <c r="K240" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L240" s="7">
         <v>238</v>
       </c>
-      <c r="M240" s="49"/>
+      <c r="M240" s="26"/>
       <c r="N240" s="7"/>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A241" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B241" s="16">
+      <c r="A241" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B241" s="10">
         <v>239</v>
       </c>
-      <c r="C241" s="43"/>
-      <c r="D241" s="33"/>
-      <c r="E241" s="33"/>
-      <c r="F241" s="33"/>
-      <c r="G241" s="33"/>
-      <c r="H241" s="33"/>
-      <c r="I241" s="17"/>
+      <c r="C241" s="31"/>
+      <c r="D241" s="27"/>
+      <c r="E241" s="27"/>
+      <c r="F241" s="27"/>
+      <c r="G241" s="27"/>
+      <c r="H241" s="27"/>
+      <c r="I241" s="11"/>
       <c r="K241" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L241" s="7">
         <v>239</v>
       </c>
-      <c r="M241" s="49"/>
+      <c r="M241" s="26"/>
       <c r="N241" s="7"/>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
@@ -7804,12 +8978,12 @@
       <c r="B242">
         <v>240</v>
       </c>
-      <c r="C242" s="33"/>
-      <c r="D242" s="33"/>
-      <c r="E242" s="33"/>
-      <c r="F242" s="33"/>
-      <c r="G242" s="33"/>
-      <c r="H242" s="33"/>
+      <c r="C242" s="27"/>
+      <c r="D242" s="27"/>
+      <c r="E242" s="27"/>
+      <c r="F242" s="27"/>
+      <c r="G242" s="27"/>
+      <c r="H242" s="27"/>
       <c r="I242" s="2"/>
       <c r="K242" s="7" t="s">
         <v>29</v>
@@ -7817,7 +8991,7 @@
       <c r="L242" s="7">
         <v>240</v>
       </c>
-      <c r="M242" s="49"/>
+      <c r="M242" s="26"/>
       <c r="N242" s="7"/>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
@@ -7827,12 +9001,12 @@
       <c r="B243">
         <v>241</v>
       </c>
-      <c r="C243" s="33"/>
-      <c r="D243" s="33"/>
-      <c r="E243" s="33"/>
-      <c r="F243" s="33"/>
-      <c r="G243" s="33"/>
-      <c r="H243" s="33"/>
+      <c r="C243" s="27"/>
+      <c r="D243" s="27"/>
+      <c r="E243" s="27"/>
+      <c r="F243" s="27"/>
+      <c r="G243" s="27"/>
+      <c r="H243" s="27"/>
       <c r="I243" s="2"/>
       <c r="K243" s="7" t="s">
         <v>29</v>
@@ -7840,7 +9014,7 @@
       <c r="L243" s="7">
         <v>241</v>
       </c>
-      <c r="M243" s="49"/>
+      <c r="M243" s="26"/>
       <c r="N243" s="7"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
@@ -7850,12 +9024,12 @@
       <c r="B244">
         <v>242</v>
       </c>
-      <c r="C244" s="33"/>
-      <c r="D244" s="33"/>
-      <c r="E244" s="33"/>
-      <c r="F244" s="33"/>
-      <c r="G244" s="33"/>
-      <c r="H244" s="33"/>
+      <c r="C244" s="27"/>
+      <c r="D244" s="27"/>
+      <c r="E244" s="27"/>
+      <c r="F244" s="27"/>
+      <c r="G244" s="27"/>
+      <c r="H244" s="27"/>
       <c r="I244" s="2"/>
       <c r="K244" s="7" t="s">
         <v>29</v>
@@ -7863,7 +9037,7 @@
       <c r="L244" s="7">
         <v>242</v>
       </c>
-      <c r="M244" s="49"/>
+      <c r="M244" s="26"/>
       <c r="N244" s="7"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
@@ -7873,12 +9047,12 @@
       <c r="B245">
         <v>243</v>
       </c>
-      <c r="C245" s="33"/>
-      <c r="D245" s="33"/>
-      <c r="E245" s="33"/>
-      <c r="F245" s="33"/>
-      <c r="G245" s="33"/>
-      <c r="H245" s="33"/>
+      <c r="C245" s="27"/>
+      <c r="D245" s="27"/>
+      <c r="E245" s="27"/>
+      <c r="F245" s="27"/>
+      <c r="G245" s="27"/>
+      <c r="H245" s="27"/>
       <c r="I245" s="2"/>
       <c r="K245" s="7" t="s">
         <v>29</v>
@@ -7886,7 +9060,7 @@
       <c r="L245" s="7">
         <v>243</v>
       </c>
-      <c r="M245" s="49"/>
+      <c r="M245" s="26"/>
       <c r="N245" s="7"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
@@ -7896,12 +9070,12 @@
       <c r="B246">
         <v>244</v>
       </c>
-      <c r="C246" s="33"/>
-      <c r="D246" s="33"/>
-      <c r="E246" s="33"/>
-      <c r="F246" s="33"/>
-      <c r="G246" s="33"/>
-      <c r="H246" s="33"/>
+      <c r="C246" s="27"/>
+      <c r="D246" s="27"/>
+      <c r="E246" s="27"/>
+      <c r="F246" s="27"/>
+      <c r="G246" s="27"/>
+      <c r="H246" s="27"/>
       <c r="I246" s="2"/>
       <c r="K246" s="7" t="s">
         <v>29</v>
@@ -7909,7 +9083,7 @@
       <c r="L246" s="7">
         <v>244</v>
       </c>
-      <c r="M246" s="49"/>
+      <c r="M246" s="26"/>
       <c r="N246" s="7"/>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
@@ -7919,12 +9093,12 @@
       <c r="B247">
         <v>245</v>
       </c>
-      <c r="C247" s="33"/>
-      <c r="D247" s="33"/>
-      <c r="E247" s="33"/>
-      <c r="F247" s="33"/>
-      <c r="G247" s="33"/>
-      <c r="H247" s="33"/>
+      <c r="C247" s="27"/>
+      <c r="D247" s="27"/>
+      <c r="E247" s="27"/>
+      <c r="F247" s="27"/>
+      <c r="G247" s="27"/>
+      <c r="H247" s="27"/>
       <c r="I247" s="2"/>
       <c r="K247" s="7" t="s">
         <v>29</v>
@@ -7932,7 +9106,7 @@
       <c r="L247" s="7">
         <v>245</v>
       </c>
-      <c r="M247" s="49"/>
+      <c r="M247" s="26"/>
       <c r="N247" s="7"/>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
@@ -7942,12 +9116,12 @@
       <c r="B248">
         <v>246</v>
       </c>
-      <c r="C248" s="33"/>
-      <c r="D248" s="33"/>
-      <c r="E248" s="33"/>
-      <c r="F248" s="33"/>
-      <c r="G248" s="33"/>
-      <c r="H248" s="33"/>
+      <c r="C248" s="27"/>
+      <c r="D248" s="27"/>
+      <c r="E248" s="27"/>
+      <c r="F248" s="27"/>
+      <c r="G248" s="27"/>
+      <c r="H248" s="27"/>
       <c r="I248" s="2"/>
       <c r="K248" s="7" t="s">
         <v>29</v>
@@ -7955,7 +9129,7 @@
       <c r="L248" s="7">
         <v>246</v>
       </c>
-      <c r="M248" s="49"/>
+      <c r="M248" s="26"/>
       <c r="N248" s="7"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
@@ -7965,12 +9139,12 @@
       <c r="B249">
         <v>247</v>
       </c>
-      <c r="C249" s="33"/>
-      <c r="D249" s="33"/>
-      <c r="E249" s="33"/>
-      <c r="F249" s="33"/>
-      <c r="G249" s="33"/>
-      <c r="H249" s="33"/>
+      <c r="C249" s="27"/>
+      <c r="D249" s="27"/>
+      <c r="E249" s="27"/>
+      <c r="F249" s="27"/>
+      <c r="G249" s="27"/>
+      <c r="H249" s="27"/>
       <c r="I249" s="2"/>
       <c r="K249" s="7" t="s">
         <v>29</v>
@@ -7978,7 +9152,7 @@
       <c r="L249" s="7">
         <v>247</v>
       </c>
-      <c r="M249" s="49"/>
+      <c r="M249" s="26"/>
       <c r="N249" s="7"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
@@ -7988,12 +9162,12 @@
       <c r="B250">
         <v>248</v>
       </c>
-      <c r="C250" s="33"/>
-      <c r="D250" s="33"/>
-      <c r="E250" s="33"/>
-      <c r="F250" s="33"/>
-      <c r="G250" s="33"/>
-      <c r="H250" s="33"/>
+      <c r="C250" s="27"/>
+      <c r="D250" s="27"/>
+      <c r="E250" s="27"/>
+      <c r="F250" s="27"/>
+      <c r="G250" s="27"/>
+      <c r="H250" s="27"/>
       <c r="I250" s="2"/>
       <c r="K250" s="7" t="s">
         <v>29</v>
@@ -8001,7 +9175,7 @@
       <c r="L250" s="7">
         <v>248</v>
       </c>
-      <c r="M250" s="49"/>
+      <c r="M250" s="26"/>
       <c r="N250" s="7"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
@@ -8011,12 +9185,12 @@
       <c r="B251">
         <v>249</v>
       </c>
-      <c r="C251" s="33"/>
-      <c r="D251" s="33"/>
-      <c r="E251" s="33"/>
-      <c r="F251" s="33"/>
-      <c r="G251" s="33"/>
-      <c r="H251" s="33"/>
+      <c r="C251" s="27"/>
+      <c r="D251" s="27"/>
+      <c r="E251" s="27"/>
+      <c r="F251" s="27"/>
+      <c r="G251" s="27"/>
+      <c r="H251" s="27"/>
       <c r="I251" s="2"/>
       <c r="K251" s="7" t="s">
         <v>29</v>
@@ -8024,7 +9198,7 @@
       <c r="L251" s="7">
         <v>249</v>
       </c>
-      <c r="M251" s="49"/>
+      <c r="M251" s="26"/>
       <c r="N251" s="7"/>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
@@ -8034,12 +9208,12 @@
       <c r="B252">
         <v>250</v>
       </c>
-      <c r="C252" s="33"/>
-      <c r="D252" s="33"/>
-      <c r="E252" s="33"/>
-      <c r="F252" s="33"/>
-      <c r="G252" s="33"/>
-      <c r="H252" s="33"/>
+      <c r="C252" s="27"/>
+      <c r="D252" s="27"/>
+      <c r="E252" s="27"/>
+      <c r="F252" s="27"/>
+      <c r="G252" s="27"/>
+      <c r="H252" s="27"/>
       <c r="I252" s="2"/>
       <c r="K252" s="7" t="s">
         <v>29</v>
@@ -8047,7 +9221,7 @@
       <c r="L252" s="7">
         <v>250</v>
       </c>
-      <c r="M252" s="49"/>
+      <c r="M252" s="26"/>
       <c r="N252" s="7"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
@@ -8057,12 +9231,12 @@
       <c r="B253">
         <v>251</v>
       </c>
-      <c r="C253" s="33"/>
-      <c r="D253" s="33"/>
-      <c r="E253" s="33"/>
-      <c r="F253" s="33"/>
-      <c r="G253" s="33"/>
-      <c r="H253" s="33"/>
+      <c r="C253" s="27"/>
+      <c r="D253" s="27"/>
+      <c r="E253" s="27"/>
+      <c r="F253" s="27"/>
+      <c r="G253" s="27"/>
+      <c r="H253" s="27"/>
       <c r="I253" s="2"/>
       <c r="K253" s="7" t="s">
         <v>29</v>
@@ -8070,7 +9244,7 @@
       <c r="L253" s="7">
         <v>251</v>
       </c>
-      <c r="M253" s="49"/>
+      <c r="M253" s="26"/>
       <c r="N253" s="7"/>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
@@ -8080,12 +9254,12 @@
       <c r="B254">
         <v>252</v>
       </c>
-      <c r="C254" s="33"/>
-      <c r="D254" s="33"/>
-      <c r="E254" s="33"/>
-      <c r="F254" s="33"/>
-      <c r="G254" s="33"/>
-      <c r="H254" s="33"/>
+      <c r="C254" s="27"/>
+      <c r="D254" s="27"/>
+      <c r="E254" s="27"/>
+      <c r="F254" s="27"/>
+      <c r="G254" s="27"/>
+      <c r="H254" s="27"/>
       <c r="I254" s="2"/>
       <c r="K254" s="7" t="s">
         <v>29</v>
@@ -8093,7 +9267,7 @@
       <c r="L254" s="7">
         <v>252</v>
       </c>
-      <c r="M254" s="49"/>
+      <c r="M254" s="26"/>
       <c r="N254" s="7"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
@@ -8103,12 +9277,12 @@
       <c r="B255">
         <v>253</v>
       </c>
-      <c r="C255" s="33"/>
-      <c r="D255" s="33"/>
-      <c r="E255" s="33"/>
-      <c r="F255" s="33"/>
-      <c r="G255" s="33"/>
-      <c r="H255" s="33"/>
+      <c r="C255" s="27"/>
+      <c r="D255" s="27"/>
+      <c r="E255" s="27"/>
+      <c r="F255" s="27"/>
+      <c r="G255" s="27"/>
+      <c r="H255" s="27"/>
       <c r="I255" s="2"/>
       <c r="K255" s="7" t="s">
         <v>29</v>
@@ -8116,7 +9290,7 @@
       <c r="L255" s="7">
         <v>253</v>
       </c>
-      <c r="M255" s="49"/>
+      <c r="M255" s="26"/>
       <c r="N255" s="7"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
@@ -8126,12 +9300,12 @@
       <c r="B256">
         <v>254</v>
       </c>
-      <c r="C256" s="33"/>
-      <c r="D256" s="33"/>
-      <c r="E256" s="33"/>
-      <c r="F256" s="33"/>
-      <c r="G256" s="33"/>
-      <c r="H256" s="33"/>
+      <c r="C256" s="27"/>
+      <c r="D256" s="27"/>
+      <c r="E256" s="27"/>
+      <c r="F256" s="27"/>
+      <c r="G256" s="27"/>
+      <c r="H256" s="27"/>
       <c r="I256" s="2"/>
       <c r="K256" s="7" t="s">
         <v>29</v>
@@ -8139,7 +9313,7 @@
       <c r="L256" s="7">
         <v>254</v>
       </c>
-      <c r="M256" s="49"/>
+      <c r="M256" s="26"/>
       <c r="N256" s="7" t="s">
         <v>20</v>
       </c>
@@ -8151,12 +9325,12 @@
       <c r="B257">
         <v>255</v>
       </c>
-      <c r="C257" s="33"/>
-      <c r="D257" s="33"/>
-      <c r="E257" s="33"/>
-      <c r="F257" s="33"/>
-      <c r="G257" s="33"/>
-      <c r="H257" s="33"/>
+      <c r="C257" s="27"/>
+      <c r="D257" s="27"/>
+      <c r="E257" s="27"/>
+      <c r="F257" s="27"/>
+      <c r="G257" s="27"/>
+      <c r="H257" s="27"/>
       <c r="I257" s="2"/>
       <c r="K257" s="7" t="s">
         <v>29</v>
@@ -8164,13 +9338,116 @@
       <c r="L257" s="7">
         <v>255</v>
       </c>
-      <c r="M257" s="49"/>
+      <c r="M257" s="26"/>
       <c r="N257" s="7" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="F194:F225"/>
+    <mergeCell ref="G194:G257"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D202:D209"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="D210:D217"/>
+    <mergeCell ref="E210:E225"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="D250:D257"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="F226:F257"/>
+    <mergeCell ref="C230:C233"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="D234:D241"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D249"/>
+    <mergeCell ref="E242:E257"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="E194:E209"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="E162:E177"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="D218:D225"/>
+    <mergeCell ref="C222:C225"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D233"/>
+    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="F162:F193"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="D170:D177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="D178:D185"/>
+    <mergeCell ref="G130:G193"/>
+    <mergeCell ref="H130:H257"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D145"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D153"/>
+    <mergeCell ref="E146:E161"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="E178:E193"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="D186:D193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="D194:D201"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="E130:E145"/>
+    <mergeCell ref="F130:F161"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="F98:F129"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="E114:E129"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D105"/>
+    <mergeCell ref="E98:E113"/>
+    <mergeCell ref="F66:F97"/>
+    <mergeCell ref="G66:G129"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="E82:E97"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D122:D129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E50:E65"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="E66:E81"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="E34:E49"/>
     <mergeCell ref="M2:M257"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D9"/>
@@ -8195,109 +9472,6 @@
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="D26:D33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E50:E65"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="E66:E81"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="E34:E49"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D105"/>
-    <mergeCell ref="E98:E113"/>
-    <mergeCell ref="F66:F97"/>
-    <mergeCell ref="G66:G129"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="E82:E97"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D122:D129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="E130:E145"/>
-    <mergeCell ref="F130:F161"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="F98:F129"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="E114:E129"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="F162:F193"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="D170:D177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="D178:D185"/>
-    <mergeCell ref="G130:G193"/>
-    <mergeCell ref="H130:H257"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D145"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D153"/>
-    <mergeCell ref="E146:E161"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="E178:E193"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="D186:D193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="D194:D201"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="E162:E177"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="D218:D225"/>
-    <mergeCell ref="C222:C225"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D233"/>
-    <mergeCell ref="E226:E241"/>
-    <mergeCell ref="F194:F225"/>
-    <mergeCell ref="G194:G257"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="D202:D209"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="D210:D217"/>
-    <mergeCell ref="E210:E225"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="D250:D257"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="F226:F257"/>
-    <mergeCell ref="C230:C233"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="D234:D241"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D249"/>
-    <mergeCell ref="E242:E257"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="E194:E209"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ipcim.xlsx
+++ b/ipcim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\halozatProjektek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\halozatProjektek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7AB2CC-255F-45CE-8C66-4B56650C44B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC729A77-5DF5-489E-95A3-F8E463EE1972}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{C8323FA4-6CC7-40F6-BE4B-AB2032EB79E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{C8323FA4-6CC7-40F6-BE4B-AB2032EB79E9}"/>
   </bookViews>
   <sheets>
     <sheet name="IP Cím igény" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -671,28 +662,68 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
@@ -702,58 +733,18 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -781,7 +772,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1079,7 +1070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E52708-4D1F-4658-B09E-637D902EB613}">
   <dimension ref="A1:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M4" sqref="M4:M5"/>
     </sheetView>
   </sheetViews>
@@ -2029,1160 +2020,1160 @@
       <c r="F56" s="7"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37">
+      <c r="B58" s="27"/>
+      <c r="C58" s="27">
         <v>4</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
-      <c r="B59" s="37">
+      <c r="A59" s="26"/>
+      <c r="B59" s="27">
         <f>LOG(C58+2,2)</f>
         <v>2.5849625007211561</v>
       </c>
-      <c r="C59" s="37">
+      <c r="C59" s="27">
         <v>3</v>
       </c>
-      <c r="D59" s="37" t="s">
+      <c r="D59" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B60" s="37">
+      <c r="B60" s="27">
         <v>187</v>
       </c>
-      <c r="C60" s="37">
+      <c r="C60" s="27">
         <v>20</v>
       </c>
-      <c r="D60" s="37">
+      <c r="D60" s="27">
         <v>0</v>
       </c>
-      <c r="E60" s="37">
+      <c r="E60" s="27">
         <v>192</v>
       </c>
-      <c r="F60" s="37"/>
+      <c r="F60" s="27"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="37" t="str">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27" t="str">
         <f>DEC2BIN(B60,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C61" s="37" t="str">
+      <c r="C61" s="27" t="str">
         <f t="shared" ref="C61:E61" si="26">DEC2BIN(C60,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D61" s="37" t="str">
+      <c r="D61" s="27" t="str">
         <f t="shared" si="26"/>
         <v>00000000</v>
       </c>
-      <c r="E61" s="37" t="str">
+      <c r="E61" s="27" t="str">
         <f t="shared" si="26"/>
         <v>11000000</v>
       </c>
-      <c r="F61" s="37"/>
+      <c r="F61" s="27"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="37" t="s">
+      <c r="A63" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="37">
+      <c r="B63" s="27">
         <v>187</v>
       </c>
-      <c r="C63" s="37">
+      <c r="C63" s="27">
         <v>20</v>
       </c>
-      <c r="D63" s="37">
+      <c r="D63" s="27">
         <v>0</v>
       </c>
-      <c r="E63" s="37">
+      <c r="E63" s="27">
         <v>195</v>
       </c>
-      <c r="F63" s="37"/>
+      <c r="F63" s="27"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="37" t="str">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27" t="str">
         <f>DEC2BIN(B63,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C64" s="37" t="str">
+      <c r="C64" s="27" t="str">
         <f t="shared" ref="C64:E64" si="27">DEC2BIN(C63,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D64" s="37" t="str">
+      <c r="D64" s="27" t="str">
         <f t="shared" si="27"/>
         <v>00000000</v>
       </c>
-      <c r="E64" s="37" t="str">
+      <c r="E64" s="27" t="str">
         <f t="shared" si="27"/>
         <v>11000011</v>
       </c>
-      <c r="F64" s="37"/>
+      <c r="F64" s="27"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="37">
+      <c r="B66" s="27">
         <v>255</v>
       </c>
-      <c r="C66" s="37">
+      <c r="C66" s="27">
         <v>255</v>
       </c>
-      <c r="D66" s="37">
+      <c r="D66" s="27">
         <v>255</v>
       </c>
-      <c r="E66" s="37">
+      <c r="E66" s="27">
         <v>252</v>
       </c>
-      <c r="F66" s="37"/>
+      <c r="F66" s="27"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
-      <c r="B67" s="37" t="str">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27" t="str">
         <f>DEC2BIN(B66,8)</f>
         <v>11111111</v>
       </c>
-      <c r="C67" s="37" t="str">
+      <c r="C67" s="27" t="str">
         <f t="shared" ref="C67:E67" si="28">DEC2BIN(C66,8)</f>
         <v>11111111</v>
       </c>
-      <c r="D67" s="37" t="str">
+      <c r="D67" s="27" t="str">
         <f t="shared" si="28"/>
         <v>11111111</v>
       </c>
-      <c r="E67" s="37" t="str">
+      <c r="E67" s="27" t="str">
         <f t="shared" si="28"/>
         <v>11111100</v>
       </c>
-      <c r="F67" s="37"/>
+      <c r="F67" s="27"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B68" s="37">
+      <c r="B68" s="27">
         <v>187</v>
       </c>
-      <c r="C68" s="37">
+      <c r="C68" s="27">
         <v>20</v>
       </c>
-      <c r="D68" s="37">
+      <c r="D68" s="27">
         <v>0</v>
       </c>
-      <c r="E68" s="37">
+      <c r="E68" s="27">
         <v>193</v>
       </c>
-      <c r="F68" s="37"/>
+      <c r="F68" s="27"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="37" t="str">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27" t="str">
         <f>DEC2BIN(B68,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C69" s="37" t="str">
+      <c r="C69" s="27" t="str">
         <f t="shared" ref="C69:E69" si="29">DEC2BIN(C68,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D69" s="37" t="str">
+      <c r="D69" s="27" t="str">
         <f t="shared" si="29"/>
         <v>00000000</v>
       </c>
-      <c r="E69" s="37" t="str">
+      <c r="E69" s="27" t="str">
         <f t="shared" si="29"/>
         <v>11000001</v>
       </c>
-      <c r="F69" s="37"/>
+      <c r="F69" s="27"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B70" s="37">
+      <c r="B70" s="27">
         <v>187</v>
       </c>
-      <c r="C70" s="37">
+      <c r="C70" s="27">
         <v>20</v>
       </c>
-      <c r="D70" s="37">
+      <c r="D70" s="27">
         <v>0</v>
       </c>
-      <c r="E70" s="37">
+      <c r="E70" s="27">
         <v>194</v>
       </c>
-      <c r="F70" s="37"/>
+      <c r="F70" s="27"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="37" t="str">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27" t="str">
         <f>DEC2BIN(B70,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C71" s="37" t="str">
+      <c r="C71" s="27" t="str">
         <f t="shared" ref="C71:E71" si="30">DEC2BIN(C70,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D71" s="37" t="str">
+      <c r="D71" s="27" t="str">
         <f t="shared" si="30"/>
         <v>00000000</v>
       </c>
-      <c r="E71" s="37" t="str">
+      <c r="E71" s="27" t="str">
         <f t="shared" si="30"/>
         <v>11000010</v>
       </c>
-      <c r="F71" s="37"/>
+      <c r="F71" s="27"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B72" s="37">
+      <c r="B72" s="27">
         <v>187</v>
       </c>
-      <c r="C72" s="37">
+      <c r="C72" s="27">
         <v>20</v>
       </c>
-      <c r="D72" s="37">
+      <c r="D72" s="27">
         <v>0</v>
       </c>
-      <c r="E72" s="37">
+      <c r="E72" s="27">
         <v>193</v>
       </c>
-      <c r="F72" s="37"/>
+      <c r="F72" s="27"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37" t="str">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27" t="str">
         <f>DEC2BIN(B72,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C73" s="38" t="str">
+      <c r="C73" s="28" t="str">
         <f t="shared" ref="C73:E73" si="31">DEC2BIN(C72,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D73" s="37" t="str">
+      <c r="D73" s="27" t="str">
         <f t="shared" si="31"/>
         <v>00000000</v>
       </c>
-      <c r="E73" s="37" t="str">
+      <c r="E73" s="27" t="str">
         <f t="shared" si="31"/>
         <v>11000001</v>
       </c>
-      <c r="F73" s="37"/>
+      <c r="F73" s="27"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="37" t="s">
+      <c r="A74" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B74" s="39">
+      <c r="B74" s="29">
         <f>4*54</f>
         <v>216</v>
       </c>
-      <c r="C74" s="40">
+      <c r="C74" s="30">
         <f>B74*396</f>
         <v>85536</v>
       </c>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="57"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="45" t="s">
+      <c r="A76" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45">
+      <c r="B76" s="32"/>
+      <c r="C76" s="32">
         <v>4</v>
       </c>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
-      <c r="B77" s="45">
+      <c r="A77" s="31"/>
+      <c r="B77" s="32">
         <f>LOG(C76+2,2)</f>
         <v>2.5849625007211561</v>
       </c>
-      <c r="C77" s="45">
+      <c r="C77" s="32">
         <v>3</v>
       </c>
-      <c r="D77" s="45" t="s">
+      <c r="D77" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="45" t="s">
+      <c r="A78" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B78" s="45">
+      <c r="B78" s="32">
         <v>187</v>
       </c>
-      <c r="C78" s="45">
+      <c r="C78" s="32">
         <v>20</v>
       </c>
-      <c r="D78" s="45">
+      <c r="D78" s="32">
         <v>0</v>
       </c>
-      <c r="E78" s="45">
+      <c r="E78" s="32">
         <v>196</v>
       </c>
-      <c r="F78" s="45"/>
+      <c r="F78" s="32"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
-      <c r="B79" s="45" t="str">
+      <c r="A79" s="32"/>
+      <c r="B79" s="32" t="str">
         <f>DEC2BIN(B78,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C79" s="45" t="str">
+      <c r="C79" s="32" t="str">
         <f t="shared" ref="C79:E79" si="32">DEC2BIN(C78,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D79" s="45" t="str">
+      <c r="D79" s="32" t="str">
         <f t="shared" si="32"/>
         <v>00000000</v>
       </c>
-      <c r="E79" s="45" t="str">
+      <c r="E79" s="32" t="str">
         <f t="shared" si="32"/>
         <v>11000100</v>
       </c>
-      <c r="F79" s="45"/>
+      <c r="F79" s="32"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="45">
+      <c r="B81" s="32">
         <v>187</v>
       </c>
-      <c r="C81" s="45">
+      <c r="C81" s="32">
         <v>20</v>
       </c>
-      <c r="D81" s="45">
+      <c r="D81" s="32">
         <v>0</v>
       </c>
-      <c r="E81" s="45">
+      <c r="E81" s="32">
         <v>199</v>
       </c>
-      <c r="F81" s="45"/>
+      <c r="F81" s="32"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="45"/>
-      <c r="B82" s="45" t="str">
+      <c r="A82" s="32"/>
+      <c r="B82" s="32" t="str">
         <f>DEC2BIN(B81,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C82" s="45" t="str">
+      <c r="C82" s="32" t="str">
         <f t="shared" ref="C82:E82" si="33">DEC2BIN(C81,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D82" s="45" t="str">
+      <c r="D82" s="32" t="str">
         <f t="shared" si="33"/>
         <v>00000000</v>
       </c>
-      <c r="E82" s="45" t="str">
+      <c r="E82" s="32" t="str">
         <f t="shared" si="33"/>
         <v>11000111</v>
       </c>
-      <c r="F82" s="45"/>
+      <c r="F82" s="32"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="45"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="45"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="45" t="s">
+      <c r="A84" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="45">
+      <c r="B84" s="32">
         <v>255</v>
       </c>
-      <c r="C84" s="45">
+      <c r="C84" s="32">
         <v>255</v>
       </c>
-      <c r="D84" s="45">
+      <c r="D84" s="32">
         <v>255</v>
       </c>
-      <c r="E84" s="45">
+      <c r="E84" s="32">
         <v>252</v>
       </c>
-      <c r="F84" s="45"/>
+      <c r="F84" s="32"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="45"/>
-      <c r="B85" s="45" t="str">
+      <c r="A85" s="32"/>
+      <c r="B85" s="32" t="str">
         <f>DEC2BIN(B84,8)</f>
         <v>11111111</v>
       </c>
-      <c r="C85" s="45" t="str">
+      <c r="C85" s="32" t="str">
         <f t="shared" ref="C85:E85" si="34">DEC2BIN(C84,8)</f>
         <v>11111111</v>
       </c>
-      <c r="D85" s="45" t="str">
+      <c r="D85" s="32" t="str">
         <f t="shared" si="34"/>
         <v>11111111</v>
       </c>
-      <c r="E85" s="45" t="str">
+      <c r="E85" s="32" t="str">
         <f t="shared" si="34"/>
         <v>11111100</v>
       </c>
-      <c r="F85" s="45"/>
+      <c r="F85" s="32"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="45" t="s">
+      <c r="A86" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B86" s="45">
+      <c r="B86" s="32">
         <v>187</v>
       </c>
-      <c r="C86" s="45">
+      <c r="C86" s="32">
         <v>20</v>
       </c>
-      <c r="D86" s="45">
+      <c r="D86" s="32">
         <v>0</v>
       </c>
-      <c r="E86" s="45">
+      <c r="E86" s="32">
         <v>197</v>
       </c>
-      <c r="F86" s="45"/>
+      <c r="F86" s="32"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="45"/>
-      <c r="B87" s="45" t="str">
+      <c r="A87" s="32"/>
+      <c r="B87" s="32" t="str">
         <f>DEC2BIN(B86,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C87" s="45" t="str">
+      <c r="C87" s="32" t="str">
         <f t="shared" ref="C87:E87" si="35">DEC2BIN(C86,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D87" s="45" t="str">
+      <c r="D87" s="32" t="str">
         <f t="shared" si="35"/>
         <v>00000000</v>
       </c>
-      <c r="E87" s="45" t="str">
+      <c r="E87" s="32" t="str">
         <f t="shared" si="35"/>
         <v>11000101</v>
       </c>
-      <c r="F87" s="45"/>
+      <c r="F87" s="32"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="45" t="s">
+      <c r="A88" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B88" s="45">
+      <c r="B88" s="32">
         <v>187</v>
       </c>
-      <c r="C88" s="45">
+      <c r="C88" s="32">
         <v>20</v>
       </c>
-      <c r="D88" s="45">
+      <c r="D88" s="32">
         <v>0</v>
       </c>
-      <c r="E88" s="45">
+      <c r="E88" s="32">
         <v>198</v>
       </c>
-      <c r="F88" s="45"/>
+      <c r="F88" s="32"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
-      <c r="B89" s="45" t="str">
+      <c r="A89" s="32"/>
+      <c r="B89" s="32" t="str">
         <f>DEC2BIN(B88,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C89" s="45" t="str">
+      <c r="C89" s="32" t="str">
         <f t="shared" ref="C89:E89" si="36">DEC2BIN(C88,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D89" s="45" t="str">
+      <c r="D89" s="32" t="str">
         <f t="shared" si="36"/>
         <v>00000000</v>
       </c>
-      <c r="E89" s="45" t="str">
+      <c r="E89" s="32" t="str">
         <f t="shared" si="36"/>
         <v>11000110</v>
       </c>
-      <c r="F89" s="45"/>
+      <c r="F89" s="32"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="45" t="s">
+      <c r="A90" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B90" s="45">
+      <c r="B90" s="32">
         <v>187</v>
       </c>
-      <c r="C90" s="45">
+      <c r="C90" s="32">
         <v>20</v>
       </c>
-      <c r="D90" s="45">
+      <c r="D90" s="32">
         <v>0</v>
       </c>
-      <c r="E90" s="45">
+      <c r="E90" s="32">
         <v>198</v>
       </c>
-      <c r="F90" s="45"/>
+      <c r="F90" s="32"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="45"/>
-      <c r="B91" s="45" t="str">
+      <c r="A91" s="32"/>
+      <c r="B91" s="32" t="str">
         <f>DEC2BIN(B90,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C91" s="46" t="str">
+      <c r="C91" s="33" t="str">
         <f t="shared" ref="C91:E91" si="37">DEC2BIN(C90,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D91" s="45" t="str">
+      <c r="D91" s="32" t="str">
         <f t="shared" si="37"/>
         <v>00000000</v>
       </c>
-      <c r="E91" s="45" t="str">
+      <c r="E91" s="32" t="str">
         <f t="shared" si="37"/>
         <v>11000110</v>
       </c>
-      <c r="F91" s="45"/>
+      <c r="F91" s="32"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="45" t="s">
+      <c r="A92" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B92" s="47">
+      <c r="B92" s="34">
         <f>4*54</f>
         <v>216</v>
       </c>
-      <c r="C92" s="48">
+      <c r="C92" s="35">
         <f>B92*396</f>
         <v>85536</v>
       </c>
-      <c r="D92" s="45"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="53" t="s">
+      <c r="A94" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B94" s="53"/>
-      <c r="C94" s="53">
+      <c r="B94" s="37"/>
+      <c r="C94" s="37">
         <v>4</v>
       </c>
-      <c r="D94" s="53"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
-      <c r="B95" s="53">
+      <c r="A95" s="36"/>
+      <c r="B95" s="37">
         <f>LOG(C94+2,2)</f>
         <v>2.5849625007211561</v>
       </c>
-      <c r="C95" s="53">
+      <c r="C95" s="37">
         <v>3</v>
       </c>
-      <c r="D95" s="53" t="s">
+      <c r="D95" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E95" s="53"/>
-      <c r="F95" s="53"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="53" t="s">
+      <c r="A96" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B96" s="53">
+      <c r="B96" s="37">
         <v>187</v>
       </c>
-      <c r="C96" s="53">
+      <c r="C96" s="37">
         <v>20</v>
       </c>
-      <c r="D96" s="53">
+      <c r="D96" s="37">
         <v>0</v>
       </c>
-      <c r="E96" s="53">
+      <c r="E96" s="37">
         <v>200</v>
       </c>
-      <c r="F96" s="53"/>
+      <c r="F96" s="37"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="53"/>
-      <c r="B97" s="53" t="str">
+      <c r="A97" s="37"/>
+      <c r="B97" s="37" t="str">
         <f>DEC2BIN(B96,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C97" s="53" t="str">
+      <c r="C97" s="37" t="str">
         <f t="shared" ref="C97:E97" si="38">DEC2BIN(C96,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D97" s="53" t="str">
+      <c r="D97" s="37" t="str">
         <f t="shared" si="38"/>
         <v>00000000</v>
       </c>
-      <c r="E97" s="53" t="str">
+      <c r="E97" s="37" t="str">
         <f t="shared" si="38"/>
         <v>11001000</v>
       </c>
-      <c r="F97" s="53"/>
+      <c r="F97" s="37"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="53"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="53" t="s">
+      <c r="A99" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="53">
+      <c r="B99" s="37">
         <v>187</v>
       </c>
-      <c r="C99" s="53">
+      <c r="C99" s="37">
         <v>20</v>
       </c>
-      <c r="D99" s="53">
+      <c r="D99" s="37">
         <v>0</v>
       </c>
-      <c r="E99" s="53">
+      <c r="E99" s="37">
         <v>203</v>
       </c>
-      <c r="F99" s="53"/>
+      <c r="F99" s="37"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="53"/>
-      <c r="B100" s="53" t="str">
+      <c r="A100" s="37"/>
+      <c r="B100" s="37" t="str">
         <f>DEC2BIN(B99,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C100" s="53" t="str">
+      <c r="C100" s="37" t="str">
         <f t="shared" ref="C100:E100" si="39">DEC2BIN(C99,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D100" s="53" t="str">
+      <c r="D100" s="37" t="str">
         <f t="shared" si="39"/>
         <v>00000000</v>
       </c>
-      <c r="E100" s="53" t="str">
+      <c r="E100" s="37" t="str">
         <f t="shared" si="39"/>
         <v>11001011</v>
       </c>
-      <c r="F100" s="53"/>
+      <c r="F100" s="37"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="53"/>
-      <c r="B101" s="53"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="53"/>
-      <c r="E101" s="53"/>
-      <c r="F101" s="53"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="53" t="s">
+      <c r="A102" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="53">
+      <c r="B102" s="37">
         <v>255</v>
       </c>
-      <c r="C102" s="53">
+      <c r="C102" s="37">
         <v>255</v>
       </c>
-      <c r="D102" s="53">
+      <c r="D102" s="37">
         <v>255</v>
       </c>
-      <c r="E102" s="53">
+      <c r="E102" s="37">
         <v>252</v>
       </c>
-      <c r="F102" s="53"/>
+      <c r="F102" s="37"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="53"/>
-      <c r="B103" s="53" t="str">
+      <c r="A103" s="37"/>
+      <c r="B103" s="37" t="str">
         <f>DEC2BIN(B102,8)</f>
         <v>11111111</v>
       </c>
-      <c r="C103" s="53" t="str">
+      <c r="C103" s="37" t="str">
         <f t="shared" ref="C103:E103" si="40">DEC2BIN(C102,8)</f>
         <v>11111111</v>
       </c>
-      <c r="D103" s="53" t="str">
+      <c r="D103" s="37" t="str">
         <f t="shared" si="40"/>
         <v>11111111</v>
       </c>
-      <c r="E103" s="53" t="str">
+      <c r="E103" s="37" t="str">
         <f t="shared" si="40"/>
         <v>11111100</v>
       </c>
-      <c r="F103" s="53"/>
+      <c r="F103" s="37"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="53" t="s">
+      <c r="A104" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B104" s="53">
+      <c r="B104" s="37">
         <v>187</v>
       </c>
-      <c r="C104" s="53">
+      <c r="C104" s="37">
         <v>20</v>
       </c>
-      <c r="D104" s="53">
+      <c r="D104" s="37">
         <v>0</v>
       </c>
-      <c r="E104" s="53">
+      <c r="E104" s="37">
         <v>201</v>
       </c>
-      <c r="F104" s="53"/>
+      <c r="F104" s="37"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="53"/>
-      <c r="B105" s="53" t="str">
+      <c r="A105" s="37"/>
+      <c r="B105" s="37" t="str">
         <f>DEC2BIN(B104,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C105" s="53" t="str">
+      <c r="C105" s="37" t="str">
         <f t="shared" ref="C105:E105" si="41">DEC2BIN(C104,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D105" s="53" t="str">
+      <c r="D105" s="37" t="str">
         <f t="shared" si="41"/>
         <v>00000000</v>
       </c>
-      <c r="E105" s="53" t="str">
+      <c r="E105" s="37" t="str">
         <f t="shared" si="41"/>
         <v>11001001</v>
       </c>
-      <c r="F105" s="53"/>
+      <c r="F105" s="37"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="53" t="s">
+      <c r="A106" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B106" s="53">
+      <c r="B106" s="37">
         <v>187</v>
       </c>
-      <c r="C106" s="53">
+      <c r="C106" s="37">
         <v>20</v>
       </c>
-      <c r="D106" s="53">
+      <c r="D106" s="37">
         <v>0</v>
       </c>
-      <c r="E106" s="53">
+      <c r="E106" s="37">
         <v>202</v>
       </c>
-      <c r="F106" s="53"/>
+      <c r="F106" s="37"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="53"/>
-      <c r="B107" s="53" t="str">
+      <c r="A107" s="37"/>
+      <c r="B107" s="37" t="str">
         <f>DEC2BIN(B106,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C107" s="53" t="str">
+      <c r="C107" s="37" t="str">
         <f t="shared" ref="C107:E107" si="42">DEC2BIN(C106,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D107" s="53" t="str">
+      <c r="D107" s="37" t="str">
         <f t="shared" si="42"/>
         <v>00000000</v>
       </c>
-      <c r="E107" s="53" t="str">
+      <c r="E107" s="37" t="str">
         <f t="shared" si="42"/>
         <v>11001010</v>
       </c>
-      <c r="F107" s="53"/>
+      <c r="F107" s="37"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="53" t="s">
+      <c r="A108" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B108" s="53">
+      <c r="B108" s="37">
         <v>187</v>
       </c>
-      <c r="C108" s="53">
+      <c r="C108" s="37">
         <v>20</v>
       </c>
-      <c r="D108" s="53">
+      <c r="D108" s="37">
         <v>0</v>
       </c>
-      <c r="E108" s="53">
+      <c r="E108" s="37">
         <v>202</v>
       </c>
-      <c r="F108" s="53"/>
+      <c r="F108" s="37"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
-      <c r="B109" s="53" t="str">
+      <c r="A109" s="37"/>
+      <c r="B109" s="37" t="str">
         <f>DEC2BIN(B108,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C109" s="54" t="str">
+      <c r="C109" s="38" t="str">
         <f t="shared" ref="C109:E109" si="43">DEC2BIN(C108,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D109" s="53" t="str">
+      <c r="D109" s="37" t="str">
         <f t="shared" si="43"/>
         <v>00000000</v>
       </c>
-      <c r="E109" s="53" t="str">
+      <c r="E109" s="37" t="str">
         <f t="shared" si="43"/>
         <v>11001010</v>
       </c>
-      <c r="F109" s="53"/>
+      <c r="F109" s="37"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="53" t="s">
+      <c r="A110" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B110" s="55">
+      <c r="B110" s="39">
         <f>4*54</f>
         <v>216</v>
       </c>
-      <c r="C110" s="56">
+      <c r="C110" s="40">
         <f>B110*396</f>
         <v>85536</v>
       </c>
-      <c r="D110" s="53"/>
-      <c r="E110" s="53"/>
-      <c r="F110" s="53"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="37"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="64" t="s">
+      <c r="A112" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B112" s="64"/>
-      <c r="C112" s="64">
+      <c r="B112" s="45"/>
+      <c r="C112" s="45">
         <v>4</v>
       </c>
-      <c r="D112" s="64"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="64"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="45"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="60"/>
-      <c r="B113" s="64">
+      <c r="A113" s="44"/>
+      <c r="B113" s="45">
         <f>LOG(C112+2,2)</f>
         <v>2.5849625007211561</v>
       </c>
-      <c r="C113" s="64">
+      <c r="C113" s="45">
         <v>3</v>
       </c>
-      <c r="D113" s="64" t="s">
+      <c r="D113" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E113" s="64"/>
-      <c r="F113" s="64"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="45"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="64" t="s">
+      <c r="A114" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="B114" s="64">
+      <c r="B114" s="45">
         <v>187</v>
       </c>
-      <c r="C114" s="64">
+      <c r="C114" s="45">
         <v>20</v>
       </c>
-      <c r="D114" s="64">
+      <c r="D114" s="45">
         <v>0</v>
       </c>
-      <c r="E114" s="64">
+      <c r="E114" s="45">
         <v>204</v>
       </c>
-      <c r="F114" s="64"/>
+      <c r="F114" s="45"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="64"/>
-      <c r="B115" s="64" t="str">
+      <c r="A115" s="45"/>
+      <c r="B115" s="45" t="str">
         <f>DEC2BIN(B114,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C115" s="64" t="str">
+      <c r="C115" s="45" t="str">
         <f t="shared" ref="C115:E115" si="44">DEC2BIN(C114,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D115" s="64" t="str">
+      <c r="D115" s="45" t="str">
         <f t="shared" si="44"/>
         <v>00000000</v>
       </c>
-      <c r="E115" s="64" t="str">
+      <c r="E115" s="45" t="str">
         <f t="shared" si="44"/>
         <v>11001100</v>
       </c>
-      <c r="F115" s="64"/>
+      <c r="F115" s="45"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="64"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="64"/>
-      <c r="D116" s="64"/>
-      <c r="E116" s="64"/>
-      <c r="F116" s="64"/>
+      <c r="A116" s="45"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="45"/>
+      <c r="E116" s="45"/>
+      <c r="F116" s="45"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="64" t="s">
+      <c r="A117" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="64">
+      <c r="B117" s="45">
         <v>187</v>
       </c>
-      <c r="C117" s="64">
+      <c r="C117" s="45">
         <v>20</v>
       </c>
-      <c r="D117" s="64">
+      <c r="D117" s="45">
         <v>0</v>
       </c>
-      <c r="E117" s="64">
+      <c r="E117" s="45">
         <v>207</v>
       </c>
-      <c r="F117" s="64"/>
+      <c r="F117" s="45"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="64"/>
-      <c r="B118" s="64" t="str">
+      <c r="A118" s="45"/>
+      <c r="B118" s="45" t="str">
         <f>DEC2BIN(B117,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C118" s="64" t="str">
+      <c r="C118" s="45" t="str">
         <f t="shared" ref="C118:E118" si="45">DEC2BIN(C117,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D118" s="64" t="str">
+      <c r="D118" s="45" t="str">
         <f t="shared" si="45"/>
         <v>00000000</v>
       </c>
-      <c r="E118" s="64" t="str">
+      <c r="E118" s="45" t="str">
         <f t="shared" si="45"/>
         <v>11001111</v>
       </c>
-      <c r="F118" s="64"/>
+      <c r="F118" s="45"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="64"/>
-      <c r="B119" s="64"/>
-      <c r="C119" s="64"/>
-      <c r="D119" s="64"/>
-      <c r="E119" s="64"/>
-      <c r="F119" s="64"/>
+      <c r="A119" s="45"/>
+      <c r="B119" s="45"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="45"/>
+      <c r="E119" s="45"/>
+      <c r="F119" s="45"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="64" t="s">
+      <c r="A120" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B120" s="64">
+      <c r="B120" s="45">
         <v>255</v>
       </c>
-      <c r="C120" s="64">
+      <c r="C120" s="45">
         <v>255</v>
       </c>
-      <c r="D120" s="64">
+      <c r="D120" s="45">
         <v>255</v>
       </c>
-      <c r="E120" s="64">
+      <c r="E120" s="45">
         <v>252</v>
       </c>
-      <c r="F120" s="64"/>
+      <c r="F120" s="45"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="64"/>
-      <c r="B121" s="64" t="str">
+      <c r="A121" s="45"/>
+      <c r="B121" s="45" t="str">
         <f>DEC2BIN(B120,8)</f>
         <v>11111111</v>
       </c>
-      <c r="C121" s="64" t="str">
+      <c r="C121" s="45" t="str">
         <f t="shared" ref="C121:E121" si="46">DEC2BIN(C120,8)</f>
         <v>11111111</v>
       </c>
-      <c r="D121" s="64" t="str">
+      <c r="D121" s="45" t="str">
         <f t="shared" si="46"/>
         <v>11111111</v>
       </c>
-      <c r="E121" s="64" t="str">
+      <c r="E121" s="45" t="str">
         <f t="shared" si="46"/>
         <v>11111100</v>
       </c>
-      <c r="F121" s="64"/>
+      <c r="F121" s="45"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="64" t="s">
+      <c r="A122" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="B122" s="64">
+      <c r="B122" s="45">
         <v>187</v>
       </c>
-      <c r="C122" s="64">
+      <c r="C122" s="45">
         <v>20</v>
       </c>
-      <c r="D122" s="64">
+      <c r="D122" s="45">
         <v>0</v>
       </c>
-      <c r="E122" s="64">
+      <c r="E122" s="45">
         <v>205</v>
       </c>
-      <c r="F122" s="64"/>
+      <c r="F122" s="45"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="64"/>
-      <c r="B123" s="64" t="str">
+      <c r="A123" s="45"/>
+      <c r="B123" s="45" t="str">
         <f>DEC2BIN(B122,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C123" s="64" t="str">
+      <c r="C123" s="45" t="str">
         <f t="shared" ref="C123:E123" si="47">DEC2BIN(C122,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D123" s="64" t="str">
+      <c r="D123" s="45" t="str">
         <f t="shared" si="47"/>
         <v>00000000</v>
       </c>
-      <c r="E123" s="64" t="str">
+      <c r="E123" s="45" t="str">
         <f t="shared" si="47"/>
         <v>11001101</v>
       </c>
-      <c r="F123" s="64"/>
+      <c r="F123" s="45"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="64" t="s">
+      <c r="A124" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="B124" s="64">
+      <c r="B124" s="45">
         <v>187</v>
       </c>
-      <c r="C124" s="64">
+      <c r="C124" s="45">
         <v>20</v>
       </c>
-      <c r="D124" s="64">
+      <c r="D124" s="45">
         <v>0</v>
       </c>
-      <c r="E124" s="64">
+      <c r="E124" s="45">
         <v>206</v>
       </c>
-      <c r="F124" s="64"/>
+      <c r="F124" s="45"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="64"/>
-      <c r="B125" s="64" t="str">
+      <c r="A125" s="45"/>
+      <c r="B125" s="45" t="str">
         <f>DEC2BIN(B124,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C125" s="64" t="str">
+      <c r="C125" s="45" t="str">
         <f t="shared" ref="C125:E125" si="48">DEC2BIN(C124,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D125" s="64" t="str">
+      <c r="D125" s="45" t="str">
         <f t="shared" si="48"/>
         <v>00000000</v>
       </c>
-      <c r="E125" s="64" t="str">
+      <c r="E125" s="45" t="str">
         <f t="shared" si="48"/>
         <v>11001110</v>
       </c>
-      <c r="F125" s="64"/>
+      <c r="F125" s="45"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="64" t="s">
+      <c r="A126" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B126" s="64">
+      <c r="B126" s="45">
         <v>187</v>
       </c>
-      <c r="C126" s="64">
+      <c r="C126" s="45">
         <v>20</v>
       </c>
-      <c r="D126" s="64">
+      <c r="D126" s="45">
         <v>0</v>
       </c>
-      <c r="E126" s="64">
+      <c r="E126" s="45">
         <v>206</v>
       </c>
-      <c r="F126" s="64"/>
+      <c r="F126" s="45"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="64"/>
-      <c r="B127" s="64" t="str">
+      <c r="A127" s="45"/>
+      <c r="B127" s="45" t="str">
         <f>DEC2BIN(B126,8)</f>
         <v>10111011</v>
       </c>
-      <c r="C127" s="65" t="str">
+      <c r="C127" s="46" t="str">
         <f t="shared" ref="C127:E127" si="49">DEC2BIN(C126,8)</f>
         <v>00010100</v>
       </c>
-      <c r="D127" s="64" t="str">
+      <c r="D127" s="45" t="str">
         <f t="shared" si="49"/>
         <v>00000000</v>
       </c>
-      <c r="E127" s="64" t="str">
+      <c r="E127" s="45" t="str">
         <f t="shared" si="49"/>
         <v>11001110</v>
       </c>
-      <c r="F127" s="64"/>
+      <c r="F127" s="45"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="64" t="s">
+      <c r="A128" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="B128" s="66">
+      <c r="B128" s="47">
         <f>4*54</f>
         <v>216</v>
       </c>
-      <c r="C128" s="67">
+      <c r="C128" s="48">
         <f>B128*396</f>
         <v>85536</v>
       </c>
-      <c r="D128" s="64"/>
-      <c r="E128" s="64"/>
-      <c r="F128" s="64"/>
+      <c r="D128" s="45"/>
+      <c r="E128" s="45"/>
+      <c r="F128" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3194,8 +3185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE611228-1758-41E4-B155-B304EF4AAA5B}">
   <dimension ref="A1:R257"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="D194" sqref="D194:D201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I204" sqref="I204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3235,12 +3226,12 @@
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="67" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -3252,7 +3243,7 @@
       <c r="L2" s="7">
         <v>0</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="66" t="s">
         <v>30</v>
       </c>
       <c r="N2" s="7" t="s">
@@ -3266,12 +3257,12 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
@@ -3281,7 +3272,7 @@
       <c r="L3" s="7">
         <v>1</v>
       </c>
-      <c r="M3" s="26"/>
+      <c r="M3" s="66"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3291,12 +3282,12 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="4" t="s">
         <v>42</v>
       </c>
@@ -3306,7 +3297,7 @@
       <c r="L4" s="7">
         <v>2</v>
       </c>
-      <c r="M4" s="26"/>
+      <c r="M4" s="66"/>
       <c r="N4" s="7" t="s">
         <v>24</v>
       </c>
@@ -3318,12 +3309,12 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="67"/>
       <c r="I5" s="4"/>
       <c r="K5" s="7" t="s">
         <v>29</v>
@@ -3331,7 +3322,7 @@
       <c r="L5" s="7">
         <v>3</v>
       </c>
-      <c r="M5" s="26"/>
+      <c r="M5" s="66"/>
       <c r="N5" s="7" t="s">
         <v>23</v>
       </c>
@@ -3343,12 +3334,12 @@
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="67"/>
       <c r="I6" s="4"/>
       <c r="K6" s="7" t="s">
         <v>29</v>
@@ -3356,7 +3347,7 @@
       <c r="L6" s="7">
         <v>4</v>
       </c>
-      <c r="M6" s="26"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3366,12 +3357,12 @@
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="67"/>
       <c r="I7" s="4" t="s">
         <v>43</v>
       </c>
@@ -3381,7 +3372,7 @@
       <c r="L7" s="7">
         <v>5</v>
       </c>
-      <c r="M7" s="26"/>
+      <c r="M7" s="66"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -3391,12 +3382,12 @@
       <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="67"/>
       <c r="I8" s="4" t="s">
         <v>44</v>
       </c>
@@ -3406,7 +3397,7 @@
       <c r="L8" s="7">
         <v>6</v>
       </c>
-      <c r="M8" s="26"/>
+      <c r="M8" s="66"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -3416,12 +3407,12 @@
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="67"/>
       <c r="I9" s="4" t="s">
         <v>45</v>
       </c>
@@ -3431,7 +3422,7 @@
       <c r="L9" s="7">
         <v>7</v>
       </c>
-      <c r="M9" s="26"/>
+      <c r="M9" s="66"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -3441,12 +3432,12 @@
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="67"/>
       <c r="I10" s="4" t="s">
         <v>46</v>
       </c>
@@ -3456,7 +3447,7 @@
       <c r="L10" s="7">
         <v>8</v>
       </c>
-      <c r="M10" s="26"/>
+      <c r="M10" s="66"/>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3466,12 +3457,12 @@
       <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="4" t="s">
         <v>47</v>
       </c>
@@ -3481,7 +3472,7 @@
       <c r="L11" s="7">
         <v>9</v>
       </c>
-      <c r="M11" s="26"/>
+      <c r="M11" s="66"/>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -3491,12 +3482,12 @@
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="67"/>
       <c r="I12" s="4" t="s">
         <v>48</v>
       </c>
@@ -3506,7 +3497,7 @@
       <c r="L12" s="7">
         <v>10</v>
       </c>
-      <c r="M12" s="26"/>
+      <c r="M12" s="66"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -3516,12 +3507,12 @@
       <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="4" t="s">
         <v>49</v>
       </c>
@@ -3531,7 +3522,7 @@
       <c r="L13" s="7">
         <v>11</v>
       </c>
-      <c r="M13" s="26"/>
+      <c r="M13" s="66"/>
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3541,12 +3532,12 @@
       <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="67"/>
       <c r="I14" s="4" t="s">
         <v>50</v>
       </c>
@@ -3556,7 +3547,7 @@
       <c r="L14" s="7">
         <v>12</v>
       </c>
-      <c r="M14" s="26"/>
+      <c r="M14" s="66"/>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3566,12 +3557,12 @@
       <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="67"/>
       <c r="I15" s="4" t="s">
         <v>51</v>
       </c>
@@ -3581,7 +3572,7 @@
       <c r="L15" s="7">
         <v>13</v>
       </c>
-      <c r="M15" s="26"/>
+      <c r="M15" s="66"/>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3591,12 +3582,12 @@
       <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="67"/>
       <c r="I16" s="4" t="s">
         <v>52</v>
       </c>
@@ -3606,7 +3597,7 @@
       <c r="L16" s="7">
         <v>14</v>
       </c>
-      <c r="M16" s="26"/>
+      <c r="M16" s="66"/>
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3616,12 +3607,12 @@
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="67"/>
       <c r="I17" s="4" t="s">
         <v>53</v>
       </c>
@@ -3631,7 +3622,7 @@
       <c r="L17" s="7">
         <v>15</v>
       </c>
-      <c r="M17" s="26"/>
+      <c r="M17" s="66"/>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -3641,12 +3632,12 @@
       <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="67"/>
       <c r="I18" s="4" t="s">
         <v>54</v>
       </c>
@@ -3656,7 +3647,7 @@
       <c r="L18" s="7">
         <v>16</v>
       </c>
-      <c r="M18" s="26"/>
+      <c r="M18" s="66"/>
       <c r="N18" s="7" t="s">
         <v>25</v>
       </c>
@@ -3668,12 +3659,12 @@
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="4" t="s">
         <v>55</v>
       </c>
@@ -3683,7 +3674,7 @@
       <c r="L19" s="7">
         <v>17</v>
       </c>
-      <c r="M19" s="26"/>
+      <c r="M19" s="66"/>
       <c r="N19" s="7" t="s">
         <v>26</v>
       </c>
@@ -3695,12 +3686,12 @@
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="67"/>
       <c r="I20" s="4" t="s">
         <v>56</v>
       </c>
@@ -3710,7 +3701,7 @@
       <c r="L20" s="7">
         <v>18</v>
       </c>
-      <c r="M20" s="26"/>
+      <c r="M20" s="66"/>
       <c r="N20" s="7" t="s">
         <v>27</v>
       </c>
@@ -3722,12 +3713,12 @@
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="67"/>
       <c r="I21" s="4" t="s">
         <v>57</v>
       </c>
@@ -3737,7 +3728,7 @@
       <c r="L21" s="7">
         <v>19</v>
       </c>
-      <c r="M21" s="26"/>
+      <c r="M21" s="66"/>
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3747,12 +3738,12 @@
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="4" t="s">
         <v>58</v>
       </c>
@@ -3762,7 +3753,7 @@
       <c r="L22" s="7">
         <v>20</v>
       </c>
-      <c r="M22" s="26"/>
+      <c r="M22" s="66"/>
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3772,12 +3763,12 @@
       <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="4" t="s">
         <v>59</v>
       </c>
@@ -3787,7 +3778,7 @@
       <c r="L23" s="7">
         <v>21</v>
       </c>
-      <c r="M23" s="26"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -3797,12 +3788,12 @@
       <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="4" t="s">
         <v>60</v>
       </c>
@@ -3812,7 +3803,7 @@
       <c r="L24" s="7">
         <v>22</v>
       </c>
-      <c r="M24" s="26"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -3822,12 +3813,12 @@
       <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="4" t="s">
         <v>61</v>
       </c>
@@ -3837,7 +3828,7 @@
       <c r="L25" s="7">
         <v>23</v>
       </c>
-      <c r="M25" s="26"/>
+      <c r="M25" s="66"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -3847,12 +3838,12 @@
       <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="4" t="s">
         <v>62</v>
       </c>
@@ -3862,7 +3853,7 @@
       <c r="L26" s="7">
         <v>24</v>
       </c>
-      <c r="M26" s="26"/>
+      <c r="M26" s="66"/>
       <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -3872,12 +3863,12 @@
       <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="4" t="s">
         <v>63</v>
       </c>
@@ -3887,7 +3878,7 @@
       <c r="L27" s="7">
         <v>25</v>
       </c>
-      <c r="M27" s="26"/>
+      <c r="M27" s="66"/>
       <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3897,12 +3888,12 @@
       <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="4" t="s">
         <v>64</v>
       </c>
@@ -3912,7 +3903,7 @@
       <c r="L28" s="7">
         <v>26</v>
       </c>
-      <c r="M28" s="26"/>
+      <c r="M28" s="66"/>
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -3922,12 +3913,12 @@
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="67"/>
       <c r="I29" s="4" t="s">
         <v>65</v>
       </c>
@@ -3937,7 +3928,7 @@
       <c r="L29" s="7">
         <v>27</v>
       </c>
-      <c r="M29" s="26"/>
+      <c r="M29" s="66"/>
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -3947,12 +3938,12 @@
       <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="67"/>
       <c r="I30" s="4" t="s">
         <v>66</v>
       </c>
@@ -3962,7 +3953,7 @@
       <c r="L30" s="7">
         <v>28</v>
       </c>
-      <c r="M30" s="26"/>
+      <c r="M30" s="66"/>
       <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -3972,12 +3963,12 @@
       <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="67"/>
       <c r="I31" s="4" t="s">
         <v>67</v>
       </c>
@@ -3987,7 +3978,7 @@
       <c r="L31" s="7">
         <v>29</v>
       </c>
-      <c r="M31" s="26"/>
+      <c r="M31" s="66"/>
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -3997,12 +3988,12 @@
       <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="67"/>
       <c r="I32" s="4" t="s">
         <v>68</v>
       </c>
@@ -4012,7 +4003,7 @@
       <c r="L32" s="7">
         <v>30</v>
       </c>
-      <c r="M32" s="26"/>
+      <c r="M32" s="66"/>
       <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -4022,12 +4013,12 @@
       <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="67"/>
       <c r="I33" s="4" t="s">
         <v>69</v>
       </c>
@@ -4037,7 +4028,7 @@
       <c r="L33" s="7">
         <v>31</v>
       </c>
-      <c r="M33" s="26"/>
+      <c r="M33" s="66"/>
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -4047,12 +4038,12 @@
       <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="67"/>
       <c r="I34" s="4" t="s">
         <v>70</v>
       </c>
@@ -4062,7 +4053,7 @@
       <c r="L34" s="7">
         <v>32</v>
       </c>
-      <c r="M34" s="26"/>
+      <c r="M34" s="66"/>
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -4072,12 +4063,12 @@
       <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="67"/>
       <c r="I35" s="4" t="s">
         <v>71</v>
       </c>
@@ -4087,7 +4078,7 @@
       <c r="L35" s="7">
         <v>33</v>
       </c>
-      <c r="M35" s="26"/>
+      <c r="M35" s="66"/>
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -4097,12 +4088,12 @@
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="67"/>
       <c r="I36" s="4" t="s">
         <v>72</v>
       </c>
@@ -4112,7 +4103,7 @@
       <c r="L36" s="7">
         <v>34</v>
       </c>
-      <c r="M36" s="26"/>
+      <c r="M36" s="66"/>
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -4122,12 +4113,12 @@
       <c r="B37" s="3">
         <v>35</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="67"/>
       <c r="I37" s="4" t="s">
         <v>73</v>
       </c>
@@ -4137,7 +4128,7 @@
       <c r="L37" s="7">
         <v>35</v>
       </c>
-      <c r="M37" s="26"/>
+      <c r="M37" s="66"/>
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -4147,12 +4138,12 @@
       <c r="B38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="67"/>
       <c r="I38" s="4" t="s">
         <v>74</v>
       </c>
@@ -4162,7 +4153,7 @@
       <c r="L38" s="7">
         <v>36</v>
       </c>
-      <c r="M38" s="26"/>
+      <c r="M38" s="66"/>
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -4172,12 +4163,12 @@
       <c r="B39" s="3">
         <v>37</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="67"/>
       <c r="I39" s="4" t="s">
         <v>75</v>
       </c>
@@ -4187,7 +4178,7 @@
       <c r="L39" s="7">
         <v>37</v>
       </c>
-      <c r="M39" s="26"/>
+      <c r="M39" s="66"/>
       <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -4197,12 +4188,12 @@
       <c r="B40" s="3">
         <v>38</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="67"/>
       <c r="I40" s="4" t="s">
         <v>76</v>
       </c>
@@ -4212,7 +4203,7 @@
       <c r="L40" s="7">
         <v>38</v>
       </c>
-      <c r="M40" s="26"/>
+      <c r="M40" s="66"/>
       <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -4222,12 +4213,12 @@
       <c r="B41" s="3">
         <v>39</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="67"/>
       <c r="I41" s="4" t="s">
         <v>77</v>
       </c>
@@ -4237,7 +4228,7 @@
       <c r="L41" s="7">
         <v>39</v>
       </c>
-      <c r="M41" s="26"/>
+      <c r="M41" s="66"/>
       <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -4247,12 +4238,12 @@
       <c r="B42" s="3">
         <v>40</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="67"/>
       <c r="I42" s="4" t="s">
         <v>78</v>
       </c>
@@ -4262,7 +4253,7 @@
       <c r="L42" s="7">
         <v>40</v>
       </c>
-      <c r="M42" s="26"/>
+      <c r="M42" s="66"/>
       <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -4272,12 +4263,12 @@
       <c r="B43" s="3">
         <v>41</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="67"/>
       <c r="I43" s="4" t="s">
         <v>79</v>
       </c>
@@ -4287,7 +4278,7 @@
       <c r="L43" s="7">
         <v>41</v>
       </c>
-      <c r="M43" s="26"/>
+      <c r="M43" s="66"/>
       <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -4297,12 +4288,12 @@
       <c r="B44" s="3">
         <v>42</v>
       </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="67"/>
       <c r="I44" s="4" t="s">
         <v>80</v>
       </c>
@@ -4312,7 +4303,7 @@
       <c r="L44" s="7">
         <v>42</v>
       </c>
-      <c r="M44" s="26"/>
+      <c r="M44" s="66"/>
       <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -4322,12 +4313,12 @@
       <c r="B45" s="3">
         <v>43</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="67"/>
       <c r="I45" s="4" t="s">
         <v>81</v>
       </c>
@@ -4337,7 +4328,7 @@
       <c r="L45" s="7">
         <v>43</v>
       </c>
-      <c r="M45" s="26"/>
+      <c r="M45" s="66"/>
       <c r="N45" s="7"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -4347,12 +4338,12 @@
       <c r="B46" s="3">
         <v>44</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="67"/>
       <c r="I46" s="4" t="s">
         <v>82</v>
       </c>
@@ -4362,7 +4353,7 @@
       <c r="L46" s="7">
         <v>44</v>
       </c>
-      <c r="M46" s="26"/>
+      <c r="M46" s="66"/>
       <c r="N46" s="7" t="s">
         <v>31</v>
       </c>
@@ -4374,12 +4365,12 @@
       <c r="B47" s="3">
         <v>45</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="67"/>
       <c r="I47" s="4" t="s">
         <v>83</v>
       </c>
@@ -4389,7 +4380,7 @@
       <c r="L47" s="7">
         <v>45</v>
       </c>
-      <c r="M47" s="26"/>
+      <c r="M47" s="66"/>
       <c r="N47" s="7"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -4399,12 +4390,12 @@
       <c r="B48" s="3">
         <v>46</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="67"/>
       <c r="I48" s="4" t="s">
         <v>84</v>
       </c>
@@ -4414,7 +4405,7 @@
       <c r="L48" s="7">
         <v>46</v>
       </c>
-      <c r="M48" s="26"/>
+      <c r="M48" s="66"/>
       <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -4424,12 +4415,12 @@
       <c r="B49" s="3">
         <v>47</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="67"/>
       <c r="I49" s="4" t="s">
         <v>85</v>
       </c>
@@ -4439,7 +4430,7 @@
       <c r="L49" s="7">
         <v>47</v>
       </c>
-      <c r="M49" s="26"/>
+      <c r="M49" s="66"/>
       <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -4449,12 +4440,12 @@
       <c r="B50" s="3">
         <v>48</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="67"/>
       <c r="I50" s="4" t="s">
         <v>86</v>
       </c>
@@ -4464,7 +4455,7 @@
       <c r="L50" s="7">
         <v>48</v>
       </c>
-      <c r="M50" s="26"/>
+      <c r="M50" s="66"/>
       <c r="N50" s="7"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -4474,12 +4465,12 @@
       <c r="B51" s="3">
         <v>49</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="28"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="67"/>
       <c r="I51" s="4" t="s">
         <v>87</v>
       </c>
@@ -4489,7 +4480,7 @@
       <c r="L51" s="7">
         <v>49</v>
       </c>
-      <c r="M51" s="26"/>
+      <c r="M51" s="66"/>
       <c r="N51" s="7"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -4499,12 +4490,12 @@
       <c r="B52" s="3">
         <v>50</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="67"/>
       <c r="I52" s="4" t="s">
         <v>88</v>
       </c>
@@ -4514,7 +4505,7 @@
       <c r="L52" s="7">
         <v>50</v>
       </c>
-      <c r="M52" s="26"/>
+      <c r="M52" s="66"/>
       <c r="N52" s="7"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -4524,12 +4515,12 @@
       <c r="B53" s="3">
         <v>51</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="67"/>
       <c r="I53" s="4" t="s">
         <v>89</v>
       </c>
@@ -4539,7 +4530,7 @@
       <c r="L53" s="7">
         <v>51</v>
       </c>
-      <c r="M53" s="26"/>
+      <c r="M53" s="66"/>
       <c r="N53" s="7"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -4549,12 +4540,12 @@
       <c r="B54" s="3">
         <v>52</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="28"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="67"/>
       <c r="I54" s="4" t="s">
         <v>90</v>
       </c>
@@ -4564,7 +4555,7 @@
       <c r="L54" s="7">
         <v>52</v>
       </c>
-      <c r="M54" s="26"/>
+      <c r="M54" s="66"/>
       <c r="N54" s="7"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -4574,12 +4565,12 @@
       <c r="B55" s="3">
         <v>53</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="28"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="67"/>
       <c r="I55" s="4" t="s">
         <v>91</v>
       </c>
@@ -4589,7 +4580,7 @@
       <c r="L55" s="7">
         <v>53</v>
       </c>
-      <c r="M55" s="26"/>
+      <c r="M55" s="66"/>
       <c r="N55" s="7"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -4599,12 +4590,12 @@
       <c r="B56" s="3">
         <v>54</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="28"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="67"/>
       <c r="I56" s="4" t="s">
         <v>92</v>
       </c>
@@ -4614,7 +4605,7 @@
       <c r="L56" s="7">
         <v>54</v>
       </c>
-      <c r="M56" s="26"/>
+      <c r="M56" s="66"/>
       <c r="N56" s="7"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -4624,12 +4615,12 @@
       <c r="B57" s="3">
         <v>55</v>
       </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="28"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="67"/>
       <c r="I57" s="4" t="s">
         <v>93</v>
       </c>
@@ -4639,7 +4630,7 @@
       <c r="L57" s="7">
         <v>55</v>
       </c>
-      <c r="M57" s="26"/>
+      <c r="M57" s="66"/>
       <c r="N57" s="7"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -4649,12 +4640,12 @@
       <c r="B58" s="3">
         <v>56</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="28"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="67"/>
       <c r="I58" s="4" t="s">
         <v>94</v>
       </c>
@@ -4664,7 +4655,7 @@
       <c r="L58" s="7">
         <v>56</v>
       </c>
-      <c r="M58" s="26"/>
+      <c r="M58" s="66"/>
       <c r="N58" s="7"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -4674,12 +4665,12 @@
       <c r="B59" s="3">
         <v>57</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="67"/>
       <c r="I59" s="4" t="s">
         <v>95</v>
       </c>
@@ -4689,7 +4680,7 @@
       <c r="L59" s="7">
         <v>57</v>
       </c>
-      <c r="M59" s="26"/>
+      <c r="M59" s="66"/>
       <c r="N59" s="7"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -4699,12 +4690,12 @@
       <c r="B60" s="3">
         <v>58</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="28"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="67"/>
       <c r="I60" s="4" t="s">
         <v>96</v>
       </c>
@@ -4714,7 +4705,7 @@
       <c r="L60" s="7">
         <v>58</v>
       </c>
-      <c r="M60" s="26"/>
+      <c r="M60" s="66"/>
       <c r="N60" s="7"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -4724,12 +4715,12 @@
       <c r="B61" s="3">
         <v>59</v>
       </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="28"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="67"/>
       <c r="I61" s="4" t="s">
         <v>97</v>
       </c>
@@ -4739,7 +4730,7 @@
       <c r="L61" s="7">
         <v>59</v>
       </c>
-      <c r="M61" s="26"/>
+      <c r="M61" s="66"/>
       <c r="N61" s="7"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -4749,12 +4740,12 @@
       <c r="B62" s="3">
         <v>60</v>
       </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="28"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="67"/>
       <c r="I62" s="4" t="s">
         <v>98</v>
       </c>
@@ -4764,7 +4755,7 @@
       <c r="L62" s="7">
         <v>60</v>
       </c>
-      <c r="M62" s="26"/>
+      <c r="M62" s="66"/>
       <c r="N62" s="7"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -4774,12 +4765,12 @@
       <c r="B63" s="3">
         <v>61</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="28"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="67"/>
       <c r="I63" s="4" t="s">
         <v>99</v>
       </c>
@@ -4789,7 +4780,7 @@
       <c r="L63" s="7">
         <v>61</v>
       </c>
-      <c r="M63" s="26"/>
+      <c r="M63" s="66"/>
       <c r="N63" s="7"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -4799,12 +4790,12 @@
       <c r="B64" s="3">
         <v>62</v>
       </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="28"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="67"/>
       <c r="I64" s="4" t="s">
         <v>100</v>
       </c>
@@ -4814,7 +4805,7 @@
       <c r="L64" s="7">
         <v>62</v>
       </c>
-      <c r="M64" s="26"/>
+      <c r="M64" s="66"/>
       <c r="N64" s="7"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -4824,12 +4815,12 @@
       <c r="B65" s="3">
         <v>63</v>
       </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="28"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="67"/>
       <c r="I65" s="4" t="s">
         <v>101</v>
       </c>
@@ -4839,7 +4830,7 @@
       <c r="L65" s="7">
         <v>63</v>
       </c>
-      <c r="M65" s="26"/>
+      <c r="M65" s="66"/>
       <c r="N65" s="7"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -4849,12 +4840,12 @@
       <c r="B66" s="3">
         <v>64</v>
       </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="28"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="67"/>
       <c r="I66" s="4" t="s">
         <v>102</v>
       </c>
@@ -4864,7 +4855,7 @@
       <c r="L66" s="7">
         <v>64</v>
       </c>
-      <c r="M66" s="26"/>
+      <c r="M66" s="66"/>
       <c r="N66" s="7"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -4874,12 +4865,12 @@
       <c r="B67" s="3">
         <v>65</v>
       </c>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="28"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="67"/>
       <c r="I67" s="4" t="s">
         <v>103</v>
       </c>
@@ -4889,7 +4880,7 @@
       <c r="L67" s="7">
         <v>65</v>
       </c>
-      <c r="M67" s="26"/>
+      <c r="M67" s="66"/>
       <c r="N67" s="7"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -4899,12 +4890,12 @@
       <c r="B68" s="3">
         <v>66</v>
       </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="28"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="67"/>
       <c r="I68" s="4" t="s">
         <v>104</v>
       </c>
@@ -4914,7 +4905,7 @@
       <c r="L68" s="7">
         <v>66</v>
       </c>
-      <c r="M68" s="26"/>
+      <c r="M68" s="66"/>
       <c r="N68" s="7"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -4924,12 +4915,12 @@
       <c r="B69" s="3">
         <v>67</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="28"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="67"/>
       <c r="I69" s="4" t="s">
         <v>105</v>
       </c>
@@ -4939,7 +4930,7 @@
       <c r="L69" s="7">
         <v>67</v>
       </c>
-      <c r="M69" s="26"/>
+      <c r="M69" s="66"/>
       <c r="N69" s="7"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -4949,12 +4940,12 @@
       <c r="B70" s="3">
         <v>68</v>
       </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="28"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="67"/>
       <c r="I70" s="4" t="s">
         <v>106</v>
       </c>
@@ -4964,7 +4955,7 @@
       <c r="L70" s="7">
         <v>68</v>
       </c>
-      <c r="M70" s="26"/>
+      <c r="M70" s="66"/>
       <c r="N70" s="7"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -4974,12 +4965,12 @@
       <c r="B71" s="3">
         <v>69</v>
       </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="28"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="67"/>
       <c r="I71" s="4" t="s">
         <v>107</v>
       </c>
@@ -4989,7 +4980,7 @@
       <c r="L71" s="7">
         <v>69</v>
       </c>
-      <c r="M71" s="26"/>
+      <c r="M71" s="66"/>
       <c r="N71" s="7"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -4999,12 +4990,12 @@
       <c r="B72" s="3">
         <v>70</v>
       </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="28"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="67"/>
       <c r="I72" s="4" t="s">
         <v>108</v>
       </c>
@@ -5014,7 +5005,7 @@
       <c r="L72" s="7">
         <v>70</v>
       </c>
-      <c r="M72" s="26"/>
+      <c r="M72" s="66"/>
       <c r="N72" s="7"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -5024,12 +5015,12 @@
       <c r="B73" s="3">
         <v>71</v>
       </c>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="28"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="67"/>
       <c r="I73" s="4"/>
       <c r="K73" s="7" t="s">
         <v>29</v>
@@ -5037,7 +5028,7 @@
       <c r="L73" s="7">
         <v>71</v>
       </c>
-      <c r="M73" s="26"/>
+      <c r="M73" s="66"/>
       <c r="N73" s="7"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -5047,12 +5038,12 @@
       <c r="B74" s="3">
         <v>72</v>
       </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="28"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="67"/>
       <c r="I74" s="4"/>
       <c r="K74" s="7" t="s">
         <v>29</v>
@@ -5060,7 +5051,7 @@
       <c r="L74" s="7">
         <v>72</v>
       </c>
-      <c r="M74" s="26"/>
+      <c r="M74" s="66"/>
       <c r="N74" s="7"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -5070,12 +5061,12 @@
       <c r="B75" s="3">
         <v>73</v>
       </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="28"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="67"/>
       <c r="I75" s="4"/>
       <c r="K75" s="7" t="s">
         <v>29</v>
@@ -5083,7 +5074,7 @@
       <c r="L75" s="7">
         <v>73</v>
       </c>
-      <c r="M75" s="26"/>
+      <c r="M75" s="66"/>
       <c r="N75" s="7"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -5093,12 +5084,12 @@
       <c r="B76" s="3">
         <v>74</v>
       </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="28"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="67"/>
       <c r="I76" s="4"/>
       <c r="K76" s="7" t="s">
         <v>29</v>
@@ -5106,7 +5097,7 @@
       <c r="L76" s="7">
         <v>74</v>
       </c>
-      <c r="M76" s="26"/>
+      <c r="M76" s="66"/>
       <c r="N76" s="7"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -5116,12 +5107,12 @@
       <c r="B77" s="3">
         <v>75</v>
       </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="67"/>
       <c r="I77" s="4"/>
       <c r="K77" s="7" t="s">
         <v>29</v>
@@ -5129,7 +5120,7 @@
       <c r="L77" s="7">
         <v>75</v>
       </c>
-      <c r="M77" s="26"/>
+      <c r="M77" s="66"/>
       <c r="N77" s="7"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -5139,12 +5130,12 @@
       <c r="B78" s="3">
         <v>76</v>
       </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="28"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="67"/>
       <c r="I78" s="4"/>
       <c r="K78" s="7" t="s">
         <v>29</v>
@@ -5152,7 +5143,7 @@
       <c r="L78" s="7">
         <v>76</v>
       </c>
-      <c r="M78" s="26"/>
+      <c r="M78" s="66"/>
       <c r="N78" s="7"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -5162,12 +5153,12 @@
       <c r="B79" s="3">
         <v>77</v>
       </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="28"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="67"/>
       <c r="I79" s="4"/>
       <c r="K79" s="7" t="s">
         <v>29</v>
@@ -5175,7 +5166,7 @@
       <c r="L79" s="7">
         <v>77</v>
       </c>
-      <c r="M79" s="26"/>
+      <c r="M79" s="66"/>
       <c r="N79" s="7"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -5185,12 +5176,12 @@
       <c r="B80" s="3">
         <v>78</v>
       </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="28"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="67"/>
       <c r="I80" s="4"/>
       <c r="K80" s="7" t="s">
         <v>29</v>
@@ -5198,7 +5189,7 @@
       <c r="L80" s="7">
         <v>78</v>
       </c>
-      <c r="M80" s="26"/>
+      <c r="M80" s="66"/>
       <c r="N80" s="7"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -5208,12 +5199,12 @@
       <c r="B81" s="3">
         <v>79</v>
       </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="28"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="67"/>
       <c r="I81" s="4"/>
       <c r="K81" s="7" t="s">
         <v>29</v>
@@ -5221,7 +5212,7 @@
       <c r="L81" s="7">
         <v>79</v>
       </c>
-      <c r="M81" s="26"/>
+      <c r="M81" s="66"/>
       <c r="N81" s="7"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -5231,12 +5222,12 @@
       <c r="B82" s="3">
         <v>80</v>
       </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="28"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="67"/>
       <c r="I82" s="4"/>
       <c r="K82" s="7" t="s">
         <v>29</v>
@@ -5244,7 +5235,7 @@
       <c r="L82" s="7">
         <v>80</v>
       </c>
-      <c r="M82" s="26"/>
+      <c r="M82" s="66"/>
       <c r="N82" s="7"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -5254,12 +5245,12 @@
       <c r="B83" s="3">
         <v>81</v>
       </c>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="28"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="67"/>
       <c r="I83" s="4"/>
       <c r="K83" s="7" t="s">
         <v>29</v>
@@ -5267,7 +5258,7 @@
       <c r="L83" s="7">
         <v>81</v>
       </c>
-      <c r="M83" s="26"/>
+      <c r="M83" s="66"/>
       <c r="N83" s="7"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -5277,12 +5268,12 @@
       <c r="B84" s="3">
         <v>82</v>
       </c>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="28"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="67"/>
       <c r="I84" s="4"/>
       <c r="K84" s="7" t="s">
         <v>29</v>
@@ -5290,7 +5281,7 @@
       <c r="L84" s="7">
         <v>82</v>
       </c>
-      <c r="M84" s="26"/>
+      <c r="M84" s="66"/>
       <c r="N84" s="7"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -5300,12 +5291,12 @@
       <c r="B85" s="3">
         <v>83</v>
       </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="28"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="67"/>
       <c r="I85" s="4"/>
       <c r="K85" s="7" t="s">
         <v>29</v>
@@ -5313,7 +5304,7 @@
       <c r="L85" s="7">
         <v>83</v>
       </c>
-      <c r="M85" s="26"/>
+      <c r="M85" s="66"/>
       <c r="N85" s="7"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -5323,12 +5314,12 @@
       <c r="B86" s="3">
         <v>84</v>
       </c>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="28"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="67"/>
       <c r="I86" s="4"/>
       <c r="K86" s="7" t="s">
         <v>29</v>
@@ -5336,7 +5327,7 @@
       <c r="L86" s="7">
         <v>84</v>
       </c>
-      <c r="M86" s="26"/>
+      <c r="M86" s="66"/>
       <c r="N86" s="7"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -5346,12 +5337,12 @@
       <c r="B87" s="3">
         <v>85</v>
       </c>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="28"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="67"/>
       <c r="I87" s="4"/>
       <c r="K87" s="7" t="s">
         <v>29</v>
@@ -5359,7 +5350,7 @@
       <c r="L87" s="7">
         <v>85</v>
       </c>
-      <c r="M87" s="26"/>
+      <c r="M87" s="66"/>
       <c r="N87" s="7"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -5369,12 +5360,12 @@
       <c r="B88" s="3">
         <v>86</v>
       </c>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="28"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="67"/>
       <c r="I88" s="4"/>
       <c r="K88" s="7" t="s">
         <v>29</v>
@@ -5382,7 +5373,7 @@
       <c r="L88" s="7">
         <v>86</v>
       </c>
-      <c r="M88" s="26"/>
+      <c r="M88" s="66"/>
       <c r="N88" s="7"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5392,12 +5383,12 @@
       <c r="B89" s="3">
         <v>87</v>
       </c>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="28"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="67"/>
       <c r="I89" s="4"/>
       <c r="K89" s="7" t="s">
         <v>29</v>
@@ -5405,7 +5396,7 @@
       <c r="L89" s="7">
         <v>87</v>
       </c>
-      <c r="M89" s="26"/>
+      <c r="M89" s="66"/>
       <c r="N89" s="7"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -5415,12 +5406,12 @@
       <c r="B90" s="3">
         <v>88</v>
       </c>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="28"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="67"/>
       <c r="I90" s="4"/>
       <c r="K90" s="7" t="s">
         <v>29</v>
@@ -5428,7 +5419,7 @@
       <c r="L90" s="7">
         <v>88</v>
       </c>
-      <c r="M90" s="26"/>
+      <c r="M90" s="66"/>
       <c r="N90" s="7"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -5438,12 +5429,12 @@
       <c r="B91" s="3">
         <v>89</v>
       </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="28"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="67"/>
       <c r="I91" s="4"/>
       <c r="K91" s="7" t="s">
         <v>29</v>
@@ -5451,7 +5442,7 @@
       <c r="L91" s="7">
         <v>89</v>
       </c>
-      <c r="M91" s="26"/>
+      <c r="M91" s="66"/>
       <c r="N91" s="7"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -5461,12 +5452,12 @@
       <c r="B92" s="3">
         <v>90</v>
       </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="28"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="67"/>
       <c r="I92" s="4"/>
       <c r="K92" s="7" t="s">
         <v>29</v>
@@ -5474,7 +5465,7 @@
       <c r="L92" s="7">
         <v>90</v>
       </c>
-      <c r="M92" s="26"/>
+      <c r="M92" s="66"/>
       <c r="N92" s="7"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -5484,12 +5475,12 @@
       <c r="B93" s="3">
         <v>91</v>
       </c>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="28"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="67"/>
       <c r="I93" s="4"/>
       <c r="K93" s="7" t="s">
         <v>29</v>
@@ -5497,7 +5488,7 @@
       <c r="L93" s="7">
         <v>91</v>
       </c>
-      <c r="M93" s="26"/>
+      <c r="M93" s="66"/>
       <c r="N93" s="7"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5507,12 +5498,12 @@
       <c r="B94" s="3">
         <v>92</v>
       </c>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="28"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="67"/>
       <c r="I94" s="4"/>
       <c r="K94" s="7" t="s">
         <v>29</v>
@@ -5520,7 +5511,7 @@
       <c r="L94" s="7">
         <v>92</v>
       </c>
-      <c r="M94" s="26"/>
+      <c r="M94" s="66"/>
       <c r="N94" s="7"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -5530,12 +5521,12 @@
       <c r="B95" s="3">
         <v>93</v>
       </c>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="28"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="67"/>
       <c r="I95" s="4"/>
       <c r="K95" s="7" t="s">
         <v>29</v>
@@ -5543,7 +5534,7 @@
       <c r="L95" s="7">
         <v>93</v>
       </c>
-      <c r="M95" s="26"/>
+      <c r="M95" s="66"/>
       <c r="N95" s="7"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -5553,12 +5544,12 @@
       <c r="B96" s="3">
         <v>94</v>
       </c>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="28"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="67"/>
       <c r="I96" s="4"/>
       <c r="K96" s="7" t="s">
         <v>29</v>
@@ -5566,7 +5557,7 @@
       <c r="L96" s="7">
         <v>94</v>
       </c>
-      <c r="M96" s="26"/>
+      <c r="M96" s="66"/>
       <c r="N96" s="7"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -5576,12 +5567,12 @@
       <c r="B97" s="3">
         <v>95</v>
       </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="28"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="50"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="67"/>
       <c r="I97" s="4"/>
       <c r="K97" s="7" t="s">
         <v>29</v>
@@ -5589,7 +5580,7 @@
       <c r="L97" s="7">
         <v>95</v>
       </c>
-      <c r="M97" s="26"/>
+      <c r="M97" s="66"/>
       <c r="N97" s="7"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -5599,12 +5590,12 @@
       <c r="B98" s="3">
         <v>96</v>
       </c>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="28"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="50"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="67"/>
       <c r="I98" s="4"/>
       <c r="K98" s="7" t="s">
         <v>29</v>
@@ -5612,7 +5603,7 @@
       <c r="L98" s="7">
         <v>96</v>
       </c>
-      <c r="M98" s="26"/>
+      <c r="M98" s="66"/>
       <c r="N98" s="7"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -5622,12 +5613,12 @@
       <c r="B99" s="3">
         <v>97</v>
       </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="28"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="50"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="67"/>
       <c r="I99" s="4"/>
       <c r="K99" s="7" t="s">
         <v>29</v>
@@ -5635,7 +5626,7 @@
       <c r="L99" s="7">
         <v>97</v>
       </c>
-      <c r="M99" s="26"/>
+      <c r="M99" s="66"/>
       <c r="N99" s="7"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -5645,12 +5636,12 @@
       <c r="B100" s="3">
         <v>98</v>
       </c>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="28"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="67"/>
       <c r="I100" s="4"/>
       <c r="K100" s="7" t="s">
         <v>29</v>
@@ -5658,7 +5649,7 @@
       <c r="L100" s="7">
         <v>98</v>
       </c>
-      <c r="M100" s="26"/>
+      <c r="M100" s="66"/>
       <c r="N100" s="7"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -5668,12 +5659,12 @@
       <c r="B101" s="3">
         <v>99</v>
       </c>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="28"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="50"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="50"/>
+      <c r="H101" s="67"/>
       <c r="I101" s="4"/>
       <c r="K101" s="7" t="s">
         <v>29</v>
@@ -5681,7 +5672,7 @@
       <c r="L101" s="7">
         <v>99</v>
       </c>
-      <c r="M101" s="26"/>
+      <c r="M101" s="66"/>
       <c r="N101" s="7"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -5691,12 +5682,12 @@
       <c r="B102" s="3">
         <v>100</v>
       </c>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="28"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="67"/>
       <c r="I102" s="4"/>
       <c r="K102" s="7" t="s">
         <v>29</v>
@@ -5704,7 +5695,7 @@
       <c r="L102" s="7">
         <v>100</v>
       </c>
-      <c r="M102" s="26"/>
+      <c r="M102" s="66"/>
       <c r="N102" s="7"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -5714,12 +5705,12 @@
       <c r="B103" s="3">
         <v>101</v>
       </c>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="28"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="50"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="50"/>
+      <c r="H103" s="67"/>
       <c r="I103" s="4"/>
       <c r="K103" s="7" t="s">
         <v>29</v>
@@ -5727,7 +5718,7 @@
       <c r="L103" s="7">
         <v>101</v>
       </c>
-      <c r="M103" s="26"/>
+      <c r="M103" s="66"/>
       <c r="N103" s="7"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -5737,12 +5728,12 @@
       <c r="B104" s="3">
         <v>102</v>
       </c>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="28"/>
+      <c r="C104" s="50"/>
+      <c r="D104" s="50"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="50"/>
+      <c r="H104" s="67"/>
       <c r="I104" s="4"/>
       <c r="K104" s="7" t="s">
         <v>29</v>
@@ -5750,7 +5741,7 @@
       <c r="L104" s="7">
         <v>102</v>
       </c>
-      <c r="M104" s="26"/>
+      <c r="M104" s="66"/>
       <c r="N104" s="7"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -5760,12 +5751,12 @@
       <c r="B105" s="3">
         <v>103</v>
       </c>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="28"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="67"/>
       <c r="I105" s="4"/>
       <c r="K105" s="7" t="s">
         <v>29</v>
@@ -5773,7 +5764,7 @@
       <c r="L105" s="7">
         <v>103</v>
       </c>
-      <c r="M105" s="26"/>
+      <c r="M105" s="66"/>
       <c r="N105" s="7"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -5783,12 +5774,12 @@
       <c r="B106" s="3">
         <v>104</v>
       </c>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="28"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="50"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="50"/>
+      <c r="H106" s="67"/>
       <c r="I106" s="4"/>
       <c r="K106" s="7" t="s">
         <v>29</v>
@@ -5796,7 +5787,7 @@
       <c r="L106" s="7">
         <v>104</v>
       </c>
-      <c r="M106" s="26"/>
+      <c r="M106" s="66"/>
       <c r="N106" s="7"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -5806,12 +5797,12 @@
       <c r="B107" s="3">
         <v>105</v>
       </c>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="28"/>
+      <c r="C107" s="50"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="50"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="50"/>
+      <c r="H107" s="67"/>
       <c r="I107" s="4"/>
       <c r="K107" s="7" t="s">
         <v>29</v>
@@ -5819,7 +5810,7 @@
       <c r="L107" s="7">
         <v>105</v>
       </c>
-      <c r="M107" s="26"/>
+      <c r="M107" s="66"/>
       <c r="N107" s="7"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -5829,12 +5820,12 @@
       <c r="B108" s="3">
         <v>106</v>
       </c>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="28"/>
+      <c r="C108" s="50"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="50"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="50"/>
+      <c r="H108" s="67"/>
       <c r="I108" s="4"/>
       <c r="K108" s="7" t="s">
         <v>29</v>
@@ -5842,7 +5833,7 @@
       <c r="L108" s="7">
         <v>106</v>
       </c>
-      <c r="M108" s="26"/>
+      <c r="M108" s="66"/>
       <c r="N108" s="7"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -5852,12 +5843,12 @@
       <c r="B109" s="3">
         <v>107</v>
       </c>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="28"/>
+      <c r="C109" s="50"/>
+      <c r="D109" s="50"/>
+      <c r="E109" s="50"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="50"/>
+      <c r="H109" s="67"/>
       <c r="I109" s="4"/>
       <c r="K109" s="7" t="s">
         <v>29</v>
@@ -5865,7 +5856,7 @@
       <c r="L109" s="7">
         <v>107</v>
       </c>
-      <c r="M109" s="26"/>
+      <c r="M109" s="66"/>
       <c r="N109" s="7"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -5875,12 +5866,12 @@
       <c r="B110" s="3">
         <v>108</v>
       </c>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="28"/>
+      <c r="C110" s="50"/>
+      <c r="D110" s="50"/>
+      <c r="E110" s="50"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="50"/>
+      <c r="H110" s="67"/>
       <c r="I110" s="4"/>
       <c r="K110" s="7" t="s">
         <v>29</v>
@@ -5888,7 +5879,7 @@
       <c r="L110" s="7">
         <v>108</v>
       </c>
-      <c r="M110" s="26"/>
+      <c r="M110" s="66"/>
       <c r="N110" s="7"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -5898,12 +5889,12 @@
       <c r="B111" s="3">
         <v>109</v>
       </c>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="28"/>
+      <c r="C111" s="50"/>
+      <c r="D111" s="50"/>
+      <c r="E111" s="50"/>
+      <c r="F111" s="50"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="67"/>
       <c r="I111" s="4"/>
       <c r="K111" s="7" t="s">
         <v>29</v>
@@ -5911,7 +5902,7 @@
       <c r="L111" s="7">
         <v>109</v>
       </c>
-      <c r="M111" s="26"/>
+      <c r="M111" s="66"/>
       <c r="N111" s="7"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -5921,12 +5912,12 @@
       <c r="B112" s="3">
         <v>110</v>
       </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="28"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="50"/>
+      <c r="H112" s="67"/>
       <c r="I112" s="4"/>
       <c r="K112" s="7" t="s">
         <v>29</v>
@@ -5934,7 +5925,7 @@
       <c r="L112" s="7">
         <v>110</v>
       </c>
-      <c r="M112" s="26"/>
+      <c r="M112" s="66"/>
       <c r="N112" s="7"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -5944,12 +5935,12 @@
       <c r="B113" s="3">
         <v>111</v>
       </c>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="28"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="50"/>
+      <c r="E113" s="50"/>
+      <c r="F113" s="50"/>
+      <c r="G113" s="50"/>
+      <c r="H113" s="67"/>
       <c r="I113" s="4"/>
       <c r="K113" s="7" t="s">
         <v>29</v>
@@ -5957,7 +5948,7 @@
       <c r="L113" s="7">
         <v>111</v>
       </c>
-      <c r="M113" s="26"/>
+      <c r="M113" s="66"/>
       <c r="N113" s="7"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -5967,12 +5958,12 @@
       <c r="B114" s="3">
         <v>112</v>
       </c>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="28"/>
+      <c r="C114" s="50"/>
+      <c r="D114" s="50"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="50"/>
+      <c r="G114" s="50"/>
+      <c r="H114" s="67"/>
       <c r="I114" s="4"/>
       <c r="K114" s="7" t="s">
         <v>29</v>
@@ -5980,7 +5971,7 @@
       <c r="L114" s="7">
         <v>112</v>
       </c>
-      <c r="M114" s="26"/>
+      <c r="M114" s="66"/>
       <c r="N114" s="7"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -5990,12 +5981,12 @@
       <c r="B115" s="3">
         <v>113</v>
       </c>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="28"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="50"/>
+      <c r="E115" s="50"/>
+      <c r="F115" s="50"/>
+      <c r="G115" s="50"/>
+      <c r="H115" s="67"/>
       <c r="I115" s="4"/>
       <c r="K115" s="7" t="s">
         <v>29</v>
@@ -6003,7 +5994,7 @@
       <c r="L115" s="7">
         <v>113</v>
       </c>
-      <c r="M115" s="26"/>
+      <c r="M115" s="66"/>
       <c r="N115" s="7"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -6013,12 +6004,12 @@
       <c r="B116" s="3">
         <v>114</v>
       </c>
-      <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="28"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="50"/>
+      <c r="E116" s="50"/>
+      <c r="F116" s="50"/>
+      <c r="G116" s="50"/>
+      <c r="H116" s="67"/>
       <c r="I116" s="4"/>
       <c r="K116" s="7" t="s">
         <v>29</v>
@@ -6026,7 +6017,7 @@
       <c r="L116" s="7">
         <v>114</v>
       </c>
-      <c r="M116" s="26"/>
+      <c r="M116" s="66"/>
       <c r="N116" s="7"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -6036,12 +6027,12 @@
       <c r="B117" s="3">
         <v>115</v>
       </c>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-      <c r="H117" s="28"/>
+      <c r="C117" s="50"/>
+      <c r="D117" s="50"/>
+      <c r="E117" s="50"/>
+      <c r="F117" s="50"/>
+      <c r="G117" s="50"/>
+      <c r="H117" s="67"/>
       <c r="I117" s="4"/>
       <c r="K117" s="7" t="s">
         <v>29</v>
@@ -6049,7 +6040,7 @@
       <c r="L117" s="7">
         <v>115</v>
       </c>
-      <c r="M117" s="26"/>
+      <c r="M117" s="66"/>
       <c r="N117" s="7"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -6059,12 +6050,12 @@
       <c r="B118" s="3">
         <v>116</v>
       </c>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="28"/>
+      <c r="C118" s="50"/>
+      <c r="D118" s="50"/>
+      <c r="E118" s="50"/>
+      <c r="F118" s="50"/>
+      <c r="G118" s="50"/>
+      <c r="H118" s="67"/>
       <c r="I118" s="4"/>
       <c r="K118" s="7" t="s">
         <v>29</v>
@@ -6072,7 +6063,7 @@
       <c r="L118" s="7">
         <v>116</v>
       </c>
-      <c r="M118" s="26"/>
+      <c r="M118" s="66"/>
       <c r="N118" s="7"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -6082,12 +6073,12 @@
       <c r="B119" s="3">
         <v>117</v>
       </c>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="28"/>
+      <c r="C119" s="50"/>
+      <c r="D119" s="50"/>
+      <c r="E119" s="50"/>
+      <c r="F119" s="50"/>
+      <c r="G119" s="50"/>
+      <c r="H119" s="67"/>
       <c r="I119" s="4"/>
       <c r="K119" s="7" t="s">
         <v>29</v>
@@ -6095,7 +6086,7 @@
       <c r="L119" s="7">
         <v>117</v>
       </c>
-      <c r="M119" s="26"/>
+      <c r="M119" s="66"/>
       <c r="N119" s="7"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -6105,12 +6096,12 @@
       <c r="B120" s="3">
         <v>118</v>
       </c>
-      <c r="C120" s="27"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
-      <c r="H120" s="28"/>
+      <c r="C120" s="50"/>
+      <c r="D120" s="50"/>
+      <c r="E120" s="50"/>
+      <c r="F120" s="50"/>
+      <c r="G120" s="50"/>
+      <c r="H120" s="67"/>
       <c r="I120" s="4"/>
       <c r="K120" s="7" t="s">
         <v>29</v>
@@ -6118,7 +6109,7 @@
       <c r="L120" s="7">
         <v>118</v>
       </c>
-      <c r="M120" s="26"/>
+      <c r="M120" s="66"/>
       <c r="N120" s="7"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -6128,12 +6119,12 @@
       <c r="B121" s="3">
         <v>119</v>
       </c>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="28"/>
+      <c r="C121" s="50"/>
+      <c r="D121" s="50"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="67"/>
       <c r="I121" s="4"/>
       <c r="K121" s="7" t="s">
         <v>29</v>
@@ -6141,7 +6132,7 @@
       <c r="L121" s="7">
         <v>119</v>
       </c>
-      <c r="M121" s="26"/>
+      <c r="M121" s="66"/>
       <c r="N121" s="7"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -6151,12 +6142,12 @@
       <c r="B122" s="3">
         <v>120</v>
       </c>
-      <c r="C122" s="27"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
-      <c r="H122" s="28"/>
+      <c r="C122" s="50"/>
+      <c r="D122" s="50"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="50"/>
+      <c r="H122" s="67"/>
       <c r="I122" s="4"/>
       <c r="K122" s="7" t="s">
         <v>29</v>
@@ -6164,7 +6155,7 @@
       <c r="L122" s="7">
         <v>120</v>
       </c>
-      <c r="M122" s="26"/>
+      <c r="M122" s="66"/>
       <c r="N122" s="7"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -6174,12 +6165,12 @@
       <c r="B123" s="3">
         <v>121</v>
       </c>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="28"/>
+      <c r="C123" s="50"/>
+      <c r="D123" s="50"/>
+      <c r="E123" s="50"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="50"/>
+      <c r="H123" s="67"/>
       <c r="I123" s="4"/>
       <c r="K123" s="7" t="s">
         <v>29</v>
@@ -6187,7 +6178,7 @@
       <c r="L123" s="7">
         <v>121</v>
       </c>
-      <c r="M123" s="26"/>
+      <c r="M123" s="66"/>
       <c r="N123" s="7"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -6197,12 +6188,12 @@
       <c r="B124" s="3">
         <v>122</v>
       </c>
-      <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="28"/>
+      <c r="C124" s="50"/>
+      <c r="D124" s="50"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="50"/>
+      <c r="G124" s="50"/>
+      <c r="H124" s="67"/>
       <c r="I124" s="4"/>
       <c r="K124" s="7" t="s">
         <v>29</v>
@@ -6210,7 +6201,7 @@
       <c r="L124" s="7">
         <v>122</v>
       </c>
-      <c r="M124" s="26"/>
+      <c r="M124" s="66"/>
       <c r="N124" s="7"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -6220,12 +6211,12 @@
       <c r="B125" s="3">
         <v>123</v>
       </c>
-      <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="28"/>
+      <c r="C125" s="50"/>
+      <c r="D125" s="50"/>
+      <c r="E125" s="50"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
+      <c r="H125" s="67"/>
       <c r="I125" s="4"/>
       <c r="K125" s="7" t="s">
         <v>29</v>
@@ -6233,7 +6224,7 @@
       <c r="L125" s="7">
         <v>123</v>
       </c>
-      <c r="M125" s="26"/>
+      <c r="M125" s="66"/>
       <c r="N125" s="7"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -6243,12 +6234,12 @@
       <c r="B126" s="3">
         <v>124</v>
       </c>
-      <c r="C126" s="27"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="28"/>
+      <c r="C126" s="50"/>
+      <c r="D126" s="50"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="50"/>
+      <c r="G126" s="50"/>
+      <c r="H126" s="67"/>
       <c r="I126" s="4"/>
       <c r="K126" s="7" t="s">
         <v>29</v>
@@ -6256,7 +6247,7 @@
       <c r="L126" s="7">
         <v>124</v>
       </c>
-      <c r="M126" s="26"/>
+      <c r="M126" s="66"/>
       <c r="N126" s="7"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -6266,12 +6257,12 @@
       <c r="B127" s="3">
         <v>125</v>
       </c>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="28"/>
+      <c r="C127" s="50"/>
+      <c r="D127" s="50"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="50"/>
+      <c r="H127" s="67"/>
       <c r="I127" s="4"/>
       <c r="K127" s="7" t="s">
         <v>29</v>
@@ -6279,7 +6270,7 @@
       <c r="L127" s="7">
         <v>125</v>
       </c>
-      <c r="M127" s="26"/>
+      <c r="M127" s="66"/>
       <c r="N127" s="7"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -6289,12 +6280,12 @@
       <c r="B128" s="3">
         <v>126</v>
       </c>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="28"/>
+      <c r="C128" s="50"/>
+      <c r="D128" s="50"/>
+      <c r="E128" s="50"/>
+      <c r="F128" s="50"/>
+      <c r="G128" s="50"/>
+      <c r="H128" s="67"/>
       <c r="I128" s="4"/>
       <c r="K128" s="7" t="s">
         <v>29</v>
@@ -6302,7 +6293,7 @@
       <c r="L128" s="7">
         <v>126</v>
       </c>
-      <c r="M128" s="26"/>
+      <c r="M128" s="66"/>
       <c r="N128" s="7"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -6312,12 +6303,12 @@
       <c r="B129" s="3">
         <v>127</v>
       </c>
-      <c r="C129" s="27"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="28"/>
+      <c r="C129" s="50"/>
+      <c r="D129" s="50"/>
+      <c r="E129" s="50"/>
+      <c r="F129" s="50"/>
+      <c r="G129" s="50"/>
+      <c r="H129" s="67"/>
       <c r="I129" s="4" t="s">
         <v>12</v>
       </c>
@@ -6327,7 +6318,7 @@
       <c r="L129" s="7">
         <v>127</v>
       </c>
-      <c r="M129" s="26"/>
+      <c r="M129" s="66"/>
       <c r="N129" s="7"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -6337,14 +6328,14 @@
       <c r="B130" s="5">
         <v>128</v>
       </c>
-      <c r="C130" s="27"/>
-      <c r="D130" s="27"/>
-      <c r="E130" s="27"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="29" t="s">
+      <c r="C130" s="50"/>
+      <c r="D130" s="50"/>
+      <c r="E130" s="50"/>
+      <c r="F130" s="50"/>
+      <c r="G130" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H130" s="27"/>
+      <c r="H130" s="50"/>
       <c r="I130" s="6" t="s">
         <v>11</v>
       </c>
@@ -6354,7 +6345,7 @@
       <c r="L130" s="7">
         <v>128</v>
       </c>
-      <c r="M130" s="26"/>
+      <c r="M130" s="66"/>
       <c r="N130" s="7"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -6364,12 +6355,12 @@
       <c r="B131" s="5">
         <v>129</v>
       </c>
-      <c r="C131" s="27"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="29"/>
-      <c r="H131" s="27"/>
+      <c r="C131" s="50"/>
+      <c r="D131" s="50"/>
+      <c r="E131" s="50"/>
+      <c r="F131" s="50"/>
+      <c r="G131" s="61"/>
+      <c r="H131" s="50"/>
       <c r="I131" s="6" t="s">
         <v>20</v>
       </c>
@@ -6379,7 +6370,7 @@
       <c r="L131" s="7">
         <v>129</v>
       </c>
-      <c r="M131" s="26"/>
+      <c r="M131" s="66"/>
       <c r="N131" s="7"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -6389,12 +6380,12 @@
       <c r="B132" s="5">
         <v>130</v>
       </c>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="29"/>
-      <c r="H132" s="27"/>
+      <c r="C132" s="50"/>
+      <c r="D132" s="50"/>
+      <c r="E132" s="50"/>
+      <c r="F132" s="50"/>
+      <c r="G132" s="61"/>
+      <c r="H132" s="50"/>
       <c r="I132" s="6" t="s">
         <v>17</v>
       </c>
@@ -6404,7 +6395,7 @@
       <c r="L132" s="7">
         <v>130</v>
       </c>
-      <c r="M132" s="26"/>
+      <c r="M132" s="66"/>
       <c r="N132" s="7"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -6414,12 +6405,12 @@
       <c r="B133" s="5">
         <v>131</v>
       </c>
-      <c r="C133" s="27"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="29"/>
-      <c r="H133" s="27"/>
+      <c r="C133" s="50"/>
+      <c r="D133" s="50"/>
+      <c r="E133" s="50"/>
+      <c r="F133" s="50"/>
+      <c r="G133" s="61"/>
+      <c r="H133" s="50"/>
       <c r="I133" s="6" t="s">
         <v>13</v>
       </c>
@@ -6429,7 +6420,7 @@
       <c r="L133" s="7">
         <v>131</v>
       </c>
-      <c r="M133" s="26"/>
+      <c r="M133" s="66"/>
       <c r="N133" s="7"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -6439,12 +6430,12 @@
       <c r="B134" s="5">
         <v>132</v>
       </c>
-      <c r="C134" s="27"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="27"/>
+      <c r="C134" s="50"/>
+      <c r="D134" s="50"/>
+      <c r="E134" s="50"/>
+      <c r="F134" s="50"/>
+      <c r="G134" s="61"/>
+      <c r="H134" s="50"/>
       <c r="I134" s="6" t="s">
         <v>14</v>
       </c>
@@ -6454,7 +6445,7 @@
       <c r="L134" s="7">
         <v>132</v>
       </c>
-      <c r="M134" s="26"/>
+      <c r="M134" s="66"/>
       <c r="N134" s="7"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -6464,12 +6455,12 @@
       <c r="B135" s="5">
         <v>133</v>
       </c>
-      <c r="C135" s="27"/>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="27"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="27"/>
+      <c r="C135" s="50"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="50"/>
+      <c r="F135" s="50"/>
+      <c r="G135" s="61"/>
+      <c r="H135" s="50"/>
       <c r="I135" s="6" t="s">
         <v>16</v>
       </c>
@@ -6479,7 +6470,7 @@
       <c r="L135" s="7">
         <v>133</v>
       </c>
-      <c r="M135" s="26"/>
+      <c r="M135" s="66"/>
       <c r="N135" s="7"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -6489,12 +6480,12 @@
       <c r="B136" s="5">
         <v>134</v>
       </c>
-      <c r="C136" s="27"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="27"/>
-      <c r="G136" s="29"/>
-      <c r="H136" s="27"/>
+      <c r="C136" s="50"/>
+      <c r="D136" s="50"/>
+      <c r="E136" s="50"/>
+      <c r="F136" s="50"/>
+      <c r="G136" s="61"/>
+      <c r="H136" s="50"/>
       <c r="I136" s="6" t="s">
         <v>15</v>
       </c>
@@ -6504,7 +6495,7 @@
       <c r="L136" s="7">
         <v>134</v>
       </c>
-      <c r="M136" s="26"/>
+      <c r="M136" s="66"/>
       <c r="N136" s="7"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -6514,12 +6505,12 @@
       <c r="B137" s="5">
         <v>135</v>
       </c>
-      <c r="C137" s="27"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
-      <c r="G137" s="29"/>
-      <c r="H137" s="27"/>
+      <c r="C137" s="50"/>
+      <c r="D137" s="50"/>
+      <c r="E137" s="50"/>
+      <c r="F137" s="50"/>
+      <c r="G137" s="61"/>
+      <c r="H137" s="50"/>
       <c r="I137" s="6"/>
       <c r="K137" s="7" t="s">
         <v>29</v>
@@ -6527,7 +6518,7 @@
       <c r="L137" s="7">
         <v>135</v>
       </c>
-      <c r="M137" s="26"/>
+      <c r="M137" s="66"/>
       <c r="N137" s="7"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -6537,12 +6528,12 @@
       <c r="B138" s="5">
         <v>136</v>
       </c>
-      <c r="C138" s="27"/>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27"/>
-      <c r="G138" s="29"/>
-      <c r="H138" s="27"/>
+      <c r="C138" s="50"/>
+      <c r="D138" s="50"/>
+      <c r="E138" s="50"/>
+      <c r="F138" s="50"/>
+      <c r="G138" s="61"/>
+      <c r="H138" s="50"/>
       <c r="I138" s="6"/>
       <c r="K138" s="7" t="s">
         <v>29</v>
@@ -6550,7 +6541,7 @@
       <c r="L138" s="7">
         <v>136</v>
       </c>
-      <c r="M138" s="26"/>
+      <c r="M138" s="66"/>
       <c r="N138" s="7"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -6560,12 +6551,12 @@
       <c r="B139" s="5">
         <v>137</v>
       </c>
-      <c r="C139" s="27"/>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="29"/>
-      <c r="H139" s="27"/>
+      <c r="C139" s="50"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="50"/>
+      <c r="F139" s="50"/>
+      <c r="G139" s="61"/>
+      <c r="H139" s="50"/>
       <c r="I139" s="6"/>
       <c r="K139" s="7" t="s">
         <v>29</v>
@@ -6573,7 +6564,7 @@
       <c r="L139" s="7">
         <v>137</v>
       </c>
-      <c r="M139" s="26"/>
+      <c r="M139" s="66"/>
       <c r="N139" s="7"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -6583,12 +6574,12 @@
       <c r="B140" s="5">
         <v>138</v>
       </c>
-      <c r="C140" s="27"/>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27"/>
-      <c r="F140" s="27"/>
-      <c r="G140" s="29"/>
-      <c r="H140" s="27"/>
+      <c r="C140" s="50"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="50"/>
+      <c r="G140" s="61"/>
+      <c r="H140" s="50"/>
       <c r="I140" s="6"/>
       <c r="K140" s="7" t="s">
         <v>29</v>
@@ -6596,7 +6587,7 @@
       <c r="L140" s="7">
         <v>138</v>
       </c>
-      <c r="M140" s="26"/>
+      <c r="M140" s="66"/>
       <c r="N140" s="7"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -6606,12 +6597,12 @@
       <c r="B141" s="5">
         <v>139</v>
       </c>
-      <c r="C141" s="27"/>
-      <c r="D141" s="27"/>
-      <c r="E141" s="27"/>
-      <c r="F141" s="27"/>
-      <c r="G141" s="29"/>
-      <c r="H141" s="27"/>
+      <c r="C141" s="50"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="50"/>
+      <c r="F141" s="50"/>
+      <c r="G141" s="61"/>
+      <c r="H141" s="50"/>
       <c r="I141" s="6"/>
       <c r="K141" s="7" t="s">
         <v>29</v>
@@ -6619,7 +6610,7 @@
       <c r="L141" s="7">
         <v>139</v>
       </c>
-      <c r="M141" s="26"/>
+      <c r="M141" s="66"/>
       <c r="N141" s="7"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -6629,12 +6620,12 @@
       <c r="B142" s="5">
         <v>140</v>
       </c>
-      <c r="C142" s="27"/>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
-      <c r="F142" s="27"/>
-      <c r="G142" s="29"/>
-      <c r="H142" s="27"/>
+      <c r="C142" s="50"/>
+      <c r="D142" s="50"/>
+      <c r="E142" s="50"/>
+      <c r="F142" s="50"/>
+      <c r="G142" s="61"/>
+      <c r="H142" s="50"/>
       <c r="I142" s="6"/>
       <c r="K142" s="7" t="s">
         <v>29</v>
@@ -6642,7 +6633,7 @@
       <c r="L142" s="7">
         <v>140</v>
       </c>
-      <c r="M142" s="26"/>
+      <c r="M142" s="66"/>
       <c r="N142" s="7"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
@@ -6652,12 +6643,12 @@
       <c r="B143" s="5">
         <v>141</v>
       </c>
-      <c r="C143" s="27"/>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27"/>
-      <c r="G143" s="29"/>
-      <c r="H143" s="27"/>
+      <c r="C143" s="50"/>
+      <c r="D143" s="50"/>
+      <c r="E143" s="50"/>
+      <c r="F143" s="50"/>
+      <c r="G143" s="61"/>
+      <c r="H143" s="50"/>
       <c r="I143" s="6"/>
       <c r="K143" s="7" t="s">
         <v>29</v>
@@ -6665,7 +6656,7 @@
       <c r="L143" s="7">
         <v>141</v>
       </c>
-      <c r="M143" s="26"/>
+      <c r="M143" s="66"/>
       <c r="N143" s="7"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -6675,12 +6666,12 @@
       <c r="B144" s="5">
         <v>142</v>
       </c>
-      <c r="C144" s="27"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
-      <c r="G144" s="29"/>
-      <c r="H144" s="27"/>
+      <c r="C144" s="50"/>
+      <c r="D144" s="50"/>
+      <c r="E144" s="50"/>
+      <c r="F144" s="50"/>
+      <c r="G144" s="61"/>
+      <c r="H144" s="50"/>
       <c r="I144" s="6"/>
       <c r="K144" s="7" t="s">
         <v>29</v>
@@ -6688,7 +6679,7 @@
       <c r="L144" s="7">
         <v>142</v>
       </c>
-      <c r="M144" s="26"/>
+      <c r="M144" s="66"/>
       <c r="N144" s="7"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -6698,12 +6689,12 @@
       <c r="B145" s="5">
         <v>143</v>
       </c>
-      <c r="C145" s="27"/>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="27"/>
-      <c r="G145" s="29"/>
-      <c r="H145" s="27"/>
+      <c r="C145" s="50"/>
+      <c r="D145" s="50"/>
+      <c r="E145" s="50"/>
+      <c r="F145" s="50"/>
+      <c r="G145" s="61"/>
+      <c r="H145" s="50"/>
       <c r="I145" s="6"/>
       <c r="K145" s="7" t="s">
         <v>29</v>
@@ -6711,7 +6702,7 @@
       <c r="L145" s="7">
         <v>143</v>
       </c>
-      <c r="M145" s="26"/>
+      <c r="M145" s="66"/>
       <c r="N145" s="7"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -6721,12 +6712,12 @@
       <c r="B146" s="5">
         <v>144</v>
       </c>
-      <c r="C146" s="27"/>
-      <c r="D146" s="27"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="27"/>
-      <c r="G146" s="29"/>
-      <c r="H146" s="27"/>
+      <c r="C146" s="50"/>
+      <c r="D146" s="50"/>
+      <c r="E146" s="50"/>
+      <c r="F146" s="50"/>
+      <c r="G146" s="61"/>
+      <c r="H146" s="50"/>
       <c r="I146" s="6"/>
       <c r="K146" s="7" t="s">
         <v>29</v>
@@ -6734,7 +6725,7 @@
       <c r="L146" s="7">
         <v>144</v>
       </c>
-      <c r="M146" s="26"/>
+      <c r="M146" s="66"/>
       <c r="N146" s="7"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -6744,12 +6735,12 @@
       <c r="B147" s="5">
         <v>145</v>
       </c>
-      <c r="C147" s="27"/>
-      <c r="D147" s="27"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="27"/>
-      <c r="G147" s="29"/>
-      <c r="H147" s="27"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="50"/>
+      <c r="F147" s="50"/>
+      <c r="G147" s="61"/>
+      <c r="H147" s="50"/>
       <c r="I147" s="6"/>
       <c r="K147" s="7" t="s">
         <v>29</v>
@@ -6757,7 +6748,7 @@
       <c r="L147" s="7">
         <v>145</v>
       </c>
-      <c r="M147" s="26"/>
+      <c r="M147" s="66"/>
       <c r="N147" s="7"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -6767,12 +6758,12 @@
       <c r="B148" s="5">
         <v>146</v>
       </c>
-      <c r="C148" s="27"/>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="27"/>
-      <c r="G148" s="29"/>
-      <c r="H148" s="27"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="50"/>
+      <c r="E148" s="50"/>
+      <c r="F148" s="50"/>
+      <c r="G148" s="61"/>
+      <c r="H148" s="50"/>
       <c r="I148" s="6"/>
       <c r="K148" s="7" t="s">
         <v>29</v>
@@ -6780,7 +6771,7 @@
       <c r="L148" s="7">
         <v>146</v>
       </c>
-      <c r="M148" s="26"/>
+      <c r="M148" s="66"/>
       <c r="N148" s="7"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -6790,12 +6781,12 @@
       <c r="B149" s="5">
         <v>147</v>
       </c>
-      <c r="C149" s="27"/>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="27"/>
-      <c r="G149" s="29"/>
-      <c r="H149" s="27"/>
+      <c r="C149" s="50"/>
+      <c r="D149" s="50"/>
+      <c r="E149" s="50"/>
+      <c r="F149" s="50"/>
+      <c r="G149" s="61"/>
+      <c r="H149" s="50"/>
       <c r="I149" s="6"/>
       <c r="K149" s="7" t="s">
         <v>29</v>
@@ -6803,7 +6794,7 @@
       <c r="L149" s="7">
         <v>147</v>
       </c>
-      <c r="M149" s="26"/>
+      <c r="M149" s="66"/>
       <c r="N149" s="7"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -6813,12 +6804,12 @@
       <c r="B150" s="5">
         <v>148</v>
       </c>
-      <c r="C150" s="27"/>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27"/>
-      <c r="F150" s="27"/>
-      <c r="G150" s="29"/>
-      <c r="H150" s="27"/>
+      <c r="C150" s="50"/>
+      <c r="D150" s="50"/>
+      <c r="E150" s="50"/>
+      <c r="F150" s="50"/>
+      <c r="G150" s="61"/>
+      <c r="H150" s="50"/>
       <c r="I150" s="6"/>
       <c r="K150" s="7" t="s">
         <v>29</v>
@@ -6826,7 +6817,7 @@
       <c r="L150" s="7">
         <v>148</v>
       </c>
-      <c r="M150" s="26"/>
+      <c r="M150" s="66"/>
       <c r="N150" s="7"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -6836,12 +6827,12 @@
       <c r="B151" s="5">
         <v>149</v>
       </c>
-      <c r="C151" s="27"/>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27"/>
-      <c r="F151" s="27"/>
-      <c r="G151" s="29"/>
-      <c r="H151" s="27"/>
+      <c r="C151" s="50"/>
+      <c r="D151" s="50"/>
+      <c r="E151" s="50"/>
+      <c r="F151" s="50"/>
+      <c r="G151" s="61"/>
+      <c r="H151" s="50"/>
       <c r="I151" s="6"/>
       <c r="K151" s="7" t="s">
         <v>29</v>
@@ -6849,7 +6840,7 @@
       <c r="L151" s="7">
         <v>149</v>
       </c>
-      <c r="M151" s="26"/>
+      <c r="M151" s="66"/>
       <c r="N151" s="7"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -6859,12 +6850,12 @@
       <c r="B152" s="5">
         <v>150</v>
       </c>
-      <c r="C152" s="27"/>
-      <c r="D152" s="27"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="27"/>
-      <c r="G152" s="29"/>
-      <c r="H152" s="27"/>
+      <c r="C152" s="50"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="50"/>
+      <c r="F152" s="50"/>
+      <c r="G152" s="61"/>
+      <c r="H152" s="50"/>
       <c r="I152" s="6"/>
       <c r="K152" s="7" t="s">
         <v>29</v>
@@ -6872,7 +6863,7 @@
       <c r="L152" s="7">
         <v>150</v>
       </c>
-      <c r="M152" s="26"/>
+      <c r="M152" s="66"/>
       <c r="N152" s="7"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -6882,12 +6873,12 @@
       <c r="B153" s="5">
         <v>151</v>
       </c>
-      <c r="C153" s="27"/>
-      <c r="D153" s="27"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="27"/>
-      <c r="G153" s="29"/>
-      <c r="H153" s="27"/>
+      <c r="C153" s="50"/>
+      <c r="D153" s="50"/>
+      <c r="E153" s="50"/>
+      <c r="F153" s="50"/>
+      <c r="G153" s="61"/>
+      <c r="H153" s="50"/>
       <c r="I153" s="6"/>
       <c r="K153" s="7" t="s">
         <v>29</v>
@@ -6895,7 +6886,7 @@
       <c r="L153" s="7">
         <v>151</v>
       </c>
-      <c r="M153" s="26"/>
+      <c r="M153" s="66"/>
       <c r="N153" s="7"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -6905,12 +6896,12 @@
       <c r="B154" s="5">
         <v>152</v>
       </c>
-      <c r="C154" s="27"/>
-      <c r="D154" s="27"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="27"/>
-      <c r="G154" s="29"/>
-      <c r="H154" s="27"/>
+      <c r="C154" s="50"/>
+      <c r="D154" s="50"/>
+      <c r="E154" s="50"/>
+      <c r="F154" s="50"/>
+      <c r="G154" s="61"/>
+      <c r="H154" s="50"/>
       <c r="I154" s="6"/>
       <c r="K154" s="7" t="s">
         <v>29</v>
@@ -6918,7 +6909,7 @@
       <c r="L154" s="7">
         <v>152</v>
       </c>
-      <c r="M154" s="26"/>
+      <c r="M154" s="66"/>
       <c r="N154" s="7"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -6928,12 +6919,12 @@
       <c r="B155" s="5">
         <v>153</v>
       </c>
-      <c r="C155" s="27"/>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="29"/>
-      <c r="H155" s="27"/>
+      <c r="C155" s="50"/>
+      <c r="D155" s="50"/>
+      <c r="E155" s="50"/>
+      <c r="F155" s="50"/>
+      <c r="G155" s="61"/>
+      <c r="H155" s="50"/>
       <c r="I155" s="6"/>
       <c r="K155" s="7" t="s">
         <v>29</v>
@@ -6941,7 +6932,7 @@
       <c r="L155" s="7">
         <v>153</v>
       </c>
-      <c r="M155" s="26"/>
+      <c r="M155" s="66"/>
       <c r="N155" s="7"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -6951,12 +6942,12 @@
       <c r="B156" s="5">
         <v>154</v>
       </c>
-      <c r="C156" s="27"/>
-      <c r="D156" s="27"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="27"/>
-      <c r="G156" s="29"/>
-      <c r="H156" s="27"/>
+      <c r="C156" s="50"/>
+      <c r="D156" s="50"/>
+      <c r="E156" s="50"/>
+      <c r="F156" s="50"/>
+      <c r="G156" s="61"/>
+      <c r="H156" s="50"/>
       <c r="I156" s="6"/>
       <c r="K156" s="7" t="s">
         <v>29</v>
@@ -6964,7 +6955,7 @@
       <c r="L156" s="7">
         <v>154</v>
       </c>
-      <c r="M156" s="26"/>
+      <c r="M156" s="66"/>
       <c r="N156" s="7"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -6974,12 +6965,12 @@
       <c r="B157" s="5">
         <v>155</v>
       </c>
-      <c r="C157" s="27"/>
-      <c r="D157" s="27"/>
-      <c r="E157" s="27"/>
-      <c r="F157" s="27"/>
-      <c r="G157" s="29"/>
-      <c r="H157" s="27"/>
+      <c r="C157" s="50"/>
+      <c r="D157" s="50"/>
+      <c r="E157" s="50"/>
+      <c r="F157" s="50"/>
+      <c r="G157" s="61"/>
+      <c r="H157" s="50"/>
       <c r="I157" s="6"/>
       <c r="K157" s="7" t="s">
         <v>29</v>
@@ -6987,7 +6978,7 @@
       <c r="L157" s="7">
         <v>155</v>
       </c>
-      <c r="M157" s="26"/>
+      <c r="M157" s="66"/>
       <c r="N157" s="7"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -6997,12 +6988,12 @@
       <c r="B158" s="5">
         <v>156</v>
       </c>
-      <c r="C158" s="27"/>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27"/>
-      <c r="G158" s="29"/>
-      <c r="H158" s="27"/>
+      <c r="C158" s="50"/>
+      <c r="D158" s="50"/>
+      <c r="E158" s="50"/>
+      <c r="F158" s="50"/>
+      <c r="G158" s="61"/>
+      <c r="H158" s="50"/>
       <c r="I158" s="6"/>
       <c r="K158" s="7" t="s">
         <v>29</v>
@@ -7010,7 +7001,7 @@
       <c r="L158" s="7">
         <v>156</v>
       </c>
-      <c r="M158" s="26"/>
+      <c r="M158" s="66"/>
       <c r="N158" s="7"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
@@ -7020,12 +7011,12 @@
       <c r="B159" s="5">
         <v>157</v>
       </c>
-      <c r="C159" s="27"/>
-      <c r="D159" s="27"/>
-      <c r="E159" s="27"/>
-      <c r="F159" s="27"/>
-      <c r="G159" s="29"/>
-      <c r="H159" s="27"/>
+      <c r="C159" s="50"/>
+      <c r="D159" s="50"/>
+      <c r="E159" s="50"/>
+      <c r="F159" s="50"/>
+      <c r="G159" s="61"/>
+      <c r="H159" s="50"/>
       <c r="I159" s="6"/>
       <c r="K159" s="7" t="s">
         <v>29</v>
@@ -7033,7 +7024,7 @@
       <c r="L159" s="7">
         <v>157</v>
       </c>
-      <c r="M159" s="26"/>
+      <c r="M159" s="66"/>
       <c r="N159" s="7"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -7043,12 +7034,12 @@
       <c r="B160" s="5">
         <v>158</v>
       </c>
-      <c r="C160" s="27"/>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27"/>
-      <c r="G160" s="29"/>
-      <c r="H160" s="27"/>
+      <c r="C160" s="50"/>
+      <c r="D160" s="50"/>
+      <c r="E160" s="50"/>
+      <c r="F160" s="50"/>
+      <c r="G160" s="61"/>
+      <c r="H160" s="50"/>
       <c r="I160" s="6"/>
       <c r="K160" s="7" t="s">
         <v>29</v>
@@ -7056,7 +7047,7 @@
       <c r="L160" s="7">
         <v>158</v>
       </c>
-      <c r="M160" s="26"/>
+      <c r="M160" s="66"/>
       <c r="N160" s="7"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -7066,12 +7057,12 @@
       <c r="B161" s="5">
         <v>159</v>
       </c>
-      <c r="C161" s="27"/>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="27"/>
-      <c r="G161" s="29"/>
-      <c r="H161" s="27"/>
+      <c r="C161" s="50"/>
+      <c r="D161" s="50"/>
+      <c r="E161" s="50"/>
+      <c r="F161" s="50"/>
+      <c r="G161" s="61"/>
+      <c r="H161" s="50"/>
       <c r="I161" s="6"/>
       <c r="K161" s="7" t="s">
         <v>29</v>
@@ -7079,7 +7070,7 @@
       <c r="L161" s="7">
         <v>159</v>
       </c>
-      <c r="M161" s="26"/>
+      <c r="M161" s="66"/>
       <c r="N161" s="7"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -7089,12 +7080,12 @@
       <c r="B162" s="5">
         <v>160</v>
       </c>
-      <c r="C162" s="27"/>
-      <c r="D162" s="27"/>
-      <c r="E162" s="27"/>
-      <c r="F162" s="27"/>
-      <c r="G162" s="29"/>
-      <c r="H162" s="27"/>
+      <c r="C162" s="50"/>
+      <c r="D162" s="50"/>
+      <c r="E162" s="50"/>
+      <c r="F162" s="50"/>
+      <c r="G162" s="61"/>
+      <c r="H162" s="50"/>
       <c r="I162" s="6"/>
       <c r="K162" s="7" t="s">
         <v>29</v>
@@ -7102,7 +7093,7 @@
       <c r="L162" s="7">
         <v>160</v>
       </c>
-      <c r="M162" s="26"/>
+      <c r="M162" s="66"/>
       <c r="N162" s="7"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -7112,12 +7103,12 @@
       <c r="B163" s="5">
         <v>161</v>
       </c>
-      <c r="C163" s="27"/>
-      <c r="D163" s="27"/>
-      <c r="E163" s="27"/>
-      <c r="F163" s="27"/>
-      <c r="G163" s="29"/>
-      <c r="H163" s="27"/>
+      <c r="C163" s="50"/>
+      <c r="D163" s="50"/>
+      <c r="E163" s="50"/>
+      <c r="F163" s="50"/>
+      <c r="G163" s="61"/>
+      <c r="H163" s="50"/>
       <c r="I163" s="6"/>
       <c r="K163" s="7" t="s">
         <v>29</v>
@@ -7125,7 +7116,7 @@
       <c r="L163" s="7">
         <v>161</v>
       </c>
-      <c r="M163" s="26"/>
+      <c r="M163" s="66"/>
       <c r="N163" s="7"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -7135,12 +7126,12 @@
       <c r="B164" s="5">
         <v>162</v>
       </c>
-      <c r="C164" s="27"/>
-      <c r="D164" s="27"/>
-      <c r="E164" s="27"/>
-      <c r="F164" s="27"/>
-      <c r="G164" s="29"/>
-      <c r="H164" s="27"/>
+      <c r="C164" s="50"/>
+      <c r="D164" s="50"/>
+      <c r="E164" s="50"/>
+      <c r="F164" s="50"/>
+      <c r="G164" s="61"/>
+      <c r="H164" s="50"/>
       <c r="I164" s="6"/>
       <c r="K164" s="7" t="s">
         <v>29</v>
@@ -7148,7 +7139,7 @@
       <c r="L164" s="7">
         <v>162</v>
       </c>
-      <c r="M164" s="26"/>
+      <c r="M164" s="66"/>
       <c r="N164" s="7"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -7158,12 +7149,12 @@
       <c r="B165" s="5">
         <v>163</v>
       </c>
-      <c r="C165" s="27"/>
-      <c r="D165" s="27"/>
-      <c r="E165" s="27"/>
-      <c r="F165" s="27"/>
-      <c r="G165" s="29"/>
-      <c r="H165" s="27"/>
+      <c r="C165" s="50"/>
+      <c r="D165" s="50"/>
+      <c r="E165" s="50"/>
+      <c r="F165" s="50"/>
+      <c r="G165" s="61"/>
+      <c r="H165" s="50"/>
       <c r="I165" s="6"/>
       <c r="K165" s="7" t="s">
         <v>29</v>
@@ -7171,7 +7162,7 @@
       <c r="L165" s="7">
         <v>163</v>
       </c>
-      <c r="M165" s="26"/>
+      <c r="M165" s="66"/>
       <c r="N165" s="7"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -7181,12 +7172,12 @@
       <c r="B166" s="5">
         <v>164</v>
       </c>
-      <c r="C166" s="27"/>
-      <c r="D166" s="27"/>
-      <c r="E166" s="27"/>
-      <c r="F166" s="27"/>
-      <c r="G166" s="29"/>
-      <c r="H166" s="27"/>
+      <c r="C166" s="50"/>
+      <c r="D166" s="50"/>
+      <c r="E166" s="50"/>
+      <c r="F166" s="50"/>
+      <c r="G166" s="61"/>
+      <c r="H166" s="50"/>
       <c r="I166" s="6"/>
       <c r="K166" s="7" t="s">
         <v>29</v>
@@ -7194,7 +7185,7 @@
       <c r="L166" s="7">
         <v>164</v>
       </c>
-      <c r="M166" s="26"/>
+      <c r="M166" s="66"/>
       <c r="N166" s="7"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -7204,12 +7195,12 @@
       <c r="B167" s="5">
         <v>165</v>
       </c>
-      <c r="C167" s="27"/>
-      <c r="D167" s="27"/>
-      <c r="E167" s="27"/>
-      <c r="F167" s="27"/>
-      <c r="G167" s="29"/>
-      <c r="H167" s="27"/>
+      <c r="C167" s="50"/>
+      <c r="D167" s="50"/>
+      <c r="E167" s="50"/>
+      <c r="F167" s="50"/>
+      <c r="G167" s="61"/>
+      <c r="H167" s="50"/>
       <c r="I167" s="6"/>
       <c r="K167" s="7" t="s">
         <v>29</v>
@@ -7217,7 +7208,7 @@
       <c r="L167" s="7">
         <v>165</v>
       </c>
-      <c r="M167" s="26"/>
+      <c r="M167" s="66"/>
       <c r="N167" s="7"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -7227,12 +7218,12 @@
       <c r="B168" s="5">
         <v>166</v>
       </c>
-      <c r="C168" s="27"/>
-      <c r="D168" s="27"/>
-      <c r="E168" s="27"/>
-      <c r="F168" s="27"/>
-      <c r="G168" s="29"/>
-      <c r="H168" s="27"/>
+      <c r="C168" s="50"/>
+      <c r="D168" s="50"/>
+      <c r="E168" s="50"/>
+      <c r="F168" s="50"/>
+      <c r="G168" s="61"/>
+      <c r="H168" s="50"/>
       <c r="I168" s="6"/>
       <c r="K168" s="7" t="s">
         <v>29</v>
@@ -7240,7 +7231,7 @@
       <c r="L168" s="7">
         <v>166</v>
       </c>
-      <c r="M168" s="26"/>
+      <c r="M168" s="66"/>
       <c r="N168" s="7"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -7250,12 +7241,12 @@
       <c r="B169" s="5">
         <v>167</v>
       </c>
-      <c r="C169" s="27"/>
-      <c r="D169" s="27"/>
-      <c r="E169" s="27"/>
-      <c r="F169" s="27"/>
-      <c r="G169" s="29"/>
-      <c r="H169" s="27"/>
+      <c r="C169" s="50"/>
+      <c r="D169" s="50"/>
+      <c r="E169" s="50"/>
+      <c r="F169" s="50"/>
+      <c r="G169" s="61"/>
+      <c r="H169" s="50"/>
       <c r="I169" s="6"/>
       <c r="K169" s="7" t="s">
         <v>29</v>
@@ -7263,7 +7254,7 @@
       <c r="L169" s="7">
         <v>167</v>
       </c>
-      <c r="M169" s="26"/>
+      <c r="M169" s="66"/>
       <c r="N169" s="7"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
@@ -7273,12 +7264,12 @@
       <c r="B170" s="5">
         <v>168</v>
       </c>
-      <c r="C170" s="27"/>
-      <c r="D170" s="27"/>
-      <c r="E170" s="27"/>
-      <c r="F170" s="27"/>
-      <c r="G170" s="29"/>
-      <c r="H170" s="27"/>
+      <c r="C170" s="50"/>
+      <c r="D170" s="50"/>
+      <c r="E170" s="50"/>
+      <c r="F170" s="50"/>
+      <c r="G170" s="61"/>
+      <c r="H170" s="50"/>
       <c r="I170" s="6"/>
       <c r="K170" s="7" t="s">
         <v>29</v>
@@ -7286,7 +7277,7 @@
       <c r="L170" s="7">
         <v>168</v>
       </c>
-      <c r="M170" s="26"/>
+      <c r="M170" s="66"/>
       <c r="N170" s="7"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -7296,12 +7287,12 @@
       <c r="B171" s="5">
         <v>169</v>
       </c>
-      <c r="C171" s="27"/>
-      <c r="D171" s="27"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="27"/>
-      <c r="G171" s="29"/>
-      <c r="H171" s="27"/>
+      <c r="C171" s="50"/>
+      <c r="D171" s="50"/>
+      <c r="E171" s="50"/>
+      <c r="F171" s="50"/>
+      <c r="G171" s="61"/>
+      <c r="H171" s="50"/>
       <c r="I171" s="6"/>
       <c r="K171" s="7" t="s">
         <v>29</v>
@@ -7309,7 +7300,7 @@
       <c r="L171" s="7">
         <v>169</v>
       </c>
-      <c r="M171" s="26"/>
+      <c r="M171" s="66"/>
       <c r="N171" s="7"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -7319,12 +7310,12 @@
       <c r="B172" s="5">
         <v>170</v>
       </c>
-      <c r="C172" s="27"/>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27"/>
-      <c r="F172" s="27"/>
-      <c r="G172" s="29"/>
-      <c r="H172" s="27"/>
+      <c r="C172" s="50"/>
+      <c r="D172" s="50"/>
+      <c r="E172" s="50"/>
+      <c r="F172" s="50"/>
+      <c r="G172" s="61"/>
+      <c r="H172" s="50"/>
       <c r="I172" s="6"/>
       <c r="K172" s="7" t="s">
         <v>29</v>
@@ -7332,7 +7323,7 @@
       <c r="L172" s="7">
         <v>170</v>
       </c>
-      <c r="M172" s="26"/>
+      <c r="M172" s="66"/>
       <c r="N172" s="7"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -7342,12 +7333,12 @@
       <c r="B173" s="5">
         <v>171</v>
       </c>
-      <c r="C173" s="27"/>
-      <c r="D173" s="27"/>
-      <c r="E173" s="27"/>
-      <c r="F173" s="27"/>
-      <c r="G173" s="29"/>
-      <c r="H173" s="27"/>
+      <c r="C173" s="50"/>
+      <c r="D173" s="50"/>
+      <c r="E173" s="50"/>
+      <c r="F173" s="50"/>
+      <c r="G173" s="61"/>
+      <c r="H173" s="50"/>
       <c r="I173" s="6"/>
       <c r="K173" s="7" t="s">
         <v>29</v>
@@ -7355,7 +7346,7 @@
       <c r="L173" s="7">
         <v>171</v>
       </c>
-      <c r="M173" s="26"/>
+      <c r="M173" s="66"/>
       <c r="N173" s="7"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -7365,12 +7356,12 @@
       <c r="B174" s="5">
         <v>172</v>
       </c>
-      <c r="C174" s="27"/>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="27"/>
-      <c r="G174" s="29"/>
-      <c r="H174" s="27"/>
+      <c r="C174" s="50"/>
+      <c r="D174" s="50"/>
+      <c r="E174" s="50"/>
+      <c r="F174" s="50"/>
+      <c r="G174" s="61"/>
+      <c r="H174" s="50"/>
       <c r="I174" s="6"/>
       <c r="K174" s="7" t="s">
         <v>29</v>
@@ -7378,7 +7369,7 @@
       <c r="L174" s="7">
         <v>172</v>
       </c>
-      <c r="M174" s="26"/>
+      <c r="M174" s="66"/>
       <c r="N174" s="7"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
@@ -7388,12 +7379,12 @@
       <c r="B175" s="5">
         <v>173</v>
       </c>
-      <c r="C175" s="27"/>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="27"/>
-      <c r="G175" s="29"/>
-      <c r="H175" s="27"/>
+      <c r="C175" s="50"/>
+      <c r="D175" s="50"/>
+      <c r="E175" s="50"/>
+      <c r="F175" s="50"/>
+      <c r="G175" s="61"/>
+      <c r="H175" s="50"/>
       <c r="I175" s="6"/>
       <c r="K175" s="7" t="s">
         <v>29</v>
@@ -7401,7 +7392,7 @@
       <c r="L175" s="7">
         <v>173</v>
       </c>
-      <c r="M175" s="26"/>
+      <c r="M175" s="66"/>
       <c r="N175" s="7"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
@@ -7411,12 +7402,12 @@
       <c r="B176" s="5">
         <v>174</v>
       </c>
-      <c r="C176" s="27"/>
-      <c r="D176" s="27"/>
-      <c r="E176" s="27"/>
-      <c r="F176" s="27"/>
-      <c r="G176" s="29"/>
-      <c r="H176" s="27"/>
+      <c r="C176" s="50"/>
+      <c r="D176" s="50"/>
+      <c r="E176" s="50"/>
+      <c r="F176" s="50"/>
+      <c r="G176" s="61"/>
+      <c r="H176" s="50"/>
       <c r="I176" s="6"/>
       <c r="K176" s="7" t="s">
         <v>29</v>
@@ -7424,7 +7415,7 @@
       <c r="L176" s="7">
         <v>174</v>
       </c>
-      <c r="M176" s="26"/>
+      <c r="M176" s="66"/>
       <c r="N176" s="7"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
@@ -7434,12 +7425,12 @@
       <c r="B177" s="5">
         <v>175</v>
       </c>
-      <c r="C177" s="27"/>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="27"/>
-      <c r="G177" s="29"/>
-      <c r="H177" s="27"/>
+      <c r="C177" s="50"/>
+      <c r="D177" s="50"/>
+      <c r="E177" s="50"/>
+      <c r="F177" s="50"/>
+      <c r="G177" s="61"/>
+      <c r="H177" s="50"/>
       <c r="I177" s="6"/>
       <c r="K177" s="7" t="s">
         <v>29</v>
@@ -7447,7 +7438,7 @@
       <c r="L177" s="7">
         <v>175</v>
       </c>
-      <c r="M177" s="26"/>
+      <c r="M177" s="66"/>
       <c r="N177" s="7"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -7457,12 +7448,12 @@
       <c r="B178" s="5">
         <v>176</v>
       </c>
-      <c r="C178" s="27"/>
-      <c r="D178" s="27"/>
-      <c r="E178" s="27"/>
-      <c r="F178" s="27"/>
-      <c r="G178" s="29"/>
-      <c r="H178" s="27"/>
+      <c r="C178" s="50"/>
+      <c r="D178" s="50"/>
+      <c r="E178" s="50"/>
+      <c r="F178" s="50"/>
+      <c r="G178" s="61"/>
+      <c r="H178" s="50"/>
       <c r="I178" s="6"/>
       <c r="K178" s="7" t="s">
         <v>29</v>
@@ -7470,7 +7461,7 @@
       <c r="L178" s="7">
         <v>176</v>
       </c>
-      <c r="M178" s="26"/>
+      <c r="M178" s="66"/>
       <c r="N178" s="7"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -7480,12 +7471,12 @@
       <c r="B179" s="5">
         <v>177</v>
       </c>
-      <c r="C179" s="27"/>
-      <c r="D179" s="27"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="27"/>
-      <c r="G179" s="29"/>
-      <c r="H179" s="27"/>
+      <c r="C179" s="50"/>
+      <c r="D179" s="50"/>
+      <c r="E179" s="50"/>
+      <c r="F179" s="50"/>
+      <c r="G179" s="61"/>
+      <c r="H179" s="50"/>
       <c r="I179" s="6"/>
       <c r="K179" s="7" t="s">
         <v>29</v>
@@ -7493,7 +7484,7 @@
       <c r="L179" s="7">
         <v>177</v>
       </c>
-      <c r="M179" s="26"/>
+      <c r="M179" s="66"/>
       <c r="N179" s="7"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -7503,12 +7494,12 @@
       <c r="B180" s="5">
         <v>178</v>
       </c>
-      <c r="C180" s="27"/>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="27"/>
-      <c r="G180" s="29"/>
-      <c r="H180" s="27"/>
+      <c r="C180" s="50"/>
+      <c r="D180" s="50"/>
+      <c r="E180" s="50"/>
+      <c r="F180" s="50"/>
+      <c r="G180" s="61"/>
+      <c r="H180" s="50"/>
       <c r="I180" s="6"/>
       <c r="K180" s="7" t="s">
         <v>29</v>
@@ -7516,7 +7507,7 @@
       <c r="L180" s="7">
         <v>178</v>
       </c>
-      <c r="M180" s="26"/>
+      <c r="M180" s="66"/>
       <c r="N180" s="7"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
@@ -7526,12 +7517,12 @@
       <c r="B181" s="5">
         <v>179</v>
       </c>
-      <c r="C181" s="27"/>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="29"/>
-      <c r="H181" s="27"/>
+      <c r="C181" s="50"/>
+      <c r="D181" s="50"/>
+      <c r="E181" s="50"/>
+      <c r="F181" s="50"/>
+      <c r="G181" s="61"/>
+      <c r="H181" s="50"/>
       <c r="I181" s="6"/>
       <c r="K181" s="7" t="s">
         <v>29</v>
@@ -7539,7 +7530,7 @@
       <c r="L181" s="7">
         <v>179</v>
       </c>
-      <c r="M181" s="26"/>
+      <c r="M181" s="66"/>
       <c r="N181" s="7"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -7549,12 +7540,12 @@
       <c r="B182" s="5">
         <v>180</v>
       </c>
-      <c r="C182" s="27"/>
-      <c r="D182" s="27"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="27"/>
-      <c r="G182" s="29"/>
-      <c r="H182" s="27"/>
+      <c r="C182" s="50"/>
+      <c r="D182" s="50"/>
+      <c r="E182" s="50"/>
+      <c r="F182" s="50"/>
+      <c r="G182" s="61"/>
+      <c r="H182" s="50"/>
       <c r="I182" s="6"/>
       <c r="K182" s="7" t="s">
         <v>29</v>
@@ -7562,7 +7553,7 @@
       <c r="L182" s="7">
         <v>180</v>
       </c>
-      <c r="M182" s="26"/>
+      <c r="M182" s="66"/>
       <c r="N182" s="7"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
@@ -7572,12 +7563,12 @@
       <c r="B183" s="5">
         <v>181</v>
       </c>
-      <c r="C183" s="27"/>
-      <c r="D183" s="27"/>
-      <c r="E183" s="27"/>
-      <c r="F183" s="27"/>
-      <c r="G183" s="29"/>
-      <c r="H183" s="27"/>
+      <c r="C183" s="50"/>
+      <c r="D183" s="50"/>
+      <c r="E183" s="50"/>
+      <c r="F183" s="50"/>
+      <c r="G183" s="61"/>
+      <c r="H183" s="50"/>
       <c r="I183" s="6"/>
       <c r="K183" s="7" t="s">
         <v>29</v>
@@ -7585,7 +7576,7 @@
       <c r="L183" s="7">
         <v>181</v>
       </c>
-      <c r="M183" s="26"/>
+      <c r="M183" s="66"/>
       <c r="N183" s="7"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -7595,12 +7586,12 @@
       <c r="B184" s="5">
         <v>182</v>
       </c>
-      <c r="C184" s="27"/>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27"/>
-      <c r="F184" s="27"/>
-      <c r="G184" s="29"/>
-      <c r="H184" s="27"/>
+      <c r="C184" s="50"/>
+      <c r="D184" s="50"/>
+      <c r="E184" s="50"/>
+      <c r="F184" s="50"/>
+      <c r="G184" s="61"/>
+      <c r="H184" s="50"/>
       <c r="I184" s="6"/>
       <c r="K184" s="7" t="s">
         <v>29</v>
@@ -7608,7 +7599,7 @@
       <c r="L184" s="7">
         <v>182</v>
       </c>
-      <c r="M184" s="26"/>
+      <c r="M184" s="66"/>
       <c r="N184" s="7"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -7618,12 +7609,12 @@
       <c r="B185" s="5">
         <v>183</v>
       </c>
-      <c r="C185" s="27"/>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27"/>
-      <c r="F185" s="27"/>
-      <c r="G185" s="29"/>
-      <c r="H185" s="27"/>
+      <c r="C185" s="50"/>
+      <c r="D185" s="50"/>
+      <c r="E185" s="50"/>
+      <c r="F185" s="50"/>
+      <c r="G185" s="61"/>
+      <c r="H185" s="50"/>
       <c r="I185" s="6"/>
       <c r="K185" s="7" t="s">
         <v>29</v>
@@ -7631,7 +7622,7 @@
       <c r="L185" s="7">
         <v>183</v>
       </c>
-      <c r="M185" s="26"/>
+      <c r="M185" s="66"/>
       <c r="N185" s="7"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
@@ -7641,12 +7632,12 @@
       <c r="B186" s="5">
         <v>184</v>
       </c>
-      <c r="C186" s="27"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="27"/>
-      <c r="G186" s="29"/>
-      <c r="H186" s="27"/>
+      <c r="C186" s="50"/>
+      <c r="D186" s="50"/>
+      <c r="E186" s="50"/>
+      <c r="F186" s="50"/>
+      <c r="G186" s="61"/>
+      <c r="H186" s="50"/>
       <c r="I186" s="6"/>
       <c r="K186" s="7" t="s">
         <v>29</v>
@@ -7654,7 +7645,7 @@
       <c r="L186" s="7">
         <v>184</v>
       </c>
-      <c r="M186" s="26"/>
+      <c r="M186" s="66"/>
       <c r="N186" s="7"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -7664,12 +7655,12 @@
       <c r="B187" s="5">
         <v>185</v>
       </c>
-      <c r="C187" s="27"/>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="27"/>
-      <c r="G187" s="29"/>
-      <c r="H187" s="27"/>
+      <c r="C187" s="50"/>
+      <c r="D187" s="50"/>
+      <c r="E187" s="50"/>
+      <c r="F187" s="50"/>
+      <c r="G187" s="61"/>
+      <c r="H187" s="50"/>
       <c r="I187" s="6"/>
       <c r="K187" s="7" t="s">
         <v>29</v>
@@ -7677,7 +7668,7 @@
       <c r="L187" s="7">
         <v>185</v>
       </c>
-      <c r="M187" s="26"/>
+      <c r="M187" s="66"/>
       <c r="N187" s="7"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -7687,12 +7678,12 @@
       <c r="B188" s="5">
         <v>186</v>
       </c>
-      <c r="C188" s="27"/>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="27"/>
-      <c r="G188" s="29"/>
-      <c r="H188" s="27"/>
+      <c r="C188" s="50"/>
+      <c r="D188" s="50"/>
+      <c r="E188" s="50"/>
+      <c r="F188" s="50"/>
+      <c r="G188" s="61"/>
+      <c r="H188" s="50"/>
       <c r="I188" s="6"/>
       <c r="K188" s="7" t="s">
         <v>29</v>
@@ -7700,7 +7691,7 @@
       <c r="L188" s="7">
         <v>186</v>
       </c>
-      <c r="M188" s="26"/>
+      <c r="M188" s="66"/>
       <c r="N188" s="7"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -7710,12 +7701,12 @@
       <c r="B189" s="5">
         <v>187</v>
       </c>
-      <c r="C189" s="27"/>
-      <c r="D189" s="27"/>
-      <c r="E189" s="27"/>
-      <c r="F189" s="27"/>
-      <c r="G189" s="29"/>
-      <c r="H189" s="27"/>
+      <c r="C189" s="50"/>
+      <c r="D189" s="50"/>
+      <c r="E189" s="50"/>
+      <c r="F189" s="50"/>
+      <c r="G189" s="61"/>
+      <c r="H189" s="50"/>
       <c r="I189" s="6"/>
       <c r="K189" s="7" t="s">
         <v>29</v>
@@ -7723,7 +7714,7 @@
       <c r="L189" s="7">
         <v>187</v>
       </c>
-      <c r="M189" s="26"/>
+      <c r="M189" s="66"/>
       <c r="N189" s="7"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -7733,12 +7724,12 @@
       <c r="B190" s="5">
         <v>188</v>
       </c>
-      <c r="C190" s="27"/>
-      <c r="D190" s="27"/>
-      <c r="E190" s="27"/>
-      <c r="F190" s="27"/>
-      <c r="G190" s="29"/>
-      <c r="H190" s="27"/>
+      <c r="C190" s="50"/>
+      <c r="D190" s="50"/>
+      <c r="E190" s="50"/>
+      <c r="F190" s="50"/>
+      <c r="G190" s="61"/>
+      <c r="H190" s="50"/>
       <c r="I190" s="6"/>
       <c r="K190" s="7" t="s">
         <v>29</v>
@@ -7746,7 +7737,7 @@
       <c r="L190" s="7">
         <v>188</v>
       </c>
-      <c r="M190" s="26"/>
+      <c r="M190" s="66"/>
       <c r="N190" s="7"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -7756,12 +7747,12 @@
       <c r="B191" s="5">
         <v>189</v>
       </c>
-      <c r="C191" s="27"/>
-      <c r="D191" s="27"/>
-      <c r="E191" s="27"/>
-      <c r="F191" s="27"/>
-      <c r="G191" s="29"/>
-      <c r="H191" s="27"/>
+      <c r="C191" s="50"/>
+      <c r="D191" s="50"/>
+      <c r="E191" s="50"/>
+      <c r="F191" s="50"/>
+      <c r="G191" s="61"/>
+      <c r="H191" s="50"/>
       <c r="I191" s="6"/>
       <c r="K191" s="7" t="s">
         <v>29</v>
@@ -7769,7 +7760,7 @@
       <c r="L191" s="7">
         <v>189</v>
       </c>
-      <c r="M191" s="26"/>
+      <c r="M191" s="66"/>
       <c r="N191" s="7"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
@@ -7779,12 +7770,12 @@
       <c r="B192" s="5">
         <v>190</v>
       </c>
-      <c r="C192" s="27"/>
-      <c r="D192" s="27"/>
-      <c r="E192" s="27"/>
-      <c r="F192" s="27"/>
-      <c r="G192" s="29"/>
-      <c r="H192" s="27"/>
+      <c r="C192" s="50"/>
+      <c r="D192" s="50"/>
+      <c r="E192" s="50"/>
+      <c r="F192" s="50"/>
+      <c r="G192" s="61"/>
+      <c r="H192" s="50"/>
       <c r="I192" s="6" t="s">
         <v>21</v>
       </c>
@@ -7794,7 +7785,7 @@
       <c r="L192" s="7">
         <v>190</v>
       </c>
-      <c r="M192" s="26"/>
+      <c r="M192" s="66"/>
       <c r="N192" s="7"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -7804,12 +7795,12 @@
       <c r="B193" s="5">
         <v>191</v>
       </c>
-      <c r="C193" s="27"/>
-      <c r="D193" s="27"/>
-      <c r="E193" s="27"/>
-      <c r="F193" s="27"/>
-      <c r="G193" s="29"/>
-      <c r="H193" s="27"/>
+      <c r="C193" s="50"/>
+      <c r="D193" s="50"/>
+      <c r="E193" s="50"/>
+      <c r="F193" s="50"/>
+      <c r="G193" s="61"/>
+      <c r="H193" s="50"/>
       <c r="I193" s="6" t="s">
         <v>12</v>
       </c>
@@ -7819,27 +7810,27 @@
       <c r="L193" s="7">
         <v>191</v>
       </c>
-      <c r="M193" s="26"/>
+      <c r="M193" s="66"/>
       <c r="N193" s="7"/>
     </row>
     <row r="194" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B194" s="33">
+      <c r="A194" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194" s="26">
         <v>192</v>
       </c>
-      <c r="C194" s="34" t="s">
+      <c r="C194" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D194" s="30" t="s">
+      <c r="D194" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E194" s="27"/>
-      <c r="F194" s="32"/>
-      <c r="G194" s="27"/>
-      <c r="H194" s="27"/>
-      <c r="I194" s="37" t="s">
+      <c r="E194" s="50"/>
+      <c r="F194" s="49"/>
+      <c r="G194" s="50"/>
+      <c r="H194" s="50"/>
+      <c r="I194" s="27" t="s">
         <v>18</v>
       </c>
       <c r="K194" s="7" t="s">
@@ -7848,23 +7839,23 @@
       <c r="L194" s="7">
         <v>192</v>
       </c>
-      <c r="M194" s="26"/>
+      <c r="M194" s="66"/>
       <c r="N194" s="7"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A195" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B195" s="33">
+      <c r="A195" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B195" s="26">
         <v>193</v>
       </c>
-      <c r="C195" s="35"/>
-      <c r="D195" s="30"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="32"/>
-      <c r="G195" s="27"/>
-      <c r="H195" s="27"/>
-      <c r="I195" s="37" t="s">
+      <c r="C195" s="63"/>
+      <c r="D195" s="65"/>
+      <c r="E195" s="50"/>
+      <c r="F195" s="49"/>
+      <c r="G195" s="50"/>
+      <c r="H195" s="50"/>
+      <c r="I195" s="27" t="s">
         <v>36</v>
       </c>
       <c r="K195" s="7" t="s">
@@ -7873,23 +7864,23 @@
       <c r="L195" s="7">
         <v>193</v>
       </c>
-      <c r="M195" s="26"/>
+      <c r="M195" s="66"/>
       <c r="N195" s="7"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A196" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B196" s="33">
+      <c r="A196" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196" s="26">
         <v>194</v>
       </c>
-      <c r="C196" s="35"/>
-      <c r="D196" s="30"/>
-      <c r="E196" s="27"/>
-      <c r="F196" s="32"/>
-      <c r="G196" s="27"/>
-      <c r="H196" s="27"/>
-      <c r="I196" s="37" t="s">
+      <c r="C196" s="63"/>
+      <c r="D196" s="65"/>
+      <c r="E196" s="50"/>
+      <c r="F196" s="49"/>
+      <c r="G196" s="50"/>
+      <c r="H196" s="50"/>
+      <c r="I196" s="27" t="s">
         <v>41</v>
       </c>
       <c r="K196" s="7" t="s">
@@ -7898,23 +7889,23 @@
       <c r="L196" s="7">
         <v>194</v>
       </c>
-      <c r="M196" s="26"/>
+      <c r="M196" s="66"/>
       <c r="N196" s="7"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A197" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B197" s="33">
+      <c r="A197" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" s="26">
         <v>195</v>
       </c>
-      <c r="C197" s="36"/>
-      <c r="D197" s="30"/>
-      <c r="E197" s="27"/>
-      <c r="F197" s="32"/>
-      <c r="G197" s="27"/>
-      <c r="H197" s="27"/>
-      <c r="I197" s="37" t="s">
+      <c r="C197" s="64"/>
+      <c r="D197" s="65"/>
+      <c r="E197" s="50"/>
+      <c r="F197" s="49"/>
+      <c r="G197" s="50"/>
+      <c r="H197" s="50"/>
+      <c r="I197" s="27" t="s">
         <v>12</v>
       </c>
       <c r="K197" s="7" t="s">
@@ -7923,25 +7914,25 @@
       <c r="L197" s="7">
         <v>195</v>
       </c>
-      <c r="M197" s="26"/>
+      <c r="M197" s="66"/>
       <c r="N197" s="7"/>
     </row>
     <row r="198" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B198" s="41">
+      <c r="A198" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" s="31">
         <v>196</v>
       </c>
-      <c r="C198" s="42" t="s">
+      <c r="C198" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D198" s="30"/>
-      <c r="E198" s="27"/>
-      <c r="F198" s="32"/>
-      <c r="G198" s="27"/>
-      <c r="H198" s="27"/>
-      <c r="I198" s="45" t="s">
+      <c r="D198" s="65"/>
+      <c r="E198" s="50"/>
+      <c r="F198" s="49"/>
+      <c r="G198" s="50"/>
+      <c r="H198" s="50"/>
+      <c r="I198" s="32" t="s">
         <v>18</v>
       </c>
       <c r="K198" s="7" t="s">
@@ -7950,23 +7941,23 @@
       <c r="L198" s="7">
         <v>196</v>
       </c>
-      <c r="M198" s="26"/>
+      <c r="M198" s="66"/>
       <c r="N198" s="7"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A199" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B199" s="41">
+      <c r="A199" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199" s="31">
         <v>197</v>
       </c>
-      <c r="C199" s="43"/>
-      <c r="D199" s="30"/>
-      <c r="E199" s="27"/>
-      <c r="F199" s="32"/>
-      <c r="G199" s="27"/>
-      <c r="H199" s="27"/>
-      <c r="I199" s="45" t="s">
+      <c r="C199" s="52"/>
+      <c r="D199" s="65"/>
+      <c r="E199" s="50"/>
+      <c r="F199" s="49"/>
+      <c r="G199" s="50"/>
+      <c r="H199" s="50"/>
+      <c r="I199" s="32" t="s">
         <v>39</v>
       </c>
       <c r="K199" s="7" t="s">
@@ -7975,23 +7966,23 @@
       <c r="L199" s="7">
         <v>197</v>
       </c>
-      <c r="M199" s="26"/>
+      <c r="M199" s="66"/>
       <c r="N199" s="7"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A200" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B200" s="41">
+      <c r="A200" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B200" s="31">
         <v>198</v>
       </c>
-      <c r="C200" s="43"/>
-      <c r="D200" s="30"/>
-      <c r="E200" s="27"/>
-      <c r="F200" s="32"/>
-      <c r="G200" s="27"/>
-      <c r="H200" s="27"/>
-      <c r="I200" s="45" t="s">
+      <c r="C200" s="52"/>
+      <c r="D200" s="65"/>
+      <c r="E200" s="50"/>
+      <c r="F200" s="49"/>
+      <c r="G200" s="50"/>
+      <c r="H200" s="50"/>
+      <c r="I200" s="32" t="s">
         <v>37</v>
       </c>
       <c r="K200" s="7" t="s">
@@ -8000,23 +7991,23 @@
       <c r="L200" s="7">
         <v>198</v>
       </c>
-      <c r="M200" s="26"/>
+      <c r="M200" s="66"/>
       <c r="N200" s="7"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A201" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B201" s="41">
+      <c r="A201" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B201" s="31">
         <v>199</v>
       </c>
-      <c r="C201" s="44"/>
-      <c r="D201" s="30"/>
-      <c r="E201" s="27"/>
-      <c r="F201" s="32"/>
-      <c r="G201" s="27"/>
-      <c r="H201" s="27"/>
-      <c r="I201" s="45" t="s">
+      <c r="C201" s="53"/>
+      <c r="D201" s="65"/>
+      <c r="E201" s="50"/>
+      <c r="F201" s="49"/>
+      <c r="G201" s="50"/>
+      <c r="H201" s="50"/>
+      <c r="I201" s="32" t="s">
         <v>12</v>
       </c>
       <c r="K201" s="7" t="s">
@@ -8025,25 +8016,25 @@
       <c r="L201" s="7">
         <v>199</v>
       </c>
-      <c r="M201" s="26"/>
+      <c r="M201" s="66"/>
       <c r="N201" s="7"/>
     </row>
     <row r="202" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B202" s="49">
+      <c r="A202" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" s="36">
         <v>200</v>
       </c>
-      <c r="C202" s="50" t="s">
+      <c r="C202" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D202" s="27"/>
-      <c r="E202" s="27"/>
-      <c r="F202" s="32"/>
-      <c r="G202" s="27"/>
-      <c r="H202" s="27"/>
-      <c r="I202" s="53" t="s">
+      <c r="D202" s="50"/>
+      <c r="E202" s="50"/>
+      <c r="F202" s="49"/>
+      <c r="G202" s="50"/>
+      <c r="H202" s="50"/>
+      <c r="I202" s="37" t="s">
         <v>118</v>
       </c>
       <c r="K202" s="7" t="s">
@@ -8052,23 +8043,23 @@
       <c r="L202" s="7">
         <v>200</v>
       </c>
-      <c r="M202" s="26"/>
+      <c r="M202" s="66"/>
       <c r="N202" s="7"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A203" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B203" s="49">
+      <c r="A203" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" s="36">
         <v>201</v>
       </c>
-      <c r="C203" s="51"/>
-      <c r="D203" s="27"/>
-      <c r="E203" s="27"/>
-      <c r="F203" s="32"/>
-      <c r="G203" s="27"/>
-      <c r="H203" s="27"/>
-      <c r="I203" s="53" t="s">
+      <c r="C203" s="55"/>
+      <c r="D203" s="50"/>
+      <c r="E203" s="50"/>
+      <c r="F203" s="49"/>
+      <c r="G203" s="50"/>
+      <c r="H203" s="50"/>
+      <c r="I203" s="37" t="s">
         <v>40</v>
       </c>
       <c r="K203" s="7" t="s">
@@ -8077,24 +8068,24 @@
       <c r="L203" s="7">
         <v>201</v>
       </c>
-      <c r="M203" s="26"/>
+      <c r="M203" s="66"/>
       <c r="N203" s="7"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A204" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B204" s="49">
+      <c r="A204" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B204" s="36">
         <v>202</v>
       </c>
-      <c r="C204" s="51"/>
-      <c r="D204" s="27"/>
-      <c r="E204" s="27"/>
-      <c r="F204" s="32"/>
-      <c r="G204" s="27"/>
-      <c r="H204" s="27"/>
-      <c r="I204" s="53" t="s">
-        <v>37</v>
+      <c r="C204" s="55"/>
+      <c r="D204" s="50"/>
+      <c r="E204" s="50"/>
+      <c r="F204" s="49"/>
+      <c r="G204" s="50"/>
+      <c r="H204" s="50"/>
+      <c r="I204" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="K204" s="7" t="s">
         <v>29</v>
@@ -8102,23 +8093,23 @@
       <c r="L204" s="7">
         <v>202</v>
       </c>
-      <c r="M204" s="26"/>
+      <c r="M204" s="66"/>
       <c r="N204" s="7"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A205" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B205" s="49">
+      <c r="A205" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B205" s="36">
         <v>203</v>
       </c>
-      <c r="C205" s="52"/>
-      <c r="D205" s="27"/>
-      <c r="E205" s="27"/>
-      <c r="F205" s="32"/>
-      <c r="G205" s="27"/>
-      <c r="H205" s="27"/>
-      <c r="I205" s="53" t="s">
+      <c r="C205" s="56"/>
+      <c r="D205" s="50"/>
+      <c r="E205" s="50"/>
+      <c r="F205" s="49"/>
+      <c r="G205" s="50"/>
+      <c r="H205" s="50"/>
+      <c r="I205" s="37" t="s">
         <v>12</v>
       </c>
       <c r="K205" s="7" t="s">
@@ -8127,25 +8118,25 @@
       <c r="L205" s="7">
         <v>203</v>
       </c>
-      <c r="M205" s="26"/>
+      <c r="M205" s="66"/>
       <c r="N205" s="7"/>
     </row>
     <row r="206" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B206" s="60">
+      <c r="A206" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206" s="44">
         <v>204</v>
       </c>
-      <c r="C206" s="61" t="s">
+      <c r="C206" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D206" s="27"/>
-      <c r="E206" s="27"/>
-      <c r="F206" s="32"/>
-      <c r="G206" s="27"/>
-      <c r="H206" s="27"/>
-      <c r="I206" s="64" t="s">
+      <c r="D206" s="50"/>
+      <c r="E206" s="50"/>
+      <c r="F206" s="49"/>
+      <c r="G206" s="50"/>
+      <c r="H206" s="50"/>
+      <c r="I206" s="45" t="s">
         <v>18</v>
       </c>
       <c r="K206" s="7" t="s">
@@ -8154,23 +8145,23 @@
       <c r="L206" s="7">
         <v>204</v>
       </c>
-      <c r="M206" s="26"/>
+      <c r="M206" s="66"/>
       <c r="N206" s="7"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A207" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B207" s="60">
+      <c r="A207" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B207" s="44">
         <v>205</v>
       </c>
-      <c r="C207" s="62"/>
-      <c r="D207" s="27"/>
-      <c r="E207" s="27"/>
-      <c r="F207" s="32"/>
-      <c r="G207" s="27"/>
-      <c r="H207" s="27"/>
-      <c r="I207" s="64" t="s">
+      <c r="C207" s="58"/>
+      <c r="D207" s="50"/>
+      <c r="E207" s="50"/>
+      <c r="F207" s="49"/>
+      <c r="G207" s="50"/>
+      <c r="H207" s="50"/>
+      <c r="I207" s="45" t="s">
         <v>40</v>
       </c>
       <c r="K207" s="7" t="s">
@@ -8179,23 +8170,23 @@
       <c r="L207" s="7">
         <v>205</v>
       </c>
-      <c r="M207" s="26"/>
+      <c r="M207" s="66"/>
       <c r="N207" s="7"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A208" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B208" s="60">
+      <c r="A208" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B208" s="44">
         <v>206</v>
       </c>
-      <c r="C208" s="62"/>
-      <c r="D208" s="27"/>
-      <c r="E208" s="27"/>
-      <c r="F208" s="32"/>
-      <c r="G208" s="27"/>
-      <c r="H208" s="27"/>
-      <c r="I208" s="64" t="s">
+      <c r="C208" s="58"/>
+      <c r="D208" s="50"/>
+      <c r="E208" s="50"/>
+      <c r="F208" s="49"/>
+      <c r="G208" s="50"/>
+      <c r="H208" s="50"/>
+      <c r="I208" s="45" t="s">
         <v>41</v>
       </c>
       <c r="K208" s="7" t="s">
@@ -8204,23 +8195,23 @@
       <c r="L208" s="7">
         <v>206</v>
       </c>
-      <c r="M208" s="26"/>
+      <c r="M208" s="66"/>
       <c r="N208" s="7"/>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A209" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B209" s="60">
+      <c r="A209" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B209" s="44">
         <v>207</v>
       </c>
-      <c r="C209" s="63"/>
-      <c r="D209" s="27"/>
-      <c r="E209" s="27"/>
-      <c r="F209" s="32"/>
-      <c r="G209" s="27"/>
-      <c r="H209" s="27"/>
-      <c r="I209" s="64" t="s">
+      <c r="C209" s="59"/>
+      <c r="D209" s="50"/>
+      <c r="E209" s="50"/>
+      <c r="F209" s="49"/>
+      <c r="G209" s="50"/>
+      <c r="H209" s="50"/>
+      <c r="I209" s="45" t="s">
         <v>12</v>
       </c>
       <c r="K209" s="7" t="s">
@@ -8229,7 +8220,7 @@
       <c r="L209" s="7">
         <v>207</v>
       </c>
-      <c r="M209" s="26"/>
+      <c r="M209" s="66"/>
       <c r="N209" s="7"/>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
@@ -8239,12 +8230,12 @@
       <c r="B210" s="10">
         <v>208</v>
       </c>
-      <c r="C210" s="27"/>
-      <c r="D210" s="27"/>
-      <c r="E210" s="27"/>
-      <c r="F210" s="32"/>
-      <c r="G210" s="27"/>
-      <c r="H210" s="27"/>
+      <c r="C210" s="50"/>
+      <c r="D210" s="50"/>
+      <c r="E210" s="50"/>
+      <c r="F210" s="49"/>
+      <c r="G210" s="50"/>
+      <c r="H210" s="50"/>
       <c r="I210" s="11"/>
       <c r="K210" s="7" t="s">
         <v>29</v>
@@ -8252,7 +8243,7 @@
       <c r="L210" s="7">
         <v>208</v>
       </c>
-      <c r="M210" s="26"/>
+      <c r="M210" s="66"/>
       <c r="N210" s="7"/>
       <c r="R210" t="s">
         <v>38</v>
@@ -8265,12 +8256,12 @@
       <c r="B211" s="10">
         <v>209</v>
       </c>
-      <c r="C211" s="27"/>
-      <c r="D211" s="27"/>
-      <c r="E211" s="27"/>
-      <c r="F211" s="32"/>
-      <c r="G211" s="27"/>
-      <c r="H211" s="27"/>
+      <c r="C211" s="50"/>
+      <c r="D211" s="50"/>
+      <c r="E211" s="50"/>
+      <c r="F211" s="49"/>
+      <c r="G211" s="50"/>
+      <c r="H211" s="50"/>
       <c r="I211" s="11"/>
       <c r="K211" s="7" t="s">
         <v>29</v>
@@ -8278,7 +8269,7 @@
       <c r="L211" s="7">
         <v>209</v>
       </c>
-      <c r="M211" s="26"/>
+      <c r="M211" s="66"/>
       <c r="N211" s="7"/>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
@@ -8288,12 +8279,12 @@
       <c r="B212" s="10">
         <v>210</v>
       </c>
-      <c r="C212" s="27"/>
-      <c r="D212" s="27"/>
-      <c r="E212" s="27"/>
-      <c r="F212" s="32"/>
-      <c r="G212" s="27"/>
-      <c r="H212" s="27"/>
+      <c r="C212" s="50"/>
+      <c r="D212" s="50"/>
+      <c r="E212" s="50"/>
+      <c r="F212" s="49"/>
+      <c r="G212" s="50"/>
+      <c r="H212" s="50"/>
       <c r="I212" s="11"/>
       <c r="K212" s="7" t="s">
         <v>29</v>
@@ -8301,7 +8292,7 @@
       <c r="L212" s="7">
         <v>210</v>
       </c>
-      <c r="M212" s="26"/>
+      <c r="M212" s="66"/>
       <c r="N212" s="7"/>
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
@@ -8311,12 +8302,12 @@
       <c r="B213" s="10">
         <v>211</v>
       </c>
-      <c r="C213" s="27"/>
-      <c r="D213" s="27"/>
-      <c r="E213" s="27"/>
-      <c r="F213" s="32"/>
-      <c r="G213" s="27"/>
-      <c r="H213" s="27"/>
+      <c r="C213" s="50"/>
+      <c r="D213" s="50"/>
+      <c r="E213" s="50"/>
+      <c r="F213" s="49"/>
+      <c r="G213" s="50"/>
+      <c r="H213" s="50"/>
       <c r="I213" s="11"/>
       <c r="K213" s="7" t="s">
         <v>29</v>
@@ -8324,7 +8315,7 @@
       <c r="L213" s="7">
         <v>211</v>
       </c>
-      <c r="M213" s="26"/>
+      <c r="M213" s="66"/>
       <c r="N213" s="7"/>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
@@ -8334,12 +8325,12 @@
       <c r="B214" s="10">
         <v>212</v>
       </c>
-      <c r="C214" s="27"/>
-      <c r="D214" s="27"/>
-      <c r="E214" s="27"/>
-      <c r="F214" s="32"/>
-      <c r="G214" s="27"/>
-      <c r="H214" s="27"/>
+      <c r="C214" s="50"/>
+      <c r="D214" s="50"/>
+      <c r="E214" s="50"/>
+      <c r="F214" s="49"/>
+      <c r="G214" s="50"/>
+      <c r="H214" s="50"/>
       <c r="I214" s="11"/>
       <c r="K214" s="7" t="s">
         <v>29</v>
@@ -8347,7 +8338,7 @@
       <c r="L214" s="7">
         <v>212</v>
       </c>
-      <c r="M214" s="26"/>
+      <c r="M214" s="66"/>
       <c r="N214" s="7"/>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
@@ -8357,12 +8348,12 @@
       <c r="B215" s="10">
         <v>213</v>
       </c>
-      <c r="C215" s="27"/>
-      <c r="D215" s="27"/>
-      <c r="E215" s="27"/>
-      <c r="F215" s="32"/>
-      <c r="G215" s="27"/>
-      <c r="H215" s="27"/>
+      <c r="C215" s="50"/>
+      <c r="D215" s="50"/>
+      <c r="E215" s="50"/>
+      <c r="F215" s="49"/>
+      <c r="G215" s="50"/>
+      <c r="H215" s="50"/>
       <c r="I215" s="11"/>
       <c r="K215" s="7" t="s">
         <v>29</v>
@@ -8370,7 +8361,7 @@
       <c r="L215" s="7">
         <v>213</v>
       </c>
-      <c r="M215" s="26"/>
+      <c r="M215" s="66"/>
       <c r="N215" s="7"/>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
@@ -8380,12 +8371,12 @@
       <c r="B216" s="10">
         <v>214</v>
       </c>
-      <c r="C216" s="27"/>
-      <c r="D216" s="27"/>
-      <c r="E216" s="27"/>
-      <c r="F216" s="32"/>
-      <c r="G216" s="27"/>
-      <c r="H216" s="27"/>
+      <c r="C216" s="50"/>
+      <c r="D216" s="50"/>
+      <c r="E216" s="50"/>
+      <c r="F216" s="49"/>
+      <c r="G216" s="50"/>
+      <c r="H216" s="50"/>
       <c r="I216" s="11"/>
       <c r="K216" s="7" t="s">
         <v>29</v>
@@ -8393,7 +8384,7 @@
       <c r="L216" s="7">
         <v>214</v>
       </c>
-      <c r="M216" s="26"/>
+      <c r="M216" s="66"/>
       <c r="N216" s="7"/>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
@@ -8403,12 +8394,12 @@
       <c r="B217" s="10">
         <v>215</v>
       </c>
-      <c r="C217" s="27"/>
-      <c r="D217" s="27"/>
-      <c r="E217" s="27"/>
-      <c r="F217" s="32"/>
-      <c r="G217" s="27"/>
-      <c r="H217" s="27"/>
+      <c r="C217" s="50"/>
+      <c r="D217" s="50"/>
+      <c r="E217" s="50"/>
+      <c r="F217" s="49"/>
+      <c r="G217" s="50"/>
+      <c r="H217" s="50"/>
       <c r="I217" s="11"/>
       <c r="K217" s="7" t="s">
         <v>29</v>
@@ -8416,7 +8407,7 @@
       <c r="L217" s="7">
         <v>215</v>
       </c>
-      <c r="M217" s="26"/>
+      <c r="M217" s="66"/>
       <c r="N217" s="7"/>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
@@ -8426,12 +8417,12 @@
       <c r="B218" s="10">
         <v>216</v>
       </c>
-      <c r="C218" s="27"/>
-      <c r="D218" s="27"/>
-      <c r="E218" s="27"/>
-      <c r="F218" s="32"/>
-      <c r="G218" s="27"/>
-      <c r="H218" s="27"/>
+      <c r="C218" s="50"/>
+      <c r="D218" s="50"/>
+      <c r="E218" s="50"/>
+      <c r="F218" s="49"/>
+      <c r="G218" s="50"/>
+      <c r="H218" s="50"/>
       <c r="I218" s="11"/>
       <c r="K218" s="7" t="s">
         <v>29</v>
@@ -8439,7 +8430,7 @@
       <c r="L218" s="7">
         <v>216</v>
       </c>
-      <c r="M218" s="26"/>
+      <c r="M218" s="66"/>
       <c r="N218" s="7"/>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
@@ -8449,12 +8440,12 @@
       <c r="B219" s="10">
         <v>217</v>
       </c>
-      <c r="C219" s="27"/>
-      <c r="D219" s="27"/>
-      <c r="E219" s="27"/>
-      <c r="F219" s="32"/>
-      <c r="G219" s="27"/>
-      <c r="H219" s="27"/>
+      <c r="C219" s="50"/>
+      <c r="D219" s="50"/>
+      <c r="E219" s="50"/>
+      <c r="F219" s="49"/>
+      <c r="G219" s="50"/>
+      <c r="H219" s="50"/>
       <c r="I219" s="11"/>
       <c r="K219" s="7" t="s">
         <v>29</v>
@@ -8462,7 +8453,7 @@
       <c r="L219" s="7">
         <v>217</v>
       </c>
-      <c r="M219" s="26"/>
+      <c r="M219" s="66"/>
       <c r="N219" s="7"/>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
@@ -8472,12 +8463,12 @@
       <c r="B220" s="10">
         <v>218</v>
       </c>
-      <c r="C220" s="27"/>
-      <c r="D220" s="27"/>
-      <c r="E220" s="27"/>
-      <c r="F220" s="32"/>
-      <c r="G220" s="27"/>
-      <c r="H220" s="27"/>
+      <c r="C220" s="50"/>
+      <c r="D220" s="50"/>
+      <c r="E220" s="50"/>
+      <c r="F220" s="49"/>
+      <c r="G220" s="50"/>
+      <c r="H220" s="50"/>
       <c r="I220" s="11"/>
       <c r="K220" s="7" t="s">
         <v>29</v>
@@ -8485,7 +8476,7 @@
       <c r="L220" s="7">
         <v>218</v>
       </c>
-      <c r="M220" s="26"/>
+      <c r="M220" s="66"/>
       <c r="N220" s="7"/>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
@@ -8495,12 +8486,12 @@
       <c r="B221" s="10">
         <v>219</v>
       </c>
-      <c r="C221" s="27"/>
-      <c r="D221" s="27"/>
-      <c r="E221" s="27"/>
-      <c r="F221" s="32"/>
-      <c r="G221" s="27"/>
-      <c r="H221" s="27"/>
+      <c r="C221" s="50"/>
+      <c r="D221" s="50"/>
+      <c r="E221" s="50"/>
+      <c r="F221" s="49"/>
+      <c r="G221" s="50"/>
+      <c r="H221" s="50"/>
       <c r="I221" s="11"/>
       <c r="K221" s="7" t="s">
         <v>29</v>
@@ -8508,7 +8499,7 @@
       <c r="L221" s="7">
         <v>219</v>
       </c>
-      <c r="M221" s="26"/>
+      <c r="M221" s="66"/>
       <c r="N221" s="7"/>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
@@ -8518,12 +8509,12 @@
       <c r="B222" s="10">
         <v>220</v>
       </c>
-      <c r="C222" s="27"/>
-      <c r="D222" s="27"/>
-      <c r="E222" s="27"/>
-      <c r="F222" s="32"/>
-      <c r="G222" s="27"/>
-      <c r="H222" s="27"/>
+      <c r="C222" s="50"/>
+      <c r="D222" s="50"/>
+      <c r="E222" s="50"/>
+      <c r="F222" s="49"/>
+      <c r="G222" s="50"/>
+      <c r="H222" s="50"/>
       <c r="I222" s="11"/>
       <c r="K222" s="7" t="s">
         <v>29</v>
@@ -8531,7 +8522,7 @@
       <c r="L222" s="7">
         <v>220</v>
       </c>
-      <c r="M222" s="26"/>
+      <c r="M222" s="66"/>
       <c r="N222" s="7"/>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
@@ -8541,12 +8532,12 @@
       <c r="B223" s="10">
         <v>221</v>
       </c>
-      <c r="C223" s="27"/>
-      <c r="D223" s="27"/>
-      <c r="E223" s="27"/>
-      <c r="F223" s="32"/>
-      <c r="G223" s="27"/>
-      <c r="H223" s="27"/>
+      <c r="C223" s="50"/>
+      <c r="D223" s="50"/>
+      <c r="E223" s="50"/>
+      <c r="F223" s="49"/>
+      <c r="G223" s="50"/>
+      <c r="H223" s="50"/>
       <c r="I223" s="11"/>
       <c r="K223" s="7" t="s">
         <v>29</v>
@@ -8554,7 +8545,7 @@
       <c r="L223" s="7">
         <v>221</v>
       </c>
-      <c r="M223" s="26"/>
+      <c r="M223" s="66"/>
       <c r="N223" s="7"/>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
@@ -8564,12 +8555,12 @@
       <c r="B224" s="10">
         <v>222</v>
       </c>
-      <c r="C224" s="27"/>
-      <c r="D224" s="27"/>
-      <c r="E224" s="27"/>
-      <c r="F224" s="32"/>
-      <c r="G224" s="27"/>
-      <c r="H224" s="27"/>
+      <c r="C224" s="50"/>
+      <c r="D224" s="50"/>
+      <c r="E224" s="50"/>
+      <c r="F224" s="49"/>
+      <c r="G224" s="50"/>
+      <c r="H224" s="50"/>
       <c r="I224" s="11"/>
       <c r="K224" s="7" t="s">
         <v>29</v>
@@ -8577,7 +8568,7 @@
       <c r="L224" s="7">
         <v>222</v>
       </c>
-      <c r="M224" s="26"/>
+      <c r="M224" s="66"/>
       <c r="N224" s="7"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
@@ -8587,12 +8578,12 @@
       <c r="B225" s="10">
         <v>223</v>
       </c>
-      <c r="C225" s="27"/>
-      <c r="D225" s="27"/>
-      <c r="E225" s="27"/>
-      <c r="F225" s="32"/>
-      <c r="G225" s="27"/>
-      <c r="H225" s="27"/>
+      <c r="C225" s="50"/>
+      <c r="D225" s="50"/>
+      <c r="E225" s="50"/>
+      <c r="F225" s="49"/>
+      <c r="G225" s="50"/>
+      <c r="H225" s="50"/>
       <c r="I225" s="11"/>
       <c r="K225" s="7" t="s">
         <v>29</v>
@@ -8600,7 +8591,7 @@
       <c r="L225" s="7">
         <v>223</v>
       </c>
-      <c r="M225" s="26"/>
+      <c r="M225" s="66"/>
       <c r="N225" s="7"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
@@ -8610,12 +8601,12 @@
       <c r="B226" s="10">
         <v>224</v>
       </c>
-      <c r="C226" s="31"/>
-      <c r="D226" s="27"/>
-      <c r="E226" s="27"/>
-      <c r="F226" s="27"/>
-      <c r="G226" s="27"/>
-      <c r="H226" s="27"/>
+      <c r="C226" s="60"/>
+      <c r="D226" s="50"/>
+      <c r="E226" s="50"/>
+      <c r="F226" s="50"/>
+      <c r="G226" s="50"/>
+      <c r="H226" s="50"/>
       <c r="I226" s="11"/>
       <c r="K226" s="7" t="s">
         <v>29</v>
@@ -8623,7 +8614,7 @@
       <c r="L226" s="7">
         <v>224</v>
       </c>
-      <c r="M226" s="26"/>
+      <c r="M226" s="66"/>
       <c r="N226" s="7"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
@@ -8633,12 +8624,12 @@
       <c r="B227" s="10">
         <v>225</v>
       </c>
-      <c r="C227" s="31"/>
-      <c r="D227" s="27"/>
-      <c r="E227" s="27"/>
-      <c r="F227" s="27"/>
-      <c r="G227" s="27"/>
-      <c r="H227" s="27"/>
+      <c r="C227" s="60"/>
+      <c r="D227" s="50"/>
+      <c r="E227" s="50"/>
+      <c r="F227" s="50"/>
+      <c r="G227" s="50"/>
+      <c r="H227" s="50"/>
       <c r="I227" s="11"/>
       <c r="K227" s="7" t="s">
         <v>29</v>
@@ -8646,7 +8637,7 @@
       <c r="L227" s="7">
         <v>225</v>
       </c>
-      <c r="M227" s="26"/>
+      <c r="M227" s="66"/>
       <c r="N227" s="7"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
@@ -8656,12 +8647,12 @@
       <c r="B228" s="10">
         <v>226</v>
       </c>
-      <c r="C228" s="31"/>
-      <c r="D228" s="27"/>
-      <c r="E228" s="27"/>
-      <c r="F228" s="27"/>
-      <c r="G228" s="27"/>
-      <c r="H228" s="27"/>
+      <c r="C228" s="60"/>
+      <c r="D228" s="50"/>
+      <c r="E228" s="50"/>
+      <c r="F228" s="50"/>
+      <c r="G228" s="50"/>
+      <c r="H228" s="50"/>
       <c r="I228" s="11"/>
       <c r="K228" s="7" t="s">
         <v>29</v>
@@ -8669,7 +8660,7 @@
       <c r="L228" s="7">
         <v>226</v>
       </c>
-      <c r="M228" s="26"/>
+      <c r="M228" s="66"/>
       <c r="N228" s="7"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
@@ -8679,12 +8670,12 @@
       <c r="B229" s="10">
         <v>227</v>
       </c>
-      <c r="C229" s="31"/>
-      <c r="D229" s="27"/>
-      <c r="E229" s="27"/>
-      <c r="F229" s="27"/>
-      <c r="G229" s="27"/>
-      <c r="H229" s="27"/>
+      <c r="C229" s="60"/>
+      <c r="D229" s="50"/>
+      <c r="E229" s="50"/>
+      <c r="F229" s="50"/>
+      <c r="G229" s="50"/>
+      <c r="H229" s="50"/>
       <c r="I229" s="11"/>
       <c r="K229" s="7" t="s">
         <v>29</v>
@@ -8692,7 +8683,7 @@
       <c r="L229" s="7">
         <v>227</v>
       </c>
-      <c r="M229" s="26"/>
+      <c r="M229" s="66"/>
       <c r="N229" s="7"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
@@ -8702,12 +8693,12 @@
       <c r="B230" s="10">
         <v>228</v>
       </c>
-      <c r="C230" s="31"/>
-      <c r="D230" s="27"/>
-      <c r="E230" s="27"/>
-      <c r="F230" s="27"/>
-      <c r="G230" s="27"/>
-      <c r="H230" s="27"/>
+      <c r="C230" s="60"/>
+      <c r="D230" s="50"/>
+      <c r="E230" s="50"/>
+      <c r="F230" s="50"/>
+      <c r="G230" s="50"/>
+      <c r="H230" s="50"/>
       <c r="I230" s="11"/>
       <c r="K230" s="7" t="s">
         <v>29</v>
@@ -8715,7 +8706,7 @@
       <c r="L230" s="7">
         <v>228</v>
       </c>
-      <c r="M230" s="26"/>
+      <c r="M230" s="66"/>
       <c r="N230" s="7"/>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
@@ -8725,12 +8716,12 @@
       <c r="B231" s="10">
         <v>229</v>
       </c>
-      <c r="C231" s="31"/>
-      <c r="D231" s="27"/>
-      <c r="E231" s="27"/>
-      <c r="F231" s="27"/>
-      <c r="G231" s="27"/>
-      <c r="H231" s="27"/>
+      <c r="C231" s="60"/>
+      <c r="D231" s="50"/>
+      <c r="E231" s="50"/>
+      <c r="F231" s="50"/>
+      <c r="G231" s="50"/>
+      <c r="H231" s="50"/>
       <c r="I231" s="11"/>
       <c r="K231" s="7" t="s">
         <v>29</v>
@@ -8738,7 +8729,7 @@
       <c r="L231" s="7">
         <v>229</v>
       </c>
-      <c r="M231" s="26"/>
+      <c r="M231" s="66"/>
       <c r="N231" s="7"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
@@ -8748,12 +8739,12 @@
       <c r="B232" s="10">
         <v>230</v>
       </c>
-      <c r="C232" s="31"/>
-      <c r="D232" s="27"/>
-      <c r="E232" s="27"/>
-      <c r="F232" s="27"/>
-      <c r="G232" s="27"/>
-      <c r="H232" s="27"/>
+      <c r="C232" s="60"/>
+      <c r="D232" s="50"/>
+      <c r="E232" s="50"/>
+      <c r="F232" s="50"/>
+      <c r="G232" s="50"/>
+      <c r="H232" s="50"/>
       <c r="I232" s="11"/>
       <c r="K232" s="7" t="s">
         <v>29</v>
@@ -8761,7 +8752,7 @@
       <c r="L232" s="7">
         <v>230</v>
       </c>
-      <c r="M232" s="26"/>
+      <c r="M232" s="66"/>
       <c r="N232" s="7"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
@@ -8771,12 +8762,12 @@
       <c r="B233" s="10">
         <v>231</v>
       </c>
-      <c r="C233" s="31"/>
-      <c r="D233" s="27"/>
-      <c r="E233" s="27"/>
-      <c r="F233" s="27"/>
-      <c r="G233" s="27"/>
-      <c r="H233" s="27"/>
+      <c r="C233" s="60"/>
+      <c r="D233" s="50"/>
+      <c r="E233" s="50"/>
+      <c r="F233" s="50"/>
+      <c r="G233" s="50"/>
+      <c r="H233" s="50"/>
       <c r="I233" s="11"/>
       <c r="K233" s="7" t="s">
         <v>29</v>
@@ -8784,7 +8775,7 @@
       <c r="L233" s="7">
         <v>231</v>
       </c>
-      <c r="M233" s="26"/>
+      <c r="M233" s="66"/>
       <c r="N233" s="7"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
@@ -8794,12 +8785,12 @@
       <c r="B234" s="10">
         <v>232</v>
       </c>
-      <c r="C234" s="31"/>
-      <c r="D234" s="27"/>
-      <c r="E234" s="27"/>
-      <c r="F234" s="27"/>
-      <c r="G234" s="27"/>
-      <c r="H234" s="27"/>
+      <c r="C234" s="60"/>
+      <c r="D234" s="50"/>
+      <c r="E234" s="50"/>
+      <c r="F234" s="50"/>
+      <c r="G234" s="50"/>
+      <c r="H234" s="50"/>
       <c r="I234" s="11"/>
       <c r="K234" s="7" t="s">
         <v>29</v>
@@ -8807,7 +8798,7 @@
       <c r="L234" s="7">
         <v>232</v>
       </c>
-      <c r="M234" s="26"/>
+      <c r="M234" s="66"/>
       <c r="N234" s="7"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
@@ -8817,12 +8808,12 @@
       <c r="B235" s="10">
         <v>233</v>
       </c>
-      <c r="C235" s="31"/>
-      <c r="D235" s="27"/>
-      <c r="E235" s="27"/>
-      <c r="F235" s="27"/>
-      <c r="G235" s="27"/>
-      <c r="H235" s="27"/>
+      <c r="C235" s="60"/>
+      <c r="D235" s="50"/>
+      <c r="E235" s="50"/>
+      <c r="F235" s="50"/>
+      <c r="G235" s="50"/>
+      <c r="H235" s="50"/>
       <c r="I235" s="11"/>
       <c r="K235" s="7" t="s">
         <v>29</v>
@@ -8830,7 +8821,7 @@
       <c r="L235" s="7">
         <v>233</v>
       </c>
-      <c r="M235" s="26"/>
+      <c r="M235" s="66"/>
       <c r="N235" s="7"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
@@ -8840,12 +8831,12 @@
       <c r="B236" s="10">
         <v>234</v>
       </c>
-      <c r="C236" s="31"/>
-      <c r="D236" s="27"/>
-      <c r="E236" s="27"/>
-      <c r="F236" s="27"/>
-      <c r="G236" s="27"/>
-      <c r="H236" s="27"/>
+      <c r="C236" s="60"/>
+      <c r="D236" s="50"/>
+      <c r="E236" s="50"/>
+      <c r="F236" s="50"/>
+      <c r="G236" s="50"/>
+      <c r="H236" s="50"/>
       <c r="I236" s="11"/>
       <c r="K236" s="7" t="s">
         <v>29</v>
@@ -8853,7 +8844,7 @@
       <c r="L236" s="7">
         <v>234</v>
       </c>
-      <c r="M236" s="26"/>
+      <c r="M236" s="66"/>
       <c r="N236" s="7"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
@@ -8863,12 +8854,12 @@
       <c r="B237" s="10">
         <v>235</v>
       </c>
-      <c r="C237" s="31"/>
-      <c r="D237" s="27"/>
-      <c r="E237" s="27"/>
-      <c r="F237" s="27"/>
-      <c r="G237" s="27"/>
-      <c r="H237" s="27"/>
+      <c r="C237" s="60"/>
+      <c r="D237" s="50"/>
+      <c r="E237" s="50"/>
+      <c r="F237" s="50"/>
+      <c r="G237" s="50"/>
+      <c r="H237" s="50"/>
       <c r="I237" s="11"/>
       <c r="K237" s="7" t="s">
         <v>29</v>
@@ -8876,7 +8867,7 @@
       <c r="L237" s="7">
         <v>235</v>
       </c>
-      <c r="M237" s="26"/>
+      <c r="M237" s="66"/>
       <c r="N237" s="7"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
@@ -8886,12 +8877,12 @@
       <c r="B238" s="10">
         <v>236</v>
       </c>
-      <c r="C238" s="31"/>
-      <c r="D238" s="27"/>
-      <c r="E238" s="27"/>
-      <c r="F238" s="27"/>
-      <c r="G238" s="27"/>
-      <c r="H238" s="27"/>
+      <c r="C238" s="60"/>
+      <c r="D238" s="50"/>
+      <c r="E238" s="50"/>
+      <c r="F238" s="50"/>
+      <c r="G238" s="50"/>
+      <c r="H238" s="50"/>
       <c r="I238" s="11"/>
       <c r="K238" s="7" t="s">
         <v>29</v>
@@ -8899,7 +8890,7 @@
       <c r="L238" s="7">
         <v>236</v>
       </c>
-      <c r="M238" s="26"/>
+      <c r="M238" s="66"/>
       <c r="N238" s="7"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
@@ -8909,12 +8900,12 @@
       <c r="B239" s="10">
         <v>237</v>
       </c>
-      <c r="C239" s="31"/>
-      <c r="D239" s="27"/>
-      <c r="E239" s="27"/>
-      <c r="F239" s="27"/>
-      <c r="G239" s="27"/>
-      <c r="H239" s="27"/>
+      <c r="C239" s="60"/>
+      <c r="D239" s="50"/>
+      <c r="E239" s="50"/>
+      <c r="F239" s="50"/>
+      <c r="G239" s="50"/>
+      <c r="H239" s="50"/>
       <c r="I239" s="11"/>
       <c r="K239" s="7" t="s">
         <v>29</v>
@@ -8922,7 +8913,7 @@
       <c r="L239" s="7">
         <v>237</v>
       </c>
-      <c r="M239" s="26"/>
+      <c r="M239" s="66"/>
       <c r="N239" s="7"/>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
@@ -8932,12 +8923,12 @@
       <c r="B240" s="10">
         <v>238</v>
       </c>
-      <c r="C240" s="31"/>
-      <c r="D240" s="27"/>
-      <c r="E240" s="27"/>
-      <c r="F240" s="27"/>
-      <c r="G240" s="27"/>
-      <c r="H240" s="27"/>
+      <c r="C240" s="60"/>
+      <c r="D240" s="50"/>
+      <c r="E240" s="50"/>
+      <c r="F240" s="50"/>
+      <c r="G240" s="50"/>
+      <c r="H240" s="50"/>
       <c r="I240" s="11"/>
       <c r="K240" s="7" t="s">
         <v>29</v>
@@ -8945,7 +8936,7 @@
       <c r="L240" s="7">
         <v>238</v>
       </c>
-      <c r="M240" s="26"/>
+      <c r="M240" s="66"/>
       <c r="N240" s="7"/>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
@@ -8955,12 +8946,12 @@
       <c r="B241" s="10">
         <v>239</v>
       </c>
-      <c r="C241" s="31"/>
-      <c r="D241" s="27"/>
-      <c r="E241" s="27"/>
-      <c r="F241" s="27"/>
-      <c r="G241" s="27"/>
-      <c r="H241" s="27"/>
+      <c r="C241" s="60"/>
+      <c r="D241" s="50"/>
+      <c r="E241" s="50"/>
+      <c r="F241" s="50"/>
+      <c r="G241" s="50"/>
+      <c r="H241" s="50"/>
       <c r="I241" s="11"/>
       <c r="K241" s="7" t="s">
         <v>29</v>
@@ -8968,7 +8959,7 @@
       <c r="L241" s="7">
         <v>239</v>
       </c>
-      <c r="M241" s="26"/>
+      <c r="M241" s="66"/>
       <c r="N241" s="7"/>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
@@ -8978,12 +8969,12 @@
       <c r="B242">
         <v>240</v>
       </c>
-      <c r="C242" s="27"/>
-      <c r="D242" s="27"/>
-      <c r="E242" s="27"/>
-      <c r="F242" s="27"/>
-      <c r="G242" s="27"/>
-      <c r="H242" s="27"/>
+      <c r="C242" s="50"/>
+      <c r="D242" s="50"/>
+      <c r="E242" s="50"/>
+      <c r="F242" s="50"/>
+      <c r="G242" s="50"/>
+      <c r="H242" s="50"/>
       <c r="I242" s="2"/>
       <c r="K242" s="7" t="s">
         <v>29</v>
@@ -8991,7 +8982,7 @@
       <c r="L242" s="7">
         <v>240</v>
       </c>
-      <c r="M242" s="26"/>
+      <c r="M242" s="66"/>
       <c r="N242" s="7"/>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
@@ -9001,12 +8992,12 @@
       <c r="B243">
         <v>241</v>
       </c>
-      <c r="C243" s="27"/>
-      <c r="D243" s="27"/>
-      <c r="E243" s="27"/>
-      <c r="F243" s="27"/>
-      <c r="G243" s="27"/>
-      <c r="H243" s="27"/>
+      <c r="C243" s="50"/>
+      <c r="D243" s="50"/>
+      <c r="E243" s="50"/>
+      <c r="F243" s="50"/>
+      <c r="G243" s="50"/>
+      <c r="H243" s="50"/>
       <c r="I243" s="2"/>
       <c r="K243" s="7" t="s">
         <v>29</v>
@@ -9014,7 +9005,7 @@
       <c r="L243" s="7">
         <v>241</v>
       </c>
-      <c r="M243" s="26"/>
+      <c r="M243" s="66"/>
       <c r="N243" s="7"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
@@ -9024,12 +9015,12 @@
       <c r="B244">
         <v>242</v>
       </c>
-      <c r="C244" s="27"/>
-      <c r="D244" s="27"/>
-      <c r="E244" s="27"/>
-      <c r="F244" s="27"/>
-      <c r="G244" s="27"/>
-      <c r="H244" s="27"/>
+      <c r="C244" s="50"/>
+      <c r="D244" s="50"/>
+      <c r="E244" s="50"/>
+      <c r="F244" s="50"/>
+      <c r="G244" s="50"/>
+      <c r="H244" s="50"/>
       <c r="I244" s="2"/>
       <c r="K244" s="7" t="s">
         <v>29</v>
@@ -9037,7 +9028,7 @@
       <c r="L244" s="7">
         <v>242</v>
       </c>
-      <c r="M244" s="26"/>
+      <c r="M244" s="66"/>
       <c r="N244" s="7"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
@@ -9047,12 +9038,12 @@
       <c r="B245">
         <v>243</v>
       </c>
-      <c r="C245" s="27"/>
-      <c r="D245" s="27"/>
-      <c r="E245" s="27"/>
-      <c r="F245" s="27"/>
-      <c r="G245" s="27"/>
-      <c r="H245" s="27"/>
+      <c r="C245" s="50"/>
+      <c r="D245" s="50"/>
+      <c r="E245" s="50"/>
+      <c r="F245" s="50"/>
+      <c r="G245" s="50"/>
+      <c r="H245" s="50"/>
       <c r="I245" s="2"/>
       <c r="K245" s="7" t="s">
         <v>29</v>
@@ -9060,7 +9051,7 @@
       <c r="L245" s="7">
         <v>243</v>
       </c>
-      <c r="M245" s="26"/>
+      <c r="M245" s="66"/>
       <c r="N245" s="7"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
@@ -9070,12 +9061,12 @@
       <c r="B246">
         <v>244</v>
       </c>
-      <c r="C246" s="27"/>
-      <c r="D246" s="27"/>
-      <c r="E246" s="27"/>
-      <c r="F246" s="27"/>
-      <c r="G246" s="27"/>
-      <c r="H246" s="27"/>
+      <c r="C246" s="50"/>
+      <c r="D246" s="50"/>
+      <c r="E246" s="50"/>
+      <c r="F246" s="50"/>
+      <c r="G246" s="50"/>
+      <c r="H246" s="50"/>
       <c r="I246" s="2"/>
       <c r="K246" s="7" t="s">
         <v>29</v>
@@ -9083,7 +9074,7 @@
       <c r="L246" s="7">
         <v>244</v>
       </c>
-      <c r="M246" s="26"/>
+      <c r="M246" s="66"/>
       <c r="N246" s="7"/>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
@@ -9093,12 +9084,12 @@
       <c r="B247">
         <v>245</v>
       </c>
-      <c r="C247" s="27"/>
-      <c r="D247" s="27"/>
-      <c r="E247" s="27"/>
-      <c r="F247" s="27"/>
-      <c r="G247" s="27"/>
-      <c r="H247" s="27"/>
+      <c r="C247" s="50"/>
+      <c r="D247" s="50"/>
+      <c r="E247" s="50"/>
+      <c r="F247" s="50"/>
+      <c r="G247" s="50"/>
+      <c r="H247" s="50"/>
       <c r="I247" s="2"/>
       <c r="K247" s="7" t="s">
         <v>29</v>
@@ -9106,7 +9097,7 @@
       <c r="L247" s="7">
         <v>245</v>
       </c>
-      <c r="M247" s="26"/>
+      <c r="M247" s="66"/>
       <c r="N247" s="7"/>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
@@ -9116,12 +9107,12 @@
       <c r="B248">
         <v>246</v>
       </c>
-      <c r="C248" s="27"/>
-      <c r="D248" s="27"/>
-      <c r="E248" s="27"/>
-      <c r="F248" s="27"/>
-      <c r="G248" s="27"/>
-      <c r="H248" s="27"/>
+      <c r="C248" s="50"/>
+      <c r="D248" s="50"/>
+      <c r="E248" s="50"/>
+      <c r="F248" s="50"/>
+      <c r="G248" s="50"/>
+      <c r="H248" s="50"/>
       <c r="I248" s="2"/>
       <c r="K248" s="7" t="s">
         <v>29</v>
@@ -9129,7 +9120,7 @@
       <c r="L248" s="7">
         <v>246</v>
       </c>
-      <c r="M248" s="26"/>
+      <c r="M248" s="66"/>
       <c r="N248" s="7"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
@@ -9139,12 +9130,12 @@
       <c r="B249">
         <v>247</v>
       </c>
-      <c r="C249" s="27"/>
-      <c r="D249" s="27"/>
-      <c r="E249" s="27"/>
-      <c r="F249" s="27"/>
-      <c r="G249" s="27"/>
-      <c r="H249" s="27"/>
+      <c r="C249" s="50"/>
+      <c r="D249" s="50"/>
+      <c r="E249" s="50"/>
+      <c r="F249" s="50"/>
+      <c r="G249" s="50"/>
+      <c r="H249" s="50"/>
       <c r="I249" s="2"/>
       <c r="K249" s="7" t="s">
         <v>29</v>
@@ -9152,7 +9143,7 @@
       <c r="L249" s="7">
         <v>247</v>
       </c>
-      <c r="M249" s="26"/>
+      <c r="M249" s="66"/>
       <c r="N249" s="7"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
@@ -9162,12 +9153,12 @@
       <c r="B250">
         <v>248</v>
       </c>
-      <c r="C250" s="27"/>
-      <c r="D250" s="27"/>
-      <c r="E250" s="27"/>
-      <c r="F250" s="27"/>
-      <c r="G250" s="27"/>
-      <c r="H250" s="27"/>
+      <c r="C250" s="50"/>
+      <c r="D250" s="50"/>
+      <c r="E250" s="50"/>
+      <c r="F250" s="50"/>
+      <c r="G250" s="50"/>
+      <c r="H250" s="50"/>
       <c r="I250" s="2"/>
       <c r="K250" s="7" t="s">
         <v>29</v>
@@ -9175,7 +9166,7 @@
       <c r="L250" s="7">
         <v>248</v>
       </c>
-      <c r="M250" s="26"/>
+      <c r="M250" s="66"/>
       <c r="N250" s="7"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
@@ -9185,12 +9176,12 @@
       <c r="B251">
         <v>249</v>
       </c>
-      <c r="C251" s="27"/>
-      <c r="D251" s="27"/>
-      <c r="E251" s="27"/>
-      <c r="F251" s="27"/>
-      <c r="G251" s="27"/>
-      <c r="H251" s="27"/>
+      <c r="C251" s="50"/>
+      <c r="D251" s="50"/>
+      <c r="E251" s="50"/>
+      <c r="F251" s="50"/>
+      <c r="G251" s="50"/>
+      <c r="H251" s="50"/>
       <c r="I251" s="2"/>
       <c r="K251" s="7" t="s">
         <v>29</v>
@@ -9198,7 +9189,7 @@
       <c r="L251" s="7">
         <v>249</v>
       </c>
-      <c r="M251" s="26"/>
+      <c r="M251" s="66"/>
       <c r="N251" s="7"/>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
@@ -9208,12 +9199,12 @@
       <c r="B252">
         <v>250</v>
       </c>
-      <c r="C252" s="27"/>
-      <c r="D252" s="27"/>
-      <c r="E252" s="27"/>
-      <c r="F252" s="27"/>
-      <c r="G252" s="27"/>
-      <c r="H252" s="27"/>
+      <c r="C252" s="50"/>
+      <c r="D252" s="50"/>
+      <c r="E252" s="50"/>
+      <c r="F252" s="50"/>
+      <c r="G252" s="50"/>
+      <c r="H252" s="50"/>
       <c r="I252" s="2"/>
       <c r="K252" s="7" t="s">
         <v>29</v>
@@ -9221,7 +9212,7 @@
       <c r="L252" s="7">
         <v>250</v>
       </c>
-      <c r="M252" s="26"/>
+      <c r="M252" s="66"/>
       <c r="N252" s="7"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
@@ -9231,12 +9222,12 @@
       <c r="B253">
         <v>251</v>
       </c>
-      <c r="C253" s="27"/>
-      <c r="D253" s="27"/>
-      <c r="E253" s="27"/>
-      <c r="F253" s="27"/>
-      <c r="G253" s="27"/>
-      <c r="H253" s="27"/>
+      <c r="C253" s="50"/>
+      <c r="D253" s="50"/>
+      <c r="E253" s="50"/>
+      <c r="F253" s="50"/>
+      <c r="G253" s="50"/>
+      <c r="H253" s="50"/>
       <c r="I253" s="2"/>
       <c r="K253" s="7" t="s">
         <v>29</v>
@@ -9244,7 +9235,7 @@
       <c r="L253" s="7">
         <v>251</v>
       </c>
-      <c r="M253" s="26"/>
+      <c r="M253" s="66"/>
       <c r="N253" s="7"/>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
@@ -9254,12 +9245,12 @@
       <c r="B254">
         <v>252</v>
       </c>
-      <c r="C254" s="27"/>
-      <c r="D254" s="27"/>
-      <c r="E254" s="27"/>
-      <c r="F254" s="27"/>
-      <c r="G254" s="27"/>
-      <c r="H254" s="27"/>
+      <c r="C254" s="50"/>
+      <c r="D254" s="50"/>
+      <c r="E254" s="50"/>
+      <c r="F254" s="50"/>
+      <c r="G254" s="50"/>
+      <c r="H254" s="50"/>
       <c r="I254" s="2"/>
       <c r="K254" s="7" t="s">
         <v>29</v>
@@ -9267,7 +9258,7 @@
       <c r="L254" s="7">
         <v>252</v>
       </c>
-      <c r="M254" s="26"/>
+      <c r="M254" s="66"/>
       <c r="N254" s="7"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
@@ -9277,12 +9268,12 @@
       <c r="B255">
         <v>253</v>
       </c>
-      <c r="C255" s="27"/>
-      <c r="D255" s="27"/>
-      <c r="E255" s="27"/>
-      <c r="F255" s="27"/>
-      <c r="G255" s="27"/>
-      <c r="H255" s="27"/>
+      <c r="C255" s="50"/>
+      <c r="D255" s="50"/>
+      <c r="E255" s="50"/>
+      <c r="F255" s="50"/>
+      <c r="G255" s="50"/>
+      <c r="H255" s="50"/>
       <c r="I255" s="2"/>
       <c r="K255" s="7" t="s">
         <v>29</v>
@@ -9290,7 +9281,7 @@
       <c r="L255" s="7">
         <v>253</v>
       </c>
-      <c r="M255" s="26"/>
+      <c r="M255" s="66"/>
       <c r="N255" s="7"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
@@ -9300,12 +9291,12 @@
       <c r="B256">
         <v>254</v>
       </c>
-      <c r="C256" s="27"/>
-      <c r="D256" s="27"/>
-      <c r="E256" s="27"/>
-      <c r="F256" s="27"/>
-      <c r="G256" s="27"/>
-      <c r="H256" s="27"/>
+      <c r="C256" s="50"/>
+      <c r="D256" s="50"/>
+      <c r="E256" s="50"/>
+      <c r="F256" s="50"/>
+      <c r="G256" s="50"/>
+      <c r="H256" s="50"/>
       <c r="I256" s="2"/>
       <c r="K256" s="7" t="s">
         <v>29</v>
@@ -9313,7 +9304,7 @@
       <c r="L256" s="7">
         <v>254</v>
       </c>
-      <c r="M256" s="26"/>
+      <c r="M256" s="66"/>
       <c r="N256" s="7" t="s">
         <v>20</v>
       </c>
@@ -9325,12 +9316,12 @@
       <c r="B257">
         <v>255</v>
       </c>
-      <c r="C257" s="27"/>
-      <c r="D257" s="27"/>
-      <c r="E257" s="27"/>
-      <c r="F257" s="27"/>
-      <c r="G257" s="27"/>
-      <c r="H257" s="27"/>
+      <c r="C257" s="50"/>
+      <c r="D257" s="50"/>
+      <c r="E257" s="50"/>
+      <c r="F257" s="50"/>
+      <c r="G257" s="50"/>
+      <c r="H257" s="50"/>
       <c r="I257" s="2"/>
       <c r="K257" s="7" t="s">
         <v>29</v>
@@ -9338,45 +9329,84 @@
       <c r="L257" s="7">
         <v>255</v>
       </c>
-      <c r="M257" s="26"/>
+      <c r="M257" s="66"/>
       <c r="N257" s="7" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="F194:F225"/>
-    <mergeCell ref="G194:G257"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="D202:D209"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="D210:D217"/>
-    <mergeCell ref="E210:E225"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="D250:D257"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="F226:F257"/>
-    <mergeCell ref="C230:C233"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="D234:D241"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D249"/>
-    <mergeCell ref="E242:E257"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="E194:E209"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="E162:E177"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="D218:D225"/>
-    <mergeCell ref="C222:C225"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D233"/>
-    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="M2:M257"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="F2:F33"/>
+    <mergeCell ref="G2:G65"/>
+    <mergeCell ref="H2:H129"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="F34:F65"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E33"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E50:E65"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="E66:E81"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="E34:E49"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D105"/>
+    <mergeCell ref="E98:E113"/>
+    <mergeCell ref="F66:F97"/>
+    <mergeCell ref="G66:G129"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="E82:E97"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D122:D129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="E130:E145"/>
+    <mergeCell ref="F130:F161"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="F98:F129"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="E114:E129"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
     <mergeCell ref="F162:F193"/>
     <mergeCell ref="C166:C169"/>
     <mergeCell ref="C170:C173"/>
@@ -9401,77 +9431,38 @@
     <mergeCell ref="C190:C193"/>
     <mergeCell ref="C194:C197"/>
     <mergeCell ref="D194:D201"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="E130:E145"/>
-    <mergeCell ref="F130:F161"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="F98:F129"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="E114:E129"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D105"/>
-    <mergeCell ref="E98:E113"/>
-    <mergeCell ref="F66:F97"/>
-    <mergeCell ref="G66:G129"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="E82:E97"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D122:D129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E50:E65"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="E66:E81"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="E34:E49"/>
-    <mergeCell ref="M2:M257"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="F2:F33"/>
-    <mergeCell ref="G2:G65"/>
-    <mergeCell ref="H2:H129"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="F34:F65"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E33"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="E162:E177"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="D218:D225"/>
+    <mergeCell ref="C222:C225"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D233"/>
+    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="F194:F225"/>
+    <mergeCell ref="G194:G257"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D202:D209"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="D210:D217"/>
+    <mergeCell ref="E210:E225"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="D250:D257"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="F226:F257"/>
+    <mergeCell ref="C230:C233"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="D234:D241"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D249"/>
+    <mergeCell ref="E242:E257"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="E194:E209"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ipcim.xlsx
+++ b/ipcim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\halozatProjektek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bela\Git\halozatProjektek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC729A77-5DF5-489E-95A3-F8E463EE1972}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054E69E7-5E06-457B-9256-AE805120BC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{C8323FA4-6CC7-40F6-BE4B-AB2032EB79E9}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C8323FA4-6CC7-40F6-BE4B-AB2032EB79E9}"/>
   </bookViews>
   <sheets>
     <sheet name="IP Cím igény" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="124">
   <si>
     <t>/26</t>
   </si>
@@ -140,9 +149,6 @@
   </si>
   <si>
     <t>Gig 4/0</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>Gig 0/0</t>
@@ -685,10 +691,34 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,30 +747,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E52708-4D1F-4658-B09E-637D902EB613}">
   <dimension ref="A1:N128"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,16 +1114,16 @@
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
       <c r="K1" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1128,7 +1134,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="H2" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I2" s="20">
         <f>B19+B37+B74+B92+B110+B128</f>
@@ -1151,7 +1157,7 @@
         <v>4.4125714285714288</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1184,7 +1190,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="6">
         <v>187</v>
@@ -1314,7 +1320,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="6">
         <v>187</v>
@@ -1352,7 +1358,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" s="6">
         <v>187</v>
@@ -1390,7 +1396,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="6">
         <v>187</v>
@@ -1428,7 +1434,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" s="14">
         <f>64*54</f>
@@ -1472,7 +1478,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="4">
         <v>187</v>
@@ -1602,7 +1608,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" s="4">
         <v>187</v>
@@ -1640,7 +1646,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33" s="4">
         <v>187</v>
@@ -1678,7 +1684,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" s="4">
         <v>187</v>
@@ -1716,7 +1722,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" s="13">
         <f>128*54</f>
@@ -1740,7 +1746,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7">
@@ -1767,7 +1773,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" s="7">
         <v>192</v>
@@ -1897,7 +1903,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B50" s="7">
         <v>192</v>
@@ -1935,7 +1941,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B52" s="7">
         <v>192</v>
@@ -1973,7 +1979,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B54" s="7">
         <v>192</v>
@@ -2011,7 +2017,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="17"/>
@@ -2048,7 +2054,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B60" s="27">
         <v>187</v>
@@ -2178,7 +2184,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B68" s="27">
         <v>187</v>
@@ -2216,7 +2222,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B70" s="27">
         <v>187</v>
@@ -2254,7 +2260,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B72" s="27">
         <v>187</v>
@@ -2292,7 +2298,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74" s="29">
         <f>4*54</f>
@@ -2343,7 +2349,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B78" s="32">
         <v>187</v>
@@ -2473,7 +2479,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B86" s="32">
         <v>187</v>
@@ -2511,7 +2517,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B88" s="32">
         <v>187</v>
@@ -2549,7 +2555,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B90" s="32">
         <v>187</v>
@@ -2587,7 +2593,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B92" s="34">
         <f>4*54</f>
@@ -2630,7 +2636,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B96" s="37">
         <v>187</v>
@@ -2760,7 +2766,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104" s="37">
         <v>187</v>
@@ -2798,7 +2804,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B106" s="37">
         <v>187</v>
@@ -2836,7 +2842,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B108" s="37">
         <v>187</v>
@@ -2874,7 +2880,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B110" s="39">
         <f>4*54</f>
@@ -2917,7 +2923,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B114" s="45">
         <v>187</v>
@@ -3047,7 +3053,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B122" s="45">
         <v>187</v>
@@ -3085,7 +3091,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B124" s="45">
         <v>187</v>
@@ -3123,7 +3129,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B126" s="45">
         <v>187</v>
@@ -3161,7 +3167,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B128" s="47">
         <f>4*54</f>
@@ -3183,10 +3189,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE611228-1758-41E4-B155-B304EF4AAA5B}">
-  <dimension ref="A1:R257"/>
+  <dimension ref="A1:N257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I204" sqref="I204"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="P200" sqref="P200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3231,7 +3237,7 @@
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="51" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -3243,7 +3249,7 @@
       <c r="L2" s="7">
         <v>0</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="49" t="s">
         <v>30</v>
       </c>
       <c r="N2" s="7" t="s">
@@ -3262,7 +3268,7 @@
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
-      <c r="H3" s="67"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
@@ -3272,7 +3278,7 @@
       <c r="L3" s="7">
         <v>1</v>
       </c>
-      <c r="M3" s="66"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3287,9 +3293,9 @@
       <c r="E4" s="50"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
-      <c r="H4" s="67"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>29</v>
@@ -3297,7 +3303,7 @@
       <c r="L4" s="7">
         <v>2</v>
       </c>
-      <c r="M4" s="66"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="7" t="s">
         <v>24</v>
       </c>
@@ -3314,7 +3320,7 @@
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
       <c r="G5" s="50"/>
-      <c r="H5" s="67"/>
+      <c r="H5" s="51"/>
       <c r="I5" s="4"/>
       <c r="K5" s="7" t="s">
         <v>29</v>
@@ -3322,7 +3328,7 @@
       <c r="L5" s="7">
         <v>3</v>
       </c>
-      <c r="M5" s="66"/>
+      <c r="M5" s="49"/>
       <c r="N5" s="7" t="s">
         <v>23</v>
       </c>
@@ -3339,7 +3345,7 @@
       <c r="E6" s="50"/>
       <c r="F6" s="50"/>
       <c r="G6" s="50"/>
-      <c r="H6" s="67"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="4"/>
       <c r="K6" s="7" t="s">
         <v>29</v>
@@ -3347,7 +3353,7 @@
       <c r="L6" s="7">
         <v>4</v>
       </c>
-      <c r="M6" s="66"/>
+      <c r="M6" s="49"/>
       <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -3362,9 +3368,9 @@
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
-      <c r="H7" s="67"/>
+      <c r="H7" s="51"/>
       <c r="I7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>29</v>
@@ -3372,7 +3378,7 @@
       <c r="L7" s="7">
         <v>5</v>
       </c>
-      <c r="M7" s="66"/>
+      <c r="M7" s="49"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -3387,9 +3393,9 @@
       <c r="E8" s="50"/>
       <c r="F8" s="50"/>
       <c r="G8" s="50"/>
-      <c r="H8" s="67"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>29</v>
@@ -3397,7 +3403,7 @@
       <c r="L8" s="7">
         <v>6</v>
       </c>
-      <c r="M8" s="66"/>
+      <c r="M8" s="49"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -3412,9 +3418,9 @@
       <c r="E9" s="50"/>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
-      <c r="H9" s="67"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>29</v>
@@ -3422,7 +3428,7 @@
       <c r="L9" s="7">
         <v>7</v>
       </c>
-      <c r="M9" s="66"/>
+      <c r="M9" s="49"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -3437,9 +3443,9 @@
       <c r="E10" s="50"/>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
-      <c r="H10" s="67"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>29</v>
@@ -3447,7 +3453,7 @@
       <c r="L10" s="7">
         <v>8</v>
       </c>
-      <c r="M10" s="66"/>
+      <c r="M10" s="49"/>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3462,9 +3468,9 @@
       <c r="E11" s="50"/>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
-      <c r="H11" s="67"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>29</v>
@@ -3472,7 +3478,7 @@
       <c r="L11" s="7">
         <v>9</v>
       </c>
-      <c r="M11" s="66"/>
+      <c r="M11" s="49"/>
       <c r="N11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -3487,9 +3493,9 @@
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
-      <c r="H12" s="67"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>29</v>
@@ -3497,7 +3503,7 @@
       <c r="L12" s="7">
         <v>10</v>
       </c>
-      <c r="M12" s="66"/>
+      <c r="M12" s="49"/>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -3512,9 +3518,9 @@
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
-      <c r="H13" s="67"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>29</v>
@@ -3522,7 +3528,7 @@
       <c r="L13" s="7">
         <v>11</v>
       </c>
-      <c r="M13" s="66"/>
+      <c r="M13" s="49"/>
       <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3537,9 +3543,9 @@
       <c r="E14" s="50"/>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="67"/>
+      <c r="H14" s="51"/>
       <c r="I14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>29</v>
@@ -3547,7 +3553,7 @@
       <c r="L14" s="7">
         <v>12</v>
       </c>
-      <c r="M14" s="66"/>
+      <c r="M14" s="49"/>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3562,9 +3568,9 @@
       <c r="E15" s="50"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="67"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>29</v>
@@ -3572,7 +3578,7 @@
       <c r="L15" s="7">
         <v>13</v>
       </c>
-      <c r="M15" s="66"/>
+      <c r="M15" s="49"/>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3587,9 +3593,9 @@
       <c r="E16" s="50"/>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>29</v>
@@ -3597,7 +3603,7 @@
       <c r="L16" s="7">
         <v>14</v>
       </c>
-      <c r="M16" s="66"/>
+      <c r="M16" s="49"/>
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3612,9 +3618,9 @@
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
-      <c r="H17" s="67"/>
+      <c r="H17" s="51"/>
       <c r="I17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>29</v>
@@ -3622,7 +3628,7 @@
       <c r="L17" s="7">
         <v>15</v>
       </c>
-      <c r="M17" s="66"/>
+      <c r="M17" s="49"/>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -3637,9 +3643,9 @@
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="67"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>29</v>
@@ -3647,7 +3653,7 @@
       <c r="L18" s="7">
         <v>16</v>
       </c>
-      <c r="M18" s="66"/>
+      <c r="M18" s="49"/>
       <c r="N18" s="7" t="s">
         <v>25</v>
       </c>
@@ -3664,9 +3670,9 @@
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
-      <c r="H19" s="67"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>29</v>
@@ -3674,7 +3680,7 @@
       <c r="L19" s="7">
         <v>17</v>
       </c>
-      <c r="M19" s="66"/>
+      <c r="M19" s="49"/>
       <c r="N19" s="7" t="s">
         <v>26</v>
       </c>
@@ -3691,9 +3697,9 @@
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
-      <c r="H20" s="67"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>29</v>
@@ -3701,7 +3707,7 @@
       <c r="L20" s="7">
         <v>18</v>
       </c>
-      <c r="M20" s="66"/>
+      <c r="M20" s="49"/>
       <c r="N20" s="7" t="s">
         <v>27</v>
       </c>
@@ -3718,9 +3724,9 @@
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
-      <c r="H21" s="67"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>29</v>
@@ -3728,7 +3734,7 @@
       <c r="L21" s="7">
         <v>19</v>
       </c>
-      <c r="M21" s="66"/>
+      <c r="M21" s="49"/>
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -3743,9 +3749,9 @@
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="67"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>29</v>
@@ -3753,7 +3759,7 @@
       <c r="L22" s="7">
         <v>20</v>
       </c>
-      <c r="M22" s="66"/>
+      <c r="M22" s="49"/>
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -3768,9 +3774,9 @@
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
-      <c r="H23" s="67"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>29</v>
@@ -3778,7 +3784,7 @@
       <c r="L23" s="7">
         <v>21</v>
       </c>
-      <c r="M23" s="66"/>
+      <c r="M23" s="49"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -3793,9 +3799,9 @@
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
-      <c r="H24" s="67"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>29</v>
@@ -3803,7 +3809,7 @@
       <c r="L24" s="7">
         <v>22</v>
       </c>
-      <c r="M24" s="66"/>
+      <c r="M24" s="49"/>
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -3818,9 +3824,9 @@
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="67"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>29</v>
@@ -3828,7 +3834,7 @@
       <c r="L25" s="7">
         <v>23</v>
       </c>
-      <c r="M25" s="66"/>
+      <c r="M25" s="49"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -3843,9 +3849,9 @@
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
-      <c r="H26" s="67"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>29</v>
@@ -3853,7 +3859,7 @@
       <c r="L26" s="7">
         <v>24</v>
       </c>
-      <c r="M26" s="66"/>
+      <c r="M26" s="49"/>
       <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -3868,9 +3874,9 @@
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="67"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>29</v>
@@ -3878,7 +3884,7 @@
       <c r="L27" s="7">
         <v>25</v>
       </c>
-      <c r="M27" s="66"/>
+      <c r="M27" s="49"/>
       <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -3893,9 +3899,9 @@
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
-      <c r="H28" s="67"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>29</v>
@@ -3903,7 +3909,7 @@
       <c r="L28" s="7">
         <v>26</v>
       </c>
-      <c r="M28" s="66"/>
+      <c r="M28" s="49"/>
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -3918,9 +3924,9 @@
       <c r="E29" s="50"/>
       <c r="F29" s="50"/>
       <c r="G29" s="50"/>
-      <c r="H29" s="67"/>
+      <c r="H29" s="51"/>
       <c r="I29" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>29</v>
@@ -3928,7 +3934,7 @@
       <c r="L29" s="7">
         <v>27</v>
       </c>
-      <c r="M29" s="66"/>
+      <c r="M29" s="49"/>
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -3943,9 +3949,9 @@
       <c r="E30" s="50"/>
       <c r="F30" s="50"/>
       <c r="G30" s="50"/>
-      <c r="H30" s="67"/>
+      <c r="H30" s="51"/>
       <c r="I30" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>29</v>
@@ -3953,7 +3959,7 @@
       <c r="L30" s="7">
         <v>28</v>
       </c>
-      <c r="M30" s="66"/>
+      <c r="M30" s="49"/>
       <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -3968,9 +3974,9 @@
       <c r="E31" s="50"/>
       <c r="F31" s="50"/>
       <c r="G31" s="50"/>
-      <c r="H31" s="67"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>29</v>
@@ -3978,7 +3984,7 @@
       <c r="L31" s="7">
         <v>29</v>
       </c>
-      <c r="M31" s="66"/>
+      <c r="M31" s="49"/>
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -3993,9 +3999,9 @@
       <c r="E32" s="50"/>
       <c r="F32" s="50"/>
       <c r="G32" s="50"/>
-      <c r="H32" s="67"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>29</v>
@@ -4003,7 +4009,7 @@
       <c r="L32" s="7">
         <v>30</v>
       </c>
-      <c r="M32" s="66"/>
+      <c r="M32" s="49"/>
       <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -4018,9 +4024,9 @@
       <c r="E33" s="50"/>
       <c r="F33" s="50"/>
       <c r="G33" s="50"/>
-      <c r="H33" s="67"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>29</v>
@@ -4028,7 +4034,7 @@
       <c r="L33" s="7">
         <v>31</v>
       </c>
-      <c r="M33" s="66"/>
+      <c r="M33" s="49"/>
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -4043,9 +4049,9 @@
       <c r="E34" s="50"/>
       <c r="F34" s="50"/>
       <c r="G34" s="50"/>
-      <c r="H34" s="67"/>
+      <c r="H34" s="51"/>
       <c r="I34" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>29</v>
@@ -4053,7 +4059,7 @@
       <c r="L34" s="7">
         <v>32</v>
       </c>
-      <c r="M34" s="66"/>
+      <c r="M34" s="49"/>
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -4068,9 +4074,9 @@
       <c r="E35" s="50"/>
       <c r="F35" s="50"/>
       <c r="G35" s="50"/>
-      <c r="H35" s="67"/>
+      <c r="H35" s="51"/>
       <c r="I35" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>29</v>
@@ -4078,7 +4084,7 @@
       <c r="L35" s="7">
         <v>33</v>
       </c>
-      <c r="M35" s="66"/>
+      <c r="M35" s="49"/>
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -4093,9 +4099,9 @@
       <c r="E36" s="50"/>
       <c r="F36" s="50"/>
       <c r="G36" s="50"/>
-      <c r="H36" s="67"/>
+      <c r="H36" s="51"/>
       <c r="I36" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>29</v>
@@ -4103,7 +4109,7 @@
       <c r="L36" s="7">
         <v>34</v>
       </c>
-      <c r="M36" s="66"/>
+      <c r="M36" s="49"/>
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -4118,9 +4124,9 @@
       <c r="E37" s="50"/>
       <c r="F37" s="50"/>
       <c r="G37" s="50"/>
-      <c r="H37" s="67"/>
+      <c r="H37" s="51"/>
       <c r="I37" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>29</v>
@@ -4128,7 +4134,7 @@
       <c r="L37" s="7">
         <v>35</v>
       </c>
-      <c r="M37" s="66"/>
+      <c r="M37" s="49"/>
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -4143,9 +4149,9 @@
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
       <c r="G38" s="50"/>
-      <c r="H38" s="67"/>
+      <c r="H38" s="51"/>
       <c r="I38" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>29</v>
@@ -4153,7 +4159,7 @@
       <c r="L38" s="7">
         <v>36</v>
       </c>
-      <c r="M38" s="66"/>
+      <c r="M38" s="49"/>
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -4168,9 +4174,9 @@
       <c r="E39" s="50"/>
       <c r="F39" s="50"/>
       <c r="G39" s="50"/>
-      <c r="H39" s="67"/>
+      <c r="H39" s="51"/>
       <c r="I39" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>29</v>
@@ -4178,7 +4184,7 @@
       <c r="L39" s="7">
         <v>37</v>
       </c>
-      <c r="M39" s="66"/>
+      <c r="M39" s="49"/>
       <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -4193,9 +4199,9 @@
       <c r="E40" s="50"/>
       <c r="F40" s="50"/>
       <c r="G40" s="50"/>
-      <c r="H40" s="67"/>
+      <c r="H40" s="51"/>
       <c r="I40" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>29</v>
@@ -4203,7 +4209,7 @@
       <c r="L40" s="7">
         <v>38</v>
       </c>
-      <c r="M40" s="66"/>
+      <c r="M40" s="49"/>
       <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -4218,9 +4224,9 @@
       <c r="E41" s="50"/>
       <c r="F41" s="50"/>
       <c r="G41" s="50"/>
-      <c r="H41" s="67"/>
+      <c r="H41" s="51"/>
       <c r="I41" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>29</v>
@@ -4228,7 +4234,7 @@
       <c r="L41" s="7">
         <v>39</v>
       </c>
-      <c r="M41" s="66"/>
+      <c r="M41" s="49"/>
       <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -4243,9 +4249,9 @@
       <c r="E42" s="50"/>
       <c r="F42" s="50"/>
       <c r="G42" s="50"/>
-      <c r="H42" s="67"/>
+      <c r="H42" s="51"/>
       <c r="I42" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>29</v>
@@ -4253,7 +4259,7 @@
       <c r="L42" s="7">
         <v>40</v>
       </c>
-      <c r="M42" s="66"/>
+      <c r="M42" s="49"/>
       <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -4268,9 +4274,9 @@
       <c r="E43" s="50"/>
       <c r="F43" s="50"/>
       <c r="G43" s="50"/>
-      <c r="H43" s="67"/>
+      <c r="H43" s="51"/>
       <c r="I43" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>29</v>
@@ -4278,7 +4284,7 @@
       <c r="L43" s="7">
         <v>41</v>
       </c>
-      <c r="M43" s="66"/>
+      <c r="M43" s="49"/>
       <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -4293,9 +4299,9 @@
       <c r="E44" s="50"/>
       <c r="F44" s="50"/>
       <c r="G44" s="50"/>
-      <c r="H44" s="67"/>
+      <c r="H44" s="51"/>
       <c r="I44" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>29</v>
@@ -4303,7 +4309,7 @@
       <c r="L44" s="7">
         <v>42</v>
       </c>
-      <c r="M44" s="66"/>
+      <c r="M44" s="49"/>
       <c r="N44" s="7"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -4318,9 +4324,9 @@
       <c r="E45" s="50"/>
       <c r="F45" s="50"/>
       <c r="G45" s="50"/>
-      <c r="H45" s="67"/>
+      <c r="H45" s="51"/>
       <c r="I45" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>29</v>
@@ -4328,7 +4334,7 @@
       <c r="L45" s="7">
         <v>43</v>
       </c>
-      <c r="M45" s="66"/>
+      <c r="M45" s="49"/>
       <c r="N45" s="7"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -4343,9 +4349,9 @@
       <c r="E46" s="50"/>
       <c r="F46" s="50"/>
       <c r="G46" s="50"/>
-      <c r="H46" s="67"/>
+      <c r="H46" s="51"/>
       <c r="I46" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>29</v>
@@ -4353,7 +4359,7 @@
       <c r="L46" s="7">
         <v>44</v>
       </c>
-      <c r="M46" s="66"/>
+      <c r="M46" s="49"/>
       <c r="N46" s="7" t="s">
         <v>31</v>
       </c>
@@ -4370,9 +4376,9 @@
       <c r="E47" s="50"/>
       <c r="F47" s="50"/>
       <c r="G47" s="50"/>
-      <c r="H47" s="67"/>
+      <c r="H47" s="51"/>
       <c r="I47" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>29</v>
@@ -4380,7 +4386,7 @@
       <c r="L47" s="7">
         <v>45</v>
       </c>
-      <c r="M47" s="66"/>
+      <c r="M47" s="49"/>
       <c r="N47" s="7"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -4395,9 +4401,9 @@
       <c r="E48" s="50"/>
       <c r="F48" s="50"/>
       <c r="G48" s="50"/>
-      <c r="H48" s="67"/>
+      <c r="H48" s="51"/>
       <c r="I48" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>29</v>
@@ -4405,7 +4411,7 @@
       <c r="L48" s="7">
         <v>46</v>
       </c>
-      <c r="M48" s="66"/>
+      <c r="M48" s="49"/>
       <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -4420,9 +4426,9 @@
       <c r="E49" s="50"/>
       <c r="F49" s="50"/>
       <c r="G49" s="50"/>
-      <c r="H49" s="67"/>
+      <c r="H49" s="51"/>
       <c r="I49" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>29</v>
@@ -4430,7 +4436,7 @@
       <c r="L49" s="7">
         <v>47</v>
       </c>
-      <c r="M49" s="66"/>
+      <c r="M49" s="49"/>
       <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -4445,9 +4451,9 @@
       <c r="E50" s="50"/>
       <c r="F50" s="50"/>
       <c r="G50" s="50"/>
-      <c r="H50" s="67"/>
+      <c r="H50" s="51"/>
       <c r="I50" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>29</v>
@@ -4455,7 +4461,7 @@
       <c r="L50" s="7">
         <v>48</v>
       </c>
-      <c r="M50" s="66"/>
+      <c r="M50" s="49"/>
       <c r="N50" s="7"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -4470,9 +4476,9 @@
       <c r="E51" s="50"/>
       <c r="F51" s="50"/>
       <c r="G51" s="50"/>
-      <c r="H51" s="67"/>
+      <c r="H51" s="51"/>
       <c r="I51" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>29</v>
@@ -4480,7 +4486,7 @@
       <c r="L51" s="7">
         <v>49</v>
       </c>
-      <c r="M51" s="66"/>
+      <c r="M51" s="49"/>
       <c r="N51" s="7"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -4495,9 +4501,9 @@
       <c r="E52" s="50"/>
       <c r="F52" s="50"/>
       <c r="G52" s="50"/>
-      <c r="H52" s="67"/>
+      <c r="H52" s="51"/>
       <c r="I52" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>29</v>
@@ -4505,7 +4511,7 @@
       <c r="L52" s="7">
         <v>50</v>
       </c>
-      <c r="M52" s="66"/>
+      <c r="M52" s="49"/>
       <c r="N52" s="7"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -4520,9 +4526,9 @@
       <c r="E53" s="50"/>
       <c r="F53" s="50"/>
       <c r="G53" s="50"/>
-      <c r="H53" s="67"/>
+      <c r="H53" s="51"/>
       <c r="I53" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>29</v>
@@ -4530,7 +4536,7 @@
       <c r="L53" s="7">
         <v>51</v>
       </c>
-      <c r="M53" s="66"/>
+      <c r="M53" s="49"/>
       <c r="N53" s="7"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -4545,9 +4551,9 @@
       <c r="E54" s="50"/>
       <c r="F54" s="50"/>
       <c r="G54" s="50"/>
-      <c r="H54" s="67"/>
+      <c r="H54" s="51"/>
       <c r="I54" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>29</v>
@@ -4555,7 +4561,7 @@
       <c r="L54" s="7">
         <v>52</v>
       </c>
-      <c r="M54" s="66"/>
+      <c r="M54" s="49"/>
       <c r="N54" s="7"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -4570,9 +4576,9 @@
       <c r="E55" s="50"/>
       <c r="F55" s="50"/>
       <c r="G55" s="50"/>
-      <c r="H55" s="67"/>
+      <c r="H55" s="51"/>
       <c r="I55" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>29</v>
@@ -4580,7 +4586,7 @@
       <c r="L55" s="7">
         <v>53</v>
       </c>
-      <c r="M55" s="66"/>
+      <c r="M55" s="49"/>
       <c r="N55" s="7"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -4595,9 +4601,9 @@
       <c r="E56" s="50"/>
       <c r="F56" s="50"/>
       <c r="G56" s="50"/>
-      <c r="H56" s="67"/>
+      <c r="H56" s="51"/>
       <c r="I56" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>29</v>
@@ -4605,7 +4611,7 @@
       <c r="L56" s="7">
         <v>54</v>
       </c>
-      <c r="M56" s="66"/>
+      <c r="M56" s="49"/>
       <c r="N56" s="7"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -4620,9 +4626,9 @@
       <c r="E57" s="50"/>
       <c r="F57" s="50"/>
       <c r="G57" s="50"/>
-      <c r="H57" s="67"/>
+      <c r="H57" s="51"/>
       <c r="I57" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>29</v>
@@ -4630,7 +4636,7 @@
       <c r="L57" s="7">
         <v>55</v>
       </c>
-      <c r="M57" s="66"/>
+      <c r="M57" s="49"/>
       <c r="N57" s="7"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -4645,9 +4651,9 @@
       <c r="E58" s="50"/>
       <c r="F58" s="50"/>
       <c r="G58" s="50"/>
-      <c r="H58" s="67"/>
+      <c r="H58" s="51"/>
       <c r="I58" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>29</v>
@@ -4655,7 +4661,7 @@
       <c r="L58" s="7">
         <v>56</v>
       </c>
-      <c r="M58" s="66"/>
+      <c r="M58" s="49"/>
       <c r="N58" s="7"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -4670,9 +4676,9 @@
       <c r="E59" s="50"/>
       <c r="F59" s="50"/>
       <c r="G59" s="50"/>
-      <c r="H59" s="67"/>
+      <c r="H59" s="51"/>
       <c r="I59" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>29</v>
@@ -4680,7 +4686,7 @@
       <c r="L59" s="7">
         <v>57</v>
       </c>
-      <c r="M59" s="66"/>
+      <c r="M59" s="49"/>
       <c r="N59" s="7"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -4695,9 +4701,9 @@
       <c r="E60" s="50"/>
       <c r="F60" s="50"/>
       <c r="G60" s="50"/>
-      <c r="H60" s="67"/>
+      <c r="H60" s="51"/>
       <c r="I60" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>29</v>
@@ -4705,7 +4711,7 @@
       <c r="L60" s="7">
         <v>58</v>
       </c>
-      <c r="M60" s="66"/>
+      <c r="M60" s="49"/>
       <c r="N60" s="7"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -4720,9 +4726,9 @@
       <c r="E61" s="50"/>
       <c r="F61" s="50"/>
       <c r="G61" s="50"/>
-      <c r="H61" s="67"/>
+      <c r="H61" s="51"/>
       <c r="I61" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>29</v>
@@ -4730,7 +4736,7 @@
       <c r="L61" s="7">
         <v>59</v>
       </c>
-      <c r="M61" s="66"/>
+      <c r="M61" s="49"/>
       <c r="N61" s="7"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -4745,9 +4751,9 @@
       <c r="E62" s="50"/>
       <c r="F62" s="50"/>
       <c r="G62" s="50"/>
-      <c r="H62" s="67"/>
+      <c r="H62" s="51"/>
       <c r="I62" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>29</v>
@@ -4755,7 +4761,7 @@
       <c r="L62" s="7">
         <v>60</v>
       </c>
-      <c r="M62" s="66"/>
+      <c r="M62" s="49"/>
       <c r="N62" s="7"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -4770,9 +4776,9 @@
       <c r="E63" s="50"/>
       <c r="F63" s="50"/>
       <c r="G63" s="50"/>
-      <c r="H63" s="67"/>
+      <c r="H63" s="51"/>
       <c r="I63" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>29</v>
@@ -4780,7 +4786,7 @@
       <c r="L63" s="7">
         <v>61</v>
       </c>
-      <c r="M63" s="66"/>
+      <c r="M63" s="49"/>
       <c r="N63" s="7"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -4795,9 +4801,9 @@
       <c r="E64" s="50"/>
       <c r="F64" s="50"/>
       <c r="G64" s="50"/>
-      <c r="H64" s="67"/>
+      <c r="H64" s="51"/>
       <c r="I64" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>29</v>
@@ -4805,7 +4811,7 @@
       <c r="L64" s="7">
         <v>62</v>
       </c>
-      <c r="M64" s="66"/>
+      <c r="M64" s="49"/>
       <c r="N64" s="7"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -4820,9 +4826,9 @@
       <c r="E65" s="50"/>
       <c r="F65" s="50"/>
       <c r="G65" s="50"/>
-      <c r="H65" s="67"/>
+      <c r="H65" s="51"/>
       <c r="I65" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>29</v>
@@ -4830,7 +4836,7 @@
       <c r="L65" s="7">
         <v>63</v>
       </c>
-      <c r="M65" s="66"/>
+      <c r="M65" s="49"/>
       <c r="N65" s="7"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -4845,9 +4851,9 @@
       <c r="E66" s="50"/>
       <c r="F66" s="50"/>
       <c r="G66" s="50"/>
-      <c r="H66" s="67"/>
+      <c r="H66" s="51"/>
       <c r="I66" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>29</v>
@@ -4855,7 +4861,7 @@
       <c r="L66" s="7">
         <v>64</v>
       </c>
-      <c r="M66" s="66"/>
+      <c r="M66" s="49"/>
       <c r="N66" s="7"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -4870,9 +4876,9 @@
       <c r="E67" s="50"/>
       <c r="F67" s="50"/>
       <c r="G67" s="50"/>
-      <c r="H67" s="67"/>
+      <c r="H67" s="51"/>
       <c r="I67" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>29</v>
@@ -4880,7 +4886,7 @@
       <c r="L67" s="7">
         <v>65</v>
       </c>
-      <c r="M67" s="66"/>
+      <c r="M67" s="49"/>
       <c r="N67" s="7"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -4895,9 +4901,9 @@
       <c r="E68" s="50"/>
       <c r="F68" s="50"/>
       <c r="G68" s="50"/>
-      <c r="H68" s="67"/>
+      <c r="H68" s="51"/>
       <c r="I68" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>29</v>
@@ -4905,7 +4911,7 @@
       <c r="L68" s="7">
         <v>66</v>
       </c>
-      <c r="M68" s="66"/>
+      <c r="M68" s="49"/>
       <c r="N68" s="7"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -4920,9 +4926,9 @@
       <c r="E69" s="50"/>
       <c r="F69" s="50"/>
       <c r="G69" s="50"/>
-      <c r="H69" s="67"/>
+      <c r="H69" s="51"/>
       <c r="I69" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>29</v>
@@ -4930,7 +4936,7 @@
       <c r="L69" s="7">
         <v>67</v>
       </c>
-      <c r="M69" s="66"/>
+      <c r="M69" s="49"/>
       <c r="N69" s="7"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -4945,9 +4951,9 @@
       <c r="E70" s="50"/>
       <c r="F70" s="50"/>
       <c r="G70" s="50"/>
-      <c r="H70" s="67"/>
+      <c r="H70" s="51"/>
       <c r="I70" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>29</v>
@@ -4955,7 +4961,7 @@
       <c r="L70" s="7">
         <v>68</v>
       </c>
-      <c r="M70" s="66"/>
+      <c r="M70" s="49"/>
       <c r="N70" s="7"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -4970,9 +4976,9 @@
       <c r="E71" s="50"/>
       <c r="F71" s="50"/>
       <c r="G71" s="50"/>
-      <c r="H71" s="67"/>
+      <c r="H71" s="51"/>
       <c r="I71" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>29</v>
@@ -4980,7 +4986,7 @@
       <c r="L71" s="7">
         <v>69</v>
       </c>
-      <c r="M71" s="66"/>
+      <c r="M71" s="49"/>
       <c r="N71" s="7"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -4995,9 +5001,9 @@
       <c r="E72" s="50"/>
       <c r="F72" s="50"/>
       <c r="G72" s="50"/>
-      <c r="H72" s="67"/>
+      <c r="H72" s="51"/>
       <c r="I72" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>29</v>
@@ -5005,7 +5011,7 @@
       <c r="L72" s="7">
         <v>70</v>
       </c>
-      <c r="M72" s="66"/>
+      <c r="M72" s="49"/>
       <c r="N72" s="7"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -5020,7 +5026,7 @@
       <c r="E73" s="50"/>
       <c r="F73" s="50"/>
       <c r="G73" s="50"/>
-      <c r="H73" s="67"/>
+      <c r="H73" s="51"/>
       <c r="I73" s="4"/>
       <c r="K73" s="7" t="s">
         <v>29</v>
@@ -5028,7 +5034,7 @@
       <c r="L73" s="7">
         <v>71</v>
       </c>
-      <c r="M73" s="66"/>
+      <c r="M73" s="49"/>
       <c r="N73" s="7"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -5043,7 +5049,7 @@
       <c r="E74" s="50"/>
       <c r="F74" s="50"/>
       <c r="G74" s="50"/>
-      <c r="H74" s="67"/>
+      <c r="H74" s="51"/>
       <c r="I74" s="4"/>
       <c r="K74" s="7" t="s">
         <v>29</v>
@@ -5051,7 +5057,7 @@
       <c r="L74" s="7">
         <v>72</v>
       </c>
-      <c r="M74" s="66"/>
+      <c r="M74" s="49"/>
       <c r="N74" s="7"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -5066,7 +5072,7 @@
       <c r="E75" s="50"/>
       <c r="F75" s="50"/>
       <c r="G75" s="50"/>
-      <c r="H75" s="67"/>
+      <c r="H75" s="51"/>
       <c r="I75" s="4"/>
       <c r="K75" s="7" t="s">
         <v>29</v>
@@ -5074,7 +5080,7 @@
       <c r="L75" s="7">
         <v>73</v>
       </c>
-      <c r="M75" s="66"/>
+      <c r="M75" s="49"/>
       <c r="N75" s="7"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -5089,7 +5095,7 @@
       <c r="E76" s="50"/>
       <c r="F76" s="50"/>
       <c r="G76" s="50"/>
-      <c r="H76" s="67"/>
+      <c r="H76" s="51"/>
       <c r="I76" s="4"/>
       <c r="K76" s="7" t="s">
         <v>29</v>
@@ -5097,7 +5103,7 @@
       <c r="L76" s="7">
         <v>74</v>
       </c>
-      <c r="M76" s="66"/>
+      <c r="M76" s="49"/>
       <c r="N76" s="7"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -5112,7 +5118,7 @@
       <c r="E77" s="50"/>
       <c r="F77" s="50"/>
       <c r="G77" s="50"/>
-      <c r="H77" s="67"/>
+      <c r="H77" s="51"/>
       <c r="I77" s="4"/>
       <c r="K77" s="7" t="s">
         <v>29</v>
@@ -5120,7 +5126,7 @@
       <c r="L77" s="7">
         <v>75</v>
       </c>
-      <c r="M77" s="66"/>
+      <c r="M77" s="49"/>
       <c r="N77" s="7"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -5135,7 +5141,7 @@
       <c r="E78" s="50"/>
       <c r="F78" s="50"/>
       <c r="G78" s="50"/>
-      <c r="H78" s="67"/>
+      <c r="H78" s="51"/>
       <c r="I78" s="4"/>
       <c r="K78" s="7" t="s">
         <v>29</v>
@@ -5143,7 +5149,7 @@
       <c r="L78" s="7">
         <v>76</v>
       </c>
-      <c r="M78" s="66"/>
+      <c r="M78" s="49"/>
       <c r="N78" s="7"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -5158,7 +5164,7 @@
       <c r="E79" s="50"/>
       <c r="F79" s="50"/>
       <c r="G79" s="50"/>
-      <c r="H79" s="67"/>
+      <c r="H79" s="51"/>
       <c r="I79" s="4"/>
       <c r="K79" s="7" t="s">
         <v>29</v>
@@ -5166,7 +5172,7 @@
       <c r="L79" s="7">
         <v>77</v>
       </c>
-      <c r="M79" s="66"/>
+      <c r="M79" s="49"/>
       <c r="N79" s="7"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -5181,7 +5187,7 @@
       <c r="E80" s="50"/>
       <c r="F80" s="50"/>
       <c r="G80" s="50"/>
-      <c r="H80" s="67"/>
+      <c r="H80" s="51"/>
       <c r="I80" s="4"/>
       <c r="K80" s="7" t="s">
         <v>29</v>
@@ -5189,7 +5195,7 @@
       <c r="L80" s="7">
         <v>78</v>
       </c>
-      <c r="M80" s="66"/>
+      <c r="M80" s="49"/>
       <c r="N80" s="7"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -5204,7 +5210,7 @@
       <c r="E81" s="50"/>
       <c r="F81" s="50"/>
       <c r="G81" s="50"/>
-      <c r="H81" s="67"/>
+      <c r="H81" s="51"/>
       <c r="I81" s="4"/>
       <c r="K81" s="7" t="s">
         <v>29</v>
@@ -5212,7 +5218,7 @@
       <c r="L81" s="7">
         <v>79</v>
       </c>
-      <c r="M81" s="66"/>
+      <c r="M81" s="49"/>
       <c r="N81" s="7"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -5227,7 +5233,7 @@
       <c r="E82" s="50"/>
       <c r="F82" s="50"/>
       <c r="G82" s="50"/>
-      <c r="H82" s="67"/>
+      <c r="H82" s="51"/>
       <c r="I82" s="4"/>
       <c r="K82" s="7" t="s">
         <v>29</v>
@@ -5235,7 +5241,7 @@
       <c r="L82" s="7">
         <v>80</v>
       </c>
-      <c r="M82" s="66"/>
+      <c r="M82" s="49"/>
       <c r="N82" s="7"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -5250,7 +5256,7 @@
       <c r="E83" s="50"/>
       <c r="F83" s="50"/>
       <c r="G83" s="50"/>
-      <c r="H83" s="67"/>
+      <c r="H83" s="51"/>
       <c r="I83" s="4"/>
       <c r="K83" s="7" t="s">
         <v>29</v>
@@ -5258,7 +5264,7 @@
       <c r="L83" s="7">
         <v>81</v>
       </c>
-      <c r="M83" s="66"/>
+      <c r="M83" s="49"/>
       <c r="N83" s="7"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -5273,7 +5279,7 @@
       <c r="E84" s="50"/>
       <c r="F84" s="50"/>
       <c r="G84" s="50"/>
-      <c r="H84" s="67"/>
+      <c r="H84" s="51"/>
       <c r="I84" s="4"/>
       <c r="K84" s="7" t="s">
         <v>29</v>
@@ -5281,7 +5287,7 @@
       <c r="L84" s="7">
         <v>82</v>
       </c>
-      <c r="M84" s="66"/>
+      <c r="M84" s="49"/>
       <c r="N84" s="7"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -5296,7 +5302,7 @@
       <c r="E85" s="50"/>
       <c r="F85" s="50"/>
       <c r="G85" s="50"/>
-      <c r="H85" s="67"/>
+      <c r="H85" s="51"/>
       <c r="I85" s="4"/>
       <c r="K85" s="7" t="s">
         <v>29</v>
@@ -5304,7 +5310,7 @@
       <c r="L85" s="7">
         <v>83</v>
       </c>
-      <c r="M85" s="66"/>
+      <c r="M85" s="49"/>
       <c r="N85" s="7"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -5319,7 +5325,7 @@
       <c r="E86" s="50"/>
       <c r="F86" s="50"/>
       <c r="G86" s="50"/>
-      <c r="H86" s="67"/>
+      <c r="H86" s="51"/>
       <c r="I86" s="4"/>
       <c r="K86" s="7" t="s">
         <v>29</v>
@@ -5327,7 +5333,7 @@
       <c r="L86" s="7">
         <v>84</v>
       </c>
-      <c r="M86" s="66"/>
+      <c r="M86" s="49"/>
       <c r="N86" s="7"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -5342,7 +5348,7 @@
       <c r="E87" s="50"/>
       <c r="F87" s="50"/>
       <c r="G87" s="50"/>
-      <c r="H87" s="67"/>
+      <c r="H87" s="51"/>
       <c r="I87" s="4"/>
       <c r="K87" s="7" t="s">
         <v>29</v>
@@ -5350,7 +5356,7 @@
       <c r="L87" s="7">
         <v>85</v>
       </c>
-      <c r="M87" s="66"/>
+      <c r="M87" s="49"/>
       <c r="N87" s="7"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -5365,7 +5371,7 @@
       <c r="E88" s="50"/>
       <c r="F88" s="50"/>
       <c r="G88" s="50"/>
-      <c r="H88" s="67"/>
+      <c r="H88" s="51"/>
       <c r="I88" s="4"/>
       <c r="K88" s="7" t="s">
         <v>29</v>
@@ -5373,7 +5379,7 @@
       <c r="L88" s="7">
         <v>86</v>
       </c>
-      <c r="M88" s="66"/>
+      <c r="M88" s="49"/>
       <c r="N88" s="7"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -5388,7 +5394,7 @@
       <c r="E89" s="50"/>
       <c r="F89" s="50"/>
       <c r="G89" s="50"/>
-      <c r="H89" s="67"/>
+      <c r="H89" s="51"/>
       <c r="I89" s="4"/>
       <c r="K89" s="7" t="s">
         <v>29</v>
@@ -5396,7 +5402,7 @@
       <c r="L89" s="7">
         <v>87</v>
       </c>
-      <c r="M89" s="66"/>
+      <c r="M89" s="49"/>
       <c r="N89" s="7"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -5411,7 +5417,7 @@
       <c r="E90" s="50"/>
       <c r="F90" s="50"/>
       <c r="G90" s="50"/>
-      <c r="H90" s="67"/>
+      <c r="H90" s="51"/>
       <c r="I90" s="4"/>
       <c r="K90" s="7" t="s">
         <v>29</v>
@@ -5419,7 +5425,7 @@
       <c r="L90" s="7">
         <v>88</v>
       </c>
-      <c r="M90" s="66"/>
+      <c r="M90" s="49"/>
       <c r="N90" s="7"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -5434,7 +5440,7 @@
       <c r="E91" s="50"/>
       <c r="F91" s="50"/>
       <c r="G91" s="50"/>
-      <c r="H91" s="67"/>
+      <c r="H91" s="51"/>
       <c r="I91" s="4"/>
       <c r="K91" s="7" t="s">
         <v>29</v>
@@ -5442,7 +5448,7 @@
       <c r="L91" s="7">
         <v>89</v>
       </c>
-      <c r="M91" s="66"/>
+      <c r="M91" s="49"/>
       <c r="N91" s="7"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -5457,7 +5463,7 @@
       <c r="E92" s="50"/>
       <c r="F92" s="50"/>
       <c r="G92" s="50"/>
-      <c r="H92" s="67"/>
+      <c r="H92" s="51"/>
       <c r="I92" s="4"/>
       <c r="K92" s="7" t="s">
         <v>29</v>
@@ -5465,7 +5471,7 @@
       <c r="L92" s="7">
         <v>90</v>
       </c>
-      <c r="M92" s="66"/>
+      <c r="M92" s="49"/>
       <c r="N92" s="7"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -5480,7 +5486,7 @@
       <c r="E93" s="50"/>
       <c r="F93" s="50"/>
       <c r="G93" s="50"/>
-      <c r="H93" s="67"/>
+      <c r="H93" s="51"/>
       <c r="I93" s="4"/>
       <c r="K93" s="7" t="s">
         <v>29</v>
@@ -5488,7 +5494,7 @@
       <c r="L93" s="7">
         <v>91</v>
       </c>
-      <c r="M93" s="66"/>
+      <c r="M93" s="49"/>
       <c r="N93" s="7"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -5503,7 +5509,7 @@
       <c r="E94" s="50"/>
       <c r="F94" s="50"/>
       <c r="G94" s="50"/>
-      <c r="H94" s="67"/>
+      <c r="H94" s="51"/>
       <c r="I94" s="4"/>
       <c r="K94" s="7" t="s">
         <v>29</v>
@@ -5511,7 +5517,7 @@
       <c r="L94" s="7">
         <v>92</v>
       </c>
-      <c r="M94" s="66"/>
+      <c r="M94" s="49"/>
       <c r="N94" s="7"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -5526,7 +5532,7 @@
       <c r="E95" s="50"/>
       <c r="F95" s="50"/>
       <c r="G95" s="50"/>
-      <c r="H95" s="67"/>
+      <c r="H95" s="51"/>
       <c r="I95" s="4"/>
       <c r="K95" s="7" t="s">
         <v>29</v>
@@ -5534,7 +5540,7 @@
       <c r="L95" s="7">
         <v>93</v>
       </c>
-      <c r="M95" s="66"/>
+      <c r="M95" s="49"/>
       <c r="N95" s="7"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -5549,7 +5555,7 @@
       <c r="E96" s="50"/>
       <c r="F96" s="50"/>
       <c r="G96" s="50"/>
-      <c r="H96" s="67"/>
+      <c r="H96" s="51"/>
       <c r="I96" s="4"/>
       <c r="K96" s="7" t="s">
         <v>29</v>
@@ -5557,7 +5563,7 @@
       <c r="L96" s="7">
         <v>94</v>
       </c>
-      <c r="M96" s="66"/>
+      <c r="M96" s="49"/>
       <c r="N96" s="7"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -5572,7 +5578,7 @@
       <c r="E97" s="50"/>
       <c r="F97" s="50"/>
       <c r="G97" s="50"/>
-      <c r="H97" s="67"/>
+      <c r="H97" s="51"/>
       <c r="I97" s="4"/>
       <c r="K97" s="7" t="s">
         <v>29</v>
@@ -5580,7 +5586,7 @@
       <c r="L97" s="7">
         <v>95</v>
       </c>
-      <c r="M97" s="66"/>
+      <c r="M97" s="49"/>
       <c r="N97" s="7"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -5595,7 +5601,7 @@
       <c r="E98" s="50"/>
       <c r="F98" s="50"/>
       <c r="G98" s="50"/>
-      <c r="H98" s="67"/>
+      <c r="H98" s="51"/>
       <c r="I98" s="4"/>
       <c r="K98" s="7" t="s">
         <v>29</v>
@@ -5603,7 +5609,7 @@
       <c r="L98" s="7">
         <v>96</v>
       </c>
-      <c r="M98" s="66"/>
+      <c r="M98" s="49"/>
       <c r="N98" s="7"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -5618,7 +5624,7 @@
       <c r="E99" s="50"/>
       <c r="F99" s="50"/>
       <c r="G99" s="50"/>
-      <c r="H99" s="67"/>
+      <c r="H99" s="51"/>
       <c r="I99" s="4"/>
       <c r="K99" s="7" t="s">
         <v>29</v>
@@ -5626,7 +5632,7 @@
       <c r="L99" s="7">
         <v>97</v>
       </c>
-      <c r="M99" s="66"/>
+      <c r="M99" s="49"/>
       <c r="N99" s="7"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -5641,7 +5647,7 @@
       <c r="E100" s="50"/>
       <c r="F100" s="50"/>
       <c r="G100" s="50"/>
-      <c r="H100" s="67"/>
+      <c r="H100" s="51"/>
       <c r="I100" s="4"/>
       <c r="K100" s="7" t="s">
         <v>29</v>
@@ -5649,7 +5655,7 @@
       <c r="L100" s="7">
         <v>98</v>
       </c>
-      <c r="M100" s="66"/>
+      <c r="M100" s="49"/>
       <c r="N100" s="7"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -5664,7 +5670,7 @@
       <c r="E101" s="50"/>
       <c r="F101" s="50"/>
       <c r="G101" s="50"/>
-      <c r="H101" s="67"/>
+      <c r="H101" s="51"/>
       <c r="I101" s="4"/>
       <c r="K101" s="7" t="s">
         <v>29</v>
@@ -5672,7 +5678,7 @@
       <c r="L101" s="7">
         <v>99</v>
       </c>
-      <c r="M101" s="66"/>
+      <c r="M101" s="49"/>
       <c r="N101" s="7"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -5687,7 +5693,7 @@
       <c r="E102" s="50"/>
       <c r="F102" s="50"/>
       <c r="G102" s="50"/>
-      <c r="H102" s="67"/>
+      <c r="H102" s="51"/>
       <c r="I102" s="4"/>
       <c r="K102" s="7" t="s">
         <v>29</v>
@@ -5695,7 +5701,7 @@
       <c r="L102" s="7">
         <v>100</v>
       </c>
-      <c r="M102" s="66"/>
+      <c r="M102" s="49"/>
       <c r="N102" s="7"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -5710,7 +5716,7 @@
       <c r="E103" s="50"/>
       <c r="F103" s="50"/>
       <c r="G103" s="50"/>
-      <c r="H103" s="67"/>
+      <c r="H103" s="51"/>
       <c r="I103" s="4"/>
       <c r="K103" s="7" t="s">
         <v>29</v>
@@ -5718,7 +5724,7 @@
       <c r="L103" s="7">
         <v>101</v>
       </c>
-      <c r="M103" s="66"/>
+      <c r="M103" s="49"/>
       <c r="N103" s="7"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -5733,7 +5739,7 @@
       <c r="E104" s="50"/>
       <c r="F104" s="50"/>
       <c r="G104" s="50"/>
-      <c r="H104" s="67"/>
+      <c r="H104" s="51"/>
       <c r="I104" s="4"/>
       <c r="K104" s="7" t="s">
         <v>29</v>
@@ -5741,7 +5747,7 @@
       <c r="L104" s="7">
         <v>102</v>
       </c>
-      <c r="M104" s="66"/>
+      <c r="M104" s="49"/>
       <c r="N104" s="7"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -5756,7 +5762,7 @@
       <c r="E105" s="50"/>
       <c r="F105" s="50"/>
       <c r="G105" s="50"/>
-      <c r="H105" s="67"/>
+      <c r="H105" s="51"/>
       <c r="I105" s="4"/>
       <c r="K105" s="7" t="s">
         <v>29</v>
@@ -5764,7 +5770,7 @@
       <c r="L105" s="7">
         <v>103</v>
       </c>
-      <c r="M105" s="66"/>
+      <c r="M105" s="49"/>
       <c r="N105" s="7"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -5779,7 +5785,7 @@
       <c r="E106" s="50"/>
       <c r="F106" s="50"/>
       <c r="G106" s="50"/>
-      <c r="H106" s="67"/>
+      <c r="H106" s="51"/>
       <c r="I106" s="4"/>
       <c r="K106" s="7" t="s">
         <v>29</v>
@@ -5787,7 +5793,7 @@
       <c r="L106" s="7">
         <v>104</v>
       </c>
-      <c r="M106" s="66"/>
+      <c r="M106" s="49"/>
       <c r="N106" s="7"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -5802,7 +5808,7 @@
       <c r="E107" s="50"/>
       <c r="F107" s="50"/>
       <c r="G107" s="50"/>
-      <c r="H107" s="67"/>
+      <c r="H107" s="51"/>
       <c r="I107" s="4"/>
       <c r="K107" s="7" t="s">
         <v>29</v>
@@ -5810,7 +5816,7 @@
       <c r="L107" s="7">
         <v>105</v>
       </c>
-      <c r="M107" s="66"/>
+      <c r="M107" s="49"/>
       <c r="N107" s="7"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -5825,7 +5831,7 @@
       <c r="E108" s="50"/>
       <c r="F108" s="50"/>
       <c r="G108" s="50"/>
-      <c r="H108" s="67"/>
+      <c r="H108" s="51"/>
       <c r="I108" s="4"/>
       <c r="K108" s="7" t="s">
         <v>29</v>
@@ -5833,7 +5839,7 @@
       <c r="L108" s="7">
         <v>106</v>
       </c>
-      <c r="M108" s="66"/>
+      <c r="M108" s="49"/>
       <c r="N108" s="7"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -5848,7 +5854,7 @@
       <c r="E109" s="50"/>
       <c r="F109" s="50"/>
       <c r="G109" s="50"/>
-      <c r="H109" s="67"/>
+      <c r="H109" s="51"/>
       <c r="I109" s="4"/>
       <c r="K109" s="7" t="s">
         <v>29</v>
@@ -5856,7 +5862,7 @@
       <c r="L109" s="7">
         <v>107</v>
       </c>
-      <c r="M109" s="66"/>
+      <c r="M109" s="49"/>
       <c r="N109" s="7"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -5871,7 +5877,7 @@
       <c r="E110" s="50"/>
       <c r="F110" s="50"/>
       <c r="G110" s="50"/>
-      <c r="H110" s="67"/>
+      <c r="H110" s="51"/>
       <c r="I110" s="4"/>
       <c r="K110" s="7" t="s">
         <v>29</v>
@@ -5879,7 +5885,7 @@
       <c r="L110" s="7">
         <v>108</v>
       </c>
-      <c r="M110" s="66"/>
+      <c r="M110" s="49"/>
       <c r="N110" s="7"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -5894,7 +5900,7 @@
       <c r="E111" s="50"/>
       <c r="F111" s="50"/>
       <c r="G111" s="50"/>
-      <c r="H111" s="67"/>
+      <c r="H111" s="51"/>
       <c r="I111" s="4"/>
       <c r="K111" s="7" t="s">
         <v>29</v>
@@ -5902,7 +5908,7 @@
       <c r="L111" s="7">
         <v>109</v>
       </c>
-      <c r="M111" s="66"/>
+      <c r="M111" s="49"/>
       <c r="N111" s="7"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -5917,7 +5923,7 @@
       <c r="E112" s="50"/>
       <c r="F112" s="50"/>
       <c r="G112" s="50"/>
-      <c r="H112" s="67"/>
+      <c r="H112" s="51"/>
       <c r="I112" s="4"/>
       <c r="K112" s="7" t="s">
         <v>29</v>
@@ -5925,7 +5931,7 @@
       <c r="L112" s="7">
         <v>110</v>
       </c>
-      <c r="M112" s="66"/>
+      <c r="M112" s="49"/>
       <c r="N112" s="7"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -5940,7 +5946,7 @@
       <c r="E113" s="50"/>
       <c r="F113" s="50"/>
       <c r="G113" s="50"/>
-      <c r="H113" s="67"/>
+      <c r="H113" s="51"/>
       <c r="I113" s="4"/>
       <c r="K113" s="7" t="s">
         <v>29</v>
@@ -5948,7 +5954,7 @@
       <c r="L113" s="7">
         <v>111</v>
       </c>
-      <c r="M113" s="66"/>
+      <c r="M113" s="49"/>
       <c r="N113" s="7"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -5963,7 +5969,7 @@
       <c r="E114" s="50"/>
       <c r="F114" s="50"/>
       <c r="G114" s="50"/>
-      <c r="H114" s="67"/>
+      <c r="H114" s="51"/>
       <c r="I114" s="4"/>
       <c r="K114" s="7" t="s">
         <v>29</v>
@@ -5971,7 +5977,7 @@
       <c r="L114" s="7">
         <v>112</v>
       </c>
-      <c r="M114" s="66"/>
+      <c r="M114" s="49"/>
       <c r="N114" s="7"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -5986,7 +5992,7 @@
       <c r="E115" s="50"/>
       <c r="F115" s="50"/>
       <c r="G115" s="50"/>
-      <c r="H115" s="67"/>
+      <c r="H115" s="51"/>
       <c r="I115" s="4"/>
       <c r="K115" s="7" t="s">
         <v>29</v>
@@ -5994,7 +6000,7 @@
       <c r="L115" s="7">
         <v>113</v>
       </c>
-      <c r="M115" s="66"/>
+      <c r="M115" s="49"/>
       <c r="N115" s="7"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -6009,7 +6015,7 @@
       <c r="E116" s="50"/>
       <c r="F116" s="50"/>
       <c r="G116" s="50"/>
-      <c r="H116" s="67"/>
+      <c r="H116" s="51"/>
       <c r="I116" s="4"/>
       <c r="K116" s="7" t="s">
         <v>29</v>
@@ -6017,7 +6023,7 @@
       <c r="L116" s="7">
         <v>114</v>
       </c>
-      <c r="M116" s="66"/>
+      <c r="M116" s="49"/>
       <c r="N116" s="7"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -6032,7 +6038,7 @@
       <c r="E117" s="50"/>
       <c r="F117" s="50"/>
       <c r="G117" s="50"/>
-      <c r="H117" s="67"/>
+      <c r="H117" s="51"/>
       <c r="I117" s="4"/>
       <c r="K117" s="7" t="s">
         <v>29</v>
@@ -6040,7 +6046,7 @@
       <c r="L117" s="7">
         <v>115</v>
       </c>
-      <c r="M117" s="66"/>
+      <c r="M117" s="49"/>
       <c r="N117" s="7"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -6055,7 +6061,7 @@
       <c r="E118" s="50"/>
       <c r="F118" s="50"/>
       <c r="G118" s="50"/>
-      <c r="H118" s="67"/>
+      <c r="H118" s="51"/>
       <c r="I118" s="4"/>
       <c r="K118" s="7" t="s">
         <v>29</v>
@@ -6063,7 +6069,7 @@
       <c r="L118" s="7">
         <v>116</v>
       </c>
-      <c r="M118" s="66"/>
+      <c r="M118" s="49"/>
       <c r="N118" s="7"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -6078,7 +6084,7 @@
       <c r="E119" s="50"/>
       <c r="F119" s="50"/>
       <c r="G119" s="50"/>
-      <c r="H119" s="67"/>
+      <c r="H119" s="51"/>
       <c r="I119" s="4"/>
       <c r="K119" s="7" t="s">
         <v>29</v>
@@ -6086,7 +6092,7 @@
       <c r="L119" s="7">
         <v>117</v>
       </c>
-      <c r="M119" s="66"/>
+      <c r="M119" s="49"/>
       <c r="N119" s="7"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -6101,7 +6107,7 @@
       <c r="E120" s="50"/>
       <c r="F120" s="50"/>
       <c r="G120" s="50"/>
-      <c r="H120" s="67"/>
+      <c r="H120" s="51"/>
       <c r="I120" s="4"/>
       <c r="K120" s="7" t="s">
         <v>29</v>
@@ -6109,7 +6115,7 @@
       <c r="L120" s="7">
         <v>118</v>
       </c>
-      <c r="M120" s="66"/>
+      <c r="M120" s="49"/>
       <c r="N120" s="7"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -6124,7 +6130,7 @@
       <c r="E121" s="50"/>
       <c r="F121" s="50"/>
       <c r="G121" s="50"/>
-      <c r="H121" s="67"/>
+      <c r="H121" s="51"/>
       <c r="I121" s="4"/>
       <c r="K121" s="7" t="s">
         <v>29</v>
@@ -6132,7 +6138,7 @@
       <c r="L121" s="7">
         <v>119</v>
       </c>
-      <c r="M121" s="66"/>
+      <c r="M121" s="49"/>
       <c r="N121" s="7"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -6147,7 +6153,7 @@
       <c r="E122" s="50"/>
       <c r="F122" s="50"/>
       <c r="G122" s="50"/>
-      <c r="H122" s="67"/>
+      <c r="H122" s="51"/>
       <c r="I122" s="4"/>
       <c r="K122" s="7" t="s">
         <v>29</v>
@@ -6155,7 +6161,7 @@
       <c r="L122" s="7">
         <v>120</v>
       </c>
-      <c r="M122" s="66"/>
+      <c r="M122" s="49"/>
       <c r="N122" s="7"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -6170,7 +6176,7 @@
       <c r="E123" s="50"/>
       <c r="F123" s="50"/>
       <c r="G123" s="50"/>
-      <c r="H123" s="67"/>
+      <c r="H123" s="51"/>
       <c r="I123" s="4"/>
       <c r="K123" s="7" t="s">
         <v>29</v>
@@ -6178,7 +6184,7 @@
       <c r="L123" s="7">
         <v>121</v>
       </c>
-      <c r="M123" s="66"/>
+      <c r="M123" s="49"/>
       <c r="N123" s="7"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -6193,7 +6199,7 @@
       <c r="E124" s="50"/>
       <c r="F124" s="50"/>
       <c r="G124" s="50"/>
-      <c r="H124" s="67"/>
+      <c r="H124" s="51"/>
       <c r="I124" s="4"/>
       <c r="K124" s="7" t="s">
         <v>29</v>
@@ -6201,7 +6207,7 @@
       <c r="L124" s="7">
         <v>122</v>
       </c>
-      <c r="M124" s="66"/>
+      <c r="M124" s="49"/>
       <c r="N124" s="7"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -6216,7 +6222,7 @@
       <c r="E125" s="50"/>
       <c r="F125" s="50"/>
       <c r="G125" s="50"/>
-      <c r="H125" s="67"/>
+      <c r="H125" s="51"/>
       <c r="I125" s="4"/>
       <c r="K125" s="7" t="s">
         <v>29</v>
@@ -6224,7 +6230,7 @@
       <c r="L125" s="7">
         <v>123</v>
       </c>
-      <c r="M125" s="66"/>
+      <c r="M125" s="49"/>
       <c r="N125" s="7"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -6239,7 +6245,7 @@
       <c r="E126" s="50"/>
       <c r="F126" s="50"/>
       <c r="G126" s="50"/>
-      <c r="H126" s="67"/>
+      <c r="H126" s="51"/>
       <c r="I126" s="4"/>
       <c r="K126" s="7" t="s">
         <v>29</v>
@@ -6247,7 +6253,7 @@
       <c r="L126" s="7">
         <v>124</v>
       </c>
-      <c r="M126" s="66"/>
+      <c r="M126" s="49"/>
       <c r="N126" s="7"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -6262,7 +6268,7 @@
       <c r="E127" s="50"/>
       <c r="F127" s="50"/>
       <c r="G127" s="50"/>
-      <c r="H127" s="67"/>
+      <c r="H127" s="51"/>
       <c r="I127" s="4"/>
       <c r="K127" s="7" t="s">
         <v>29</v>
@@ -6270,7 +6276,7 @@
       <c r="L127" s="7">
         <v>125</v>
       </c>
-      <c r="M127" s="66"/>
+      <c r="M127" s="49"/>
       <c r="N127" s="7"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -6285,7 +6291,7 @@
       <c r="E128" s="50"/>
       <c r="F128" s="50"/>
       <c r="G128" s="50"/>
-      <c r="H128" s="67"/>
+      <c r="H128" s="51"/>
       <c r="I128" s="4"/>
       <c r="K128" s="7" t="s">
         <v>29</v>
@@ -6293,7 +6299,7 @@
       <c r="L128" s="7">
         <v>126</v>
       </c>
-      <c r="M128" s="66"/>
+      <c r="M128" s="49"/>
       <c r="N128" s="7"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -6308,7 +6314,7 @@
       <c r="E129" s="50"/>
       <c r="F129" s="50"/>
       <c r="G129" s="50"/>
-      <c r="H129" s="67"/>
+      <c r="H129" s="51"/>
       <c r="I129" s="4" t="s">
         <v>12</v>
       </c>
@@ -6318,7 +6324,7 @@
       <c r="L129" s="7">
         <v>127</v>
       </c>
-      <c r="M129" s="66"/>
+      <c r="M129" s="49"/>
       <c r="N129" s="7"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -6332,7 +6338,7 @@
       <c r="D130" s="50"/>
       <c r="E130" s="50"/>
       <c r="F130" s="50"/>
-      <c r="G130" s="61" t="s">
+      <c r="G130" s="52" t="s">
         <v>4</v>
       </c>
       <c r="H130" s="50"/>
@@ -6345,7 +6351,7 @@
       <c r="L130" s="7">
         <v>128</v>
       </c>
-      <c r="M130" s="66"/>
+      <c r="M130" s="49"/>
       <c r="N130" s="7"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -6359,7 +6365,7 @@
       <c r="D131" s="50"/>
       <c r="E131" s="50"/>
       <c r="F131" s="50"/>
-      <c r="G131" s="61"/>
+      <c r="G131" s="52"/>
       <c r="H131" s="50"/>
       <c r="I131" s="6" t="s">
         <v>20</v>
@@ -6370,7 +6376,7 @@
       <c r="L131" s="7">
         <v>129</v>
       </c>
-      <c r="M131" s="66"/>
+      <c r="M131" s="49"/>
       <c r="N131" s="7"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -6384,7 +6390,7 @@
       <c r="D132" s="50"/>
       <c r="E132" s="50"/>
       <c r="F132" s="50"/>
-      <c r="G132" s="61"/>
+      <c r="G132" s="52"/>
       <c r="H132" s="50"/>
       <c r="I132" s="6" t="s">
         <v>17</v>
@@ -6395,7 +6401,7 @@
       <c r="L132" s="7">
         <v>130</v>
       </c>
-      <c r="M132" s="66"/>
+      <c r="M132" s="49"/>
       <c r="N132" s="7"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -6409,7 +6415,7 @@
       <c r="D133" s="50"/>
       <c r="E133" s="50"/>
       <c r="F133" s="50"/>
-      <c r="G133" s="61"/>
+      <c r="G133" s="52"/>
       <c r="H133" s="50"/>
       <c r="I133" s="6" t="s">
         <v>13</v>
@@ -6420,7 +6426,7 @@
       <c r="L133" s="7">
         <v>131</v>
       </c>
-      <c r="M133" s="66"/>
+      <c r="M133" s="49"/>
       <c r="N133" s="7"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -6434,7 +6440,7 @@
       <c r="D134" s="50"/>
       <c r="E134" s="50"/>
       <c r="F134" s="50"/>
-      <c r="G134" s="61"/>
+      <c r="G134" s="52"/>
       <c r="H134" s="50"/>
       <c r="I134" s="6" t="s">
         <v>14</v>
@@ -6445,7 +6451,7 @@
       <c r="L134" s="7">
         <v>132</v>
       </c>
-      <c r="M134" s="66"/>
+      <c r="M134" s="49"/>
       <c r="N134" s="7"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -6459,7 +6465,7 @@
       <c r="D135" s="50"/>
       <c r="E135" s="50"/>
       <c r="F135" s="50"/>
-      <c r="G135" s="61"/>
+      <c r="G135" s="52"/>
       <c r="H135" s="50"/>
       <c r="I135" s="6" t="s">
         <v>16</v>
@@ -6470,7 +6476,7 @@
       <c r="L135" s="7">
         <v>133</v>
       </c>
-      <c r="M135" s="66"/>
+      <c r="M135" s="49"/>
       <c r="N135" s="7"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -6484,7 +6490,7 @@
       <c r="D136" s="50"/>
       <c r="E136" s="50"/>
       <c r="F136" s="50"/>
-      <c r="G136" s="61"/>
+      <c r="G136" s="52"/>
       <c r="H136" s="50"/>
       <c r="I136" s="6" t="s">
         <v>15</v>
@@ -6495,7 +6501,7 @@
       <c r="L136" s="7">
         <v>134</v>
       </c>
-      <c r="M136" s="66"/>
+      <c r="M136" s="49"/>
       <c r="N136" s="7"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -6509,7 +6515,7 @@
       <c r="D137" s="50"/>
       <c r="E137" s="50"/>
       <c r="F137" s="50"/>
-      <c r="G137" s="61"/>
+      <c r="G137" s="52"/>
       <c r="H137" s="50"/>
       <c r="I137" s="6"/>
       <c r="K137" s="7" t="s">
@@ -6518,7 +6524,7 @@
       <c r="L137" s="7">
         <v>135</v>
       </c>
-      <c r="M137" s="66"/>
+      <c r="M137" s="49"/>
       <c r="N137" s="7"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -6532,7 +6538,7 @@
       <c r="D138" s="50"/>
       <c r="E138" s="50"/>
       <c r="F138" s="50"/>
-      <c r="G138" s="61"/>
+      <c r="G138" s="52"/>
       <c r="H138" s="50"/>
       <c r="I138" s="6"/>
       <c r="K138" s="7" t="s">
@@ -6541,7 +6547,7 @@
       <c r="L138" s="7">
         <v>136</v>
       </c>
-      <c r="M138" s="66"/>
+      <c r="M138" s="49"/>
       <c r="N138" s="7"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -6555,7 +6561,7 @@
       <c r="D139" s="50"/>
       <c r="E139" s="50"/>
       <c r="F139" s="50"/>
-      <c r="G139" s="61"/>
+      <c r="G139" s="52"/>
       <c r="H139" s="50"/>
       <c r="I139" s="6"/>
       <c r="K139" s="7" t="s">
@@ -6564,7 +6570,7 @@
       <c r="L139" s="7">
         <v>137</v>
       </c>
-      <c r="M139" s="66"/>
+      <c r="M139" s="49"/>
       <c r="N139" s="7"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
@@ -6578,7 +6584,7 @@
       <c r="D140" s="50"/>
       <c r="E140" s="50"/>
       <c r="F140" s="50"/>
-      <c r="G140" s="61"/>
+      <c r="G140" s="52"/>
       <c r="H140" s="50"/>
       <c r="I140" s="6"/>
       <c r="K140" s="7" t="s">
@@ -6587,7 +6593,7 @@
       <c r="L140" s="7">
         <v>138</v>
       </c>
-      <c r="M140" s="66"/>
+      <c r="M140" s="49"/>
       <c r="N140" s="7"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
@@ -6601,7 +6607,7 @@
       <c r="D141" s="50"/>
       <c r="E141" s="50"/>
       <c r="F141" s="50"/>
-      <c r="G141" s="61"/>
+      <c r="G141" s="52"/>
       <c r="H141" s="50"/>
       <c r="I141" s="6"/>
       <c r="K141" s="7" t="s">
@@ -6610,7 +6616,7 @@
       <c r="L141" s="7">
         <v>139</v>
       </c>
-      <c r="M141" s="66"/>
+      <c r="M141" s="49"/>
       <c r="N141" s="7"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
@@ -6624,7 +6630,7 @@
       <c r="D142" s="50"/>
       <c r="E142" s="50"/>
       <c r="F142" s="50"/>
-      <c r="G142" s="61"/>
+      <c r="G142" s="52"/>
       <c r="H142" s="50"/>
       <c r="I142" s="6"/>
       <c r="K142" s="7" t="s">
@@ -6633,7 +6639,7 @@
       <c r="L142" s="7">
         <v>140</v>
       </c>
-      <c r="M142" s="66"/>
+      <c r="M142" s="49"/>
       <c r="N142" s="7"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
@@ -6647,7 +6653,7 @@
       <c r="D143" s="50"/>
       <c r="E143" s="50"/>
       <c r="F143" s="50"/>
-      <c r="G143" s="61"/>
+      <c r="G143" s="52"/>
       <c r="H143" s="50"/>
       <c r="I143" s="6"/>
       <c r="K143" s="7" t="s">
@@ -6656,7 +6662,7 @@
       <c r="L143" s="7">
         <v>141</v>
       </c>
-      <c r="M143" s="66"/>
+      <c r="M143" s="49"/>
       <c r="N143" s="7"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
@@ -6670,7 +6676,7 @@
       <c r="D144" s="50"/>
       <c r="E144" s="50"/>
       <c r="F144" s="50"/>
-      <c r="G144" s="61"/>
+      <c r="G144" s="52"/>
       <c r="H144" s="50"/>
       <c r="I144" s="6"/>
       <c r="K144" s="7" t="s">
@@ -6679,7 +6685,7 @@
       <c r="L144" s="7">
         <v>142</v>
       </c>
-      <c r="M144" s="66"/>
+      <c r="M144" s="49"/>
       <c r="N144" s="7"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
@@ -6693,7 +6699,7 @@
       <c r="D145" s="50"/>
       <c r="E145" s="50"/>
       <c r="F145" s="50"/>
-      <c r="G145" s="61"/>
+      <c r="G145" s="52"/>
       <c r="H145" s="50"/>
       <c r="I145" s="6"/>
       <c r="K145" s="7" t="s">
@@ -6702,7 +6708,7 @@
       <c r="L145" s="7">
         <v>143</v>
       </c>
-      <c r="M145" s="66"/>
+      <c r="M145" s="49"/>
       <c r="N145" s="7"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -6716,7 +6722,7 @@
       <c r="D146" s="50"/>
       <c r="E146" s="50"/>
       <c r="F146" s="50"/>
-      <c r="G146" s="61"/>
+      <c r="G146" s="52"/>
       <c r="H146" s="50"/>
       <c r="I146" s="6"/>
       <c r="K146" s="7" t="s">
@@ -6725,7 +6731,7 @@
       <c r="L146" s="7">
         <v>144</v>
       </c>
-      <c r="M146" s="66"/>
+      <c r="M146" s="49"/>
       <c r="N146" s="7"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
@@ -6739,7 +6745,7 @@
       <c r="D147" s="50"/>
       <c r="E147" s="50"/>
       <c r="F147" s="50"/>
-      <c r="G147" s="61"/>
+      <c r="G147" s="52"/>
       <c r="H147" s="50"/>
       <c r="I147" s="6"/>
       <c r="K147" s="7" t="s">
@@ -6748,7 +6754,7 @@
       <c r="L147" s="7">
         <v>145</v>
       </c>
-      <c r="M147" s="66"/>
+      <c r="M147" s="49"/>
       <c r="N147" s="7"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -6762,7 +6768,7 @@
       <c r="D148" s="50"/>
       <c r="E148" s="50"/>
       <c r="F148" s="50"/>
-      <c r="G148" s="61"/>
+      <c r="G148" s="52"/>
       <c r="H148" s="50"/>
       <c r="I148" s="6"/>
       <c r="K148" s="7" t="s">
@@ -6771,7 +6777,7 @@
       <c r="L148" s="7">
         <v>146</v>
       </c>
-      <c r="M148" s="66"/>
+      <c r="M148" s="49"/>
       <c r="N148" s="7"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
@@ -6785,7 +6791,7 @@
       <c r="D149" s="50"/>
       <c r="E149" s="50"/>
       <c r="F149" s="50"/>
-      <c r="G149" s="61"/>
+      <c r="G149" s="52"/>
       <c r="H149" s="50"/>
       <c r="I149" s="6"/>
       <c r="K149" s="7" t="s">
@@ -6794,7 +6800,7 @@
       <c r="L149" s="7">
         <v>147</v>
       </c>
-      <c r="M149" s="66"/>
+      <c r="M149" s="49"/>
       <c r="N149" s="7"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
@@ -6808,7 +6814,7 @@
       <c r="D150" s="50"/>
       <c r="E150" s="50"/>
       <c r="F150" s="50"/>
-      <c r="G150" s="61"/>
+      <c r="G150" s="52"/>
       <c r="H150" s="50"/>
       <c r="I150" s="6"/>
       <c r="K150" s="7" t="s">
@@ -6817,7 +6823,7 @@
       <c r="L150" s="7">
         <v>148</v>
       </c>
-      <c r="M150" s="66"/>
+      <c r="M150" s="49"/>
       <c r="N150" s="7"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
@@ -6831,7 +6837,7 @@
       <c r="D151" s="50"/>
       <c r="E151" s="50"/>
       <c r="F151" s="50"/>
-      <c r="G151" s="61"/>
+      <c r="G151" s="52"/>
       <c r="H151" s="50"/>
       <c r="I151" s="6"/>
       <c r="K151" s="7" t="s">
@@ -6840,7 +6846,7 @@
       <c r="L151" s="7">
         <v>149</v>
       </c>
-      <c r="M151" s="66"/>
+      <c r="M151" s="49"/>
       <c r="N151" s="7"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
@@ -6854,7 +6860,7 @@
       <c r="D152" s="50"/>
       <c r="E152" s="50"/>
       <c r="F152" s="50"/>
-      <c r="G152" s="61"/>
+      <c r="G152" s="52"/>
       <c r="H152" s="50"/>
       <c r="I152" s="6"/>
       <c r="K152" s="7" t="s">
@@ -6863,7 +6869,7 @@
       <c r="L152" s="7">
         <v>150</v>
       </c>
-      <c r="M152" s="66"/>
+      <c r="M152" s="49"/>
       <c r="N152" s="7"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
@@ -6877,7 +6883,7 @@
       <c r="D153" s="50"/>
       <c r="E153" s="50"/>
       <c r="F153" s="50"/>
-      <c r="G153" s="61"/>
+      <c r="G153" s="52"/>
       <c r="H153" s="50"/>
       <c r="I153" s="6"/>
       <c r="K153" s="7" t="s">
@@ -6886,7 +6892,7 @@
       <c r="L153" s="7">
         <v>151</v>
       </c>
-      <c r="M153" s="66"/>
+      <c r="M153" s="49"/>
       <c r="N153" s="7"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
@@ -6900,7 +6906,7 @@
       <c r="D154" s="50"/>
       <c r="E154" s="50"/>
       <c r="F154" s="50"/>
-      <c r="G154" s="61"/>
+      <c r="G154" s="52"/>
       <c r="H154" s="50"/>
       <c r="I154" s="6"/>
       <c r="K154" s="7" t="s">
@@ -6909,7 +6915,7 @@
       <c r="L154" s="7">
         <v>152</v>
       </c>
-      <c r="M154" s="66"/>
+      <c r="M154" s="49"/>
       <c r="N154" s="7"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
@@ -6923,7 +6929,7 @@
       <c r="D155" s="50"/>
       <c r="E155" s="50"/>
       <c r="F155" s="50"/>
-      <c r="G155" s="61"/>
+      <c r="G155" s="52"/>
       <c r="H155" s="50"/>
       <c r="I155" s="6"/>
       <c r="K155" s="7" t="s">
@@ -6932,7 +6938,7 @@
       <c r="L155" s="7">
         <v>153</v>
       </c>
-      <c r="M155" s="66"/>
+      <c r="M155" s="49"/>
       <c r="N155" s="7"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
@@ -6946,7 +6952,7 @@
       <c r="D156" s="50"/>
       <c r="E156" s="50"/>
       <c r="F156" s="50"/>
-      <c r="G156" s="61"/>
+      <c r="G156" s="52"/>
       <c r="H156" s="50"/>
       <c r="I156" s="6"/>
       <c r="K156" s="7" t="s">
@@ -6955,7 +6961,7 @@
       <c r="L156" s="7">
         <v>154</v>
       </c>
-      <c r="M156" s="66"/>
+      <c r="M156" s="49"/>
       <c r="N156" s="7"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
@@ -6969,7 +6975,7 @@
       <c r="D157" s="50"/>
       <c r="E157" s="50"/>
       <c r="F157" s="50"/>
-      <c r="G157" s="61"/>
+      <c r="G157" s="52"/>
       <c r="H157" s="50"/>
       <c r="I157" s="6"/>
       <c r="K157" s="7" t="s">
@@ -6978,7 +6984,7 @@
       <c r="L157" s="7">
         <v>155</v>
       </c>
-      <c r="M157" s="66"/>
+      <c r="M157" s="49"/>
       <c r="N157" s="7"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -6992,7 +6998,7 @@
       <c r="D158" s="50"/>
       <c r="E158" s="50"/>
       <c r="F158" s="50"/>
-      <c r="G158" s="61"/>
+      <c r="G158" s="52"/>
       <c r="H158" s="50"/>
       <c r="I158" s="6"/>
       <c r="K158" s="7" t="s">
@@ -7001,7 +7007,7 @@
       <c r="L158" s="7">
         <v>156</v>
       </c>
-      <c r="M158" s="66"/>
+      <c r="M158" s="49"/>
       <c r="N158" s="7"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
@@ -7015,7 +7021,7 @@
       <c r="D159" s="50"/>
       <c r="E159" s="50"/>
       <c r="F159" s="50"/>
-      <c r="G159" s="61"/>
+      <c r="G159" s="52"/>
       <c r="H159" s="50"/>
       <c r="I159" s="6"/>
       <c r="K159" s="7" t="s">
@@ -7024,7 +7030,7 @@
       <c r="L159" s="7">
         <v>157</v>
       </c>
-      <c r="M159" s="66"/>
+      <c r="M159" s="49"/>
       <c r="N159" s="7"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
@@ -7038,7 +7044,7 @@
       <c r="D160" s="50"/>
       <c r="E160" s="50"/>
       <c r="F160" s="50"/>
-      <c r="G160" s="61"/>
+      <c r="G160" s="52"/>
       <c r="H160" s="50"/>
       <c r="I160" s="6"/>
       <c r="K160" s="7" t="s">
@@ -7047,7 +7053,7 @@
       <c r="L160" s="7">
         <v>158</v>
       </c>
-      <c r="M160" s="66"/>
+      <c r="M160" s="49"/>
       <c r="N160" s="7"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
@@ -7061,7 +7067,7 @@
       <c r="D161" s="50"/>
       <c r="E161" s="50"/>
       <c r="F161" s="50"/>
-      <c r="G161" s="61"/>
+      <c r="G161" s="52"/>
       <c r="H161" s="50"/>
       <c r="I161" s="6"/>
       <c r="K161" s="7" t="s">
@@ -7070,7 +7076,7 @@
       <c r="L161" s="7">
         <v>159</v>
       </c>
-      <c r="M161" s="66"/>
+      <c r="M161" s="49"/>
       <c r="N161" s="7"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
@@ -7084,7 +7090,7 @@
       <c r="D162" s="50"/>
       <c r="E162" s="50"/>
       <c r="F162" s="50"/>
-      <c r="G162" s="61"/>
+      <c r="G162" s="52"/>
       <c r="H162" s="50"/>
       <c r="I162" s="6"/>
       <c r="K162" s="7" t="s">
@@ -7093,7 +7099,7 @@
       <c r="L162" s="7">
         <v>160</v>
       </c>
-      <c r="M162" s="66"/>
+      <c r="M162" s="49"/>
       <c r="N162" s="7"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
@@ -7107,7 +7113,7 @@
       <c r="D163" s="50"/>
       <c r="E163" s="50"/>
       <c r="F163" s="50"/>
-      <c r="G163" s="61"/>
+      <c r="G163" s="52"/>
       <c r="H163" s="50"/>
       <c r="I163" s="6"/>
       <c r="K163" s="7" t="s">
@@ -7116,7 +7122,7 @@
       <c r="L163" s="7">
         <v>161</v>
       </c>
-      <c r="M163" s="66"/>
+      <c r="M163" s="49"/>
       <c r="N163" s="7"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
@@ -7130,7 +7136,7 @@
       <c r="D164" s="50"/>
       <c r="E164" s="50"/>
       <c r="F164" s="50"/>
-      <c r="G164" s="61"/>
+      <c r="G164" s="52"/>
       <c r="H164" s="50"/>
       <c r="I164" s="6"/>
       <c r="K164" s="7" t="s">
@@ -7139,7 +7145,7 @@
       <c r="L164" s="7">
         <v>162</v>
       </c>
-      <c r="M164" s="66"/>
+      <c r="M164" s="49"/>
       <c r="N164" s="7"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
@@ -7153,7 +7159,7 @@
       <c r="D165" s="50"/>
       <c r="E165" s="50"/>
       <c r="F165" s="50"/>
-      <c r="G165" s="61"/>
+      <c r="G165" s="52"/>
       <c r="H165" s="50"/>
       <c r="I165" s="6"/>
       <c r="K165" s="7" t="s">
@@ -7162,7 +7168,7 @@
       <c r="L165" s="7">
         <v>163</v>
       </c>
-      <c r="M165" s="66"/>
+      <c r="M165" s="49"/>
       <c r="N165" s="7"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
@@ -7176,7 +7182,7 @@
       <c r="D166" s="50"/>
       <c r="E166" s="50"/>
       <c r="F166" s="50"/>
-      <c r="G166" s="61"/>
+      <c r="G166" s="52"/>
       <c r="H166" s="50"/>
       <c r="I166" s="6"/>
       <c r="K166" s="7" t="s">
@@ -7185,7 +7191,7 @@
       <c r="L166" s="7">
         <v>164</v>
       </c>
-      <c r="M166" s="66"/>
+      <c r="M166" s="49"/>
       <c r="N166" s="7"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
@@ -7199,7 +7205,7 @@
       <c r="D167" s="50"/>
       <c r="E167" s="50"/>
       <c r="F167" s="50"/>
-      <c r="G167" s="61"/>
+      <c r="G167" s="52"/>
       <c r="H167" s="50"/>
       <c r="I167" s="6"/>
       <c r="K167" s="7" t="s">
@@ -7208,7 +7214,7 @@
       <c r="L167" s="7">
         <v>165</v>
       </c>
-      <c r="M167" s="66"/>
+      <c r="M167" s="49"/>
       <c r="N167" s="7"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -7222,7 +7228,7 @@
       <c r="D168" s="50"/>
       <c r="E168" s="50"/>
       <c r="F168" s="50"/>
-      <c r="G168" s="61"/>
+      <c r="G168" s="52"/>
       <c r="H168" s="50"/>
       <c r="I168" s="6"/>
       <c r="K168" s="7" t="s">
@@ -7231,7 +7237,7 @@
       <c r="L168" s="7">
         <v>166</v>
       </c>
-      <c r="M168" s="66"/>
+      <c r="M168" s="49"/>
       <c r="N168" s="7"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -7245,7 +7251,7 @@
       <c r="D169" s="50"/>
       <c r="E169" s="50"/>
       <c r="F169" s="50"/>
-      <c r="G169" s="61"/>
+      <c r="G169" s="52"/>
       <c r="H169" s="50"/>
       <c r="I169" s="6"/>
       <c r="K169" s="7" t="s">
@@ -7254,7 +7260,7 @@
       <c r="L169" s="7">
         <v>167</v>
       </c>
-      <c r="M169" s="66"/>
+      <c r="M169" s="49"/>
       <c r="N169" s="7"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
@@ -7268,7 +7274,7 @@
       <c r="D170" s="50"/>
       <c r="E170" s="50"/>
       <c r="F170" s="50"/>
-      <c r="G170" s="61"/>
+      <c r="G170" s="52"/>
       <c r="H170" s="50"/>
       <c r="I170" s="6"/>
       <c r="K170" s="7" t="s">
@@ -7277,7 +7283,7 @@
       <c r="L170" s="7">
         <v>168</v>
       </c>
-      <c r="M170" s="66"/>
+      <c r="M170" s="49"/>
       <c r="N170" s="7"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
@@ -7291,7 +7297,7 @@
       <c r="D171" s="50"/>
       <c r="E171" s="50"/>
       <c r="F171" s="50"/>
-      <c r="G171" s="61"/>
+      <c r="G171" s="52"/>
       <c r="H171" s="50"/>
       <c r="I171" s="6"/>
       <c r="K171" s="7" t="s">
@@ -7300,7 +7306,7 @@
       <c r="L171" s="7">
         <v>169</v>
       </c>
-      <c r="M171" s="66"/>
+      <c r="M171" s="49"/>
       <c r="N171" s="7"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
@@ -7314,7 +7320,7 @@
       <c r="D172" s="50"/>
       <c r="E172" s="50"/>
       <c r="F172" s="50"/>
-      <c r="G172" s="61"/>
+      <c r="G172" s="52"/>
       <c r="H172" s="50"/>
       <c r="I172" s="6"/>
       <c r="K172" s="7" t="s">
@@ -7323,7 +7329,7 @@
       <c r="L172" s="7">
         <v>170</v>
       </c>
-      <c r="M172" s="66"/>
+      <c r="M172" s="49"/>
       <c r="N172" s="7"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
@@ -7337,7 +7343,7 @@
       <c r="D173" s="50"/>
       <c r="E173" s="50"/>
       <c r="F173" s="50"/>
-      <c r="G173" s="61"/>
+      <c r="G173" s="52"/>
       <c r="H173" s="50"/>
       <c r="I173" s="6"/>
       <c r="K173" s="7" t="s">
@@ -7346,7 +7352,7 @@
       <c r="L173" s="7">
         <v>171</v>
       </c>
-      <c r="M173" s="66"/>
+      <c r="M173" s="49"/>
       <c r="N173" s="7"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
@@ -7360,7 +7366,7 @@
       <c r="D174" s="50"/>
       <c r="E174" s="50"/>
       <c r="F174" s="50"/>
-      <c r="G174" s="61"/>
+      <c r="G174" s="52"/>
       <c r="H174" s="50"/>
       <c r="I174" s="6"/>
       <c r="K174" s="7" t="s">
@@ -7369,7 +7375,7 @@
       <c r="L174" s="7">
         <v>172</v>
       </c>
-      <c r="M174" s="66"/>
+      <c r="M174" s="49"/>
       <c r="N174" s="7"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
@@ -7383,7 +7389,7 @@
       <c r="D175" s="50"/>
       <c r="E175" s="50"/>
       <c r="F175" s="50"/>
-      <c r="G175" s="61"/>
+      <c r="G175" s="52"/>
       <c r="H175" s="50"/>
       <c r="I175" s="6"/>
       <c r="K175" s="7" t="s">
@@ -7392,7 +7398,7 @@
       <c r="L175" s="7">
         <v>173</v>
       </c>
-      <c r="M175" s="66"/>
+      <c r="M175" s="49"/>
       <c r="N175" s="7"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
@@ -7406,7 +7412,7 @@
       <c r="D176" s="50"/>
       <c r="E176" s="50"/>
       <c r="F176" s="50"/>
-      <c r="G176" s="61"/>
+      <c r="G176" s="52"/>
       <c r="H176" s="50"/>
       <c r="I176" s="6"/>
       <c r="K176" s="7" t="s">
@@ -7415,7 +7421,7 @@
       <c r="L176" s="7">
         <v>174</v>
       </c>
-      <c r="M176" s="66"/>
+      <c r="M176" s="49"/>
       <c r="N176" s="7"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
@@ -7429,7 +7435,7 @@
       <c r="D177" s="50"/>
       <c r="E177" s="50"/>
       <c r="F177" s="50"/>
-      <c r="G177" s="61"/>
+      <c r="G177" s="52"/>
       <c r="H177" s="50"/>
       <c r="I177" s="6"/>
       <c r="K177" s="7" t="s">
@@ -7438,7 +7444,7 @@
       <c r="L177" s="7">
         <v>175</v>
       </c>
-      <c r="M177" s="66"/>
+      <c r="M177" s="49"/>
       <c r="N177" s="7"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
@@ -7452,7 +7458,7 @@
       <c r="D178" s="50"/>
       <c r="E178" s="50"/>
       <c r="F178" s="50"/>
-      <c r="G178" s="61"/>
+      <c r="G178" s="52"/>
       <c r="H178" s="50"/>
       <c r="I178" s="6"/>
       <c r="K178" s="7" t="s">
@@ -7461,7 +7467,7 @@
       <c r="L178" s="7">
         <v>176</v>
       </c>
-      <c r="M178" s="66"/>
+      <c r="M178" s="49"/>
       <c r="N178" s="7"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
@@ -7475,7 +7481,7 @@
       <c r="D179" s="50"/>
       <c r="E179" s="50"/>
       <c r="F179" s="50"/>
-      <c r="G179" s="61"/>
+      <c r="G179" s="52"/>
       <c r="H179" s="50"/>
       <c r="I179" s="6"/>
       <c r="K179" s="7" t="s">
@@ -7484,7 +7490,7 @@
       <c r="L179" s="7">
         <v>177</v>
       </c>
-      <c r="M179" s="66"/>
+      <c r="M179" s="49"/>
       <c r="N179" s="7"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
@@ -7498,7 +7504,7 @@
       <c r="D180" s="50"/>
       <c r="E180" s="50"/>
       <c r="F180" s="50"/>
-      <c r="G180" s="61"/>
+      <c r="G180" s="52"/>
       <c r="H180" s="50"/>
       <c r="I180" s="6"/>
       <c r="K180" s="7" t="s">
@@ -7507,7 +7513,7 @@
       <c r="L180" s="7">
         <v>178</v>
       </c>
-      <c r="M180" s="66"/>
+      <c r="M180" s="49"/>
       <c r="N180" s="7"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
@@ -7521,7 +7527,7 @@
       <c r="D181" s="50"/>
       <c r="E181" s="50"/>
       <c r="F181" s="50"/>
-      <c r="G181" s="61"/>
+      <c r="G181" s="52"/>
       <c r="H181" s="50"/>
       <c r="I181" s="6"/>
       <c r="K181" s="7" t="s">
@@ -7530,7 +7536,7 @@
       <c r="L181" s="7">
         <v>179</v>
       </c>
-      <c r="M181" s="66"/>
+      <c r="M181" s="49"/>
       <c r="N181" s="7"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
@@ -7544,7 +7550,7 @@
       <c r="D182" s="50"/>
       <c r="E182" s="50"/>
       <c r="F182" s="50"/>
-      <c r="G182" s="61"/>
+      <c r="G182" s="52"/>
       <c r="H182" s="50"/>
       <c r="I182" s="6"/>
       <c r="K182" s="7" t="s">
@@ -7553,7 +7559,7 @@
       <c r="L182" s="7">
         <v>180</v>
       </c>
-      <c r="M182" s="66"/>
+      <c r="M182" s="49"/>
       <c r="N182" s="7"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
@@ -7567,7 +7573,7 @@
       <c r="D183" s="50"/>
       <c r="E183" s="50"/>
       <c r="F183" s="50"/>
-      <c r="G183" s="61"/>
+      <c r="G183" s="52"/>
       <c r="H183" s="50"/>
       <c r="I183" s="6"/>
       <c r="K183" s="7" t="s">
@@ -7576,7 +7582,7 @@
       <c r="L183" s="7">
         <v>181</v>
       </c>
-      <c r="M183" s="66"/>
+      <c r="M183" s="49"/>
       <c r="N183" s="7"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
@@ -7590,7 +7596,7 @@
       <c r="D184" s="50"/>
       <c r="E184" s="50"/>
       <c r="F184" s="50"/>
-      <c r="G184" s="61"/>
+      <c r="G184" s="52"/>
       <c r="H184" s="50"/>
       <c r="I184" s="6"/>
       <c r="K184" s="7" t="s">
@@ -7599,7 +7605,7 @@
       <c r="L184" s="7">
         <v>182</v>
       </c>
-      <c r="M184" s="66"/>
+      <c r="M184" s="49"/>
       <c r="N184" s="7"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
@@ -7613,7 +7619,7 @@
       <c r="D185" s="50"/>
       <c r="E185" s="50"/>
       <c r="F185" s="50"/>
-      <c r="G185" s="61"/>
+      <c r="G185" s="52"/>
       <c r="H185" s="50"/>
       <c r="I185" s="6"/>
       <c r="K185" s="7" t="s">
@@ -7622,7 +7628,7 @@
       <c r="L185" s="7">
         <v>183</v>
       </c>
-      <c r="M185" s="66"/>
+      <c r="M185" s="49"/>
       <c r="N185" s="7"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
@@ -7636,7 +7642,7 @@
       <c r="D186" s="50"/>
       <c r="E186" s="50"/>
       <c r="F186" s="50"/>
-      <c r="G186" s="61"/>
+      <c r="G186" s="52"/>
       <c r="H186" s="50"/>
       <c r="I186" s="6"/>
       <c r="K186" s="7" t="s">
@@ -7645,7 +7651,7 @@
       <c r="L186" s="7">
         <v>184</v>
       </c>
-      <c r="M186" s="66"/>
+      <c r="M186" s="49"/>
       <c r="N186" s="7"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
@@ -7659,7 +7665,7 @@
       <c r="D187" s="50"/>
       <c r="E187" s="50"/>
       <c r="F187" s="50"/>
-      <c r="G187" s="61"/>
+      <c r="G187" s="52"/>
       <c r="H187" s="50"/>
       <c r="I187" s="6"/>
       <c r="K187" s="7" t="s">
@@ -7668,7 +7674,7 @@
       <c r="L187" s="7">
         <v>185</v>
       </c>
-      <c r="M187" s="66"/>
+      <c r="M187" s="49"/>
       <c r="N187" s="7"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
@@ -7682,7 +7688,7 @@
       <c r="D188" s="50"/>
       <c r="E188" s="50"/>
       <c r="F188" s="50"/>
-      <c r="G188" s="61"/>
+      <c r="G188" s="52"/>
       <c r="H188" s="50"/>
       <c r="I188" s="6"/>
       <c r="K188" s="7" t="s">
@@ -7691,7 +7697,7 @@
       <c r="L188" s="7">
         <v>186</v>
       </c>
-      <c r="M188" s="66"/>
+      <c r="M188" s="49"/>
       <c r="N188" s="7"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
@@ -7705,7 +7711,7 @@
       <c r="D189" s="50"/>
       <c r="E189" s="50"/>
       <c r="F189" s="50"/>
-      <c r="G189" s="61"/>
+      <c r="G189" s="52"/>
       <c r="H189" s="50"/>
       <c r="I189" s="6"/>
       <c r="K189" s="7" t="s">
@@ -7714,7 +7720,7 @@
       <c r="L189" s="7">
         <v>187</v>
       </c>
-      <c r="M189" s="66"/>
+      <c r="M189" s="49"/>
       <c r="N189" s="7"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
@@ -7728,7 +7734,7 @@
       <c r="D190" s="50"/>
       <c r="E190" s="50"/>
       <c r="F190" s="50"/>
-      <c r="G190" s="61"/>
+      <c r="G190" s="52"/>
       <c r="H190" s="50"/>
       <c r="I190" s="6"/>
       <c r="K190" s="7" t="s">
@@ -7737,7 +7743,7 @@
       <c r="L190" s="7">
         <v>188</v>
       </c>
-      <c r="M190" s="66"/>
+      <c r="M190" s="49"/>
       <c r="N190" s="7"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
@@ -7751,7 +7757,7 @@
       <c r="D191" s="50"/>
       <c r="E191" s="50"/>
       <c r="F191" s="50"/>
-      <c r="G191" s="61"/>
+      <c r="G191" s="52"/>
       <c r="H191" s="50"/>
       <c r="I191" s="6"/>
       <c r="K191" s="7" t="s">
@@ -7760,7 +7766,7 @@
       <c r="L191" s="7">
         <v>189</v>
       </c>
-      <c r="M191" s="66"/>
+      <c r="M191" s="49"/>
       <c r="N191" s="7"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
@@ -7774,7 +7780,7 @@
       <c r="D192" s="50"/>
       <c r="E192" s="50"/>
       <c r="F192" s="50"/>
-      <c r="G192" s="61"/>
+      <c r="G192" s="52"/>
       <c r="H192" s="50"/>
       <c r="I192" s="6" t="s">
         <v>21</v>
@@ -7785,7 +7791,7 @@
       <c r="L192" s="7">
         <v>190</v>
       </c>
-      <c r="M192" s="66"/>
+      <c r="M192" s="49"/>
       <c r="N192" s="7"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -7799,7 +7805,7 @@
       <c r="D193" s="50"/>
       <c r="E193" s="50"/>
       <c r="F193" s="50"/>
-      <c r="G193" s="61"/>
+      <c r="G193" s="52"/>
       <c r="H193" s="50"/>
       <c r="I193" s="6" t="s">
         <v>12</v>
@@ -7810,7 +7816,7 @@
       <c r="L193" s="7">
         <v>191</v>
       </c>
-      <c r="M193" s="66"/>
+      <c r="M193" s="49"/>
       <c r="N193" s="7"/>
     </row>
     <row r="194" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7820,14 +7826,14 @@
       <c r="B194" s="26">
         <v>192</v>
       </c>
-      <c r="C194" s="62" t="s">
+      <c r="C194" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D194" s="65" t="s">
+      <c r="D194" s="56" t="s">
         <v>28</v>
       </c>
       <c r="E194" s="50"/>
-      <c r="F194" s="49"/>
+      <c r="F194" s="58"/>
       <c r="G194" s="50"/>
       <c r="H194" s="50"/>
       <c r="I194" s="27" t="s">
@@ -7839,7 +7845,7 @@
       <c r="L194" s="7">
         <v>192</v>
       </c>
-      <c r="M194" s="66"/>
+      <c r="M194" s="49"/>
       <c r="N194" s="7"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -7849,10 +7855,10 @@
       <c r="B195" s="26">
         <v>193</v>
       </c>
-      <c r="C195" s="63"/>
-      <c r="D195" s="65"/>
+      <c r="C195" s="54"/>
+      <c r="D195" s="56"/>
       <c r="E195" s="50"/>
-      <c r="F195" s="49"/>
+      <c r="F195" s="58"/>
       <c r="G195" s="50"/>
       <c r="H195" s="50"/>
       <c r="I195" s="27" t="s">
@@ -7864,7 +7870,7 @@
       <c r="L195" s="7">
         <v>193</v>
       </c>
-      <c r="M195" s="66"/>
+      <c r="M195" s="49"/>
       <c r="N195" s="7"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
@@ -7874,14 +7880,14 @@
       <c r="B196" s="26">
         <v>194</v>
       </c>
-      <c r="C196" s="63"/>
-      <c r="D196" s="65"/>
+      <c r="C196" s="54"/>
+      <c r="D196" s="56"/>
       <c r="E196" s="50"/>
-      <c r="F196" s="49"/>
+      <c r="F196" s="58"/>
       <c r="G196" s="50"/>
       <c r="H196" s="50"/>
       <c r="I196" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K196" s="7" t="s">
         <v>29</v>
@@ -7889,7 +7895,7 @@
       <c r="L196" s="7">
         <v>194</v>
       </c>
-      <c r="M196" s="66"/>
+      <c r="M196" s="49"/>
       <c r="N196" s="7"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -7899,10 +7905,10 @@
       <c r="B197" s="26">
         <v>195</v>
       </c>
-      <c r="C197" s="64"/>
-      <c r="D197" s="65"/>
+      <c r="C197" s="55"/>
+      <c r="D197" s="56"/>
       <c r="E197" s="50"/>
-      <c r="F197" s="49"/>
+      <c r="F197" s="58"/>
       <c r="G197" s="50"/>
       <c r="H197" s="50"/>
       <c r="I197" s="27" t="s">
@@ -7914,7 +7920,7 @@
       <c r="L197" s="7">
         <v>195</v>
       </c>
-      <c r="M197" s="66"/>
+      <c r="M197" s="49"/>
       <c r="N197" s="7"/>
     </row>
     <row r="198" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7924,12 +7930,12 @@
       <c r="B198" s="31">
         <v>196</v>
       </c>
-      <c r="C198" s="51" t="s">
+      <c r="C198" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D198" s="65"/>
+      <c r="D198" s="56"/>
       <c r="E198" s="50"/>
-      <c r="F198" s="49"/>
+      <c r="F198" s="58"/>
       <c r="G198" s="50"/>
       <c r="H198" s="50"/>
       <c r="I198" s="32" t="s">
@@ -7941,7 +7947,7 @@
       <c r="L198" s="7">
         <v>196</v>
       </c>
-      <c r="M198" s="66"/>
+      <c r="M198" s="49"/>
       <c r="N198" s="7"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -7951,14 +7957,14 @@
       <c r="B199" s="31">
         <v>197</v>
       </c>
-      <c r="C199" s="52"/>
-      <c r="D199" s="65"/>
+      <c r="C199" s="60"/>
+      <c r="D199" s="56"/>
       <c r="E199" s="50"/>
-      <c r="F199" s="49"/>
+      <c r="F199" s="58"/>
       <c r="G199" s="50"/>
       <c r="H199" s="50"/>
       <c r="I199" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K199" s="7" t="s">
         <v>29</v>
@@ -7966,7 +7972,7 @@
       <c r="L199" s="7">
         <v>197</v>
       </c>
-      <c r="M199" s="66"/>
+      <c r="M199" s="49"/>
       <c r="N199" s="7"/>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -7976,10 +7982,10 @@
       <c r="B200" s="31">
         <v>198</v>
       </c>
-      <c r="C200" s="52"/>
-      <c r="D200" s="65"/>
+      <c r="C200" s="60"/>
+      <c r="D200" s="56"/>
       <c r="E200" s="50"/>
-      <c r="F200" s="49"/>
+      <c r="F200" s="58"/>
       <c r="G200" s="50"/>
       <c r="H200" s="50"/>
       <c r="I200" s="32" t="s">
@@ -7991,7 +7997,7 @@
       <c r="L200" s="7">
         <v>198</v>
       </c>
-      <c r="M200" s="66"/>
+      <c r="M200" s="49"/>
       <c r="N200" s="7"/>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -8001,10 +8007,10 @@
       <c r="B201" s="31">
         <v>199</v>
       </c>
-      <c r="C201" s="53"/>
-      <c r="D201" s="65"/>
+      <c r="C201" s="61"/>
+      <c r="D201" s="56"/>
       <c r="E201" s="50"/>
-      <c r="F201" s="49"/>
+      <c r="F201" s="58"/>
       <c r="G201" s="50"/>
       <c r="H201" s="50"/>
       <c r="I201" s="32" t="s">
@@ -8016,7 +8022,7 @@
       <c r="L201" s="7">
         <v>199</v>
       </c>
-      <c r="M201" s="66"/>
+      <c r="M201" s="49"/>
       <c r="N201" s="7"/>
     </row>
     <row r="202" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8026,16 +8032,16 @@
       <c r="B202" s="36">
         <v>200</v>
       </c>
-      <c r="C202" s="54" t="s">
+      <c r="C202" s="62" t="s">
         <v>34</v>
       </c>
       <c r="D202" s="50"/>
       <c r="E202" s="50"/>
-      <c r="F202" s="49"/>
+      <c r="F202" s="58"/>
       <c r="G202" s="50"/>
       <c r="H202" s="50"/>
       <c r="I202" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K202" s="7" t="s">
         <v>29</v>
@@ -8043,7 +8049,7 @@
       <c r="L202" s="7">
         <v>200</v>
       </c>
-      <c r="M202" s="66"/>
+      <c r="M202" s="49"/>
       <c r="N202" s="7"/>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -8053,14 +8059,14 @@
       <c r="B203" s="36">
         <v>201</v>
       </c>
-      <c r="C203" s="55"/>
+      <c r="C203" s="63"/>
       <c r="D203" s="50"/>
       <c r="E203" s="50"/>
-      <c r="F203" s="49"/>
+      <c r="F203" s="58"/>
       <c r="G203" s="50"/>
       <c r="H203" s="50"/>
       <c r="I203" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K203" s="7" t="s">
         <v>29</v>
@@ -8068,7 +8074,7 @@
       <c r="L203" s="7">
         <v>201</v>
       </c>
-      <c r="M203" s="66"/>
+      <c r="M203" s="49"/>
       <c r="N203" s="7"/>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -8078,14 +8084,14 @@
       <c r="B204" s="36">
         <v>202</v>
       </c>
-      <c r="C204" s="55"/>
+      <c r="C204" s="63"/>
       <c r="D204" s="50"/>
       <c r="E204" s="50"/>
-      <c r="F204" s="49"/>
+      <c r="F204" s="58"/>
       <c r="G204" s="50"/>
       <c r="H204" s="50"/>
       <c r="I204" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K204" s="7" t="s">
         <v>29</v>
@@ -8093,7 +8099,7 @@
       <c r="L204" s="7">
         <v>202</v>
       </c>
-      <c r="M204" s="66"/>
+      <c r="M204" s="49"/>
       <c r="N204" s="7"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -8103,10 +8109,10 @@
       <c r="B205" s="36">
         <v>203</v>
       </c>
-      <c r="C205" s="56"/>
+      <c r="C205" s="64"/>
       <c r="D205" s="50"/>
       <c r="E205" s="50"/>
-      <c r="F205" s="49"/>
+      <c r="F205" s="58"/>
       <c r="G205" s="50"/>
       <c r="H205" s="50"/>
       <c r="I205" s="37" t="s">
@@ -8118,7 +8124,7 @@
       <c r="L205" s="7">
         <v>203</v>
       </c>
-      <c r="M205" s="66"/>
+      <c r="M205" s="49"/>
       <c r="N205" s="7"/>
     </row>
     <row r="206" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8128,12 +8134,12 @@
       <c r="B206" s="44">
         <v>204</v>
       </c>
-      <c r="C206" s="57" t="s">
+      <c r="C206" s="65" t="s">
         <v>35</v>
       </c>
       <c r="D206" s="50"/>
       <c r="E206" s="50"/>
-      <c r="F206" s="49"/>
+      <c r="F206" s="58"/>
       <c r="G206" s="50"/>
       <c r="H206" s="50"/>
       <c r="I206" s="45" t="s">
@@ -8145,7 +8151,7 @@
       <c r="L206" s="7">
         <v>204</v>
       </c>
-      <c r="M206" s="66"/>
+      <c r="M206" s="49"/>
       <c r="N206" s="7"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -8155,14 +8161,14 @@
       <c r="B207" s="44">
         <v>205</v>
       </c>
-      <c r="C207" s="58"/>
+      <c r="C207" s="66"/>
       <c r="D207" s="50"/>
       <c r="E207" s="50"/>
-      <c r="F207" s="49"/>
+      <c r="F207" s="58"/>
       <c r="G207" s="50"/>
       <c r="H207" s="50"/>
       <c r="I207" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K207" s="7" t="s">
         <v>29</v>
@@ -8170,7 +8176,7 @@
       <c r="L207" s="7">
         <v>205</v>
       </c>
-      <c r="M207" s="66"/>
+      <c r="M207" s="49"/>
       <c r="N207" s="7"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -8180,14 +8186,14 @@
       <c r="B208" s="44">
         <v>206</v>
       </c>
-      <c r="C208" s="58"/>
+      <c r="C208" s="66"/>
       <c r="D208" s="50"/>
       <c r="E208" s="50"/>
-      <c r="F208" s="49"/>
+      <c r="F208" s="58"/>
       <c r="G208" s="50"/>
       <c r="H208" s="50"/>
       <c r="I208" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K208" s="7" t="s">
         <v>29</v>
@@ -8195,20 +8201,20 @@
       <c r="L208" s="7">
         <v>206</v>
       </c>
-      <c r="M208" s="66"/>
+      <c r="M208" s="49"/>
       <c r="N208" s="7"/>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="44" t="s">
         <v>19</v>
       </c>
       <c r="B209" s="44">
         <v>207</v>
       </c>
-      <c r="C209" s="59"/>
+      <c r="C209" s="67"/>
       <c r="D209" s="50"/>
       <c r="E209" s="50"/>
-      <c r="F209" s="49"/>
+      <c r="F209" s="58"/>
       <c r="G209" s="50"/>
       <c r="H209" s="50"/>
       <c r="I209" s="45" t="s">
@@ -8220,10 +8226,10 @@
       <c r="L209" s="7">
         <v>207</v>
       </c>
-      <c r="M209" s="66"/>
+      <c r="M209" s="49"/>
       <c r="N209" s="7"/>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
         <v>19</v>
       </c>
@@ -8233,7 +8239,7 @@
       <c r="C210" s="50"/>
       <c r="D210" s="50"/>
       <c r="E210" s="50"/>
-      <c r="F210" s="49"/>
+      <c r="F210" s="58"/>
       <c r="G210" s="50"/>
       <c r="H210" s="50"/>
       <c r="I210" s="11"/>
@@ -8243,13 +8249,10 @@
       <c r="L210" s="7">
         <v>208</v>
       </c>
-      <c r="M210" s="66"/>
+      <c r="M210" s="49"/>
       <c r="N210" s="7"/>
-      <c r="R210" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
         <v>19</v>
       </c>
@@ -8259,7 +8262,7 @@
       <c r="C211" s="50"/>
       <c r="D211" s="50"/>
       <c r="E211" s="50"/>
-      <c r="F211" s="49"/>
+      <c r="F211" s="58"/>
       <c r="G211" s="50"/>
       <c r="H211" s="50"/>
       <c r="I211" s="11"/>
@@ -8269,10 +8272,10 @@
       <c r="L211" s="7">
         <v>209</v>
       </c>
-      <c r="M211" s="66"/>
+      <c r="M211" s="49"/>
       <c r="N211" s="7"/>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>19</v>
       </c>
@@ -8282,7 +8285,7 @@
       <c r="C212" s="50"/>
       <c r="D212" s="50"/>
       <c r="E212" s="50"/>
-      <c r="F212" s="49"/>
+      <c r="F212" s="58"/>
       <c r="G212" s="50"/>
       <c r="H212" s="50"/>
       <c r="I212" s="11"/>
@@ -8292,10 +8295,10 @@
       <c r="L212" s="7">
         <v>210</v>
       </c>
-      <c r="M212" s="66"/>
+      <c r="M212" s="49"/>
       <c r="N212" s="7"/>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>19</v>
       </c>
@@ -8305,7 +8308,7 @@
       <c r="C213" s="50"/>
       <c r="D213" s="50"/>
       <c r="E213" s="50"/>
-      <c r="F213" s="49"/>
+      <c r="F213" s="58"/>
       <c r="G213" s="50"/>
       <c r="H213" s="50"/>
       <c r="I213" s="11"/>
@@ -8315,10 +8318,10 @@
       <c r="L213" s="7">
         <v>211</v>
       </c>
-      <c r="M213" s="66"/>
+      <c r="M213" s="49"/>
       <c r="N213" s="7"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
         <v>19</v>
       </c>
@@ -8328,7 +8331,7 @@
       <c r="C214" s="50"/>
       <c r="D214" s="50"/>
       <c r="E214" s="50"/>
-      <c r="F214" s="49"/>
+      <c r="F214" s="58"/>
       <c r="G214" s="50"/>
       <c r="H214" s="50"/>
       <c r="I214" s="11"/>
@@ -8338,10 +8341,10 @@
       <c r="L214" s="7">
         <v>212</v>
       </c>
-      <c r="M214" s="66"/>
+      <c r="M214" s="49"/>
       <c r="N214" s="7"/>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>19</v>
       </c>
@@ -8351,7 +8354,7 @@
       <c r="C215" s="50"/>
       <c r="D215" s="50"/>
       <c r="E215" s="50"/>
-      <c r="F215" s="49"/>
+      <c r="F215" s="58"/>
       <c r="G215" s="50"/>
       <c r="H215" s="50"/>
       <c r="I215" s="11"/>
@@ -8361,10 +8364,10 @@
       <c r="L215" s="7">
         <v>213</v>
       </c>
-      <c r="M215" s="66"/>
+      <c r="M215" s="49"/>
       <c r="N215" s="7"/>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
         <v>19</v>
       </c>
@@ -8374,7 +8377,7 @@
       <c r="C216" s="50"/>
       <c r="D216" s="50"/>
       <c r="E216" s="50"/>
-      <c r="F216" s="49"/>
+      <c r="F216" s="58"/>
       <c r="G216" s="50"/>
       <c r="H216" s="50"/>
       <c r="I216" s="11"/>
@@ -8384,10 +8387,10 @@
       <c r="L216" s="7">
         <v>214</v>
       </c>
-      <c r="M216" s="66"/>
+      <c r="M216" s="49"/>
       <c r="N216" s="7"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
         <v>19</v>
       </c>
@@ -8397,7 +8400,7 @@
       <c r="C217" s="50"/>
       <c r="D217" s="50"/>
       <c r="E217" s="50"/>
-      <c r="F217" s="49"/>
+      <c r="F217" s="58"/>
       <c r="G217" s="50"/>
       <c r="H217" s="50"/>
       <c r="I217" s="11"/>
@@ -8407,10 +8410,10 @@
       <c r="L217" s="7">
         <v>215</v>
       </c>
-      <c r="M217" s="66"/>
+      <c r="M217" s="49"/>
       <c r="N217" s="7"/>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
         <v>19</v>
       </c>
@@ -8420,7 +8423,7 @@
       <c r="C218" s="50"/>
       <c r="D218" s="50"/>
       <c r="E218" s="50"/>
-      <c r="F218" s="49"/>
+      <c r="F218" s="58"/>
       <c r="G218" s="50"/>
       <c r="H218" s="50"/>
       <c r="I218" s="11"/>
@@ -8430,10 +8433,10 @@
       <c r="L218" s="7">
         <v>216</v>
       </c>
-      <c r="M218" s="66"/>
+      <c r="M218" s="49"/>
       <c r="N218" s="7"/>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
         <v>19</v>
       </c>
@@ -8443,7 +8446,7 @@
       <c r="C219" s="50"/>
       <c r="D219" s="50"/>
       <c r="E219" s="50"/>
-      <c r="F219" s="49"/>
+      <c r="F219" s="58"/>
       <c r="G219" s="50"/>
       <c r="H219" s="50"/>
       <c r="I219" s="11"/>
@@ -8453,10 +8456,10 @@
       <c r="L219" s="7">
         <v>217</v>
       </c>
-      <c r="M219" s="66"/>
+      <c r="M219" s="49"/>
       <c r="N219" s="7"/>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
         <v>19</v>
       </c>
@@ -8466,7 +8469,7 @@
       <c r="C220" s="50"/>
       <c r="D220" s="50"/>
       <c r="E220" s="50"/>
-      <c r="F220" s="49"/>
+      <c r="F220" s="58"/>
       <c r="G220" s="50"/>
       <c r="H220" s="50"/>
       <c r="I220" s="11"/>
@@ -8476,10 +8479,10 @@
       <c r="L220" s="7">
         <v>218</v>
       </c>
-      <c r="M220" s="66"/>
+      <c r="M220" s="49"/>
       <c r="N220" s="7"/>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
         <v>19</v>
       </c>
@@ -8489,7 +8492,7 @@
       <c r="C221" s="50"/>
       <c r="D221" s="50"/>
       <c r="E221" s="50"/>
-      <c r="F221" s="49"/>
+      <c r="F221" s="58"/>
       <c r="G221" s="50"/>
       <c r="H221" s="50"/>
       <c r="I221" s="11"/>
@@ -8499,10 +8502,10 @@
       <c r="L221" s="7">
         <v>219</v>
       </c>
-      <c r="M221" s="66"/>
+      <c r="M221" s="49"/>
       <c r="N221" s="7"/>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
         <v>19</v>
       </c>
@@ -8512,7 +8515,7 @@
       <c r="C222" s="50"/>
       <c r="D222" s="50"/>
       <c r="E222" s="50"/>
-      <c r="F222" s="49"/>
+      <c r="F222" s="58"/>
       <c r="G222" s="50"/>
       <c r="H222" s="50"/>
       <c r="I222" s="11"/>
@@ -8522,10 +8525,10 @@
       <c r="L222" s="7">
         <v>220</v>
       </c>
-      <c r="M222" s="66"/>
+      <c r="M222" s="49"/>
       <c r="N222" s="7"/>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
         <v>19</v>
       </c>
@@ -8535,7 +8538,7 @@
       <c r="C223" s="50"/>
       <c r="D223" s="50"/>
       <c r="E223" s="50"/>
-      <c r="F223" s="49"/>
+      <c r="F223" s="58"/>
       <c r="G223" s="50"/>
       <c r="H223" s="50"/>
       <c r="I223" s="11"/>
@@ -8545,10 +8548,10 @@
       <c r="L223" s="7">
         <v>221</v>
       </c>
-      <c r="M223" s="66"/>
+      <c r="M223" s="49"/>
       <c r="N223" s="7"/>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
         <v>19</v>
       </c>
@@ -8558,7 +8561,7 @@
       <c r="C224" s="50"/>
       <c r="D224" s="50"/>
       <c r="E224" s="50"/>
-      <c r="F224" s="49"/>
+      <c r="F224" s="58"/>
       <c r="G224" s="50"/>
       <c r="H224" s="50"/>
       <c r="I224" s="11"/>
@@ -8568,7 +8571,7 @@
       <c r="L224" s="7">
         <v>222</v>
       </c>
-      <c r="M224" s="66"/>
+      <c r="M224" s="49"/>
       <c r="N224" s="7"/>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
@@ -8581,7 +8584,7 @@
       <c r="C225" s="50"/>
       <c r="D225" s="50"/>
       <c r="E225" s="50"/>
-      <c r="F225" s="49"/>
+      <c r="F225" s="58"/>
       <c r="G225" s="50"/>
       <c r="H225" s="50"/>
       <c r="I225" s="11"/>
@@ -8591,7 +8594,7 @@
       <c r="L225" s="7">
         <v>223</v>
       </c>
-      <c r="M225" s="66"/>
+      <c r="M225" s="49"/>
       <c r="N225" s="7"/>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
@@ -8601,7 +8604,7 @@
       <c r="B226" s="10">
         <v>224</v>
       </c>
-      <c r="C226" s="60"/>
+      <c r="C226" s="57"/>
       <c r="D226" s="50"/>
       <c r="E226" s="50"/>
       <c r="F226" s="50"/>
@@ -8614,7 +8617,7 @@
       <c r="L226" s="7">
         <v>224</v>
       </c>
-      <c r="M226" s="66"/>
+      <c r="M226" s="49"/>
       <c r="N226" s="7"/>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
@@ -8624,7 +8627,7 @@
       <c r="B227" s="10">
         <v>225</v>
       </c>
-      <c r="C227" s="60"/>
+      <c r="C227" s="57"/>
       <c r="D227" s="50"/>
       <c r="E227" s="50"/>
       <c r="F227" s="50"/>
@@ -8637,7 +8640,7 @@
       <c r="L227" s="7">
         <v>225</v>
       </c>
-      <c r="M227" s="66"/>
+      <c r="M227" s="49"/>
       <c r="N227" s="7"/>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
@@ -8647,7 +8650,7 @@
       <c r="B228" s="10">
         <v>226</v>
       </c>
-      <c r="C228" s="60"/>
+      <c r="C228" s="57"/>
       <c r="D228" s="50"/>
       <c r="E228" s="50"/>
       <c r="F228" s="50"/>
@@ -8660,7 +8663,7 @@
       <c r="L228" s="7">
         <v>226</v>
       </c>
-      <c r="M228" s="66"/>
+      <c r="M228" s="49"/>
       <c r="N228" s="7"/>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
@@ -8670,7 +8673,7 @@
       <c r="B229" s="10">
         <v>227</v>
       </c>
-      <c r="C229" s="60"/>
+      <c r="C229" s="57"/>
       <c r="D229" s="50"/>
       <c r="E229" s="50"/>
       <c r="F229" s="50"/>
@@ -8683,7 +8686,7 @@
       <c r="L229" s="7">
         <v>227</v>
       </c>
-      <c r="M229" s="66"/>
+      <c r="M229" s="49"/>
       <c r="N229" s="7"/>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
@@ -8693,7 +8696,7 @@
       <c r="B230" s="10">
         <v>228</v>
       </c>
-      <c r="C230" s="60"/>
+      <c r="C230" s="57"/>
       <c r="D230" s="50"/>
       <c r="E230" s="50"/>
       <c r="F230" s="50"/>
@@ -8706,7 +8709,7 @@
       <c r="L230" s="7">
         <v>228</v>
       </c>
-      <c r="M230" s="66"/>
+      <c r="M230" s="49"/>
       <c r="N230" s="7"/>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
@@ -8716,7 +8719,7 @@
       <c r="B231" s="10">
         <v>229</v>
       </c>
-      <c r="C231" s="60"/>
+      <c r="C231" s="57"/>
       <c r="D231" s="50"/>
       <c r="E231" s="50"/>
       <c r="F231" s="50"/>
@@ -8729,7 +8732,7 @@
       <c r="L231" s="7">
         <v>229</v>
       </c>
-      <c r="M231" s="66"/>
+      <c r="M231" s="49"/>
       <c r="N231" s="7"/>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
@@ -8739,7 +8742,7 @@
       <c r="B232" s="10">
         <v>230</v>
       </c>
-      <c r="C232" s="60"/>
+      <c r="C232" s="57"/>
       <c r="D232" s="50"/>
       <c r="E232" s="50"/>
       <c r="F232" s="50"/>
@@ -8752,7 +8755,7 @@
       <c r="L232" s="7">
         <v>230</v>
       </c>
-      <c r="M232" s="66"/>
+      <c r="M232" s="49"/>
       <c r="N232" s="7"/>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
@@ -8762,7 +8765,7 @@
       <c r="B233" s="10">
         <v>231</v>
       </c>
-      <c r="C233" s="60"/>
+      <c r="C233" s="57"/>
       <c r="D233" s="50"/>
       <c r="E233" s="50"/>
       <c r="F233" s="50"/>
@@ -8775,7 +8778,7 @@
       <c r="L233" s="7">
         <v>231</v>
       </c>
-      <c r="M233" s="66"/>
+      <c r="M233" s="49"/>
       <c r="N233" s="7"/>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
@@ -8785,7 +8788,7 @@
       <c r="B234" s="10">
         <v>232</v>
       </c>
-      <c r="C234" s="60"/>
+      <c r="C234" s="57"/>
       <c r="D234" s="50"/>
       <c r="E234" s="50"/>
       <c r="F234" s="50"/>
@@ -8798,7 +8801,7 @@
       <c r="L234" s="7">
         <v>232</v>
       </c>
-      <c r="M234" s="66"/>
+      <c r="M234" s="49"/>
       <c r="N234" s="7"/>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
@@ -8808,7 +8811,7 @@
       <c r="B235" s="10">
         <v>233</v>
       </c>
-      <c r="C235" s="60"/>
+      <c r="C235" s="57"/>
       <c r="D235" s="50"/>
       <c r="E235" s="50"/>
       <c r="F235" s="50"/>
@@ -8821,7 +8824,7 @@
       <c r="L235" s="7">
         <v>233</v>
       </c>
-      <c r="M235" s="66"/>
+      <c r="M235" s="49"/>
       <c r="N235" s="7"/>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
@@ -8831,7 +8834,7 @@
       <c r="B236" s="10">
         <v>234</v>
       </c>
-      <c r="C236" s="60"/>
+      <c r="C236" s="57"/>
       <c r="D236" s="50"/>
       <c r="E236" s="50"/>
       <c r="F236" s="50"/>
@@ -8844,7 +8847,7 @@
       <c r="L236" s="7">
         <v>234</v>
       </c>
-      <c r="M236" s="66"/>
+      <c r="M236" s="49"/>
       <c r="N236" s="7"/>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
@@ -8854,7 +8857,7 @@
       <c r="B237" s="10">
         <v>235</v>
       </c>
-      <c r="C237" s="60"/>
+      <c r="C237" s="57"/>
       <c r="D237" s="50"/>
       <c r="E237" s="50"/>
       <c r="F237" s="50"/>
@@ -8867,7 +8870,7 @@
       <c r="L237" s="7">
         <v>235</v>
       </c>
-      <c r="M237" s="66"/>
+      <c r="M237" s="49"/>
       <c r="N237" s="7"/>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
@@ -8877,7 +8880,7 @@
       <c r="B238" s="10">
         <v>236</v>
       </c>
-      <c r="C238" s="60"/>
+      <c r="C238" s="57"/>
       <c r="D238" s="50"/>
       <c r="E238" s="50"/>
       <c r="F238" s="50"/>
@@ -8890,7 +8893,7 @@
       <c r="L238" s="7">
         <v>236</v>
       </c>
-      <c r="M238" s="66"/>
+      <c r="M238" s="49"/>
       <c r="N238" s="7"/>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
@@ -8900,7 +8903,7 @@
       <c r="B239" s="10">
         <v>237</v>
       </c>
-      <c r="C239" s="60"/>
+      <c r="C239" s="57"/>
       <c r="D239" s="50"/>
       <c r="E239" s="50"/>
       <c r="F239" s="50"/>
@@ -8913,7 +8916,7 @@
       <c r="L239" s="7">
         <v>237</v>
       </c>
-      <c r="M239" s="66"/>
+      <c r="M239" s="49"/>
       <c r="N239" s="7"/>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
@@ -8923,7 +8926,7 @@
       <c r="B240" s="10">
         <v>238</v>
       </c>
-      <c r="C240" s="60"/>
+      <c r="C240" s="57"/>
       <c r="D240" s="50"/>
       <c r="E240" s="50"/>
       <c r="F240" s="50"/>
@@ -8936,7 +8939,7 @@
       <c r="L240" s="7">
         <v>238</v>
       </c>
-      <c r="M240" s="66"/>
+      <c r="M240" s="49"/>
       <c r="N240" s="7"/>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
@@ -8946,7 +8949,7 @@
       <c r="B241" s="10">
         <v>239</v>
       </c>
-      <c r="C241" s="60"/>
+      <c r="C241" s="57"/>
       <c r="D241" s="50"/>
       <c r="E241" s="50"/>
       <c r="F241" s="50"/>
@@ -8959,7 +8962,7 @@
       <c r="L241" s="7">
         <v>239</v>
       </c>
-      <c r="M241" s="66"/>
+      <c r="M241" s="49"/>
       <c r="N241" s="7"/>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
@@ -8982,7 +8985,7 @@
       <c r="L242" s="7">
         <v>240</v>
       </c>
-      <c r="M242" s="66"/>
+      <c r="M242" s="49"/>
       <c r="N242" s="7"/>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
@@ -9005,7 +9008,7 @@
       <c r="L243" s="7">
         <v>241</v>
       </c>
-      <c r="M243" s="66"/>
+      <c r="M243" s="49"/>
       <c r="N243" s="7"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
@@ -9028,7 +9031,7 @@
       <c r="L244" s="7">
         <v>242</v>
       </c>
-      <c r="M244" s="66"/>
+      <c r="M244" s="49"/>
       <c r="N244" s="7"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
@@ -9051,7 +9054,7 @@
       <c r="L245" s="7">
         <v>243</v>
       </c>
-      <c r="M245" s="66"/>
+      <c r="M245" s="49"/>
       <c r="N245" s="7"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
@@ -9074,7 +9077,7 @@
       <c r="L246" s="7">
         <v>244</v>
       </c>
-      <c r="M246" s="66"/>
+      <c r="M246" s="49"/>
       <c r="N246" s="7"/>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
@@ -9097,7 +9100,7 @@
       <c r="L247" s="7">
         <v>245</v>
       </c>
-      <c r="M247" s="66"/>
+      <c r="M247" s="49"/>
       <c r="N247" s="7"/>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
@@ -9120,7 +9123,7 @@
       <c r="L248" s="7">
         <v>246</v>
       </c>
-      <c r="M248" s="66"/>
+      <c r="M248" s="49"/>
       <c r="N248" s="7"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
@@ -9143,7 +9146,7 @@
       <c r="L249" s="7">
         <v>247</v>
       </c>
-      <c r="M249" s="66"/>
+      <c r="M249" s="49"/>
       <c r="N249" s="7"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
@@ -9166,7 +9169,7 @@
       <c r="L250" s="7">
         <v>248</v>
       </c>
-      <c r="M250" s="66"/>
+      <c r="M250" s="49"/>
       <c r="N250" s="7"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
@@ -9189,7 +9192,7 @@
       <c r="L251" s="7">
         <v>249</v>
       </c>
-      <c r="M251" s="66"/>
+      <c r="M251" s="49"/>
       <c r="N251" s="7"/>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
@@ -9212,7 +9215,7 @@
       <c r="L252" s="7">
         <v>250</v>
       </c>
-      <c r="M252" s="66"/>
+      <c r="M252" s="49"/>
       <c r="N252" s="7"/>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
@@ -9235,7 +9238,7 @@
       <c r="L253" s="7">
         <v>251</v>
       </c>
-      <c r="M253" s="66"/>
+      <c r="M253" s="49"/>
       <c r="N253" s="7"/>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
@@ -9258,7 +9261,7 @@
       <c r="L254" s="7">
         <v>252</v>
       </c>
-      <c r="M254" s="66"/>
+      <c r="M254" s="49"/>
       <c r="N254" s="7"/>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
@@ -9281,7 +9284,7 @@
       <c r="L255" s="7">
         <v>253</v>
       </c>
-      <c r="M255" s="66"/>
+      <c r="M255" s="49"/>
       <c r="N255" s="7"/>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
@@ -9304,7 +9307,7 @@
       <c r="L256" s="7">
         <v>254</v>
       </c>
-      <c r="M256" s="66"/>
+      <c r="M256" s="49"/>
       <c r="N256" s="7" t="s">
         <v>20</v>
       </c>
@@ -9329,13 +9332,116 @@
       <c r="L257" s="7">
         <v>255</v>
       </c>
-      <c r="M257" s="66"/>
+      <c r="M257" s="49"/>
       <c r="N257" s="7" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="F194:F225"/>
+    <mergeCell ref="G194:G257"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="C202:C205"/>
+    <mergeCell ref="D202:D209"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="C210:C213"/>
+    <mergeCell ref="D210:D217"/>
+    <mergeCell ref="E210:E225"/>
+    <mergeCell ref="C214:C217"/>
+    <mergeCell ref="D250:D257"/>
+    <mergeCell ref="C254:C257"/>
+    <mergeCell ref="F226:F257"/>
+    <mergeCell ref="C230:C233"/>
+    <mergeCell ref="C234:C237"/>
+    <mergeCell ref="D234:D241"/>
+    <mergeCell ref="C238:C241"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="D242:D249"/>
+    <mergeCell ref="E242:E257"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="C250:C253"/>
+    <mergeCell ref="E194:E209"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="E162:E177"/>
+    <mergeCell ref="C218:C221"/>
+    <mergeCell ref="D218:D225"/>
+    <mergeCell ref="C222:C225"/>
+    <mergeCell ref="C226:C229"/>
+    <mergeCell ref="D226:D233"/>
+    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="F162:F193"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="D170:D177"/>
+    <mergeCell ref="C174:C177"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="D178:D185"/>
+    <mergeCell ref="G130:G193"/>
+    <mergeCell ref="H130:H257"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D145"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D153"/>
+    <mergeCell ref="E146:E161"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="E178:E193"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="D186:D193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C194:C197"/>
+    <mergeCell ref="D194:D201"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="E130:E145"/>
+    <mergeCell ref="F130:F161"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="F98:F129"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="E114:E129"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D105"/>
+    <mergeCell ref="E98:E113"/>
+    <mergeCell ref="F66:F97"/>
+    <mergeCell ref="G66:G129"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="E82:E97"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D122:D129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="E50:E65"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="E66:E81"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D41"/>
+    <mergeCell ref="E34:E49"/>
     <mergeCell ref="M2:M257"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D9"/>
@@ -9360,109 +9466,6 @@
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="D26:D33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="E50:E65"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="E66:E81"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="E34:E49"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D105"/>
-    <mergeCell ref="E98:E113"/>
-    <mergeCell ref="F66:F97"/>
-    <mergeCell ref="G66:G129"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="E82:E97"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D122:D129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="E130:E145"/>
-    <mergeCell ref="F130:F161"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="F98:F129"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="E114:E129"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="F162:F193"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="D170:D177"/>
-    <mergeCell ref="C174:C177"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="D178:D185"/>
-    <mergeCell ref="G130:G193"/>
-    <mergeCell ref="H130:H257"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D145"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D153"/>
-    <mergeCell ref="E146:E161"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="E178:E193"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="D186:D193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C194:C197"/>
-    <mergeCell ref="D194:D201"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="E162:E177"/>
-    <mergeCell ref="C218:C221"/>
-    <mergeCell ref="D218:D225"/>
-    <mergeCell ref="C222:C225"/>
-    <mergeCell ref="C226:C229"/>
-    <mergeCell ref="D226:D233"/>
-    <mergeCell ref="E226:E241"/>
-    <mergeCell ref="F194:F225"/>
-    <mergeCell ref="G194:G257"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="C202:C205"/>
-    <mergeCell ref="D202:D209"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="C210:C213"/>
-    <mergeCell ref="D210:D217"/>
-    <mergeCell ref="E210:E225"/>
-    <mergeCell ref="C214:C217"/>
-    <mergeCell ref="D250:D257"/>
-    <mergeCell ref="C254:C257"/>
-    <mergeCell ref="F226:F257"/>
-    <mergeCell ref="C230:C233"/>
-    <mergeCell ref="C234:C237"/>
-    <mergeCell ref="D234:D241"/>
-    <mergeCell ref="C238:C241"/>
-    <mergeCell ref="C242:C245"/>
-    <mergeCell ref="D242:D249"/>
-    <mergeCell ref="E242:E257"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="C250:C253"/>
-    <mergeCell ref="E194:E209"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
